--- a/data_processed.xlsx
+++ b/data_processed.xlsx
@@ -28,2071 +28,2071 @@
     <t>Target</t>
   </si>
   <si>
+    <t>abc xyz your ref : tst12345678 our ref : 12345678 dear sirs we act for mrs abc xyz of 10 test road test street aa12 123 and attach certified copy lasting power of attorney for property and financial affairs if you require any further information please do not hesitate to contact our office yours sincerely abc xyz fin corp ltd 10 test road test street aa12 123 tel : + 91 012345678 fax : + 91 012345678</t>
+  </si>
+  <si>
+    <t>hello can i ask for final guaranteed transfer value please thank you abc xyz 10 test road test street aa12 123 zz123123z clock number 12345</t>
+  </si>
+  <si>
+    <t>additional information confirmed hi my name is : - abc j xyz dob 2 01 1800 ni no : zz123123z 10 test road test street aa12 123 i am currently in receipt of a pension since 2013 sss pension service waterup home 00 luke road waterup londonberry aa11 1aa ref no - 000000 tax district reference 000 a10000 the question i was asked - what was my life - time allowance i can now confirm that this was 16 9 i hope this information will result in a speedy payment of my pension kind regards abc sent from my ipad</t>
+  </si>
+  <si>
+    <t>pension retirement pack abc xyz nino - zz123123z dob - 01 01 1400 retirement date - 01 01 1400 could you please issue a retirement quotation to the above member including a transfer value kind regards abc xyz pensions manager direct : + 91 012345678 mobile : + 91 012345678 hi abc xyz i was informed by one of my colleagues that i can request a pension pack quote as i am considering retiring next year also as i am part of the test pensions scheme can i get a opt out figure if i retire next april just in case you try to call me at fin corp i have been seconded out for 6 months by fin corp onto a training exercise around region 1 and i am in oban this week many thanks abc abc xyz area manager 10 test road + 91 012345678</t>
+  </si>
+  <si>
+    <t>re : estate of - test pension ref : tst12345678 tees : 00123456789000 dear test pensions thank you for your email however i am confused test s letter of 28th september has been received and my letter sent by email on 5th october acknowledged this my letter of 5th october 2020 also provided the bank account details for mr lmno spouse of the deceased as requested in the letter from test please confirm that the funeral benefit is now being processed and will be sent to mr lmno shortly please also let me have details of your complaints procedure as this is now completely unacceptable i look forward to hearing from you yours sincerely test ifa from : test pensions pensions com sent : 08 october 2020 07 : 10 to : test ifa fincorp com subject : estate of - test pension ref : tst12345678 tees : 00123456789000 dear test ifa test pension fund thank you for your email regarding the test pension fund i have checked our records and can confirm that the correspondence was issued to you on 28 september 2020 however i have attached correspondence for your reference if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com&lt;mailto : test pensions pensions com yours sincerely test pensions from : test ifa fincorp com sent : 05 october 2020 22 : 23 to : test pensions pensions com subject : estate of - test pension ref : tst12345678 tees : 00123456789000 importance : high dear sirs please find attached our letter to you of today s date we look forward to receiving confirmation of the payment to mr lmno shortly yours faithfully test ifa</t>
+  </si>
+  <si>
+    <t>test pension plan - mr xyz mr xyz 10 test road test street aa12 123 zz123123z thanks test ifa from : test pensions pensions com sent : 11 november 2020 06 : 27 to : test ifa fincorp com subject : test pension plan - mr xyz dear test ifa test pension plan thank you for your email regarding the test pension plan to enable us to answer your enquiry please could you provide member s full address date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com&lt;mailto : test pensions pensions com yours sincerely test pensions from : test ifa fincorp com sent : 06 november 2020 11 : 59 to : test pensions pensions com subject : test pension plan - mr xyz good afternoon i am emailing in regards to the above member we have recently submitted a paper based transfer for the below policy number : - tst12345678 would it be possible to confirm receipt of our request and confirm whether anything further is required to proceed test ifa</t>
+  </si>
+  <si>
+    <t>re : test pension fund dear abc xyz please find enclosed the information you requested nat ins no zz123123z 10 test road test street aa12 123 d o b 01 01 1400 yours sincerely abc xyz sent from my iphone on 20 nov 2020 at 15 : 30 testfund fincorp com &lt;mailto : testfund fincorp com wrote : dear abc xyz test pension fund thank you for your email regarding the test pension fund please accept our apologies for the delay in responding to you to enable us to answer your enquiry please could you provide your full address date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at testfund fincorp com &lt;mailto : testfund fincorp com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 www fincorp com &lt;http : www fincorp com - - - - - original message - - - - - from : abc xyz abc xyz testmail com sent : 13 november 2020 11 : 17 to : test pension fund cc : test ifa subject : car fin no zz123123z please be advised that no car payment has been taken out in november abc xyz sent from my ipad</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> urgent re : defg - zz123123z - 01 01 1400 importance : high good morning i m concerned that i am yet to have a response to my below request please provide the answers to our queries urgently and by email if possible kind regards test ifa from : test ifa fincorp com sent : 06 october 2020 17 : 26 to : test pensions pensions com subject : urgent re : defg - zz123123z - 01 01 1400 importance : high good afternoon please find attached a letter of authority duly signed by our mutual client which should enable you to release information for this policy therefore please kindly provide me with the following information in writing; dates salary date of joining and leaving the scheme member s final pensionable salary has the gmp been equalised are partial transfers allowed i e can the gmp remain and post 97 rights be transferred funding statement if relevant is late retirement allowed if so to what age and late retirement factors please pension benefits at date of leaving scheme gmp benefits; showing any pre post 88 splits the rates of revaluation in deferment and escalation in payment excess benefits; showing any pre post 85 or 97 splits the rates of revaluation in deferment and escalation in payment list of any discretionary increases applied to pension either in deferment payment during last 5yrs breakdown of any transferred - in benefits; are the benefits treated the same as the main scheme benefits if not please highlight any differences is there a fixed pension at nra of service credit if no gmp contained does the member have any avcs if so how what is the current value do they have to be transferred with the main scheme benefits what funds are they invested in can the member switch into different funds early retirement is early retirement allowed if so from which age what actuarial reduction factors are currently applied to members pensions in the event of early retirement if a table of factors is not available please provide the percentage reduction applicable for each year early and whether this is compound or simple reduction would the member benefits be revalued to the date of actual or normal retirement upon early retirement if revalued to normal retirement at what assumed rate are benefits projected to normal retirement benefit payable now on a full pension basis and maximum pension commencement lump sum with reduced pension basis tax free cash member tfc at date of leaving would this amount revalue if so at what rate does the scheme pay hmrc post a - day maximum cash amount of pre a - day ir maximum cash at 5 4 2006 if protected what are the scheme current tfc commutation factors from nra to age 55 death benefits does the scheme pay a death before retirement lump sum if so what and how much what pension would the member spouse receive upon death before and after retirement what death after retirement guarantee does the scheme apply contracting out was the scheme contracted out pre post 06 04 1997 if yes for post 97 on what basis; reference scheme protected rights underpin mixed benefit transfer value total transfer value cetv ; showing any splits of gmp protected rights pre post 06 04 1997 calculation and guarantee dates also amount of member contributions included in the tv scheme information scheme s normal retirement age is the scheme open to all employees or are there restrictions if so what are they what is the scheme s current funding position would deferred members benefits be affected in any way if so how is the scheme a member of the transfer club will the scheme allow a partial transfer of benefits if yes please outline any restrictions that would be applied and or provide details of the basis on which a partial transfer would be allowed if no please confirm if there is more than one type section version of scheme membership which one applies to the member is the plan subject to an earmarking or attachment order what date was the scheme equalised and the earliest age benefits can be taken unreduced if the transfer were to proceed would the scheme be insistent that all forms must be returned within the guarantee period or could some discretion be used at that time please forward copies of any warranty discharge forms that would need to be completed if the client decided to transfer their benefits thank you for your assistance in this matter kind regards test ifa</t>
+  </si>
+  <si>
+    <t>change of address and bank details as per my telecom with efg today i am forwarding my original email which i sent to the wrong address efg has very kindly updated the system with our new address below but was unable to update our bank details kindly update our bank account details as per below thanking you abc and xyz begin forwarded message : from : abc xyz testmail com date : 11 november 2020 at 15 : 02 : 16 to : test pensions pensions com subject : change of address and bank details re : abc pension ref tst12345678 - ni no zz123123z and xyz pension refs tst12312678 - ni no zz120023z please be advised that we have relocated permanently from xx to the xx recently we would like to inform you to change our address and bank account details as follows : old address : 10 test road test street aa12 123 to new address wef 30 10 2020 : 02 test road test street ee12 123 from old bank account details : xx account hijk joint account 11223344556 tuvw - 0000 0000 0000 0000 0000 0000 000 fgh stuvwx0bank to new bank account details : xx account pqrs joint account in the name of mrs abc mr xyz sort code 00 - 00 - 00 account no 12345678 tuvw - 0000 0000 0000 0000 0000 0000 000 fgh stuvwx0bank there are 3 separate pensions in total - 2 in the name of xyz and 1 in the name of mrs abc thank you sincerely abc and xyz tel : + 91 012345678</t>
+  </si>
+  <si>
+    <t>burger fries fin : 100000 retirement quote importance : high please can i request a ser quote for the above employee due to separate from the company on 1st january 1400 many thanks kind regards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">urgent information request our id : 123456 good morning client name abc xyz client national insurance number zz123123z we recently requested a cetv pack for the above client please can you confirm receipt of our request and confirm when the cetv pack will be issued if it has already been issued please can you provide a copy by email to test pensions pensions com &lt;mailto : test pensions pensions com thank you abc xyz </t>
+  </si>
+  <si>
+    <t>re : mr abcd - test pension scheme for senior staff - case ref : tst12345678 hi test pensions thank you for the below email we have been waiting for a long time and tend to have these issues with the ford scheme a lot when requesting information for different clients on top of having to sit on hold for over 30 minutes every time we call and keep getting told different things you mentioned below the cetv pack has been sent out via email earlier today can you please confirm as i have not received this on my email thanks abcd from : test pensions pensions com date : wednesday 18 november 2020 at 23 : 44 to : abc xyz testmail com subject : mr abcd - test pension scheme for senior staff - case ref : tst12345678 dear abcd further to your telephone call on 12 november 2020 and subsequent calls on 17 and 18 november 2020 please accept my sincere apologies for the delay in providing the revised transfer value for mr abcd we do pride ourselves on the quality of service that we deliver to our corporate clients trustees and most importantly individual members we receive relatively few complaints and do take any very seriously we are sorry about your dissatisfaction you have had to wait so long for the information you requested i can advise that an email has been issued earlier today providing the transfer information on behalf of myself and the team at test we would like to extend our apologies for any inconvenience caused and trust that you will be reassured that we do seek to minimise the number of occasions on which matters such as this arise should you have any further queries or cause for concern please do not hesitate to contact us on the number quoted below your sincerely test pensions</t>
+  </si>
+  <si>
+    <t>transfer request mr xyzz 100 your ref : tst12345678 test : confidential good afternoon please find attached our transfer request as our mutual client wishes to transfer their funds to test for an annuity please let us know if anything further is required many thanks test annuity</t>
+  </si>
+  <si>
+    <t>pension query hi team please see below query and reply accordingly many thanks test pensions from : abc xyz testmail com sent : 18 november 2020 09 : 02 to : test pensions pensions com subject : re : pension query abc xyz dob : 01 01 1400 ni : zz123123z thanks regards abc from : test pensions pensions com sent : 18 november 2020 04 : 02 to : abc xyz testmail com subject : pension query dear abc thank you for your email to enable us to answer your enquiry please could you provide your date of birth and national insurance number and full address for data verification purposes should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 13 november 2020 14 : 44 to : test pensions pensions com subject : pension check hi just checking on the pension i started with you back in the 80 s when i worked for def could you please send me some information on its value thanks regards abc</t>
+  </si>
+  <si>
+    <t>change of details good morning i would like to notify of my change of name and address previous brown nocolour of 00 clarant ride teakwood road bb00 0bb now brown colour 0 greenland road penselvansey bay east sunset bn11 1bb regards brown colour sent from my ipad</t>
+  </si>
+  <si>
+    <t>re : test retirement and death benefits plan - mr abcd good morning i am following up again on the outstanding queries for this member would you please respond as soon as possible thank you test ifa from : test pensions pensions com&lt;mailto : test pensions pensions com sent : 03 november 2020 12 : 04 to : test ifa fincorp com subject : test retirement and death benefits plan - mr abcd dear test ifa test retirement and death benefits plan thank you for your email regarding the test retirement and death benefits plan please accept our sincerest apologies for the delay we will review the current position of your case and ensure that it is dealt with promptly if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com&lt;mailto : test pensions pensions com yours sincerely test pensions from : test ifa fincorp com sent : 30 october 2020 15 : 39 to : test pensions pensions com subject : fw : test retirement and death benefits plan - mr abcd good morning i am just following up on the outstanding queries below please let me know as soon as possible if you require any additional information thank you test ifa from : test pensions pensions com sent : 09 october 2020 13 : 21 to : test ifa fincorp com subject : test retirement and death benefits plan - mr abcd dear test ifa test retirement and death benefits plan thank you for your email regarding the test retirement and death benefits plan your request has been logged and you will receive a written response from our administration department within 10 - 15 working days if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : test ifa fincorp com sent : 07 october 2020 17 : 11 to : test pensions pensions com subject : test retirement and death benefits plan - mr abcd good afternoon please find attached the loa for this member the member s national insurance no will open the document thank you test ifa from : test pensions pensions com sent : 02 october 2020 12 : 34 to : test ifa fincorp com subject : test retirement and death benefits plan - mr abcd dear test ifa test retirement and death benefits plan thank you for your email regarding the test retirement and death benefits plan i can confirm that i have checked our records and we do not hold a valid letter of authority on file allowing us to release information to yourself in order for us to provide any information could you please arrange for the letter of authority to be sent via email which will allow us to process your request please note that the letter of authority must be signed by the member within the last 12 months and confirm the full ifa company name and address if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : test ifa fincorp com sent : 30 september 2020 16 : 01 to : test pensions pensions com subject : test retirement and death benefits plan - mr abcd good morning please find attached the additional member details you require the password is the member s national insurance number as supplied in my previous email thank you test ifa from : test ifa fincorp com sent : 30 september 2020 11 : 29 to : test pensions pensions com subject : test retirement and death benefits plan - mr abcd good morning we are currently working on producing a test for the above member as part of our advice process please can you respond to the following query from ctc to enable us to complete the report 1 please confirm that the pension amounts shown in columns r onwards are at date of leaving 24 2 99 if not please advise the members national insurance no xxxxxxxxx additional member information you require to follow in a password protected document thank you test ifa</t>
+  </si>
+  <si>
+    <t>pension number 123456 hi could you please let me have a cetv quotation and also a statement of my deferred benefits both from the pension plan and for my avc also could you please post me the necessary forms required should i decide to request a cetv transfer to my test pension regards mr abc xyz 10 test road test street aa12 123 pension no : 123456 nino : zz123123z d o b : 01 01 1400</t>
+  </si>
+  <si>
+    <t>abc xyz hello dob : 01 01 1400 ni : zz123123z please find attached an loa for your records we are reviewing a case for the above named client and would appreciate if you could answer a few points please confirm the transfer value of 192 265 50 takes into account the members pension sharing order please provide the last 5 years of discretionary increases in payment please confirm if the fixed addition tranche revalues in deferment or increases in payment if so is this by rpi or cpi any max 5 or 2 5 please provide a full table of commutation factors specifically for age 65 and 60 please provide an early retirement factor for age 60 please confirm in the event of early retirement if the pension revalues to nrd or actual retirement date please provide the value of the members contributions at date of leaving kind regards test ifa t : + 91 012345678 e : test ifa fincorp com</t>
+  </si>
+  <si>
+    <t>change of address good afternoon my name is abc and i wish to inform you of a change of address in xyz and also request a document stating my pension details for the last two years for my test bank my national insurance number is zz123123z reference number - tst12345678 my new address is - 10 test road test street aa12 123 thank ypu abc</t>
+  </si>
+  <si>
+    <t>change of bank third request with additional information included dear sirs booker pension scheme reference 10000000 you are currently paying my pension into my account no 10000000 with nationalwide i intend to close this account so wish you to make future payments into my account with the holifax my account details with them are : name n addidas sort code 100000 account no 00000001 my address is 10 nashley lawn grandure avenue homee b00 0bb national insurance no zz000000a date of birth 30 10 1800 please confirm you are actioning this request thank you nike addidas</t>
+  </si>
+  <si>
+    <t>re : ford pension fund - late mr abc xyz hi please see information below which had been already provided abc xyz address - 10 test road test street aa12 123 dob - 01 01 1400 national insurance - zz123123z thanks - - - - - original message - - - - - from : test pensions pensions com to : abc xyz testmail com sent : thu nov 19 2020 8 : 18 am subject : test pension fund - late mr abc xyz dear abc xyz test pension fund thank you for your email regarding the test pension fund please accept our apologies for the delay in responding to you to enable us to answer your enquiry please could you provide the member full address date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely abc xyz administrator customer support centre test pensions 10 test road test street aa12 123 direct dial : + 91 012345678 testfund fincorp com &lt;mailto : testfund fincorp com from : abc xyz&lt;abc xyz testmail com sent : 11 november 2020 10 : 35 to : test pensions subject : abc xyz funeral benefit - tst12345678 hi i am writing to you in regards to the funeral benefit payment in reference to my husband abc xyz please see attached the documentation required name - abc xyz relationship - wife national insurance number - fund name - mr abc xyz reference - tst12345678 regards abc xyz</t>
+  </si>
+  <si>
+    <t>fw : urgent : abc xyz - test pension fund our ref : 12345 urgent hi apologies for chasing but our client is very keen for us to acquire this information please can you provide an update on the progress of this information request and an estimated date we can expect a response with the information many thanks in advance please quote our client case number on all your replies 12345 regards abc xyz for and on behalf of fin corp ltd 10 test road test street aa12 123 + 91 012345678 fin corp testmail com from : abc xyz &lt;abc xyz testmail com sent : friday november 20 2020 8 : 18 pm to : test pension fund &lt;testfund fincorp com subject : fw : urgent : abc xyz - test pension fund our ref : 12345 urgent hi please can you provide an update on the progress of this information request and an estimated date we can expect a response with the information many thanks in advance please quote our client case number on all your replies 12345 regards abc xyz for and on behalf of fin corp ltd 10 test road test street aa12 123 + 91 012345678 fin corp testmail com from : abc xyz &lt;abc xyz testmail com sent : friday november 20 2020 8 : 18 pm to : test pension fund &lt;testfund fincorp com subject : urgent : abc xyz - test pension fund our ref : 12345 urgent please quote our client case number 12345 on all your replies hi please find attached pension information projections letter together with our client s signed letter of authority loa please provide us with the requested information as soon as possible by secure email if possible transfer discharge requirements : please enclose your discharge transfer encashment form please confirm what form of id is required from our mutual client please confirm if your funds can be paid directly to fin corp ltd for the client s benefit please confirm if the discharge encashment transfer of this plan is supported under the fin corp options pension transfer service please email : fin corp testmail com &lt;mailto : fin corp testmail com tel : + 91 012345678 regards abc xyz</t>
+  </si>
+  <si>
+    <t>re : member address change zz123123z hi abc i can confirm that this has now been corrected regards test pensions from : testfund fincorp com sent : 19 november 2020 08 : 50 to : test pensions pensions com subject : re : member address change zz123123z good morning please could i escalate this as only half of this address change has been completed - on mr abc s test account it is showing half his old address and half his new address this could be a technical error or something perhaps although mr abc is needing the correct information to be displayed this was initially requested manually by myself on this email trail on 27th october as i believe he may have missed the september cut off for the address feed as he moved in september so that i am able to resolve his query from our end please can this be changed as soon as possible many thanks in advance test fund from : testfund fincorp com sent : 04 november 2020 09 : 37 to : test pensions pensions com subject : fw : member address change zz123123z good morning further to the below request the member has contacted us today to inform only half of his address has been changed and this is therefore still incorrect please can this be looked into and the address changed exactly as the initial request many thanks in advance for your help kind regards test fund from : testfund fincorp com sent : 27 october 2020 11 : 02 to : test pensions pensions com subject : member address change zz123123z good morning mr abc zz123123z moved address in september 2019 although this has not been updated with test please can you change your records to reflect the following address : many thanks in advance for your help kind regards test fund</t>
+  </si>
+  <si>
+    <t>test pension plan - tst12345678 abc thanks you however mr abc has left employment through voluntary redundancy and i need the guaranteed cetv please from : test pensions pensions com sent : 11 november 2020 14 : 42 to : test ifa fincorp com subject : test pension plan - tst12345678 abc dear test ifa thank you for your email regarding the test pension plan please find attached information regarding mr abc this has been encrypted with the member s national insurance number in the format zz123123z kind regards test pensions</t>
+  </si>
+  <si>
+    <t>policy ref : 13245 dear sirs re : policy ref 132456 mrs abc xyz 10 test road test street aa12 123 date of birth 01 01 1400 ni : zz123123z my employment at yorkshire water ceased on 01 01 1400 and i am writing to request early retirement quotation estimation calculations from you for the following options : 01 01 1400 with lump sum and without lump sum options - age 58 01 01 1400 with lump sum and without lump sum options - age 60 i look forward to hearing from you soon yours faithfully mrs abc xyz</t>
+  </si>
+  <si>
+    <t>re : test pension fund hi my dob : 01 01 1400 ni : zz123123z regards on 20 nov 2020 at 15 : 10 test pensions pensions com &lt;mailto : test pensions pensions com wrote : dear abc xyz test pension fund thank you for your email regarding the test pension fund please accept our apologies for the delay in responding to you to enable us to answer your enquiry please could you provide your date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at testfund fincorp com yours sincerely abc xyz administrator customer support centre test pensions 10 test road test street aa12 123 direct dial : + 91 012345678 - - - - - original message - - - - - from : abc xyz&lt;abc xyz testmail com sent : 10 november 2020 09 : 39 to : test pensions subject : change of address hi can i change my address please 10 test road test street aa12 123 regards abc xyz 123456 57</t>
+  </si>
+  <si>
+    <t>re : test pensions query as requested additional information name : abc xyz dob : 01 01 1400 ni : zz123123z i have recently had my pension transferred over to you my member reference is 12345678 i m all my previous correspondence from the previous supplier i had a pension age of 60 for some benefits and 63 for the remainder i note that on your website you show my normal retirement age as 65 please can you clarify why this change has been made thank you abc xyz from : abc xyz testmail com &lt;mailto : abc xyz testmail com date : sunday 22 november 2020 at 12 : 28 to : subject : test pensions query dear sir i have recently had my pension transferred over to you my member reference is 12345678 i m all my previous correspondence from the previous supplier i had a pension age of 60 for some benefits and 63 for the remainder i note that on your website you show my normal retirement age as 65 please can you clarify why this change has been made thank you abc xyz</t>
+  </si>
+  <si>
+    <t>changing my home address good afternoon i have a pension with dixons stores group and need to let you know my new address my old address is 00 avilon road meham swiss ss00 0ss my new address is 11 margrate mojito burgman on sea summerset tt0 0tt name stephen stone man date of birth 31st december 1800 old employee number with dixons 000xxx0 please can you let me know that this as been done and arrange for my pension statement to be sent to me i have two pensions with dixons i know one was transferred to mercer ltd which i have notified separately thank you kind regards stone man sent from mail&lt;https : go microsoft com fwlink linkid = 550986 for windows 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fwd : rbc retirement option form my national insurance number and address are in the attached forms so i have assumed i don t also have to include this in the body of the email please find attached my retirement forms to take retirement in my 60th birthday 01 01 1400 please confirm that my pension is not discounted as i have grandfathered rights i do not wish to take all my tax free cash for the test plan i have indicated the reduced amount on my form please confirm you have picked this up please can you let me know what my amended annual pension will be also please can you confirm when my first pension payment will be made and which date in the month this will be also please can you confirm when i will receive the cash lump sum i will also post the originals many thanks for your help sent from my iphone begin forwarded message : from : abc xyz date : 22 november 2020 at 19 : 35 : 54 gmt to : test pensions subject : rbc retirement option form </t>
+  </si>
+  <si>
+    <t>re : test pension scheme dear abc xyz thank you for your response my address is : 10 test road test street aa12 123 sincerely abc xyz on dec 2 2020 at 3 : 20 am &lt; test pensions pensions com &lt; test pensions pensions com wrote : dear mr abc xyz test pension scheme thank you for your email regarding test pension scheme to enable us to answer your enquiry please could you provide your full address for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 - - - - - original message - - - - - from : abc xyz&lt;abc xyz testmail com sent : 28 november 2020 06 : 39 to : test pensions subject : test pensions hello my pension payroll number is 123456 as a dual uk and usa citizen and resident of the usa i am required to report my pension income on my usa tax return i am contacting you to ask whether you will be able to supply a report of pension paid in the calendar year 2020 on an internal revenue service form 1099 - r if you are not able to supply this form i have to submit a substitute 1099 - r with self - reported income and an explanation of any attempts i have made to obtain a 1099 - r from the payer i did receive a p60 form from you for the uk financial year to 5 april 2020 however that form only reported the taxable periodic payments from when i started receiving the pension on 30 jan 2020 until my 3rd payment on 31 mar 2020 it did not include the non - taxable commencement lump sum that i received in january 2020 i am supposed to report that income on my us income tax return and then claim exemption from tax under the usa - uk tax treaty thank you in advance for your assistance with this matter regards abc xyz</t>
+  </si>
+  <si>
+    <t>request for pensioner id card for lmno importance : high to : test pensions please could you urgently provide lmno with her pensioner id card miss lmno s father sadly passed away on and she is still awaiting from november 2019 mr xyz s fin : tst12345678 a pensioner id card has been issued to her sister abcd but the card for lmno is still outstanding please could you rectify this as a matter of urgency regards test pensions from : testfund fincorp com sent : 11 november 2020 20 : 29 to : test pensions pensions com subject : hi test pensions hope you are well are you able to chase lmno s card which she has never received attached is abcd s one she can contact you direct if you prefer but as she is studying in xxx she has asked if i could do it on her behalf many thanks test fund</t>
+  </si>
+  <si>
+    <t>re : test pensions death approval - mr abc xyz - tst12345678 abc xyz i agree with the recommendation from : test pensions pensions com sent : 16 november 2020 17 : 06 to : test pensions subject : test pensions death approval - mr abc xyz - tst12345678 test pensions mr abc xyz death in retirement please find attached the documentation relating to the above late member who died whilst in receipt of his pension the member was a widower at the date of death this case is being referred to the committee because the member did not leave a nomination form but left a will in favour of his daughter - ms abc xyz mr xyz survived by a long term partner however she has indicated that she was not financially dependant on him it would be our recommendation that lump sum death benefit is paid to his daughter in accordance to his will please would you agree with this recommendation kind regards abc xyz mrs senior administrator test pensions 10 test road test street aa12 123 direct dial : + 91 012345678 fin corp</t>
+  </si>
+  <si>
+    <t>re : test pension scheme - mr abc xyz clients details; name - abc xyz address 10 test road test street aa12 123 dob 01 january 1400 nino zz123123z our reference tst12345678 good morning please see the below email from my colleague this states the directions needed to obtain a hmrc portal print out dated within the last three months please can you advise us of a timescale in which we are likely to receive this outstanding paperwork we are unable to match the monies for the client until we have received this from yourself kind regards test ifa from : test pensions pensions com sent : 29 october 2020 07 : 46 to : test transfers pensions com subject : test pension scheme - mr abc xyz dear test transfers test pension scheme thank you for your email regarding the test pension scheme i can confirm i have forwarded your email to our administration department and they will be in contact shortly if any further information is required if you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely test pensions from : test transfers pensions com sent : 27 october 2020 14 : 44 to : test pensions pensions com subject : re : test pension scheme - mr abc xyz importance : high clients details; name - address dob nino our reference tst12345678 good morning thank you for your letter dated 22 october with the attached confirmation of the date the pension scheme started however this is not the information we require i can confirm how you can obtain this please go to the website : https : www rrrrrrrrrrrrrrr within this you can navigate to get the pstr for the scheme that you are the administrator for when in the hmrc portal and on the screen which displays the pstr number but not the date - rather than click the green print text on the screen - click file and print and convert to adobe pdf this will produce a two page document with both the date and pstr number that satisfies the requirements kind regards test transfers from : test pensions pensions com sent : 17 october 2020 08 : 23 to : test transfers pensions com subject : test pension scheme - mr abc xyz dear team test pension scheme thank you for your email regarding the test pension scheme i can confirm i have forwarded your email to our administration department to process as requested and they will be in contact shortly if you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely test pensions from : test transfers pensions com sent : 14 october 2020 18 : 53 to : test pensions pensions com subject : re : test pension scheme - mr abc xyz good afternoon clients details; name address dob nino kind regards test transfers from : test pensions pensions com sent : 14 october 2020 08 : 31 to : test transfers pensions com subject : test pension scheme - mr abc xyz dear team test pension scheme thank you for your email regarding the test pension scheme to enable us to answer your enquiry please could you provide the member full address date of birth and national insurance number for data verification purposes if you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely test pensions from : test transfers pensions com sent : 12 october 2020 11 : 33 to : test pensions pensions com subject : test pension scheme - mr abc xyz thank you for sending us the payment in relations to the pension transfer for the above client as mentioned in our acceptance letter dated 28 september 2020 please can you provide us with your hmrc portal screen print date within the last 3 months kind regards transfers team</t>
+  </si>
+  <si>
+    <t>abc xyz hello dob : 01 01 1400 ni : zz123123z you should already have a true potential loa we are reviewing a case for the above named client and would appreciate if you could answer a few points please provide a funding status of the plan this must show a fixed percentage at a fixed date if db benefits are transferred out do avc s also need to be transferred out please confirm the 5pc benefits are treated the same as excess how do the following revalue in deferment is it by rpi or cpi any max 5 2 5 post 09 post 12 how do the following increase in payment is it by rpi or cpi any max 5 2 5 post 09 post 12 what is the spouses pension upon death in deferment for the following 50 post 09 post 12 what is the spouses pension upon death in retirement for the following 50 post 09 post 12 is the pension guaranteed in payment is it for 5 years in the event of early retirement does the pension revalue to nrd or actual retirement date kind regards test ifa t : 012345678 e : test ifa fincorp com</t>
+  </si>
+  <si>
+    <t>urgent : abc tst12345678 signed transfer documents certified proof of address identity and financial advice declaration - cetv guarantee date october 23 2020 dear sirs : mr abc s signed transfer documents proof of address identity and confirmation of advice were emailed to the ford administrators on october 23 and i received an automated confirmation reply shortly thereafter both emails are below to that end please honor this valuation and proceed with the transfer thank you for your help with this matter appreciatively yours def 10 test road test street aa12 123 phone direct + 91 012345678 - - - - - - - - - - forwarded message - - - - - - - - - from : test pensions pensions com date : thu 19 nov 2020 20 : 04 subject : urgent : abc tst12345678 signed transfer documents certified proof of address identity and financial advice declaration - cetv guarantee date october 23 2020 to : test ifa fincorp com dear def i am emailing you with regards to mr abc s proposed transfer after reviewing the paperwork received we have noted that the our receiving scheme warranty form was signed dated and received after the guarantee date of the 23 10 2020 unfortunately as our requirements were not met before the guarantee date we are unable to proceed with the transfer we are required to recalculate mr abc s cetv if the he still wishes to transfer his benefits as member s of the fund are entitled to one cetv in a twelve month period a recalculation fee is 420 00 incl vat is payable payment can be made to the following account : account : test benefits account no : 12345678 sort code : 00 - 00 - 00 reference : member s name and national insurance number please let us know when payment has been made either by letter email of telephone call if you have queries regarding this email please do not hesitate to contact us kind regards test pensions postal address : 10 test road test street aa12 123 member helpline : + 91 012345678 test pensions pensions com from : test pensions pensions com sent : monday november 2 2020 5 : 36 am to : test ifa fincorp com subject : re : urgent : abc tst12345678 signed transfer documents certified proof of address identity and financial advice declaration - cetv guarantee date october 23 2020 dear def ford salaried contributory pension fund thank you for your email regarding the ford salaried contributory pension fund please accept our apologies for the delay in responding to you i can confirm i have forwarded your email to our administration department and they will be in contact shortly if any further information is required if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : testfund fincorp com sent : friday october 23 2020 5 : 36 pm to : test pensions pensions com subject : re : urgent : abc tst12345678 signed transfer documents certified proof of address identity and financial advice declaration - cetv guarantee date october 23 2020 thank you for your email to the test pension should you have any queries in the meantime please contact our member helpline on + 91 012345678 please note this is an automated response postal address : 10 test road test street aa12 123 from : test ifa fincorp com sent : 23 october 2020 22 : 32 to : test pensions pensions com subject : urgent : abc tst12345678 signed transfer documents certified proof of address identity and financial advice declaration - cetv guarantee date october 23 2020 dear sirs : please accept the attached scans of mr abc tranfer documents financial advice declaration and certifed proof of address and identity contingent that the originals are to follow shortly thank you for your help with this matter appreciatively yours def senior investment advisor test ifa 10 test road test street aa12 123 phone direct + 91 012345678</t>
+  </si>
+  <si>
+    <t>questions to test - re - send dob : 01 01 1400 nat insurance : zz123123z address : 10 test road test street aa12 123 on 01 jan 1400 at 12 : 06 testfund fincorp com wrote : dear test do you have a pension questionnaire which i can complete with any questions i may have are there any guarantees on the plan such as a guaranteed annuity rate or minimum pension amount am i correct in thinking that i can take option 2 the defined benefit and the defined contribution parts of the pension to re - invest that money whilst leaving the annual reduced pension with you to be delivered monthly defined benefit tax free cash sum : 108 757 54 plus : a reduced annual pension : 16 313 64 plus : pension money current value : 115 139 06 many thanks abc</t>
+  </si>
+  <si>
+    <t>re : abc xyz tst12345678 pension quote hi please can you provide me with an eta for the below pension quotation many thanks from : abc xyz testmail com sent : 30 october 2020 10 : 43 to : test pensions pensions com subject : abc xyz tst12345678 pension quote hi please can i request pension figures for the following; employee : abc xyz tst12345678 dob : 01 01 1400 retirement date : 1st january 1400 retirement type : normal early retirement actuarily reduced thank you</t>
+  </si>
+  <si>
+    <t>mr lmno test group pension scheme ref tst12345678 dear sir madam i write to you as representative of my father lmno to inform you that he sadly passed away on 1st january 1400 my understanding is that lmno has two pensions with test 111 11 and 11 11 net month if you can please let me know what needs to happen next and if you require any further information from me at this time thank you abc</t>
+  </si>
+  <si>
+    <t>re : change of marital status - abc - zz123123z abc from : test jobcreation pensions com sent : 15 october 2020 14 : 09 to : test pensions pensions com subject : fw : change of marital status - abc - zz123123z hi test pensions please provide the email address as it is missing on below email regards test creation from : abc xyz testmail com sent : tuesday october 13 2020 2 : 47 : 37 to : test pensions pensions com subject : change of marital status - abc - zz123123z hi i would like to notify you that i recently married and would ask that you amend your records to ensure my husband xyz is now listed as the beneficiary to my pension i have attached a copy of my wedding certificate my address is : 10 test road test street aa12 123 please let me know if you require any further information many thanks and regards abc</t>
+  </si>
+  <si>
+    <t>test pension scheme - tst12345678 - abc xyz good afternoon i am writing in reference to the above group life claim i can confirm that the claim for mr abc xyz has been registered onto our systems and we have commenced our assessment i note that the address on the death register does not match the address provided on the claim form please can you provide a reason for this the address on the death register is 10 test road test street aa12 123 kind regards abc xyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test pensions letter of authority - abc good morning test pension scheme reference : tst12345678 member name : mr abc thank you for your letter of 3 november please find attached a new signed letter of authority from mr abc can you please let me know if you are able to provide the information requested in my previous email kind regards test ifa from : abc xyz testmail com sent : 07 november 2020 10 : 10 to : test ifa fincorp com&lt;mailto : test ifa fincorp com subject : re : test pensions letter of authority - abc hi test ifa pls find attached scanned authorisation letter regards abc on fri 6 nov 2020 at 18 : 21 kate davis &lt;test ifa fincorp com&lt;mailto : test ifa fincorp com wrote : hi abc i have just had a reply from test pensions they need a new letter of authority could you please print sign and return the attached to me and i will send it off so we can get access to your scheme information many thanks kind regards test ifa mobile + 91 012345678 email test ifa fincorp com&lt;mailto : test ifa fincorp com </t>
+  </si>
+  <si>
+    <t>urgent cetv guarantee date ending - def importance : high good morning please find attached a letter of authority and request for information for our client def - zz123123z the password to access the document is the clients dob in the format xx xx xxxx please send us a copy of the most recent cetv and transfer out paperwork asap the guarantee end date is december and the client is considering transferring out the clients postcode is aa12 123 if you have any queries do not hesitate to contact me kind regards abc</t>
+  </si>
+  <si>
+    <t>fw : mr abc xyz - tst12345678 - test pension fund importance : high please see the client s full details below abc xyz dob : 01 01 1400 ni no : zz123123z kind regards abc xyz - - - - - - - - - - - - - - - - - - - - - - - - - - - - abc xyz covid - 19 please note we are unable to accept visitors at the office without prior appointment please do not attend our office if you have a persistent cough a high temperature or have lost your sense of taste or smell upon entering the office all visitors must sanitise at the unit provided and adhere to social distancing guidelines hoping you and your families stay safe and well from : abc xyz sent : 20 november 2020 14 : 55 to : test pensions pensions com subject : mr abc xyz - tst12345678 - test pension fund importance : high good afternoon with regard to the above client please can you advise whether the client has protected tax free cash within the plan kind regards abc xyz</t>
+  </si>
+  <si>
+    <t>test pension plan - zz123123z dear test pensions thank you for your response the email i received asked me to await a hard copy version of this information before proceeding any further i know 2 copies have been sent but the xxx train system is not running at the present time so no postal deliveries have been made not to worry i would like to expedite my pension plan immediately and i am choosing option 1 = the largest lump sum possible 11111 + and the relevant monthly income thereafter as my wife and i live in india we would like all the funds deposited into her def account - the account number will be supplied if this is possible we can also provide proof of identity current passports + adhaar national id card + my oci card and an indian government certified marriage certificate which will endorse our relationship please advise kind regards abc employee no 00000 ni number : zz123123z on wed 11 nov 2020 at 10 : 51 &lt; test pensions pensions com wrote : dear mr abc test pensions pension plan thank you for your email regarding the test pensions pension plan please accept our apologies for the delay in responding to you i have checked the record and i can confirm that we did sent you a copy of retirement quote via email on 22nd september 2020 however i have attached the copy of correspondence once again for your convenience please note we have encrypted the document with a password which is your national insurance number all in uppercase for ex zz123123z if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com did you know that member s can access and manage their pension online by logging into their test account if you are a scheme of this member you can access your account here&lt;https : login benpal com if you have forgotten your username and or password there is a link on this page to reset it if you have not previously activated your account email us so we can provide you with the activation link yours sincerely abc from : abc xyz testmail com sent : 06 november 2020 07 : 40 to : test pensions pensions com subject : test pension plan - zz123123z dear test pensions it would appear that def state is currently experiencing a train strike this means that mail is not being delivered would it be possible to send my pension pack via email to this address please advise kind regards abc on sat 10 oct 2020 9 : 06 am abc xyz testmail com wrote : dear test pensions that is good news thank you i suspect the delay is just the sheer distance combined with the logistical challenges caused by the virus my contact details are + 91 012345678 please note that i teach for 5 5 hours per day 11 00 am to 4 30 pm india time monday to friday and my phone is usually on silent therefore it would be advisable to reach me in the afternoon after 1 00 pm gmt regards abc on thu 8 oct 2020 at 21 : 31 &lt; test pensions pensions com &lt;mailto : 20test pensions pensions com 20 wrote : dear mr abc test pensions plan thank you for your email regarding the test pensions plan please accept my sincerest apologies for any inconvenience this may cause you i have checked our records and can confirm that the correspondence was issued to you on 1st january 1400 however i have arranged for the information to be re - issued to you as you have not received it please note that you will receive it shortly also could you please provide your contact details to call you if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 06 october 2020 12 : 13 to : test pensions pensions com subject : test pension plan - zz123123z reference : tst12345678 dear test pensions unfortunately i have yet to hear back from the administration department as of today tuesday 01 01 1400 would it be possible for them to make contact within the next 48 to 72 hours please regards abc employee no ni number on thu 24 sep 2020 at 18 : 43 abc xyz testmail com wrote : reference : tst12345678 dear test pensions firstly please note that my home address has changed it is now : it is exactly the same building but the local government has changed the way they officially designate them please amend your records to reflect this secondly as i am in india do i still need to call the 000000 number to request the necessary forms or is there an alternative method please advise kind regards abc employee no ni number : on tue 22 sep 2020 at 21 : 56 &lt; test pensions pensions com wrote : dear mr abc further to your email please see the attached response the document has been encrypted with your national insurance number letters in upper case kind regards test pension scheme administration team from : abc xyz testmail com sent : 15 september 2020 17 : 41 to : test pensions pensions com subject : test pension plan - zz123123z dear test pensions ref : tst12345678 please find attached the original document containing the original address i have also attached the response letter i received from pensions just to clarify the building is the same one; the local government has altered their method of identifying them hence the change of address regards abc on fri 11 sep 2020 at 10 : 11 &lt; test pensions pensions com wrote : dear mr abc test pension plan thank you for your email regarding the test pension plan please accept my sincerest apologies for any inconvenience this may cause you to enable us to answer your enquiry please could you provide your previous address for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com to : test pensions pensions com subject : test pension plan - zz123123z dear test pensions ref no here are the details that you requested address : date of birth : ni number : employee payroll number : regards abc on wed 2 sep 2020 at 16 : 55 &lt; test pensions pensions com wrote : dear abc test pension plan thank you for your email regarding the test pension plan to enable us to answer your enquiry please could you provide your full address date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 01 september 2020 17 : 16 to : test pensions pensions com subject : test pension plan - zz123123z ref no tst12345678 dear test pensions i would like to begin the process of activating my pension we have corresponded several times and the process seems fairly simple as previously stated i would like to take the maximum lump sum available plus the relevant monthly payments there are 2 issues that will need resolving : 1 i am based in the def xyz and the local government have recently altered their house identification system therefore i would need to update my address 2 question : can i have the monthly payments transferred to my wife hijk account if we supply the necessary documents proving that she is in fact my wife could you also include all the relevant information regarding what my wife is entitled to in the event of my death regards abc on mon 1 oct 2018 at 09 : 42 abc xyz testmail com wrote : dear test pensions would it be possible to send me the following information please 1 my monthly pension amount if i commence payments in may 2020 2 the maximum amount i can take in a lump sum in may 2020 and the relevant subsequent monthly payment please send this information to this email address kind regards abc on wed 26 sep 2018 at 10 : 34 abc xyz testmail com wrote : dear test pensions would it be possible to send me the following information please 1 my monthly pension amount if i commence payments in may 2020 2 the maximum amount i can take in a lump sum in may 2020 and the relevant subsequent monthly payment please send this information to this email address kind regards abc former x employee payroll no tst12345678 on fri 6 apr 2018 at 12 : 07 &lt; test pensions pensions com wrote : dear mr abc thank you for your email your address has been updated and a retirement quote was issued to your new address in the middle of march 2018 regards test pensions from : testfund fincorp com sent : 05 april 2018 15 : 35 to : test pensions pensions com subject : fw : verification form from : abc xyz testmail com sent : 05 april 2018 05 : 43 to : testfund fincorp com subject : test pension plan - zz123123z dear test pensions do you have any information regarding my pension request it has been several weeks since the completed form was sent and there has been no reply kind regards abc ref : tst12345678 on 24 november 2017 at 22 : 44 testfund fincorp com wrote : dear abc please find attached verification letter that was originally issued to def without the filled verification form we won t be able to proceed with your request in the mean time if you require any further information please do not hesitate to contact us regards test fund</t>
+  </si>
+  <si>
+    <t>re : test pension plan please find attached the screenshot regards abc xyz on fri nov 20 2020 at 11 : 06 pm &lt; test pensions pensions com &lt;mailto : test pensions pensions com wrote : dear abc xyz test pension fund thank you for your email regarding the test pension fund please accept our apologies for any inconvenience this has caused you could you please share the screenshot of an error you are getting on fin corp while entering your post code so that we can able to assist you properly if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com &lt;mailto : test pensions pensions com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 from : abc xyz &lt;abc xyz testmail com sent : 19 november 2020 00 : 31 to : test pensions pensions com subject : re : fin corp login further to your response please also see my additional info abc xyz dob 01 01 1400 payroll 123456 ni zz123123z address 10 test road test street aa12 123 i am trying to create a fin corp account but using the link you sent me it asks for a post code i put in my usa zip code which was not accepted please help thanks abc xyz on wed nov 18 2020 at 9 : 25 am abc xyz &lt; abc xyz testmail com &lt;mailto : abc xyz testmail com wrote : hi my name i abc xyz payroll number 13245678 i have tried to login to the fin corp website using the link you sent me but i do not have a uk post code as i live in the usa and it does not accept my us zip code 12345 please help me to create a fin corp account thanks abc xyz</t>
+  </si>
+  <si>
+    <t>test retirement and death benefits plan - test section good morning i have not yet received anything from you in respect of my request to start drawing my pension can you advise please regards abc on thu 15 oct 2020 15 : 40 &lt;test pensions pensions com wrote : dear abc test retirement and death benefits plan - test section thank you for your email regarding the test retirement and death benefits plan - test section your request has been logged and you will receive a written response from our administration department within 10 - 15 working days if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 13 october 2020 15 : 03 to : test pensions pensions com subject : fwd : test retirement and death benefits plan - test section further to the attached abc - - - - - - - - - - forwarded message - - - - - - - - - from : abc xyz testmail com date : tue 13 oct 2020 10 : 29 subject : test retirement and death benefits plan - test section to : test pensions pensions com following on from the recent information sent regarding pension options i have decided i would like to start receiving my test pension can you advise the process for this please and the information required regards abc</t>
+  </si>
+  <si>
+    <t>test pension questions - resent abc xyz 10 test road test street aa12 123 date birth : 01 01 1400 jlr payroll number : 132456 naonal insurance number : zz 12 31 23 z policy reference number : 12345678 dear test pensions i am intending to retire from work this january 1400 on my 59 birthday and wish to take my test pension from the beginning of march 1400 i have some questions i would like to ask please how long does my pension last for what does my wife get if i die while taking my pension percentage and duration i presume i will pay tax on anything above my personal tax allowance will i pay national insurance on my pension will my pension go up per year or stay at the level i took it at how do i start the process of taking my pension how long do i need to arrange the start of my pension i would welcome the opportunity to discuss this further i am available any time during week commencing 01 01 1400 and look forward to receiving a phone call my mobile is + 91 012345678 or home + 91 012345678 best regards abc xyz</t>
+  </si>
+  <si>
+    <t>fw : dsg retirement and employee scheme ref jlt00000000 my dob is 10 01 1800 - - - - - forwarded message - - - - - from : andaman nicobar to : test pensions pensions com cc : sent : mon 9 nov 2020 at 8 : 53 subject : test pensions scheme ref jlt00000000 hi i was inquiring as to the progress with my request for early retirement on 1 10 2020 my details are as follows test pensions scheme ref jlt00000000 andaman nicobar aa000000a the coaching homie coooaa phone 07000000000 kind regards andaman nicobar</t>
+  </si>
+  <si>
+    <t>test pension fund - late mr def dear test pensions we have not yet received any letter regarding the test pension scheme please can you let me know when this will be sent out and if it has the date in which it was sent kind regards abc from : abc xyz testmail com sent : 24 september 2020 14 : 11 to : test pensions pensions com subject : test pension fund - late mr def dear test pensions thank you for your email please send any correspondence to the following address : abc test cos 10 test road test street aa12 123 if you have any further queries please let me know kind regards abc from : test pensions pensions com sent : 24 september 2020 12 : 48 to : abc xyz testmail com subject : test pension fund - late mr def dear abc test pension fund thank you for your email regarding the test pension fund please confirm your office address to which we should send the correspondence if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 21 september 2020 14 : 54 to : test pensions pensions com subject : test pension fund - late mr def dear test pensions thank you for your email we have been in touch with the deceased s family and they have been able to locate an old piece of correspondence for the test pension please find this attached along with his death certificate both have been password protected with his date of birth in the format ddmmyyyy and i will email a note of this to you immediately after sending this email please note that the family have highlighted that the date of birth shown on your attached correspondence for the deceased is incorrect his correct date of birth is shown on his death certificate once you have located the deceased s pension details please advise of any payments due to his estate from the pension scheme including any benefits and cash lump sums due to any beneficiaries or dependents together with the next steps necessary to process any such claims i look forward to hearing back from you shortly but if you have any queries please let me know my direct line is + 91 012345678 kind regards abc from : test pensions pensions com sent : 02 september 2020 10 : 47 to : abc xyz testmail com subject : test pension fund - late mr def dear abc test pension fund thank you for your email regarding the test pension fund unfortunately i can confirm we are unable to locate a record of benefits within the above scheme using the details you have provided in addition could you please supply any additional reference numbers or the name of anyone you have received correspondence from within test in the past if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com&lt;mailto : test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 01 september 2020 14 : 32 to : test pensions pensions com subject : death of test pension member dear sir madam mr adefbc date of death 01 january 1400 nino we have been appointed by the executors of the above named deceased in relation to the administration of his estate and write to notify you of his death as he was in receipt of a pension from the test pension scheme as a former employee please advise of any payments due to the estate from the scheme including any benefits and cash lump sums due to any beneficiaries or dependents together with the next steps necessary to process any such claims we look forward to hearing back from you in due course kind regards abc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pre - identified user support request - pension quote reply email address : abc xyz testmail com forename : abc surname : xyz ni number : zz123123z dob : 01 jan 1400 home postcode : aa12 123 employer : test pensions subject : pension quote content : hi can you tell my pension figure is now if i take my pension out company pension and both sets of avc please name abc xyz address; 10 test road test street post code : aa12 123 ni : zz123123z dob 01 01 1400 regards abc xyz</t>
+  </si>
+  <si>
+    <t>transfer value hi i am trying to obtain the transfer value of my pension and am unable to obtain one online please can you advise as i have recently been made redundant from test motor company and require one to assess my pension options going forward kind regards abc</t>
+  </si>
+  <si>
+    <t>fw : reveiw of pension sharing order rome jlt00000000 fos further to my email below we would be grateful for a response thank you abc xyz from : electricity transformer sent : 25 september 2020 17 : 58 to : test pensions cc : test pensions subject : fw : reveiw of pension sharing order - rome - jlt00000000 fos good afternoon please find attached a sharing order which we would be grateful if you could review thank you electricity transformer senior pensions administrator leathe office postal address : post handling centre u st tower 7 chennai street m0 00a member line : + 44 0 1000 100000</t>
+  </si>
+  <si>
+    <t>retirement quotian hi my name is abc xyz 10 test road test street aa12 123 dob 01 01 1400 national insurance number zz123123z test pension scheme payroll number zz123123z i am writing to ask for my retirement figures as i intend to retire on 01 jan 1400 i have not officially handed in my notice yet but my immediate managers are aware of my intended date subject to my figures i have had my figures from you in the past and i have already decided my option choice but to avoid a problem i would like to take all my dc pot from fin corp 1 and combine it with my db allowance so as to draw the max tax - free cash sum that i am allowed i would also need to know my step pension and the cost of this step pension i have gone on the fin corp web site but i prefer to have a written copy of all my figures please excuse me if this email is hard to understand as my knowledge of pension jargon is very limited i am happy for anybody to call or text or email me if i have not explained what i want i have had conflicting quotations in the past but i would hope to get as accurate figures as is possible as i am serious about my intention to retire i have only needed estimates in the past i have been advised by your office to mention the phrase i wish to claim my pension thanking you and look forward to hearing from you my phone number is + 91 012345678</t>
+  </si>
+  <si>
+    <t>re : your transfer value request would it be possible to call me i ve just spent 30 minutes waiting on your contact number + 91 012345678 on 18 nov 2020 at 3 : 30 pm test pensions pensions com&lt;mailto : test pensions pensions com wrote : unfortunately test account was not able to retrieve a transfer value for your test pension scheme at this time due to the complex nature of your pension benefits we are unable to provide a pension quotation via test account self service if you have any questions regarding the document or your test pension just call the test pensions team on + 91 012345678 or email us at test pensions pensions com regards test pensions team + 91 012345678</t>
+  </si>
+  <si>
+    <t>fw : test pension scheme hello team please see below query and reply accordingly to the member ifa many thanks abc xyz - agent - customer support centre test pensions 10 test road test street aa12 123 + 91 012345678 from : abc xyz &lt;abc xyz testmail com sent : 19 november 2020 22 : 47 to : test pensions &lt;test pensions pensions com subject : re : test pension scheme hi abc my date of birth is 01 jan 1400 ni number is zz123123z best regards abc xyz sent from my iphone on 19 nov 2020 at 20 : 59 test pensions pensions com &lt;mailto : test pensions pensions com wrote : dear abc xyz test pension scheme thank you for your email regarding the test pension scheme to enable us to answer your enquiry please could you provide your date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com &lt;mailto : test pensions pensions com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 from : abc xyz &lt;abc xyz testmail com sent : 17 november 2020 21 : 27 to : test pension fund subject : activation code hi i left it rather to long to use the fin corp activation code sent to me could you send a new activation code many thanks best regards abc xyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fw : not virus scanned - password protected warning : message encrypted test pension fund early retirement calculation tst12345678 message encrypted hi all we have reviewed your retirement calculation for member zz123123z and can confirm that based on the information provided we are happy with your calculation of the member s retirement options the retirement quotation is based on the gmp information you have provided to us and may not have been updated to reflect any different gmp information held by hmrc further the retirement quotation makes no allowance for any adjustment which may be required in relation to the equalisation of gmps following the judgment in the lloyds case fin corp ltd fin corp has addressed this retirement quotation review to fin corp 2 you in your role as administrators on behalf of the trustees of the test pension trust under the terms of our agreement with the trustees the technical actuarial work involved in the preparation of this review complies with the financial reporting council s technical actuarial standard for tas purposes the sole user of this material are the trustees of the test pension trust the assumptions used in deriving this retirement quotation have been determined by the trustees in preparing this retirement quotation review we have relied upon the data outlined in your email below whilst reasonable care has been taken to gauge the reliability of this data we provide no guarantee as to the accuracy or completeness of this data and fin corp ltd accepts no responsibility and will not be liable for any errors or misrepresentations in the data made by any third party please let us know if you have any queries kind regards abc xyz lead associate retirement fin corp ltd 10 test road test street aa12 123 t + 91 012345678 abc xyz testmail com fin corp ltd testmail com &lt;mailto : fin corp ltd testmail com from : fin corp ltd testmail com &lt; fin corp ltd testmail com sent : 12 november 2020 16 : 40 to : test pensions &lt; test pensions pensions com &lt;mailto : test pensions pensions com cc : test ifa fincorp com &lt;mailto : test ifa fincorp com subject : not virus scanned - password protected warning : message encrypted test pension fund early retirement calculation tst12345678 message encrypted hi please find attached our early retirement calculation and member screen prints for review in respect of the above named member please provide us full retirement options including levelling options if any kindly let me know if you require any further information kind regards </t>
+  </si>
+  <si>
+    <t>test retirement and employee security scheme : mr mr abc xyz hi test pensions thank you for your email could you please reissue the email sent on 21 10 to me has the request been processed kind regards test ifa from : test pensions pensions com sent : 09 november 2020 09 : 32 to : test ifa fincorp com subject : test retirement and employee security scheme : mr mr abc xyz dear test ifa test retirement and employee security scheme thank you for your email regarding the test retirement and employee security scheme i have checked our records and can confirm that the email was sent to you on 21 october 2020 in relation to member s retirement process should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com&lt;mailto : test pensions pensions com yours sincerely test pensions from : test ifa fincorp com sent : 05 november 2020 22 : 22 to : test pensions pensions com cc : testfund fincorp com subject : mr abc xyz tst12345678 good afternoon last month we sent mr abc s signed retirement options form on 14th october 2020 could you please confirm safe receipt also could you kindly provide me with an update on the process of setting up his annual pension should you need any further information or assistance please do not hesitate to contact me kind regards test ifa</t>
+  </si>
+  <si>
+    <t>test pension plan - mr abcd urgent cetv 30 11 2020 to whom it may concern i have received the cetv documentation as requested but only the overseas transfer out paperwork can you please provide me with the transfer documentation via e mail as soon as you can to allow me to transfer out of the test scheme i would also respectfully request an extension due to this error as the cetv is 30 11 2020 kindest regards abcd from : test pensions pensions com sent : thursday september 10 2020 9 : 16 : 24 pm to : abc xyz testmail com subject : test pension plan - mr abcd thank you for your email please note that unfortunately you are unable to take 25 lump sum payment now you can only take the lump sum option should you decide to retire from the plan with the remaining benefits paid as a pension you may if you wish transfer the full benefits to an approved pension provider that will allow you to take part of the benefits now however you will need to speak to a financial adviser if you wish to investigate this option kind regards test pension administration team from : abc xyz testmail com sent : 26 august 2020 12 : 39 to : test admin pensions com subject : re : test pension plan - mr abcd thankyou for your email am i allowed to take a 25 lump sum payment and yes i would like to investigate transferring the pension your advice would be greatly appreciated from : test admin pensions com sent : wednesday august 26 2020 8 : 54 : 11 pm to : abc xyz testmail com subject : test pension plan - mr abcd dear mr foster please find attached the information as requested please note that this has been encrypted with your national insurance number in the format ab123456c kind regards test pensions administration team</t>
+  </si>
+  <si>
+    <t>re : test pension fund hi there yes certainly as follows : 10 test road test street aa12 123 kind regards abc xyz on 23 11 2020 at 7 : 49 pm abc xyz testmail com &lt;mailto : abc xyz testmail com wrote : dear mr abc xyz test pension fund thank you for your email regarding the test pension fund please accept our apologies for the delay in responding to you to enable us to answer your enquiry please could you provide your full address date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com &lt;mailto : test pensions pensions com yours sincerely abc xyz customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 from : abc xyz &lt;abc xyz testmail com sent : 17 november 2020 20 : 02 to : test pensions subject : transfer value - hi please can you provide me with a transfer quotation for my test pension my test pension employee number is zz123123z importantly please can you send this to me by email and not by post as there are very significant delays on post at present thank you kind regards abc xyz</t>
+  </si>
+  <si>
+    <t>fw : xyz loa hi team please see below query and reply accordingly thank you def - agent - customer support centre 10 test road test street aa12 123 + 91 012345678 from : test ifa fincorp com sent : 09 november 2020 10 : 30 to : test pensions pensions com subject : xyz loa dear test pensions password to access the loa is : aaaaaaaa regards from : test ifa fincorp com sent : 09 november 2020 10 : 29 to : test pensions pensions com subject : xyz loa dear test pensions please find enclosed a letter of authority from the above client appointing creative benefits wealth management ltd to receive policy information the password will follow under separate cover please provide your standard transfer out pack including cash equivalent transfer value and full scheme information please ensure this includes all the information we will require to understand and project the member s benefits and advise the member on all the options available as a guide the information you provide should cover all the items identified as required by the pensions administration standards association in their agreed pasa templates below : scheme information template&lt;https : www pasa - uk com wp - content uploads 2019 10 scheme - template - final pdf member information template&lt;https : www pasa - uk com wp - content uploads 2019 10 transfer - template - member - info - final pdf where the member is eligible to take benefits please provide an immediate retirement quote very important information required : - please confirm the accrual tranches within the pension and their subsequent revaluation and escalation rates what are the clients options with respect to late retirement what are the commutation factors from normal retirement age onwards what are the late retirement factors from nra onwards does the client have any gmp in addition please provide me with the following information relating to policies at your earliest convenience : 1 policy type 2 commencement date 3 contribution history since inception 4 inclusion of waiver of premium 5 plan status 6 current value and breakdown of value between funds 7 current fund s choice please quote mex sedol isin number for each fund attaching to the plan 8 if the policy can offer adviser charging 9 if the policy can offer ufpls 10 if the policy can offer flexible access drawdown 11 pension input periods on the policy 12 if with profits funds please enclose full details including the current asset allocation of the fund and the last 5 years bonus declaration history 13 details of other funds available to invest in and relevant codes 14 transfer value please advise any transfer penalties applicable and reason for any penalty 15 any former protected rights funds 16 pension commencement lump sum amount 17 any guarantees associated to the plan eg guaranteed annuity rates bonus rates guaranteed fund at scheme retirement date srd etc 18 if with profits - please confirm if any with profits spot guarantees apply and when 19 scheme retirement date srd of the plan 20 illustration of projected value at srd age xx 21 a paid up illustration at srd age xx if regular premiums are still being paid please supply a quote to srd age xx assuming the premiums continue 22 the death benefits should the member die before srd and any nominated beneficiaries 23 charges allocation rates on the plan 24 any protected tax free cash at a day if yes please send paperwork to quantify this also please confirm fund value at a day and tax free cash at a day 25 premium and sum assured of any associated pension term assurance value as at a - day 26 is there a pension sharing order or attachment to the benefits if plan is a sipp with a capped drawdown arrangement : - 27 maximum income available 28 review date s 29 any remaining pcls entitlement 30 income currently being taken 31 fee schedule relating to sipp if member has taken benefits : - 32 please confirm the value of the crystallised and uncrystallised portions 33 please also confirm the percentage of the lifetime allowance that has been crystallised within this scheme please send any necessary transfer out paper work and id requirements to be completed i look forward to hearing from you however if you have any queries please let me know as soon as possible yours faithfully test ifa</t>
+  </si>
+  <si>
+    <t>abc - cetv request dear sirs re : test group pension plan member : abc ni number : zz123123z i refer to my request of 12 october 2020 for a new cetv in respect of the above member and your letter of 2 november confirming it was referred to the scheme actuary for review i should be grateful if you would provide me with an update on this and when i should expect receipt yours faithfully test fund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abc xyz - zz123123z good afternoon please can you provide an update on the above members transfer request kind regards test ifa 10 test road test street aa12 123 t : + 91 012345678 e : test ifa fincorp com&lt;mailto : test ifa fincorp com </t>
+  </si>
+  <si>
+    <t>re : fao abc xyz re : test pension fund good morning not only has no one called me as i was promised on 01 01 1400 but no one has replied to my email of 01 01 just to let you know that if you come back saying that this slow service is down to coronavirus i will simply ask why regards abc xyz ps as this is a sunday not expecting a reply today ! - - - - - - original message - - - - - - from : abc xyz testmail com to : test pensions pensions com sent : thursday 19 nov 2020 at 16 : 51 subject : fao abc xyz re : test pension fund thank you for your email of 01 01 1400 abc xyz however it is now 01 01 1400 and no one has called me can you define shortly regards abc xyz - - - - - - original message - - - - - - from : test pensions pensions com to : abc xyz testmail com sent : wednesday 11 nov 2020 at 14 : 28 subject : test pension fund dear abc xyz test pension fund thank you for your email regarding the test pension fund please accept my sincerest apologies for any inconvenience this may cause you i have arranged a call back for you our representative will contact you shortly if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com &lt;mailto : test pensions pensions com yours sincerely abc xyz administrator customer support centre 10 test road test street aa12 123 direct dial : + 91 012345678 test pensions pensions com - - - - - original message - - - - - from : test pensions sent : 06 november 2020 15 : 15 to : test pensions subject : pre - identified user support request reply email address : abc xyz testmail com forename : abc surname : xyz ni number : zz123123z dob : 01 01 1400 home postcode : aa12 123 employer : fin corp ltd subject : need to talk to someone content : good afternoon i have just tried calling + 91 012345678 to arrange a phone conversation regarding when i take my test pensions pension the voice message system said you are very busy and so can only handle urgent enquiries not sure why coronavirus is making every call centre help desk etc so busy but that what i am experiencing and what do i know as i suppose what i am asking for is a new request i pressed 4 and was advised to contact a company called fin corp ltd never heard of them could someone call me when they have a moment abc xyz thanks abc xyz</t>
+  </si>
+  <si>
+    <t>registering via fin corp i had a letter from you back in july advising me that i had been found under the fin corp organisation unfortunately i had mislaid the letter and only just found it and realised that i had missed the required date to register my account i would be very grateful if you could forward me new five pair characters so that i may register my account many thanks for your kind cooperation yours sincerely abc xyz tel + 91 012345678</t>
+  </si>
+  <si>
+    <t>re : test pension plan good morning the reason i wanted to set up the account online is so i can change my address if the letter is being sent to my old address i will not be able to collect it regards abc tel : + 91 012345678 10 test road test street aa12 123 from : test pensions pensions com sent : 13 november 2020 03 : 33 to : abc xyz testmail com subject : test pension plan dear mr abc test pension plan thank you for your email regarding the test pension plan i have requested an activation letter to be issued to you via post this will be issued within 5 working days this will be active for 28 days if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 10 november 2020 16 : 21 to : test pensions pensions com subject : re : test pension plan hi my previous address was : regards abc tel : + 91 012345678 10 test road test street aa12 123 from : test pensions pensions com sent : 10 november 2020 06 : 54 to : abc xyz testmail com subject : test pension plan dear mr abc test pension plan thank you for your email regarding the test pension plan to enable us to update your address please could you provide your previous full address for data verification purposes once your address get updated in our system we will be able to provide the activation link for test also please note that if the member has been drawing on their pension for over 5 years an eow is not applicable in order to update your beneficiaries please update your beneficiaries on benpal arrange for the attached expression of wish to be completed and returned to the address detailed below if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : test pensions pensions com sent : 04 november 2020 21 : 01 to : test account pensions com subject : set up test account hi i have been trying to set up my online test account i wanted to change my address and beneficiary detail as i have recently moved home i work for test my ni is d o b : old postcode new post code if the change has already been made on the account regards abc tel : + 91 012345678 10 test road test street aa12 123</t>
+  </si>
+  <si>
+    <t>fw : test pension fund - member reference zz123123z importance : high hello team please see below query and reply accordingly to the member ifa many thanks abc xyz - agent - customer support centre fin corp ltd 10 test road test street aa12 123 + 91 012345678 from : abc xyz &lt;abc xyz testmail com sent : 23 november 2020 07 : 09 to : test pensions subject : re : test pension fund - member reference zz123123z importance : high good morning approximately 10 days ago i informed test pensions that the course of action i wished to take was to start receiving my pension benefits in january 1400 they said that they had contacted the appropriate people and that i should hear something to that effect i have not heard anything thus far can you please update me asap there approximately 3 weeks until my pension is due to commence regards abc xyz from : test pensions pensions com sent : wednesday september 23 2020 8 : 12 am to : abc xyz testmail com subject : test pension fund dear mrs abc xyz thank you for your email your request has been logged and you will receive a written response from our administration department within 10 - 15 working days should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com &lt;mailto : test pensions pensions com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 from : abc xyz &lt;abc xyz testmail com sent : 23 november 2020 07 : 09 to : test pensions subject : pension information pack importance : high good afternoon please can you tell me if my information pack has been sent yet thank you regards abc xyz</t>
+  </si>
+  <si>
+    <t>change of address details hi i am in the test pension scheme and we have moved house in the last few days i have updated my address details with hr here at xxx but wondered how i can do this on my test pension account or will this update automatically over time now that hr are aware regards abc</t>
+  </si>
+  <si>
+    <t>re : test pension fund - our ref : tst12345678 password is xxxxxx from : test ifa fincorp com sent : 09 november 2020 09 : 51 to : test pensions pensions com subject : re : test pension fund - our ref : tst12345678 good morning thank you for your email please find attached the client s letter of authority with the requested information the document is password protected password to follow in separate email if you have any queries please don t hesitate to contact us many thanks test ifa from : test pensions pensions com sent : 02 november 2020 10 : 03 to : test ifa fincorp com subject : test pension fund dear test ifa test pension fund thank you for your email regarding the ford pension fund to enable us to answer your enquiry please could you provide the member full address date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : test ifa fincorp com sent : 23 october 2020 16 : 11 to : test pensions pensions com subject : tst12345678 zz123123z good afternoon please can you provide an update on our mutual clients pension transfer many thanks test ifa</t>
+  </si>
+  <si>
+    <t>re : test death approval - abcd tst12345678 i agree with the recommendation with regards mr abcd from : test pensions pensions com sent : 29 october 2020 17 : 03 to : testfund fincorp com subject : test death approval - abcd tst12345678 test pension plan abcd death in retirement please find attached the documentation relating to the above late member who died whilst in receipt of his pension as the member is a widower the committee are being asked to consider the lump sum death benefit of 1 500 only this case is being referred to the committee as the nomination form was in the name of the deceased spouse and therefore no longer valid the member was survived by his son and a daughter and it would be our recommendation to pay the lump sum equally to both the son and the daughter please would you agree with this recommendation kind regards test pensions</t>
+  </si>
+  <si>
+    <t>change of address - tst12345678 good afternoon please could i request that my address is amended to the following : 10 test road test street aa12 123 i am unable to amend the details on the benpal website your help in this matter is most appreciated warmest regards abc xyz tst12345678 former employee of def</t>
+  </si>
+  <si>
+    <t>fw : cetv request mr xyz following my email dated 28th october mr xyz has now left employment and is no longer an active member of the pension scheme please calculate and send his guaranteed transfer value cetv as soon as possible regards test ifa from : test ifa fincorp com sent : 28 october 2020 13 : 45 to : test pensions pensions com subject : cetv request mr xyz importance : high mr xyz 10 test road test street aa12 123 works number : tst12345678 dob : 01 01 1400 ni no : zz123123z i hold authority for mr xyz and request a cetv be sent to me for him as soon as possible thank you test ifa</t>
+  </si>
+  <si>
+    <t>change of address dear test pensions re : test pension plan i wish to inform you of my new address royal mail is currently redirecting my mail for a fixed period i could not get through to you on the telephone you can call my mobile but my landline has changed both the home and the work lines please advise - do i email you my new address i am assuming post may not be received or opened in your office if staff are working from home yours sincerely abcd + 91 012345678</t>
+  </si>
+  <si>
+    <t>zz123123z dear sir madam please may you confirm if you consider ill health unreduced pension for deferred members if so what is the process thanks in advance kind regards abc xyz</t>
+  </si>
+  <si>
+    <t>ref : tst12345678 dear sirs thank you for your letter ref above regarding my pension i do not have a spouse and what i really wanted to know for inheritance tax purposes will there be a lump sum payable upon my death and if so how much i look forward to hearing from you regards abc</t>
+  </si>
+  <si>
+    <t>re : test pension scheme - abc xyz good morning please find attached the client s signed letter of authority showing the requested information regards abc xyz from : test pensions pensions com sent : monday november 23 2020 3 : 02 am to : abc xyz subject : test pension scheme - abc xyz dear abc xyz test pension scheme thank you for your email regarding the test pension scheme please accept my sincerest apologies for any inconvenience this may cause you to enable us to answer your enquiry please could you provide your member s address date of birth and national insurance number for data verification purposes should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at fin corp testmail com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 from : abc xyz &lt;abc xyz testmail com sent : 19 november 2020 14 : 04 to : test pension scheme &lt;testscheme fincorp com cc : test ifa fincorp com subject : fw : test pension scheme - abc xyz good morning we have tried making contact by phone numerous times and we are not getting any response to our emails the cetv has now expired does a revaluation fee apply if so please send us an invoice addressed to the below details 10 test road test street aa12 123 regards abc xyz from : abc xyz sent : monday september 7 2020 1 : 12 pm to : test pensions pensions com cc : test ifa fincorp com subject : fw : test pension scheme - abc xyz good morning we have been chasing week after week and not got a response back could someone please assist regards abc xyz from : abc xyz sent : monday august 24 2020 12 : 59 to : test pensions &lt;test pensions pensions com cc : test ifa fincorp com subject : fw : test pension scheme - abc xyz could someone please reply from : abc xyz sent : monday august 24 2020 12 : 59 to : test pensions &lt;test pensions pensions com cc : test ifa fincorp com subject : fw : test pension scheme - abc xyz good morning please send us a copy of the documents by email from : abc xyz sent : monday august 24 2020 12 : 59 to : test pensions &lt;test pensions pensions com cc : test ifa fincorp com subject : fw : test pension scheme - abc xyz good morning we still haven t received the documents by post please send us a copy by email from : abc xyz sent : monday august 24 2020 12 : 59 to : test pensions &lt;test pensions pensions com cc : test ifa fincorp com subject : fw : test pension scheme - abc xyz good afternoon abc xyz thank you for your email please accept my sincere apologies for the delayed response i can advise you that the transfer information was sent to you on 28 july the additional information requested will follow in due course regards abc xyz administrator fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 from : abc xyz sent : monday august 24 2020 12 : 59 to : test pensions &lt;test pensions pensions com cc : test ifa fincorp com subject : fw : test pension scheme - abc xyz good morning we have not had a response in the past month we have been chasing kindle assist from : abc xyz sent : monday august 24 2020 12 : 59 to : test pensions &lt;test pensions pensions com cc : test ifa fincorp com subject : fw : test pension scheme - abc xyz good morning has a response been issued please from : test pensions &lt;test pensions pensions com sent : 30 june 2020 16 : 05 to : abc xyz &lt;abc xyz testmail com subject : re : abc xyz loa urgent good afternoon abc thank you for your email the information requested has been prepared and is in the process of being checked if there are any further details you require please contact us regards abc abc xyz administration team fin corp ltd 10 test road test street aa12 123 telephone : + 91 012345678 from : abc xyz &lt;abc xyz testmail com sent : 29 june 2020 14 : 10 to : test ifa subject : fw : abc xyz loa urgent good afternoon please provide us with an update from : abc xyz &lt;abc xyz testmail com sent : 05 june 2020 17 : 45 to : abc xyz &lt;abc xyz testmail com subject : re : test pension scheme good afternoon abc xyz thank you for your email please accept my apologies for the delayed response i have asked for your request to be dealt with as a priority regards abc xyz test pension scheme administration team fin corp ltd 10 test road test street aa12 123 telephone : + 91 012345678 from : abc xyz &lt;abc xyz testmail com sent : 02 june 2020 10 : 39 to : test pension scheme subject : fw : test pension scheme - abc xyz good afternoon please provide us with an update from : abc xyz sent : 15 may 2020 13 : 25 to : abc xyz testmail com subject : abc xyz loa please send the information by email or fax dear sir or madam please find attached a current letter of authority for the above client this is an initial request looking into a potential transfer once the above client confirms they wish to proceed we will confirm the receiving scheme uk transfer forms overseas transfer forms immediate retirement quote discharge forms including hmrc requirements forms for the transfer to take place scheme and plan type test pension equalisation date nra pre and post test pension equalisation date date of joining and leaving the pension scheme normal retirement date age members contributions to the scheme confirmation of any avc s or money purchase benefits held within the scheme are there any pension sharing earmarking orders if yes does the tv reflect this current fund value - including all fund details full cetv - if the cetv has been reduced please confirm by what amount value of pension at date of leaving value of pension at statement date deferred pension at date of leaving per annum figure showing : o pre 88 gmp o post 88 gmp o pre 97 gmp o post 97 gmp o excess over and above gmp should any gmp revalue at different rates please provide the relevant split pension increases in deferment gmp and excess if this is by price inflation please specify if this is cpi or rpi pension increases in retirement gmp and excess - if this is by price inflation please specify if this is cpi or rpi is there a spouses pension details in both deferment and retirement - also confirm if spouse s pension is calculated before or after any commutation is there a children s pension details in both deferment and retirement guarantee period on death of the member lump sum payable in death full income without taking pcls earnings on leaving pcls at nra commutation factor for ages 55 - 70 early retirement factors and how they are applied - are these applied to pension at retirement or nra late retirement factors and how they are applied - are these applied to pension at retirement or nra scheme funding status date latest scheme funding statement leaflet booklet is the plan paid up longevity adjustment factor and how this is applied if applicable scheme booklet do you permit partial transfers and if so on what terms have you yet equalised gmp payments in line with the may 1990 ruling by the european court of justice are there any gars if so what are the annuity rate has there previously been a transfer in or not if yes then the amount of gmp transferred in revaluation rate for gmp transferred in does it hold all the same death benefits as the rest of the pension the member s final pensionable earnings figure in order to determine the spouse s pension payable on death in deferment; rate of interest applied to the refund of contributions on death in deferment all the above details are required in order to provide the client with full fca regulated advice please ensure all these details are confirmed with the initial response please ensure all these details are confirmed with the initial response abc xyz pension administrator tel : + 91 012345678 fax : + 91 012345678 email : abc xyz testmail com</t>
+  </si>
+  <si>
+    <t>re : test pension plan hi national insurance number is zz123123z date of birth is 01 01 1400 if i remember correctly my clock number was 000000 i took early retirement in 2006 aged 50 abc on friday 13 november 2020 03 : 33 : 13 gmt wrote : dear mr abc test pension plan thank you for your email regarding the test pension plan to enable us to answer your enquiry please could you provide your date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com yours sincerely abc from : abc xyz testmail com sent : 11 november 2020 07 : 44 to : test pensions pensions com subject : test form hi i would like to have a test account please if not may i have an test form my name and address is; mr abc cheers abc</t>
+  </si>
+  <si>
+    <t>tst12345678 dear sir madam i am the next of kin to xyz who died earlier this year we received communication from you regarding regarding my deceased father pension and we returned the required form with death certificate some weeks ago i have subsequently received correspondence from you saying you have not had a response from me i have tried to call with no success so would like to know how this can be resolved yours faithfully abc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">re : test pension scheme - lmno she was born on 1st january 1400 and died on monday 1st january 1400 death has been registered electronically and certificate issued there are no financial dependents i am lmno s son abc 10 test road test street aa12 123 phone number + 91 012345678 abc son from : test pensions pensions com sent : 07 october 2020 04 : 08 to : abc xyz testmail com subject : test pension scheme - lmno dear abc test pension scheme thank you for your email on regarding the test pension scheme please accept my sincerest condolences for your loss in order to assist us could you please provide us with the following details : emailer s relation to member : date of birth : date of death : has the death been registered and death certificate issued : did the member have any financial dependents address for condolence : contact number : if you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 05 october 2020 15 : 02 to : test pensions pensions com subject : bereavement i am contacting you to advise of the death of one of your pensioners and to stop any undue payments the deceased is member no tst12345678 nat ins no she was residing at abc son and executor </t>
+  </si>
+  <si>
+    <t>re : test pension scheme - test section dear sirs ref : tst12345678 i have received the required retirement quote and would now like to request the retirement pack to proceed many thanks abc xyz zz123123z from : test pensions pensions com sent : friday 9 october 2020 11 : 25 to : abc xyz testmail com dear miss abc test pension scheme - test section formerly test group thank you for your email regarding the test pension scheme - test section your request has been logged and you will receive a written response from our administration department within 10 - 15 working days should you have any further queries please do not hesitate to contact the customer support centre between 9 00am and 5 00pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely abc from : abc xyz testmail com sent : 07 october 2020 13 : 38 to : test pensions pensions com subject : re : test pension scheme - test section my full address is many thanks abc on 7 oct 2020 7 : 36 am test pensions pensions com&lt;mailto : test pensions pensions com wrote : dear miss abc test pension scheme - test section formerly test group thank you for your email regarding the test pension scheme - test section to enable us to answer your enquiry please could you provide your full address for data verification purposes should you have any further queries please do not hesitate to contact the customer support centre between 9 00am and 5 00pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely abc from : abc xyz testmail com sent : 05 october 2020 09 : 01 to : test pensions pensions com subject : re : retirement quote dear sirs could you please give me an estimated retirement quote for me to retire on 1st january 1400 test pension scheme - test section tst12345678 many thanks abc from : abc xyz testmail com sent : sunday 4 october 2020 10 : 14 to : test pensions pensions com dear sirs could you please give me an estimated retirement quote for me to retire on 1st january 1400 test pension scheme - test section tst12345678 many thanks abc</t>
+  </si>
+  <si>
+    <t>re : def retirement and employee scheme thank you for your reply if i could please have a uptodate benifit statment issued that would be great regards abc from : test pensions pensions com sent : 17 november 2020 12 : 21 to : abc xyz testmail com subject : def retirement and employee scheme dear abc def retirement and employee scheme thank you for your email regarding the def retirement and employee scheme your request for change of address has been logged and you will receive a written response from our administration department in due course please note that you can apply for early retirement from the scheme from the age of 55 and over however an update of benefit statement can be issued on request once your address is updated on our records we will be able to assist you with online access should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 13 november 2020 12 : 08 to : test pensions pensions com subject : re : def retirement and employee scheme sure my current address is please could you also let me know how i get full details of my pension and what the balance and projections are for retirement how can i access these details thank you abc friday 13 november 2020 09 : 37 + 0000 from test pensions pensions com : dear mr abc def retirement and employee scheme thank you for your email regarding the def retirement and employee scheme could you please provide the current address to update your record should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 11 november 2020 09 : 58 to : test pensions pensions com subject : re : def retirement and employee scheme hi one of the reasons i was making contact is because my address has changed i believe my registered address is - i have also attached a copy of my passport for further varification regards abc from : test pensions pensions com sent : 11 november 2020 03 : 06 to : abc xyz testmail com subject : def retirement and employee scheme dear member def retirement and employee scheme thank you for your email regarding the def retirement and employee scheme to enable us to answer your enquiry please could you provide your full address for data verification purposes should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 06 november 2020 18 : 33 to : test pensions pensions com subject : def pension hi i have a final salary pension with dress and i am trying to get details about where it is now and what cover and benifits it gives me my emploee number which i belived is used as the referance number is christopher pearce dop ni - please could you advise how i find out where i information is now held if you require any further information please call regards abc</t>
+  </si>
+  <si>
+    <t>test pension tst12345678 hi i have been sent a update on my scheme many thanks for that i have a question can i withdraw any funds tax free when i reach 55 next year also if so how much would that figure be kind regards abc xyz 10 test road test street aa12 123 ref tst12345678 national insurance number zz123123z kind regards</t>
+  </si>
+  <si>
+    <t>abc - test industries pension scheme - death notification no nino as previously stated dob 01 01 1400 test fund from : testscheme fincorp com sent : 06 october 2020 17 : 23 to : testfund fincorp com subject : abc - test industries pension scheme - death notification hi test fund please provide member dob and nino as we are unable to locate member record within the above scheme regards test scheme from : testfund fincorp com sent : 02 october 2020 14 : 14 to : testscheme fincorp com subject : abc - test industries pension scheme - death notification condolence pack will need to be sent to 10 test road test street aa12 123 test fund from : testscheme fincorp com sent : 02 october 2020 09 : 42 to : testfund fincorp com subject : abc - test industries pension scheme - death notification hi test fund can you check and assist is there any work required from csc team or not regards test scheme from : testfund fincorp com sent : 30 september 2020 14 : 30 to : testscheme fincorp com subject : abc - test industries pension scheme - death notification hello member s sp does not have a nino so i am unable to create a job please complete death process death notification preserved pension idu check pass sla quoted date member passed 01 01 1400 date the death was registered : cannot remember members forename : abc what address did you will you use to register the death : 10 test road test street aa12 123 did the member have any financial dependants or a spouse husband xyz address for condolence pack : 10 test road test street aa12 123 did the member leave a will yes if yes - can i take the name of the executor husband - xyz test fund</t>
+  </si>
+  <si>
+    <t>re : pension summary sent from my ipad on 20 nov 2020 at 16 : 54 abc xyz &lt;test pensions pensions com wrote : hi i m in the test pensions scheme i ve logged into test pensions to have a look at my pension summary and it s only showing me my pension summary as at 01 jan 1400 is there a reason for this also i have tried to get an early retirement quote calculation but it has been unable to calculate my quote can you help dob 01 01 1400 national insurance number zz123123z 10 test road test street aa12 123 regards abc xyz</t>
+  </si>
+  <si>
+    <t>re : ms abc xyz dear abc xyz my question has been answered and letter confirming revised pension calculation already received regards ms abc xyz on 21 nov 2020 at 03 : 28 &lt;test pensions pensions com &lt;test pensions pensions com wrote : dear abc xyz ms abc xyz thank you for your email regarding the test pensions fund please accept our apologies for the delay in responding to you to enable us to answer your enquiry please could you provide your full address date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely abc xyz administrator customer support centre 10 test road test street aa12 123 direct dial : + 91 012345678 test pensions pensions com - - - - - original message - - - - - from : abc xyz abc xyz testmail com sent : 14 november 2020 18 : 27 to : test pensions cc : test ifa subject : pension payment ref tst12345678 importance : high to abc xyz team manager i have today received a letter advising that i will receive a pension lump sum payment of 100 in december leaving me with a pension of 500 per annum i have signed documentation to request a pension lump sum payment of 100 only please update your records and recalculate my annual pension accordingly thanks ms abc xyz</t>
+  </si>
+  <si>
+    <t>telephone conversation hi as per telephone conversation on the 20 nov 2020 i attach my passport driving license and letter from solicitor ref to i need my name on all correspondence to be changed to abc xyz and not def on there as all my id and bank accounts are in abc my national insurance number is zz123123z please can you confirm this is done thanks abc xyz + 91 012345678 sent from my galaxy</t>
+  </si>
+  <si>
+    <t>re : lmno pension plan i have already provided this information once before you informed me that the address had been updated on your systems however as requested : 10 test road test street aa12 123 zz123123z 1st january 1400 regards abc on 13 nov 2020 at 12 : 25 test pensions pensions com&lt;mailto : test pensions pensions com wrote : dear abc test pension plan thank you for your email regarding the test pension plan to enable us to answer your enquiry please could you provide your full address date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 11 november 2020 20 : 29 to : test pensions pensions com subject : re : lmno pension plan as you can see from the below email trail i requested that all communication to me should be sent to a new email address abc xyz testmail com &lt;mailto : mebehelen gmail com however the newsletter that was recently sent out to me from : testfund fincorp com was sent to the old email address please confirm how i can get my address details updated correctly on the mailing list for the newsletter regards abc on 11 may 2020 at 06 : 10 test pensions pensions com wrote : dear abc test pension plan thank you for your email regarding the test pension plan we note that you wish to receive newsletter through email we have updated our records with your email id abc xyz testmail com&lt;mailto : abc xyz testmail com i can confirm that going forward you will receive newsletter on your registered email id every year if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 06 may 2020 11 : 51 to : test pensions pensions com subject : re : lmno pension plan dear test pensions as requested : kind regards abc on 6 may 2020 at 06 : 28 test pensions pensions com&lt;mailto : test pensions pensions com wrote : dear abc test pension plan thank you for your email regarding the test pension plan to enable us to answer your enquiry please could you provide your date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 04 may 2020 15 : 47 to : test pensions pensions com subject : change of contact details hi i have recently received the newsletter from test pensions to an old email address abc testmail com&lt;mailto : abc testmail com and need to request that future communications are sent to this address abc xyz testmail com i am not sure whether there is an official way to request this change if so please provide the details my full name is and my address is regards abc</t>
+  </si>
+  <si>
+    <t>immediate retirement quote ref : tst12345678 test pension scheme mr abc xyz 10 test road test street aa12 123 ni zz123123z dear abc thank you for your recent correspondence i would like to request an immediate retirement quote for mr abc and retirement pack with his options on taking his pension from the scheme if you could also please send me a copy of this information if you require any further information from myself please let me know kind regards abc xyz</t>
+  </si>
+  <si>
+    <t>re : test pension scheme address 10 test road test street aa12 123 on mon 23 nov 2020 05 : 07 &lt; testscheme fincorp com &lt;mailto : testscheme fincorp com wrote : dear abc xyz test pension scheme thank you for your email regarding the test pension scheme i can confirm that you are able to transfer either your defined benefits or defined contribution benefits subject to trustees consent in order to assist you further please could you provide your full address for data verification purposes should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com &lt;mailto : test pensions pensions com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 from : abc xyz &lt;abc xyz testmail com sent : 19 november 2020 20 : 13 to : test pension fund subject : ref tst12345678 hi i am writing to enquire whether there is an option to transfer my defined contribution and or my defined benefit rnib pension fund to an test pension fund ie if i wanted to would i be allowed under this scheme abc xyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abc xyz dear sir or madam please find attached a current letter of authority for the above client this is an initial request looking into a potential transfer once the above client confirms they wish to proceed we will confirm the receiving scheme qrops sipp transfer request list please provide all details in full both overseas and uk discharge forms including fin corp requirements forms for the transfer to take place scheme and plan type barber equalisation date nra pre and post barber equalisation date has there previously been a transfer in or not if yes then the amount of gmp transferred in revaluation rate for gmp transferred in confirmation of any avc or money purchase benefits held within the scheme are there any pension sharing earmarking orders - if yes does the tv reflect this does the scheme provide a bridging pension guaranteed annuity rates where applicable please provide details on single life level basis single life 10 year guarantee joint life 50 spouses guaranteed growth rates guaranteed plan value at retirement ill - health pension or enhancement current fund value including all fund details full cetv if the cetv has been reduced please confirm by what amount date of joining and leaving the pension scheme normal retirement date age members contributions to the scheme an immediate retirement quote value of pension at date of leaving value of pension at statement date deferred pension at date of leaving - per annum figure showing : o pre 88 gmp o post 88 gmp o pre 97 gmp o post 97 gmp o post 05 o post 09 o excess o should any gmp revalue at different rates please provide the relevant split pension increases in deferment for : o gmp o excess o if this is by price inflation please specify if this is cpi or rpi pension increases in retirement for : o gmp o excess o if this is by price inflation please specify if this is cpi or rpi have there been any discretionary increases in the last 10 years is there a spouses pension details in both deferment and retirement - also confirm if spouse s pension is calculated before or after any commutation confirmation of the reduction to the spouse benefits if the spouse is more than 10 years younger is there a children s pension details in both deferment and retirement guarantee period on death of the member lump sum payable in death in deferment and retirement the member s final pensionable earnings figure in order to determine the spouse s pension payable on death in deferment rate of interest applied to the refund of contributions on death in deferment full income without taking pcls earnings on leaving pcls at nra commutation factor for ages 55 - 70 early retirement factors and how they are applied - are these applied to pension at retirement or nra late retirement factors and how they are applied - are these applied to pension at retirement or nra scheme funding status date latest scheme funding statement leaflet booklet is the plan paid up longevity adjustment factor and how this is applied if applicable scheme booklet do you permit partial transfers and if so on what terms have you as yet equalised gmp payments in line with the may 1990 ruling by the european court of justice abc xyz pension administrator tel : + 91 012345678 fax : + 91 012345678 email : fin corp testmail com &lt;mailto : fin corp testmail com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">re : test pension fund - abc xyz thank you for your response in answer to your questions the address that you have for abc xyz is 10 test road test street aa12 123 f date of birth 1st january 1400 national insurance no zz123123z i look forward to hearing from you further regards abc xyz - - - - - - original message - - - - - - from : test pensions pensions com to : abc xyz testmail com sent : friday 20 nov 2020 at 16 : 25 subject : test pension fund - abc xyz dear abc xyz test pension fund thank you for your email regarding the ford pension fund please accept our apologies for the delay in responding to you to enable us to answer your enquiry please could you provide member s full address date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com &lt;mailto : test pensions pensions com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 from : abc xyz &lt;abc xyz testmail com sent : 26 october 2020 11 : 40 to : test pensions subject : mrs abc xyz - pension ref : 123456 i am writing to inform you that abc xyz moved into residential care on 1st january and that i will be handling all of her financial affairs as attorney from now on i will of course let you have all of my details so that any correspondence can sent directly to me but so that i can do everything in one go would you kindly let me know what information you require from me many thanks abc xyz daughter </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pre - identified user support request reply email address : testfund fincorp com forename : abc surname : xyz ni number : zz123123z dob : 01 january 1400 home postcode : aa12 123 employer : test pensions subject : transfer value content : good afternoon i am unable to see my transfer value on the website i phoned over a month ago and was told that this would be looked into and that i would also receive my transfer value by post i have not received this yet please look into this matter for me thanks test pensions</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> warning : message encrypted abc xyz your ref tst12345678 our ref tvaut - 123456 message encrypted good morning please find attached completed transfer paperwork for the above member looking to transfer to fin corp you will need to use the clients ni number in uppercase to view these documents if anything further is required please let me know kind regards abc xyz 10 test road test street aa12 123 tel : + 91 012345678 email : test pensions pensions com &lt;mailto : test pensions pensions com tel : + 91 012345678 email : test pensions pensions com &lt;mailto : test pensions pensions com </t>
+  </si>
+  <si>
+    <t>re : test pension fund - late lmno dear sirs we can confirm the following information as requested : lmno address : 10 test road test street aa12 123 date of death : 1st january 1400 national insurance no : zz123123z we look forward to hearing from you abc from : test pensions pensions com sent : 06 october 2020 11 : 10 to : abc xyz testmail com subject : test pension fund - late lmno dear test ifa test pension fund thank you for your email regarding the test pension fund to enable us to answer your enquiry please could you provide the member full address date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : test ifa fincorp com sent : 02 october 2020 16 : 23 to : test pensions pensions com subject : lmno deceased - reference : tst12345678 dear sirs we are in receipt of your letter dated 16 june 2020 to miss abc we can confirm that miss abc has appointed test ifa to act on her behalf in relation to the administration of the estate of her late father lmno we have noted the overpayment of pension which is due back from the estate unfortunately we have not yet obtained letters of administration and therefore do not have access to the requisite funds to reimburse you however we will be in touch in that regard with an update as soon as we are able on a separate note we have arranged for the funeral benefit form to be signed and we will return this to you in due course in the meantime please find enclosed the funeral receipt and invoice we look forward to hearing from you yours faithfully test ifa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test pension fund full name : abc xyz reference : tst12345678 ni : zz123123z i am writing with reference to your letter dated 1st january 1400 in which you state that i have sufficient unused annual allowance to cover any increase in pension savings during this tax year please consider this email as confirmation that i wish to continue with my chosen option 4 confirmation that you can now proceed with processing my retirement would be greatly appreciated kind regards abc xyz 10 test road test street aa12 123 + 91 012345678 abc xyz testmail com &lt;mailto : abc xyz testmail com </t>
+  </si>
+  <si>
+    <t>re : test death approval abc xyz - tst12345678 test pensions i agree with the recommendation in respect of mr abc xyz from : test ifa fincorp com sent : 21 september 2020 15 : 36 to : test pensions pensions com subject : test death approval abc xyz - tst12345678 test abc xyz - death in retirement please find attached the documentation relating to the above late member who died whilst in receipt of his pension the member was unmarried at the date of death therefore the committee are being asked to consider the lump sum death benefit of 1 500 00 only this case is being referred to the committee because the member did not leave a will however a nomination form was completed in 2002 was in favour of his common law wife mrs jkl and son mr def mr def has advised that the late member has lived in a care home for the last 7 years and has had no involvement with mrs jkl furthermore since 2015 the member has been in the care of the adult social care team in birmingham city council who hold a court of protection order copy attached for reference it would be our recommendation that lump sum death benefit is paid to his son - mr def please would you agree this recommendation kind regards test ifa</t>
+  </si>
+  <si>
+    <t>employee no 132456 hi im an ex employee trying to find all my old pensions from ex employers please could you inform me of steps required in obtaining my contribution while i worked for dsg i am planning on combining all of my pensions so need the data regards abc xyz</t>
+  </si>
+  <si>
+    <t>test application for ill health benefits - abc tst12345678 test pensions i agree with the recommendation in respect of mr abc from : test trustees pensions com sent : 03 november 2020 15 : 39 to : test pensions pensions com cc : testfund fincorp com subject : test application for ill health benefits - abc tst12345678 hi i agree with the recommendation to full commutation of pension to mr abc on the grounds of having less than 12 months to live regards dc from : test pensions pensions com sent : 03 november 2020 15 : 00 to : test trustees pensions com cc : testfund fincorp com subject : test application for ill health benefits - abc tst12345678 dear trustees we received approval to issue an ill health quote for the above member we have now received a letter from the member s gp that he has less than 12 month to live could i please have your approval to issue a full commutation of pension to mr abc i look forward to your urgent response kind regards test pensions from : test pensions pensions com sent : 18 september 2020 10 : 54 to : test trustees pensions com cc : testfund fincorp com subject : test application for ill health benefits - abc tst12345678 dear trustees the above member has a small preserved pension in the plan - 111 11 p a at his date of leaving of 22 03 1991 the current value of his deferred pension is 1 111 p a he is currently aged 52 and has been diagnosed with an aggressive brain tumour - please see attached could we please have your authorisation to issue mr horgan with an ill health quotation if you have any queries please let me know kind regards test pensions</t>
+  </si>
+  <si>
+    <t>urgent tst12345678 defg good morning i appreciate that you are very busy at present i have been trying the phone lines and just keep getting automated messages saying my call cannot be taken we have submitted transfer out paperwork for defg tst12345678 zz123123z 01 01 1400 aa12 123 the documents were signed for in your offices on 18 11 2020 and the guarantee date for the cetv is 30 11 2020 i just please need confirmation that the cetv is secured by the confirmation that the paperwork reached your offices well in advance of the guarantee date despite your current workloads if you are able to advise of your current turnaround times then this would also be appreciated - - kind regards test ifa</t>
+  </si>
+  <si>
+    <t>re : change of address - abcd hi test fund the members address has been updated thank you test pensions from : testfund fincorp com sent : 13 october 2020 18 : 14 to : test pensions pensions com subject : change of address - abcd nino - zz123123z dob - 01 01 1400 new address : 10 test road test street aa12 123 tel : + 91 012345678 email abc xyz testmail com could you please update your records with the members new address and contact details could you also previde him with his pension options see attached request kind regards test fund</t>
+  </si>
+  <si>
+    <t>re : zz123123z hello again i write to advise you that i wish to transfer out of the test pension fund and i have been told that the company i have chosen test pension fund have already contacted you to advise of this please confirm to me that you have received this from them and that this will be allowed to progress based on your transfer value that expires on 1st january 1400 regards abc xyz dob 01 01 1400 zz123123z 10 test road test street aa12 123</t>
+  </si>
+  <si>
+    <t>ref : tst12345678 mr abc xyz dear sir madam i have a pension test industries pension scheme tst12345678 i would like to have this pension paid out to me as a lump sum as soon as possible can you advise if you require any further information so as to proceed with my request as requested on your correspondence to me please find below details as requested abc xyz zz123123z yours sincerely abc</t>
+  </si>
+  <si>
+    <t>tst12345678 abc xyz reference tst12345678 abc xyz hi could you please change my address from 30 test road test street au12 123 to 10 test road test street aa12 123 kind regards abc</t>
+  </si>
+  <si>
+    <t>abc xyz change of address pension reference tst12345678 my new address is 10 test road test street aa12 123 kind regards abc xyz</t>
+  </si>
+  <si>
+    <t>mr stu vwx good day i have spoken with one of your advisers today but i need some clarification please my father mr stu vwx ni no zz123123z ref tst12345678 currently as my father died and had received his pension in advance the estate owes 1 111 11 which i understand i am happy to have the money is paid out from what was his joint account with my mother she will be keeping the account to receive payments from yourselves could she then receive her payments i was also told that before any payments could be made to her a copy of the probate must be supplied but i see no reason for this as pensions fall outside the scope of probate we are in the process of applying for probate which will probably happen end of january can you confirm we can pay the amount owing and confirm that a copy of the probate is not required to release payments to my mother def if you have any questions please feel free to let me know thank you in advance kind regards abc + 91 012345678</t>
+  </si>
+  <si>
+    <t>re : wxyz pension scheme hello scheme number : tst12345678 abc 10 test road test street aa12 123 dob : 01 01 1400 ni : zz123123z thanks for passing on my query to the administration to team i wanted to share some pieces of correspendence i have previosuly received in relation to the def lump sum i have attached some letters i have received including the last letter dated 24 april 2020 in this letter it mentions about the def lump sum saying that i can take the money prior to the transfer to lmn are you able to give me an update on this process please i have always been made aware that i am eligible for this lump sum but have never been given the opportuntiy to opt in to it which was stated in a previous letter kind regards abc from : test pensions pensions com sent : 26 october 2020 13 : 40 to : abc xyz testmail com subject : wxyz pension scheme dear abc wxyz pension scheme thank you for your email regarding the wxyz pension scheme i can confirm that i have forwarded your query to the administration team; once a response has been received we will be in touch accordingly should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 22 october 2020 19 : 24 to : test pensions pensions com subject : re : wxyz pension scheme good afternoon thanks for your email after months and months of correspondence from the wxyz pension scheme i was lead to believe that due to the winding up of this scheme if the value of my pension was under 18 000 - which it is then i could take the sum as cash i do have most of the letters so would it be easier to call someone and discuss regards abc from : test pensions pensions com sent : 22 october 2020 14 : 41 to : abc xyz testmail com subject : wxyz pension scheme dear abc wxyz pension scheme thank you for your email regarding the wxyz pension scheme i can confirm that i have logged your request to our administration team to update your address a written response will be issued to your home address within 10 - 15 working days also i can confirm from the scheme rules that earliest we can issue retirement projection is from the age of 55 however i have logged a request for update of benefits instead once your address details are updated we will proceed with your pension query should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 20 october 2020 14 : 12 to : test pensions pensions com subject : re : wxyz pension scheme good morning my current full address is other info is name : dob : ni number : other addresses are kind regards abc from : test pensions pensions com sent : 16 october 2020 12 : 33 to : abc xyz testmail com subject : wxyz pension scheme dear test pensions wxyz pension scheme thank you for your email regarding the wxyz pension scheme to enable us to answer your enquiry please could you provide previosu your full address for data verification purposes should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 14 october 2020 21 : 36 to : test pensions pensions com subject : pension update good afternoon are you able to give me an update please on the situation with my pension and when you think there will be a resolution i am looking to take the amount i have as a cash lump sum kind regards abc</t>
+  </si>
+  <si>
+    <t>abc test pensions tst12345678 urgent hi please can you provide an update on the progress of this information request and an estimated date we can expect a response with the information many thanks in advance please quote our client case number on all your replies tst12345678 regards test ifa from : test ifa fincorp com sent : 10 november 2020 12 : 05 to : test pensions pensions com&lt;mailto : test pensions pensions com subject : abc test pensions tst12345678 urgent urgent urgent urgent please can someone give us an urgent update on the attached loa and information request the client is looking for an update so would appreciate a current timescale just so as we can manage the client expectations many thanks please quote our client case number on all your replies tst12345678 test ifa from : test ifa fincorp com sent : 06 november 2020 18 : 02 to : test pensions pensions com&lt;mailto : test pensions pensions com testfund fincorp com&lt;mailto : testfund fincorp com subject : abc test pensions tst12345678 urgent please quote our client case number tst12345678 on all your replies hi please find attached pension information projections letter together with our client s signed letter of authority loa please provide us with the requested information as soon as possible by secure email if possible transfer discharge requirements : please enclose your discharge transfer encashment form please confirm what form of id is required from our mutual client please confirm if your funds can be paid directly to st james s place wealth management for the client s benefit please confirm if the discharge encashment transfer of this plan is supported under the origo options pension transfer service please email : tst12345678 tel : + 91 012345678 regards test ifa</t>
+  </si>
+  <si>
+    <t>abc tst12345678 - zz123123z - 01 01 1400 importance : high good morning i m concerned that i am yet to have a response to my below request please provide the answers to our queries urgently and by email if possible kind regards test ifa from : test ifa fincorp com sent : 06 october 2020 17 : 26 to : test pensions pensions com subject : abc tst12345678 - zz123123z - 01 01 1400 importance : high good afternoon please find attached a letter of authority duly signed by our mutual client which should enable you to release information for this policy therefore please kindly provide me with the following information in writing; dates salary date of joining and leaving the scheme member s final pensionable salary has the gmp been equalised are partial transfers allowed i e can the gmp remain and post 97 rights be transferred funding statement if relevant is late retirement allowed if so to what age and late retirement factors please pension benefits at date of leaving scheme gmp benefits; showing any pre post 88 splits the rates of revaluation in deferment and escalation in payment excess benefits; showing any pre post 85 or 97 splits the rates of revaluation in deferment and escalation in payment list of any discretionary increases applied to pension either in deferment payment during last 5yrs breakdown of any transferred - in benefits; are the benefits treated the same as the main scheme benefits if not please highlight any differences is there a fixed pension at nra of service credit if no gmp contained does the member have any avcs if so how what is the current value do they have to be transferred with the main scheme benefits what funds are they invested in can the member switch into different funds early retirement is early retirement allowed if so from which age what actuarial reduction factors are currently applied to members pensions in the event of early retirement if a table of factors is not available please provide the percentage reduction applicable for each year early and whether this is compound or simple reduction would the member benefits be revalued to the date of actual or normal retirement upon early retirement if revalued to normal retirement at what assumed rate are benefits projected to normal retirement benefit payable now on a full pension basis and maximum pension commencement lump sum with reduced pension basis tax free cash member tfc at date of leaving would this amount revalue if so at what rate does the scheme pay hmrc post a - day maximum cash amount of pre a - day ir maximum cash at 5 4 2006 if protected what are the scheme current tfc commutation factors from nra to age 55 death benefits does the scheme pay a death before retirement lump sum if so what and how much what pension would the member spouse receive upon death before and after retirement what death after retirement guarantee does the scheme apply contracting out was the scheme contracted out pre post 06 04 1997 if yes for post 97 on what basis; reference scheme protected rights underpin mixed benefit transfer value total transfer value cetv ; showing any splits of gmp protected rights pre post 06 04 1997 calculation and guarantee dates also amount of member contributions included in the tv scheme information scheme s normal retirement age is the scheme open to all employees or are there restrictions if so what are they what is the scheme s current funding position would deferred members benefits be affected in any way if so how is the scheme a member of the transfer club will the scheme allow a partial transfer of benefits if yes please outline any restrictions that would be applied and or provide details of the basis on which a partial transfer would be allowed if no please confirm if there is more than one type section version of scheme membership which one applies to the member is the plan subject to an earmarking or attachment order what date was the scheme equalised and the earliest age benefits can be taken unreduced if the transfer were to proceed would the scheme be insistent that all forms must be returned within the guarantee period or could some discretion be used at that time please forward copies of any warranty discharge forms that would need to be completed if the client decided to transfer their benefits thank you for your assistance in this matter kind regards test ifa</t>
+  </si>
+  <si>
+    <t>test pension scheme reference tst12345678 dear sir madam mr abc ni : zz123123z 10 test road test street aa12 123 thank you for your email would you kindly provide me with a list of funds that my test pension scheme are held in and the that is held within each fund please email or by post to my address yours faithfully mr abc + 91 012345678 abc xyz testmail com - - - - - - - - - - forwarded message - - - - - - - - - from : test pensions pensions com date : wed 4 nov 2020 at 19 : 42 subject : test pension scheme reference tst12345678 to : abc xyz testmail com dear abc test pension scheme thank you for your email regarding the test pension scheme i have checked our records and can confirm that the correspondence was issued to def ltd on 29th october 2020 please note that you will receive it shortly if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 02 november 2020 17 : 26 to : test pensions pensions com subject : test pension scheme reference tst12345678 dear sir madam test pension scheme abc reference : tst12345678 national insurance number : i refer to your letter dated 28th october 2020 a copy of which is attached for your reference and to my telephone conversation with test pensions today i can confirm that i have given def ltd my full authority to act on my behalf regarding all matters relating to my test pension scheme would you please provide them with a transfer value statement as requested by them and any other information that they may request regarding my pension yours faithfully abc 10 test road test street aa12 123</t>
+  </si>
+  <si>
+    <t>test pension fund - bheem b message encrypted dear sir madam as per previous correspondence from ms bheem please find attached copy of our correspondence sent to you today confirming the member s cash lump sum on retirement from the above fund the attachment is password protected with the member s national insurance number all upper case kind regards sun light senior pensions administration leatherhead office postal address : post email fax centre z st tower 0 chennai road loundon m0 00a direct dial : + 44 1 1000 000 000</t>
+  </si>
+  <si>
+    <t>test pension scheme; scheme member; change of address n i number : zz123123z dear sir madam i have recently received a publication regarding the above pension scheme redirected from my previous address details below : 10 test road test street aa12 123 i wish to register a change of address to that detailed below : 10 test road test street aa12 123 please could you acknowledge this change of address and forward any future information regarding the above referenced scheme to the changed address many thanks abc xyz lead assessor mobile number + 91 012345678 email : abc xyz testmail com</t>
+  </si>
+  <si>
+    <t>updated address and contact details hi i am a deferred member of the test pension scheme and would like to update my contact details : name : abc xyz ni number : zz 12 31 23 z old address : 10 test road test street aa12 123 new address : 10 test road test street aa12 123 i would like to get updates and newsletters via email to abc xyz testmail com thanks abc xyz</t>
+  </si>
+  <si>
+    <t>re : change of personal details name abc further to my previous email my date of birth is 01 january 1400 t i pension reference number tst12345678 national insurance number zz123123z change of address from 70 test road test street wa12 123 new address 10 test road test street aa12 123 mobile + 91 012345678 email abc xyz testmail com&lt;mailto : email jackie barrett123197 gmail com regards abc on wed 14 oct 2020 15 : 01 abc xyz testmail com&lt;mailto : abc xyz testmail com wrote : name abc test group pension scheme member reference number tst12345678 national insurance number zz123123z i wish to advice you on my change of address now; 10 test road test street aa12 123 mobile number + 91 012345678 regards abc - - abc</t>
+  </si>
+  <si>
+    <t>test pension fund : def good morning following the emails below my father xyz has received a letter from you dated 01 january 1400 regarding the death on my mother def - your reference tst12345678 in that letter you say you need to see certain original documents being my fathers birth certificate or passport marriage certificate and death certificate to say the least requiring original documents to be sent around the world is both unusual and high risk in dealing will my mothers estate no other pension provider xxx or xxx has asked for anything other than certified copies of documents to this end i spoke with a representative of test deceased estates department in xxx he thought your need to be extraordinary and said certified copies suffice here questions : 1 can my father send certified copies authorised by an appropriate authority or a test officer at you xxx office 2 what document or documents would be acceptable in lieu of a xxx marriage certificate as my father is unable to locate this document i await your reply regards abc - - - - - - original message - - - - - - from : abc xyz testmail com to : test pensions pensions com sent : thursday 13 aug 2020 at 7 : 41 am subject : test pension fund : def in my previous response to this i gave def s dob as 01 january 1400 which was an error the correct dob is 01 january 1400 regards abc - - - - - - original message - - - - - - from : test pensions pensions com to : abc xyz testmail com sent : tuesday 11 aug 2020 at 11 : 02 pm subject : test pension fund : def dear abc test pension fund please accept my sincerest condolences for your loss in order to assist us could you please provide us with the following details : date of birth : has the death been registered and death certificate issued : what address did you will you use to register the death : did the member have any financial dependants or a spouse address for condolence pack : did the member leave a will if yes - can i take the name of the executor contact number : if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 08 august 2020 05 : 45 to : test pensions pensions com subject : good morning this is to let you know that my mother died of natural causes on 1st january 1400 i assume you will terminate her payments from the test pension funds if there is anything else my father or i need to do please let me know also does your scheme provide any funeral or bereavement benefits for my father kind regards abc</t>
+  </si>
+  <si>
+    <t>reference tst12345678 - abc xyz - test pension scheme membership number zz123123z 2 further important areas of understanding importance : high dear sirs abc xyz national insurance number : - zz123123z smiths industries pension scheme reference : - tst12345678 thank - you for your letter dated 30 10 2020 confirming correction of my statement as at 01 01 1400 and explanation as to why my fin corp account is not yet up to date i would like to take the opportunity to enquire about two further important areas of understanding please : - 1 the possible size of lifetime allowance amount to be expected from the sips at retirement 2 should i wish to take my benefits earlier than normal retirement age nra the reduction i could expect with respect to 1 my understanding is that the rule of thumb calculation is to multiply the annual pension at retirement ap by 20 in the attached excel sheet i have attempted to project ap and lifetime allowance amounts using a number of assumptions i have applied a range of rpi assumptions to items b c and the fixed 5 p a to items a e over 10 years item d transferred - in pension 100 p a as at 01 01 1400 will be at least the fixed pension guarantee of 500 p a at age 65 according to my attached pdf statement of preserved retirement benefits so i have assumed this amount as any higher amount would need average compound growth of over 10 p a which seems unlikely the sum of all of these using rpi assumptions of 1 2 5 and 4 computes ap values of c 10000 c 20000 and c 50000 respectively and applying the rule of thumb x10 calculation computes lifetime allowance amounts of c 300000 c 500000 and c 600000 respectively at nra i would be grateful if you could confirm that my understanding and expectations are correct using the stated assumptions for rpi with respect to item 2 i would be grateful for an understanding of how much my annual pension could be if benefits were taken early for example now and how i could estimate what this value could be as each year passes between now and nra in terms of reduction would item d above include a reduced proportion of the fixed pension guarantee of 1000 p a which then ought to be higher than the 300 p a as at 01 01 1400 i look forward to hearing from you again in due course many thanks kind regards abc xyz 10 test road test street aa12 123 tel : + 91 012345678 mob : + 91 012345678 from : abc xyz sent : 18 october 2020 21 : 41 to : testscheme fincorp com subject : reference tst12345678 - abc xyz - test pension scheme membership number zz123123z 2 further important areas of understanding dear sirs abc xyz national insurance number : - zz123123z test pension scheme reference : - tst12345678 since my email below the attached annual valuation letter arrived in the post on 17 10 2020 however the figure quoted appears unexplainably low in relation to last year s valuation which i would like to urgently query please the format of the letter also lacks the requested detailed format i have received each year and been accustomed to so it is not possible to follow how this has been calculated but it does not seem correct according to the scheme rules i am also concerned should fin corp ltd not have received my full pension details from fin corp 2 ltd and this perhaps explains the sudden inconsistent valuation as well as why my fin corp account lacks the correct up to date pension details in order to ensure your records are complete and assist with my query i am attaching in addition the following with comments : - 1 my official statement of preserved retirement benefits received 01 01 1400 with key notes including how my augmented preserved pension will increase over time according to the rules 2 an excel sheet showing each year s detailed valuation starting 01 01 1400 500 until 01 01 1400 1000 attached i have a detailed annual valuation letter for each of these years from initially fin corp 1 then fin corp 2 and then fin corp 3 the key point is that the scheme gmp and transferred in gmp are guaranteed to be increased by 10 p a and the rest is guaranteed to increase by the lower of 10 or rpi p a with an additional guarantee minimum fixed pension of 700 p a for the transferred in pension the sheet shows that a value of 1000 on 01 01 1400 cannot be mathematically correct even if rpi for 2019 20 had been 0 the resulting value on 01 01 1400 would have been higher than 1000 and with an assumed estimated rpi of 3 it would be 1500 the sheet also shows a projection at retirement age assuming average rpi of 2 8 p a to emphasize how import the correct annual increases are combining with the transferred in pension guarantee for the overall pension amount i would therefore be grateful for the following please : - a review of the above valuation and then issuance of the detailed annual valuation letter in the form prepared by fin corp ltd as attached which tabulates each component as at 01 01 1400 with the confirmatory narrative which aligns with my preserved retirement benefits details hopefully this results in an updated correct valuation update of my fin corp account for my pension details and overall confirmation that my pension details are held safely by fin corp and are up to date finally i intend to continue to request this annual valuation letter and would ask if it could be possible please to receive this automatically each year for 1 may if not possible i will continue requesting each year i look forward to hearing from you again in due course many thanks kind regards abc xyz 10 test road test street aa12 123 tel : + 91 012345678 mob : + 91 012345678 from : abc xyz sent : 18 october 2020 21 : 41 to : testscheme fincorp com subject : re : abc xyz - test pension scheme membership number zz123123z annual valuation letter 1 june importance : high dear xyz dear sirs i hope you are keeping safe and well i was just wondering if my requested annual valuation letter is close to being completed as i have not yet received anything i realize due to the current unprecedented circumstances that there is a delay in administration requests but i would be grateful if you could give me an indication when it could be ready please i have also just logged in to my fin corp account and noticed that my pension details are not up to date and aligned with any of the valuations i have received up to now fin corp actually states that i left the pension scheme on 01 01 1400 which is not correct nor is the value quoted i would be grateful if you could also review this and update my account in due course please would it also be possible to receive my annual valuation letters uploaded on to my account in future to keep my account up to date in this way many thanks kind regards abc xyz 10 test road test street aa12 123 tel : + 91 012345678 mob : + 91 012345678 from : abc xyz sent : 18 october 2020 21 : 41 to : testscheme fincorp com subject : re : abc xyz - test pension scheme membership number zz123123z annual valuation letter 1 june importance : high xyz my verification information which you requested is as follows : - date of birth : - 01 01 1400 national insurance number : - zz123123z many thanks kind regards abc xyz 10 test road test street aa12 123 tel : + 91 012345678 mob : + 91 012345678 from : test pension scheme &lt;testscheme fincorp com sent : 23 july 2020 12 : 34 to : abc xyz testmail com subject : abc xyz - test pension scheme membership number zz123123z annual valuation letter 1 june importance : high dear mr abc xyz test pension scheme thank you for your email regarding the test pension scheme to enable us to answer your enquiry please could you provide your date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 www fincorp com from : abc xyz sent : 18 october 2020 21 : 41 to : testscheme fincorp com subject : re : abc xyz - test pension scheme membership number zz123123z annual valuation letter 1 june importance : high dear sirs i hope you are all keeping well during these unprecedented times every year i always request an updated valuation letter in the attached form to keep abreast of how my pension is progressing could i please request a new update as at 01 01 1400 i realize you may have other priorities currently but would appreciate if this could be prepared and sent when time permits in due course many thanks kind regards abc xyz 10 test road test street aa12 123 tel : + 91 012345678 mob : + 91 012345678</t>
+  </si>
+  <si>
+    <t>re : test fund pension plan dear test pensions please see amended expression of wish form many thanks abc from : test pensions pensions com sent : 13 november 2020 09 : 27 to : abc xyz testmail com subject : test fund pension plan dear mrs abc test pension plan thank you for your email regarding the test pension plan your request for change of address and change of name has been logged and you will receive a written response from our administration department within 5 - 10 working days i have attached an expression of wish form for you to print and complete as appropriate please send the signed and completed document to the address as detailed below at your earliest convenience once your address details are updated we will proceed with your pension statement query if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com did you know that member s can access and manage their pension online by logging into their test account if you are a scheme of this member you can access your account if you have forgotten your username and or password there is a link on this page to reset it if you have not previously activated your account email us so we can provide you with the activation link yours sincerely test pensions from : abc xyz testmail com sent : 11 november 2020 21 : 55 to : test pensions pensions com subject : change of address and name good evening could you please update the following details current details : - new details : - wedding cert attached dob : - ni number : - also could you send me an expression wish form and my latest pension statement many thanks abc from : abc xyz testmail com sent : 11 november 2020 16 : 13 to : abc xyz testmail com subject : wedding cert</t>
+  </si>
+  <si>
+    <t>re : change of address - ref tst12345678 good morning i have a pension scheme with you test group pension scheme 1400 with my reference no tst12345678 my name and dob are : abc xyz 01 01 1400 national insurance no : zz123123z i am writing to you to let you know of my change of address my new address is in xx : 10 test road test street aa12 123 my previous address was at 102 test road test street ea12 123 please could you update my personal details accordingly additionally i would like to update my beneficiary how can i do this finally i would like to be able to loggin to my account online what is the process please could you register me please many thanks abc xyz + 91 012345678 on tue 17 nov 2020 at 10 : 37 abc xyz testmail com&lt;mailto : abc xyz testmail com wrote : good morning i have a pension scheme with you test group pension scheme 1400 with my reference no tst12345678 i am writing to you to let you know of my change of address my new address is in france : 10 test road test street aa12 123 please could you update my personal details accordingly additionally i would like to update my beneficiary how can i do this finally i would like to be able to loggin to my account online what is the process please could you register me please many thanks abc xyz + 91 012345678</t>
+  </si>
+  <si>
+    <t>test transfer - abc hi test pensions thanks for this i have received this now we had already sent all the old signed documents in from the previous transfer value documents we had as the value expired just before transfer we had to request a new value can you please confirm what the client needs to sign now as we have already sent everything in before is it only the new signed cetv document that needs to be signed from the member please let me know thanks test ifa from : test pensions pensions com&lt;mailto : test pensions pensions com date : thursday 19 november 2020 at 00 : 18 to : test ifa fincorp com&lt;mailto : test ifa fincorp com subject : test transfer - abc dear test ifa please find below the original email with attachments apologies that you did not receive this initially it appears the email address was incomplete please do not hesitate to contact us should you have any queries kind regards test pensions from : test pensions pensions com sent : 18 november 2020 14 : 12 to : test ifa fincorp com subject : test transfer - abc good afternoon please find attached the transfer pack for mr abc the documents are password protected using the members national insurance number kind regards test pensions</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pre - identified user support request reply email address : test ifa fincorp com forename : abc surname : xyz ni number : zz123123z dob : 01 jan 1400 home postcode : aa12 12 employer : fin corp ltd subject : fin corp ltd content : policy 1234567 as i reach retirement age - wish to make arrangements for bringing this pension into payment abc</t>
+  </si>
+  <si>
+    <t>change of address good evening is it possible to change my contact address via email kind regards abc xyz</t>
+  </si>
+  <si>
+    <t>re : test pension scheme good evening the info you require is as follows abc xyz 10 test road test street aa12 123 zz123123z regards abc xyz on 17 nov 2020 at 01 : 40 test pensions pensions com &lt;mailto : test pensions pensions com wrote : dear abc xyz test pensions scheme thank you for your email regarding the test pensions scheme to enable us to answer your enquiry please could you provide your full address date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely abc xyz administrator customer support centre test pensions 10 test road test street aa12 123 direct dial : + 91 012345678 - - - - - original message - - - - - from : abc xyz&lt;abc xyz testmail com sent : 12 november 2020 16 : 38 to : test pension subject : pension query good morning a long time ago around 1400 01 i worked for a company who were associated with your pension scheme i do get a booklet from test pension industries from time to time however i am just wondering how i can get access to my own pension account i worked for fin corp machine tool company in bredbury stockport is there any login details i can log into any advice on this would be gratefully appreciated regards abc xyz def tel + 91 012345678</t>
+  </si>
+  <si>
+    <t>pension value reads as nil hello my test pension is now with fin corp pension reference is zz123123z the value has remained at nil since january 2019 pension notes indicate that a value will be uploaded shortly but that hasn t happened to date could you please confirm that my pension is still active and that a value will appear soon kind regards abc xyz 10 test road test street aa12 123 sent from mail &lt;https : go microsoft com fwlink linkid = 550986 for windows 10</t>
+  </si>
+  <si>
+    <t>test pension plan - abc good morning we are yet to receive this due to the time critical nature of these quotes would it be possible to email me a copy if this is not possible please post this again many thanks test ifa from : test pensions pensions com sent : 12 november 2020 07 : 45 to : test ifa fincorp com subject : test pension plan - abc dear test ifa test pension plan thank you for your email regarding the test pension plan a guaranteed transfer value statement was issued to your team on 06th november 2020 via post if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pension from : test ifa fincorp com sent : 10 november 2020 13 : 45 to : test pensions pensions com subject : test pension plan - abc importance : high good afternoon i would be grateful if you would confirm the above member has now left the scheme and when we can expect to received the guaranteed transfer value requested please post this to our below address or indeed send through by reply email if possible kind regards test ifa from : test ifa fincorp com sent : 22 july 2020 12 : 54 to : test pensions pensions com subject : test pension plan - abc hello i have not received a response please could i have this urgently thank you test ifa from : test ifa fincorp com sent : 07 july 2020 14 : 44 to : test pensions pensions com subject : test pension plan - abc hello please could i have an update on my request dated 30 06 2020 kind regards test ifa from : test ifa fincorp com sent : 30 june 2020 09 : 59 to : test pensions pensions com subject : test pension plan - abc good morning i refer to our above client and attached letter of authority and would like to request a benefits statement from the age of 56 : 1 max tax free cash being taken and a reduced pension and 2 maximum pension with no tax free cash for our above client many thanks test ifa</t>
+  </si>
+  <si>
+    <t>change of address good evening is it possible to change my contact address via email kind regards abc</t>
+  </si>
+  <si>
+    <t>abcd xx tst12345678 good morning re xx test pensions ref no tst12345678 sorry this is quite urgent as docs only valid until 01 01 1400 i have tried to contact your office vis phone today still holding after 45 minutes documents received to transfer client benefits can we email across discharge forms signed by client or are originals required no adviser sign off doc was attached is this required can we send across our standard document of can you provide such a document via email asap again is original required in post or can we email i look forward to your response test ifa</t>
+  </si>
+  <si>
+    <t>ref tst12345678 mr abc xyz deceased please find attached a copy of your letter and the completed bank mandate form as requested i will also post the originals to fin corp aa12 123 kind regards abc xyz daughter and executor of the will</t>
+  </si>
+  <si>
+    <t>re : home address update hi benpal my name is jan feb national insurance number is : aa000000a day of birth : 1st april 1800 current address : 12 mountain hill 12 st tower ss0 0ss could you please change my address to : 100 neil armstrong circle london aa0 0aa fordshire kind regards jan jan feb phone + 44000 000 0000 mobile + 44000 000 0000 email jian jun - wang cba com au from : jan feb sent : friday november 27 2020 5 : 55 pm to : cba jltgroup com subject : home address update hi benpal team could you please change my home immediately to a new address : 100 neil armstrong circle london aa0 0aa fordshire kind regards jan feb jan feb phone + 44000 000 0000 mobile + 44000 000 0000 email jan feb cba com au</t>
+  </si>
+  <si>
+    <t>change of address - completed form please find attached a completed change of address form abc</t>
+  </si>
+  <si>
+    <t>re : def retirement and employee scheme - abc good morning further to your email please see the following : 10 test road test street aa12 123 1st january 1400 zz123123z regards test ifa from : test pensions pensions com sent : 01 december 2020 08 : 04 to : test ifa fincorp com subject : def retirement and employee scheme abc dear test ifa def retirement and employee scheme thank you for your email regarding the def retirement and employee scheme to enable us to answer your enquiry please could you provide the member full address date of birth and national insurance number for data verification purposes for added security please also confirm your full company name and the address stated on the provided letter of authority should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely test pensions from : test ifa fincorp com sent : 27 november 2020 14 : 55 to : test pensions pensions com subject : - tst12345678 good morning i uploaded an loa and information request form to your website on 29 10 20 please could you provide me with an update kind regards test ifa</t>
+  </si>
+  <si>
+    <t>re : test pension scheme dear abc xyz please see my data below : 10 test road test street aa12 123 dob : 1st january 1400 nin : zz123123z best wishes abc xyz on wed 2 dec 2020 at 11 : 42 &lt; test pensions pensions com wrote : dear abc xyz test pension scheme thank you for your email regarding the test pension scheme to enable us to answer your enquiry please could you provide your full address date of birth and national insurance number for data verification purposes should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely abc xyz administrator customer support centre test pensions 10 test road test street aa12 123 direct dial : + 91 012345678 from : abc xyz&lt;abc xyz testmail com sent : 30 november 2020 18 : 19 to : test pensions subject : short service refund lump sum - tst12345678 good afternoon two months ago i received a letter dated 15 september 2020 confirming that my request to receive short service refund lump sum has been accepted and that the payment will be made into my account in the next payroll run of my former employer it been 2 5 months since the letter was sent to me and i have not received the payment yet and was not contacted in order to inform me about any delay could you please update me on the status of my refund my nin is zz123132z best wishes abc xyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">change of address hi my name is abc my birthday is 01 01 1400 around a year ago i moved house my new address is as below mr abc 10 test road test street aa12 123 my previous address was 103 test road test street ua12 123 i have tried to register online but it didn t seem to work properly regards abc </t>
+  </si>
+  <si>
+    <t>re : test pension plan hi apologies i should have included them n i zz123123z 01 01 1400 regards abc on 12 nov 2020 at 07 : 51 test pensions pensions com&lt;mailto : test pensions pensions com wrote : dear mr abc test pension plan thank you for your email regarding the test pension plan to enable us to answer your enquiry please could you provide your date of birth and national insurance number for data verification purposes i have also attached an expression of wish form for you to print and complete as appropriate please send the signed and completed document to the address as detailed below at your earliest convenience if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions - - - - - original message - - - - - from : abc xyz testmail com sent : 10 november 2020 16 : 39 to : test pensions pensions com subject : expression of wish hi morning i need to update my wish details i received the latest newsblast brief and it says i need a test account and i should request a eow from admin my details can i not do this on line please advise regards abc mob + 91 012345678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pre - identified user support request - abc reply email address : abc xyz testmail com forename : abc surname : xyz ni number : zz123123z dob : 01 jan 1400 home postcode : aa12 123 employer : test pension scheme subject : request for personal statement content : i am considering drawing on my deferred abc test pension from 25th june 2021 in order for me to come to a final decision could you please forward the necessary documentation to help me start the process member reference tst12345678 as shown in test account many thanks </t>
+  </si>
+  <si>
+    <t>fw : extending decision time dear ms abc xyz i refer to my email of 1 jan see below when i requested an extension to the guaranteed period for transfer value i hope that you can deal with this request urgently as time is passing and we must have confirmation on the extension to 30 january before taking further action i look forward to hearing from you regards abc xyz from : abc xyz &lt;abc xyz testmail com sent : 14 november 2020 15 : 34 to : test pensions &lt;test pensions pensions com subject : extending decision time : test pension scheme dear ms abc xyz thank you for the amended pension transfer pack received on 1 jan the pack refers to the transfer value of my pension as at 10 jan it also indicates that the transfer value expires on the 10 december given that the transfer pack did not get to me until 30 jan following delays that leaves just about 6 weeks to take advice from my financial adviser; which he tells me will include further information gathering from fin corp reflect make a decision complete and return the necessary documents to fin corp i feel that the period is too short and my financial adviser who is very experienced in dealing with defined benefits transfers also feels that it would be too short to make this deadline even in a best case scenario when considering this request please bear in mind the difficulties that companies like fin corp have in providing a normal service due to covid restrictions i am sure you will also consider that financial advice is not as accessible during this current lockdown my adviser confirms that his firm is unable to make face to face meetings which in my circumstances is not ideal the length of time involved in producing braille copies of print documents should also be considered as there is always an interval of 7 to 10 days between the date on the print letter and the date that i receive it in braille can i suggest and respectfully request given the circumstances that the three month guaranteed transfer value window should start from 30 october when i received the amended transfer pack i look forward to hearing from you urgently on this matter abc xyz 10 test road test street aa12 123</t>
+  </si>
+  <si>
+    <t>test pension scheme hi team please see below query and reply accordingly many thanks abc xyz administrator customer support centre test pensions 10 test road test street aa12 123 direct dial : + 91 012345678 from : abc xyz&lt;abc xyz testmail com sent : 09 november 2020 10 : 23 to : test pensions subject : re : test pension scheme hi i have still not received an answer to my query now dating back several months despite your promise to review it and deal with it promptly it is just a small query but i need it answered so i know what my tax position is in regard to the arrears payment please can i ask you to just answer this i have tried ringing the no you gave me but i am unable to speak to anyone and it is becoming so frustrating thank you abc xyz tha on wed oct 7 2020 at 1 : 48 pm &lt; test pensions pensions com wrote : dear abc xyz test pensions scheme thank you for your email regarding the test pensions scheme please accept our sincerest apologies for the delay we will review the current position of your case and ensure that it is dealt with promptly if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 from : abc xyz&lt;abc xyz testmail com sent : 05 october 2020 16 : 00 to : test pensions pensions com subject : re : your letter dated 26 june 2020 hi this is in relation to a query i first made by email on 24 june last correspondence from you was a letter dated 7 september saying you were asking cgi for a response and would get back to me your letters always state that i can contact you by phone but this is not the case as the options i am given by the automated service blocks me from getting through i appreciate that the current circumstances have had an effect and also know that my question is a minor one but it is very frustrating that it is taking more than 3 months to get an answer from you kind regards abc xyz on fri jul 3 2020 at 8 : 03 am abc xyz &lt; abc xyz abc xyz testmail com wrote : re : test pension scheme the scheme dear helpdesk your letter dated 26 june advised that a gross payment of pension arrears would be paid into my bank account on or around 3 july this amount being 11 176 62 today i received a payment of 7 243 42 so am wondering whether this is a net amount after tax has been taken out i am very happy to receive the arrears and thank you but would appreciate clarification on the amount thank you abc xyz</t>
+  </si>
+  <si>
+    <t>fin corp registration dear sir madam i am a previous employee of fin corp and have made payments into test pension scheme i have lost track of the details for that scheme and would again like to log in to the portal during 2019 i was contacted by the tracing group in relation to the test pension scheme and completed their on - line form i am contacting you today to understand the process i need to follow to register for online access to the portal that manages the test pension scheme i believe it is the fin corp portal any guidance would be appreciated thanks abc xyz</t>
+  </si>
+  <si>
+    <t>test pension plan hello thank you for reply just want to ask is it completely safe for me to send such details in a email as we are told not to do this ! hope you understand apology for any inconvenience abc - - - - - original message - - - - - from : test pensions pensions com to : abc xyz testmail com sent : wed nov 11 2020 08 : 23 am subject : test pension plan dear mr abc test pension plan thank you for your email regarding the test pension plan to enable us to answer your enquiry please could you provide your full address date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 07 november 2020 13 : 01 to : test pensions pensions com subject : re : your transfer value request hello many thanks for helping out with login after reading all about early retirement i am worried that i may run out of money to live on ! it is such a big decision to leave than not have a wage that goes in every week i have read about so many scams bad advice etc that people have lost thousands from there hard earned savings now i do not know whether to cancel my vr application also as i am 57 it will be another ten years before state pension so am i wanting to leave too early i just dont know ! now with so many things going on i feel i am worried i really do not know what to do is there a person who i can talk to about this sorry for any inconvenience abc - - - - - original message - - - - - from : test pension team to : abc xyz testmail com sent : fri oct 30 2020 07 : 27 pm subject : your transfer value request the result of the transfer value calculation you requested for your test pension scheme is now available you can view your transfer value by logging on to the pension section of test at https : www test com this information will be available to you until 01 11 2020 00 : 00 : 00 or until such time you request another calculation if you have any questions regarding the document or your test pension just call the test team on + 91 012345678or email us at test pensions pensions com regards test pension team + 91 012345678 test pensions pensions com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pension forecast - abc xyz nino - zz123123z dob - 01 01 1400 could you please issue an early retirement quotation for the 1 december 2020 kind regards abc direct : + 91 012345678 abc xyz testmail com from : abc xyz testmail com to : test pensions pensions com date : 05 11 2020 10 : 40 subject : pension forecast - abc xyz please could you send me a pension forecast abc xyz 10 test road test street aa12 123 thank you warning : this is an external email do not click links or open attachments unless you recognise the sender and know the content is safe </t>
+  </si>
+  <si>
+    <t>abc xyz pension dear abc xyz thank you for your letter dated 1st january 1400 checking on the accuracy of my records as you are aware i now live in australia because banks in the american and australia are no longer honouring cheques from next year i wish to arrange for my test pensions to be paid directly into my bank account and not into my joint account could you please let me know what information you need to get this set up my national insurance number is zz123123z yours sincerely abc xyz e 10 test road test street aa12 123 + 91 012345678 sent from my ipad</t>
+  </si>
+  <si>
+    <t>change of address i would like to notify you of a change of address : mr abc 102 test road test street ea12 123 i have moved to the following address : 10 test road test street aa12 123 d o b 1st january 1400 n h no zz123123z pension ref : tst12345678 many thanks abc</t>
+  </si>
+  <si>
+    <t>fw : change of address from : abc xyz testmail com sent : thursday october 15 2020 3 : 00 : 24 to : test pensions pensions com subject : change of address i would like to update my personal details can someone please contact me as i am not able to contact you via telephone regards abc</t>
+  </si>
+  <si>
+    <t>fw : - tst12345678 importance : high hi team please see below query and reply accordingly thank you test pensions from : abc xyz testmail com sent : 09 november 2020 10 : 14 to : test pensions pensions com cc : test ifa subject : re : - tst12345678 importance : high good morning further to the below email please can you confirm that you now have all the information you require to process the clients transfer i await your response thanks abc from : test pensions pensions com sent : 26 october 2020 12 : 40 to : abc xyz testmail com subject : - tst12345678 dear abc thank you for your email i have checked our records and can confirm that the correspondence was issued to the member on 21 october 2020 should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely test pensions 10 test road test street aa12 123 direct dial : + 91 012345678 test pensions pensions com from : abc xyz testmail com sent : 21 october 2020 14 : 19 to : test pensions pensions com subject : - tst12345678 importance : high good afternoon please can you provide me with an update on the transfer away to test pensions i await your response regards abc tel : + 91 012345678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">re : thank you for your email to test pensions pensions com just received your reply by post basically telling me i can t retire yet all i asked was how much was in the pension i m wanting to take it next april when i m 55 you ve been horrendous to deal with be in touch next april hope your more helpful sent from my iphone </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pre - identified user support request reply email address : abc xyz testmail com forename : abc surname : xyz ni number : zz123123z dob : 01 january 1400 home postcode : aa12 123 employer : test pension scheme subject : pension transfer content : hi i recently requested that my fin corp pension be transferred to my fin corp scheme 12345678 and sent you the required documentation via post can you please provide an update on this transfer as fin corp have not yet received the funds best regards abc xyz</t>
+  </si>
+  <si>
+    <t>re : transfer out - abc good afternoon i was hoping to get an update on this transfer and confirm that you have all of the relevant paperwork to proceed many thanks test ifa from : test ifa fincorp com sent : 06 november 2020 12 : 03 to : test pensions pensions com subject : transfer out - abc good afternoon i wanted to make you aware that we have posted the paperwork in order to facilitate the transfer of mr abc test pension to def invest the reference is tst12345678 in the meantime i have attached copies of these documents for your reference the password is the client s date of birth in this format dd mm yyyy : i have also attached our hmrc information and other accompanying documents that confirm the registration of our pension scheme the client is now an active holder of an insured personal pension plan with us if you need anything else at this stage please let me know kind regards test ifa</t>
+  </si>
+  <si>
+    <t>change of address abc xyz nino - zz123123z dob - 01 01 1400 reference - tst12345678 new address : 10 test road test street aa12 123 tel : + 91 012345678 could you please update your records with the members new address kind regards abc + 91 012345678</t>
+  </si>
+  <si>
+    <t>urgent cetv guarantee date ending - abcd importance : high good morning please find attached a letter of authority and request for information for our client abcd - zz123123z the password to access the document is the clients dob in the format xx xx xxxx please send us a copy of the most recent cetv and transfer out paperwork asap the guarantee end date is december and the client is considering transferring out the clients postcode is aa12 123 if you have any queries do not hesitate to contact me kind regards test ifa</t>
+  </si>
+  <si>
+    <t>pension dear sir madam i have been trying to contact you by phone for weeks i would like to take a lump sum and a monthly pension many thanks abc xyz sent from my iphone</t>
+  </si>
+  <si>
+    <t>re : test pension fund hello here is the information you have requested abc xyz 01 01 1400 ni number zz123123z address 10 test road test street aa12 123 can you please confirm you have all the satisfactory information required please as to avoid any further delays in the process of my request regards abc xyz from : test pensions pensions com sent : saturday november 21 2020 2 : 40 : 35 am to : abc xyz testmail com subject : test pension fund dear abc xyz test pension fund thank you for your email regarding the test pension fund please accept our apologies for the delay in responding to you to enable us to answer your enquiry please could you provide your full address date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely abc xyz administrator customer support centre 10 test road test street aa12 123 direct dial : + 91 012345678 abc xyz testmail com from : abc xyz abc xyz testmail com sent : 13 november 2020 21 : 09 to : test pensions subject : reference : tst12345678 to whom it may concern in relation to the letter from yourselves typed 01 january 1400 i am emailing to confirm i still wish to continue with the variable pension option 4 my reference is tst12345678 kind regards abc xyz</t>
+  </si>
+  <si>
+    <t>fw : test pension scheme - member reference zz123123z importance : high hello team please see below query and reply accordingly to the member ifa many thanks abc xyz - agent - customer support centre 10 test road test street aa12 123 + 91 012345678 abc xyz testmail com &lt;mailto : abc xyz testmail com from : abc xyz abc xyz testmail com sent : 23 november 2020 07 : 09 to : test pensions subject : re : test pension scheme - member reference zz123123z importance : high good morning approximately 10 days ago i informed test pensions that the course of action i wished to take was to start receiving my pension benefits in january 1400 they said that they had contacted the appropriate people and that i should hear something to that effect i have not heard anything thus far can you please update me asap there approximately 3 weeks until my pension is due to commence regards abc xyz from : test pensions pensions com sent : wednesday september 23 2020 8 : 12 am to : abc xyz testmail com subject : test pensions scheme dear abc xyz thank you for your email your request has been logged and you will receive a written response from our administration department within 10 - 15 working days should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely from : abc xyz abc xyz testmail com sent : 21 september 2020 11 : 39 to : test pensions subject : pension information pack importance : high good afternoon please can you tell me if my information pack has been sent yet thank you regards abc xyz</t>
+  </si>
+  <si>
+    <t>pension information hello i am consulting with a financial advisor regarding my pension and they have asked me to acquire the following information : information on pension you would receive at age 55 : 1 on an income basis 2 on a tax free cash and income basis information on pension you would receive at age 65 : 1 on an income basis 2 on a tax free cash and income basis could you also obtain the latest value of the pension plan my details are as follows : mr abc xyz dob 01 01 1400 10 test road test street aa12 123 national insurance number is as follows : zz123123z employee number 123456 cdsid : zz123123z can you email me the requested information if you require further details please contact me kind regards abc xyz sent from my galaxy sent from my galaxy</t>
+  </si>
+  <si>
+    <t>test pension i received a pension options statement from yourselves in august and took your advice and contacted fin corp i have been through the process but it appears to have stalled i have further noted the date of the statement is until 1st january 1400 and will then have to be revaluated it is further noted i have to pay for the services of fin corp could advise if there is a problem your in anticipation abc xyz account number 12345678 dob 01 01 1400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test pensions - abc xyz - 12345 - funeral fee to : test pensions please can you settle funeral payment in relation to test pensions of abc xyz fin 12345 the funeral payment was settled by mr abc s brother abc xyz copy of funeral invoice and confirmation of payment from mr abc xyz are attached sort code : 01 - 02 - 03 a c ending 123 kind regards abc xyz supervisor - hr welfare team 10 test road test street aa12 123 tel : + 91 012345678 fax : + 91 012345678 email : in corp testmail com from : abc xyz sent : 26 october 2020 13 : 09 to : abc xyz subject : abc xyz funeral items hello abc please find attached the invoice and full payment details for my brother abc xyz s funeral many thanks abc xyz </t>
+  </si>
+  <si>
+    <t>fw : bonjour ! importance : high good afternoon i am trying to locate some information on a pension i hold with you under the test pension scheme i have received a number of booklets but no plan information regarding the benefits that i hold please see my details below : name : abc xyz dob : 1st january 1400 address : 10 test road test street aa12 123 please can you provide me with the following : type of pension plan defined benefit or defined contribution scheme rules for the section of the plan i am in current value and projected income normal retirement age please can i have the below via return email thanks abc xyz</t>
+  </si>
+  <si>
+    <t>re : test pension scheme - zz123123z hi with regards to the above member payroll has only received the notification to set up the 4 weekly pension which has already been actioned by us we ve not received any request to set up lump sum record from admin could you please get in touch with the admin to check if any such request was sent to payroll thanks abc xyz from : test pensions sent : 26 november 2020 12 : 05 to : test pension payroll - gbr subject : fw : test pension scheme - zz123123z hi team please investigate why payment was not released for the member regards abc xyz from : test pensions sent : 24 november 2020 09 : 35 to : test pension fund cc : test ifa subject : re : test pension scheme - zz123123z hi nothing we can do for this member over the phone this will have to be investigated thanks abc xyz 10 test road test street aa12 123 direct dial : + 91 012345678 from : test pensions sent : 18 november 2020 10 : 30 to : test pension fund cc : test ifa subject : test pension scheme - zz123123z hi team please assist and call below member thanks abc xyz from : abc xyz&lt;abc xyz testmail com sent : 16 november 2020 19 : 06 to : test pensions subject : test pension scheme - zz123123z good afternoon test pensions i received a letter from you dated 9th november 2020 advising the trustees have approved my application my lump sum of 1000 will be paid into my account on or around 1st january my 4 weekly payments will commence as of 1st january 1400 as of this email i have received no payment i am growing concerned that the money as gone elsewhere my contact details are : name - abc xyz dob - 1st january 1400 ni number - zz123123z scheme name - dsg retirement employment security scheme i would appreciate a phone call explanation as to when i will receive my lump sum my mobile number is + 91 012345678 regards abc xyz</t>
+  </si>
+  <si>
+    <t>re : tst12345678 regarding my late father mr lmno good afternoon thank you for your email acknowledgment the information requested for data verification is as follows : date of birth : 01 01 1400 member national insurance number : zz123123z i look forward to hearing from you in due course kind regards ms abc on thu 8 oct 2020 at 07 : 20 test pensions pensions com wrote : dear ms abc test pension scheme thank you for your email regarding the test pension scheme in order to forward your email to our administration department please could you provide the member national insurance number and date of birth for data verification purposes if you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 06 october 2020 13 : 27 to : test pensions pensions com subject : reference : tst12345678 regarding my late father mr lmno good afternoon further to your postal letter dated 23rd september 2020 and my subsequent telephone call last week with one of your colleagues i have been advised to provide some more financial information regarding my late father test pension fund and some additional impact info i am now facing having been my dad carer my dad received his weekly state pension with an element of pension credit as well as a payment in the form of attendance allowance every 4 weeks as my dad carer for the last 11 years and his sole carer since 2009 and his appointee since 2017 i started receiving a weekly payment in the form of carers allowance around 2015 in dad final years test started paying his income into my bank account for his own welfare elements of xx and xx with finances we were instructed to always make sure dad received this but to monitor his spending as he was not great with handling his money i therefore enclose attachments of the above taken from my bank statements i believe this is important information requested that your colleague advised to forward to yourselves i also want to offer you an impact insight as to regardless of being an adult in my own right how interdependent my position became with dad too i had to give up full time work in 2015 due to ill health namely fibromyalgia and shortly after my partner had to give up his full time employment to help with my own care as well as that of my father this was an awful situation to find ourselves in and we struggled by as best we could when i received the carers allowance that was naturally of great help but without the odd financial crutch here and there from dad from his attendance allowance to attend to his needs the situation would have been harder there was never a requirement for dad to provide this and indeed it was certainly not a regular helping hand but on occasions when our teenage daughter was needing things like uniform for school xmas etc etc it was a very welcome and lovely helping hand naturally upon dad passing we knew things would go back to a certain level of hardship with the carers allowance ending 8 weeks after dad passing and no more loving occasional helping hand of course this is just how life is and no money will ever replace my longing to have at the very least one more cup of tea or a natter with him and i terribly miss his persistent curmudgeonly manner in short his passing continues to be felt and will do for however long that will be i hope this email and information requested is both sufficient and helpful for the panel and i shall await your further consideration in due course yours sincerely ms abc</t>
+  </si>
+  <si>
+    <t>fin corp error report error code : aa11 - aa11 - aa11 - aa11 hi i m trying to log in and have the above error code i need to activate my personal account i m in the test pensions plan and have received a letter this morning with log in details thanks abc xyz sent from my iphone</t>
+  </si>
+  <si>
+    <t>surname error member ref dep seq no surname inits nino tst12345678 0 xyz abc zz123123z i think the surname on the above name has been accidentally changed to something incorrect surname on valuation data ran in april is def and this matches sharepoint please can someone look into and correct thanks test fund direct dial : + 91 012345678</t>
+  </si>
+  <si>
+    <t>re : warning : message encrypted test pension scheme message encrypted hello thank you for your email; regarding the password protection; you will have realised we live in australia; so phoning a tel number is not an option : you are not making this easy at all please provide email link or other option plus and much more importantly; i forwarded original documentation to you; you have not acknowledged receipt or that you have forwarded the death cert our marriage cert or my birth cert back to me; please organise this if not already in transit as i have not heard back and i did ask that someone let me know the documents arrived there safely and when they would be returned to me i require these documents to finalise abc s tax return here in australia i look forward to hearing from you at your earliest convenience thank you abc - - - - - original message - - - - - from : test pensions pensions com to : abc xyz testmail com sent : fri 20 nov 2020 12 : 16 subject : warning : message encrypted test pension scheme message encrypted our reference : tst12345678 member : mr abc xyz dear mrs abc xyz i write with reference to the above late member s benefits from the scheme please find attached a death pack this document has been password protected for security reasons please contact us on the number below to obtain the password required to access this document should you have any further queries please do not hesitate to contact the test pensions scheme customer service team between 9 00am and 5 00pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com kind regards test pensions test pensions 10 test road test street aa12 123 direct dial : + 91 012345678</t>
+  </si>
+  <si>
+    <t>change of address - tst12345678 good afternoon i wish to inform you of a change to my address mr abc national insurance number : zz123123z test pension scheme reference : tst12345678 old adress : 10 test road test street aa12 123 as of the 30th october 20 new address : 2 test road test street uu12 123 kind regards abc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">re : thank you for your email to test pensions pensions com hello i was hoping you would be able to give me a little help regarding a pension which i previously had prior to starting test i have 7 years of pension with travel def and was hoping i would be able to transfer it into my current pension if this is possible how do i arrange it abc xyz 10 test road test street aa12 123 dob : 01 01 1400 ni : zz123123z payroll number : tst12345678 regards abc from : test pensions pensions com&lt;mailto : test pensions pensions com sent : 09 november 2020 13 : 27 to : abc xyz testmail com subject : thank you for your email to test pensions pensions com thank you for your email to test pensions pensions com&lt;mailto : test pensions pensions com depending upon the nature of your request we will issue a full written response to your home address or respond directly to this email address we can deal with your request if you have provided your full address date of birth and national insurance number payroll reference number please re - send your original email including this information if this was not included this information ensures that we identify and respond to the correct person in accordance with data protection act regulations if you do not wish to provide this information via email please telephone or write to test including the identification details please note - if you are contacting us on behalf of a member we also require this information in respect of them if you have any queries please contact a member of our team on + 91 012345678between 8 : 30am and 5 : 30pm monday to friday excluding bank holidays all calls are recorded for training and monitoring purposes </t>
+  </si>
+  <si>
+    <t>test pensions scheme hi abc ref tst12345678 apologies i should have contacted you i wish to defer my retirement untill 01 jan 1400 many thanks abc xyz 10 test road test street aa12 123</t>
+  </si>
+  <si>
+    <t>test scheme - ref tst12345678 hi team please see below query and reply accordingly many thanks test pensions from : abc xyz testmail com sent : 15 october 2020 16 : 52 to : test pensions pensions com subject : ref tst12345678 hi i am writing with regards to above account my aunt lmno recently passed away a payment was made into joint account i want to return this money i do not have any of the details asked for in the forms i was sent out but i am in the process of trying to get these shall i just leave the relevant sections and sign and post it back to you i have tried ringing the number but havnt had any success trying to speak to an agent in person please advise regards abc</t>
+  </si>
+  <si>
+    <t>re : test pension scheme thank you for your email my ni number is zz123123z and my date of birth is 01 01 1400 kind regards abc xyz on 20 nov 2020 at 06 : 59 test pensions pensions com &lt;mailto : test pensions pensions com wrote : dear mrs abc xyz test pension scheme thank you for your email regarding the test pension scheme to enable us to answer your enquiry please could you provide your date of birth and national insurance number for data verification purposes should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com &lt;mailto : test pensions pensions com yours sincerely abc xyz administrator customer support centre test pensions 10 test road test street aa12 123 direct dial : + 91 012345678 from : abc xyz&lt;abc xyz testmail com sent : 18 november 2020 23 : 32 to : test pensions subject : change of address - mrs abc xyz i am writing to advise you that i have recently moved house and my new address is : 10 test road test street aa12 123 i am not sure if you have my last address listed as : 10 test road test street aa12 123 if not then i it will be : 10 test road test street aa12 123 should you need any further information then please contact me on + 91 012345678 kind regards abc xyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zz123123z dear sir madam as the member is now deferred can you please provide us with an update on when we should receive the transfer information with the guaranteed transfer value any queries please do not hesitate to contact me </t>
+  </si>
+  <si>
+    <t>abc xyz - tst12345678 - zz123123z hi fao def thank you for your email dated the 17 11 2020 we have arranged payment to the account mentioned please confirm receipt please could you now authorise a revaluation of abc xyz s test pension paid contributory pension fund immediately and confirm timescales for this if you require new forms to be completed could you please arrange them to be sent out to both abc and myself preferably via email we would like this transfer to go through without further delay so please outline whether you require anything else in the meanwhile to speed up the process thank you if you have any further questions please do not hesitate to contact me kind regards test ifa independent financial adviser</t>
+  </si>
+  <si>
+    <t>re : test pension fund - mr abc xyz dear mr abc xyz i refer to my below email dated 26 october 2020 as previously advised we are unable to accept the copy passport it will need to be the original or a certified copy of the original could you please arrange for this matter to be resolved as previously advised are awaiting documentation and the implementation fee from the member before we can implement the pension sharing order and have requested for this we will chase on a regular basis and upon receipt of all the outstanding items kind regards test pension scheme from : abc xyz sent : 26 october 2020 11 : 11 to : test pension scheme subject : re : test pension fund - mr abc xyz dear mr abc xyz thank you for your letter dated 22 september 2020 please accept my apologies for the delay in issuing this reply i confirm receipt of the following : completed ex - spouse information form ex - spouse transfer request and discharge form copy of passport please note that we are unable to accept the copy passport it will need to be the original or a certified copy of the original we have also received documentation directly from test pension fund please be advised that we are awaiting documentation and the implementation fee from the member before we can implement the pension sharing order and have requested for this we will chase on a regular basis and upon receipt of all the outstanding items we will process the order kind regards abc xyz senior administrator mercer fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 from : abc xyz &lt;abc xyz testmail com sent : 16 october 2020 14 : 41 to : test pensions subject : rcw abc abc xyz - tst12345678 dear sir madam with reference to the above please could you provide us with an update on how the ex - spouse pension transfer is proceeding we sent you all of the required ex - spouse transfer forms on the 1st january 1400 and have noy yet heard back from you if you have any questions please do not hesitate to get in touch kind regards abc</t>
+  </si>
+  <si>
+    <t>re : test death approval - lmno tst12345678 i agree with the recommendation with regards mr lmno regards test schemes from : test pensions pensions com sent : 03 december 2020 11 : 41 to : testfund fincorp com subject : re : test death approval - lmno tst12345678 test lmno death in retirement please find attached the documentation relating to the above late member who died whilst in receipt of his pension the member was survived by his spouse therefore the committee are being asked to consider the lump sum death benefit of 1 500 00 only this case is being referred to the committee as there is no nomination form it would be our recommendation that the lump sum is paid to his spouse - mrs jkl in line with his will please would you agree with this recommendation kind regards test pensions</t>
+  </si>
+  <si>
+    <t>abc xyz - test pensions for senior staff - case ref : tst12345678 dear def further to your telephone call on 12 november 2020 and subsequent calls on 17 and 18 november 2020 please accept my sincere apologies for the delay in providing the revised transfer value for mr abc xyz we do pride ourselves on the quality of service that we deliver to our corporate clients trustees and most importantly individual members we receive relatively few complaints and do take any very seriously we are sorry about your dissatisfaction you have had to wait so long for the information you requested i can advise that an email has been issued earlier today providing the transfer information on behalf of myself and the team at mercer we would like to extend our apologies for any inconvenience caused and trust that you will be reassured that we do seek to minimise the number of occasions on which matters such as this arise should you have any further queries or cause for concern please do not hesitate to contact us on the number quoted below your sincerely test pensions postal address : 10 test road test street aa12 123 helpline : + 91 012345678</t>
+  </si>
+  <si>
+    <t>retirement quotation - abc nino - zz123123z dob - 01 01 1400 could you please issue a transfer value and pack for the above member kind regards abc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pension transfer requesting documents for transferring out of db dc pension scheme abc xyz working at fin corp ltd date birth 01 01 1400 zz123123z n s number </t>
+  </si>
+  <si>
+    <t>re : test pensions death approval - mr abc xyz - tst12345678 hi abc xyz i support the recommendation in respect of mr abc xyz thanks abc xyz from : test pensions pensions com sent : tuesday november 17 2020 5 : 18 : 34 pm to : test pensions cc : abc xyz testmail com subject : test pensions death approval - mr abc xyz - tst12345678 test pension plan - mr abc xyz - death after retirement please find attached the documentation relating to the above late pensioner who died whilst in receipt of his pension the committee are being asked to consider the spouse s pension and the lump sum death benefit of 1000 this case is being referred to the committee as the member has left a nomination form in favour of his ex spouse - mrs abc xyz and a will in favour of current wife - mrs abc xyz it would be our recommendation that the lump sum and pension to be paid to his current spouse as per the recent will please would you agree with this recommendation regards abc xyz senior administrator fin corp ltd 10 test road test street aa12 123 p : + 91 012345678</t>
+  </si>
+  <si>
+    <t>fw : abc xyz fin : tst12345678 retirement quote importance : high hi i requested the below dser pension quote 2 weeks ago are you please able to provide this to me shortly for info : name : abc xyz fin : tst12345678 request : dser retirement date : 01 - 01 - 1400 many thanks from : abc xyz sent : monday november 9 2020 9 : 52 am to : test pensions pensions com subject : abc xyz fin : tst12345678 retirement quote importance : high please can i request a dser quote for the above employee due to separate from the company on 1st january 1400 many thanks</t>
+  </si>
+  <si>
+    <t>re : test pension plan hi this is my previous address 10 test road test street aa12 123 this is my new address 10 test road test street aa12 123 thanks abc xyz sent from my iphone on 21 nov 2020 at 04 : 06 test pensions pensions com wrote : dear mr abc xyz test pensions plan thank you for your email regarding the test pensions plan to enable us to update your address please could you provide your previous full address and current full address for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at testscheme fincorp com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 - - - - - original message - - - - - from : test pensions sent : 12 october 2020 22 : 24 to : test pensions subject : pre - identified user support request reply email address : abc xyz testmail com forename : abc surname : xyz ni number : zz123123z dob : 01 jan 1400 home postcode : aa12 123 employer : test pension subject : personal details content : i had asked to change my new address and married status i had been told it s already done but today i had checked it out my personal details it s not been done yet ! would you look into this please thanks abc xyz</t>
+  </si>
+  <si>
+    <t>change of details good morning i would like to notify of my change of name and address previous abc xyz of 0 test road test street aa12 123 now xyz abc 11 test road jaiden street aa12 124 regards abc xyz sent from my ipad</t>
+  </si>
+  <si>
+    <t>documents relating to your claim dear test scheme please find attached the following documents relating to your claim : info request pdf info request - 1 signed fscs declaration and consent pdf if you have any questions please contact us on test pensions pensions com make sure you include your fscs reference number in the subject line of the email so that we know which claim your information applies to yours sincerely customer service team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">re : test pensions fund - abc xyz - zz123123z your ref : tst12345678 importance : high dear sir madam could you please provide an update as to when we might receive the information below please; our client is chasing us on a regular basis we were advised that we would receive the information by the beginning of last week but have yet to receive this when my colleague called on 18th november we were advised that there was no outstanding jobs on your system for this client and therefore i would be grateful if this matter could be dealt with as a matter of extreme urgency i look forward to hearing from you as soon as possible yours faithfully abc xyz from : abc xyz sent : 03 november 2020 10 : 53 to : test pensions pensions com cc : test ifa subject : test pensions fund - abc xyz - zz123123z your ref : tst12345678 importance : high dear sir madam many thanks for your letter of 01 january 1400 providing a cash equivalent transfer value for our above named client however some of the information we requested from you has not been supplied and i would be grateful if you could please provide the following missing information as soon as possible : please confirm our client s final pensionable earnings you have supplied the cetv for our client and also confirmed the post 97 section 9 2b rights within this value could you please also confirm the post 88 gmp amount as well as the pre 97 excess benefits amount too could you please advise if the cetv has been reduced increased due to the funding status of the scheme could you please advise if there is a pension sharing or earmarking order against our client s benefits could you please advise if our client has a protected tax free cash benefits within the scheme or will tax free cash be restricted to 25 could you please advise if our client holds an avc benefits within the scheme and if so could you please supply full details to include fund values charges funds invested in etc could you please advise if there is any money purchase underpin applicable and if so could you please supply full details could you please advise when we might receive the retirement quote requested i look forward to receiving this information from you as soon as possible in the meantime if you require clarification on any of the above points please do not hesitate to contact me on + 91 012345678 yours faithfully abc xyz fin corp ltd </t>
+  </si>
+  <si>
+    <t>re : test pension scheme - abc xyz dear mr abc xyz i am sorry but i do not feel in the least comfortable sending that information in an email please liaise with abc xyz thank you mrs abc xyz from : testscheme fincorp com sent : friday november 20 2020 7 : 40 am to : abc xyz testmail com subject : test pension scheme - abc xyz dear abc xyz test pension scheme thank you for your email regarding the test pension scheme in order to forward your email to our administration department please could you provide the member full address date of birth and national insurance number for data verification purposes should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at testscheme fincorp com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 www fincorp com from : abc xyz &lt; abc xyz testmail com sent : friday november 20 2020 10 : 35 pm to : test pension scheme &lt; testscheme fincorp com cc : test ifa &lt;test ifa fincorp com subject : test pension scheme - abc xyz importance : high dear abc xyz team manager i have just received a hard copy letter from you fin corp ltd dated 1st january 1400 questions : 1 i thought my pension was with test pensions what happened 2 you request that i complete a beneficiaries data form and original documentation and send it i have just recently completed all of this information and sent in it to test pensions they have acknowledged receipt approved my eligibility for benefits and returned my originals i have just suffered a three - month delay in receiving the arrears to my pension while all of this was being processed and was finally paid now i am being asked to resubmit information already received and approved please advise immediately thank you sincerely mrs abc xyz</t>
+  </si>
+  <si>
+    <t>re : def trust pension plan hi test pensions please find attached my verification form with my new address can you please confirmation of receipt and provide my account balance details or online details kind regards abc from : test pensions pensions com sent : tuesday 2 june 2020 12 : 49 am to : abc xyz testmail com subject : def trust pension plan dear abc def trust pension plan thank you for your email regarding the def pension plan please find the attached correspondence which was issued to you on 05 may 2020 if you require any further information or have any questions please contact the customer support centre on abc xyz testmail com between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 26 may 2020 10 : 38 to : test pensions pensions com subject : re : def trust pension plan hi test pensions i was just following up on this as i have not received any communication from you regarding my plan can you please advise where this request is placed kind regards abc from : test pensions pensions com sent : wednesday 22 april 2020 5 : 26 pm to : abc xyz testmail com subject : def trust pension plan dear mr abc def trust pension plan thank you for your email regarding the def pension plan your request has been logged and you will receive a written response from our administration department within 10 - 15 working days once your address has been updated on our records we will proceed with your pension query if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 21 april 2020 08 : 05 to : test pensions pensions com subject : re : def trust pension plan hi i m not 100 sure what my final address was on the pension fund but my details when i was working there are below : dob : 01 01 1400 address : 10 test road test street aa12 123 national insurance : zz123123z cheers abc on 20 apr 2020 at 6 : 24 pm test pensions pensions com wrote : dear abc def trust pension plan thank you for your email regarding the def pension plan to enable us to answer your enquiry please could you provide your previous address date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 17 april 2020 00 : 12 to : test pensions pensions com subject : def pension plan query hi i worked at def in 2005 to 2010 investments and was part of the def trust pension plan i have moved back to australia so i would like to update my personal details for the pension plan so i can get a regular update from the plan can you please update my details to the below details and also provide a current report of my pension kind regards abc mobile : + 91 012345678 address : email : abc xyz testmail com begin forwarded message : from : testfund fincorp com date : 16 april 2020 at 10 : 40 : 21 pm acst to : abc xyz testmail com subject : re : def - 0000 def 14 04 2020 05 : 39 hi abc i have been forwarded your email as i look after pensions and benefits at def test pensions our pension administrators look after all deferred members of the def pension plan please do therefore reach out to them via phone or email as detailed below and they will be able to update your contact details test pensions pensions com + 91 012345678 please let me know if i can help any further many thanks test fund</t>
+  </si>
+  <si>
+    <t>retirement figures hi could i please have updated pension figures with a retirement date of 31 3 21 my full name is abc xyz national insurance number zz123123z regards abc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> warning : message encrypted ref : tst12345678 message encrypted dear sirs ref; tst12345678 please find enclosed a letter of authority in relation to the above mentioned policy the attached document is password protected with the clients date of birth in the format dd mm yyyy including the the authority letter was previously submitted via your online submission portal but you have written to the client to confirm the letter was in an unreadable format if there are any issues with this letter please let me know asap please could you provide the full scheme information including the following : 1 policy start date 2 original investment amount 3 funds invested in and unit holding information number of units including sedol codes 4 list of funds available to the plan along with details of maximum invested 5 full contribution history 6 are there any ongoing contributions being made if so at what level 7 what is the selected retirement age s 8 projected illustration at selected retirement age and to age 65 if different 9 current fund and transfer values 10 is the policy written in trust if so please confirm the details 11 does the policy include any protected rights if so what is are the values 12 can you please confirm whether there is any enhanced protection advised for this plan 13 details of all nominated beneficiaries noted on the plan if not please provide us with an expression of wish form where possible please email any correspondence to test ifa fincorp com&lt;mailto : test ifa fincorp com i look forward to hearing from you and if you have any queries please let me know best regards test ifa</t>
+  </si>
+  <si>
+    <t>fw : address update from : abc xyz mailto : dexterspost sky com sent : 23 november 2020 19 : 37 to : test payroll subject : address update good morning i recently received a pension payslip from you which was sent to my previous address i thought i had updated you with my new address in july could you kindly check the details you have for me are correct please and let me know if they have been updated test pension scheme mr abc cba pension ref : 10000 my address : 10 test road test street aa12 123 kind regards abc cba sent from my galaxy</t>
+  </si>
+  <si>
+    <t>abc xyz i attach our client s authority please provide : - estimate of benefits at age 60 estimate of benefits at nrd cetv statement in anticipation thank you for your assistance regards test ifa</t>
+  </si>
+  <si>
+    <t>lmn pension fund - def good afternoon could you please provide me with an update on the progress of the transfer pack that was requested from you kind regards abc tel + 91 012345678 from : abc xyz testmail com sent : 12 november 2020 16 : 11 to : test pensions pensions com subject : lmn pension fund - def good afternoon could you please provide me with an update on the progress of the transfer pack that was requested from you kind regards abc tel + 91 012345678 from : test pensions pensions com sent : 28 october 2020 06 : 32 to : abc xyz testmail com subject : lmn pension fund - def dear abc test pension scheme thank you for your email regarding the lmn pension fund i have checked the records and i can confirm that we have issued a correspondence to you on 26th october 2020 stating below : please be advised that the transfer value of the member has been referred to the scheme actuary for review as a result we are unable to provide a transfer value quotation until we have received confirmation to issue as soon as we have this confirmation the transfer value quotation will be sent to you i can confirm i have forwarded your email to our administration department in relation to your other queries and they will be in contact shortly if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com&lt;mailto : test pensions pensions com yours sincerely test from : abc xyz testmail com sent : 20 october 2020 09 : 32 to : test pensions pensions com subject : lmn pension fund - def 20 10 2020 def dear sir madam re : request for information we are acting on behalf of the above client who is considering transferring their benefits from the test pension scheme please find attached a letter of authority to allow you to release information to us on the benefits that our client holds in the scheme please can you provide the following information at your earliest convenience : i require uk transfer documents basic details date of joining scheme date of leaving scheme accrual rate final pensionable salary please provide a cash equivalent transfer value cetv cetv expiry date has the cetv been reduced or enhanced normal retirement date nrd of the scheme does the scheme permit partial transfers if so on what basis were any member s contributions paid if so please specify the amount please provide a copy of the latest scheme booklet or website link breakdown of benefits benefits at date of leaving including a breakdown between pre - 88 gmp post - 88 gmp pre - 97 excess post - 97 excess post - 05 excess and post - 09 excess does gmp franking apply if so on what basis revaluation rate of each of the above tranches in deferment escalation rate of each of the above tranches in payment is a lump sum payable in addition to the scheme pension does the scheme provide a bridging pension or state pension deduction if so provide details does the scheme provide an ill - health pension if so please give details death benefits lump sum death benefits in deferment lump sum death benefits in payment are any member s contributions returned on death before retirement if so is interest added if yes at what rate guarantee period of pension in payment spouse s pension death in deferment spouse s pension death in retirement is the spouse s pension calculation based on the pre - commutation figure is the spouse s pension reduced where there is an age difference if so provide details if there is no legal spouse will the scheme pay the spouse s pension to a partner or dependent is there a children s pension if so provide details pension commencement lump sum does the scheme provide a pension commencement lump sum pcls if pcls is an option what are the commutation factors between age 55 and age 75 scheme funding please provide the latest scheme funding summary early and late retirement what is the earliest age the member can retire what is the earliest age the member can retire with unreduced benefits what are the early retirement factors between age 55 and nrd can the member take late retirement what are the late retirement factors between nrd and 75 where early or late retirement is taken are the benefits revalued to the normal retirement date or the early late retirement date before the factor is applied as our client has already reached normal retirement date under the scheme please also provide the following : immediate retirement quote given the time sensitive nature of the request we would greatly appreciate all requested information be sent via email to test pensions pensions com&lt;mailto : test pensions pensions com we thank you for your assistance with this matter kind regards abc</t>
+  </si>
+  <si>
+    <t>change of bank account dear sir madam could you please advise me the process for having a test pension payed into a different bank account my father is a test pensioner and has opened a new bank account and would like his pension payed into it thanks in advance abc</t>
+  </si>
+  <si>
+    <t>test pensions scheme hi team please see below query and reply accordingly many thanks abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 from : abc xyz&lt;abc xyz testmail com sent : 09 november 2020 10 : 23 to : test pensions subject : re : test pension scheme hi i have still not received an answer to my query now dating back several months despite your promise to review it and deal with it promptly it is just a small query but i need it answered so i know what my tax position is in regard to the arrears payment please can i ask you to just answer this i have tried ringing the no you gave me but i am unable to speak to anyone and it is becoming so frustrating thank you abc xyz tha on wed oct 7 2020 at 1 : 48 pm &lt; cmpayyor mercer com wrote : dear larry harry parry cmg payyor uk pension scheme thank you for your email regarding the cmg uk pension scheme please accept our sincerest apologies for the delay we will review the current position of your case and ensure that it is dealt with promptly if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : 0000 000 1111 from : abc xyz&lt;abc xyz testmail com sent : 05 october 2020 16 : 00 to : test pensions pensions com subject : re : your letter dated 26 june 2020 hi this is in relation to a query i first made by email on 24 june last correspondence from you was a letter dated 7 september saying you were asking cgi for a response and would get back to me your letters always state that i can contact you by phone but this is not the case as the options i am given by the automated service blocks me from getting through i appreciate that the current circumstances have had an effect and also know that my question is a minor one but it is very frustrating that it is taking more than 3 months to get an answer from you kind regards on fri jul 3 2020 at 8 : 03 am julie parry &lt; larry harry larryharry786 gmail com wrote : re : cmg payyor uk pension scheme the scheme dear helpdesk your letter dated 26 june advised that a gross payment of pension arrears would be paid into my bank account on or around 3 july this amount being 11 176 62 today i received a payment of 7 243 42 so am wondering whether this is a net amount after tax has been taken out i am very happy to receive the arrears and thank you but would appreciate clarification on the amount thank you larry harry</t>
+  </si>
+  <si>
+    <t>re : test pension plan - abc zz123123z good evening following my recent email and as we have not heard from you please may i ask you to provide a guaranteed transfer value pack for mr abc as a matter of urgency i look forward to hearing from you kind regards test ifa from : test ifa fincorp com&lt;mailto : test ifa fincorp com sent : 21 october 2020 11 : 21 to : test pensions pensions com subject : re : test pension plan - abc zz123123z importance : high good morning i have checked with our client and the request to opt out has definitely been requested as such please may i ask you to check your records again and forward the guaranteed transfer value pack for mr abc as soon as possible i look forward to hearing from you kind reagrds test ifa from : test pensions pensions com sent : 19 october 2020 16 : 44 to : test ifa fincorp com subject : test pension plan - abc zz123123z dear test ifa test pension plan thank you for your email regarding the test pension plan i have checked our records and can confirm that we have not received the opt out notification from employer if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : test ifa fincorp com sent : 15 october 2020 14 : 30 to : test pensions pensions com subject : test pension plan - abc zz123123z importance : high good morning please may i ask you to forward a guaranteed transfer value pack for mr abc as soon as possible now that he has opted out of the scheme i look forward to hearing from you kind regards test ifa</t>
+  </si>
+  <si>
+    <t>change of address please could you send me a form for change of address my current address is mrs abc 10 test road test street aa12 123 my old address is 09 test road test street ee12 123 regards abc</t>
+  </si>
+  <si>
+    <t>urgent : pension transfer request good afternoon i worked for test pension fundas a data scientist from january 2018 - september 2019 i am now working for a university and would like to transfer my sainsbury argos pension into my teachers pension i have a form that has a section that needs to be completed by someone from test pension scheme it would be best done by hand so printed out but could be done electronically if necessary i would be very grateful if you could complete part c on the attached form and return to me by the end of this week kind regards abc xyz abc xyz + 91 012345678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">re : test pension scheme - trivial commutation factors hi lisa following on from your email below i just wanted to confirm that you are correct and the current trivial commutation factors do not allow for gmp equalisation and therefore trivial commutation for pensioners with 90 - 97 gmp is currently on hold please let me know if you need anything else on this kind regards abc xyz abc xyz senior consultant fin corp ltd fin corp ltd 10 test road test street aa12 123 t + 91 012345678 f + 91 012345678 abc xyz testmail com &lt;mailto : abc xyz testmail com www fincorp com &lt;http : www fincorp com from : abc xyz sent : 10 november 2020 15 : 46 to : test pensions cc : test ifa subject : test pension scheme - trivial commutation factors alert : this message originated outside of fin corp ltd network be cautious before clicking any link or attachment hi we have received a request from a pensioner asking if he can commute his pension in payment however the member has a small guaranteed minimum pension gmp earned between 1990 and 1997 i understand the monthly trivial commutation factors we hold do not allow for gmp equalisation and therefore the member is not currently able to commute his pension benefits please can you confirm my understanding is correct kind regards abc xyz pensions administration mercer abc xyz testmail com &lt;mailto : abc xyz testmail com </t>
+  </si>
+  <si>
+    <t>re : test death approval - lmno tst12345678 test pensions i agree with the recommendation from : test pensions pensions com sent : 05 october 2020 16 : 16 to : testfund fincorp com subject : fw : test death approval - lmno tst12345678 test lmno death in retirement further to our email below we note that we have only received a response from xyz can we please have the additional responses so that we can proceed with the case kind regards test pensions from : test pensions pensions com sent : 03 september 2020 17 : 20 to : testfund fincorp com subject : test death approval - lmno tst12345678 test lmno death in retirement please find attached the documentation relating to the above late member who died whilst in receipt of his pension as the member was a the committee are being asked to consider the lump sum death benefit of 1 500 only this case is being referred to the committee as there is conflict between the nomination form and the will the form is in favour of his nephew mr jkl and the will not signed or dated in favour of his sister mrs abc it would be our recommendation that the lump sum is paid to his nephew in accordance with his nomination form please would you agree with this recommendation kind regards test pensions</t>
+  </si>
+  <si>
+    <t>test pensions scheme - abc xyz hi team further to the below email could you please request document over post abc xyz senior associate fin corp ltd 10 test road test street aa12 123 from : test pensions sent : 19 november 2020 09 : 31 to : abc xyz subject : test pensions scheme - abc xyz dear abc xyz test pension scheme thank you for your email regarding the test pension scheme i can confirm i have forwarded your email to our administration department and they will be in contact shortly if you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com &lt;mailto : test pensions pensions com yours sincerely abc xyz administrator customer support centre test pensions 10 test road test street aa12 123 direct dial : + 91 012345678 from : abc xyz &lt;abc xyz testmail com sent : 17 november 2020 08 : 42 to : test pensions subject : test pensions registering court of protection further to your email i can confirm we have received the sealed copy of the court of protection see below the document with the court seal imprinted at the bottom of each page we were issued with only one sealed copy and have been using this to notify all organisations we hope you can use this to amend your records and send any correspondence to 10 test road test street aa12 123 regards abc xyz sent from my ipad</t>
+  </si>
+  <si>
+    <t>re : your retirement quotation request as requested - full address date of birth and national insurance number payroll reference number abc 10 test road test street aa12 123 dob = 01 01 1400 ni = zz123123z pay = tst12345678 abc from : abc xyz testmail com sent : 12 november 2020 6 : 09 pm to : test pensions pensions com subject : re : your retirement quotation request hi - please could you help me understand this quote i have generated on the test website it would appear from the figures if i retire 1 day earlier than my 65 birthday that my pension is significantly increased obviously i do not believe this but need an explanation to help me understand and gain confidence that the other quotes i have generated for other dates 55 57 60 etc are actually valid to make some life changing decisions on i attach a screen grab of the normal retirement age quote and the one day before quote thanks in advance for your assistance abc d o b = 01 01 1400 company payrole number = tst12345678 abc from : test pensions pensions com sent : 12 november 2020 5 : 54 pm to : abc xyz testmail com subject : your retirement quotation request the results of the retirement quotation calculation you requested for your test pension plan are now available retirement date : 01 01 1400 calculated at : 01 01 1400 you can view your quotation by logging on to the pension section of test account this quotation will be available to you until 01 01 1400 00 : 00 : 00 or until such time you request another quotation if you have any questions regarding the document or your test pension just call the test support team on + 91 012345678or email us at test pensions pensions com&lt;mailto : test pensions pensions com about the links in this email - in order to protect you from potential security threats test does not use clickable links in emails to visit a link just copy and paste it into your browser regards test pension team</t>
+  </si>
+  <si>
+    <t>compensation zz123123z dob 01 01 1400 attention abc xyz i refer to your emails dated 1st january 1400 and 1st january 1500 and abc xyz email dated 1st january 1400 all these emails advised me my compensation agreement for 500 pounds had been referred to administration to date i have have had no acknowledgement and no money from your company can you please explain why your company does nothing since august after it was agreed with your manager to compensate me 500 pounds i really do feel this is very bad abc xyz</t>
+  </si>
+  <si>
+    <t>pension hello please could you kindly send me a full pension transfer pack and updated cash equivalent transfer value cetv i received a plan in march 2020 but i believe i need an updated one my reference number on the one in march was tst12345678 mrs abc xyz 10 test road test street aa12 123 + 91 012345678 kind regards abc xyz</t>
+  </si>
+  <si>
+    <t>re : abc - tst12345678 termination : please ignore previous email importance : high team please ignore previous email as below employee will be leaving on 18 - 12 - 20 as previously requested test fund from : testfund fincorp com sent : 19 november 2020 11 : 56 to : test pensions pensions com subject : abc - tst12345678 termination hi abc xyz fin : tst12345678 has signed to leave the business on the 18th december 2020 the documentation was sent two weeks ago he will now be leaving on 4th december due to a change in personal circumstances can you please let me know if there is anything i need to amend kind regards test fund</t>
+  </si>
+  <si>
+    <t>re : test pension fund - mr abc xyz hi abc xyz further to the emails below we still haven t received a reply to our queries : does the member have any avcs and if so can they be used to pay the tax free cash without commuting the pension does the scheme allow partial transfers can you provide a copy of the schemes most recent funding statement funding position are there any pension sharing orders against this pension please can you provide a response to these questions as we need this information to complete our review of the pension as per the members request kind regards abc xyz from : test pensions pensions com &lt;mailto : test pensions pensions com sent : 17 november 2020 10 : 37 to : abc xyz subject : test pension fund - mr abc xyz dear abc xyz test pension fund thank you for your email regarding test pension fund please accept our sincerest apologies for the delay we will review the current position of your case and ensure that it is dealt with promptly if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at testfund fincorp com &lt;mailto : testfund fincorp com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 testfund fincorp com &lt;mailto : testfund fincorp com www fincorp com &lt;http : www fincorp com from : abc xyz &lt;abc xyz testmail com sent : monday november 23 2020 2 : 36 pm to : test pensions &lt;test pensions pensions com cc : test ifa &lt;test ifa fincorp com subject : re : test pension fund - mr abc xyz hi abc xyz further to the email below we have not received a response yet please can you provide an update kindest regards abc xyz from : test pensions pensions com &lt;mailto : test pensions pensions com sent : 17 november 2020 10 : 37 to : abc xyz subject : test pension fund - mr abc xyz dear abc xyz test pension fund thank you for your email regarding the test pension fund i can confirm that our administration department is working on your query you will receive the response shortly if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at testfund fincorp com &lt;mailto : testfund fincorp com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 testfund fincorp com &lt;mailto : testfund fincorp com www fincorp com &lt;http : www fincorp com from : abc xyz &lt;abc xyz testmail com sent : monday november 23 2020 2 : 36 pm to : test pensions &lt;test pensions pensions com cc : test ifa &lt;test ifa fincorp com subject : re : test pension fund - mr abc xyz hi re : mr abc xyz test pension fund tst12345678 zz123123z we have received the cetv and immediate retirement option statement for the above member please could you provide the following bits of information to allow us to complete our review : does the member have any avcs and if so can the be used to pay the tax free cash without commuting the pension does the scheme allow partial transfers can you provide a copy of the schemes most recent funding statement funding position are there any pension sharing orders against this pension kind regards abc xyz senior paraplanner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thank you for your email to test pensions pensions com dear test team please be advised that i have changed address my new address is : 10 test road test street aa12 123 dob 01 jan 1400 nat ins number zz123123z would you be so kind as to confirm you have recieved this email and that my address details you have on file will be updated many thanks kind regards abc on tue 17 nov 2020 14 : 48 &lt; test pensions pensions com wrote : thank you for your email to test pensions pensions com your enquiry will be reviewed resulting in a reply from our support team shortly depending upon the nature of your request full resolution may take longer and we will inform you of the next steps in our initial reply we can deal with your request if you have provided your full address date of birth and national insurance number please re - send your original email including this information if it was not included this information ensures that we identify and respond to the correct person in accordance with data protection act regulations if you do not wish to provide this information via email please telephone or write to test including the identification details please note - if you are contacting us on behalf of a member we also require this information in respect of them if you have any enquiries please contact a member of our team on + 91 012345678 between 8 : 30am and 5 : 30pm monday to friday excluding bank holidays all calls are recorded for training and monitoring purposes </t>
+  </si>
+  <si>
+    <t>pension ref - tst12345678 good afternoon thank you for you recent correspondence on the 1st january 1400 in relation to pension ref no tst12345678 i can conform i left the test pension when i left fin corp ltd on the 1st january 1400 i would like confirmation of the following : when can i take any of the current pension as a lump sum and what the exact amount would be regards abc xyz</t>
+  </si>
+  <si>
+    <t>pension value dear sir madam i would like to know how i can review the total value of my pension and its transfer value i can access fin corp but can only find my annual entitlement at retirement age regards abc xyz supply chain me direct : + 91 012345678 mobile : + 91 012345678 email : abc xyz testmail com</t>
+  </si>
+  <si>
+    <t>re : test retirement and death benefits plan - test section - lmno dear sir madam thank you for your response as requested on your email below : member s address at date of death : 10 test road test street aa12 123 has the death been registered and death certificate issued : see attached did the member have any financial dependents my mother his spouse mrs jkl address for condolence : 101 test road test street ea12 123 contact number : + 91 012345678 - my mother does not speak fluent english i am the next of kin and arranging dad estate and i can be contacted on + 91 012345678 alternatively we can arrange that we are all together at a suitable time to take a call should you wish to speak to my mother regards abc xyz from : test pensions pensions com sent : 05 october 2020 10 : 37 to : abc xyz testmail com subject : test retirement and death benefits plan - test section - lmno dear abc xyz test retirement and death benefits plan - test section thank you for your email regarding the test retirement and death benefits plan please accept my sincerest condolences for your loss in order to assist us could you please provide us with the following details : member s address at date of death : has the death been registered and death certificate issued : did the member have any financial dependents address for condolence : contact number : if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com&lt;mailto : test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 01 october 2020 17 : 53 to : test pensions pensions com subject : test retirement and death benefits plan - test section - lmno as requested national insurance number regards abc xyz - - - - - - - - original message - - - - - - - - from : abc xyz testmail com date : 01 10 2020 12 : 50 gmt + 00 : 00 to : test pensions pensions com subject : test retirement and death benefits plan - test section - lmno your ref : tst12345678 dear sir madam we wish to inform you of the death of our father on 18 09 2020 as you hold his pension and his cover includes spouse dependants on his cover i his son abc xyz as his next of kin and person responsible for his estate wish to inform you that our mother mrs jkl is the beneficiary of all of dads finances please let us know how we can arrange this at your earliest convenience i can be contacted on + 91 012345678 or alternatively in writing to my parents address as on your records and as above regards abc xyz</t>
+  </si>
+  <si>
+    <t>fw : test pension plan hello team please see below query and reply accordingly to the member ifa many thanks abc xyz - agent - customer support centre from : abc xyz abc xyz testmail com &lt;mailto : kathandtonybarber btinternet com sent : 21 november 2020 09 : 39 to : test pensions subject : re : test pension plan forget it ! i will just ignore the test pensions letter it ronic that for data protection you are asking for basically all my details i would telephone only thing is you use a chargeable number 1234 and then have customers holding the line listening to some robot telling them you are very busy and you are caller number 54 frustrated abc xyz - - - - - - - - original message - - - - - - - - from : test pensions pensions com date : 21 11 2020 04 : 06 gmt + 00 : 00 to : abc xyz testmail com subject : test pension plan dear abc xyz test pension plan thank you for your email regarding the test pension plan to enable us to answer your enquiry please could you provide your full address for data verification purposes should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely from : abc xyz abc xyz testmail com &lt;mailto : kathandtonybarber btinternet com sent : 18 november 2020 20 : 32 to : test pensions pensions com subject : abc xyz nat ins no zz123123z date of birth 01 01 1400 in october of this year i received a letter informing me that fin corp ltd would be responsible for my pension payments and have since received a payments slip from them today i have received a letter from fin corp giving me access to my account details i am left rather puzzled and a little concerned as to the authenticity of the latter letter as i have had no correspondence informing me of their existence regards abc xyz</t>
+  </si>
+  <si>
+    <t>test pension transfer hi i am now almost 9 months into trying to obtain a cetv from yourselves i accept that progress could not be made until i personally stopped paying into the test pension fund this happened on the 25th september as you probably know i have spoken to yourselves on multiple occasions regarding obtaining my cetv before the efg deadline which has now come and gone i am now not even able to speak with anyone because your system cancels the call when i chose option 1 the ongoing option so i am requesting in writing that you please respond to this email and answer my concerns either through email or phone call on + 91 012345678 kind regards abc on 20 july 2020 at 05 : 15 test pensions pensions com&lt;mailto : test pensions pensions com wrote : dear mr abc test pensions fund thank you for your email regarding the ford hourly paid contributory pension fund please accept our apologies for the delay in responding to you i can confirm that your complaint is logged with the administration team and they will be in contact with you as soon as possible in relation to the transfer request if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com&lt;mailto : test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 10 july 2020 10 : 17 to : test pensions pensions com subject : re : test pension transfer hello i have tried contacting you through the number given below but because i need extension 1 an ongoing issue your system hangs up on me this is extremely frustrating because this is an urgent matter and has been going on since before the pandemic stated we are now getting on for 6 months into my request to def through the xyz to get my cetv and transfer out of the test fund i would request once again that you treat this as a matter of urgency kind regards abc on 09 july 2020 at 20 : 33 test pensions pensions com wrote : thank you for your email to the test pensions recent government and health authority advice on covid - 19 has meant we have had to change the way in which we work to safeguard the health and wellbeing of our staff this alongside the increased contact we are experiencing from members means that we may not be able to respond to you as quickly as we would like in the short - term but please be assured that we will respond as soon as we are able should you have any queries in the meantime please contact our member helpline on + 91 012345678 please note this is an automated response postal address : test pensions post handling centre x 10 test road test street aa12 123</t>
+  </si>
+  <si>
+    <t>test pension fund abc d dear sirs i refer to your correspondence of 03 october 2020 your ref z zzzz01 0001 please note that the final implementation of the pension share and calculation will take into account the member s uurbs benefits please see attached information concerning uurbs and quotations for divorce purposes as the member is in receipt of his pension the total implementation fee is 2 025 00 plus vat split between the 2 x parties as per the pso i trust the above to be in order however if you have any queries concerning the above please contact us on 01000 100 100 or email us at test pensions pensions com kind regards sun light senior pensions administration leatherhead office postal address : post handling centre u st tower 7 chennai road london m00 0mm direct dial : + 44 0 0000 100100</t>
+  </si>
+  <si>
+    <t>test pension scheme - abc xyz - tst12345678 hi there following my earlier email today i now enclose all the documentation you require to instigate a pension transfer to the test pension scheme we have recommended abc xyz you are therefore receiving this before the 1st january 1400 deadline for the cetv so we hope all is satisfactory for you to proceed we would be obliged if you reply as quickly as possible please acknowledging this email and enclosures and confirming that you have all you need to process the transfer we look forward to hearing further from you many thanks kind regards abc xyz from : abc xyz &lt;abc xyz testmail com sent : monday november 23 2020 7 : 31 am to : test pension scheme &lt;testscheme fincorp com cc : test ifa &lt;test ifa fincorp com subject : abc xyz - tst12345678 hi there following the attached letter you have sent to the client only just received today by the way as using the postal system with covid delays around the world is not ideal we are planning to email you all the transfer documentation you require by the deadline of 1st january which is the cetv guarantee date as the transfer to an overseas test pension scheme is to proceed we are just awaiting on some final documents to come through to us before we email this all through to you you have already advised us that you will accept emailed transfer documentation so once you receive this you will hopefully have everything you need to process the transfer the letter you therefore sent to the client is somewhat confusing as the cetv deadline is 1st january however we also note in the letter that we are still able to provide you with the paperwork and the transfer can be made before 1st january 2021 we will forward the paperwork to you soon however if you have any questions please contact us thank you kind regards charlene from : abc xyz &lt;abc xyz testmail com sent : monday 23 november 2020 1 : 09 pm to : abc xyz &lt;abc xyz testmail com subject : fw : internet fax job hi i received this letter today from fin corp ltd can you please advise next step thanks abc xyz</t>
+  </si>
+  <si>
+    <t>funeral receipt for abc xyz to whom it may concern please find attached the funeral receipt of my father mr abc xyz ref : tst12345678 regards mr abc xyz son sent from my galaxy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">re : test pensions plan - : mr abc xyz external thank you for coming back to us i can confirm what we have received the details required and the payment has been applied appropriately kind regards abc xyz 10 test road test street aa12 123 + 91 012345678 from : test pensions pensions com sent : 18 november 2020 05 : 40 to : test pensions subject : test pensions plan - : mr abc xyz external dear abc xyz test pension fund thank you for your email regarding the test pension fund to enable us to answer your enquiry please could you provide member s full address date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com yours sincerely abc xyz administrator customer support centre 10 test road test street aa12 123 direct dial : + 91 012345678 test pensions pensions com from : abc xyz abc xyz testmail com sent : 13 november 2020 15 : 52 to : test pensions subject : mr abc xyz - transfer out tst12345678 good afternoon we have received the transfer payment of 100 for our above mutual client however we require further information to be able to process this please confirm the following is this payment crystallised or uncrystallized is this payment from a personal or occupational pension scheme if occupational is it defined contribution or defined benefit kind regards abc xyz platform administrator new money fin corp ltd </t>
+  </si>
+  <si>
+    <t>re : test pension plan - mr abc good afternoon re : test pension plan - mr abc please could you confirm if there is any update to our query of 02 11 2020 if you have any queries please do not hesitate to contact us kind regards test pensions on 03 11 2020 3 : 22 pm test scheme pensions com wrote : fyi - - - - - - - - forwarded message - - - - - - - - subject : test pension plan - mr abc date : tue 3 nov 2020 14 : 26 : 51 + 0000 from : test pensions pensions com to : testfund fincorp com dear test fund test pension plan thank you for your email regarding the test pension plan i can confirm i have forwarded your email to our administration department to process as requested and they will be in contact shortly if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : testfund fincorp com sent : 02 november 2020 18 : 09 to : test pensions pensions com subject : test pension plan - mr abc good morning re : test pension plan - mr abc please could you let us know if there is any update on the below if you have any queries please do not hesitate to contact us kind regards test pensions - - - - - - - - forwarded message - - - - - - - - subject : test pension plan - mr abc date : wed 14 oct 2020 11 : 31 : 03 + 0100 from : testfund fincorp com to : test pensions pensions com good morning re : test pension plan - mr abc please find copies of documents previously sent to you that show the clients date of birth national insurance number and address the documents are password protected in our normal way - if you need to check this please call us on + 91 012345678 if you have any queries please do not hesitate to contact us kind regards test pensions on 13 10 2020 5 : 08 pm test pensions pensions com wrote : dear test pensions test pension plan thank you for your email regarding the test pension plan to enable us to answer your enquiry please could you provide the member full address date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : testfund fincorp com sent : 12 october 2020 12 : 08 to : test pensions pensions com subject : test pension plan - mr abc good morning re : test pension plan - mr abc is there any update on the below thanks test pensions - - - - - - - - forwarded message - - - - - - subject : test pension plan - mr abc date : fri 9 oct 2020 09 : 40 : 49 + 0100 from : testfund fincorp com to : test pensions pensions com good morning re : test pension plan - mr abc test reference : tst12345678 following on from our below emails please kindly confirm receipt of the transfer documents and please confirm if the transfer value has been upheld or not if you have any queries please do not hesitate to contact us kind regards test pensions - - - - - - - - forwarded message - - - - - - - - subject : test pension plan - mr abc date : thu 17 sep 2020 10 : 32 : 27 + 0100 from : test ifa fincorp com&lt;mailto : test ifa fincorp com reply - to : test pensions pensions com good afternoon following on from my below email please kindly confirm receipt of the transfer documents kind regards test ifa on 14 09 2020 3 : 46 pm test ifa fincorp com&lt;mailto : test ifa fincorp com wrote : good afternoon i am writing to submit the attached transfer request for the above client policy from test to test the client policy number is tst12345678 and the guarantee date for the transfer is 01 01 1400 the documents have also been sent via post on the 11th of september please kindly confirm receipt of these documents and request the password for the document on + 91 012345678 kind regards test ifa</t>
+  </si>
+  <si>
+    <t>change of adress pension reference 1000000 my new address is 00 witchwood lane kawali sunset rr00rr kind regards red fort</t>
+  </si>
+  <si>
+    <t>pension hello my name is abc xyz i am 56 years old and would like to take a portion of my gkn pension but not sure how to go about it would be thankful if someone could contact me on 123456789 many thanks sent from my huawei phone</t>
+  </si>
+  <si>
+    <t>death of a pensioner lmn nino - zz123123z dob - 01 01 1400 date of death - 01 january 1400 reference - tst12345678 spouse or partner - no informant - daughter mrs def 10 test road test street aa12 123 tel + 91 012345678 i have been informed of the above members death could you please cease payment and contact the informant for the death certificate kind regards abc</t>
+  </si>
+  <si>
+    <t>test pensions plan reference number : tst12345678 test pensions can i have an update on my enquiry please i last emailed you on 4 11 20 i have confirmed that test payroll have forwarded my opt out confirmation again 4 11 20 by email i keep getting the standard reply that my enquiry has been forwarded to customer services and then i don t hear anything this has been an ongoing request that seems to be taking a great deal of time even with the effects of covid test payroll sent my pension opt out confirmation to test test pensions on november 4th 2020 test have completed and submitted all the required forms as required by the test approved and signed by myself i am waiting for test to forward my guaranteed cetv to test can i ask that my request to release the guaranteed cetv is reviewed and expedite the release with some urgency can you give me a notion of the time frame that is required to get the cetv released to test as i have requested regards abc from : test pensions pensions com sent : 06 november 2020 11 : 33 to : abc xyz testmail com subject : test pensions plan dear abc test pension plan thank you for your email regarding the test pension plan i can confirm i have forwarded your email to our administration department and they will be in contact shortly if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 04 november 2020 10 : 59 to : test pensions pensions com subject : test pensions plan test pensions thanks for your help previously relating to my pension choices i am hoping you may be able to help me with a query which is proving frustrating : i elected to opt out of the test defined benefit pension scheme which was actioned in september payroll email chain below i am currently trying to transfer my pension pot test defined benefit pension scheme and as part of this thee company i have chosen to move the pot need the guaranteed cetv i have been irregular contact emails with test test pension company to issue the cetv so i can move my pension pot i m being informed that test are still waiting for my opt out details before they will make me a deferred member do you know who is responsible for sending my opt out details to test and the pension trustees and what i need to do to get the opt out details issued if you could point me in the right direction if this isn t anything you deal with i will be very grateful regards abc from : test pensions pensions com sent : 27 august 2020 10 : 52 to : abc xyz testmail com subject : re : test pensions plan morning your forms and request will be processed for september payroll kind regards test pensions from : abc xyz testmail com sent : 27 august 2020 10 : 49 to : test pensions pensions com subject : test pensions plan please find attached : 1 completed test defined benefit pension scheme request 2 completed test defined contribution pension def enrolment form could you expedite the requests as per the forms attached regards abc</t>
+  </si>
+  <si>
+    <t>final transfer value good morning can i please ask for a final guaranteed pension transfer value kind regards 10 test road test street aa12 123 payroll number 123456 n i number zz123123z</t>
+  </si>
+  <si>
+    <t>fw : letter of authority - abc good morning as this member has now opted out we would like to request a transfer pack asap please do let me know if there are issues asap regards test pensions from : test ifa fincorp com date : wednesday 15 april 2020 at 09 : 52 to : test pensions pensions com subject : letter of authority - abc dear sir or madam can you please provide me with the following information about the above policy please find attached a letter of authority from the client to enable you to release this information this can be emailed to test ifa fincorp com therefore please kindly provide me with the following information in writing; dates salary general information date of joining and leaving the scheme member s final pensionable salary is there a pension sharing order or pension earmarking order connected to this plan please provide the details of any cap which may apply for high earners marital status of this member the commutation factor used for an lta tax charge scheme accrual rate pension benefits at date of leaving scheme gmp benefits; showing any pre post 88 splits the rates of revaluation in deferment and escalation in payment excess benefits; showing any pre post 85 or 97 splits the rates of revaluation in deferment and escalation in payment list of any discretionary increases applied to pension either in deferment payment during last 5yrs breakdown of any transferred - in benefits; are the benefits treated the same as the main scheme benefits if not please highlight any differences is there a fixed pension at nra of service credit if no gmp contained does the member have any avcs if so how what is the current value do they have to be transferred with the main scheme benefits what funds are they invested in can the member switch into different funds where a scheme is still active is there an avc scheme available if so please provide details of the provider fund choices and charges current value of any avc the member holds can the member purchase added years can the member transfer in from external pensions can the avc scheme be used to fund tfc at retirement accrual rate commutation factor for tfc scheme retirement age early retirement is early retirement allowed if so from which age what actuarial reduction factors are currently applied to members pensions in the event of early retirement if a table of factors is not available please provide the percentage reduction applicable for each year early and whether this is compound or simple reduction would the member benefits be revalued to the date of actual or normal retirement upon early retirement if revalued to normal retirement at what assumed rate are benefits projected to normal retirement benefit payable now on a full pension basis and maximum pension commencement lump sum with reduced pension basis tax free cash member tfc at date of leaving would this amount revalue if so at what rate does the scheme pay hmrc post a - day maximum cash amount of pre a - day ir maximum cash at 5 4 2006 if protected what are the scheme current tfc commutation factors from nra to age 55 can the tfc be paid from any attached avc death benefits does the scheme pay a death before retirement lump sum if so what and how much what pension would the member spouse receive upon death before and after retirement what death after retirement guarantee does the scheme apply definition of pension payable on death spouse or dependent late retirement please provide late retirement factors which are applicable if the member should choose to retire beyond the scheme nra contracting out was the scheme contracted out pre post 06 04 1997 if yes for post 97 on what basis; reference scheme protected rights underpin mixed benefit transfer value total transfer value cetv ; showing any splits of gmp protected rights pre post 06 04 1997 calculation and guarantee dates also amount of member contributions included in the tv scheme information scheme s normal retirement age is the scheme open to all employees or are there restrictions if so what are they what is the scheme s current funding position would deferred members benefits be affected in any way if so how is the scheme a member of the transfer club will the scheme allow a partial transfer of benefits if yes please outline any restrictions that would be applied and or provide details of the basis on which a partial transfer would be allowed if no please confirm if there is more than one type section version of scheme membership which one applies to the member what date was the scheme equalised and the earliest age benefits can be taken unreduced if the transfer were to proceed would the scheme be insistent that all forms must be returned within the guarantee period or could some discretion be used at that time please forward copies of any warranty discharge forms that would need to be completed if the client decided to transfer their benefits thank you for your assistance in this matter yours faithfully def</t>
+  </si>
+  <si>
+    <t>fw : abcd query hello team please see below query and reply accordingly to the member ifa many thanks test pensions from : test ifa fincorp com sent : 30 november 2020 17 : 33 to : test pensions pensions com subject : abcd query hi please find attached a letter of authority and scheme information request letter that was previously sent to xyz in september 2020 can you please confirm receipt and arrange for this information to be provided to me as a matter of urgency we have received other cetv s for this client which are administered by yourselves which are due to expire at end of december 2020 therefore we would appreciate your assistance to expedite this request we have unfortunately spent some time trying to trace the administrators of this scheme and i understand the benefits were invested through xyz your assistance in this matter would be gratefully appreciated password to follow kind regards test ifa</t>
+  </si>
+  <si>
+    <t>cob request third request with additional information included dear sirs test pension scheme reference tst12345678 you are currently paying my pension into my account no 123123 with nationwide i intend to close this account so wish you to make future payments into my account with the xx my account details with them are : name abc sort code 00 - 00 - 00 account no 1231234 my address is 10 test road test street aa12 123 national insurance no zz123123z date of birth 01 01 1400 please confirm you are actioning this request thank you abc xyz</t>
+  </si>
+  <si>
+    <t>pension ref tst12345678 good morning could you please advise me if there is a lump sum payment payable on this pension my date of birth is 01 01 1400 and ni number is zz123123z kind regards abc xyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">re : test pension fund - abc xyz respected abc xyz administrator customer support centre thank you for your response regrading fpf and condolences for our loss the requisite detail is as under : - abc xyz nephew 01 01 1400 1st january 1400 01 01 1400 1st january 1400 1st january 1400 yes death was registered and death certificate got yes the widow in old age 1st january 1400 the contact number of widow is + + 91 012345678 but due to old age she is unable to talk you may contact me over my cell no + + 91 012345678 looking forward your kind response yours truly abc cell no + 91 012345678 official email : abc xyz testmail com &lt;mailto : atiq rehman nbp com pk from : test pensions &lt;test pensions pensions com sent : friday november 20 2020 3 : 32 am to : abc xyz subject : test pension fund - abc xyz dear abc xyz test pension fund thank you for your email regarding the ford pension fund please accept our apologies for the delay in responding to you please accept my sincerest condolences for your loss in order to assist us could you please provide us with the following details : members name : emailer s relation to member : date of birth : date of death : member s address at date of death : has the death been registered and death certificate issued : did the member have any financial dependents address for condolence : contact number : if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely abc xyz administrator customer support centre test pensions 10 test road test street aa12 123 direct dial : + 91 012345678 test pensions pensions com &lt;mailto : test pensions pensions com from : abc xyz&lt;abc xyz testmail com sent : 11 november 2020 06 : 38 to : test pensions subject : fw : intimation of death and request for procedure to get payment of funds to widow mrs abc xyz the correct official email is abc xyz testmail com &lt;mailto : atiq rehman nbp com pk thanks - - - - - forwarded message - - - - - from : abc xyz to : abc xyz testmail com sent : tuesday 10 november 2020 10 : 32 : 27 pm gmt - 8 subject : intimation of death and request for procedure to get payment of funds to widow mrs abc xyz dear team first i introduce my self my name is abc xyz and working in the fin corp as assistant vice president i am engaged in delivering training to our human capital my uncle mr abc xyz died on jan 1 2020 at home and buried in rawalpindi his particulars are as under : - 1 test pensions fund reference : tst12345678 the captioned provided information has been obtained from a letter dated 7th february 2020 duly signed by mr abc xyz senior manager - payroll my uncle was also getting a uk state pension outside the uk under reference no kindly requested to guide us to proceed further in the matter for smooth payment to widow from all related institutions including fin corp aa12 123 the particulars of the widow who is also still getting her own uk state pension outside the uk under reference no the widow in old age and she is residing with her daughter at the following new change mailing address; - 10 test road test street aa12 123 you are kindly requested to please guide us on the matter for the fixation of pension and end service benefits thanks regards yours truly abc xyz cell no + 91 012345678 official email : abc xyz testmail com &lt;mailto : abc xyz testmail com </t>
+  </si>
+  <si>
+    <t>fw : ref : - tst12345678 full name - mrs abc xyz d o b 01 01 1400 n i number : - zz123123z please see my email below sent from my iphone begin forwarded message : from : abc xyz date : 21 november 2020 at 11 : 01 : 43 gmt to : test pensions pensions com subject : ref : - tst12345678 hello i would just like to make an enquiry request about my pension please as the pension is quite minimal would it be possible to simply withdraw all the funds and close it down please advise me accordingly regards mrs abc xyz sent from my iphone</t>
+  </si>
+  <si>
+    <t>test pensions jlt00000000 - 01 01 1800 xx1 1xx good morning with regards to the above member of the test pensions scheme and the information you kindly provided i would be grateful if you could please confirm that the normal retirement date is age 65 when the client originally joined the scheme believed the retirement age was 60 and therefore if it is now 65 i would be grateful if you could please confirm when it changed to age 65 and whether or not benefits can still be taken unreduced at age 60 i look forward to hearing from you however should you have any questions or queries in the meantime please do not hesitate to contact me kind regards abc xyz senior paraplanner chartered financial planner 10 test road test street aa12 123 tel : 0111 11 11 11 fax : 01111 11 11 11 web : www fincorp com email : fin corp testmail com</t>
+  </si>
+  <si>
+    <t>test pensions member homie dear mr ip we write with regards to your telephone request relating to the above named post 97 non lpi element increases in payment at the higher of lpi maximum 5 and statutory increase and in deferment in line with statutory increases up to a maximum of 5 the estimated accrued pension at the 05 04 2016 amounted to 30 209 31 regards eletricity senior pensions administrator leatherhead office postal address : post handling centre u st tower 7 chennai road m00 0aa member line : + 44 0 1000 100000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">re : test retirement and death benefits plan - def section been over a month are you going to send me the information i requested on 12 oct 2020 at 11 : 36 test pensions pensions com wrote : dear mr abc test retirement and death benefits plan - def section thank you for your email regarding the test retirement and death benefits plan i can confirm that i have logged your request to our administration team to update your address a written response will be issued to your home address within 10 - 15 working days once your address details are updated we will proceed with your pension query if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 08 october 2020 13 : 53 to : test pensions pensions com subject : re : test retirement and death benefits plan - def section it s 1400 since i left the scheme not sure which address to give you on 8 oct 2020 at 07 : 13 test pensions pensions com&lt;mailto : test pensions pensions com wrote : dear abc test retirement and death benefits plan - def section thank you for your email regarding the test retirement and death benefits plan to enable us to answer your enquiry please could you provide your previous address for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions - - - - - original message - - - - - from : abc xyz testmail com sent : 06 october 2020 09 : 23 to : test pensions pensions com subject : test pension dear sir madam i m trying to track down a test pension from when i worked at def formerly xyz hope you can help me it ran from 1400 to 1400 my name is abc dob ni number if you find any details can you let me know the value and options for taking it at 55 thank you mr </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pre - identified user support request reply email address : abc xyz testmail com forename : abc surname : xyz ni number : zz123123z dob : 01 jan 1400 home postcode : aa12 123 employer : test pension fund subject : transfer value content : please can you quote me the transfer value of my pension</t>
+  </si>
+  <si>
+    <t>pension fund equiry hello my name is abc xyz i have resent this mail with some more details i have a pension fund with you i worked for test pensions many years ago i m not sure what the policy number is but i can give you a couple of references that may help : my national insurance number is : zz123123z address : abc xyz 10 test road test street aa12 123 date of birth : 1st january 1400 also i found this reference number within correspondence from you not sure if this is my policy number tst12345678 what i would like to do is bring the pension fund into drawdown take some cash out and re - invest the remaining amount can you advice on the next steps do you need to send a info pack to me look forward to hearing from you regards abc xyz</t>
+  </si>
+  <si>
     <t xml:space="preserve">mrs abc xyz tst12345678 as per your letter dated 1st january 1400 please find enclosed scan of letter provided to mrs abc xyz in respect of advice to the transfer of her test pension which includes safeguarded benefits please let me know if you require anything further best regards abc xyz director independent financial adviser pension specialist fin corp limited mobile : + 91 012345678 office : + 91 012345678 email : fin corp testmail com &lt;mailto : fin corp testmail com </t>
   </si>
   <si>
+    <t>re : test pension fund hi thanks for the response my details are as follows; address : 10 test road test street aa12 123 dob : 01 01 1400 ni no : zz123123z kind regards abc - - - - - - - - original message - - - - - - - - from : test pensions pensions com date : 16 11 2020 11 : 19 gmt + 00 : 00 to : abc xyz testmail com subject : test pension fund dear abc test pension fund thank you for your email regarding the test pension fund please accept our sincerest apologies for the delay in responding to you to enable us to answer your enquiry please could you provide your full address date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 09 november 2020 17 : 55 to : test pensions pensions com subject : transfer value hi i am trying to obtain the transfer value of my pension and am unable to obtain one online please can you advise as i have recently been made redundant from test motor company and require one to assess my pension options going forward kind regards abc</t>
+  </si>
+  <si>
+    <t>change of address i have changed my address and now living in xxx my new address is : - 10 test road test street aa12 123 best regards abc</t>
+  </si>
+  <si>
+    <t>tst12345678 lv = classification : confidential good afternoon i have provided advice to mr abc xyz as per the above reference mr dowell would like to start his test pension under the early retirement rules can you please provide a quote with the maximum tax free cash with a start date of 01 01 1400 and a quote with a start date of 01 01 1400 can you also include the forms he needs to sign to start the pension can the quotes and forms be sent to mr abc xyz if however it is quicker to send to us please do this and we will forward to mr abc xyz if you have any questions please get back to me on this email address kind regards</t>
+  </si>
+  <si>
+    <t>mr abc ref - tst12345678 dear test pensions i hope this email finds you well further to your email to def at investacc i understand you have requested a copy of our financial advice declaration addressed to the member i can confirm the declaration was sent to mr abc along with our original advice but now attach a copy in a letter format addressed to the member i have copied in mr abc on this email so you can verify this letter has been provided please can you now advise on timescales as to when we can expect the transfer to complete kind regards</t>
+  </si>
+  <si>
+    <t>abc xyz - tst12345678 termination hi abc xyz fin : tst12345678 has signed to leave the business on the 18th december 2020 the documentation was sent two weeks ago he will now be leaving on 4th december due to a change in personal circumstances can you please let me know if there is anything i need to amend kind regards test ifa 10 test road test street aa12 123</t>
+  </si>
+  <si>
+    <t>re : transfer value quote request hi can you advise when you expect to be able to respond to my questions in my email of 14 october thanks for your help regards abc on 23 oct 2020 at 11 : 50 abc xyz testmail com&lt;mailto : abc xyz testmail com wrote : i have today received the transfer quote thank you i have a couple of questions related to the pension : - 1 could you confirm the current amount of the annual deferred pension please and if available the projected amount at nrd 2 can the pension be paid early and if so what would it be worth currently annually 3 if paid early or at nrd would it be possible to fully commute the pension and if so what would the fully commuted value be now at nrd thanks for your help regards abc on 14 oct 2020 at 08 : 27 abc xyz testmail com&lt;mailto : abc xyz testmail com wrote : could you confirm that you received my request below and advise the likely timescale for your response to it please thanks abc on 26 sep 2020 at 09 : 42 abc xyz testmail com&lt;mailto : abc xyz testmail com wrote : i am a former member of the test pension scheme and have a gmp remaining in the scheme could you please advise the current transfer value for this and the current annual value of the gmp and revaluation rate that applies to it as i am considering transferring it to my test to enable you to locate my record my name is abc my ni number is zz123123z my date of birth is 1st january 1400 my home address is 10 test road test street aa12 123 thanks for your help and please let me know if you need any additional information regards abc</t>
+  </si>
+  <si>
+    <t>report of death of a pension recipient hello i need to report the death of my father who was in receipt of pension payments from test can you please let me know what i need to do thank you kind regards abc</t>
+  </si>
+  <si>
+    <t>re : test pension scheme abc xyz tst12345678 hello i have checked with mr abc who confirmed that he had sent documents when they were requested he will download and complete again regards test fund on 18 nov 2020 at 12 : 06 test pensions pensions com wrote : dear test fund it is about the statement and forms that we sent to you following the death of mrs abc we do not think that you have returned the documents requested what do i need to do please refer to the statement that we sent to you and send us the information requested completed beneficiary form completed bank mandate form please include your address and national insurance number where can i get more information or ask questions please call + 91 012345678 to speak to our team lines are open between 9 00am and 5 00pm monday to friday please have the member s national insurance number ready so that we can deal with your enquiry quickly if you write to us please provide the member s full name and national insurance number the scheme name and the reference tst12345678 regards test pensions</t>
+  </si>
+  <si>
+    <t>test pension scheme reference : tst12345678 dear test pensions i am enclosing the information you asked for in your recent letter dated 23 october 2020 the beneficiaries addresses you asked for are mrs def 10 test road test street aa12 123 mr jkl 110 test road test street ee12 123 the solicitor dealing with the estate of lmno is stu her email is stu testmail com&lt;mailto : stu testmail com yours sincerely abc</t>
+  </si>
+  <si>
+    <t>change of address good morning i have a pension with you and wish to notify you of my new address abc xyz date of birth 01 01 1400 national insurance number zz123123z old employee number tst12345678 old address 10 test road test street aa12 123 new address 102 test road test street ee12 123 please can you let me know that you have changed my address thank you abc</t>
+  </si>
+  <si>
+    <t>change of address i am trying to change the address details for my def pension plan to 10 test road test street aa12 123 name : mr abc xyz : paye reference : tst12345678; national insurance number zz123123z : pension payroll number tst12345678 please change as above or advise me how it can be done because i cannot find a way to do it on line i look forward to your helpful reply kind regards abc xyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pre - identified user support request lmno reply email address : abc xyz testmail com forename : abc surname : xyz ni number : zz123123z dob : 01 january 1400 home postcode : employer : test subject : spouses pension benefits content : i understand that a spouses pension is 50 of the members pension upon the death of the member is this 50 guaranteed or subject to agreement from the pension trustees is this 50 applicable regardless of the age of the spouse and or the difference in ages between the member and the spouse i have heard that the 50 does not necessarily apply if the spouse if more than 10 years younger than the member this would be applicable to me hence the question </t>
+  </si>
+  <si>
+    <t>mrs def ref tst12345678 further to my telephone call to your customer services this morning please find letter from mrs def confirming that she has received suitable advice from myself also her authority for me to have access to her pension with you our section 48 certificate we will appreciate a response confirming the date you will process this transfer regards test ifa independent financial adviser 10 test road test street aa12 123 ddi : + 91 012345678</t>
+  </si>
+  <si>
+    <t>change of address hi team i refer to the below email we have tried to contact member on the below mentioned address however no reply received hence could you please forward this attached verification form over email and ask member daughter to get it signed by member test pensions from : test pensions pensions com sent : 05 october 2020 17 : 47 to : post handling pensions com&lt;mailto : post handling pensions com subject : fw : change of address hi member name : xyz scheme name : test scheme nino : zz123123z could you please create admin bizflow job for the below request we have received change of address from the member s daughter please verify the same and get back to us test pensions from : abc xyz testmail com sent : 21 september 2020 08 : 33 to : test pensions pensions com&lt;mailto : test pensions pensions com subject : change of address good morning i am emailing on behalf of my mother xyz dob 01 01 1400 ref num tst12345678 mum has changed her address as she has gone into sheltered accommodation her new address is : 10 test road test street aa12 123 if you need any further information please do not hesitate to contact me abc</t>
+  </si>
+  <si>
+    <t>xyz - tst12345678 - cetv forms urgent good afternoon sir or madam abc xyz tst12345678 01 01 1400 zz123123z please find attached a copy of the forms which were sent 1st class rm signed for today to your def address the receiving scheme warrantee form has been relayed to uvw who will in turn send it on to yourselves please can you confirm as soon as possible that you have what you need in order to secure the transfer value this is an urgent request owing to the expiry date of the cetv being 30th november confirmation can be sent to my email or via the communication methods listed below if you have any questions or queries please can you contact me kind regards test ifa</t>
+  </si>
+  <si>
+    <t>re : test pension plan - abcd : tst12345678 hi request you to please confirm when the amount was expected to receive and in which bank account number transfer has been made regards test fund from : test pensions pensions com sent : monday november 9 2020 3 : 35 pm to : testfund fincorp com subject : test pension plan - abcd : tst12345678 importance : high hi can you please check and advise if a payment of 915 00 has been received from the above member kind regards test pensions</t>
+  </si>
+  <si>
+    <t>fw : request for pension details - abc xyz - ref : tst12345678 hello team please see below query and reply accordingly to the member ifa many thanks abc xyz - agent - customer support centre 10 test road test street aa12 123 abc xyz testmail com from : abc xyz - pension tracing service abc xyz testmail com sent : 20 november 2020 12 : 04 to : test pensions subject : request for pension details - abc xyz - ref : tst12345678 to whom this may concern please find attached a letter of authority for client abc xyz in relation to their policies plans held with you i have attached a standard schedule setting out the information we require in connection with any policies held by the client with yourselves along with a full information questionnaire if you so wish to use if you could please fully answer all questions and return the schedule by email or post as soon as possible it would be very much appreciated if there are any additional features of the scheme that are relevant to any decision that might be made by our client to exercise any options under the scheme which are not covered in this schedule please ensure that the relevant information is provided we would like to draw your attention to the fact that where the member is entitled to draw immediate retirement benefits we have asked you to provide a quotation for this in addition to the transfer data please also provide all relevant discharge transfer and open market option documents for any options involving immediate retirement or transfer if you anticipate that there will be a significant delay in providing all or any of the information requested please contact us immediately to indicate when the details will be supplied kind regards abc xyz</t>
+  </si>
+  <si>
+    <t>test penison scheme member ref : tst12345678 many thanks for your letter of 1st january 1400 regarding the options for taking my pension benefits having taken advice on this matter and considering my current personal situation i would like to know if it would be possible to defer taking my pension benefits for potentially a further three years according to your guide notes this may be possible but is dependant on scheme rules at the time of enrolment into the scheme the normal retirement date was upon reaching the age of 60 as you are aware subsequent changes have resulted in my state pension retirement age now increasing to 66 years and 8 months which is not until 2030 i plan to formally retire with my husband when he reaches the age of 65 which will be in 2025 i would therefore like to delay taking my pension benefits for 2 years if this is possible please advise best regards mrs abc xyz email abc xyz testmail com</t>
+  </si>
+  <si>
+    <t>tst12345678 hi team please see below query and reply accordingly many thanks test pensions - - - - - original message - - - - - from : abc xyz testmail com sent : 17 november 2020 14 : 36 to : test pensions pensions com subject : tst12345678 could you please update your records for recent change of address from 2 test road test street ee12 123 to 10 test road test street aa12 123 thank you abc</t>
+  </si>
+  <si>
+    <t>fwd : test pension scheme thank you for your reply but this does not answer my query i already have an activation letter and code but for some reason your system will not recogise my email address when i try to add this in as part of the set up process please can you investigate as a matter of urgency i do not believe that sending a further activation letter wo not fix the problem thank you ian mills from : test pensions date : monday 23 november 2020 subject : test pensions scheme to : jmills255 dear mr abc xyz test pension fund thank you for your email regarding the test pension fund i have requested an activation letter to be issued to you via post this will be issued within 5 working days this will be active for 28 days if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at fin corp testmail com &lt;mailto : fin corp testmail com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 from : abc xyz &lt;abc xyz testmail com sent : 19 november 2020 09 : 37 to : fin corp support subject : fwd : logging issues re email address as requested for security here are further details nat ins no zz123123z date of birth 01 01 1400 address is as in email below thanks abc xyz from : abc xyz date : wednesday 18 november 2020 subject : logging issues re email address to : test pensions i have received my activation code today and tried to log into my fin corp account i entered the code set a user name and password but the system wo not accept my email address it says it not recognised but i have entered my correct email address which is abc xyz testmail com p ease can you advise as soon as possible many thanks abc xyz</t>
+  </si>
+  <si>
+    <t>beneficiaries data form name : lmno ni number : zz123123z reference : tst12345678 hello please find attached the beneficiaries application if you have any questions and you can best to email to me at this email address otherwise contact my mother at the address on the application thank you abc xyz</t>
+  </si>
+  <si>
+    <t>fw : change of address sent from mail&lt;https : go microsoft com fwlink linkid = 550986 for windows 10 from : alexa siri &lt;mailto : yoshimura1400 hotmail com sent : 28 november 2020 15 : 23 to : keldapensions mercer com&lt;mailto : keldapensions mercer com subject : change of address good afternoon please could i request that my address is amended to the following : 11 highway to hell chalis chaurasia la hila st martial art bhun france 20000 i am unable to amend the details on the benpal website your help in this matter is most appreciated warmest regards alexa siri 00011589 former employee of yorkshire water 17 06 1965 nh124130a sent from mail&lt;https : go microsoft com fwlink linkid = 550986 for windows 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">re : test salaried contributory pension fund - xyz good afternoon can you please confirm the case is now in the implementation period and advise when this is due to complete thank you test ifa from : test pensions pensions com sent : 30 october 2020 14 : 46 to : test ifa fincorp com subject : test salaried contributory pension fund - xyz dear team test salaried contributory pension fund thank you for your email regarding the test salaried contributory pension fund please accept our apologies for the delay in responding to you please note i have checked our records and i can confirm that your request is with our administration team and is being processed you will hear from us shortly if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : test ifa fincorp com sent : 21 october 2020 17 : 40 to : test pensions pensions com subject : re : test salaried contributory pension fund - xyz importance : high good afternoon can you please provide an urgent update on the pension sharing order transfer we have tried to call but you are currently not taking phone calls and we are yet to receive a response to our emails please advise if you have any queries thank you test ifa from : test ifa fincorp com sent : 14 october 2020 16 : 20 to : test pensions pensions com subject : re : test salaried contributory pension fund - xyz good afternoon please could you advise that you have now received everything you require to proceed and process the transfer kind regards test pensions from : test ifa fincorp com sent : 07 october 2020 15 : 39 to : test pensions pensions com subject : re : test salaried contributory pension fund - xyz good afternoon following your letter please see attached receiving scheme agreement please advise if you require any further information to be able to process the transfer thank you test ifa from : test pensions pensions com sent : 24 september 2020 12 : 41 to : test ifa fincorp com subject : test salaried contributory pension fund - xyz dear test ifa test salaried contributory pension fund thank you for your email regarding the test salaried contributory pension fund i can confirm that i have forwarded your query to the administration team; once a response has been received we will be in touch accordingly if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : test ifa fincorp com sent : 23 september 2020 14 : 49 to : test pensions pensions com subject : re : test salaried contributory pension fund - xyz good afternoon can you please provide an update on the clients transfer we are yet to receive a response via email and you are not currently taking phone calls please advise if you have any queries thank you test ifa from : test pensions pensions com sent : 10 september 2020 16 : 15 to : test ifa fincorp com subject : test salaried contributory pension fund - xyz dear test ifa test salaried contributory pension fund thank you for your email regarding the test salaried contributory pension fund i can confirm i have forwarded your email to our administration department and they will be in contact shortly if any further information is required if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : test ifa fincorp com sent : 09 september 2020 11 : 55 to : test pensions pensions com subject : re : test salaried contributory pension fund - xyz good afternoon can you please provide an update on the clients transfer and advise if you now have everything to proceed thank you test ifa from : test pensions pensions com sent : 14 august 2020 17 : 30 to : test ifa fincorp com subject : test salaried contributory pension fund - xyz dear test ifa test salaried contributory pension fund thank you for your email regarding the test salaried contributory pension fund i have checked our records and can confirm that the correspondence was issued to member on 13th august 2020 please note that member will receive it shortly if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : test ifa fincorp com sent : 12 august 2020 11 : 40 to : test pensions pensions com subject : re : test salaried contributory pension fund - xyz good morning please could you provide a rough timescale we can expect to hear from you with an update on this one kind regards test ifa from : test pensions pensions com sent : 05 august 2020 11 : 05 to : test ifa fincorp com subject : test salaried contributory pension fund - xyz dear test ifa test salaried contributory pension fund thank you for your email regarding the test salaried contributory pension fund please accept our apologies for the delay in responding to you i can confirm i have forwarded your email to our administration department and they will be in contact shortly if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com did you know that member s can access and manage their pension online by logging into their test account yours sincerely test pensions from : test ifa fincorp com sent : 30 july 2020 12 : 40 to : test pensions pensions com subject : re : test salaried contributory pension fund - xyz good afternoon the transfer is in relation to a pension sharing order can you please advise when we can expect to receive the funds your clients details are : xyz thank you test ifa from : test pensions pensions com sent : 22 july 2020 13 : 28 to : test ifa fincorp com subject : test salaried contributory pension fund - xyz dear test ifa test pension fund thank you for your email regarding the test pension fund please accept our apologies for the delay in responding to you to enable us to answer your enquiry please could you provide the member full address date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : test ifa fincorp com sent : 14 july 2020 08 : 57 to : test pensions pensions com subject : abcd - xyz - tst12345678 good afternoon we are processing a transfer for the above client as part of a pension sharing order can you please confirm you have received the transfer documents and advise if the case is now being processed thank you test ifa </t>
+  </si>
+  <si>
+    <t>re : test pension fund abc thank you for your response i have received the letter acknowledging my complaint and confirming you will investigate however please prioritise sending the transfer information requested by my ifa please confirm by return email when you will be providing the transfer information requested by my ifa including the statutory transfer value my ifa informs me that they have already been provided one promise date for the information by an individual in your team which has been missed regards abc xyz sent from my iphone on 22 nov 2020 at 11 : 03 test pensions pensions com &lt;mailto : test pensions pensions com wrote : dear mr abc test pension fund thank you for your email regarding the test pension fund please accept our apologies for the delay in responding to you i have checked the records and i can confirm that we have issued a complaint acknowledgement to you and your ifa on 1st january 1400 please note our administration will get back to you with the findings as soon as possible if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 from : abc xyz &lt;abc xyz testmail com sent : 16 november 2020 16 : 04 to : test pensions subject : re : test pension fund re : my plan 123456 having not received any further response to my complaint in the emails below i have now made a formal complaint to the pensions ombudsman and requested their assistance my complaint is that test pension fund has been obstructively slow in responding to my requests for information necessary for me to investigate transferring my pension regards abc xyz sent from my iphone on 10 nov 2020 at 17 : 42 test pensions pensions com wrote : dear mr abc test pension fund thank you for your email and i very much regret that it has been necessary for you to write to us with your concerns we do pride ourselves on the quality of service that we deliver to our corporate clients trustees and most importantly individual members we receive relatively few complaints and do take any very seriously the issues you have raised will be investigated and we will endeavour to respond to you within the course of the next five days if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at fin corp testmail com &lt;mailto : fin corp testmail com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 from : abc xyz &lt;abc xyz testmail com sent : 05 november 2020 11 : 42 to : test pensions subject : plan complaint to ombudsman i still have not had a response to my email below dated 22 july ! in addition i have now instructed a financial adviser test ifa regarding moving my pension and despite requesting a transfer pack on 16 sept they have still received nothing from you it appears as if you are obstructing my wish to pursue a pension transfer and so if my financial adviser has not received a transfer pack from you within 5 working days of this email i will be referring my complaint to the pension ombudsman regards abc xyz sent from my iphone begin forwarded message : from : abc xyz date : 22 july 2020 at 17 : 53 : 48 bst to : test pensions pensions com &lt;mailto : test pensions pensions com subject : re : test pension fund hi my address is : 10 test road test street aa12 123 regards abc xyz sent from my iphone on 22 jul 2020 at 15 : 54 &lt; test pensions pensions com &lt;mailto : test pensions pensions com &lt; test pensions pensions com &lt;mailto : test pensions pensions com wrote : dear abc xyz test pension fund thank you for your email regarding the test pension fund please accept our apologies for the delay in responding to you to enable us to answer your enquiry please could you provide your full address for data verification purposes please let me know if i can be of further assistance if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com &lt;mailto : test pensions pensions com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 from : abc xyz &lt;abc xyz testmail com sent : 14 july 2020 19 : 37 to : test pensions subject : pension transfer hi i am considering transferring my pension to a sipp and i would like to understand the process for doing this any charges that will apply and how long the process is likely to take i understand that : - i need to get financial advice from a registered adviser and i need to prove that i have done so - i need to request a statutory transfer value valid for 3 months i would like to understand what happens next plus as i said above timescale and costs my details are : pension scheme : test pension fund name : abc xyz thanks regards abc xyz</t>
+  </si>
+  <si>
+    <t>urgent : cetv value request - mr abc xyz fin 123456 to : pensions team are you able to provide an update on this request from mr abc kind regards test pensions 10 test road test street aa12 123 tel : + 91 012345678 from : abc xyz testmail com sent : 28 october 2020 17 : 52 to : test pensions pensions com subject : re : urgent : cetv value request - mr abc xyz fin 123456 hello i wonder if you could help i have still not received any information regarding my pension transfer value please would you be able to assist me regarding the process of this it is over 3 months and i was of the understanding it would be completed in 3 months thanks for you help with this matter abc on thu 16 jul 2020 at 07 : 53 test pensions pensions com wrote : to : test pensions pensions com please can you urgently provide the cetv value for mr abc xyz fin 123456 kind regards test pesnions supervisor - hr welfare team 10 test road test street aa12 123 tel : + 91 012345678</t>
+  </si>
+  <si>
+    <t>pension abc xyz 01 01 1400 zz123123z hi i got a quote this morning to take my pension and want to know was my care allowance included in the quote and also i would like a quote to take my whole pension as one lump sum please can you provide this for me as i can t do this on line thanks in advance abc xyz</t>
+  </si>
+  <si>
+    <t>re : abc xyz hello abc xyz we are sad to hear about abc xyz s passing for us to assist you further would you be able to confirm abc xyz s and your cgi staff number we don t seem to find your records in our system please be advised that we will progress by closing the case shall we not received a response from your end within 7 business working days thank you kind regards abc xyz fin corp united kingdom from : abc xyz sent : friday november 13 2020 3 : 10 pm to : test pensions pensions com subject : re : abc xyz hi i have not yet received the documents you require me to fill in to process my request however i have found in abc xyz legal papers the expression of wish form that was drafted in 2012 please let me know the documents you need me to provide best regards abc xyz le mar 10 nov 2020 09 : 18 abc xyz&lt;abc xyz testmail com a crit : hi i am writing to you today to inform you of abc xyz born 01 jan 1400 death on june 1 im manilla philippines i am his ex - wife sandrine bessiere - smith i worked for fin corp uk empl 1235 and fin corp sweden then fin corp 2 uk empl 123 from 1994 to 2001 michael was employed by fin corp in sweden and the uk as well prior to the cgi acquisition i recently received his personal papers and i have gone through his uk pension papers and while i know he did not request his pension paid when he left to the philippines since he was still working when he passed i wonder if there would be any money owed to his son next of kin i do not have the details of any policy with fin corp michael nin was zz123123z would you be able to help me with this i have a lot of documentation to provide such as death and medical certificate passport copy birth certificate proof of next of kin marriage and divorce certificate last known address etc many thanks abc xyz - - - - - - - - - - forwarded message - - - - - - - - - de : abc xyz&lt;abc xyz testmail com date : mar 10 nov 2020 08 : 47 subject : re : abc xyz to : abc xyz&lt;abc xyz testmail com dear abc we are sad to hear about abc s passing please feel free to directly get in touch with this company who handles pensions fin corp ltd 10 test road test street aa12 123 helpline : + 91 012345678 fin corp testmail com &lt;mailto : fin corp testmail com query team uk from : abc xyz&lt;abc xyz testmail com sent : monday november 9 2020 4 : 29 pm to : test pension fund &lt;testfund fincorp com subject : abc xyz hi i am writing to you today to inform you of abc xyz born 01 jan 1400 death on jan 1st i am his ex - wife abc xyz i worked for fin corp uk empl 12345 and fin corp sweden then fin corp uk empl 123 from 1994 to 2001 abc was employed in sweden and the uk as well prior to the fin corp acquisition he died in the philippines and i just received all his documents sent to me in france i have gone through his uk pension papers and while i know he did not request his pension paid when he left to the philippines i wonder if there would be any money owner to his son next of kin i do not have the details of any policy with fin corp would you be able to help me with this many thanks abc xyz</t>
+  </si>
+  <si>
+    <t>re : test pension plan - abc hi - we have the attached info - this is the last statement he has received - he has moved house a few times ! hope this helps ! abc from : test pensions pensions com sent : 09 november 2020 14 : 01 to : abc xyz testmail com subject : test pension plan - abc dear abc test pension plan thank you for your email regarding the test pension plan unfortunately i can confirm we are unable to locate a record of benefits using the details you have provided could you please confirm the name of the scheme the member is part of in addition could you please supply any additional reference numbers or the name of anyone you have received correspondence from within test in the past if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test from : test ifa fincorp com&lt;mailto : test ifa fincorp com sent : 05 november 2020 19 : 28 to : test pensions pensions com subject : test pension plan - abc hi - please find attached a signed letter of authority from our mutual client we would appreciate it if you could please provide us with the following information please let us know of you need the original authority sent in the post : his previous address was when providing the cash equivalent transfer value and details of the deferred pension entitlement in respect of the scheme we would be grateful if you could ensure that the following information in respect of the entitlement is included in your response : general 1 a copy of the scheme booklet in relation to their membership of the scheme 2 a copy of the latest summary funding statement in respect of the scheme 3 confirmation as to whether the cetv provided reflects any underfunded position that the scheme has at present 4 confirmation as to whether a partial transfer option is available to the member and if so details of how that option can be applied specific 1 the scheme normal retirement age 2 the earliest age at which the member can become entitled to unreduced benefits 3 the earliest age at which benefits can be taken and any accrual reduction to the benefits that will be applied in such circumstances 4 the breakdown of the deferred pension entitlement at the date of leaving service between any gmp entitlement pre - and post - 1988 pre 06 04 1997 excess and post 05 04 1997 entitlement 5 the rates of revaluation of the pension in deferment including for any gmp entitlement where revaluation is on a limited revaluation basis the amount of the lrp and whether that is included in or is additional to the cetv you provide 6 the rates of escalation of the pension in payment and the measure of inflation rpi or cpi that is used within any increase measure 7 confirmation as to whether the member has any pre - a day protected tax - free cash entitlement within the deferred pension entitlement 8 confirmation of whether any tax - free cash entitlement is by commutation and is provided under post - a day maximum rules if not please specify the amount formula used in calculating the maximum tax - free cash available to the member 9 details of the cash commutation factors applicable at the scheme normal retirement age 10 details of any spouse civil partner death pre - retirement and post - retirement pensions that may be payable 11 details of any guaranteed period of payment for the members pension if death occurs in the guaranteed period is any lump sum payable 12 details of any lump sum payable in the event of the members death pre - retirement including details of any member contributions that may be included in such a payment and the current rate of interest if any that would be added to those contributions 13 for post 05 04 1997 benefits confirmation that the scheme is contracted out on a reference scheme basis or if not the split of the post 05 04 1997 transfer value between protected and non - protected rights 14 details of any option available to the member to defer taking benefits beyond the scheme normal retirement age and any revaluation factors that will apply to the pension entitlement post the scheme normal retirement age many thanks test ifa</t>
+  </si>
+  <si>
+    <t>change of name dear sir abc pension reference tst12345678 zz123123z i refer to a mail forwarded to your payroll department on 13th october on reflection i think this should have been sent to you i would like to confirm my change of name i married on 4th august 2020 and my new surname is abc i have advised hmrc and my details have been updated with them similarly my bank have been informed and my accounts have been amended from def to abc but the account number and sort code remain the same i attach a photocopy of my marriage certificate for your records should you require any further information please do not hesitate to contact me my phone numbers and email address remain the same yours faithfully mrs abc</t>
+  </si>
+  <si>
+    <t>loa - transfer value request importance : high dear test pensions please see attached letter of authority please can you provide the requested information including a transfer value and a transfer pack for a sipp please advise timescale for receiving this information many thanks and please let us know if you need anything further kind regards test ifa 10 test road test street aa12 123 email : test ifa fincorp com&lt;mailto : test ifa fincorp com phone mobile : + 91 012345678</t>
+  </si>
+  <si>
+    <t>pension summary hi i m in the test pensions scheme i ve logged into fin corp to have a look at my pension summary and it s only showing me my pension summary as at 01 jan 1400 is there a reason for this also i have tried to get an early retirement quote calculation but it has been unable to calculate my quote can you help national insurance number zz123123z regards abc xyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fw : abc xyz secure internet mail importance : high advance portfolio : zz123123z your reference : tst12345678 our reference : zz123123z dear sir madam we have received your correspondence dated 11 11 20 i can confirm we are still outstanding the fin corp portal print mentioned below further to our request for an fin corp portal print for the above customer pension transfer i can confirm how you can obtain this please go to the website : www fincorp com within this you can navigate to get the pstr for the scheme that you are the administrator for when in the fin corp portal and on the screen which displays the pstr number but not the date - rather than click the green print text on the screen - click file and print and convert to adobe pdf this will produce a two page document with both the date and pstr number that satisfies the requirements kind regards abc xyz - - - - - original message - - - - - from : fin corp sent : 16 november 2020 12 : 59 to : test pensions pensions com subject : abc xyz secure internet mail advance portfolio : zz123123z your reference : tst12345678 good afternoon we have now received the money for the above clients pension transfer but have not yet received the payment confirmation letter we also require : - scheme name - scheme type if defined benefit please also confirm if there is gmp and we may also require confirmation that the transfer value for any post 1st january 1400 service has been calculated on an equalised basis - pstr number - fin corp print showing scheme name and pstr dated within the last 3 months if you have any questions please call us on + 91 012345678 we will be happy to help kind regards abc xyz fin corp 10 test road test street aa12 123 telephone + 91 012345678 we may record or monitor calls to improve our service </t>
+  </si>
+  <si>
+    <t>change of address abc - xyz trying to contact you regarding change of address and finding out the value of my pension my name is abc - xyz you will have me down at my previous address down as 20 test road test street ae12 123 my new address is 10 test road test street aa12 123 my date of birth is 01 01 1400 and my number is + 91 012345678 many thanks and hope to hear from you soon abc xyz</t>
+  </si>
+  <si>
+    <t>change of address good evening is it possible to change my contact address via email kind regards chacha salsa sent from my iphone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">outstanding money hello i have a letter dated months ago stating that the outstanding cash sum would be paid shortly but have had no reply to several emails please deal with it now </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> warning : message encrypted retirement options form - test pension scheme - tst12345678 message encrypted importance : high good evening please find attached a completed retirement options form for our mutual client to start his pension payments plus lump sum the password is his abc123 which i m hoping you can find out from the reference number quoted please let me know that you can access this form and whether you can accept it in the format or whether you need the original form posted to you many thanks kind regards abc xyz</t>
+  </si>
+  <si>
     <t xml:space="preserve"> warning : message encrypted abc xyz loa message encrypted hi team please see below query and reply accordingly thank you def - agent - customer support centre 10 test road test street aa12 123 + 91 012345678 from : test ifa fincorp com sent : 09 november 2020 10 : 29 to : test pensions pensions com subject : warning : message encrypted abc xyz loa message encrypted dear test pensions please find enclosed a letter of authority from the above client appointing def management ltd to receive policy information the password will follow under separate cover please provide your standard transfer out pack including cash equivalent transfer value and full scheme information please ensure this includes all the information we will require to understand and project the member s benefits and advise the member on all the options available as a guide the information you provide should cover all the items identified as required by the pensions administration standards association in their agreed pasa templates below : scheme information template&lt;https : www pasa - uk com wp - content uploads 2019 10 scheme - template - final pdf member information template&lt;https : www pasa - uk com wp - content uploads 2019 10 transfer - template - member - info - final pdf where the member is eligible to take benefits please provide an immediate retirement quote very important information required : - please confirm the accrual tranches within the pension and their subsequent revaluation and escalation rates what are the clients options with respect to late retirement what are the commutation factors from normal retirement age onwards what are the late retirement factors from nra onwards does the client have any gmp in addition please provide me with the following information relating to policies at your earliest convenience : 1 policy type 2 commencement date 3 contribution history since inception 4 inclusion of waiver of premium 5 plan status 6 current value and breakdown of value between funds 7 current fund s choice please quote mex sedol isin number for each fund attaching to the plan 8 if the policy can offer adviser charging 9 if the policy can offer ufpls 10 if the policy can offer flexible access drawdown 11 pension input periods on the policy 12 if with profits funds please enclose full details including the current asset allocation of the fund and the last 5 years bonus declaration history 13 details of other funds available to invest in and relevant codes 14 transfer value please advise any transfer penalties applicable and reason for any penalty 15 any former protected rights funds 16 pension commencement lump sum amount 17 any guarantees associated to the plan eg guaranteed annuity rates bonus rates guaranteed fund at scheme retirement date srd etc 18 if with profits - please confirm if any with profits spot guarantees apply and when 19 scheme retirement date srd of the plan 20 illustration of projected value at srd age xx 21 a paid up illustration at srd age xx if regular premiums are still being paid please supply a quote to srd age xx assuming the premiums continue 22 the death benefits should the member die before srd and any nominated beneficiaries 23 charges allocation rates on the plan 24 any protected tax free cash at a day if yes please send paperwork to quantify this also please confirm fund value at a day and tax free cash at a day 25 premium and sum assured of any associated pension term assurance value as at a - day 26 is there a pension sharing order or attachment to the benefits if plan is a sipp with a capped drawdown arrangement : - 27 maximum income available 28 review date s 29 any remaining pcls entitlement 30 income currently being taken 31 fee schedule relating to sipp if member has taken benefits : - 32 please confirm the value of the crystallised and uncrystallised portions 33 please also confirm the percentage of the lifetime allowance that has been crystallised within this scheme please send any necessary transfer out paper work and id requirements to be completed i look forward to hearing from you however if you have any queries please let me know as soon as possible yours faithfully test ifa</t>
   </si>
   <si>
-    <t>re : test retirement and death benefits plan - test section - lmno dear sir madam thank you for your response as requested on your email below : member s address at date of death : 10 test road test street aa12 123 has the death been registered and death certificate issued : see attached did the member have any financial dependents my mother his spouse mrs jkl address for condolence : 101 test road test street ea12 123 contact number : + 91 012345678 - my mother does not speak fluent english i am the next of kin and arranging dad estate and i can be contacted on + 91 012345678 alternatively we can arrange that we are all together at a suitable time to take a call should you wish to speak to my mother regards abc xyz from : test pensions pensions com sent : 05 october 2020 10 : 37 to : abc xyz testmail com subject : test retirement and death benefits plan - test section - lmno dear abc xyz test retirement and death benefits plan - test section thank you for your email regarding the test retirement and death benefits plan please accept my sincerest condolences for your loss in order to assist us could you please provide us with the following details : member s address at date of death : has the death been registered and death certificate issued : did the member have any financial dependents address for condolence : contact number : if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com&lt;mailto : test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 01 october 2020 17 : 53 to : test pensions pensions com subject : test retirement and death benefits plan - test section - lmno as requested national insurance number regards abc xyz - - - - - - - - original message - - - - - - - - from : abc xyz testmail com date : 01 10 2020 12 : 50 gmt + 00 : 00 to : test pensions pensions com subject : test retirement and death benefits plan - test section - lmno your ref : tst12345678 dear sir madam we wish to inform you of the death of our father on 18 09 2020 as you hold his pension and his cover includes spouse dependants on his cover i his son abc xyz as his next of kin and person responsible for his estate wish to inform you that our mother mrs jkl is the beneficiary of all of dads finances please let us know how we can arrange this at your earliest convenience i can be contacted on + 91 012345678 or alternatively in writing to my parents address as on your records and as above regards abc xyz</t>
-  </si>
-  <si>
-    <t>change of address abc - xyz trying to contact you regarding change of address and finding out the value of my pension my name is abc - xyz you will have me down at my previous address down as 20 test road test street ae12 123 my new address is 10 test road test street aa12 123 my date of birth is 01 01 1400 and my number is + 91 012345678 many thanks and hope to hear from you soon abc xyz</t>
-  </si>
-  <si>
-    <t>abc xyz change of address pension reference tst12345678 my new address is 10 test road test street aa12 123 kind regards abc xyz</t>
-  </si>
-  <si>
-    <t>transfer request mr xyzz 100 your ref : tst12345678 test : confidential good afternoon please find attached our transfer request as our mutual client wishes to transfer their funds to test for an annuity please let us know if anything further is required many thanks test annuity</t>
-  </si>
-  <si>
-    <t>re : test pension fund hi thanks for the response my details are as follows; address : 10 test road test street aa12 123 dob : 01 01 1400 ni no : zz123123z kind regards abc - - - - - - - - original message - - - - - - - - from : test pensions pensions com date : 16 11 2020 11 : 19 gmt + 00 : 00 to : abc xyz testmail com subject : test pension fund dear abc test pension fund thank you for your email regarding the test pension fund please accept our sincerest apologies for the delay in responding to you to enable us to answer your enquiry please could you provide your full address date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 09 november 2020 17 : 55 to : test pensions pensions com subject : transfer value hi i am trying to obtain the transfer value of my pension and am unable to obtain one online please can you advise as i have recently been made redundant from test motor company and require one to assess my pension options going forward kind regards abc</t>
-  </si>
-  <si>
-    <t>pension ref tst12345678 good morning could you please advise me if there is a lump sum payment payable on this pension my date of birth is 01 01 1400 and ni number is zz123123z kind regards abc xyz</t>
-  </si>
-  <si>
-    <t>changing my home address good afternoon i have a pension with dixons stores group and need to let you know my new address my old address is 00 avilon road meham swiss ss00 0ss my new address is 11 margrate mojito burgman on sea summerset tt0 0tt name stephen stone man date of birth 31st december 1800 old employee number with dixons 000xxx0 please can you let me know that this as been done and arrange for my pension statement to be sent to me i have two pensions with dixons i know one was transferred to mercer ltd which i have notified separately thank you kind regards stone man sent from mail&lt;https : go microsoft com fwlink linkid = 550986 for windows 10</t>
-  </si>
-  <si>
-    <t>re : zz123123z hello again i write to advise you that i wish to transfer out of the test pension fund and i have been told that the company i have chosen test pension fund have already contacted you to advise of this please confirm to me that you have received this from them and that this will be allowed to progress based on your transfer value that expires on 1st january 1400 regards abc xyz dob 01 01 1400 zz123123z 10 test road test street aa12 123</t>
-  </si>
-  <si>
-    <t>re : home address update hi benpal my name is jan feb national insurance number is : aa000000a day of birth : 1st april 1800 current address : 12 mountain hill 12 st tower ss0 0ss could you please change my address to : 100 neil armstrong circle london aa0 0aa fordshire kind regards jan jan feb phone + 44000 000 0000 mobile + 44000 000 0000 email jian jun - wang cba com au from : jan feb sent : friday november 27 2020 5 : 55 pm to : cba jltgroup com subject : home address update hi benpal team could you please change my home immediately to a new address : 100 neil armstrong circle london aa0 0aa fordshire kind regards jan feb jan feb phone + 44000 000 0000 mobile + 44000 000 0000 email jan feb cba com au</t>
-  </si>
-  <si>
-    <t>urgent : cetv value request - mr abc xyz fin 123456 to : pensions team are you able to provide an update on this request from mr abc kind regards test pensions 10 test road test street aa12 123 tel : + 91 012345678 from : abc xyz testmail com sent : 28 october 2020 17 : 52 to : test pensions pensions com subject : re : urgent : cetv value request - mr abc xyz fin 123456 hello i wonder if you could help i have still not received any information regarding my pension transfer value please would you be able to assist me regarding the process of this it is over 3 months and i was of the understanding it would be completed in 3 months thanks for you help with this matter abc on thu 16 jul 2020 at 07 : 53 test pensions pensions com wrote : to : test pensions pensions com please can you urgently provide the cetv value for mr abc xyz fin 123456 kind regards test pesnions supervisor - hr welfare team 10 test road test street aa12 123 tel : + 91 012345678</t>
-  </si>
-  <si>
-    <t>re : test death approval - abcd tst12345678 i agree with the recommendation with regards mr abcd from : test pensions pensions com sent : 29 october 2020 17 : 03 to : testfund fincorp com subject : test death approval - abcd tst12345678 test pension plan abcd death in retirement please find attached the documentation relating to the above late member who died whilst in receipt of his pension as the member is a widower the committee are being asked to consider the lump sum death benefit of 1 500 only this case is being referred to the committee as the nomination form was in the name of the deceased spouse and therefore no longer valid the member was survived by his son and a daughter and it would be our recommendation to pay the lump sum equally to both the son and the daughter please would you agree with this recommendation kind regards test pensions</t>
+    <t>def group pension plan hi team please see below query and reply accordingly many thanks test pensions from : abc xyz testmail com sent : 18 november 2020 12 : 59 to : test pensions pensions com subject : fw : def group pension plan hi my full address is 10 test road test street aa12 123 abc xyz + 91 012345678 10 test road test street aa12 123 from : test pensions pensions com sent : 18 november 2020 12 : 54 to : abc xyz testmail com subject : def group pension plan dear mrs abc def group pension plan thank you for your email regarding the def group pension plan to enable us to answer your enquiry please could you provide your full address for data verification purposes should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 16 november 2020 08 : 33 to : test pensions pensions com subject : re : thank you for contacting the def group pension plan morning as indicated by the you email below please see the details requested full name abc xyz date of birth national insurance number i am wanting to know how i can get view me pension statement abc xyz + 91 012345678 10 test road test street aa12 123 from : test pensions pensions com sent : 16 november 2020 08 : 25 to : abc xyz testmail com subject : thank you for contacting the def group pension plan thank you for contacting the def group pension plan we confirm receipt of your enquiry and will aim to respond within 2 working days we are unable to deal with your request if you have not provided your full name date of birth and national insurance number if this is the case please re - send your original email including this information please note that if you have flagged your email as personal private or confidential it will be hidden from our view so please resend the message to us removing the flag before you send it why do we request this information so that we can ensure that we identify and respond to the correct person in accordance with data protection act regulations you may not wish to provide this information via e mail in which case we can deal with your enquiry via telephone or in writing please use either of these methods to contact us if this is the case we are unable to proceed with your enquiry via e mail without the information requested if you wish to change your address or bank account information def only accept signed written requests sent to our office regards test pensions</t>
+  </si>
+  <si>
+    <t>test pension fund def zz123123z hi team member name : def nino : zz123123z scheme name : test pension fund please create an admin bizflow job for the attached request from member s nok informing member death please verify the date of death and get back to us we have suspended members record regards test fund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">re : fw : test pensions scheme hi you said someone would be intouch with me but no one has i have gave all information needed to get my pension paid out in full and yet nothing get someone to deal with this asap thanks abc from : test pensions pensions com sent : wednesday november 11 2020 3 : 05 : 16 am to : abc xyz testmail com subject : test pensions scheme dear mrs abc xyz test pensions formerly test pension fund thank you for your email regarding the test pensions i have checked our records and can confirm that the correspondence was issued to you on 1st january 1400 in relation to your query please note that you will receive it shortly should you have any further queries please do not hesitate to contact the customer support centre between 9 00am and 5 00pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 from : abc xyz abc xyz testmail com sent : 06 november 2020 23 : 16 to : test pensions subject : re : test pensions scheme i am just letting you know that now one has contacted me yet thanks abc xyz on 13 oct 2020 16 : 19 test pensions pensions com wrote : dear mrs abc xyz test pensions formerly test pension fund thank you for your email regarding the test pensions scheme i can confirm i have forwarded your email to our administration department and they will be in contact shortly should you have any further queries please do not hesitate to contact the customer support centre between 9 00am and 5 00pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely abc xyz administrator customer support centre test pensions 10 test road test street aa12 123 direct dial : + 91 012345678 from : abc xyz abc xyz testmail com sent : 09 october 2020 09 : 30 to : test pensions subject : my pension hi iam writing about my pension tst12345678 i wish to take my full pension out i need it to buy my house i have taken legal advice and i can do this i have spoken to a few other people too i need this as soon as possible i have tried contacting you by phone and apparently my call is not important but it is to me i do not want to lose the house i want abc xyz national insurance number zz123123z thank you abc xyz </t>
+  </si>
+  <si>
+    <t>mrs abc xyz tst12345678 zz123123z - query dear sirs re : mrs abc xyz tst12345678 zz123123z i write to you in reference to my benefits under the above scheme fin corp previously administered the plan and they mentioned in 2016 that i had protected tax - free cash of 1000 at a - day 6th april 2006 when the value was 100 90 now that you are the administrators please can you confirm if this is accurate and that on retirement i will receive the benefit of this assuming the calculation at that point results in an enhanced entitlement to tax free cash many thanks in advance abc xyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">password reset hi team please assist with the following kind regards abc xyz administrator benpal helpdesk customer support centre fin corp ltd 10 test road test street aa12 123 t + 91 012345678 from : abc xyz &lt;abc xyz testmail com sent : 20 november 2020 18 : 42 to : fin corp support subject : password reset hi i tried a password reset earlier this evening i messed it up and tried again i guess i have upset the system as i m not receiving reset details now can you help regards abc xyz fin corp ltd </t>
+  </si>
+  <si>
+    <t>fw : address change - former employee def hi team please see below query and reply accordingly thank you test pensions from : testfund fincorp com sent : 16 november 2020 09 : 00 to : test pensions pensions com subject : address change - former employee def hi please note address change for abc below ni number zz123123z thank you kind regards test fund from : abc xyz testmail com sent : 13 november 2020 12 : 59 to : testfund fincorp com subject : address change - former employee def hi i used to work for def and left in 2007 i am m now coming up to retirement age and trying to sort out my pensions can i update my current address with yourselves i now live at : 10 test road test street aa12 123 thanks for your attention kind regards abc</t>
+  </si>
+  <si>
+    <t>re : test pension scheme address 10 test road test street aa12 123 on mon 23 nov 2020 05 : 07 &lt;test pensions pensions com wrote : dear abc xyz test pension scheme thank you for your email regarding the test pension scheme i can confirm that you are able to transfer either your defined benefits or defined contribution benefits subject to trustees consent in order to assist you further please could you provide your full address for data verification purposes should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at testscheme fincorp com &lt;mailto : testscheme fincorp com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 1237 direct dial : + 91 012345678 test pensions pensions com &lt;mailto : test pensions pensions com from : abc xyz mailto : abc xyz testmail com &lt;mailto : abc xyz testmail com sent : 19 november 2020 20 : 13 to : test pensions subject : ref tst12345678 hi i am writing to enquire whether there is an option to transfer my defined contribution and or my defined benefit rnib pension fund to a test pension scheme fund ie if i wanted to would i be allowed under this scheme abc xyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xyz tst12345678 good afternoon thank you for your letter dated 29th october 2020 please find attached a revised letter of authority and request for information for your attention i look forward to hearing from you in due course yours sincerely test ifa 10 test road test street aa12 123 tel : + 91 012345678 </t>
+  </si>
+  <si>
+    <t>test pensions - abc xyz - 123456 caution : this email originates from a non - jaguarlandrover source do not click links or open attachments unless you recognise the sender and know the content is safe hi we have been advised by the above member that they have moved from 10 test road test street aa12 123 please could you confirm the new address from your records thanks jaguar pension plan</t>
+  </si>
+  <si>
+    <t>fw : tst12345678 thanks test pensions i have copied all the admin details on our data so someone from the team can look into this though looking at the file there does seem to be a few emails on the file to ifa so may just be a lack of clarity on what the hold up for mr abc is please can someone contact the client asap to nip this complaint in the bud thanks test fund - - - - - original message - - - - - from : test pensions pensions com sent : 01 december 2020 10 : 11 to : testfund pensions com subject : fw : tst12345678 hi test fund i am not sure if stu is around but please can you pass this on to the manager of mr abc scheme please i have issued an initial holding response as per the attached but this will need to be escalated accordingly thanks test pensions - - - - - original message - - - - - from : test pensions pensions com sent : 01 december 2020 10 : 04 to : abc xyz testmail com subject : re : tst12345678 good morning mr abc firstly please accept my apologies on behalf of xyz for the problems that you have been experiencing we take matters like this very seriously and i will do everything i can to assist you your email has come through to our specialist sipp and ssas team mailbox and we are unfortunately not the area that look after your pension scheme we also do not have access to the main pensions administration area records to enable me to search for your scheme and trace your policy however i have referred your email across to our complaints team and also to a senior manager in our main pensions administration area to enable them to trace your scheme and make contact with you regarding this they should be in touch with you shortly in the meantime i can also confirm that there is a customer service centre for our main pensions administration area which you can contact if you need to in the future by telephone on + 91 012345678 or by email to test pensions pensions com to help them to trace your scheme in the future you may need to quote the name of the scheme your policy reference number and your name and national insurance number i hope this is of assistance to you for the future and please rest assured that someone will be in touch with you shortly regarding your scheme kind regards test pensions - - - - - original message - - - - - from : abc xyz testmail com sent : 30 november 2020 14 : 30 to : test pensions pensions com subject : tst12345678 hi i ve sent the below message to the contact us page on your website someone needs to contact me or reply to test ifa with regards to transferring this pension to them you do not respond to me you do not respond to them nobody answers your phone this request was first made in september and will be sent to the ombudsman this week unless you actually reply to someone i will try here as well can someone respond to this before i m left no option but to go to the ombudsman from my point of view you have 20000 of my money you refuse to handover i consider that a form of theft i know someone looks at this as i ve been sent three useless letters in the post that achieve nothing you need to reply to test ifa when they contact you i thought def had the worst customer service ever but at least they eventually respond this is just corporate stonewalling have you tried using your service it s pathetic thanks abc</t>
+  </si>
+  <si>
+    <t>abc xyzz importance : high hi are partial transfers allowed on the attached policy many thanks test ifa research analyst 10 test road test street aa12 123 tel : + 91 012345678</t>
+  </si>
+  <si>
+    <t>abc xyz - tst12345678 good afternoon thank you for the recent information regarding mr abc s scheme you have provided additional early retirement factors letter dated 4 november however these factors are different from the factors you provided in your letter dated 12 october can you please clarify that the erf if mr abc retired at age 60 would be 0 68 i also previously asked if pre 97 excess transfer in 1000 can you please confirm if this increases in deferment and in payment i look forward to hearing from you thanks abc kind regards abc xyz paraplanner fin corp ltd</t>
+  </si>
+  <si>
+    <t>abc - zz123123z hello further to my previous email please now find attached correspondence from the receiving scheme test pensions i trust this is satisfactory and meets your requirements to proceed with the transfer it would be most appreciated if you could give me an indication of when we can expect the transfer to be paid to def i look forward to hearing from you kind regards test ifa from : test ifa fincorp com sent : 11 november 2020 16 : 36 to : testfund fincorp com cc : test pensions pensions com subject : abc - zz123123z hello please find attached a duly completed transfer discharge form and a letter confirming that the above member has received financial advice in relation to transferring his benefits away from the test pension scheme the receiving scheme warranty form and any other required documents will follow shortly i trust this is satisfactory and look forward to receiving confirmation that the guaranteed cetv which expires on 31 12 2020 is now secured kind regards test ifa</t>
+  </si>
+  <si>
+    <t>pension details hi team please assist with the following kind regards abc xyz administrator benpal helpdesk customer support centre fin corp ltd 10 test road test street aa12 123 t + 91 012345678 from : abc xyz &lt;abc xyz testmail com sent : 20 november 2020 14 : 15 to : fin corp support &lt;fin corp testmail com subject : fw : pension details from : abc xyz sent : friday november 20 2020 2 : 15 pm to : fin corp testmail com &lt;mailto : fin corp testmail com subject : pension details hi i have never been provided a log in or password for my pension scheme can this be sent over asap please abc xyz 10 test road test street aa12 123 regards</t>
+  </si>
+  <si>
+    <t>request for pension details abc - ref : tst12345678 hi team please see below query and reply accordingly thank you test pensions from : test ifa fincorp com sent : 06 november 2020 16 : 15 to : test pensions pensions com subject : request for pension details abc - ref : tst12345678 to whom this may concern please find attached a letter of authority for client abc in relation to their policies plans held with you i have attached a standard schedule setting out the information we require in connection with any policies held by the client with yourselves along with a full information questionnaire if you so wish to use if you could please fully answer all questions and return the schedule by email or post as soon as possible it would be very much appreciated if there are any additional features of the scheme that are relevant to any decision that might be made by our client to exercise any options under the scheme which are not covered in this schedule please ensure that the relevant information is provided we would like to draw your attention to the fact that where the member is entitled to draw immediate retirement benefits we have asked you to provide a quotation for this in addition to the transfer data please also provide all relevant discharge transfer and open market option documents for any options involving immediate retirement or transfer if you anticipate that there will be a significant delay in providing all or any of the information requested please contact us immediately to indicate when the details will be supplied kind regards def</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pre - identified user support request reply email address : testfund fincorp com forename : abc surname : xyz ni number : zz123123z dob : 01 january 1400 home postcode : aa12 123 employer : test pensions subject : pension transfer content : if i wanted a guaranteed transfer value how long would it take how long would it be valid for and what is the cost after the initial free quote thanks test pensions</t>
+  </si>
+  <si>
+    <t>def pension d o b 01 01 1400 national insurance number zz123123z hi team please see below query and reply accordingly thank you test pensions from : abc xyz testmail com sent : 08 november 2020 19 : 05 to : test pensions pensions com subject : def pension d o b 01 01 1400 national insurance number zz123123z please find attached confirmation of change of bank details as requested regards abc on wed 28 oct 2020 19 : 42 &lt;test pensions pensions com wrote : dear abc def group pension plan thank you for your email regarding the def group pension plan your request has been logged for change of address and you will receive a written response from our administration department within 10 - 15 working days also i can confirm that due to data protection requirements we cannot update our records without a signed letter on file i have attached a change of bank details form for you to fill and scan back to us in order to update our records should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 26 october 2020 14 : 31 to : test pensions pensions com subject : def pension - dob - national insurance number to whom it may concern i am writing to inform you that i am now on a full time course at university course details attached and i am currently living in xyz proof of booked accommodation attached the address is : - i have also attached a copy of my student id which tells you the length of my course my bank details for payment are : - barclays bank payments were previously sent to my mum bank account but no payment has been received since august my mum address my previous address is : - i would appreciate it if you could please email confirmation that my payments will re - commence regards abc</t>
+  </si>
+  <si>
+    <t>re : test pension fund thanks for getting back to me my address is 10 test road test street aa12 123 date of birth is 1st january 1400 and national insurance number is zz123123z regards abc xyz on 21 nov 2020 03 : 29 test pensions pensions com &lt;mailto : test pensions pensions com wrote : dear abc xyz test pension fund thank you for your email regarding the test pension fund please accept our apologies for the delay in responding to you to enable us to answer your enquiry please could you provide your full address date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com &lt;mailto : test pensions pensions com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 from : abc xyz &lt;abc xyz testmail com sent : 14 november 2020 22 : 28 to : test pensions subject : logging in to manage my benefits my name is abc xyz based in test locatyion my fin is 123456 and am a driver specialist in fin corp ltd i would to be able to access and manage my pension benefits online i know i received a letter way back in 1400 to activate my account i cant remember if i did if i did i have completely forgotten my log in details please could you assist thank you regards abc xyz 12345678</t>
+  </si>
+  <si>
+    <t>re : pension transfer out good afternoon abc xyz 10 test road test street aa12 123 dob 01 01 1400 zz123123z tst12345678 i am planning to transfer my pension out of the scheme i have been informed that i need to inform you how do i do this abc from : abc xyz testmail com&lt;mailto : abc xyz testmail com sent : 12 november 2020 14 : 05 to : test pensions pensions com subject : pension good afternoon i am planning to transfer my pension out of the scheme i have been informed that i need to inform you how do i do this abc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">password dear sir madam i am looking to access my ford pension benefits as i am looking to retire in 2021 would it be possible for you to send me a new activation code as the last one has expired incidentally i could not access my account orignially as the activation code would not be recognised kind regards mr abc xyz </t>
+  </si>
+  <si>
+    <t>test pension scheme message encrypted message encrypted hi team please see below query and reply accordingly many thanks def 10 test road test street aa12 123 direct dial : + 91 012345678 test pensions pensions com&lt;mailto : test pensions pensions com from : abc xyz testmail com sent : 09 november 2020 08 : 46 to : test pensions pensions com&lt;mailto : test pensions pensions com cc : xyz abc testmail com subject : warning : message encrypted fw : test pension scheme message encrypted message encrypted many thanks def from : test pensions pensions com&lt;mailto : test pensions pensions com sent : 05 november 2020 15 : 59 to : abc xyz testmail com cc : xyz abc testmail com subject : re : test pension scheme message encrypted good afternoon abc sorry for the delay in providing this we have obtained the current avc value from standard life and updated your pack for the revised guarantee date please find this attached protected with your national insurance number if you require anything else please let me know kind regards def def 10 test road test street aa12 123 p : + 91 012345678 test pensions pensions com&lt;mailto : test pensions pensions com from : abc xyz testmail com sent : 05 november 2020 11 : 23 to : test pensions pensions com&lt;mailto : test pensions pensions com cc : def subject : re : test pension scheme good morning def i still haven t received any updated documentation on the valuation to include avc s and the amended guaranteed date please can you advise if there s an eta on when i can expect this many thanks abc from : test pensions pensions com&lt;mailto : test pensions pensions com sent : 27 october 2020 10 : 07 to : abc xyz testmail com subject : test pension scheme dear abc thank you for your email i can confirm i have forwarded your email to our administration department and they will be in contact shortly should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com&lt;mailto : test pensions pensions com yours sincerely def 10 test road test street aa12 123direct dial : + 91 012345678 test pensions pensions com&lt;mailto : test pensions pensions com from : abc xyz testmail com sent : 23 october 2020 10 : 01 to : test pensions pensions com&lt;mailto : test pensions pensions com cc : mno uvw testmail com subject : re : test pension scheme good morning def many thanks for the update the actual letter that i received didn t mention that though i look forward to seeing the updated version soon many thanks abc from : test pensions pensions com&lt;mailto : test pensions pensions com sent : 22 october 2020 21 : 03 to : abc xyz testmail com cc : mno uvw testmail com subject : re : test pension scheme hi abc apologies i think this will be the hard copy letter of the quotation i issued via email on friday last week i have asked the team to update the pack with the updated guarantee date and avc value when they receive this i ve also asked for a copy so i can send on via email kind regards def 10 test road test street aa12 123 from : abc xyz testmail com sent : 22 october 2020 09 : 55 to : test pensions pensions com&lt;mailto : test pensions pensions com cc : abc mno testmail com subject : re : test pension scheme good morning def i have received the correspondence but there are 2 things that don t seem quite right with it : - 1 the valuation hasn t had any additional avc s added to it please see the attached email from def 2 the expiry date of the valuation hasn t been extended again please see the attached email from def please can you clarify many thanks abc from : test pensions pensions com&lt;mailto : test pensions pensions com sent : 21 october 2020 18 : 16 to : abc xyz testmail com subject : test pension scheme dear abc thank you for your email i have checked our records and can confirm that the correspondence was issued to you on 16th october 2020 in relation to your query please note that you will receive it shortly should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com&lt;mailto : test pensions pensions com yours sincerely def 10 test road test street aa12 123 direct dial : + 91 012345678 test pensions pensions com&lt;mailto : test pensions pensions com from : abc xyz testmail com sent : 15 october 2020 12 : 09 to : test pensions pensions com&lt;mailto : test pensions pensions com subject : re : test pension scheme good afternoon def is there an eta as to when i can expect this transfer value quotation please many thanks abc from : test pensions pensions com&lt;mailto : test pensions pensions com sent : 01 october 2020 12 : 33 to : abc xyz testmail com subject : test pension scheme dear abc thank you for your email i have checked our records and confirm that the transfer value has been referred to the scheme actuary for review as a result we are unable to provide a transfer value quotation until we have received confirmation to issue as soon as we have had this confirmation the transfer value quotation will be sent to you should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com&lt;mailto : test pensions pensions com yours sincerely def admin csc 10 test road test street aa12 123 direct dial : + 91 012345678 test pensions pensions com&lt;mailto : test pensions pensions com from : abc xyz testmail com sent : 30 september 2020 12 : 05 to : pensions subject : re : pension query good afternoon def i just wanted to check in to ensure that the money transfer was received and that the transfer value quotation is in process kindly advise many thanks abc from : test pensions pensions com&lt;mailto : test pensions pensions com sent : 24 september 2020 05 : 05 to : abc xyz testmail com subject : pension query dear abc thank you for your email i can confirm i have forwarded your email to our administration department to process as requested and they will be in contact shortly should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com&lt;mailto : test pensions pensions com yours sincerely abc admin csc 10 test road test street aa12 123 direct dial : + 91 012345678 test pensions pensions com&lt;mailto : test pensions pensions com from : abc xyz mailto : abc xyz testmail com&lt;mailto : frank l graham bacb co uk sent : 22 september 2020 20 : 19 to : test bank ltd cc : xyz abc testmail com subject : tst12345678 good afternoon i refer to your letter dated 16th september please be advised that i have just paid the 432 00 in regard of requesting another transfer value quotation receipt below : - as requested i m providing my full name national insurance number the scheme name and reference number in this email below : - abc xyz national insurance nbr : scheme name : test pension scheme scheme reference number : tst12345678 please can you confirm receipt of funds and this email many thanks best regards abc</t>
+  </si>
+  <si>
+    <t>re : test pension scheme - late mrs abc xyz sorry forgot to add into my last email yes the death has been registered on 1 january i am still waiting for certificate to arrive in post could not collect because of covid thanks abc xyz sent from my iphone on 23 nov 2020 at 03 : 36 &lt;test pensions pensions com &lt;test pensions pensions com wrote : dear abc xyz test pension scheme thank you for your email regarding the test pension scheme please accept my sincerest condolences for your loss in order to assist us could you please provide us with the following details : date of death : member s address at date of death : has the death been registered and death certificate issued : did the member have any financial dependents address for condolence : also please reconfirm member s national insurance number contact number should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely abc xyz administrator customer support centre test pensions 10 test road test street aa12 123 direct dial : + 91 012345678 fin corp testmail com &lt;mailto : fin corp testmail com - - - - - original message - - - - - from : abc xyz&lt;abc xyz testmail com sent : 22 november 2020 17 : 13 to : test pension scheme subject : re : tst12345678 hello re the below email sent on behalf of my mother abc xyz deceased information needed national insurance number date of birth many thanks abc xyz daughter sent from my iphone on 19 nov 2020 at 10 : 56 susan evans &lt; abc xyz testmail com wrote : hello re the above pension plan for mrs abc xyz i would just like to inform you that my mother passed away on 1st january 2020 could you please cancel any further payments made that my mother won t be entitled to any problems please advise and i ll try my best to assist you kind regards abc xyz deceased s daughter sent from my iphone</t>
+  </si>
+  <si>
+    <t>moving my pension pot from test and leaving final salary scheme good morning i am looking to retire shortly and i want to cancel my membership from the test final salary scheme and move my pension pot to a private scheme where i can draw down from it i would be happy to take advice from yourselves as potential future managers of the pot my payroll number is tst12345678 name abc xyz 10 test road test street aa12 123 regards abc</t>
+  </si>
+  <si>
+    <t>re : test trust pension plan hi it is now 15 working days since you sent this email so this is a polite chasing email when can i expect a response regards abc on tue 27 oct 2020 at 12 : 25 &lt;test pensions pensions com wrote : dear abc test trust pension plan thank you for your email regarding the test pension plan your request has been logged and you will receive a written response from our administration department within 10 - 15 working days if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 23 october 2020 17 : 01 to : test pensions pensions com subject : pension forecast dear sir madam ref tst12345678 you were kind enough to send me a forecast on the 01 01 1400 of my pension at the normal retirement date - 01 01 1400 i was wondering whether you could also send me indicative forecasts for different dates of retirement namely : - age 58 - 01 01 1400 age 59 - 01 01 1400 age 61 - 01 01 1400 so that i can examine the costs of taking it early and the potential benefit for delaying it by 1 year also if you felt that the figure indicated in the may letter had changed for the projection for my normal retirement date of 01 01 1400 had altered please update it kind regards abc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">addtional information i just send an email however it appears you need additional information my date of birth is 1st jan 1400 and my ni is zz123123z full name is abc xyz your ref tst12345678 xyz s dear sir madam i received a letter from your good selves stating that if i need another transfer value then i would need to pay an additional 250 pounds + vat the first transfer request was to a company based in dubai who are shady i done my due diligence and checked them out after the transfer request was made i realize you are a business and need to make money however would you consider reducing the fee amount for an additional transfer request i have found a legitimate uk based company who can deal with me could you help me out by reducing the fee to around 200 i am not a wealthy man and i have been affected financially by the pandemic any help would be appreciated regards abc xyz - - </t>
+  </si>
+  <si>
+    <t>change of address - mrs abc i am writing to advise you that i have recently moved house and my new address is : 2 test road test street ee12 123 i am not sure if you have my last address listed as : 10 test road test street aa12 123 if not then i it will be : 2 test road test street ee12 123 should you need any further information then please contact me on + 91 012345678 kind regards abc</t>
+  </si>
+  <si>
+    <t>our reference 123456 good afternoon i write with regards to the transfer of the above members plan to the test ifa before this transfer can take place we require further information regarding the members plan held with yourselves in order to complete our due diligence checks as such i would be grateful if you could confirm the following as appropriate : is the plan a defined contribution money purchase scheme if so is there a link to a defined benefit plan can this fund the main scheme tax free cash is there a defined benefit underpin if so what would be the value does the plan have any potential guarantees i e gmp 92b reference scheme test benefits if so what is the value of these do you require a wet signature on the forms or can you accept copies we would also be grateful if you could confirm to what extent the above answers apply to all members of this scheme who may wish to transfer providing this information will ensure we are able to minimise the contact we generate with you and do not contact you unnecessarily with future queries finally if you could provide the optimal contact details for contact via post email and telephone this will ensure work is not duplicated needlessly as it was not originally provided to the most appropriate place please note for your convenience i have attached a copy of the client s signed authority; the original has been sent to you in the post the password for the attached will follow separately thank you in advance kind regards def def test ifa test pensions pensions com + 91 012345678 10 test road test street aa12 123</t>
+  </si>
+  <si>
+    <t>test salaried contributory pension fund - mr abc xyz good morning do you have an update on the below please kind regards test ifa adviser support test ifa 10 test road test street aa12 123 tel : + 91 012345678 email : test ifa fincorp com dear test ifa test salaried contributory pension fund thank you for your email regarding the test salaried contributory pension fund i can confirm i have forwarded your email to our administration department and they will be in contact shortly if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : test ifa fincorp com sent : 28 october 2020 14 : 15 to : test pensions pensions com subject : re : test salaried contributory pension fund - mr abc xyz good morning thank you for confirming the below do you have any timescale for when the leaver notification will be processed and when we the client can expect to receive the transfer pack kind regards test ifa from : test pensions pensions com sent : 28 october 2020 08 : 37 to : test ifa fincorp com subject : test salaried contributory pension fund - mr abc xyz this message originated outside your organization dear test ifa test salaried contributory pension fund thank you for your email regarding the test salaried contributory pension fund please accept our sincerest apologies for the delay in responding to you please note that we have received member s leaver notification which is under review once this process is complete we will provide you with the requested transfer pack please be advised that as member is an still active employee of the test motor company all requests for retirement figures must be made through your hr representative please contact hr department for further information if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : test ifa fincorp com sent : 21 october 2020 15 : 53 to : test pensions pensions com subject : test salaried contributory pension fund - mr abc xyz dear sir madam re : i attach a signed letter of authority password protected with the member s dob : dd mm yyyy i would ask you to supply a scheme benefit leaver s statement together with confirmation of the following : current transfer value very important immediate retirement quote and quote at normal retirement age very important gmp pre and post 97 benefits - breakdowns and amounts inc s9 2b does gmp franking apply total pension at a day revaluation and escalation rates of the scheme - very important please specify rpi cpi etc plus min and max levels service dates and salary levels at date of leaving confirmation of tax - free cash details of the commutation factor for tax - free cash widows and lump - sum death benefits guarantee period in years whether any in house avc is included and is so whether the easement introduced by a day on 6th april 2006 a higher proportion than 25 of the tfc may be commuted depending on main scheme benefits details of early and late retirement factors age at which member is entitled to an unreduced pension commutation factor applicable for early retirement if pre a day max tfc is there a money purchase underpin is the scheme contracted out scheme funding status overall funding position scheme open or closed if closed please specify date transfer forms if you have any questions concerning the above please do not hesitate to call me on the number at the bottom of this letter sincerely test ifa adviser support test ifa 10 test road test street aa12 123 tel : + 91 012345678 email : test ifa fincorp com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pre - identified user support request reply email address : abc xyz testmail com forename : abc surname : xyz ni number : zz123123z dob : 01 jan 1400 home postcode : aa12 123 employer : test pensions subject : change to contributions content : hello i was wondering how i go about making a change to my plan for example upping my monthly contribution or changing to a plan that allows for a lump sum etc can i do this with you or do i need to go through my own payroll kind regards abc xyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transfer request abc xyz our ref 0124 - your ref tst12345678 good afternoon the attached transfer request was sent to you on 27 10 could you please acknowledge receipt and advise of a timescale to process our request many thanks </t>
+  </si>
+  <si>
+    <t>letter of authority - client abcd good afternoon please find attached a letter of authority and information request for our client abcd please send all correspondence to this email where possible kind regards test ifa</t>
+  </si>
+  <si>
+    <t>urgent confirmation required - payment received 20 november 2020 test pensions pensions com &lt;mailto : test pensions pensions com dear sirs re : pension information request transfer value confirmation client name : abc xyz your reference : zz123123z our reference : aa11 - aa11 - aa11 - aa11 following request for pension transfer on behalf of the above - named client we can now confirm receipt of the transfer value of 1000 on the 17th november 2020 our records show we are still not in receipt of the final transfer confirmation schedule from your scheme as mentioned in our previous correspondence to you we are unable to accept and correctly apply funds transferred without relevant pension information from your scheme kindly provide the following information as a matter of urgency : 1 confirmation of the total transfer value including a split between uncrystallised and crystallised funds 2 where funds are crystallised details of the following items for each crystallised pot where applicable 2 1 fund value 2 2 capped or flexible drawdown status 2 3 date of bces including amount of pcls paid amount crystallised and percentage lta used at each bce 2 4 maximum income entitlement and whether this amount is calculated on 100 ; 120 or 150 of the basis amount 2 5 date of last formal review and date of next formal review 2 6 amount of income taken in current pension year 3 details of any of the following items 3 1 any form of lta or lump sum protection 3 2 pension credit rights 3 3 death benefit entitlement 3 4 pension sharing ear marking other court orders 4 where applicable whether the scheme contains avcs fsavcs scheme commutation factor and gmp equalisation information 5 any additional information that would assist us apply funds correctly under our scheme please note that we are only able to hold on to the transfer value received for awhile and would process return of funds to your scheme if we are not in receipt of the above information in a few weeks we can accept the information via email in the first instance and the original copy by post : we look forward to receiving the information requested as soon as possible if there are any points of clarification you require in respect of the request please do not hesitate to contact us yours faithfully test pension confirmations team tel : + 91 012345678</t>
+  </si>
+  <si>
+    <t>re : test salaried contributory pension fund address on file : 10 test road test street aa12 123 new address 102 test road test street ea12 123 thanks and regards abc - - - - - - - - original message - - - - - - - - from : test pensions pensions com date : 17 11 20 4 : 37 pm gmt + 10 : 00 to : abc xyz testmail com subject : test salaried contributory pension fund dear test pensions test salaried contributory pension fund thank you for your email regarding the test salaried contributory pension fund please accept our sincerest apologies for the delay in responding to you to enable us to answer your enquiry please could you provide your full address for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 10 november 2020 13 : 24 to : test pensions pensions com subject : current proof of pension importance : high test scheme number dear sir or madam i have been asked for proof of my current test pension payments the financial institution i am dealing with will not accept documents older than two months and the most recent i have are from january 2018 they will accept proof in the form of an email attachment hopefully this is something you can respond to quickly further to this i am still waiting for a reply to my email of 6th november where i asked for clarification on an overpayment into my account best regards abc</t>
+  </si>
+  <si>
+    <t>re : ghij paid pension fund good afternoon the below was acknowledged with thanks on thu nov 19 2020 6 : 13 am test pensions pensions com wrote : dear mrs abc ghij paid pension fund thank you for your email regarding the ghij paid pension fund please accept our apologies for the delay in responding to you i have checked the record and i can confirm that we have updated your address and a correspondence was also issued to you on 17th november 2020 stating the same we have informed payroll team to reinstate your pension payment if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 11 november 2020 13 : 57 to : test pensions pensions com subject : re : ghij paid pension fund good afternoon i have been trying to contact your offices by phone but whenever i did today the phone call was disconnected the rep i spoke seemed to have sighed then disconnected the interaction i have been trying to resolve this matter for two months now i have signed your form and returned same to you via express mail i have tried calling to update my address and i have verified myself a 1000 times over in light of the pandemic i rely heavily on my pension and it was unfortunate that same was discontinued without proper notice your agents appear to be very rude to me whenever i call and when the call is dropped no one calls me back i had moved from my previous location and called earlier on to advise you of same i was assured my address was updated kindly provide an update on the receipt of the verification form and more importantly advise me on when payments can continue my nino is dob my address is my contact is + 91 012345678 warm regards abc xyz on fri oct 16 2020 at 4 : 46 am test pensions pensions com&lt;mailto : test pensions pensions com wrote : dear abc ghij paid pension fund thank you for your email regarding the ghij paid pension fund i can confirm that your current address is not updated in our records in order to update your address please arrange for the attached verification form to be completed and returned via post to the address detailed below test post handling centre 10 test road test street aa12 123 once your address is updated we will proceed with your request also please could you provide your date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 14 october 2020 16 : 47 to : test pensions pensions com subject : re : ghij paid pension fund : member number good morning my national insurance number is normally by this time i would received 45 pounds paid out by the 6th of the month and received by the 12th however my local bank has not yet received same kindly confirm if it was sent warmest regards abc xyz</t>
+  </si>
+  <si>
+    <t>re : pension triggered but no payment on wed 2 dec 2020 at 09 : 55 abc xyz&lt;abc xyz testmail com wrote : dear sir madam i duly completed the required pension application form and submitted it within the specified time frame earlier this year i know that it was received as i made a later enquiry regarding lifetime allowance prior to the switch from fin corp ltd to test pensions unfortunately i have not received any pension payments nor the lump sum or any feedback i recently reached my sixtieth year the trigger point i opted for please would you investigate as to what went wrong yours faithfully abc xyz dob : 01 01 1400 ni : zz123123z 10 test road test street aa12 123</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pre - identified user support request reply email address : test pensions pensions com forename : abc xyz surname : def ni number : zz123123z dob : 01 jan 1400 home postcode : aa12 123 employer : fin corp ltd subject : question re my test pension and the lifetimes allowance content : i am 55 in 1400 and i am now looking to start considering my pension retirement options i have a sipp with over 100 000 in it so looking ahead i am conscious that over the next few years i may come close to the lifetime allowance when i also consider the value of my test pension my understanding is that to work out the amount of my test pension within the lifetime allowance i multiply the annual pension payment by 20 is it possible to tell me what my pension is for lifetimes allowance calculation at 55 amd 60 much appreciated</t>
+  </si>
+  <si>
+    <t>re : def pension fund i still haven t received the reset password email from : test pensions pensions com sent : 19 november 2020 07 : 27 to : abc xyz testmail com subject : def pension fund dear mr abc def pension fund thank you for your email regarding the def pension fund please accept our apologies for the delay in responding to you i can confirm your username for test is : xxx an email containing a password reset link has been sent to your abc xyz testmail com&lt;mailto : abc xyz testmail com email address and you will receive this within the next 30 minutes this will only be active for 24 hours if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com did you know that member s can access and manage their pension online by logging into their test account yours sincerely test pensions from : abc xyz testmail com sent : 11 november 2020 06 : 20 to : test pensions pensions com subject : re : def pension fund hi i didn t receive any reset email from : test pensions pensions com sent : 10 november 2020 14 : 57 to : abc xyz testmail com subject : def pension fund dear mr goth def pension fund thank you for your email regarding the def pension fund i can confirm your username for test is : xxx an email containing a password reset link has been sent to your abc xyz testmail com&lt;mailto : abc xyz testmail com email address and you will receive this within the next 30 minutes this will only be active for 24 hours also your address is updated in our records if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com did you know that member s can access and manage their pension online by logging into their test account yours sincerely test pensions from : abc xyz testmail com sent : 06 november 2020 12 : 59 to : test pensions pensions com subject : change of address and access to account dear sirs i have changed address and cannot get into my account have tried several times please can someone help and advise my national insurance number is my date of birth is regards abc</t>
+  </si>
+  <si>
+    <t>abc ref tst12345678 for the attention of test pensions dear test pensions i refer to your letter of 16th october to my client abc in relation to his deferred pension benefits in the test pension scheme abc had requested a cetv back in august but did not received anything until late october after he had chased up several times the cetv was resent with your letter but still retained the original guarantee date of 21st november ; abc called to query this and was advised that he could have a 10 day extension ie 1st december abc wishes to proceed with the transfer and i now attach the signed discharge form which will hopefully secure the transfer value - we will forward all the supporting documentation as soon as possible i would mention that unfortunately abc suffered a heart attack in april and is back in hospital today for another angiogram so we hope that there are no issues which will cause any unnecessary stress i appreciate your assistance regards test ifa</t>
+  </si>
+  <si>
+    <t>mr abc xyz test zz123123z importance : high dear sirs thank you for your letter dated 3 11 2020 can you please provide us with an immediate retirement pack assuming client retires now please email it to us asap as the deadline of 30 11 is fast approaching and need to conclude the advice within a 3 week period thanks with warm regards test ifa</t>
+  </si>
+  <si>
+    <t>change of address - abc dear sir madam please be advised that on 3rd december 2020 i will be moving from 2 test road test street aa20 123 to 10 test road test street aa12 123 regards abc date of birth - 01 january 1400 national insurance no zz123123z references taken from letter about 2020 increase - your ref : tst12345678 my ref : 000000000000000000 my contact tel : + 91 012345678</t>
+  </si>
+  <si>
+    <t>abcd zz123123z importance : high good morning we have recently received a new cetv pack however we need the following confirmed due to conflicting information we have two different commutation factors for age 65 please could you confirm what is the correct factor to use please could this be looked into urgently thank you abcd</t>
   </si>
   <si>
     <t>test pension scheme - mrs abc importance : high hi team please see below query and reply accordingly thank you test pensions from : test ifa fincorp com sent : 06 november 2020 17 : 58 to : test pensions pensions com subject : test pension scheme - mrs abc importance : high dear test pensions i confirm receipt of your letter dated 22 october 2020 providing us with a cetv this information did not contain a basis pension information including : date of joining scheme date of leaving scheme breakdown of the pension payable as revalued to now revaluation increases pre and post retirement please could you also confirm whether you accept pension credit to be received from mrs hall s spouse by way of a pension sharing order given that the above information is generally provided in a basis cetv report and that my request for a cetv was registered on 24 july 2020 i should be most grateful if you could provide me with a response at your earliest convenience kind regards def from : test pensions pensions com sent : 25 september 2020 13 : 11 to : test ifa fincorp com subject : test pension scheme - mrs abc dear def thank you for your email i have checked the records and can confirm that our administration department are working on your requests and they will issue the correspondence to you as soon as possible should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely test pensions from : test ifa fincorp com sent : 23 september 2020 10 : 35 to : test pensions pensions com subject : test pension scheme - mrs abc dear sir madam on the 1st september 2020 i called and spoke to one of your representatives called david who advised that we should receive the cetv for divorce purpose in 10 - 15 working days this time period has now elapsed and we have not received anything i should be grateful if you could provide me with an update as to when i am likely to receive this information i would apricate if someone could respond to be as soon as possible given that callers are unable to get an update over the phone kind regards def from : test pensions pensions com sent : 31 july 2020 12 : 38 to : test ifa fincorp com&lt;mailto : test ifa fincorp com subject : test pension scheme - mrs abc dear def thank you for your email your request has been logged and you will receive a written response from our administration department within 10 - 15 working days should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely test pensions from : test ifa fincorp com sent : 24 july 2020 17 : 19 to : test pensions pensions com subject : test pension scheme - mrs abc dear test pensions yes please log a job now for the calculation of a cetv for divorce purposes and let me know the current turn - around time i am likely to receive this i understand this will be free however please let me know if this is not the case kind regards def from : test pensions pensions com sent : 24 july 2020 14 : 52 to : test ifa fincorp com subject : test pension scheme - mrs abc dear def thank you for your email please accept our apologies for the delay in responding to you as the initial email states that you do not require transfer value hence the request is not booked however please confirm is the cetv required for transfer or divorce purpose should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com&lt;mailto : test pensions pensions com yours sincerely test pensions from : test ifa fincorp com sent : 15 july 2020 17 : 30 to : test pensions pensions com subject : re : test pension scheme - mrs abc dear test pensions further to your email below i should be grateful if you could provide us with an updated cetv of mrs abc s benefits held in the test pension scheme we note that the previous calculation was produced on 10 july 2019 and therefore i understand that this cetv should be free of charge please advise if this is not the case we would be grateful if you could also advise the current turn - around time for producing a cetv should you have any queries in the meantime please do not hesitate to contact us kind regards def from : test pensions pensions com sent : 09 july 2020 05 : 07 to : test ifa fincorp com subject : test pension scheme - mrs abc dear test pensions thank you for your email and please accept our sincerest apologies for the delay in responding to you your request has been logged and you will receive a written response from our administration department within 10 - 15 working days should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com&lt;mailto : test pensions pensions com yours sincerely test pensions from : test ifa fincorp com sent : 24 june 2020 16 : 23 to : test pensions pensions com subject : warning : message encrypted tst12345678 - letter of authority queries wxyz00 message encrypted dear sir madam policyholder : mrs abc policy number : tst12345678 please find attached a letter of authority in respect of the above policy the attachment has been password protected using the policyholder s date of birth in the format ddmmyyyy please confirm that our authority has been recorded to this policy we would be grateful if you could provide the following information : - 1 full details of benefits payable including copy of most recent annual benefit statement or deferred benefit statement 2 copy of the scheme booklet relevant to the membership category 3 options for pension credit members and schedule of charges for implementing pension sharing orders please note we do not require a current cash equivalent transfer value cetv at this time please send all information by email to def email : test ifa fincorp com&lt;mailto : test ifa fincorp com if information may only be sent by fax or post please mark this for the attention def we look forward to hearing from you kind regards def</t>
   </si>
   <si>
-    <t>beneficiaries data form name : lmno ni number : zz123123z reference : tst12345678 hello please find attached the beneficiaries application if you have any questions and you can best to email to me at this email address otherwise contact my mother at the address on the application thank you abc xyz</t>
-  </si>
-  <si>
-    <t>re : change of personal details name abc further to my previous email my date of birth is 01 january 1400 t i pension reference number tst12345678 national insurance number zz123123z change of address from 70 test road test street wa12 123 new address 10 test road test street aa12 123 mobile + 91 012345678 email abc xyz testmail com&lt;mailto : email jackie barrett123197 gmail com regards abc on wed 14 oct 2020 15 : 01 abc xyz testmail com&lt;mailto : abc xyz testmail com wrote : name abc test group pension scheme member reference number tst12345678 national insurance number zz123123z i wish to advice you on my change of address now; 10 test road test street aa12 123 mobile number + 91 012345678 regards abc - - abc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">abc xyz dear sir or madam please find attached a current letter of authority for the above client this is an initial request looking into a potential transfer once the above client confirms they wish to proceed we will confirm the receiving scheme qrops sipp transfer request list please provide all details in full both overseas and uk discharge forms including fin corp requirements forms for the transfer to take place scheme and plan type barber equalisation date nra pre and post barber equalisation date has there previously been a transfer in or not if yes then the amount of gmp transferred in revaluation rate for gmp transferred in confirmation of any avc or money purchase benefits held within the scheme are there any pension sharing earmarking orders - if yes does the tv reflect this does the scheme provide a bridging pension guaranteed annuity rates where applicable please provide details on single life level basis single life 10 year guarantee joint life 50 spouses guaranteed growth rates guaranteed plan value at retirement ill - health pension or enhancement current fund value including all fund details full cetv if the cetv has been reduced please confirm by what amount date of joining and leaving the pension scheme normal retirement date age members contributions to the scheme an immediate retirement quote value of pension at date of leaving value of pension at statement date deferred pension at date of leaving - per annum figure showing : o pre 88 gmp o post 88 gmp o pre 97 gmp o post 97 gmp o post 05 o post 09 o excess o should any gmp revalue at different rates please provide the relevant split pension increases in deferment for : o gmp o excess o if this is by price inflation please specify if this is cpi or rpi pension increases in retirement for : o gmp o excess o if this is by price inflation please specify if this is cpi or rpi have there been any discretionary increases in the last 10 years is there a spouses pension details in both deferment and retirement - also confirm if spouse s pension is calculated before or after any commutation confirmation of the reduction to the spouse benefits if the spouse is more than 10 years younger is there a children s pension details in both deferment and retirement guarantee period on death of the member lump sum payable in death in deferment and retirement the member s final pensionable earnings figure in order to determine the spouse s pension payable on death in deferment rate of interest applied to the refund of contributions on death in deferment full income without taking pcls earnings on leaving pcls at nra commutation factor for ages 55 - 70 early retirement factors and how they are applied - are these applied to pension at retirement or nra late retirement factors and how they are applied - are these applied to pension at retirement or nra scheme funding status date latest scheme funding statement leaflet booklet is the plan paid up longevity adjustment factor and how this is applied if applicable scheme booklet do you permit partial transfers and if so on what terms have you as yet equalised gmp payments in line with the may 1990 ruling by the european court of justice abc xyz pension administrator tel : + 91 012345678 fax : + 91 012345678 email : fin corp testmail com &lt;mailto : fin corp testmail com </t>
-  </si>
-  <si>
-    <t xml:space="preserve">test pension fund full name : abc xyz reference : tst12345678 ni : zz123123z i am writing with reference to your letter dated 1st january 1400 in which you state that i have sufficient unused annual allowance to cover any increase in pension savings during this tax year please consider this email as confirmation that i wish to continue with my chosen option 4 confirmation that you can now proceed with processing my retirement would be greatly appreciated kind regards abc xyz 10 test road test street aa12 123 + 91 012345678 abc xyz testmail com &lt;mailto : abc xyz testmail com </t>
-  </si>
-  <si>
-    <t>fw : extending decision time dear ms abc xyz i refer to my email of 1 jan see below when i requested an extension to the guaranteed period for transfer value i hope that you can deal with this request urgently as time is passing and we must have confirmation on the extension to 30 january before taking further action i look forward to hearing from you regards abc xyz from : abc xyz &lt;abc xyz testmail com sent : 14 november 2020 15 : 34 to : test pensions &lt;test pensions pensions com subject : extending decision time : test pension scheme dear ms abc xyz thank you for the amended pension transfer pack received on 1 jan the pack refers to the transfer value of my pension as at 10 jan it also indicates that the transfer value expires on the 10 december given that the transfer pack did not get to me until 30 jan following delays that leaves just about 6 weeks to take advice from my financial adviser; which he tells me will include further information gathering from fin corp reflect make a decision complete and return the necessary documents to fin corp i feel that the period is too short and my financial adviser who is very experienced in dealing with defined benefits transfers also feels that it would be too short to make this deadline even in a best case scenario when considering this request please bear in mind the difficulties that companies like fin corp have in providing a normal service due to covid restrictions i am sure you will also consider that financial advice is not as accessible during this current lockdown my adviser confirms that his firm is unable to make face to face meetings which in my circumstances is not ideal the length of time involved in producing braille copies of print documents should also be considered as there is always an interval of 7 to 10 days between the date on the print letter and the date that i receive it in braille can i suggest and respectfully request given the circumstances that the three month guaranteed transfer value window should start from 30 october when i received the amended transfer pack i look forward to hearing from you urgently on this matter abc xyz 10 test road test street aa12 123</t>
-  </si>
-  <si>
-    <t>retirement figures hi could i please have updated pension figures with a retirement date of 31 3 21 my full name is abc xyz national insurance number zz123123z regards abc</t>
-  </si>
-  <si>
-    <t>change of details good morning i would like to notify of my change of name and address previous abc xyz of 0 test road test street aa12 123 now xyz abc 11 test road jaiden street aa12 124 regards abc xyz sent from my ipad</t>
-  </si>
-  <si>
-    <t>test pension fund : def good morning following the emails below my father xyz has received a letter from you dated 01 january 1400 regarding the death on my mother def - your reference tst12345678 in that letter you say you need to see certain original documents being my fathers birth certificate or passport marriage certificate and death certificate to say the least requiring original documents to be sent around the world is both unusual and high risk in dealing will my mothers estate no other pension provider xxx or xxx has asked for anything other than certified copies of documents to this end i spoke with a representative of test deceased estates department in xxx he thought your need to be extraordinary and said certified copies suffice here questions : 1 can my father send certified copies authorised by an appropriate authority or a test officer at you xxx office 2 what document or documents would be acceptable in lieu of a xxx marriage certificate as my father is unable to locate this document i await your reply regards abc - - - - - - original message - - - - - - from : abc xyz testmail com to : test pensions pensions com sent : thursday 13 aug 2020 at 7 : 41 am subject : test pension fund : def in my previous response to this i gave def s dob as 01 january 1400 which was an error the correct dob is 01 january 1400 regards abc - - - - - - original message - - - - - - from : test pensions pensions com to : abc xyz testmail com sent : tuesday 11 aug 2020 at 11 : 02 pm subject : test pension fund : def dear abc test pension fund please accept my sincerest condolences for your loss in order to assist us could you please provide us with the following details : date of birth : has the death been registered and death certificate issued : what address did you will you use to register the death : did the member have any financial dependants or a spouse address for condolence pack : did the member leave a will if yes - can i take the name of the executor contact number : if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 08 august 2020 05 : 45 to : test pensions pensions com subject : good morning this is to let you know that my mother died of natural causes on 1st january 1400 i assume you will terminate her payments from the test pension funds if there is anything else my father or i need to do please let me know also does your scheme provide any funeral or bereavement benefits for my father kind regards abc</t>
-  </si>
-  <si>
-    <t>change of address - tst12345678 good afternoon i wish to inform you of a change to my address mr abc national insurance number : zz123123z test pension scheme reference : tst12345678 old adress : 10 test road test street aa12 123 as of the 30th october 20 new address : 2 test road test street uu12 123 kind regards abc</t>
-  </si>
-  <si>
-    <t>abc tst12345678 - zz123123z - 01 01 1400 importance : high good morning i m concerned that i am yet to have a response to my below request please provide the answers to our queries urgently and by email if possible kind regards test ifa from : test ifa fincorp com sent : 06 october 2020 17 : 26 to : test pensions pensions com subject : abc tst12345678 - zz123123z - 01 01 1400 importance : high good afternoon please find attached a letter of authority duly signed by our mutual client which should enable you to release information for this policy therefore please kindly provide me with the following information in writing; dates salary date of joining and leaving the scheme member s final pensionable salary has the gmp been equalised are partial transfers allowed i e can the gmp remain and post 97 rights be transferred funding statement if relevant is late retirement allowed if so to what age and late retirement factors please pension benefits at date of leaving scheme gmp benefits; showing any pre post 88 splits the rates of revaluation in deferment and escalation in payment excess benefits; showing any pre post 85 or 97 splits the rates of revaluation in deferment and escalation in payment list of any discretionary increases applied to pension either in deferment payment during last 5yrs breakdown of any transferred - in benefits; are the benefits treated the same as the main scheme benefits if not please highlight any differences is there a fixed pension at nra of service credit if no gmp contained does the member have any avcs if so how what is the current value do they have to be transferred with the main scheme benefits what funds are they invested in can the member switch into different funds early retirement is early retirement allowed if so from which age what actuarial reduction factors are currently applied to members pensions in the event of early retirement if a table of factors is not available please provide the percentage reduction applicable for each year early and whether this is compound or simple reduction would the member benefits be revalued to the date of actual or normal retirement upon early retirement if revalued to normal retirement at what assumed rate are benefits projected to normal retirement benefit payable now on a full pension basis and maximum pension commencement lump sum with reduced pension basis tax free cash member tfc at date of leaving would this amount revalue if so at what rate does the scheme pay hmrc post a - day maximum cash amount of pre a - day ir maximum cash at 5 4 2006 if protected what are the scheme current tfc commutation factors from nra to age 55 death benefits does the scheme pay a death before retirement lump sum if so what and how much what pension would the member spouse receive upon death before and after retirement what death after retirement guarantee does the scheme apply contracting out was the scheme contracted out pre post 06 04 1997 if yes for post 97 on what basis; reference scheme protected rights underpin mixed benefit transfer value total transfer value cetv ; showing any splits of gmp protected rights pre post 06 04 1997 calculation and guarantee dates also amount of member contributions included in the tv scheme information scheme s normal retirement age is the scheme open to all employees or are there restrictions if so what are they what is the scheme s current funding position would deferred members benefits be affected in any way if so how is the scheme a member of the transfer club will the scheme allow a partial transfer of benefits if yes please outline any restrictions that would be applied and or provide details of the basis on which a partial transfer would be allowed if no please confirm if there is more than one type section version of scheme membership which one applies to the member is the plan subject to an earmarking or attachment order what date was the scheme equalised and the earliest age benefits can be taken unreduced if the transfer were to proceed would the scheme be insistent that all forms must be returned within the guarantee period or could some discretion be used at that time please forward copies of any warranty discharge forms that would need to be completed if the client decided to transfer their benefits thank you for your assistance in this matter kind regards test ifa</t>
+    <t>re : change of bank for pension payment completed form attached as requested will you please confirm when actioned many thanks on tue 17 nov 2020 at 10 : 30 test pensions pensions com wrote : dear abc def retirement and employee scheme thank you for your email regarding the def retirement and employee scheme i have attached a change of bank details form for you to print and complete as appropriate you should return the form either via a scanned attachment in your email alternatively you can return the form to our postal address : test scheme post handling centre 10 test road test street aa12 123 please do not close your old bank account until you have received the first payment in your new account should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 13 november 2020 16 : 23 to : test pensions pensions com subject : fwd : change of bank for pension payment having now read your auto response to my email this is the extra information you require many thanks abc - - - - - - - - - - forwarded message - - - - - - - - - from : abc xyz testmail com date : fri 13 nov 2020 at 10 : 32 subject : change of bank for pension payment to : test pensions pensions com i wish to change the bank into which my dress pension is paid currently it is xx and from the november payment would you please pay it into the following please contact me by this email or by phone + 91 012345678 if you wish to ask any security questions also importantly please advise me if this switch will not be completed prior to the november payment which is due on november 26th as i have internal transfers to do once it is completed many thanks abc</t>
+  </si>
+  <si>
+    <t>question about my pension after death good morning i have a question regarding my pension after my death i understand my wife who is a beneficiary will get a lump sum but what about the pension it self would my wife get a weekly monthly percentage of my pension or just receive the lump sum many thanks abc xyz</t>
+  </si>
+  <si>
+    <t>death in retirement hi can you help my father abc xyz is a retired employee of fin corp he retired approximately 30 years ago and is a member of the test pension plan dob 01 01 1400 ni no zz123123z paye ref tst12345678 pension payroll no tst12345678 address : 10 test road test street aa12 123 he is now 89 years of age and sadly in hospital receiving palliative care and is not expected to survive more than a few days who do i need to inform after he dies and as he will be survived by his wife will she be eligible for any benefit after his death importantly we are trying to put a care package in place for my mum as she herself has healthcare needs thank you for your help abc xyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pre - identified user support request reply email address : abc xyz testmail com forename : abc surname : xyz ni number : zz123123z dob : 01 january 1400 home postcode : aa12 123 employer : test pension scheme subject : spouses pension content : although widowed i have been living with a partner for some years could you please advise me of any conditions i should be aware of relating to a spouses benefits should my death precede hers regards jkl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fw : mr abc xyz - early retirement quote - request good morning please can i request an immediate early retirement quote for the above mutual client zz123123z please can you send this back to the below email address test pensions pensions com &lt;mailto : test pensions pensions com </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pre - identified user support request reply email address : abc xyz testmail com forename : abc surname : xyz ni number : zz123123z dob : 01 jan 1400 home postcode : aa12 123 employer : fin corp subject : beneficiaries content : i would be grateful if you could let me know the details of how much my wife would receive as a pension in the event of my death i am not planning on doing this anytime soon but it we need this information for future planning mant thanks abc xyz</t>
+  </si>
+  <si>
+    <t>re : test pension plan - mr abc hi test pensions my request was sent a week ago can you give me a progress update thanks test ifa from : test pensions pensions com sent : 06 november 2020 09 : 57 to : test ifa fincorp com subject : test pension plan - mr abc dear test pension test pension plan thank you for your email regarding the test pension plan your request for transfer out has been logged and you will receive a written response from our administration department within 5 - 10 working days if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com &lt;mailto : 20test pensions pensions com 20 yours sincerely test pensions from : test ifa fincorp com sent : 03 november 2020 21 : 22 to : test pensions pensions com subject : test pension plan - mr abc hi member s full name : abc member s ni number : scheme name : test pension scheme scheme reference : please find attached the following documents in respect of the above member : your transfer request and discharge form signed by mr abc our advice confirmation letter sent to mr abc i have sent the receiving scheme warranty form to def and have asked them to send the completed form directly to you if there are any further documents you require to complete the transfer please let me know best regards test ifa</t>
+  </si>
+  <si>
+    <t>re : your transfer value request hi there i tried on the website to the get cash equivalent value of my pension for a pre - nup i m doing but as you see below it won t work can you provide this abc 012345 from : test pensions pensions com sent : 18 november 2020 21 : 57 to : abc xyz testmail com subject : your transfer value request unfortunately test account was not able to retrieve a transfer value for your defg pension fund defined benefit pension scheme at this time there are a number of reasons why the calculation you have requested could not be retrieved automatically for example : you are a member of the lmn scheme you have a transfer in you have had a pension sharing or earmarking order you are within one year of retirement if you have any questions please call the test pensions team on + 91 012345678 or email us at test pensions pensions com about the links in this email - in order to protect you from potential security threats test account sends links in emails as plain text your email client may turn this into a hyperlink for you however if you are unsure simply copy and paste it into your browser regards test pensions + 91 012345678</t>
+  </si>
+  <si>
+    <t>re : test pension scheme - test section thank you for responding my details are as follows mrs abc 10 test road test street aa12 123 dob : 01 01 1400 ni number : zz123123z mrs abc data manager deputy dpo + 91 012345678 from : test pensions pensions com sent : 09 november 2020 12 : 45 to : abc xyz testmail com subject : test pension scheme - test section dear mrs abc test pension scheme - test section formerly test group thank you for your email regarding the test pension scheme - test section to enable us to answer your enquiry please could you provide your full address date of birth and national insurance number for data verification purposes should you have any further queries please do not hesitate to contact the customer support centre between 9 00am and 5 00pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 05 november 2020 18 : 46 to : test pensions pensions com subject : test pension scheme - test section good afternoon ref : tst12345678 now that my account has been updated and confirmed that i do have a pension with yourself can you please tell me my options can i withdraw from this pension does this affect my current state pension if i do withdraw could you please send me some literature on what my options would be thank you for your assistance in advance kind regards mrs abc data manager deputy dpo + 91 012345678 from : spsargos mercer com sent : 02 a test pensions pensions comugust 2020 19 : 55 to : abc xyz testmail coml goff subject : test pension scheme - test section dear mrs abc test pension scheme - test section formerly test group thank you for your email regarding the test pension scheme - test section i can confirm that we hold your record of pension with us in order for our records to be updated with your correct surname please provide original documentary evidence eg marriage certificate deed poll or decree absolute confirming your change in details original documents will be returned to you by recorded delivery should you have any further queries please do not hesitate to contact the customer support centre between 9 00am and 5 00pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely abc from : abc xyz testmail com sent : 27 july 2020 16 : 35 to : test pensions pensions com subject : test pension scheme - test section good afternoon you have not actually answered my original question i want to know if i do hold a pension with your company if you can confirm that then i will of course update you with the required documents kind regards mrs abc data manager deputy dpo + 91 012345678 from : test pensions pensions com sent : 27 abc pension scheme - test section dear mrs goff test pension scheme - test section formerly test group thank you for your email regarding the test pension scheme - test section and please accept our sincerest apologies for the delay in responding to you in order for our records to be updated with your correct surname please provide original documentary evidence eg marriage certificate deed poll or decree absolute confirming your change in details original documents will be returned to you by recorded delivery should you have any further queries please do not hesitate to contact the customer support centre between 9 00am and 5 00pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 21 july 2020 19 : 20 to : test pensions pensions com subject : test pension scheme - test section thank you for getting back to me my details are; mrs abc data manager deputy dpo + 91 012345678 from : test pensions pensions com sent : 21 july 2020 14 : 38 to : abc xyz testmail com subject : test pension scheme - test section dear mrs abc test pension scheme - test section formerly test group thank you for your email regarding the test pension scheme - test section to enable us to answer your enquiry please could you provide your full address date of birth and national insurance number for data verification purposes should you have any further queries please do not hesitate to contact the customer support centre between 9 00am and 5 00pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 15 july 2020 17 : 59 to : test pensions pensions com subject : pension enquiry good evening my maiden name is def date of birth i am enquiring as to whether i have a pension or frozen pension with your company i am on your mailing list so was wondering thank you for your assistance kind regards abc</t>
+  </si>
+  <si>
+    <t>abc - guaranteed transfer value - zz123123z good morning i would be grateful if you would confirm the above member has now left the scheme and when we can expect to received the guaranteed transfer value requested kind regards test ifa from : test ifa fincorp com sent : 16 september 2020 17 : 16 to : test pensions pensions com cc : testfund fincorp com subject : abc - guaranteed transfer value - zz123123z good afternoon further to my email below i would request a guaranteed cetv be produced and sent to us as soon as possible kind regards test ifa from : test ifa fincorp com sent : 02 september 2020 10 : 06 to : test pensions pensions com cc : testfund fincorp com subject : abc - guaranteed transfer value - zz123123z good morning i would be grateful if you could confirm you have received notification the above client has left the scheme and subsequently provide a guaranteed transfer value kind regards test ifa</t>
+  </si>
+  <si>
+    <t>1023456789 mr xyz confidential ref : 1023456789 mr xyz test pensions dear sir madam we ve received a transfer out request for the above member i ve attached a trustee declaration and a copy of the transfer request if you are happy for us to process this case please can you complete the form and return it to us if you need anything further please do not hesitate to contact us kind regards abc xyz test pension cid : image001 png 01d445ce e116bbd0 10 test road test street aa12 123 abcd com</t>
+  </si>
+  <si>
+    <t>change of address dear test pension please note that i have moved from : 107 test road test street wa12 123 to : 10 test road test street aa12 123 regards abc + 91 012345678</t>
+  </si>
+  <si>
+    <t>test pension scheme hi team please see below query and reply accordingly many thanks test pensions from : abc xyz testmail com sent : 07 november 2020 12 : 48 to : test pensions pensions com subject : re : test pension scheme</t>
+  </si>
+  <si>
+    <t>test pension scheme - ref zz123123z tst12345678 good morning i have been advised that this is the new email address i need to send my request to look forward to your reply abc xyz from : abc xyz testmail com&lt;mailto : abc xyz testmail com sent : 06 november 2020 10 : 02 to : testfund fincorp com&lt;mailto : testfund fincorp com subject : test pension scheme - ref zz123123z tst12345678 good morning i am writing in relation to my test pension and my details are as follows : - mrs abc xyz 10 test road test street aa12 123 date of birth 01 01 1400 phone number + 91 012345678 as i am approaching my 60th birthday i am considering taking this pension and would be interested in receiving an up to date statement from you including transfer value and an estimate of what i could expect to receive if i took a 25 lump sum payment tax free and the rest as an annuity the last statement i received from you was in march 2016 i look forward to your response thanking you kind regards abc xyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test pensions pension scheme : ref tst12345678 hi team please find enclosed the requested retirement pack as at normal retirement as per the policy rules lr cannot be provided hence provided with a normal retirement pack of 01 01 1400 regards </t>
+  </si>
+  <si>
+    <t>efg uvw - zz123123z hello please find attached a duly completed transfer discharge form and a letter confirming that the above member has received financial advice in relation to transferring his benefits away from the test pension scheme the receiving scheme warranty form and any other required documents will follow shortly i trust this is satisfactory and look forward to receiving confirmation that the guaranteed cetv which expires on 01 01 1400 is now secured kind regards abc xyz test admin 10 test road test street aa12 123</t>
+  </si>
+  <si>
+    <t>fw : information request - letter of authority attached ref : tst12345678 hello team please see below query and reply accordingly to the member ifa many thanks test pensions from : test ifa fincorp com sent : 01 december 2020 08 : 35 to : test pensions pensions com subject : information request - letter of authority attached ref : tst12345678 dear representative of xx please see attached herewith an authorisation letter from with the following personal information : customer personal information : name : abc current address : 10 test road test street aa12 123 date of birth : 01 01 1400 gender : male national insurance number : zz123123z pension type : workplace workplace pension information : employer name : test employer pension provider : xx pension reference number : not known estimated valuation : not known additional information provided : please see information request attachment please note any reference number s or scheme name s listed above are those known to the customer there may however be additional pensions belonging to the customer therefore please ensure you provide information on all of test pensions with xx not just those referenced above with respect to the customer above please provide information on the following : latest transfer valuation current status of the plan : in force paid up or in payment are there any exit charges associated with the specific funds or with the plan overall any guaranteed or non - standard benefits including guaranteed salaries guaranteed annuity rates guaranteed maturity amount guaranteed minimum pension and any other benefits and the conditions attached to them please confirm whether partial transfers are possible from this plan if transfer forms are required to action a transfer out of the scheme please include these in your response test ifa is a company with the following details : company name : test ifa email : test ifa fincorp com address : 10 test road test street aa12 123 telephone : + 91 012345678 please contact test ifa if you require further information sincerely test ifa</t>
+  </si>
+  <si>
+    <t>test pension plan dear test pensions thank you for your response the email i received asked me to await a hard copy version of this information before proceeding any further i know 2 copies have been sent but the def train system is not running at the present time so no postal deliveries have been made not to worry i would like to expedite my pension plan immediately and i am choosing option 1 = the largest lump sum possible gbp58000 + and the relevant monthly income thereafter as my wife and i live in lmn we would like all the funds deposited into her bank account - the account number will be supplied if this is possible we can also provide proof of identity current passports + adhaar national id card + my xx card and government certified marriage certificate which will endorse our relationship please advise kind regards abc test employee no 000000 ni number : zz123123z on wed 11 nov 2020 at 10 : 51 test pensions pensions com&lt;mailto : test pensions pensions com wrote : dear abc test pension plan thank you for your email regarding the test pension plan please accept our apologies for the delay in responding to you i have checked the record and i can confirm that we did sent you a copy of retirement quote via email on 22nd september 2020 however i have attached the copy of correspondence once again for your convenience please note we have encrypted the document with a password which is your national insurance number all in uppercase for ex ab123456c if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com did you know that member s can access and manage their pension online by logging into their test account if you are a scheme of this member you can access your account if you have forgotten your username and or password there is a link on this page to reset it if you have not previously activated your account email us so we can provide you with the activation link yours sincerely test pensions from : abc xyz testmail com sent : 06 november 2020 07 : 40 to : test pensions pensions com subject : re : test pension plan dear test pensions it would appear that def state is currently experiencing a train strike this means that mail is not being delivered would it be possible to send my test pension pack via email to this address please advise kind regards abc on sat 10 oct 2020 9 : 06 am abc xyz testmail com&lt;mailto : abc xyz testmail com wrote : dear test pensions that is good news thank you i suspect the delay is just the sheer distance combined with the logistical challenges caused by the virus my contact details are + 91 012345678 please note that i teach for 5 5 hours per day 11 00 am to 4 30 pm monday to friday and my phone is usually on silent therefore it would be advisable to reach me in the afternoon after 1 00 pm regards abc on thu 8 oct 2020 at 21 : 31 test pensions pensions com&lt;mailto : test pensions pensions com wrote : dear mr abc test pension plan thank you for your email regarding the test pension plan please accept my sincerest apologies for any inconvenience this may cause you i have checked our records and can confirm that the correspondence was issued to you on 29th september 2020 however i have arranged for the information to be re - issued to you as you have not received it please note that you will receive it shortly also could you please provide your contact details to call you if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 06 october 2020 12 : 13 to : test pensions pensions com subject : re : test pension plan reference : tst12345678 dear test pensions unfortunately i have yet to hear back from the administration department as of today tuesday 6 10 2020 would it be possible for them to make contact within the next 48 to 72 hours please regards abc test employee no ni number on thu 24 sep 2020 at 18 : 43 abc xyz testmail com&lt;mailto : abc xyz testmail com wrote : reference : tst12345678 dear test pensions firstly please note that my home address has changed it is now : it is exactly the same building but the local government has changed the way they officially designate them please amend your records to reflect this secondly as i am in india do i still need to call the 0000 number to request the necessary forms or is there an alternative method please advise kind regards abc test employee no ni number : on tue 22 sep 2020 at 21 : 56 test pensions pensions com&lt;mailto : test pensions pensions com wrote : dear mr abc further to your email please see the attached response the document has been encrypted with your national insurance number letters in upper case kind regards test pension scheme administration team from : abc xyz testmail com sent : 15 september 2020 17 : 41 to : test pensions pensions com subject : re : test pension plan dear test pensions ref : 00000 please find attached the original document containing the original address i have also attached the response letter i received from test pensions just to clarify the building is the same one; the local government has altered their method of identifying them hence the change of address regards abc on fri 11 sep 2020 at 10 : 11 test pensions pensions com&lt;mailto : test pensions pensions com wrote : dear mr abc test pension plan thank you for your email regarding the test pension plan please accept my sincerest apologies for any inconvenience this may cause you to enable us to answer your enquiry please could you provide your previous address for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com to : test pensions pensions com subject : re : test pension plan dear test pensions ref no here are the details that you requested address : date of birth : ni number : test employee payroll number : regards abc on wed 2 sep 2020 at 16 : 55 test pensions pensions com&lt;mailto : test pensions pensions com wrote : dear abc test pension plan thank you for your email regarding the test pension plan to enable us to answer your enquiry please could you provide your full address date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 01 september 2020 17 : 16 to : test pensions pensions com subject : re : fw : verification form ref no 00000 dear test pensions i would like to begin the process of activating my test pension we have corresponded several times and the process seems fairly simple as previously stated i would like to take the maximum lump sum available plus the relevant monthly payments there are 2 issues that will need resolving : 1 i am based in the def northern india and the local government have recently altered their house identification system therefore i would need to update my address 2 question : can i have the monthly payments transferred to my wife bank account if we supply the necessary documents proving that she is in fact my wife could you also include all the relevant information regarding what my wife is entitled to in the event of my death regards abc on mon 1 oct 2018 at 09 : 42 abc xyz testmail com&lt;mailto : abc xyz testmail com wrote : dear test pensions would it be possible to send me the following information please 1 my monthly pension amount if i commence payments in may 2020 2 the maximum amount i can take in a lump sum in may 2020 and the relevant subsequent monthly payment please send this information to this email address kind regards abc on wed 26 sep 2018 at 10 : 34 abc xyz testmail com&lt;mailto : abc xyz testmail com wrote : dear test pensions would it be possible to send me the following information please 1 my monthly pension amount if i commence payments in may 2020 2 the maximum amount i can take in a lump sum in may 2020 and the relevant subsequent monthly payment please send this information to this email address kind regards abc former test employee payroll no 00000 on fri 6 apr 2018 at 12 : 07 test pensions pensions com&lt;mailto : test pensions pensions com wrote : dear mr abc thank you for your email your address has been updated and a retirement quote was issued to your new address in the middle of march 2018 regards test pensions test pension administration team from : test pensions pensions com sent : 05 april 2018 15 : 35 to : test pensions pensions com subject : fw : verification form from : abc xyz testmail com sent : 05 april 2018 05 : 43 to : test pensions pensions com subject : re : verification form dear test pensions do you have any information regarding my pension request it has been several weeks since the completed form was sent and there has been no reply kind regards abc ref : 00000 on 24 november 2017 at 22 : 44 test pensions pensions com&lt;mailto : test pensions pensions com wrote : dear abc please find attached verification letter that was originally issued to def without the filled verification form we won t be able to proceed with your request in the mean time if you require any further information please do not hesitate to contact us regards test pensions test pension scheme administration team</t>
+  </si>
+  <si>
+    <t>surname error member ref dep seq no surname inits nino s000000 0 o apos; yeda aaa aa000000a i think the surname on the above name has been accidentally changed to something incorrect surname on valuation data ran in april is yeda and this matches sharepoint please can someone look into and correct thanks rgb</t>
+  </si>
+  <si>
+    <t>re : test pension scheme test pension scheme ref : tst12345678 abc xyz zz123123z with reference to my email or 21st october requesting to know the figure a lump sum would be unfortunately i did not receive this information i received paperwork i have previously received before i make a decision on whether to to opt for a lump sum i obviously need to know what this would be i would be grateful if you could let me know this abc xyz on friday 30 october 2020 11 : 26 : 25 gmt wrote : dear mrs abc xyz test pension scheme thank you for your email regarding test pension scheme your request has been logged and you will receive a written response from our administration department within 5 - 10 working days should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at testscheme fincorp com &lt;mailto : testscheme fincorp com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 www fincorp com from : abc xyz &lt;abc xyz testmail com sent : 28 october 2020 03 : 45 to : test pension scheme subject : re : test pension scheme my address is 10 test road test street aa12 123 on saturday 24 october 2020 19 : 25 : 53 bst wrote : dear abc xyz test pension scheme thank you for your email regarding the test pension scheme to enable us to answer your enquiry please could you provide your full address for data verification purposes should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at testscheme fincorp com &lt;mailto : testscheme fincorp com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 www fincorp com &lt;http : www fincorp com from : abc xyz &lt;abc xyz testmail com sent : 22 october 2020 00 : 42 to : test pension scheme subject : fw : test pension scheme ref tst12345678 - - - - - forwarded message - - - - - from : abc xyz testmail com to : testscheme fincorp com sent : wednesday 21 october 2020 16 : 08 : 58 bst subject : test pension scheme ref tst12345678 i have received retirement quotations as requested they state that i may be able to have a one - off lump sum i would like to know how much this would be before making a decision and completing the paperwork abc xyz ni no zz123123z</t>
   </si>
   <si>
     <t>abc hello dob : 01 01 1400 ni : zz123123z please find attached an loa for your records we are reviewing a case for the above named client and would appreciate if you could answer a few points please confirm the transfer value of 192 265 50 takes into account the members pension sharing order please provide the last 5 years of discretionary increases in payment please confirm if the fixed addition tranche revalues in deferment or increases in payment if so is this by rpi or cpi any max 5 or 2 5 please provide a full table of commutation factors specifically for age 65 and 60 please provide an early retirement factor for age 60 please confirm in the event of early retirement if the pension revalues to nrd or actual retirement date please provide the value of the members contributions at date of leaving kind regards test ifa t : + 91 012345678 e : test ifa fincorp com</t>
   </si>
   <si>
-    <t>fw : reveiw of pension sharing order rome jlt00000000 fos further to my email below we would be grateful for a response thank you abc xyz from : electricity transformer sent : 25 september 2020 17 : 58 to : test pensions cc : test pensions subject : fw : reveiw of pension sharing order - rome - jlt00000000 fos good afternoon please find attached a sharing order which we would be grateful if you could review thank you electricity transformer senior pensions administrator leathe office postal address : post handling centre u st tower 7 chennai street m0 00a member line : + 44 0 1000 100000</t>
-  </si>
-  <si>
-    <t>re : your retirement quotation request as requested - full address date of birth and national insurance number payroll reference number abc 10 test road test street aa12 123 dob = 01 01 1400 ni = zz123123z pay = tst12345678 abc from : abc xyz testmail com sent : 12 november 2020 6 : 09 pm to : test pensions pensions com subject : re : your retirement quotation request hi - please could you help me understand this quote i have generated on the test website it would appear from the figures if i retire 1 day earlier than my 65 birthday that my pension is significantly increased obviously i do not believe this but need an explanation to help me understand and gain confidence that the other quotes i have generated for other dates 55 57 60 etc are actually valid to make some life changing decisions on i attach a screen grab of the normal retirement age quote and the one day before quote thanks in advance for your assistance abc d o b = 01 01 1400 company payrole number = tst12345678 abc from : test pensions pensions com sent : 12 november 2020 5 : 54 pm to : abc xyz testmail com subject : your retirement quotation request the results of the retirement quotation calculation you requested for your test pension plan are now available retirement date : 01 01 1400 calculated at : 01 01 1400 you can view your quotation by logging on to the pension section of test account this quotation will be available to you until 01 01 1400 00 : 00 : 00 or until such time you request another quotation if you have any questions regarding the document or your test pension just call the test support team on + 91 012345678or email us at test pensions pensions com&lt;mailto : test pensions pensions com about the links in this email - in order to protect you from potential security threats test does not use clickable links in emails to visit a link just copy and paste it into your browser regards test pension team</t>
-  </si>
-  <si>
-    <t>pension hello my name is abc xyz i am 56 years old and would like to take a portion of my gkn pension but not sure how to go about it would be thankful if someone could contact me on 123456789 many thanks sent from my huawei phone</t>
+    <t xml:space="preserve">fw : mr abc xyz - tst12345678 - test pension fund importance : high good afternoon with regard to the above client please can you advise whether the client has protected tax free cash within the plan kind regards abc xyz - - - - - - - - - - - - - - - - - - - - - - - - - - - - abc xyz covid - 19 please note we are unable to accept visitors at the office without prior appointment please do not attend our office if you have a persistent cough a high temperature or have lost your sense of taste or smell upon entering the office all visitors must sanitise at the unit provided and adhere to social distancing guidelines hoping you and your families stay safe and well </t>
+  </si>
+  <si>
+    <t>fin corp anomaly - early retirement figures address : 10 test road test street aa12 123 date of birth : 18 01 1800 national insurance number : aa000000a payroll reference number : 000000 i have today generated early retirement quotes from benpal that i would like to have explained please as there appears to be an anomaly that i do not understand a quote for early retirement date of 02 04 18 showed : max pension zero lump sum : 27 343 min pension max lump sum : 19 367 129 115 whereas a quote for early retirement date of 06 04 19 showed : max pension zero lump sum : 27 217 min pension max lump sum : 19 277 128 519 clearly i find a slightly later retirement date returning lower figures to be anomalous and requiring explanation this is particularly important to me at this time as i anticipate retiring and taking my pension around these dates and am trying to determine what will be optimal for me regards abc xyz event manager fin corp 10 test road test street aa12 123 mobile : + 91 012345678</t>
+  </si>
+  <si>
+    <t>re : def pension plan my previous address to my current one was 10 test road test street aa12 123 before that 02 test road test street wa23 123 before that 11 test road test street ua45 123 let me know if you need any more information regards abc tel : + 91 012345678 e : test pensions pensions com from : test pensions pensions com sent : 12 november 2020 10 : 55 to : abc xyz testmail com subject : def pension plan dear mr logan def pension plan thank you for your email regarding the def pension plan to enable us to answer your enquiry please could you provide your previous full address for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 11 november 2020 17 : 05 to : test pensions pensions com subject : pension details hi i wonder if you can help me please i have worked for def for 30 years left the business in 2010 and then joined def in 2016 i would like to gain access to view my initial pension details from my first stint at def but i m not sure how to do this my check number used to be 00 1980 - 2010 my current number is 11 2016 current my ni number is my home address is d o b any help you can give me with this would be much appreciated regards abc tel : + 91 012345678 e : abc xyz testmail com</t>
+  </si>
+  <si>
+    <t>lmno request for a guaranteed cetv pack to test pensions regarding your existing client lmno please find attached the new letter of request for a guaranteed cetv pack for lmno our letter of authority is already on your files and the client has now opted out of the pension scheme please send all the relevant information by post and send a copy by return email please contact me if you need any further information to be able to send the guaranteed cetv pack to us for lmno kind regards test ifa 10 test road test street aa12 123 + 91 012345678</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pre - identified user support request reply email address : abc xyz testmail com forename : abc xyz surname : def ni number : zz123123z dob : 01 jan 1400 home postcode : aa12 123 employer : fin corp ltd subject : leaving fin corp ltd content : hi i will be leaving fin corp ltd in february 1400 but not taking any pension at that time my nrd is not until 1500 am i ok to simply leave the arrangements as they stand at the point when i leave or do i need to make any addtional arrangements thanks abc</t>
+  </si>
+  <si>
+    <t>your reference : tst12345678 our reference : zz123123z good morning we have received your letter of 18 september 2020 regarding the passing of mr lmno we have searched our records and cannot find a policy for mr lmno on the money purchase department we are unable to forward your letter to the correct department as we are unsure of the department please could you confirm who your usual contact is for the test retirement death benefits plan xxxx section if we do not hear from you within the next 20 days we will close the request kind regards test fund</t>
+  </si>
+  <si>
+    <t>abc xyz deceased dear sirs we refer to the above and attach a letter and grant of probate for abc xyz the originals of the attached will be sent out in the post this evening we look forward to hearing from you yours faithfully abc xyz fin corp ltd t : + 91 012345678 e : test pensions pensions com 10 test road test street aa12 123</t>
+  </si>
+  <si>
+    <t>urgent : lmn - test avc abcd our ref : tst12345678 urgent urgent urgent please can someone give us an urgent update on the attached loa and information request the client is looking for an update so would appreciate a current timescale just so as we can manage the client expectations many thanks please quote our client case number on all your replies tst12345678 test admin from : test admin pensions com sent : 06 november 2020 18 : 02 to : test pensions pensions com&lt;mailto : test pensions pensions com subject : urgent : lmn - test avc abcd our ref : tst12345678 please quote our client case number tst12345678on all your replies hi please find attached pension information projections letter together with our client s signed letter of authority loa please provide us with the requested information as soon as possible by secure email if possible transfer discharge requirements : please enclose your discharge transfer encashment form please confirm what form of id is required from our mutual client please confirm if your funds can be paid directly to xyz management for the client s benefit please confirm if the discharge encashment transfer of this plan is supported under the test options pension transfer service please email : test admin pensions com tel : + 91 012345678 regards test admin</t>
+  </si>
+  <si>
+    <t>change of address from 2 test road please note that as from 27th november my address will be as follows : 10 test road test street aa12 123 payroll reference : tst12345678 dob : 01 january 1400 should you require any further information please do not hesitate to contact me regards abc</t>
+  </si>
+  <si>
+    <t>reference tst12345678 dear test pension further to your later dated 1 november 2020 requesting a copy of the funeral expenses paid in full i have attached a copy please could confirm receipt kind regards abc xyz</t>
+  </si>
+  <si>
+    <t>re : change of address for abc xyz tst12345678 additional info required dob 01 january 1400 ni zz123123z from : abc xyz testmail com sent : 16 november 2020 15 : 59 to : test pensions pensions com subject : change of address for abc xyz tst12345678 please update you records asap to reflect my new email address abc xyz testmail com and a change of home address from 101 test road test street ea34 123 to below regards abc xyz 10 test road test street aa12 123</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pre - identified user support request reply email address : abc xyz testmail com forename : abc surname : xyz ni number : zz123123z dob : 01 jan 1400 home postcode : aa12 123 employer : test pensions subject : pension uptake at 60 content : hello i am planning to take my pension at 60 on my birth date could you please give me projected figures for 1 a full pension 2 a pension with the full tax free allowance thank you abc</t>
+  </si>
+  <si>
+    <t>change of address i am trying to change the address details for my test pension to 3 def 10 test road test street aa12 123 name : mr abc : paye reference : 1234; national insurance number zz123123z : pension payroll number tst12345678 please change as above or advise me how it can be done because i cannot find a way to do it on line i look forward to your helpful reply kind regards abc</t>
+  </si>
+  <si>
+    <t>change of address - abcd nino - zz123123z dob - 01 01 1400 reference - tst12345678 new address : 10 test road test street aa12 123 tel : + 91 012345678 email : abc xyz testmail com could you please update the administration and payroll records with mr abcd new address abcd is the former chairman of xx and former chairman of def ltd kind regards test pension fund</t>
   </si>
   <si>
     <t>fwd : early quotation get outlook for android from : abc xyz sent : tuesday august 27 2019 10 : 55 : 53 am to : test ifa fincorp com subject : early quotation please can you send me some early retirement quotation forms ref tst12345678 national insurance number zz123123z get outlook for android</t>
   </si>
   <si>
-    <t>re : your transfer value request would it be possible to call me i ve just spent 30 minutes waiting on your contact number + 91 012345678 on 18 nov 2020 at 3 : 30 pm test pensions pensions com&lt;mailto : test pensions pensions com wrote : unfortunately test account was not able to retrieve a transfer value for your test pension scheme at this time due to the complex nature of your pension benefits we are unable to provide a pension quotation via test account self service if you have any questions regarding the document or your test pension just call the test pensions team on + 91 012345678 or email us at test pensions pensions com regards test pensions team + 91 012345678</t>
-  </si>
-  <si>
-    <t>change of address hi team i refer to the below email we have tried to contact member on the below mentioned address however no reply received hence could you please forward this attached verification form over email and ask member daughter to get it signed by member test pensions from : test pensions pensions com sent : 05 october 2020 17 : 47 to : post handling pensions com&lt;mailto : post handling pensions com subject : fw : change of address hi member name : xyz scheme name : test scheme nino : zz123123z could you please create admin bizflow job for the below request we have received change of address from the member s daughter please verify the same and get back to us test pensions from : abc xyz testmail com sent : 21 september 2020 08 : 33 to : test pensions pensions com&lt;mailto : test pensions pensions com subject : change of address good morning i am emailing on behalf of my mother xyz dob 01 01 1400 ref num tst12345678 mum has changed her address as she has gone into sheltered accommodation her new address is : 10 test road test street aa12 123 if you need any further information please do not hesitate to contact me abc</t>
-  </si>
-  <si>
-    <t>re : transfer value quote request hi can you advise when you expect to be able to respond to my questions in my email of 14 october thanks for your help regards abc on 23 oct 2020 at 11 : 50 abc xyz testmail com&lt;mailto : abc xyz testmail com wrote : i have today received the transfer quote thank you i have a couple of questions related to the pension : - 1 could you confirm the current amount of the annual deferred pension please and if available the projected amount at nrd 2 can the pension be paid early and if so what would it be worth currently annually 3 if paid early or at nrd would it be possible to fully commute the pension and if so what would the fully commuted value be now at nrd thanks for your help regards abc on 14 oct 2020 at 08 : 27 abc xyz testmail com&lt;mailto : abc xyz testmail com wrote : could you confirm that you received my request below and advise the likely timescale for your response to it please thanks abc on 26 sep 2020 at 09 : 42 abc xyz testmail com&lt;mailto : abc xyz testmail com wrote : i am a former member of the test pension scheme and have a gmp remaining in the scheme could you please advise the current transfer value for this and the current annual value of the gmp and revaluation rate that applies to it as i am considering transferring it to my test to enable you to locate my record my name is abc my ni number is zz123123z my date of birth is 1st january 1400 my home address is 10 test road test street aa12 123 thanks for your help and please let me know if you need any additional information regards abc</t>
-  </si>
-  <si>
-    <t>fw : address update from : abc xyz mailto : dexterspost sky com sent : 23 november 2020 19 : 37 to : test payroll subject : address update good morning i recently received a pension payslip from you which was sent to my previous address i thought i had updated you with my new address in july could you kindly check the details you have for me are correct please and let me know if they have been updated test pension scheme mr abc cba pension ref : 10000 my address : 10 test road test street aa12 123 kind regards abc cba sent from my galaxy</t>
-  </si>
-  <si>
-    <t>test pension plan - mr abcd urgent cetv 30 11 2020 to whom it may concern i have received the cetv documentation as requested but only the overseas transfer out paperwork can you please provide me with the transfer documentation via e mail as soon as you can to allow me to transfer out of the test scheme i would also respectfully request an extension due to this error as the cetv is 30 11 2020 kindest regards abcd from : test pensions pensions com sent : thursday september 10 2020 9 : 16 : 24 pm to : abc xyz testmail com subject : test pension plan - mr abcd thank you for your email please note that unfortunately you are unable to take 25 lump sum payment now you can only take the lump sum option should you decide to retire from the plan with the remaining benefits paid as a pension you may if you wish transfer the full benefits to an approved pension provider that will allow you to take part of the benefits now however you will need to speak to a financial adviser if you wish to investigate this option kind regards test pension administration team from : abc xyz testmail com sent : 26 august 2020 12 : 39 to : test admin pensions com subject : re : test pension plan - mr abcd thankyou for your email am i allowed to take a 25 lump sum payment and yes i would like to investigate transferring the pension your advice would be greatly appreciated from : test admin pensions com sent : wednesday august 26 2020 8 : 54 : 11 pm to : abc xyz testmail com subject : test pension plan - mr abcd dear mr foster please find attached the information as requested please note that this has been encrypted with your national insurance number in the format ab123456c kind regards test pensions administration team</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thank you for your email to test pensions pensions com dear test team please be advised that i have changed address my new address is : 10 test road test street aa12 123 dob 01 jan 1400 nat ins number zz123123z would you be so kind as to confirm you have recieved this email and that my address details you have on file will be updated many thanks kind regards abc on tue 17 nov 2020 14 : 48 &lt; test pensions pensions com wrote : thank you for your email to test pensions pensions com your enquiry will be reviewed resulting in a reply from our support team shortly depending upon the nature of your request full resolution may take longer and we will inform you of the next steps in our initial reply we can deal with your request if you have provided your full address date of birth and national insurance number please re - send your original email including this information if it was not included this information ensures that we identify and respond to the correct person in accordance with data protection act regulations if you do not wish to provide this information via email please telephone or write to test including the identification details please note - if you are contacting us on behalf of a member we also require this information in respect of them if you have any enquiries please contact a member of our team on + 91 012345678 between 8 : 30am and 5 : 30pm monday to friday excluding bank holidays all calls are recorded for training and monitoring purposes </t>
-  </si>
-  <si>
-    <t>re : test death approval abc xyz - tst12345678 test pensions i agree with the recommendation in respect of mr abc xyz from : test ifa fincorp com sent : 21 september 2020 15 : 36 to : test pensions pensions com subject : test death approval abc xyz - tst12345678 test abc xyz - death in retirement please find attached the documentation relating to the above late member who died whilst in receipt of his pension the member was unmarried at the date of death therefore the committee are being asked to consider the lump sum death benefit of 1 500 00 only this case is being referred to the committee because the member did not leave a will however a nomination form was completed in 2002 was in favour of his common law wife mrs jkl and son mr def mr def has advised that the late member has lived in a care home for the last 7 years and has had no involvement with mrs jkl furthermore since 2015 the member has been in the care of the adult social care team in birmingham city council who hold a court of protection order copy attached for reference it would be our recommendation that lump sum death benefit is paid to his son - mr def please would you agree this recommendation kind regards test ifa</t>
-  </si>
-  <si>
-    <t>re : test pension scheme thank you for your email my ni number is zz123123z and my date of birth is 01 01 1400 kind regards abc xyz on 20 nov 2020 at 06 : 59 test pensions pensions com &lt;mailto : test pensions pensions com wrote : dear mrs abc xyz test pension scheme thank you for your email regarding the test pension scheme to enable us to answer your enquiry please could you provide your date of birth and national insurance number for data verification purposes should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com &lt;mailto : test pensions pensions com yours sincerely abc xyz administrator customer support centre test pensions 10 test road test street aa12 123 direct dial : + 91 012345678 from : abc xyz&lt;abc xyz testmail com sent : 18 november 2020 23 : 32 to : test pensions subject : change of address - mrs abc xyz i am writing to advise you that i have recently moved house and my new address is : 10 test road test street aa12 123 i am not sure if you have my last address listed as : 10 test road test street aa12 123 if not then i it will be : 10 test road test street aa12 123 should you need any further information then please contact me on + 91 012345678 kind regards abc xyz</t>
-  </si>
-  <si>
-    <t>re : test pension scheme - abc xyz good morning please find attached the client s signed letter of authority showing the requested information regards abc xyz from : test pensions pensions com sent : monday november 23 2020 3 : 02 am to : abc xyz subject : test pension scheme - abc xyz dear abc xyz test pension scheme thank you for your email regarding the test pension scheme please accept my sincerest apologies for any inconvenience this may cause you to enable us to answer your enquiry please could you provide your member s address date of birth and national insurance number for data verification purposes should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at fin corp testmail com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 from : abc xyz &lt;abc xyz testmail com sent : 19 november 2020 14 : 04 to : test pension scheme &lt;testscheme fincorp com cc : test ifa fincorp com subject : fw : test pension scheme - abc xyz good morning we have tried making contact by phone numerous times and we are not getting any response to our emails the cetv has now expired does a revaluation fee apply if so please send us an invoice addressed to the below details 10 test road test street aa12 123 regards abc xyz from : abc xyz sent : monday september 7 2020 1 : 12 pm to : test pensions pensions com cc : test ifa fincorp com subject : fw : test pension scheme - abc xyz good morning we have been chasing week after week and not got a response back could someone please assist regards abc xyz from : abc xyz sent : monday august 24 2020 12 : 59 to : test pensions &lt;test pensions pensions com cc : test ifa fincorp com subject : fw : test pension scheme - abc xyz could someone please reply from : abc xyz sent : monday august 24 2020 12 : 59 to : test pensions &lt;test pensions pensions com cc : test ifa fincorp com subject : fw : test pension scheme - abc xyz good morning please send us a copy of the documents by email from : abc xyz sent : monday august 24 2020 12 : 59 to : test pensions &lt;test pensions pensions com cc : test ifa fincorp com subject : fw : test pension scheme - abc xyz good morning we still haven t received the documents by post please send us a copy by email from : abc xyz sent : monday august 24 2020 12 : 59 to : test pensions &lt;test pensions pensions com cc : test ifa fincorp com subject : fw : test pension scheme - abc xyz good afternoon abc xyz thank you for your email please accept my sincere apologies for the delayed response i can advise you that the transfer information was sent to you on 28 july the additional information requested will follow in due course regards abc xyz administrator fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 from : abc xyz sent : monday august 24 2020 12 : 59 to : test pensions &lt;test pensions pensions com cc : test ifa fincorp com subject : fw : test pension scheme - abc xyz good morning we have not had a response in the past month we have been chasing kindle assist from : abc xyz sent : monday august 24 2020 12 : 59 to : test pensions &lt;test pensions pensions com cc : test ifa fincorp com subject : fw : test pension scheme - abc xyz good morning has a response been issued please from : test pensions &lt;test pensions pensions com sent : 30 june 2020 16 : 05 to : abc xyz &lt;abc xyz testmail com subject : re : abc xyz loa urgent good afternoon abc thank you for your email the information requested has been prepared and is in the process of being checked if there are any further details you require please contact us regards abc abc xyz administration team fin corp ltd 10 test road test street aa12 123 telephone : + 91 012345678 from : abc xyz &lt;abc xyz testmail com sent : 29 june 2020 14 : 10 to : test ifa subject : fw : abc xyz loa urgent good afternoon please provide us with an update from : abc xyz &lt;abc xyz testmail com sent : 05 june 2020 17 : 45 to : abc xyz &lt;abc xyz testmail com subject : re : test pension scheme good afternoon abc xyz thank you for your email please accept my apologies for the delayed response i have asked for your request to be dealt with as a priority regards abc xyz test pension scheme administration team fin corp ltd 10 test road test street aa12 123 telephone : + 91 012345678 from : abc xyz &lt;abc xyz testmail com sent : 02 june 2020 10 : 39 to : test pension scheme subject : fw : test pension scheme - abc xyz good afternoon please provide us with an update from : abc xyz sent : 15 may 2020 13 : 25 to : abc xyz testmail com subject : abc xyz loa please send the information by email or fax dear sir or madam please find attached a current letter of authority for the above client this is an initial request looking into a potential transfer once the above client confirms they wish to proceed we will confirm the receiving scheme uk transfer forms overseas transfer forms immediate retirement quote discharge forms including hmrc requirements forms for the transfer to take place scheme and plan type test pension equalisation date nra pre and post test pension equalisation date date of joining and leaving the pension scheme normal retirement date age members contributions to the scheme confirmation of any avc s or money purchase benefits held within the scheme are there any pension sharing earmarking orders if yes does the tv reflect this current fund value - including all fund details full cetv - if the cetv has been reduced please confirm by what amount value of pension at date of leaving value of pension at statement date deferred pension at date of leaving per annum figure showing : o pre 88 gmp o post 88 gmp o pre 97 gmp o post 97 gmp o excess over and above gmp should any gmp revalue at different rates please provide the relevant split pension increases in deferment gmp and excess if this is by price inflation please specify if this is cpi or rpi pension increases in retirement gmp and excess - if this is by price inflation please specify if this is cpi or rpi is there a spouses pension details in both deferment and retirement - also confirm if spouse s pension is calculated before or after any commutation is there a children s pension details in both deferment and retirement guarantee period on death of the member lump sum payable in death full income without taking pcls earnings on leaving pcls at nra commutation factor for ages 55 - 70 early retirement factors and how they are applied - are these applied to pension at retirement or nra late retirement factors and how they are applied - are these applied to pension at retirement or nra scheme funding status date latest scheme funding statement leaflet booklet is the plan paid up longevity adjustment factor and how this is applied if applicable scheme booklet do you permit partial transfers and if so on what terms have you yet equalised gmp payments in line with the may 1990 ruling by the european court of justice are there any gars if so what are the annuity rate has there previously been a transfer in or not if yes then the amount of gmp transferred in revaluation rate for gmp transferred in does it hold all the same death benefits as the rest of the pension the member s final pensionable earnings figure in order to determine the spouse s pension payable on death in deferment; rate of interest applied to the refund of contributions on death in deferment all the above details are required in order to provide the client with full fca regulated advice please ensure all these details are confirmed with the initial response please ensure all these details are confirmed with the initial response abc xyz pension administrator tel : + 91 012345678 fax : + 91 012345678 email : abc xyz testmail com</t>
-  </si>
-  <si>
-    <t>funeral receipt for abc xyz to whom it may concern please find attached the funeral receipt of my father mr abc xyz ref : tst12345678 regards mr abc xyz son sent from my galaxy</t>
-  </si>
-  <si>
-    <t>change of address - abcd nino - zz123123z dob - 01 01 1400 reference - tst12345678 new address : 10 test road test street aa12 123 tel : + 91 012345678 email : abc xyz testmail com could you please update the administration and payroll records with mr abcd new address abcd is the former chairman of xx and former chairman of def ltd kind regards test pension fund</t>
-  </si>
-  <si>
-    <t xml:space="preserve">re : test retirement and death benefits plan - def section been over a month are you going to send me the information i requested on 12 oct 2020 at 11 : 36 test pensions pensions com wrote : dear mr abc test retirement and death benefits plan - def section thank you for your email regarding the test retirement and death benefits plan i can confirm that i have logged your request to our administration team to update your address a written response will be issued to your home address within 10 - 15 working days once your address details are updated we will proceed with your pension query if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 08 october 2020 13 : 53 to : test pensions pensions com subject : re : test retirement and death benefits plan - def section it s 1400 since i left the scheme not sure which address to give you on 8 oct 2020 at 07 : 13 test pensions pensions com&lt;mailto : test pensions pensions com wrote : dear abc test retirement and death benefits plan - def section thank you for your email regarding the test retirement and death benefits plan to enable us to answer your enquiry please could you provide your previous address for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions - - - - - original message - - - - - from : abc xyz testmail com sent : 06 october 2020 09 : 23 to : test pensions pensions com subject : test pension dear sir madam i m trying to track down a test pension from when i worked at def formerly xyz hope you can help me it ran from 1400 to 1400 my name is abc dob ni number if you find any details can you let me know the value and options for taking it at 55 thank you mr </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pre - identified user support request reply email address : abc xyz testmail com forename : abc surname : xyz ni number : zz123123z dob : 01 jan 1400 home postcode : aa12 123 employer : test pensions subject : change to contributions content : hello i was wondering how i go about making a change to my plan for example upping my monthly contribution or changing to a plan that allows for a lump sum etc can i do this with you or do i need to go through my own payroll kind regards abc xyz</t>
-  </si>
-  <si>
-    <t>re : estate of - test pension ref : tst12345678 tees : 00123456789000 dear test pensions thank you for your email however i am confused test s letter of 28th september has been received and my letter sent by email on 5th october acknowledged this my letter of 5th october 2020 also provided the bank account details for mr lmno spouse of the deceased as requested in the letter from test please confirm that the funeral benefit is now being processed and will be sent to mr lmno shortly please also let me have details of your complaints procedure as this is now completely unacceptable i look forward to hearing from you yours sincerely test ifa from : test pensions pensions com sent : 08 october 2020 07 : 10 to : test ifa fincorp com subject : estate of - test pension ref : tst12345678 tees : 00123456789000 dear test ifa test pension fund thank you for your email regarding the test pension fund i have checked our records and can confirm that the correspondence was issued to you on 28 september 2020 however i have attached correspondence for your reference if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com&lt;mailto : test pensions pensions com yours sincerely test pensions from : test ifa fincorp com sent : 05 october 2020 22 : 23 to : test pensions pensions com subject : estate of - test pension ref : tst12345678 tees : 00123456789000 importance : high dear sirs please find attached our letter to you of today s date we look forward to receiving confirmation of the payment to mr lmno shortly yours faithfully test ifa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pre - identified user support request - abc reply email address : abc xyz testmail com forename : abc surname : xyz ni number : zz123123z dob : 01 jan 1400 home postcode : aa12 123 employer : test pension scheme subject : request for personal statement content : i am considering drawing on my deferred abc test pension from 25th june 2021 in order for me to come to a final decision could you please forward the necessary documentation to help me start the process member reference tst12345678 as shown in test account many thanks </t>
-  </si>
-  <si>
-    <t>re : pension transfer out good afternoon abc xyz 10 test road test street aa12 123 dob 01 01 1400 zz123123z tst12345678 i am planning to transfer my pension out of the scheme i have been informed that i need to inform you how do i do this abc from : abc xyz testmail com&lt;mailto : abc xyz testmail com sent : 12 november 2020 14 : 05 to : test pensions pensions com subject : pension good afternoon i am planning to transfer my pension out of the scheme i have been informed that i need to inform you how do i do this abc</t>
-  </si>
-  <si>
-    <t>pension number 123456 hi could you please let me have a cetv quotation and also a statement of my deferred benefits both from the pension plan and for my avc also could you please post me the necessary forms required should i decide to request a cetv transfer to my test pension regards mr abc xyz 10 test road test street aa12 123 pension no : 123456 nino : zz123123z d o b : 01 01 1400</t>
-  </si>
-  <si>
-    <t>abc xyz hello dob : 01 01 1400 ni : zz123123z you should already have a true potential loa we are reviewing a case for the above named client and would appreciate if you could answer a few points please provide a funding status of the plan this must show a fixed percentage at a fixed date if db benefits are transferred out do avc s also need to be transferred out please confirm the 5pc benefits are treated the same as excess how do the following revalue in deferment is it by rpi or cpi any max 5 2 5 post 09 post 12 how do the following increase in payment is it by rpi or cpi any max 5 2 5 post 09 post 12 what is the spouses pension upon death in deferment for the following 50 post 09 post 12 what is the spouses pension upon death in retirement for the following 50 post 09 post 12 is the pension guaranteed in payment is it for 5 years in the event of early retirement does the pension revalue to nrd or actual retirement date kind regards test ifa t : 012345678 e : test ifa fincorp com</t>
-  </si>
-  <si>
-    <t>fw : dsg retirement and employee scheme ref jlt00000000 my dob is 10 01 1800 - - - - - forwarded message - - - - - from : andaman nicobar to : test pensions pensions com cc : sent : mon 9 nov 2020 at 8 : 53 subject : test pensions scheme ref jlt00000000 hi i was inquiring as to the progress with my request for early retirement on 1 10 2020 my details are as follows test pensions scheme ref jlt00000000 andaman nicobar aa000000a the coaching homie coooaa phone 07000000000 kind regards andaman nicobar</t>
-  </si>
-  <si>
-    <t>re : wxyz pension scheme hello scheme number : tst12345678 abc 10 test road test street aa12 123 dob : 01 01 1400 ni : zz123123z thanks for passing on my query to the administration to team i wanted to share some pieces of correspendence i have previosuly received in relation to the def lump sum i have attached some letters i have received including the last letter dated 24 april 2020 in this letter it mentions about the def lump sum saying that i can take the money prior to the transfer to lmn are you able to give me an update on this process please i have always been made aware that i am eligible for this lump sum but have never been given the opportuntiy to opt in to it which was stated in a previous letter kind regards abc from : test pensions pensions com sent : 26 october 2020 13 : 40 to : abc xyz testmail com subject : wxyz pension scheme dear abc wxyz pension scheme thank you for your email regarding the wxyz pension scheme i can confirm that i have forwarded your query to the administration team; once a response has been received we will be in touch accordingly should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 22 october 2020 19 : 24 to : test pensions pensions com subject : re : wxyz pension scheme good afternoon thanks for your email after months and months of correspondence from the wxyz pension scheme i was lead to believe that due to the winding up of this scheme if the value of my pension was under 18 000 - which it is then i could take the sum as cash i do have most of the letters so would it be easier to call someone and discuss regards abc from : test pensions pensions com sent : 22 october 2020 14 : 41 to : abc xyz testmail com subject : wxyz pension scheme dear abc wxyz pension scheme thank you for your email regarding the wxyz pension scheme i can confirm that i have logged your request to our administration team to update your address a written response will be issued to your home address within 10 - 15 working days also i can confirm from the scheme rules that earliest we can issue retirement projection is from the age of 55 however i have logged a request for update of benefits instead once your address details are updated we will proceed with your pension query should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 20 october 2020 14 : 12 to : test pensions pensions com subject : re : wxyz pension scheme good morning my current full address is other info is name : dob : ni number : other addresses are kind regards abc from : test pensions pensions com sent : 16 october 2020 12 : 33 to : abc xyz testmail com subject : wxyz pension scheme dear test pensions wxyz pension scheme thank you for your email regarding the wxyz pension scheme to enable us to answer your enquiry please could you provide previosu your full address for data verification purposes should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 14 october 2020 21 : 36 to : test pensions pensions com subject : pension update good afternoon are you able to give me an update please on the situation with my pension and when you think there will be a resolution i am looking to take the amount i have as a cash lump sum kind regards abc</t>
-  </si>
-  <si>
-    <t>your reference : tst12345678 our reference : zz123123z good morning we have received your letter of 18 september 2020 regarding the passing of mr lmno we have searched our records and cannot find a policy for mr lmno on the money purchase department we are unable to forward your letter to the correct department as we are unsure of the department please could you confirm who your usual contact is for the test retirement death benefits plan xxxx section if we do not hear from you within the next 20 days we will close the request kind regards test fund</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> warning : message encrypted retirement options form - test pension scheme - tst12345678 message encrypted importance : high good evening please find attached a completed retirement options form for our mutual client to start his pension payments plus lump sum the password is his abc123 which i m hoping you can find out from the reference number quoted please let me know that you can access this form and whether you can accept it in the format or whether you need the original form posted to you many thanks kind regards abc xyz</t>
-  </si>
-  <si>
-    <t>re : test pension scheme dear abc xyz please see my data below : 10 test road test street aa12 123 dob : 1st january 1400 nin : zz123123z best wishes abc xyz on wed 2 dec 2020 at 11 : 42 &lt; test pensions pensions com wrote : dear abc xyz test pension scheme thank you for your email regarding the test pension scheme to enable us to answer your enquiry please could you provide your full address date of birth and national insurance number for data verification purposes should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely abc xyz administrator customer support centre test pensions 10 test road test street aa12 123 direct dial : + 91 012345678 from : abc xyz&lt;abc xyz testmail com sent : 30 november 2020 18 : 19 to : test pensions subject : short service refund lump sum - tst12345678 good afternoon two months ago i received a letter dated 15 september 2020 confirming that my request to receive short service refund lump sum has been accepted and that the payment will be made into my account in the next payroll run of my former employer it been 2 5 months since the letter was sent to me and i have not received the payment yet and was not contacted in order to inform me about any delay could you please update me on the status of my refund my nin is zz123132z best wishes abc xyz</t>
-  </si>
-  <si>
-    <t>test pensions scheme hi team please see below query and reply accordingly many thanks abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 from : abc xyz&lt;abc xyz testmail com sent : 09 november 2020 10 : 23 to : test pensions subject : re : test pension scheme hi i have still not received an answer to my query now dating back several months despite your promise to review it and deal with it promptly it is just a small query but i need it answered so i know what my tax position is in regard to the arrears payment please can i ask you to just answer this i have tried ringing the no you gave me but i am unable to speak to anyone and it is becoming so frustrating thank you abc xyz tha on wed oct 7 2020 at 1 : 48 pm &lt; cmpayyor mercer com wrote : dear larry harry parry cmg payyor uk pension scheme thank you for your email regarding the cmg uk pension scheme please accept our sincerest apologies for the delay we will review the current position of your case and ensure that it is dealt with promptly if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : 0000 000 1111 from : abc xyz&lt;abc xyz testmail com sent : 05 october 2020 16 : 00 to : test pensions pensions com subject : re : your letter dated 26 june 2020 hi this is in relation to a query i first made by email on 24 june last correspondence from you was a letter dated 7 september saying you were asking cgi for a response and would get back to me your letters always state that i can contact you by phone but this is not the case as the options i am given by the automated service blocks me from getting through i appreciate that the current circumstances have had an effect and also know that my question is a minor one but it is very frustrating that it is taking more than 3 months to get an answer from you kind regards on fri jul 3 2020 at 8 : 03 am julie parry &lt; larry harry larryharry786 gmail com wrote : re : cmg payyor uk pension scheme the scheme dear helpdesk your letter dated 26 june advised that a gross payment of pension arrears would be paid into my bank account on or around 3 july this amount being 11 176 62 today i received a payment of 7 243 42 so am wondering whether this is a net amount after tax has been taken out i am very happy to receive the arrears and thank you but would appreciate clarification on the amount thank you larry harry</t>
-  </si>
-  <si>
-    <t>test pensions member homie dear mr ip we write with regards to your telephone request relating to the above named post 97 non lpi element increases in payment at the higher of lpi maximum 5 and statutory increase and in deferment in line with statutory increases up to a maximum of 5 the estimated accrued pension at the 05 04 2016 amounted to 30 209 31 regards eletricity senior pensions administrator leatherhead office postal address : post handling centre u st tower 7 chennai road m00 0aa member line : + 44 0 1000 100000</t>
-  </si>
-  <si>
-    <t>compensation zz123123z dob 01 01 1400 attention abc xyz i refer to your emails dated 1st january 1400 and 1st january 1500 and abc xyz email dated 1st january 1400 all these emails advised me my compensation agreement for 500 pounds had been referred to administration to date i have have had no acknowledgement and no money from your company can you please explain why your company does nothing since august after it was agreed with your manager to compensate me 500 pounds i really do feel this is very bad abc xyz</t>
-  </si>
-  <si>
-    <t>lmno request for a guaranteed cetv pack to test pensions regarding your existing client lmno please find attached the new letter of request for a guaranteed cetv pack for lmno our letter of authority is already on your files and the client has now opted out of the pension scheme please send all the relevant information by post and send a copy by return email please contact me if you need any further information to be able to send the guaranteed cetv pack to us for lmno kind regards test ifa 10 test road test street aa12 123 + 91 012345678</t>
-  </si>
-  <si>
-    <t>re : test pension fund thanks for getting back to me my address is 10 test road test street aa12 123 date of birth is 1st january 1400 and national insurance number is zz123123z regards abc xyz on 21 nov 2020 03 : 29 test pensions pensions com &lt;mailto : test pensions pensions com wrote : dear abc xyz test pension fund thank you for your email regarding the test pension fund please accept our apologies for the delay in responding to you to enable us to answer your enquiry please could you provide your full address date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com &lt;mailto : test pensions pensions com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 from : abc xyz &lt;abc xyz testmail com sent : 14 november 2020 22 : 28 to : test pensions subject : logging in to manage my benefits my name is abc xyz based in test locatyion my fin is 123456 and am a driver specialist in fin corp ltd i would to be able to access and manage my pension benefits online i know i received a letter way back in 1400 to activate my account i cant remember if i did if i did i have completely forgotten my log in details please could you assist thank you regards abc xyz 12345678</t>
-  </si>
-  <si>
-    <t>fin corp error report error code : aa11 - aa11 - aa11 - aa11 hi i m trying to log in and have the above error code i need to activate my personal account i m in the test pensions plan and have received a letter this morning with log in details thanks abc xyz sent from my iphone</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> warning : message encrypted ref : tst12345678 message encrypted dear sirs ref; tst12345678 please find enclosed a letter of authority in relation to the above mentioned policy the attached document is password protected with the clients date of birth in the format dd mm yyyy including the the authority letter was previously submitted via your online submission portal but you have written to the client to confirm the letter was in an unreadable format if there are any issues with this letter please let me know asap please could you provide the full scheme information including the following : 1 policy start date 2 original investment amount 3 funds invested in and unit holding information number of units including sedol codes 4 list of funds available to the plan along with details of maximum invested 5 full contribution history 6 are there any ongoing contributions being made if so at what level 7 what is the selected retirement age s 8 projected illustration at selected retirement age and to age 65 if different 9 current fund and transfer values 10 is the policy written in trust if so please confirm the details 11 does the policy include any protected rights if so what is are the values 12 can you please confirm whether there is any enhanced protection advised for this plan 13 details of all nominated beneficiaries noted on the plan if not please provide us with an expression of wish form where possible please email any correspondence to test ifa fincorp com&lt;mailto : test ifa fincorp com i look forward to hearing from you and if you have any queries please let me know best regards test ifa</t>
-  </si>
-  <si>
-    <t>re : mr abcd - test pension scheme for senior staff - case ref : tst12345678 hi test pensions thank you for the below email we have been waiting for a long time and tend to have these issues with the ford scheme a lot when requesting information for different clients on top of having to sit on hold for over 30 minutes every time we call and keep getting told different things you mentioned below the cetv pack has been sent out via email earlier today can you please confirm as i have not received this on my email thanks abcd from : test pensions pensions com date : wednesday 18 november 2020 at 23 : 44 to : abc xyz testmail com subject : mr abcd - test pension scheme for senior staff - case ref : tst12345678 dear abcd further to your telephone call on 12 november 2020 and subsequent calls on 17 and 18 november 2020 please accept my sincere apologies for the delay in providing the revised transfer value for mr abcd we do pride ourselves on the quality of service that we deliver to our corporate clients trustees and most importantly individual members we receive relatively few complaints and do take any very seriously we are sorry about your dissatisfaction you have had to wait so long for the information you requested i can advise that an email has been issued earlier today providing the transfer information on behalf of myself and the team at test we would like to extend our apologies for any inconvenience caused and trust that you will be reassured that we do seek to minimise the number of occasions on which matters such as this arise should you have any further queries or cause for concern please do not hesitate to contact us on the number quoted below your sincerely test pensions</t>
-  </si>
-  <si>
-    <t>re : test pension scheme dear abc xyz thank you for your response my address is : 10 test road test street aa12 123 sincerely abc xyz on dec 2 2020 at 3 : 20 am &lt; test pensions pensions com &lt; test pensions pensions com wrote : dear mr abc xyz test pension scheme thank you for your email regarding test pension scheme to enable us to answer your enquiry please could you provide your full address for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 - - - - - original message - - - - - from : abc xyz&lt;abc xyz testmail com sent : 28 november 2020 06 : 39 to : test pensions subject : test pensions hello my pension payroll number is 123456 as a dual uk and usa citizen and resident of the usa i am required to report my pension income on my usa tax return i am contacting you to ask whether you will be able to supply a report of pension paid in the calendar year 2020 on an internal revenue service form 1099 - r if you are not able to supply this form i have to submit a substitute 1099 - r with self - reported income and an explanation of any attempts i have made to obtain a 1099 - r from the payer i did receive a p60 form from you for the uk financial year to 5 april 2020 however that form only reported the taxable periodic payments from when i started receiving the pension on 30 jan 2020 until my 3rd payment on 31 mar 2020 it did not include the non - taxable commencement lump sum that i received in january 2020 i am supposed to report that income on my us income tax return and then claim exemption from tax under the usa - uk tax treaty thank you in advance for your assistance with this matter regards abc xyz</t>
-  </si>
-  <si>
-    <t>tst12345678 dear sir madam i am the next of kin to xyz who died earlier this year we received communication from you regarding regarding my deceased father pension and we returned the required form with death certificate some weeks ago i have subsequently received correspondence from you saying you have not had a response from me i have tried to call with no success so would like to know how this can be resolved yours faithfully abc</t>
-  </si>
-  <si>
-    <t>re : test pension plan please find attached the screenshot regards abc xyz on fri nov 20 2020 at 11 : 06 pm &lt; test pensions pensions com &lt;mailto : test pensions pensions com wrote : dear abc xyz test pension fund thank you for your email regarding the test pension fund please accept our apologies for any inconvenience this has caused you could you please share the screenshot of an error you are getting on fin corp while entering your post code so that we can able to assist you properly if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com &lt;mailto : test pensions pensions com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 from : abc xyz &lt;abc xyz testmail com sent : 19 november 2020 00 : 31 to : test pensions pensions com subject : re : fin corp login further to your response please also see my additional info abc xyz dob 01 01 1400 payroll 123456 ni zz123123z address 10 test road test street aa12 123 i am trying to create a fin corp account but using the link you sent me it asks for a post code i put in my usa zip code which was not accepted please help thanks abc xyz on wed nov 18 2020 at 9 : 25 am abc xyz &lt; abc xyz testmail com &lt;mailto : abc xyz testmail com wrote : hi my name i abc xyz payroll number 13245678 i have tried to login to the fin corp website using the link you sent me but i do not have a uk post code as i live in the usa and it does not accept my us zip code 12345 please help me to create a fin corp account thanks abc xyz</t>
-  </si>
-  <si>
-    <t>test pension questions - resent abc xyz 10 test road test street aa12 123 date birth : 01 01 1400 jlr payroll number : 132456 naonal insurance number : zz 12 31 23 z policy reference number : 12345678 dear test pensions i am intending to retire from work this january 1400 on my 59 birthday and wish to take my test pension from the beginning of march 1400 i have some questions i would like to ask please how long does my pension last for what does my wife get if i die while taking my pension percentage and duration i presume i will pay tax on anything above my personal tax allowance will i pay national insurance on my pension will my pension go up per year or stay at the level i took it at how do i start the process of taking my pension how long do i need to arrange the start of my pension i would welcome the opportunity to discuss this further i am available any time during week commencing 01 01 1400 and look forward to receiving a phone call my mobile is + 91 012345678 or home + 91 012345678 best regards abc xyz</t>
-  </si>
-  <si>
-    <t>re : def retirement and employee scheme thank you for your reply if i could please have a uptodate benifit statment issued that would be great regards abc from : test pensions pensions com sent : 17 november 2020 12 : 21 to : abc xyz testmail com subject : def retirement and employee scheme dear abc def retirement and employee scheme thank you for your email regarding the def retirement and employee scheme your request for change of address has been logged and you will receive a written response from our administration department in due course please note that you can apply for early retirement from the scheme from the age of 55 and over however an update of benefit statement can be issued on request once your address is updated on our records we will be able to assist you with online access should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 13 november 2020 12 : 08 to : test pensions pensions com subject : re : def retirement and employee scheme sure my current address is please could you also let me know how i get full details of my pension and what the balance and projections are for retirement how can i access these details thank you abc friday 13 november 2020 09 : 37 + 0000 from test pensions pensions com : dear mr abc def retirement and employee scheme thank you for your email regarding the def retirement and employee scheme could you please provide the current address to update your record should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 11 november 2020 09 : 58 to : test pensions pensions com subject : re : def retirement and employee scheme hi one of the reasons i was making contact is because my address has changed i believe my registered address is - i have also attached a copy of my passport for further varification regards abc from : test pensions pensions com sent : 11 november 2020 03 : 06 to : abc xyz testmail com subject : def retirement and employee scheme dear member def retirement and employee scheme thank you for your email regarding the def retirement and employee scheme to enable us to answer your enquiry please could you provide your full address for data verification purposes should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 06 november 2020 18 : 33 to : test pensions pensions com subject : def pension hi i have a final salary pension with dress and i am trying to get details about where it is now and what cover and benifits it gives me my emploee number which i belived is used as the referance number is christopher pearce dop ni - please could you advise how i find out where i information is now held if you require any further information please call regards abc</t>
-  </si>
-  <si>
-    <t>test retirement and death benefits plan - test section good morning i have not yet received anything from you in respect of my request to start drawing my pension can you advise please regards abc on thu 15 oct 2020 15 : 40 &lt;test pensions pensions com wrote : dear abc test retirement and death benefits plan - test section thank you for your email regarding the test retirement and death benefits plan - test section your request has been logged and you will receive a written response from our administration department within 10 - 15 working days if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 13 october 2020 15 : 03 to : test pensions pensions com subject : fwd : test retirement and death benefits plan - test section further to the attached abc - - - - - - - - - - forwarded message - - - - - - - - - from : abc xyz testmail com date : tue 13 oct 2020 10 : 29 subject : test retirement and death benefits plan - test section to : test pensions pensions com following on from the recent information sent regarding pension options i have decided i would like to start receiving my test pension can you advise the process for this please and the information required regards abc</t>
-  </si>
-  <si>
-    <t>test application for ill health benefits - abc tst12345678 test pensions i agree with the recommendation in respect of mr abc from : test trustees pensions com sent : 03 november 2020 15 : 39 to : test pensions pensions com cc : testfund fincorp com subject : test application for ill health benefits - abc tst12345678 hi i agree with the recommendation to full commutation of pension to mr abc on the grounds of having less than 12 months to live regards dc from : test pensions pensions com sent : 03 november 2020 15 : 00 to : test trustees pensions com cc : testfund fincorp com subject : test application for ill health benefits - abc tst12345678 dear trustees we received approval to issue an ill health quote for the above member we have now received a letter from the member s gp that he has less than 12 month to live could i please have your approval to issue a full commutation of pension to mr abc i look forward to your urgent response kind regards test pensions from : test pensions pensions com sent : 18 september 2020 10 : 54 to : test trustees pensions com cc : testfund fincorp com subject : test application for ill health benefits - abc tst12345678 dear trustees the above member has a small preserved pension in the plan - 111 11 p a at his date of leaving of 22 03 1991 the current value of his deferred pension is 1 111 p a he is currently aged 52 and has been diagnosed with an aggressive brain tumour - please see attached could we please have your authorisation to issue mr horgan with an ill health quotation if you have any queries please let me know kind regards test pensions</t>
-  </si>
-  <si>
-    <t>abc - cetv request dear sirs re : test group pension plan member : abc ni number : zz123123z i refer to my request of 12 october 2020 for a new cetv in respect of the above member and your letter of 2 november confirming it was referred to the scheme actuary for review i should be grateful if you would provide me with an update on this and when i should expect receipt yours faithfully test fund</t>
-  </si>
-  <si>
-    <t>fw : xyz loa hi team please see below query and reply accordingly thank you def - agent - customer support centre 10 test road test street aa12 123 + 91 012345678 from : test ifa fincorp com sent : 09 november 2020 10 : 30 to : test pensions pensions com subject : xyz loa dear test pensions password to access the loa is : aaaaaaaa regards from : test ifa fincorp com sent : 09 november 2020 10 : 29 to : test pensions pensions com subject : xyz loa dear test pensions please find enclosed a letter of authority from the above client appointing creative benefits wealth management ltd to receive policy information the password will follow under separate cover please provide your standard transfer out pack including cash equivalent transfer value and full scheme information please ensure this includes all the information we will require to understand and project the member s benefits and advise the member on all the options available as a guide the information you provide should cover all the items identified as required by the pensions administration standards association in their agreed pasa templates below : scheme information template&lt;https : www pasa - uk com wp - content uploads 2019 10 scheme - template - final pdf member information template&lt;https : www pasa - uk com wp - content uploads 2019 10 transfer - template - member - info - final pdf where the member is eligible to take benefits please provide an immediate retirement quote very important information required : - please confirm the accrual tranches within the pension and their subsequent revaluation and escalation rates what are the clients options with respect to late retirement what are the commutation factors from normal retirement age onwards what are the late retirement factors from nra onwards does the client have any gmp in addition please provide me with the following information relating to policies at your earliest convenience : 1 policy type 2 commencement date 3 contribution history since inception 4 inclusion of waiver of premium 5 plan status 6 current value and breakdown of value between funds 7 current fund s choice please quote mex sedol isin number for each fund attaching to the plan 8 if the policy can offer adviser charging 9 if the policy can offer ufpls 10 if the policy can offer flexible access drawdown 11 pension input periods on the policy 12 if with profits funds please enclose full details including the current asset allocation of the fund and the last 5 years bonus declaration history 13 details of other funds available to invest in and relevant codes 14 transfer value please advise any transfer penalties applicable and reason for any penalty 15 any former protected rights funds 16 pension commencement lump sum amount 17 any guarantees associated to the plan eg guaranteed annuity rates bonus rates guaranteed fund at scheme retirement date srd etc 18 if with profits - please confirm if any with profits spot guarantees apply and when 19 scheme retirement date srd of the plan 20 illustration of projected value at srd age xx 21 a paid up illustration at srd age xx if regular premiums are still being paid please supply a quote to srd age xx assuming the premiums continue 22 the death benefits should the member die before srd and any nominated beneficiaries 23 charges allocation rates on the plan 24 any protected tax free cash at a day if yes please send paperwork to quantify this also please confirm fund value at a day and tax free cash at a day 25 premium and sum assured of any associated pension term assurance value as at a - day 26 is there a pension sharing order or attachment to the benefits if plan is a sipp with a capped drawdown arrangement : - 27 maximum income available 28 review date s 29 any remaining pcls entitlement 30 income currently being taken 31 fee schedule relating to sipp if member has taken benefits : - 32 please confirm the value of the crystallised and uncrystallised portions 33 please also confirm the percentage of the lifetime allowance that has been crystallised within this scheme please send any necessary transfer out paper work and id requirements to be completed i look forward to hearing from you however if you have any queries please let me know as soon as possible yours faithfully test ifa</t>
-  </si>
-  <si>
-    <t>test pensions jlt00000000 - 01 01 1800 xx1 1xx good morning with regards to the above member of the test pensions scheme and the information you kindly provided i would be grateful if you could please confirm that the normal retirement date is age 65 when the client originally joined the scheme believed the retirement age was 60 and therefore if it is now 65 i would be grateful if you could please confirm when it changed to age 65 and whether or not benefits can still be taken unreduced at age 60 i look forward to hearing from you however should you have any questions or queries in the meantime please do not hesitate to contact me kind regards abc xyz senior paraplanner chartered financial planner 10 test road test street aa12 123 tel : 0111 11 11 11 fax : 01111 11 11 11 web : www fincorp com email : fin corp testmail com</t>
-  </si>
-  <si>
-    <t>test transfer - abc hi test pensions thanks for this i have received this now we had already sent all the old signed documents in from the previous transfer value documents we had as the value expired just before transfer we had to request a new value can you please confirm what the client needs to sign now as we have already sent everything in before is it only the new signed cetv document that needs to be signed from the member please let me know thanks test ifa from : test pensions pensions com&lt;mailto : test pensions pensions com date : thursday 19 november 2020 at 00 : 18 to : test ifa fincorp com&lt;mailto : test ifa fincorp com subject : test transfer - abc dear test ifa please find below the original email with attachments apologies that you did not receive this initially it appears the email address was incomplete please do not hesitate to contact us should you have any queries kind regards test pensions from : test pensions pensions com sent : 18 november 2020 14 : 12 to : test ifa fincorp com subject : test transfer - abc good afternoon please find attached the transfer pack for mr abc the documents are password protected using the members national insurance number kind regards test pensions</t>
-  </si>
-  <si>
-    <t>change of address good evening is it possible to change my contact address via email kind regards abc</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pre - identified user support request reply email address : abc xyz testmail com forename : abc surname : xyz ni number : zz123123z dob : 01 jan 1400 home postcode : aa12 123 employer : test pensions subject : pension uptake at 60 content : hello i am planning to take my pension at 60 on my birth date could you please give me projected figures for 1 a full pension 2 a pension with the full tax free allowance thank you abc</t>
-  </si>
-  <si>
-    <t>tst12345678 hi team please see below query and reply accordingly many thanks test pensions - - - - - original message - - - - - from : abc xyz testmail com sent : 17 november 2020 14 : 36 to : test pensions pensions com subject : tst12345678 could you please update your records for recent change of address from 2 test road test street ee12 123 to 10 test road test street aa12 123 thank you abc</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> urgent re : defg - zz123123z - 01 01 1400 importance : high good morning i m concerned that i am yet to have a response to my below request please provide the answers to our queries urgently and by email if possible kind regards test ifa from : test ifa fincorp com sent : 06 october 2020 17 : 26 to : test pensions pensions com subject : urgent re : defg - zz123123z - 01 01 1400 importance : high good afternoon please find attached a letter of authority duly signed by our mutual client which should enable you to release information for this policy therefore please kindly provide me with the following information in writing; dates salary date of joining and leaving the scheme member s final pensionable salary has the gmp been equalised are partial transfers allowed i e can the gmp remain and post 97 rights be transferred funding statement if relevant is late retirement allowed if so to what age and late retirement factors please pension benefits at date of leaving scheme gmp benefits; showing any pre post 88 splits the rates of revaluation in deferment and escalation in payment excess benefits; showing any pre post 85 or 97 splits the rates of revaluation in deferment and escalation in payment list of any discretionary increases applied to pension either in deferment payment during last 5yrs breakdown of any transferred - in benefits; are the benefits treated the same as the main scheme benefits if not please highlight any differences is there a fixed pension at nra of service credit if no gmp contained does the member have any avcs if so how what is the current value do they have to be transferred with the main scheme benefits what funds are they invested in can the member switch into different funds early retirement is early retirement allowed if so from which age what actuarial reduction factors are currently applied to members pensions in the event of early retirement if a table of factors is not available please provide the percentage reduction applicable for each year early and whether this is compound or simple reduction would the member benefits be revalued to the date of actual or normal retirement upon early retirement if revalued to normal retirement at what assumed rate are benefits projected to normal retirement benefit payable now on a full pension basis and maximum pension commencement lump sum with reduced pension basis tax free cash member tfc at date of leaving would this amount revalue if so at what rate does the scheme pay hmrc post a - day maximum cash amount of pre a - day ir maximum cash at 5 4 2006 if protected what are the scheme current tfc commutation factors from nra to age 55 death benefits does the scheme pay a death before retirement lump sum if so what and how much what pension would the member spouse receive upon death before and after retirement what death after retirement guarantee does the scheme apply contracting out was the scheme contracted out pre post 06 04 1997 if yes for post 97 on what basis; reference scheme protected rights underpin mixed benefit transfer value total transfer value cetv ; showing any splits of gmp protected rights pre post 06 04 1997 calculation and guarantee dates also amount of member contributions included in the tv scheme information scheme s normal retirement age is the scheme open to all employees or are there restrictions if so what are they what is the scheme s current funding position would deferred members benefits be affected in any way if so how is the scheme a member of the transfer club will the scheme allow a partial transfer of benefits if yes please outline any restrictions that would be applied and or provide details of the basis on which a partial transfer would be allowed if no please confirm if there is more than one type section version of scheme membership which one applies to the member is the plan subject to an earmarking or attachment order what date was the scheme equalised and the earliest age benefits can be taken unreduced if the transfer were to proceed would the scheme be insistent that all forms must be returned within the guarantee period or could some discretion be used at that time please forward copies of any warranty discharge forms that would need to be completed if the client decided to transfer their benefits thank you for your assistance in this matter kind regards test ifa</t>
-  </si>
-  <si>
-    <t>fw : mr abc xyz - tst12345678 - test pension fund importance : high please see the client s full details below abc xyz dob : 01 01 1400 ni no : zz123123z kind regards abc xyz - - - - - - - - - - - - - - - - - - - - - - - - - - - - abc xyz covid - 19 please note we are unable to accept visitors at the office without prior appointment please do not attend our office if you have a persistent cough a high temperature or have lost your sense of taste or smell upon entering the office all visitors must sanitise at the unit provided and adhere to social distancing guidelines hoping you and your families stay safe and well from : abc xyz sent : 20 november 2020 14 : 55 to : test pensions pensions com subject : mr abc xyz - tst12345678 - test pension fund importance : high good afternoon with regard to the above client please can you advise whether the client has protected tax free cash within the plan kind regards abc xyz</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pre - identified user support request reply email address : abc xyz testmail com forename : abc surname : xyz ni number : zz123123z dob : 01 jan 1400 home postcode : aa12 123 employer : test pension fund subject : transfer value content : please can you quote me the transfer value of my pension</t>
-  </si>
-  <si>
-    <t>re : test pension scheme - zz123123z hi with regards to the above member payroll has only received the notification to set up the 4 weekly pension which has already been actioned by us we ve not received any request to set up lump sum record from admin could you please get in touch with the admin to check if any such request was sent to payroll thanks abc xyz from : test pensions sent : 26 november 2020 12 : 05 to : test pension payroll - gbr subject : fw : test pension scheme - zz123123z hi team please investigate why payment was not released for the member regards abc xyz from : test pensions sent : 24 november 2020 09 : 35 to : test pension fund cc : test ifa subject : re : test pension scheme - zz123123z hi nothing we can do for this member over the phone this will have to be investigated thanks abc xyz 10 test road test street aa12 123 direct dial : + 91 012345678 from : test pensions sent : 18 november 2020 10 : 30 to : test pension fund cc : test ifa subject : test pension scheme - zz123123z hi team please assist and call below member thanks abc xyz from : abc xyz&lt;abc xyz testmail com sent : 16 november 2020 19 : 06 to : test pensions subject : test pension scheme - zz123123z good afternoon test pensions i received a letter from you dated 9th november 2020 advising the trustees have approved my application my lump sum of 1000 will be paid into my account on or around 1st january my 4 weekly payments will commence as of 1st january 1400 as of this email i have received no payment i am growing concerned that the money as gone elsewhere my contact details are : name - abc xyz dob - 1st january 1400 ni number - zz123123z scheme name - dsg retirement employment security scheme i would appreciate a phone call explanation as to when i will receive my lump sum my mobile number is + 91 012345678 regards abc xyz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xyz tst12345678 good afternoon thank you for your letter dated 29th october 2020 please find attached a revised letter of authority and request for information for your attention i look forward to hearing from you in due course yours sincerely test ifa 10 test road test street aa12 123 tel : + 91 012345678 </t>
-  </si>
-  <si>
-    <t>re : abc xyz hello abc xyz we are sad to hear about abc xyz s passing for us to assist you further would you be able to confirm abc xyz s and your cgi staff number we don t seem to find your records in our system please be advised that we will progress by closing the case shall we not received a response from your end within 7 business working days thank you kind regards abc xyz fin corp united kingdom from : abc xyz sent : friday november 13 2020 3 : 10 pm to : test pensions pensions com subject : re : abc xyz hi i have not yet received the documents you require me to fill in to process my request however i have found in abc xyz legal papers the expression of wish form that was drafted in 2012 please let me know the documents you need me to provide best regards abc xyz le mar 10 nov 2020 09 : 18 abc xyz&lt;abc xyz testmail com a crit : hi i am writing to you today to inform you of abc xyz born 01 jan 1400 death on june 1 im manilla philippines i am his ex - wife sandrine bessiere - smith i worked for fin corp uk empl 1235 and fin corp sweden then fin corp 2 uk empl 123 from 1994 to 2001 michael was employed by fin corp in sweden and the uk as well prior to the cgi acquisition i recently received his personal papers and i have gone through his uk pension papers and while i know he did not request his pension paid when he left to the philippines since he was still working when he passed i wonder if there would be any money owed to his son next of kin i do not have the details of any policy with fin corp michael nin was zz123123z would you be able to help me with this i have a lot of documentation to provide such as death and medical certificate passport copy birth certificate proof of next of kin marriage and divorce certificate last known address etc many thanks abc xyz - - - - - - - - - - forwarded message - - - - - - - - - de : abc xyz&lt;abc xyz testmail com date : mar 10 nov 2020 08 : 47 subject : re : abc xyz to : abc xyz&lt;abc xyz testmail com dear abc we are sad to hear about abc s passing please feel free to directly get in touch with this company who handles pensions fin corp ltd 10 test road test street aa12 123 helpline : + 91 012345678 fin corp testmail com &lt;mailto : fin corp testmail com query team uk from : abc xyz&lt;abc xyz testmail com sent : monday november 9 2020 4 : 29 pm to : test pension fund &lt;testfund fincorp com subject : abc xyz hi i am writing to you today to inform you of abc xyz born 01 jan 1400 death on jan 1st i am his ex - wife abc xyz i worked for fin corp uk empl 12345 and fin corp sweden then fin corp uk empl 123 from 1994 to 2001 abc was employed in sweden and the uk as well prior to the fin corp acquisition he died in the philippines and i just received all his documents sent to me in france i have gone through his uk pension papers and while i know he did not request his pension paid when he left to the philippines i wonder if there would be any money owner to his son next of kin i do not have the details of any policy with fin corp would you be able to help me with this many thanks abc xyz</t>
-  </si>
-  <si>
-    <t>test pension fund abc d dear sirs i refer to your correspondence of 03 october 2020 your ref z zzzz01 0001 please note that the final implementation of the pension share and calculation will take into account the member s uurbs benefits please see attached information concerning uurbs and quotations for divorce purposes as the member is in receipt of his pension the total implementation fee is 2 025 00 plus vat split between the 2 x parties as per the pso i trust the above to be in order however if you have any queries concerning the above please contact us on 01000 100 100 or email us at test pensions pensions com kind regards sun light senior pensions administration leatherhead office postal address : post handling centre u st tower 7 chennai road london m00 0mm direct dial : + 44 0 0000 100100</t>
-  </si>
-  <si>
-    <t>re : change of address for abc xyz tst12345678 additional info required dob 01 january 1400 ni zz123123z from : abc xyz testmail com sent : 16 november 2020 15 : 59 to : test pensions pensions com subject : change of address for abc xyz tst12345678 please update you records asap to reflect my new email address abc xyz testmail com and a change of home address from 101 test road test street ea34 123 to below regards abc xyz 10 test road test street aa12 123</t>
-  </si>
-  <si>
-    <t>change of bank third request with additional information included dear sirs booker pension scheme reference 10000000 you are currently paying my pension into my account no 10000000 with nationalwide i intend to close this account so wish you to make future payments into my account with the holifax my account details with them are : name n addidas sort code 100000 account no 00000001 my address is 10 nashley lawn grandure avenue homee b00 0bb national insurance no zz000000a date of birth 30 10 1800 please confirm you are actioning this request thank you nike addidas</t>
-  </si>
-  <si>
-    <t>test pensions plan reference number : tst12345678 test pensions can i have an update on my enquiry please i last emailed you on 4 11 20 i have confirmed that test payroll have forwarded my opt out confirmation again 4 11 20 by email i keep getting the standard reply that my enquiry has been forwarded to customer services and then i don t hear anything this has been an ongoing request that seems to be taking a great deal of time even with the effects of covid test payroll sent my pension opt out confirmation to test test pensions on november 4th 2020 test have completed and submitted all the required forms as required by the test approved and signed by myself i am waiting for test to forward my guaranteed cetv to test can i ask that my request to release the guaranteed cetv is reviewed and expedite the release with some urgency can you give me a notion of the time frame that is required to get the cetv released to test as i have requested regards abc from : test pensions pensions com sent : 06 november 2020 11 : 33 to : abc xyz testmail com subject : test pensions plan dear abc test pension plan thank you for your email regarding the test pension plan i can confirm i have forwarded your email to our administration department and they will be in contact shortly if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 04 november 2020 10 : 59 to : test pensions pensions com subject : test pensions plan test pensions thanks for your help previously relating to my pension choices i am hoping you may be able to help me with a query which is proving frustrating : i elected to opt out of the test defined benefit pension scheme which was actioned in september payroll email chain below i am currently trying to transfer my pension pot test defined benefit pension scheme and as part of this thee company i have chosen to move the pot need the guaranteed cetv i have been irregular contact emails with test test pension company to issue the cetv so i can move my pension pot i m being informed that test are still waiting for my opt out details before they will make me a deferred member do you know who is responsible for sending my opt out details to test and the pension trustees and what i need to do to get the opt out details issued if you could point me in the right direction if this isn t anything you deal with i will be very grateful regards abc from : test pensions pensions com sent : 27 august 2020 10 : 52 to : abc xyz testmail com subject : re : test pensions plan morning your forms and request will be processed for september payroll kind regards test pensions from : abc xyz testmail com sent : 27 august 2020 10 : 49 to : test pensions pensions com subject : test pensions plan please find attached : 1 completed test defined benefit pension scheme request 2 completed test defined contribution pension def enrolment form could you expedite the requests as per the forms attached regards abc</t>
-  </si>
-  <si>
-    <t>change of address and bank details as per my telecom with efg today i am forwarding my original email which i sent to the wrong address efg has very kindly updated the system with our new address below but was unable to update our bank details kindly update our bank account details as per below thanking you abc and xyz begin forwarded message : from : abc xyz testmail com date : 11 november 2020 at 15 : 02 : 16 to : test pensions pensions com subject : change of address and bank details re : abc pension ref tst12345678 - ni no zz123123z and xyz pension refs tst12312678 - ni no zz120023z please be advised that we have relocated permanently from xx to the xx recently we would like to inform you to change our address and bank account details as follows : old address : 10 test road test street aa12 123 to new address wef 30 10 2020 : 02 test road test street ee12 123 from old bank account details : xx account hijk joint account 11223344556 tuvw - 0000 0000 0000 0000 0000 0000 000 fgh stuvwx0bank to new bank account details : xx account pqrs joint account in the name of mrs abc mr xyz sort code 00 - 00 - 00 account no 12345678 tuvw - 0000 0000 0000 0000 0000 0000 000 fgh stuvwx0bank there are 3 separate pensions in total - 2 in the name of xyz and 1 in the name of mrs abc thank you sincerely abc and xyz tel : + 91 012345678</t>
-  </si>
-  <si>
-    <t>change of address good evening is it possible to change my contact address via email kind regards chacha salsa sent from my iphone</t>
-  </si>
-  <si>
-    <t>re : def retirement and employee scheme - abc good morning further to your email please see the following : 10 test road test street aa12 123 1st january 1400 zz123123z regards test ifa from : test pensions pensions com sent : 01 december 2020 08 : 04 to : test ifa fincorp com subject : def retirement and employee scheme abc dear test ifa def retirement and employee scheme thank you for your email regarding the def retirement and employee scheme to enable us to answer your enquiry please could you provide the member full address date of birth and national insurance number for data verification purposes for added security please also confirm your full company name and the address stated on the provided letter of authority should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely test pensions from : test ifa fincorp com sent : 27 november 2020 14 : 55 to : test pensions pensions com subject : - tst12345678 good morning i uploaded an loa and information request form to your website on 29 10 20 please could you provide me with an update kind regards test ifa</t>
-  </si>
-  <si>
-    <t>change of address - completed form please find attached a completed change of address form abc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">re : test pensions fund - abc xyz - zz123123z your ref : tst12345678 importance : high dear sir madam could you please provide an update as to when we might receive the information below please; our client is chasing us on a regular basis we were advised that we would receive the information by the beginning of last week but have yet to receive this when my colleague called on 18th november we were advised that there was no outstanding jobs on your system for this client and therefore i would be grateful if this matter could be dealt with as a matter of extreme urgency i look forward to hearing from you as soon as possible yours faithfully abc xyz from : abc xyz sent : 03 november 2020 10 : 53 to : test pensions pensions com cc : test ifa subject : test pensions fund - abc xyz - zz123123z your ref : tst12345678 importance : high dear sir madam many thanks for your letter of 01 january 1400 providing a cash equivalent transfer value for our above named client however some of the information we requested from you has not been supplied and i would be grateful if you could please provide the following missing information as soon as possible : please confirm our client s final pensionable earnings you have supplied the cetv for our client and also confirmed the post 97 section 9 2b rights within this value could you please also confirm the post 88 gmp amount as well as the pre 97 excess benefits amount too could you please advise if the cetv has been reduced increased due to the funding status of the scheme could you please advise if there is a pension sharing or earmarking order against our client s benefits could you please advise if our client has a protected tax free cash benefits within the scheme or will tax free cash be restricted to 25 could you please advise if our client holds an avc benefits within the scheme and if so could you please supply full details to include fund values charges funds invested in etc could you please advise if there is any money purchase underpin applicable and if so could you please supply full details could you please advise when we might receive the retirement quote requested i look forward to receiving this information from you as soon as possible in the meantime if you require clarification on any of the above points please do not hesitate to contact me on + 91 012345678 yours faithfully abc xyz fin corp ltd </t>
-  </si>
-  <si>
-    <t>telephone conversation hi as per telephone conversation on the 20 nov 2020 i attach my passport driving license and letter from solicitor ref to i need my name on all correspondence to be changed to abc xyz and not def on there as all my id and bank accounts are in abc my national insurance number is zz123123z please can you confirm this is done thanks abc xyz + 91 012345678 sent from my galaxy</t>
-  </si>
-  <si>
-    <t>fin corp registration dear sir madam i am a previous employee of fin corp and have made payments into test pension scheme i have lost track of the details for that scheme and would again like to log in to the portal during 2019 i was contacted by the tracing group in relation to the test pension scheme and completed their on - line form i am contacting you today to understand the process i need to follow to register for online access to the portal that manages the test pension scheme i believe it is the fin corp portal any guidance would be appreciated thanks abc xyz</t>
+    <t>test group pension scheme address : - 10 test road test street aa12 123 dob 01 01 1400 national insurance no zz123123z regards abc from : test pensions pensions com sent : 09 november 2020 11 : 29 to : abc xyz testmail com subject : test group pension scheme dear abc test group pension scheme thank you for your email regarding the test group pension scheme to enable us to answer your enquiry please could you provide your full address date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 05 november 2020 19 : 27 to : test pensions pensions com subject : test group pension scheme reference tst12345678 i am mailing you regarding my test group defined contribution plan reference tst12345678 i have now received two letters from you regarding a number of phone calls i have made and to be honest neither is of any use to me i have spoken to def on 26th october and xyz on 27th october 2020 both conversations after your latest letter dated 23rd october 2020 in a nutshell i want my investment of 111 paying to me in full under the small pots rule i can t understand why someone who can agree this cannot speak to me on the phone and i have also stated i would like to know what is happening by email rather than the ludicrous situation i have had so far where i ring your number holding on for 45 minutes on the last occasion for someone to answer where i tell them what i want and they pass it on to someone else and i receive a letter several days later with both letters being of no use whatsoever abc my contact number is + 91 012345678</t>
+  </si>
+  <si>
+    <t>re : test pension fund - our ref : tst12345678 good morning thank you for your email please find attached the client s letter of authority with the requested information the document is password protected password to follow in separate email if you have any queries please don t hesitate to contact us many thanks test ifa from : test pensions pensions com sent : 02 november 2020 10 : 03 to : test ifa fincorp com subject : ford pension fund dear test ifa test pension fund thank you for your email regarding the test pension fund to enable us to answer your enquiry please could you provide the member full address date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely tets pensions from : test ifa fincorp com sent : 23 october 2020 16 : 11 to : test pensions pensions com subject : tst12345678 0123456789 good afternoon please can you provide an update on our mutual clients pension transfer many thanks test ifa</t>
+  </si>
+  <si>
+    <t>re : test pension scheme hi team with reference to below email member has given her new address and son s address as well and also we are unable to accept change of address request from son s email id could you please write back to member to confirm correspondent address and due to data protection purpose we are not able to accept the below request through email please provide us with the letter of authority which must be signed and dated by you within the last 12 months via post and also it should include your full name date of birth national insurance number and full address regards test pensions from : test pensions pensions com sent : 02 november 2020 21 : 08 to : abc xyz testmail com subject : test pension scheme dear abc test pension scheme thank you for your email regarding the test pension scheme your request for change of address has been logged and you will receive a written response from our administration department within 10 - 15 working days due to data protection purpose we are not able to accept the below request through email please provide us with the letter of authority which must be signed by you within the last 12 months and also it should include your full name date of birth national insurance number and full address if you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely test pensions - - - - - original message - - - - - from : abc xyz testmail com sent : 29 october 2020 17 : 40 to : test pensions pensions com subject : change of address and appointee abc national insurance number : date of birth address : i have two requests 1 i would like my son to be given full authority appointee to deal with all corespondent on my behalf from now on his details are as follows : name : date of birth : address : telephone : + 91 012345678 2 i have moved address on 23rd october 2020 my new address to send correspondence to is as follows : please can you update your records regards abc</t>
+  </si>
+  <si>
+    <t>request for information - abc xyz dear sir madam we are acting on behalf of the above client who is considering transferring their benefits from the test pension fund please find attached a letter of authority to allow you to release information to us on the benefits that our client holds in the scheme please can you provide the following information at your earliest convenience : basic details date of joining scheme date of leaving scheme please provide a copy of the cash equivalent transfer value cetv issued on 01 jan 1400 cetv expiry date has the cetv been reduced or enhanced normal retirement date nrd of the scheme does the scheme permit partial transfers please provide a copy of the latest scheme booklet breakdown of benefits benefits at date of leaving including a breakdown between pre - 88 gmp post - 88 gmp pre - 97 excess post - 97 excess post - 05 excess and post - 09 excess does gmp franking apply if so on what basis revaluation rate of each of the above tranches in deferment escalation rate of each of the above tranches in payment is a lump sum payable in addition to the scheme pension does the scheme provide a bridging pension or state pension deduction if so provide details death benefits lump sum death benefits in deferment lump sum death benefits in payment guarantee period spouse s pension death in deferment spouse s pension death in retirement is the spouse s pension reduced where there is an age difference if so provide details if there is no legal spouse will the scheme pay the spouse s pension to a partner or dependent is there a children s pension if so provide details pension commencement lump sum does the scheme provide a pension commencement lump sum pcls if pcls is an option what are the commutation factors between age 55 and age 75 scheme funding what is the most recent scheme funding level please provide the latest scheme funding summary early and late retirement what is the earliest age the member can retire what is the earliest age the member can retire with unreduced benefits what are the early retirement factors between age 55 and nrd can the member take late retirement what are the late retirement factors between nrd and 75 where early or late retirement is taken are the benefits revalued to the normal retirement date or the early late retirement date before the factor is applied if the client is over the age of 55 please also provide the following : immediate retirement quote given the time sensitive nature of the request we would greatly appreciate all requested information be sent via email to abc xyz testmail com &lt;mailto : abc xyz testmail com we thank you for your assistance with this matter kind regards abc xyz administration office address 10 test road test street aa12 123 tel + 91 012345678</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> warning : message encrypted our reference 12346 message encrypted good afternoon i am writing today with regard to the transfer of the above policy to the test sipp i would be grateful if you could provide us with an update on this transfer; for your convenience i attach a copy of the letter of authority the password will follow separately kind regards abc</t>
   </si>
   <si>
     <t>test pension plan - abc importance : high hi please see attached a revised letter of authority confirming the scheme name the password is the members date of birth in the format ddmmyyyy i would be grateful if you could now expedite our request below kind regards test ifa from : test pensions pensions com sent : 12 november 2020 13 : 30 to : test ifa fincorp com subject : test pension plan - abc dear mr test ifa test pension plan thank you for your email regarding the test pension plan unfortunately we are unable to accept the letter of authority provided by you as it does not include scheme name could you please provide us with revised letter of authority if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com&lt;mailto : test pensions pensions com yours sincerely test pensions from : test ifa fincorp com sent : 10 november 2020 15 : 15 to : test pensions subject : warning : message encrypted urgent action required - - letter of authority - information only message encrypted importance : high to whom it may concern please see attached the signed letter of authority for mr abc s scheme ref : tst12345678 the document has been password protected with mr abc s date of birth in the format ddmmyyyy we should be grateful if you could provide the following information : date joined service normal retirement age benefits accrued to date where applicable please provide the breakdown between all relevant tranches i e pre and post 88 gmp and pre and post 97 excess confirmation of the escalation basis of the pension in payment scheme late retirement factors from nra to age 75 is there an automatic tax - free lump sum payable on vesting ill health early retirement benefit options available to mr tooray under the grounds of serious ill health death benefits provided by the scheme please confirm the types of dependent s benefits offered by the scheme and the qualifying criteria details of any avc benefits linked to this pension spouse s pension details including : if death occurs before retirement is the spouse s pension based upon the full pension to nrd or revalued pension to date of death if death occurs after retirement is the spouse s pension calculated on the full pension before commutation lump sum death benefits pre and post retirement please provide a copy of the scheme booklet please note this is not a request for a cash equivalent transfer value should you require any further information to process this request please do let me know kind regards test ifa</t>
   </si>
   <si>
-    <t xml:space="preserve">urgent information request our id : 123456 good morning client name abc xyz client national insurance number zz123123z we recently requested a cetv pack for the above client please can you confirm receipt of our request and confirm when the cetv pack will be issued if it has already been issued please can you provide a copy by email to test pensions pensions com &lt;mailto : test pensions pensions com thank you abc xyz </t>
-  </si>
-  <si>
-    <t>abc xyz hello dob : 01 01 1400 ni : zz123123z please find attached an loa for your records we are reviewing a case for the above named client and would appreciate if you could answer a few points please confirm the transfer value of 192 265 50 takes into account the members pension sharing order please provide the last 5 years of discretionary increases in payment please confirm if the fixed addition tranche revalues in deferment or increases in payment if so is this by rpi or cpi any max 5 or 2 5 please provide a full table of commutation factors specifically for age 65 and 60 please provide an early retirement factor for age 60 please confirm in the event of early retirement if the pension revalues to nrd or actual retirement date please provide the value of the members contributions at date of leaving kind regards test ifa t : + 91 012345678 e : test ifa fincorp com</t>
-  </si>
-  <si>
-    <t>re : test pension plan - abcd : tst12345678 hi request you to please confirm when the amount was expected to receive and in which bank account number transfer has been made regards test fund from : test pensions pensions com sent : monday november 9 2020 3 : 35 pm to : testfund fincorp com subject : test pension plan - abcd : tst12345678 importance : high hi can you please check and advise if a payment of 915 00 has been received from the above member kind regards test pensions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">addtional information i just send an email however it appears you need additional information my date of birth is 1st jan 1400 and my ni is zz123123z full name is abc xyz your ref tst12345678 xyz s dear sir madam i received a letter from your good selves stating that if i need another transfer value then i would need to pay an additional 250 pounds + vat the first transfer request was to a company based in dubai who are shady i done my due diligence and checked them out after the transfer request was made i realize you are a business and need to make money however would you consider reducing the fee amount for an additional transfer request i have found a legitimate uk based company who can deal with me could you help me out by reducing the fee to around 200 i am not a wealthy man and i have been affected financially by the pandemic any help would be appreciated regards abc xyz - - </t>
-  </si>
-  <si>
-    <t>surname error member ref dep seq no surname inits nino s000000 0 o apos; yeda aaa aa000000a i think the surname on the above name has been accidentally changed to something incorrect surname on valuation data ran in april is yeda and this matches sharepoint please can someone look into and correct thanks rgb</t>
-  </si>
-  <si>
-    <t>efg uvw - zz123123z hello please find attached a duly completed transfer discharge form and a letter confirming that the above member has received financial advice in relation to transferring his benefits away from the test pension scheme the receiving scheme warranty form and any other required documents will follow shortly i trust this is satisfactory and look forward to receiving confirmation that the guaranteed cetv which expires on 01 01 1400 is now secured kind regards abc xyz test admin 10 test road test street aa12 123</t>
-  </si>
-  <si>
-    <t>re : test pension plan - abc hi - we have the attached info - this is the last statement he has received - he has moved house a few times ! hope this helps ! abc from : test pensions pensions com sent : 09 november 2020 14 : 01 to : abc xyz testmail com subject : test pension plan - abc dear abc test pension plan thank you for your email regarding the test pension plan unfortunately i can confirm we are unable to locate a record of benefits using the details you have provided could you please confirm the name of the scheme the member is part of in addition could you please supply any additional reference numbers or the name of anyone you have received correspondence from within test in the past if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test from : test ifa fincorp com&lt;mailto : test ifa fincorp com sent : 05 november 2020 19 : 28 to : test pensions pensions com subject : test pension plan - abc hi - please find attached a signed letter of authority from our mutual client we would appreciate it if you could please provide us with the following information please let us know of you need the original authority sent in the post : his previous address was when providing the cash equivalent transfer value and details of the deferred pension entitlement in respect of the scheme we would be grateful if you could ensure that the following information in respect of the entitlement is included in your response : general 1 a copy of the scheme booklet in relation to their membership of the scheme 2 a copy of the latest summary funding statement in respect of the scheme 3 confirmation as to whether the cetv provided reflects any underfunded position that the scheme has at present 4 confirmation as to whether a partial transfer option is available to the member and if so details of how that option can be applied specific 1 the scheme normal retirement age 2 the earliest age at which the member can become entitled to unreduced benefits 3 the earliest age at which benefits can be taken and any accrual reduction to the benefits that will be applied in such circumstances 4 the breakdown of the deferred pension entitlement at the date of leaving service between any gmp entitlement pre - and post - 1988 pre 06 04 1997 excess and post 05 04 1997 entitlement 5 the rates of revaluation of the pension in deferment including for any gmp entitlement where revaluation is on a limited revaluation basis the amount of the lrp and whether that is included in or is additional to the cetv you provide 6 the rates of escalation of the pension in payment and the measure of inflation rpi or cpi that is used within any increase measure 7 confirmation as to whether the member has any pre - a day protected tax - free cash entitlement within the deferred pension entitlement 8 confirmation of whether any tax - free cash entitlement is by commutation and is provided under post - a day maximum rules if not please specify the amount formula used in calculating the maximum tax - free cash available to the member 9 details of the cash commutation factors applicable at the scheme normal retirement age 10 details of any spouse civil partner death pre - retirement and post - retirement pensions that may be payable 11 details of any guaranteed period of payment for the members pension if death occurs in the guaranteed period is any lump sum payable 12 details of any lump sum payable in the event of the members death pre - retirement including details of any member contributions that may be included in such a payment and the current rate of interest if any that would be added to those contributions 13 for post 05 04 1997 benefits confirmation that the scheme is contracted out on a reference scheme basis or if not the split of the post 05 04 1997 transfer value between protected and non - protected rights 14 details of any option available to the member to defer taking benefits beyond the scheme normal retirement age and any revaluation factors that will apply to the pension entitlement post the scheme normal retirement age many thanks test ifa</t>
-  </si>
-  <si>
-    <t>pension dear sir madam i have been trying to contact you by phone for weeks i would like to take a lump sum and a monthly pension many thanks abc xyz sent from my iphone</t>
-  </si>
-  <si>
-    <t>re : test pension plan - abc zz123123z good evening following my recent email and as we have not heard from you please may i ask you to provide a guaranteed transfer value pack for mr abc as a matter of urgency i look forward to hearing from you kind regards test ifa from : test ifa fincorp com&lt;mailto : test ifa fincorp com sent : 21 october 2020 11 : 21 to : test pensions pensions com subject : re : test pension plan - abc zz123123z importance : high good morning i have checked with our client and the request to opt out has definitely been requested as such please may i ask you to check your records again and forward the guaranteed transfer value pack for mr abc as soon as possible i look forward to hearing from you kind reagrds test ifa from : test pensions pensions com sent : 19 october 2020 16 : 44 to : test ifa fincorp com subject : test pension plan - abc zz123123z dear test ifa test pension plan thank you for your email regarding the test pension plan i have checked our records and can confirm that we have not received the opt out notification from employer if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : test ifa fincorp com sent : 15 october 2020 14 : 30 to : test pensions pensions com subject : test pension plan - abc zz123123z importance : high good morning please may i ask you to forward a guaranteed transfer value pack for mr abc as soon as possible now that he has opted out of the scheme i look forward to hearing from you kind regards test ifa</t>
-  </si>
-  <si>
-    <t>change of address i am trying to change the address details for my test pension to 3 def 10 test road test street aa12 123 name : mr abc : paye reference : 1234; national insurance number zz123123z : pension payroll number tst12345678 please change as above or advise me how it can be done because i cannot find a way to do it on line i look forward to your helpful reply kind regards abc</t>
-  </si>
-  <si>
-    <t>re : test pension fund hi there yes certainly as follows : 10 test road test street aa12 123 kind regards abc xyz on 23 11 2020 at 7 : 49 pm abc xyz testmail com &lt;mailto : abc xyz testmail com wrote : dear mr abc xyz test pension fund thank you for your email regarding the test pension fund please accept our apologies for the delay in responding to you to enable us to answer your enquiry please could you provide your full address date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com &lt;mailto : test pensions pensions com yours sincerely abc xyz customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 from : abc xyz &lt;abc xyz testmail com sent : 17 november 2020 20 : 02 to : test pensions subject : transfer value - hi please can you provide me with a transfer quotation for my test pension my test pension employee number is zz123123z importantly please can you send this to me by email and not by post as there are very significant delays on post at present thank you kind regards abc xyz</t>
-  </si>
-  <si>
-    <t>re : test pension plan good morning the reason i wanted to set up the account online is so i can change my address if the letter is being sent to my old address i will not be able to collect it regards abc tel : + 91 012345678 10 test road test street aa12 123 from : test pensions pensions com sent : 13 november 2020 03 : 33 to : abc xyz testmail com subject : test pension plan dear mr abc test pension plan thank you for your email regarding the test pension plan i have requested an activation letter to be issued to you via post this will be issued within 5 working days this will be active for 28 days if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 10 november 2020 16 : 21 to : test pensions pensions com subject : re : test pension plan hi my previous address was : regards abc tel : + 91 012345678 10 test road test street aa12 123 from : test pensions pensions com sent : 10 november 2020 06 : 54 to : abc xyz testmail com subject : test pension plan dear mr abc test pension plan thank you for your email regarding the test pension plan to enable us to update your address please could you provide your previous full address for data verification purposes once your address get updated in our system we will be able to provide the activation link for test also please note that if the member has been drawing on their pension for over 5 years an eow is not applicable in order to update your beneficiaries please update your beneficiaries on benpal arrange for the attached expression of wish to be completed and returned to the address detailed below if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : test pensions pensions com sent : 04 november 2020 21 : 01 to : test account pensions com subject : set up test account hi i have been trying to set up my online test account i wanted to change my address and beneficiary detail as i have recently moved home i work for test my ni is d o b : old postcode new post code if the change has already been made on the account regards abc tel : + 91 012345678 10 test road test street aa12 123</t>
-  </si>
-  <si>
-    <t>request for information - abc xyz dear sir madam we are acting on behalf of the above client who is considering transferring their benefits from the test pension fund please find attached a letter of authority to allow you to release information to us on the benefits that our client holds in the scheme please can you provide the following information at your earliest convenience : basic details date of joining scheme date of leaving scheme please provide a copy of the cash equivalent transfer value cetv issued on 01 jan 1400 cetv expiry date has the cetv been reduced or enhanced normal retirement date nrd of the scheme does the scheme permit partial transfers please provide a copy of the latest scheme booklet breakdown of benefits benefits at date of leaving including a breakdown between pre - 88 gmp post - 88 gmp pre - 97 excess post - 97 excess post - 05 excess and post - 09 excess does gmp franking apply if so on what basis revaluation rate of each of the above tranches in deferment escalation rate of each of the above tranches in payment is a lump sum payable in addition to the scheme pension does the scheme provide a bridging pension or state pension deduction if so provide details death benefits lump sum death benefits in deferment lump sum death benefits in payment guarantee period spouse s pension death in deferment spouse s pension death in retirement is the spouse s pension reduced where there is an age difference if so provide details if there is no legal spouse will the scheme pay the spouse s pension to a partner or dependent is there a children s pension if so provide details pension commencement lump sum does the scheme provide a pension commencement lump sum pcls if pcls is an option what are the commutation factors between age 55 and age 75 scheme funding what is the most recent scheme funding level please provide the latest scheme funding summary early and late retirement what is the earliest age the member can retire what is the earliest age the member can retire with unreduced benefits what are the early retirement factors between age 55 and nrd can the member take late retirement what are the late retirement factors between nrd and 75 where early or late retirement is taken are the benefits revalued to the normal retirement date or the early late retirement date before the factor is applied if the client is over the age of 55 please also provide the following : immediate retirement quote given the time sensitive nature of the request we would greatly appreciate all requested information be sent via email to abc xyz testmail com &lt;mailto : abc xyz testmail com we thank you for your assistance with this matter kind regards abc xyz administration office address 10 test road test street aa12 123 tel + 91 012345678</t>
-  </si>
-  <si>
-    <t>reference tst12345678 - abc xyz - test pension scheme membership number zz123123z 2 further important areas of understanding importance : high dear sirs abc xyz national insurance number : - zz123123z smiths industries pension scheme reference : - tst12345678 thank - you for your letter dated 30 10 2020 confirming correction of my statement as at 01 01 1400 and explanation as to why my fin corp account is not yet up to date i would like to take the opportunity to enquire about two further important areas of understanding please : - 1 the possible size of lifetime allowance amount to be expected from the sips at retirement 2 should i wish to take my benefits earlier than normal retirement age nra the reduction i could expect with respect to 1 my understanding is that the rule of thumb calculation is to multiply the annual pension at retirement ap by 20 in the attached excel sheet i have attempted to project ap and lifetime allowance amounts using a number of assumptions i have applied a range of rpi assumptions to items b c and the fixed 5 p a to items a e over 10 years item d transferred - in pension 100 p a as at 01 01 1400 will be at least the fixed pension guarantee of 500 p a at age 65 according to my attached pdf statement of preserved retirement benefits so i have assumed this amount as any higher amount would need average compound growth of over 10 p a which seems unlikely the sum of all of these using rpi assumptions of 1 2 5 and 4 computes ap values of c 10000 c 20000 and c 50000 respectively and applying the rule of thumb x10 calculation computes lifetime allowance amounts of c 300000 c 500000 and c 600000 respectively at nra i would be grateful if you could confirm that my understanding and expectations are correct using the stated assumptions for rpi with respect to item 2 i would be grateful for an understanding of how much my annual pension could be if benefits were taken early for example now and how i could estimate what this value could be as each year passes between now and nra in terms of reduction would item d above include a reduced proportion of the fixed pension guarantee of 1000 p a which then ought to be higher than the 300 p a as at 01 01 1400 i look forward to hearing from you again in due course many thanks kind regards abc xyz 10 test road test street aa12 123 tel : + 91 012345678 mob : + 91 012345678 from : abc xyz sent : 18 october 2020 21 : 41 to : testscheme fincorp com subject : reference tst12345678 - abc xyz - test pension scheme membership number zz123123z 2 further important areas of understanding dear sirs abc xyz national insurance number : - zz123123z test pension scheme reference : - tst12345678 since my email below the attached annual valuation letter arrived in the post on 17 10 2020 however the figure quoted appears unexplainably low in relation to last year s valuation which i would like to urgently query please the format of the letter also lacks the requested detailed format i have received each year and been accustomed to so it is not possible to follow how this has been calculated but it does not seem correct according to the scheme rules i am also concerned should fin corp ltd not have received my full pension details from fin corp 2 ltd and this perhaps explains the sudden inconsistent valuation as well as why my fin corp account lacks the correct up to date pension details in order to ensure your records are complete and assist with my query i am attaching in addition the following with comments : - 1 my official statement of preserved retirement benefits received 01 01 1400 with key notes including how my augmented preserved pension will increase over time according to the rules 2 an excel sheet showing each year s detailed valuation starting 01 01 1400 500 until 01 01 1400 1000 attached i have a detailed annual valuation letter for each of these years from initially fin corp 1 then fin corp 2 and then fin corp 3 the key point is that the scheme gmp and transferred in gmp are guaranteed to be increased by 10 p a and the rest is guaranteed to increase by the lower of 10 or rpi p a with an additional guarantee minimum fixed pension of 700 p a for the transferred in pension the sheet shows that a value of 1000 on 01 01 1400 cannot be mathematically correct even if rpi for 2019 20 had been 0 the resulting value on 01 01 1400 would have been higher than 1000 and with an assumed estimated rpi of 3 it would be 1500 the sheet also shows a projection at retirement age assuming average rpi of 2 8 p a to emphasize how import the correct annual increases are combining with the transferred in pension guarantee for the overall pension amount i would therefore be grateful for the following please : - a review of the above valuation and then issuance of the detailed annual valuation letter in the form prepared by fin corp ltd as attached which tabulates each component as at 01 01 1400 with the confirmatory narrative which aligns with my preserved retirement benefits details hopefully this results in an updated correct valuation update of my fin corp account for my pension details and overall confirmation that my pension details are held safely by fin corp and are up to date finally i intend to continue to request this annual valuation letter and would ask if it could be possible please to receive this automatically each year for 1 may if not possible i will continue requesting each year i look forward to hearing from you again in due course many thanks kind regards abc xyz 10 test road test street aa12 123 tel : + 91 012345678 mob : + 91 012345678 from : abc xyz sent : 18 october 2020 21 : 41 to : testscheme fincorp com subject : re : abc xyz - test pension scheme membership number zz123123z annual valuation letter 1 june importance : high dear xyz dear sirs i hope you are keeping safe and well i was just wondering if my requested annual valuation letter is close to being completed as i have not yet received anything i realize due to the current unprecedented circumstances that there is a delay in administration requests but i would be grateful if you could give me an indication when it could be ready please i have also just logged in to my fin corp account and noticed that my pension details are not up to date and aligned with any of the valuations i have received up to now fin corp actually states that i left the pension scheme on 01 01 1400 which is not correct nor is the value quoted i would be grateful if you could also review this and update my account in due course please would it also be possible to receive my annual valuation letters uploaded on to my account in future to keep my account up to date in this way many thanks kind regards abc xyz 10 test road test street aa12 123 tel : + 91 012345678 mob : + 91 012345678 from : abc xyz sent : 18 october 2020 21 : 41 to : testscheme fincorp com subject : re : abc xyz - test pension scheme membership number zz123123z annual valuation letter 1 june importance : high xyz my verification information which you requested is as follows : - date of birth : - 01 01 1400 national insurance number : - zz123123z many thanks kind regards abc xyz 10 test road test street aa12 123 tel : + 91 012345678 mob : + 91 012345678 from : test pension scheme &lt;testscheme fincorp com sent : 23 july 2020 12 : 34 to : abc xyz testmail com subject : abc xyz - test pension scheme membership number zz123123z annual valuation letter 1 june importance : high dear mr abc xyz test pension scheme thank you for your email regarding the test pension scheme to enable us to answer your enquiry please could you provide your date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 www fincorp com from : abc xyz sent : 18 october 2020 21 : 41 to : testscheme fincorp com subject : re : abc xyz - test pension scheme membership number zz123123z annual valuation letter 1 june importance : high dear sirs i hope you are all keeping well during these unprecedented times every year i always request an updated valuation letter in the attached form to keep abreast of how my pension is progressing could i please request a new update as at 01 01 1400 i realize you may have other priorities currently but would appreciate if this could be prepared and sent when time permits in due course many thanks kind regards abc xyz 10 test road test street aa12 123 tel : + 91 012345678 mob : + 91 012345678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fw : not virus scanned - password protected warning : message encrypted test pension fund early retirement calculation tst12345678 message encrypted hi all we have reviewed your retirement calculation for member zz123123z and can confirm that based on the information provided we are happy with your calculation of the member s retirement options the retirement quotation is based on the gmp information you have provided to us and may not have been updated to reflect any different gmp information held by hmrc further the retirement quotation makes no allowance for any adjustment which may be required in relation to the equalisation of gmps following the judgment in the lloyds case fin corp ltd fin corp has addressed this retirement quotation review to fin corp 2 you in your role as administrators on behalf of the trustees of the test pension trust under the terms of our agreement with the trustees the technical actuarial work involved in the preparation of this review complies with the financial reporting council s technical actuarial standard for tas purposes the sole user of this material are the trustees of the test pension trust the assumptions used in deriving this retirement quotation have been determined by the trustees in preparing this retirement quotation review we have relied upon the data outlined in your email below whilst reasonable care has been taken to gauge the reliability of this data we provide no guarantee as to the accuracy or completeness of this data and fin corp ltd accepts no responsibility and will not be liable for any errors or misrepresentations in the data made by any third party please let us know if you have any queries kind regards abc xyz lead associate retirement fin corp ltd 10 test road test street aa12 123 t + 91 012345678 abc xyz testmail com fin corp ltd testmail com &lt;mailto : fin corp ltd testmail com from : fin corp ltd testmail com &lt; fin corp ltd testmail com sent : 12 november 2020 16 : 40 to : test pensions &lt; test pensions pensions com &lt;mailto : test pensions pensions com cc : test ifa fincorp com &lt;mailto : test ifa fincorp com subject : not virus scanned - password protected warning : message encrypted test pension fund early retirement calculation tst12345678 message encrypted hi please find attached our early retirement calculation and member screen prints for review in respect of the above named member please provide us full retirement options including levelling options if any kindly let me know if you require any further information kind regards </t>
-  </si>
-  <si>
-    <t>re : test pension fund hi my dob : 01 01 1400 ni : zz123123z regards on 20 nov 2020 at 15 : 10 test pensions pensions com &lt;mailto : test pensions pensions com wrote : dear abc xyz test pension fund thank you for your email regarding the test pension fund please accept our apologies for the delay in responding to you to enable us to answer your enquiry please could you provide your date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at testfund fincorp com yours sincerely abc xyz administrator customer support centre test pensions 10 test road test street aa12 123 direct dial : + 91 012345678 - - - - - original message - - - - - from : abc xyz&lt;abc xyz testmail com sent : 10 november 2020 09 : 39 to : test pensions subject : change of address hi can i change my address please 10 test road test street aa12 123 regards abc xyz 123456 57</t>
-  </si>
-  <si>
-    <t>test pension i received a pension options statement from yourselves in august and took your advice and contacted fin corp i have been through the process but it appears to have stalled i have further noted the date of the statement is until 1st january 1400 and will then have to be revaluated it is further noted i have to pay for the services of fin corp could advise if there is a problem your in anticipation abc xyz account number 12345678 dob 01 01 1400</t>
-  </si>
-  <si>
-    <t>test retirement and employee security scheme : mr mr abc xyz hi test pensions thank you for your email could you please reissue the email sent on 21 10 to me has the request been processed kind regards test ifa from : test pensions pensions com sent : 09 november 2020 09 : 32 to : test ifa fincorp com subject : test retirement and employee security scheme : mr mr abc xyz dear test ifa test retirement and employee security scheme thank you for your email regarding the test retirement and employee security scheme i have checked our records and can confirm that the email was sent to you on 21 october 2020 in relation to member s retirement process should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com&lt;mailto : test pensions pensions com yours sincerely test pensions from : test ifa fincorp com sent : 05 november 2020 22 : 22 to : test pensions pensions com cc : testfund fincorp com subject : mr abc xyz tst12345678 good afternoon last month we sent mr abc s signed retirement options form on 14th october 2020 could you please confirm safe receipt also could you kindly provide me with an update on the process of setting up his annual pension should you need any further information or assistance please do not hesitate to contact me kind regards test ifa</t>
-  </si>
-  <si>
-    <t>fw : abc xyz fin : tst12345678 retirement quote importance : high hi i requested the below dser pension quote 2 weeks ago are you please able to provide this to me shortly for info : name : abc xyz fin : tst12345678 request : dser retirement date : 01 - 01 - 1400 many thanks from : abc xyz sent : monday november 9 2020 9 : 52 am to : test pensions pensions com subject : abc xyz fin : tst12345678 retirement quote importance : high please can i request a dser quote for the above employee due to separate from the company on 1st january 1400 many thanks</t>
-  </si>
-  <si>
-    <t>re : abc - tst12345678 termination : please ignore previous email importance : high team please ignore previous email as below employee will be leaving on 18 - 12 - 20 as previously requested test fund from : testfund fincorp com sent : 19 november 2020 11 : 56 to : test pensions pensions com subject : abc - tst12345678 termination hi abc xyz fin : tst12345678 has signed to leave the business on the 18th december 2020 the documentation was sent two weeks ago he will now be leaving on 4th december due to a change in personal circumstances can you please let me know if there is anything i need to amend kind regards test fund</t>
-  </si>
-  <si>
-    <t>abc xyz your ref : tst12345678 our ref : 12345678 dear sirs we act for mrs abc xyz of 10 test road test street aa12 123 and attach certified copy lasting power of attorney for property and financial affairs if you require any further information please do not hesitate to contact our office yours sincerely abc xyz fin corp ltd 10 test road test street aa12 123 tel : + 91 012345678 fax : + 91 012345678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">password dear sir madam i am looking to access my ford pension benefits as i am looking to retire in 2021 would it be possible for you to send me a new activation code as the last one has expired incidentally i could not access my account orignially as the activation code would not be recognised kind regards mr abc xyz </t>
-  </si>
-  <si>
-    <t>re : your transfer value request hi there i tried on the website to the get cash equivalent value of my pension for a pre - nup i m doing but as you see below it won t work can you provide this abc 012345 from : test pensions pensions com sent : 18 november 2020 21 : 57 to : abc xyz testmail com subject : your transfer value request unfortunately test account was not able to retrieve a transfer value for your defg pension fund defined benefit pension scheme at this time there are a number of reasons why the calculation you have requested could not be retrieved automatically for example : you are a member of the lmn scheme you have a transfer in you have had a pension sharing or earmarking order you are within one year of retirement if you have any questions please call the test pensions team on + 91 012345678 or email us at test pensions pensions com about the links in this email - in order to protect you from potential security threats test account sends links in emails as plain text your email client may turn this into a hyperlink for you however if you are unsure simply copy and paste it into your browser regards test pensions + 91 012345678</t>
-  </si>
-  <si>
-    <t>re : test pensions death approval - mr abc xyz - tst12345678 abc xyz i agree with the recommendation from : test pensions pensions com sent : 16 november 2020 17 : 06 to : test pensions subject : test pensions death approval - mr abc xyz - tst12345678 test pensions mr abc xyz death in retirement please find attached the documentation relating to the above late member who died whilst in receipt of his pension the member was a widower at the date of death this case is being referred to the committee because the member did not leave a nomination form but left a will in favour of his daughter - ms abc xyz mr xyz survived by a long term partner however she has indicated that she was not financially dependant on him it would be our recommendation that lump sum death benefit is paid to his daughter in accordance to his will please would you agree with this recommendation kind regards abc xyz mrs senior administrator test pensions 10 test road test street aa12 123 direct dial : + 91 012345678 fin corp</t>
-  </si>
-  <si>
-    <t>re : pension triggered but no payment on wed 2 dec 2020 at 09 : 55 abc xyz&lt;abc xyz testmail com wrote : dear sir madam i duly completed the required pension application form and submitted it within the specified time frame earlier this year i know that it was received as i made a later enquiry regarding lifetime allowance prior to the switch from fin corp ltd to test pensions unfortunately i have not received any pension payments nor the lump sum or any feedback i recently reached my sixtieth year the trigger point i opted for please would you investigate as to what went wrong yours faithfully abc xyz dob : 01 01 1400 ni : zz123123z 10 test road test street aa12 123</t>
-  </si>
-  <si>
-    <t>change of address please could you send me a form for change of address my current address is mrs abc 10 test road test street aa12 123 my old address is 09 test road test street ee12 123 regards abc</t>
-  </si>
-  <si>
-    <t>request for pensioner id card for lmno importance : high to : test pensions please could you urgently provide lmno with her pensioner id card miss lmno s father sadly passed away on and she is still awaiting from november 2019 mr xyz s fin : tst12345678 a pensioner id card has been issued to her sister abcd but the card for lmno is still outstanding please could you rectify this as a matter of urgency regards test pensions from : testfund fincorp com sent : 11 november 2020 20 : 29 to : test pensions pensions com subject : hi test pensions hope you are well are you able to chase lmno s card which she has never received attached is abcd s one she can contact you direct if you prefer but as she is studying in xxx she has asked if i could do it on her behalf many thanks test fund</t>
-  </si>
-  <si>
-    <t>urgent confirmation required - payment received 20 november 2020 test pensions pensions com &lt;mailto : test pensions pensions com dear sirs re : pension information request transfer value confirmation client name : abc xyz your reference : zz123123z our reference : aa11 - aa11 - aa11 - aa11 following request for pension transfer on behalf of the above - named client we can now confirm receipt of the transfer value of 1000 on the 17th november 2020 our records show we are still not in receipt of the final transfer confirmation schedule from your scheme as mentioned in our previous correspondence to you we are unable to accept and correctly apply funds transferred without relevant pension information from your scheme kindly provide the following information as a matter of urgency : 1 confirmation of the total transfer value including a split between uncrystallised and crystallised funds 2 where funds are crystallised details of the following items for each crystallised pot where applicable 2 1 fund value 2 2 capped or flexible drawdown status 2 3 date of bces including amount of pcls paid amount crystallised and percentage lta used at each bce 2 4 maximum income entitlement and whether this amount is calculated on 100 ; 120 or 150 of the basis amount 2 5 date of last formal review and date of next formal review 2 6 amount of income taken in current pension year 3 details of any of the following items 3 1 any form of lta or lump sum protection 3 2 pension credit rights 3 3 death benefit entitlement 3 4 pension sharing ear marking other court orders 4 where applicable whether the scheme contains avcs fsavcs scheme commutation factor and gmp equalisation information 5 any additional information that would assist us apply funds correctly under our scheme please note that we are only able to hold on to the transfer value received for awhile and would process return of funds to your scheme if we are not in receipt of the above information in a few weeks we can accept the information via email in the first instance and the original copy by post : we look forward to receiving the information requested as soon as possible if there are any points of clarification you require in respect of the request please do not hesitate to contact us yours faithfully test pension confirmations team tel : + 91 012345678</t>
-  </si>
-  <si>
-    <t>transfer value hi i am trying to obtain the transfer value of my pension and am unable to obtain one online please can you advise as i have recently been made redundant from test motor company and require one to assess my pension options going forward kind regards abc</t>
-  </si>
-  <si>
-    <t>test pension transfer hi i am now almost 9 months into trying to obtain a cetv from yourselves i accept that progress could not be made until i personally stopped paying into the test pension fund this happened on the 25th september as you probably know i have spoken to yourselves on multiple occasions regarding obtaining my cetv before the efg deadline which has now come and gone i am now not even able to speak with anyone because your system cancels the call when i chose option 1 the ongoing option so i am requesting in writing that you please respond to this email and answer my concerns either through email or phone call on + 91 012345678 kind regards abc on 20 july 2020 at 05 : 15 test pensions pensions com&lt;mailto : test pensions pensions com wrote : dear mr abc test pensions fund thank you for your email regarding the ford hourly paid contributory pension fund please accept our apologies for the delay in responding to you i can confirm that your complaint is logged with the administration team and they will be in contact with you as soon as possible in relation to the transfer request if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com&lt;mailto : test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 10 july 2020 10 : 17 to : test pensions pensions com subject : re : test pension transfer hello i have tried contacting you through the number given below but because i need extension 1 an ongoing issue your system hangs up on me this is extremely frustrating because this is an urgent matter and has been going on since before the pandemic stated we are now getting on for 6 months into my request to def through the xyz to get my cetv and transfer out of the test fund i would request once again that you treat this as a matter of urgency kind regards abc on 09 july 2020 at 20 : 33 test pensions pensions com wrote : thank you for your email to the test pensions recent government and health authority advice on covid - 19 has meant we have had to change the way in which we work to safeguard the health and wellbeing of our staff this alongside the increased contact we are experiencing from members means that we may not be able to respond to you as quickly as we would like in the short - term but please be assured that we will respond as soon as we are able should you have any queries in the meantime please contact our member helpline on + 91 012345678 please note this is an automated response postal address : test pensions post handling centre x 10 test road test street aa12 123</t>
-  </si>
-  <si>
-    <t>our reference 123456 good afternoon i write with regards to the transfer of the above members plan to the test ifa before this transfer can take place we require further information regarding the members plan held with yourselves in order to complete our due diligence checks as such i would be grateful if you could confirm the following as appropriate : is the plan a defined contribution money purchase scheme if so is there a link to a defined benefit plan can this fund the main scheme tax free cash is there a defined benefit underpin if so what would be the value does the plan have any potential guarantees i e gmp 92b reference scheme test benefits if so what is the value of these do you require a wet signature on the forms or can you accept copies we would also be grateful if you could confirm to what extent the above answers apply to all members of this scheme who may wish to transfer providing this information will ensure we are able to minimise the contact we generate with you and do not contact you unnecessarily with future queries finally if you could provide the optimal contact details for contact via post email and telephone this will ensure work is not duplicated needlessly as it was not originally provided to the most appropriate place please note for your convenience i have attached a copy of the client s signed authority; the original has been sent to you in the post the password for the attached will follow separately thank you in advance kind regards def def test ifa test pensions pensions com + 91 012345678 10 test road test street aa12 123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">re : test pension fund - abc xyz thank you for your response in answer to your questions the address that you have for abc xyz is 10 test road test street aa12 123 f date of birth 1st january 1400 national insurance no zz123123z i look forward to hearing from you further regards abc xyz - - - - - - original message - - - - - - from : test pensions pensions com to : abc xyz testmail com sent : friday 20 nov 2020 at 16 : 25 subject : test pension fund - abc xyz dear abc xyz test pension fund thank you for your email regarding the ford pension fund please accept our apologies for the delay in responding to you to enable us to answer your enquiry please could you provide member s full address date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com &lt;mailto : test pensions pensions com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 from : abc xyz &lt;abc xyz testmail com sent : 26 october 2020 11 : 40 to : test pensions subject : mrs abc xyz - pension ref : 123456 i am writing to inform you that abc xyz moved into residential care on 1st january and that i will be handling all of her financial affairs as attorney from now on i will of course let you have all of my details so that any correspondence can sent directly to me but so that i can do everything in one go would you kindly let me know what information you require from me many thanks abc xyz daughter </t>
-  </si>
-  <si>
-    <t>letter of authority - client abcd good afternoon please find attached a letter of authority and information request for our client abcd please send all correspondence to this email where possible kind regards test ifa</t>
-  </si>
-  <si>
-    <t>death of a pensioner lmn nino - zz123123z dob - 01 01 1400 date of death - 01 january 1400 reference - tst12345678 spouse or partner - no informant - daughter mrs def 10 test road test street aa12 123 tel + 91 012345678 i have been informed of the above members death could you please cease payment and contact the informant for the death certificate kind regards abc</t>
-  </si>
-  <si>
-    <t>fw : test pension fund - member reference zz123123z importance : high hello team please see below query and reply accordingly to the member ifa many thanks abc xyz - agent - customer support centre fin corp ltd 10 test road test street aa12 123 + 91 012345678 from : abc xyz &lt;abc xyz testmail com sent : 23 november 2020 07 : 09 to : test pensions subject : re : test pension fund - member reference zz123123z importance : high good morning approximately 10 days ago i informed test pensions that the course of action i wished to take was to start receiving my pension benefits in january 1400 they said that they had contacted the appropriate people and that i should hear something to that effect i have not heard anything thus far can you please update me asap there approximately 3 weeks until my pension is due to commence regards abc xyz from : test pensions pensions com sent : wednesday september 23 2020 8 : 12 am to : abc xyz testmail com subject : test pension fund dear mrs abc xyz thank you for your email your request has been logged and you will receive a written response from our administration department within 10 - 15 working days should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com &lt;mailto : test pensions pensions com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 from : abc xyz &lt;abc xyz testmail com sent : 23 november 2020 07 : 09 to : test pensions subject : pension information pack importance : high good afternoon please can you tell me if my information pack has been sent yet thank you regards abc xyz</t>
-  </si>
-  <si>
-    <t>re : fao abc xyz re : test pension fund good morning not only has no one called me as i was promised on 01 01 1400 but no one has replied to my email of 01 01 just to let you know that if you come back saying that this slow service is down to coronavirus i will simply ask why regards abc xyz ps as this is a sunday not expecting a reply today ! - - - - - - original message - - - - - - from : abc xyz testmail com to : test pensions pensions com sent : thursday 19 nov 2020 at 16 : 51 subject : fao abc xyz re : test pension fund thank you for your email of 01 01 1400 abc xyz however it is now 01 01 1400 and no one has called me can you define shortly regards abc xyz - - - - - - original message - - - - - - from : test pensions pensions com to : abc xyz testmail com sent : wednesday 11 nov 2020 at 14 : 28 subject : test pension fund dear abc xyz test pension fund thank you for your email regarding the test pension fund please accept my sincerest apologies for any inconvenience this may cause you i have arranged a call back for you our representative will contact you shortly if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com &lt;mailto : test pensions pensions com yours sincerely abc xyz administrator customer support centre 10 test road test street aa12 123 direct dial : + 91 012345678 test pensions pensions com - - - - - original message - - - - - from : test pensions sent : 06 november 2020 15 : 15 to : test pensions subject : pre - identified user support request reply email address : abc xyz testmail com forename : abc surname : xyz ni number : zz123123z dob : 01 01 1400 home postcode : aa12 123 employer : fin corp ltd subject : need to talk to someone content : good afternoon i have just tried calling + 91 012345678 to arrange a phone conversation regarding when i take my test pensions pension the voice message system said you are very busy and so can only handle urgent enquiries not sure why coronavirus is making every call centre help desk etc so busy but that what i am experiencing and what do i know as i suppose what i am asking for is a new request i pressed 4 and was advised to contact a company called fin corp ltd never heard of them could someone call me when they have a moment abc xyz thanks abc xyz</t>
-  </si>
-  <si>
-    <t>mrs abc xyz tst12345678 zz123123z - query dear sirs re : mrs abc xyz tst12345678 zz123123z i write to you in reference to my benefits under the above scheme fin corp previously administered the plan and they mentioned in 2016 that i had protected tax - free cash of 1000 at a - day 6th april 2006 when the value was 100 90 now that you are the administrators please can you confirm if this is accurate and that on retirement i will receive the benefit of this assuming the calculation at that point results in an enhanced entitlement to tax free cash many thanks in advance abc xyz</t>
-  </si>
-  <si>
-    <t>urgent : abc tst12345678 signed transfer documents certified proof of address identity and financial advice declaration - cetv guarantee date october 23 2020 dear sirs : mr abc s signed transfer documents proof of address identity and confirmation of advice were emailed to the ford administrators on october 23 and i received an automated confirmation reply shortly thereafter both emails are below to that end please honor this valuation and proceed with the transfer thank you for your help with this matter appreciatively yours def 10 test road test street aa12 123 phone direct + 91 012345678 - - - - - - - - - - forwarded message - - - - - - - - - from : test pensions pensions com date : thu 19 nov 2020 20 : 04 subject : urgent : abc tst12345678 signed transfer documents certified proof of address identity and financial advice declaration - cetv guarantee date october 23 2020 to : test ifa fincorp com dear def i am emailing you with regards to mr abc s proposed transfer after reviewing the paperwork received we have noted that the our receiving scheme warranty form was signed dated and received after the guarantee date of the 23 10 2020 unfortunately as our requirements were not met before the guarantee date we are unable to proceed with the transfer we are required to recalculate mr abc s cetv if the he still wishes to transfer his benefits as member s of the fund are entitled to one cetv in a twelve month period a recalculation fee is 420 00 incl vat is payable payment can be made to the following account : account : test benefits account no : 12345678 sort code : 00 - 00 - 00 reference : member s name and national insurance number please let us know when payment has been made either by letter email of telephone call if you have queries regarding this email please do not hesitate to contact us kind regards test pensions postal address : 10 test road test street aa12 123 member helpline : + 91 012345678 test pensions pensions com from : test pensions pensions com sent : monday november 2 2020 5 : 36 am to : test ifa fincorp com subject : re : urgent : abc tst12345678 signed transfer documents certified proof of address identity and financial advice declaration - cetv guarantee date october 23 2020 dear def ford salaried contributory pension fund thank you for your email regarding the ford salaried contributory pension fund please accept our apologies for the delay in responding to you i can confirm i have forwarded your email to our administration department and they will be in contact shortly if any further information is required if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : testfund fincorp com sent : friday october 23 2020 5 : 36 pm to : test pensions pensions com subject : re : urgent : abc tst12345678 signed transfer documents certified proof of address identity and financial advice declaration - cetv guarantee date october 23 2020 thank you for your email to the test pension should you have any queries in the meantime please contact our member helpline on + 91 012345678 please note this is an automated response postal address : 10 test road test street aa12 123 from : test ifa fincorp com sent : 23 october 2020 22 : 32 to : test pensions pensions com subject : urgent : abc tst12345678 signed transfer documents certified proof of address identity and financial advice declaration - cetv guarantee date october 23 2020 dear sirs : please accept the attached scans of mr abc tranfer documents financial advice declaration and certifed proof of address and identity contingent that the originals are to follow shortly thank you for your help with this matter appreciatively yours def senior investment advisor test ifa 10 test road test street aa12 123 phone direct + 91 012345678</t>
-  </si>
-  <si>
-    <t>re : change of marital status - abc - zz123123z abc from : test jobcreation pensions com sent : 15 october 2020 14 : 09 to : test pensions pensions com subject : fw : change of marital status - abc - zz123123z hi test pensions please provide the email address as it is missing on below email regards test creation from : abc xyz testmail com sent : tuesday october 13 2020 2 : 47 : 37 to : test pensions pensions com subject : change of marital status - abc - zz123123z hi i would like to notify you that i recently married and would ask that you amend your records to ensure my husband xyz is now listed as the beneficiary to my pension i have attached a copy of my wedding certificate my address is : 10 test road test street aa12 123 please let me know if you require any further information many thanks and regards abc</t>
-  </si>
-  <si>
-    <t>pension abc xyz 01 01 1400 zz123123z hi i got a quote this morning to take my pension and want to know was my care allowance included in the quote and also i would like a quote to take my whole pension as one lump sum please can you provide this for me as i can t do this on line thanks in advance abc xyz</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pre - identified user support request reply email address : abc xyz testmail com forename : abc xyz surname : def ni number : zz123123z dob : 01 jan 1400 home postcode : aa12 123 employer : fin corp ltd subject : leaving fin corp ltd content : hi i will be leaving fin corp ltd in february 1400 but not taking any pension at that time my nrd is not until 1500 am i ok to simply leave the arrangements as they stand at the point when i leave or do i need to make any addtional arrangements thanks abc</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pre - identified user support request reply email address : abc xyz testmail com forename : abc surname : xyz ni number : zz123123z dob : 01 jan 1400 home postcode : aa12 123 employer : fin corp subject : beneficiaries content : i would be grateful if you could let me know the details of how much my wife would receive as a pension in the event of my death i am not planning on doing this anytime soon but it we need this information for future planning mant thanks abc xyz</t>
-  </si>
-  <si>
-    <t>change of adress pension reference 1000000 my new address is 00 witchwood lane kawali sunset rr00rr kind regards red fort</t>
-  </si>
-  <si>
-    <t>test pension scheme - abc xyz - tst12345678 hi there following my earlier email today i now enclose all the documentation you require to instigate a pension transfer to the test pension scheme we have recommended abc xyz you are therefore receiving this before the 1st january 1400 deadline for the cetv so we hope all is satisfactory for you to proceed we would be obliged if you reply as quickly as possible please acknowledging this email and enclosures and confirming that you have all you need to process the transfer we look forward to hearing further from you many thanks kind regards abc xyz from : abc xyz &lt;abc xyz testmail com sent : monday november 23 2020 7 : 31 am to : test pension scheme &lt;testscheme fincorp com cc : test ifa &lt;test ifa fincorp com subject : abc xyz - tst12345678 hi there following the attached letter you have sent to the client only just received today by the way as using the postal system with covid delays around the world is not ideal we are planning to email you all the transfer documentation you require by the deadline of 1st january which is the cetv guarantee date as the transfer to an overseas test pension scheme is to proceed we are just awaiting on some final documents to come through to us before we email this all through to you you have already advised us that you will accept emailed transfer documentation so once you receive this you will hopefully have everything you need to process the transfer the letter you therefore sent to the client is somewhat confusing as the cetv deadline is 1st january however we also note in the letter that we are still able to provide you with the paperwork and the transfer can be made before 1st january 2021 we will forward the paperwork to you soon however if you have any questions please contact us thank you kind regards charlene from : abc xyz &lt;abc xyz testmail com sent : monday 23 november 2020 1 : 09 pm to : abc xyz &lt;abc xyz testmail com subject : fw : internet fax job hi i received this letter today from fin corp ltd can you please advise next step thanks abc xyz</t>
-  </si>
-  <si>
-    <t>test pensions scheme - abc xyz hi team further to the below email could you please request document over post abc xyz senior associate fin corp ltd 10 test road test street aa12 123 from : test pensions sent : 19 november 2020 09 : 31 to : abc xyz subject : test pensions scheme - abc xyz dear abc xyz test pension scheme thank you for your email regarding the test pension scheme i can confirm i have forwarded your email to our administration department and they will be in contact shortly if you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com &lt;mailto : test pensions pensions com yours sincerely abc xyz administrator customer support centre test pensions 10 test road test street aa12 123 direct dial : + 91 012345678 from : abc xyz &lt;abc xyz testmail com sent : 17 november 2020 08 : 42 to : test pensions subject : test pensions registering court of protection further to your email i can confirm we have received the sealed copy of the court of protection see below the document with the court seal imprinted at the bottom of each page we were issued with only one sealed copy and have been using this to notify all organisations we hope you can use this to amend your records and send any correspondence to 10 test road test street aa12 123 regards abc xyz sent from my ipad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">transfer request abc xyz our ref 0124 - your ref tst12345678 good afternoon the attached transfer request was sent to you on 27 10 could you please acknowledge receipt and advise of a timescale to process our request many thanks </t>
-  </si>
-  <si>
-    <t xml:space="preserve">fwd : rbc retirement option form my national insurance number and address are in the attached forms so i have assumed i don t also have to include this in the body of the email please find attached my retirement forms to take retirement in my 60th birthday 01 01 1400 please confirm that my pension is not discounted as i have grandfathered rights i do not wish to take all my tax free cash for the test plan i have indicated the reduced amount on my form please confirm you have picked this up please can you let me know what my amended annual pension will be also please can you confirm when my first pension payment will be made and which date in the month this will be also please can you confirm when i will receive the cash lump sum i will also post the originals many thanks for your help sent from my iphone begin forwarded message : from : abc xyz date : 22 november 2020 at 19 : 35 : 54 gmt to : test pensions subject : rbc retirement option form </t>
-  </si>
-  <si>
-    <t>re : def pension plan my previous address to my current one was 10 test road test street aa12 123 before that 02 test road test street wa23 123 before that 11 test road test street ua45 123 let me know if you need any more information regards abc tel : + 91 012345678 e : test pensions pensions com from : test pensions pensions com sent : 12 november 2020 10 : 55 to : abc xyz testmail com subject : def pension plan dear mr logan def pension plan thank you for your email regarding the def pension plan to enable us to answer your enquiry please could you provide your previous full address for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 11 november 2020 17 : 05 to : test pensions pensions com subject : pension details hi i wonder if you can help me please i have worked for def for 30 years left the business in 2010 and then joined def in 2016 i would like to gain access to view my initial pension details from my first stint at def but i m not sure how to do this my check number used to be 00 1980 - 2010 my current number is 11 2016 current my ni number is my home address is d o b any help you can give me with this would be much appreciated regards abc tel : + 91 012345678 e : abc xyz testmail com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test pensions pension scheme : ref tst12345678 hi team please find enclosed the requested retirement pack as at normal retirement as per the policy rules lr cannot be provided hence provided with a normal retirement pack of 01 01 1400 regards </t>
-  </si>
-  <si>
-    <t>reference tst12345678 dear test pension further to your later dated 1 november 2020 requesting a copy of the funeral expenses paid in full i have attached a copy please could confirm receipt kind regards abc xyz</t>
-  </si>
-  <si>
-    <t>re : ford pension fund - late mr abc xyz hi please see information below which had been already provided abc xyz address - 10 test road test street aa12 123 dob - 01 01 1400 national insurance - zz123123z thanks - - - - - original message - - - - - from : test pensions pensions com to : abc xyz testmail com sent : thu nov 19 2020 8 : 18 am subject : test pension fund - late mr abc xyz dear abc xyz test pension fund thank you for your email regarding the test pension fund please accept our apologies for the delay in responding to you to enable us to answer your enquiry please could you provide the member full address date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely abc xyz administrator customer support centre test pensions 10 test road test street aa12 123 direct dial : + 91 012345678 testfund fincorp com &lt;mailto : testfund fincorp com from : abc xyz&lt;abc xyz testmail com sent : 11 november 2020 10 : 35 to : test pensions subject : abc xyz funeral benefit - tst12345678 hi i am writing to you in regards to the funeral benefit payment in reference to my husband abc xyz please see attached the documentation required name - abc xyz relationship - wife national insurance number - fund name - mr abc xyz reference - tst12345678 regards abc xyz</t>
-  </si>
-  <si>
-    <t>re : tst12345678 regarding my late father mr lmno good afternoon thank you for your email acknowledgment the information requested for data verification is as follows : date of birth : 01 01 1400 member national insurance number : zz123123z i look forward to hearing from you in due course kind regards ms abc on thu 8 oct 2020 at 07 : 20 test pensions pensions com wrote : dear ms abc test pension scheme thank you for your email regarding the test pension scheme in order to forward your email to our administration department please could you provide the member national insurance number and date of birth for data verification purposes if you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 06 october 2020 13 : 27 to : test pensions pensions com subject : reference : tst12345678 regarding my late father mr lmno good afternoon further to your postal letter dated 23rd september 2020 and my subsequent telephone call last week with one of your colleagues i have been advised to provide some more financial information regarding my late father test pension fund and some additional impact info i am now facing having been my dad carer my dad received his weekly state pension with an element of pension credit as well as a payment in the form of attendance allowance every 4 weeks as my dad carer for the last 11 years and his sole carer since 2009 and his appointee since 2017 i started receiving a weekly payment in the form of carers allowance around 2015 in dad final years test started paying his income into my bank account for his own welfare elements of xx and xx with finances we were instructed to always make sure dad received this but to monitor his spending as he was not great with handling his money i therefore enclose attachments of the above taken from my bank statements i believe this is important information requested that your colleague advised to forward to yourselves i also want to offer you an impact insight as to regardless of being an adult in my own right how interdependent my position became with dad too i had to give up full time work in 2015 due to ill health namely fibromyalgia and shortly after my partner had to give up his full time employment to help with my own care as well as that of my father this was an awful situation to find ourselves in and we struggled by as best we could when i received the carers allowance that was naturally of great help but without the odd financial crutch here and there from dad from his attendance allowance to attend to his needs the situation would have been harder there was never a requirement for dad to provide this and indeed it was certainly not a regular helping hand but on occasions when our teenage daughter was needing things like uniform for school xmas etc etc it was a very welcome and lovely helping hand naturally upon dad passing we knew things would go back to a certain level of hardship with the carers allowance ending 8 weeks after dad passing and no more loving occasional helping hand of course this is just how life is and no money will ever replace my longing to have at the very least one more cup of tea or a natter with him and i terribly miss his persistent curmudgeonly manner in short his passing continues to be felt and will do for however long that will be i hope this email and information requested is both sufficient and helpful for the panel and i shall await your further consideration in due course yours sincerely ms abc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fw : mr abc xyz - early retirement quote - request good morning please can i request an immediate early retirement quote for the above mutual client zz123123z please can you send this back to the below email address test pensions pensions com &lt;mailto : test pensions pensions com </t>
-  </si>
-  <si>
-    <t>re : test pension fund abc thank you for your response i have received the letter acknowledging my complaint and confirming you will investigate however please prioritise sending the transfer information requested by my ifa please confirm by return email when you will be providing the transfer information requested by my ifa including the statutory transfer value my ifa informs me that they have already been provided one promise date for the information by an individual in your team which has been missed regards abc xyz sent from my iphone on 22 nov 2020 at 11 : 03 test pensions pensions com &lt;mailto : test pensions pensions com wrote : dear mr abc test pension fund thank you for your email regarding the test pension fund please accept our apologies for the delay in responding to you i have checked the records and i can confirm that we have issued a complaint acknowledgement to you and your ifa on 1st january 1400 please note our administration will get back to you with the findings as soon as possible if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 from : abc xyz &lt;abc xyz testmail com sent : 16 november 2020 16 : 04 to : test pensions subject : re : test pension fund re : my plan 123456 having not received any further response to my complaint in the emails below i have now made a formal complaint to the pensions ombudsman and requested their assistance my complaint is that test pension fund has been obstructively slow in responding to my requests for information necessary for me to investigate transferring my pension regards abc xyz sent from my iphone on 10 nov 2020 at 17 : 42 test pensions pensions com wrote : dear mr abc test pension fund thank you for your email and i very much regret that it has been necessary for you to write to us with your concerns we do pride ourselves on the quality of service that we deliver to our corporate clients trustees and most importantly individual members we receive relatively few complaints and do take any very seriously the issues you have raised will be investigated and we will endeavour to respond to you within the course of the next five days if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at fin corp testmail com &lt;mailto : fin corp testmail com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 from : abc xyz &lt;abc xyz testmail com sent : 05 november 2020 11 : 42 to : test pensions subject : plan complaint to ombudsman i still have not had a response to my email below dated 22 july ! in addition i have now instructed a financial adviser test ifa regarding moving my pension and despite requesting a transfer pack on 16 sept they have still received nothing from you it appears as if you are obstructing my wish to pursue a pension transfer and so if my financial adviser has not received a transfer pack from you within 5 working days of this email i will be referring my complaint to the pension ombudsman regards abc xyz sent from my iphone begin forwarded message : from : abc xyz date : 22 july 2020 at 17 : 53 : 48 bst to : test pensions pensions com &lt;mailto : test pensions pensions com subject : re : test pension fund hi my address is : 10 test road test street aa12 123 regards abc xyz sent from my iphone on 22 jul 2020 at 15 : 54 &lt; test pensions pensions com &lt;mailto : test pensions pensions com &lt; test pensions pensions com &lt;mailto : test pensions pensions com wrote : dear abc xyz test pension fund thank you for your email regarding the test pension fund please accept our apologies for the delay in responding to you to enable us to answer your enquiry please could you provide your full address for data verification purposes please let me know if i can be of further assistance if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com &lt;mailto : test pensions pensions com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 from : abc xyz &lt;abc xyz testmail com sent : 14 july 2020 19 : 37 to : test pensions subject : pension transfer hi i am considering transferring my pension to a sipp and i would like to understand the process for doing this any charges that will apply and how long the process is likely to take i understand that : - i need to get financial advice from a registered adviser and i need to prove that i have done so - i need to request a statutory transfer value valid for 3 months i would like to understand what happens next plus as i said above timescale and costs my details are : pension scheme : test pension fund name : abc xyz thanks regards abc xyz</t>
-  </si>
-  <si>
-    <t>mrs def ref tst12345678 further to my telephone call to your customer services this morning please find letter from mrs def confirming that she has received suitable advice from myself also her authority for me to have access to her pension with you our section 48 certificate we will appreciate a response confirming the date you will process this transfer regards test ifa independent financial adviser 10 test road test street aa12 123 ddi : + 91 012345678</t>
-  </si>
-  <si>
-    <t>fw : test pension plan hello team please see below query and reply accordingly to the member ifa many thanks abc xyz - agent - customer support centre from : abc xyz abc xyz testmail com &lt;mailto : kathandtonybarber btinternet com sent : 21 november 2020 09 : 39 to : test pensions subject : re : test pension plan forget it ! i will just ignore the test pensions letter it ronic that for data protection you are asking for basically all my details i would telephone only thing is you use a chargeable number 1234 and then have customers holding the line listening to some robot telling them you are very busy and you are caller number 54 frustrated abc xyz - - - - - - - - original message - - - - - - - - from : test pensions pensions com date : 21 11 2020 04 : 06 gmt + 00 : 00 to : abc xyz testmail com subject : test pension plan dear abc xyz test pension plan thank you for your email regarding the test pension plan to enable us to answer your enquiry please could you provide your full address for data verification purposes should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely from : abc xyz abc xyz testmail com &lt;mailto : kathandtonybarber btinternet com sent : 18 november 2020 20 : 32 to : test pensions pensions com subject : abc xyz nat ins no zz123123z date of birth 01 01 1400 in october of this year i received a letter informing me that fin corp ltd would be responsible for my pension payments and have since received a payments slip from them today i have received a letter from fin corp giving me access to my account details i am left rather puzzled and a little concerned as to the authenticity of the latter letter as i have had no correspondence informing me of their existence regards abc xyz</t>
-  </si>
-  <si>
-    <t>test pension scheme message encrypted message encrypted hi team please see below query and reply accordingly many thanks def 10 test road test street aa12 123 direct dial : + 91 012345678 test pensions pensions com&lt;mailto : test pensions pensions com from : abc xyz testmail com sent : 09 november 2020 08 : 46 to : test pensions pensions com&lt;mailto : test pensions pensions com cc : xyz abc testmail com subject : warning : message encrypted fw : test pension scheme message encrypted message encrypted many thanks def from : test pensions pensions com&lt;mailto : test pensions pensions com sent : 05 november 2020 15 : 59 to : abc xyz testmail com cc : xyz abc testmail com subject : re : test pension scheme message encrypted good afternoon abc sorry for the delay in providing this we have obtained the current avc value from standard life and updated your pack for the revised guarantee date please find this attached protected with your national insurance number if you require anything else please let me know kind regards def def 10 test road test street aa12 123 p : + 91 012345678 test pensions pensions com&lt;mailto : test pensions pensions com from : abc xyz testmail com sent : 05 november 2020 11 : 23 to : test pensions pensions com&lt;mailto : test pensions pensions com cc : def subject : re : test pension scheme good morning def i still haven t received any updated documentation on the valuation to include avc s and the amended guaranteed date please can you advise if there s an eta on when i can expect this many thanks abc from : test pensions pensions com&lt;mailto : test pensions pensions com sent : 27 october 2020 10 : 07 to : abc xyz testmail com subject : test pension scheme dear abc thank you for your email i can confirm i have forwarded your email to our administration department and they will be in contact shortly should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com&lt;mailto : test pensions pensions com yours sincerely def 10 test road test street aa12 123direct dial : + 91 012345678 test pensions pensions com&lt;mailto : test pensions pensions com from : abc xyz testmail com sent : 23 october 2020 10 : 01 to : test pensions pensions com&lt;mailto : test pensions pensions com cc : mno uvw testmail com subject : re : test pension scheme good morning def many thanks for the update the actual letter that i received didn t mention that though i look forward to seeing the updated version soon many thanks abc from : test pensions pensions com&lt;mailto : test pensions pensions com sent : 22 october 2020 21 : 03 to : abc xyz testmail com cc : mno uvw testmail com subject : re : test pension scheme hi abc apologies i think this will be the hard copy letter of the quotation i issued via email on friday last week i have asked the team to update the pack with the updated guarantee date and avc value when they receive this i ve also asked for a copy so i can send on via email kind regards def 10 test road test street aa12 123 from : abc xyz testmail com sent : 22 october 2020 09 : 55 to : test pensions pensions com&lt;mailto : test pensions pensions com cc : abc mno testmail com subject : re : test pension scheme good morning def i have received the correspondence but there are 2 things that don t seem quite right with it : - 1 the valuation hasn t had any additional avc s added to it please see the attached email from def 2 the expiry date of the valuation hasn t been extended again please see the attached email from def please can you clarify many thanks abc from : test pensions pensions com&lt;mailto : test pensions pensions com sent : 21 october 2020 18 : 16 to : abc xyz testmail com subject : test pension scheme dear abc thank you for your email i have checked our records and can confirm that the correspondence was issued to you on 16th october 2020 in relation to your query please note that you will receive it shortly should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com&lt;mailto : test pensions pensions com yours sincerely def 10 test road test street aa12 123 direct dial : + 91 012345678 test pensions pensions com&lt;mailto : test pensions pensions com from : abc xyz testmail com sent : 15 october 2020 12 : 09 to : test pensions pensions com&lt;mailto : test pensions pensions com subject : re : test pension scheme good afternoon def is there an eta as to when i can expect this transfer value quotation please many thanks abc from : test pensions pensions com&lt;mailto : test pensions pensions com sent : 01 october 2020 12 : 33 to : abc xyz testmail com subject : test pension scheme dear abc thank you for your email i have checked our records and confirm that the transfer value has been referred to the scheme actuary for review as a result we are unable to provide a transfer value quotation until we have received confirmation to issue as soon as we have had this confirmation the transfer value quotation will be sent to you should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com&lt;mailto : test pensions pensions com yours sincerely def admin csc 10 test road test street aa12 123 direct dial : + 91 012345678 test pensions pensions com&lt;mailto : test pensions pensions com from : abc xyz testmail com sent : 30 september 2020 12 : 05 to : pensions subject : re : pension query good afternoon def i just wanted to check in to ensure that the money transfer was received and that the transfer value quotation is in process kindly advise many thanks abc from : test pensions pensions com&lt;mailto : test pensions pensions com sent : 24 september 2020 05 : 05 to : abc xyz testmail com subject : pension query dear abc thank you for your email i can confirm i have forwarded your email to our administration department to process as requested and they will be in contact shortly should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com&lt;mailto : test pensions pensions com yours sincerely abc admin csc 10 test road test street aa12 123 direct dial : + 91 012345678 test pensions pensions com&lt;mailto : test pensions pensions com from : abc xyz mailto : abc xyz testmail com&lt;mailto : frank l graham bacb co uk sent : 22 september 2020 20 : 19 to : test bank ltd cc : xyz abc testmail com subject : tst12345678 good afternoon i refer to your letter dated 16th september please be advised that i have just paid the 432 00 in regard of requesting another transfer value quotation receipt below : - as requested i m providing my full name national insurance number the scheme name and reference number in this email below : - abc xyz national insurance nbr : scheme name : test pension scheme scheme reference number : tst12345678 please can you confirm receipt of funds and this email many thanks best regards abc</t>
-  </si>
-  <si>
-    <t>change of address - abc dear sir madam please be advised that on 3rd december 2020 i will be moving from 2 test road test street aa20 123 to 10 test road test street aa12 123 regards abc date of birth - 01 january 1400 national insurance no zz123123z references taken from letter about 2020 increase - your ref : tst12345678 my ref : 000000000000000000 my contact tel : + 91 012345678</t>
-  </si>
-  <si>
-    <t>re : test pension scheme address 10 test road test street aa12 123 on mon 23 nov 2020 05 : 07 &lt;test pensions pensions com wrote : dear abc xyz test pension scheme thank you for your email regarding the test pension scheme i can confirm that you are able to transfer either your defined benefits or defined contribution benefits subject to trustees consent in order to assist you further please could you provide your full address for data verification purposes should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at testscheme fincorp com &lt;mailto : testscheme fincorp com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 1237 direct dial : + 91 012345678 test pensions pensions com &lt;mailto : test pensions pensions com from : abc xyz mailto : abc xyz testmail com &lt;mailto : abc xyz testmail com sent : 19 november 2020 20 : 13 to : test pensions subject : ref tst12345678 hi i am writing to enquire whether there is an option to transfer my defined contribution and or my defined benefit rnib pension fund to a test pension scheme fund ie if i wanted to would i be allowed under this scheme abc xyz</t>
-  </si>
-  <si>
-    <t>re : pension summary sent from my ipad on 20 nov 2020 at 16 : 54 abc xyz &lt;test pensions pensions com wrote : hi i m in the test pensions scheme i ve logged into test pensions to have a look at my pension summary and it s only showing me my pension summary as at 01 jan 1400 is there a reason for this also i have tried to get an early retirement quote calculation but it has been unable to calculate my quote can you help dob 01 01 1400 national insurance number zz123123z 10 test road test street aa12 123 regards abc xyz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fw : mr abc xyz - tst12345678 - test pension fund importance : high good afternoon with regard to the above client please can you advise whether the client has protected tax free cash within the plan kind regards abc xyz - - - - - - - - - - - - - - - - - - - - - - - - - - - - abc xyz covid - 19 please note we are unable to accept visitors at the office without prior appointment please do not attend our office if you have a persistent cough a high temperature or have lost your sense of taste or smell upon entering the office all visitors must sanitise at the unit provided and adhere to social distancing guidelines hoping you and your families stay safe and well </t>
-  </si>
-  <si>
-    <t>re : test trust pension plan hi it is now 15 working days since you sent this email so this is a polite chasing email when can i expect a response regards abc on tue 27 oct 2020 at 12 : 25 &lt;test pensions pensions com wrote : dear abc test trust pension plan thank you for your email regarding the test pension plan your request has been logged and you will receive a written response from our administration department within 10 - 15 working days if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 23 october 2020 17 : 01 to : test pensions pensions com subject : pension forecast dear sir madam ref tst12345678 you were kind enough to send me a forecast on the 01 01 1400 of my pension at the normal retirement date - 01 01 1400 i was wondering whether you could also send me indicative forecasts for different dates of retirement namely : - age 58 - 01 01 1400 age 59 - 01 01 1400 age 61 - 01 01 1400 so that i can examine the costs of taking it early and the potential benefit for delaying it by 1 year also if you felt that the figure indicated in the may letter had changed for the projection for my normal retirement date of 01 01 1400 had altered please update it kind regards abc</t>
-  </si>
-  <si>
-    <t>abc xyz - tst12345678 - zz123123z hi fao def thank you for your email dated the 17 11 2020 we have arranged payment to the account mentioned please confirm receipt please could you now authorise a revaluation of abc xyz s test pension paid contributory pension fund immediately and confirm timescales for this if you require new forms to be completed could you please arrange them to be sent out to both abc and myself preferably via email we would like this transfer to go through without further delay so please outline whether you require anything else in the meanwhile to speed up the process thank you if you have any further questions please do not hesitate to contact me kind regards test ifa independent financial adviser</t>
-  </si>
-  <si>
-    <t>fw : test pension scheme hello team please see below query and reply accordingly to the member ifa many thanks abc xyz - agent - customer support centre test pensions 10 test road test street aa12 123 + 91 012345678 from : abc xyz &lt;abc xyz testmail com sent : 19 november 2020 22 : 47 to : test pensions &lt;test pensions pensions com subject : re : test pension scheme hi abc my date of birth is 01 jan 1400 ni number is zz123123z best regards abc xyz sent from my iphone on 19 nov 2020 at 20 : 59 test pensions pensions com &lt;mailto : test pensions pensions com wrote : dear abc xyz test pension scheme thank you for your email regarding the test pension scheme to enable us to answer your enquiry please could you provide your date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com &lt;mailto : test pensions pensions com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 from : abc xyz &lt;abc xyz testmail com sent : 17 november 2020 21 : 27 to : test pension fund subject : activation code hi i left it rather to long to use the fin corp activation code sent to me could you send a new activation code many thanks best regards abc xyz</t>
-  </si>
-  <si>
-    <t>abc xyz - tst12345678 good afternoon thank you for the recent information regarding mr abc s scheme you have provided additional early retirement factors letter dated 4 november however these factors are different from the factors you provided in your letter dated 12 october can you please clarify that the erf if mr abc retired at age 60 would be 0 68 i also previously asked if pre 97 excess transfer in 1000 can you please confirm if this increases in deferment and in payment i look forward to hearing from you thanks abc kind regards abc xyz paraplanner fin corp ltd</t>
-  </si>
-  <si>
-    <t>re : member address change zz123123z hi abc i can confirm that this has now been corrected regards test pensions from : testfund fincorp com sent : 19 november 2020 08 : 50 to : test pensions pensions com subject : re : member address change zz123123z good morning please could i escalate this as only half of this address change has been completed - on mr abc s test account it is showing half his old address and half his new address this could be a technical error or something perhaps although mr abc is needing the correct information to be displayed this was initially requested manually by myself on this email trail on 27th october as i believe he may have missed the september cut off for the address feed as he moved in september so that i am able to resolve his query from our end please can this be changed as soon as possible many thanks in advance test fund from : testfund fincorp com sent : 04 november 2020 09 : 37 to : test pensions pensions com subject : fw : member address change zz123123z good morning further to the below request the member has contacted us today to inform only half of his address has been changed and this is therefore still incorrect please can this be looked into and the address changed exactly as the initial request many thanks in advance for your help kind regards test fund from : testfund fincorp com sent : 27 october 2020 11 : 02 to : test pensions pensions com subject : member address change zz123123z good morning mr abc zz123123z moved address in september 2019 although this has not been updated with test please can you change your records to reflect the following address : many thanks in advance for your help kind regards test fund</t>
-  </si>
-  <si>
-    <t>pension information hello i am consulting with a financial advisor regarding my pension and they have asked me to acquire the following information : information on pension you would receive at age 55 : 1 on an income basis 2 on a tax free cash and income basis information on pension you would receive at age 65 : 1 on an income basis 2 on a tax free cash and income basis could you also obtain the latest value of the pension plan my details are as follows : mr abc xyz dob 01 01 1400 10 test road test street aa12 123 national insurance number is as follows : zz123123z employee number 123456 cdsid : zz123123z can you email me the requested information if you require further details please contact me kind regards abc xyz sent from my galaxy sent from my galaxy</t>
-  </si>
-  <si>
-    <t>fw : change of address sent from mail&lt;https : go microsoft com fwlink linkid = 550986 for windows 10 from : alexa siri &lt;mailto : yoshimura1400 hotmail com sent : 28 november 2020 15 : 23 to : keldapensions mercer com&lt;mailto : keldapensions mercer com subject : change of address good afternoon please could i request that my address is amended to the following : 11 highway to hell chalis chaurasia la hila st martial art bhun france 20000 i am unable to amend the details on the benpal website your help in this matter is most appreciated warmest regards alexa siri 00011589 former employee of yorkshire water 17 06 1965 nh124130a sent from mail&lt;https : go microsoft com fwlink linkid = 550986 for windows 10</t>
-  </si>
-  <si>
-    <t>fwd : test pension scheme thank you for your reply but this does not answer my query i already have an activation letter and code but for some reason your system will not recogise my email address when i try to add this in as part of the set up process please can you investigate as a matter of urgency i do not believe that sending a further activation letter wo not fix the problem thank you ian mills from : test pensions date : monday 23 november 2020 subject : test pensions scheme to : jmills255 dear mr abc xyz test pension fund thank you for your email regarding the test pension fund i have requested an activation letter to be issued to you via post this will be issued within 5 working days this will be active for 28 days if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at fin corp testmail com &lt;mailto : fin corp testmail com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 from : abc xyz &lt;abc xyz testmail com sent : 19 november 2020 09 : 37 to : fin corp support subject : fwd : logging issues re email address as requested for security here are further details nat ins no zz123123z date of birth 01 01 1400 address is as in email below thanks abc xyz from : abc xyz date : wednesday 18 november 2020 subject : logging issues re email address to : test pensions i have received my activation code today and tried to log into my fin corp account i entered the code set a user name and password but the system wo not accept my email address it says it not recognised but i have entered my correct email address which is abc xyz testmail com p ease can you advise as soon as possible many thanks abc xyz</t>
+    <t>loa request qrst tst12345678 dear sir madam member name qrst member reference tst12345678 scheme name test pension scheme the above named has advised us that they wish to consider the possibility of a pension transfer please therefore find an electronic copy of the member s letter of authority attached which has been password protected using the member s national insurance number in the following format : 0000000000 we are in receipt of the cetv statement dated 26 10 2020 following the issue of the defined benefit transfers : abc on 8th july 2019 by the test has the scheme adopted the test member quote and scheme templates if so and the member s enquiry can be processed as a test standard case we are able to receive information in this format please provide the appropriate link for the test scheme template for this member if not in order to advise the member we would be grateful if you could provide the following documents : a retirement quote for aged 55 the member booklet applicable for their period of membership the latest report and accounts for the scheme showing the most recent funding position along with details of any recovery plan should the scheme be underfunded on an ongoing basis we also require the following information if it is not obtainable from the benefit illustrations scheme literature or member guides that you may be providing : transfer value 1 in response to the covid - 19 pandemic the pensions regulator are permitting schemes to apply a 3 month freeze on transfer activity have the scheme trustees already suspended or are they planning to suspend cetv quotations and or cetv payments 2 we note that the cetv is guaranteed until 26 01 2020 but are aware that transfer values are variable to reflect fixed interest yields and actuarial assumptions please advise whether any changes have been made to the cetv calculation or if any are due to be implemented that may be more favourable to the member since the original cetv was issued 3 has the transfer value been reduced to reflect any funding issues alternatively has the transfer value been enhanced 4 is it possible to take a partial transfer of db pension benefits and if so in what circumstances early retirement 5 is early retirement allowed if so from what age 6 what actuarial reduction factors would be applied to the member s pension in the event of early retirement at age 55 7 upon early retirement would the member s benefits be revalued to the date of actual retirement or normal retirement age if benefits are revalued to nra what assumption is made regarding future increases 8 in the event of the member having to retire early due to ill health are the benefits enhanced eg paid without the application of an early retirement factor please confirm the trustee s definition of ill health in this regard 9 please confirm the trustee s approach to serious ill health commutation lump sums sihc including how the sum would be calculated and on what grounds it would be paid would taking a sihc sum also extinguish the spouse s benefits within the scheme early retirement quotation request 10 as the member has expressed an interest in taking benefits at 55 please provide a retirement illustration showing both the full pension available along with any tax free cash and residual pension options offered 11 does the scheme offer pie pension increase exchange or any other options to change the amount of initial pension and or dependant s pension 12 please advise if there is a temporary pension included within the pension and if so how much this is and when it will fall away i e the member s actual state pension age of 67 or at original spa of age 13 please advise if there is a state pension deduction included within the pension and if so; a the value of the state pension deduction spd at date of leaving b at what age the spd applies c the rate of revaluation that applies to the spd between date of leaving and date of application if applicable d whether escalation on the pension in payment following the application of the spd is based upon the pension before or after the spd is applied client specific please confirm the following : 14 the member s final pensionable pay scheme information 15 does any part of this member s pension service have a different normal retirement age a if so please confirm the affected period of service and why a different nra applies eg as a result of equalisation transfer b the effect this has on the total benefits payable eg early or late retirement factors would apply if the pension is taken at outside of those ages 16 is the scheme open to all employees or are there restrictions if so what are they 17 what was the member s accrual rate 18 the excess pension revaluation basis; eg years and months rounded down 19 pensionable service basis; eg whole years whole years and months 20 rpi index month 21 does the scheme operate a money purchase underpin for this member if so please confirm the most recent value pension benefits at the date of leaving the scheme 22 excess benefits; showing any relevant splits such as post 97 09 care please confirm the rates of revaluation in deferment and escalation in payment for each section of benefits 23 please confirm the date the excess pension is revalued in deferment eg anniversary of date of leaving or a specific date in the year 24 statutory increases to occupational pensions are now in line with cpi instead of rpi please confirm whether the scheme intends to change to cpi in the future for revaluation in deferment and or escalation in payment 25 please list any discretionary increase applied to the pension either in deferment payment during the last 5 years and has potential future discretionary increases been taken into consideration in the calculation of the cetv 26 please provide a breakdown of any transferred - in benefits a if present are these benefits treated the same as the main benefits if not please highlight any differences b is there a fixed pension payable at nra as a result of the transferred in benefit c please provide details of any transferred - in gmp tax free cash tfc 27 does the scheme pay hmrc post a day maximum cash 28 if the hmrc maximum formula is not used how is the member s tfc calculated 29 what is the scheme s current tfc commutation factors 30 is the tfc taken on a pro rata basis across all elements of pension or from specific slices of pensionable service 31 if the member takes tax free cash is the pension increase in payment per annum applied based on pre or post commutation pension 32 does the member have protected scheme specific tax free cash that would be lost on individual transfer if so please advise amount at 5 4 2006 or if this client has bulk transfer protection for tax free cash death benefits 33 does the scheme pay a lump sum on death benefit before retirement if so what and how much if a return of member contributions sum is paid what is the interest applied to the figure 34 what pension would the member s spouse and or dependants receive upon death before and after retirement pension flexibilities 35 please advise if any changes to the scheme are being considered which could impact on the member for example following the introduction of pension freedoms in 2015 will the scheme be offering : flexi - access drawdown for the member on retirement or beneficiaries on the member s death uncrystallised fund pension lump sum either on a full withdrawal or partial withdrawal basis or partial crystallisations if so please provide details additional voluntary contributions avcs associated defined contribution dc schemes 36 please provide details and options of any other associated scheme benefits the member may have and a valuation of these we would be grateful if this information could be emailed to us at test ifa fincorp com or alternatively sent to the postal address above clearly marked for the attention of test ifa 10 test road test street aa12 123 we look forward to hearing from you but should you have any queries in the meantime please do not hesitate to contact us on the details above yours faithfully test ifa</t>
   </si>
   <si>
     <t>fw : change of address for test pension - - - - - original message - - - - - from : abc xyz testmail com sent : 16 october 2020 12 : 59 to : test pensions pensions com subject : change of address for test pension dear sir ma am please note a change of address for a recipient of a test pension pension ref tst12345678 mrs abc of 10 test road test street aa12 123 has now moved to 10 test road test street aa12 123 banking details remain the same please update your records accordingly many thanks abc + 91 012345678</t>
   </si>
   <si>
-    <t>re : change of address - abcd hi test fund the members address has been updated thank you test pensions from : testfund fincorp com sent : 13 october 2020 18 : 14 to : test pensions pensions com subject : change of address - abcd nino - zz123123z dob - 01 01 1400 new address : 10 test road test street aa12 123 tel : + 91 012345678 email abc xyz testmail com could you please update your records with the members new address and contact details could you also previde him with his pension options see attached request kind regards test fund</t>
-  </si>
-  <si>
-    <t>fw : bonjour ! importance : high good afternoon i am trying to locate some information on a pension i hold with you under the test pension scheme i have received a number of booklets but no plan information regarding the benefits that i hold please see my details below : name : abc xyz dob : 1st january 1400 address : 10 test road test street aa12 123 please can you provide me with the following : type of pension plan defined benefit or defined contribution scheme rules for the section of the plan i am in current value and projected income normal retirement age please can i have the below via return email thanks abc xyz</t>
-  </si>
-  <si>
-    <t>re : change of bank for pension payment completed form attached as requested will you please confirm when actioned many thanks on tue 17 nov 2020 at 10 : 30 test pensions pensions com wrote : dear abc def retirement and employee scheme thank you for your email regarding the def retirement and employee scheme i have attached a change of bank details form for you to print and complete as appropriate you should return the form either via a scanned attachment in your email alternatively you can return the form to our postal address : test scheme post handling centre 10 test road test street aa12 123 please do not close your old bank account until you have received the first payment in your new account should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 13 november 2020 16 : 23 to : test pensions pensions com subject : fwd : change of bank for pension payment having now read your auto response to my email this is the extra information you require many thanks abc - - - - - - - - - - forwarded message - - - - - - - - - from : abc xyz testmail com date : fri 13 nov 2020 at 10 : 32 subject : change of bank for pension payment to : test pensions pensions com i wish to change the bank into which my dress pension is paid currently it is xx and from the november payment would you please pay it into the following please contact me by this email or by phone + 91 012345678 if you wish to ask any security questions also importantly please advise me if this switch will not be completed prior to the november payment which is due on november 26th as i have internal transfers to do once it is completed many thanks abc</t>
-  </si>
-  <si>
-    <t>fw : cetv request mr xyz following my email dated 28th october mr xyz has now left employment and is no longer an active member of the pension scheme please calculate and send his guaranteed transfer value cetv as soon as possible regards test ifa from : test ifa fincorp com sent : 28 october 2020 13 : 45 to : test pensions pensions com subject : cetv request mr xyz importance : high mr xyz 10 test road test street aa12 123 works number : tst12345678 dob : 01 01 1400 ni no : zz123123z i hold authority for mr xyz and request a cetv be sent to me for him as soon as possible thank you test ifa</t>
-  </si>
-  <si>
-    <t>fw : ref : - tst12345678 full name - mrs abc xyz d o b 01 01 1400 n i number : - zz123123z please see my email below sent from my iphone begin forwarded message : from : abc xyz date : 21 november 2020 at 11 : 01 : 43 gmt to : test pensions pensions com subject : ref : - tst12345678 hello i would just like to make an enquiry request about my pension please as the pension is quite minimal would it be possible to simply withdraw all the funds and close it down please advise me accordingly regards mrs abc xyz sent from my iphone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">abc xyz - zz123123z good afternoon please can you provide an update on the above members transfer request kind regards test ifa 10 test road test street aa12 123 t : + 91 012345678 e : test ifa fincorp com&lt;mailto : test ifa fincorp com </t>
-  </si>
-  <si>
-    <t>abc xyz i attach our client s authority please provide : - estimate of benefits at age 60 estimate of benefits at nrd cetv statement in anticipation thank you for your assistance regards test ifa</t>
-  </si>
-  <si>
-    <t>fw : letter of authority - abc good morning as this member has now opted out we would like to request a transfer pack asap please do let me know if there are issues asap regards test pensions from : test ifa fincorp com date : wednesday 15 april 2020 at 09 : 52 to : test pensions pensions com subject : letter of authority - abc dear sir or madam can you please provide me with the following information about the above policy please find attached a letter of authority from the client to enable you to release this information this can be emailed to test ifa fincorp com therefore please kindly provide me with the following information in writing; dates salary general information date of joining and leaving the scheme member s final pensionable salary is there a pension sharing order or pension earmarking order connected to this plan please provide the details of any cap which may apply for high earners marital status of this member the commutation factor used for an lta tax charge scheme accrual rate pension benefits at date of leaving scheme gmp benefits; showing any pre post 88 splits the rates of revaluation in deferment and escalation in payment excess benefits; showing any pre post 85 or 97 splits the rates of revaluation in deferment and escalation in payment list of any discretionary increases applied to pension either in deferment payment during last 5yrs breakdown of any transferred - in benefits; are the benefits treated the same as the main scheme benefits if not please highlight any differences is there a fixed pension at nra of service credit if no gmp contained does the member have any avcs if so how what is the current value do they have to be transferred with the main scheme benefits what funds are they invested in can the member switch into different funds where a scheme is still active is there an avc scheme available if so please provide details of the provider fund choices and charges current value of any avc the member holds can the member purchase added years can the member transfer in from external pensions can the avc scheme be used to fund tfc at retirement accrual rate commutation factor for tfc scheme retirement age early retirement is early retirement allowed if so from which age what actuarial reduction factors are currently applied to members pensions in the event of early retirement if a table of factors is not available please provide the percentage reduction applicable for each year early and whether this is compound or simple reduction would the member benefits be revalued to the date of actual or normal retirement upon early retirement if revalued to normal retirement at what assumed rate are benefits projected to normal retirement benefit payable now on a full pension basis and maximum pension commencement lump sum with reduced pension basis tax free cash member tfc at date of leaving would this amount revalue if so at what rate does the scheme pay hmrc post a - day maximum cash amount of pre a - day ir maximum cash at 5 4 2006 if protected what are the scheme current tfc commutation factors from nra to age 55 can the tfc be paid from any attached avc death benefits does the scheme pay a death before retirement lump sum if so what and how much what pension would the member spouse receive upon death before and after retirement what death after retirement guarantee does the scheme apply definition of pension payable on death spouse or dependent late retirement please provide late retirement factors which are applicable if the member should choose to retire beyond the scheme nra contracting out was the scheme contracted out pre post 06 04 1997 if yes for post 97 on what basis; reference scheme protected rights underpin mixed benefit transfer value total transfer value cetv ; showing any splits of gmp protected rights pre post 06 04 1997 calculation and guarantee dates also amount of member contributions included in the tv scheme information scheme s normal retirement age is the scheme open to all employees or are there restrictions if so what are they what is the scheme s current funding position would deferred members benefits be affected in any way if so how is the scheme a member of the transfer club will the scheme allow a partial transfer of benefits if yes please outline any restrictions that would be applied and or provide details of the basis on which a partial transfer would be allowed if no please confirm if there is more than one type section version of scheme membership which one applies to the member what date was the scheme equalised and the earliest age benefits can be taken unreduced if the transfer were to proceed would the scheme be insistent that all forms must be returned within the guarantee period or could some discretion be used at that time please forward copies of any warranty discharge forms that would need to be completed if the client decided to transfer their benefits thank you for your assistance in this matter yours faithfully def</t>
-  </si>
-  <si>
-    <t>fw : urgent : abc xyz - test pension fund our ref : 12345 urgent hi apologies for chasing but our client is very keen for us to acquire this information please can you provide an update on the progress of this information request and an estimated date we can expect a response with the information many thanks in advance please quote our client case number on all your replies 12345 regards abc xyz for and on behalf of fin corp ltd 10 test road test street aa12 123 + 91 012345678 fin corp testmail com from : abc xyz &lt;abc xyz testmail com sent : friday november 20 2020 8 : 18 pm to : test pension fund &lt;testfund fincorp com subject : fw : urgent : abc xyz - test pension fund our ref : 12345 urgent hi please can you provide an update on the progress of this information request and an estimated date we can expect a response with the information many thanks in advance please quote our client case number on all your replies 12345 regards abc xyz for and on behalf of fin corp ltd 10 test road test street aa12 123 + 91 012345678 fin corp testmail com from : abc xyz &lt;abc xyz testmail com sent : friday november 20 2020 8 : 18 pm to : test pension fund &lt;testfund fincorp com subject : urgent : abc xyz - test pension fund our ref : 12345 urgent please quote our client case number 12345 on all your replies hi please find attached pension information projections letter together with our client s signed letter of authority loa please provide us with the requested information as soon as possible by secure email if possible transfer discharge requirements : please enclose your discharge transfer encashment form please confirm what form of id is required from our mutual client please confirm if your funds can be paid directly to fin corp ltd for the client s benefit please confirm if the discharge encashment transfer of this plan is supported under the fin corp options pension transfer service please email : fin corp testmail com &lt;mailto : fin corp testmail com tel : + 91 012345678 regards abc xyz</t>
-  </si>
-  <si>
-    <t>change of address i am trying to change the address details for my def pension plan to 10 test road test street aa12 123 name : mr abc xyz : paye reference : tst12345678; national insurance number zz123123z : pension payroll number tst12345678 please change as above or advise me how it can be done because i cannot find a way to do it on line i look forward to your helpful reply kind regards abc xyz</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pre - identified user support request reply email address : abc xyz testmail com forename : abc surname : xyz ni number : zz123123z dob : 01 january 1400 home postcode : aa12 123 employer : test pension scheme subject : spouses pension content : although widowed i have been living with a partner for some years could you please advise me of any conditions i should be aware of relating to a spouses benefits should my death precede hers regards jkl</t>
-  </si>
-  <si>
-    <t>re : test pensions query as requested additional information name : abc xyz dob : 01 01 1400 ni : zz123123z i have recently had my pension transferred over to you my member reference is 12345678 i m all my previous correspondence from the previous supplier i had a pension age of 60 for some benefits and 63 for the remainder i note that on your website you show my normal retirement age as 65 please can you clarify why this change has been made thank you abc xyz from : abc xyz testmail com &lt;mailto : abc xyz testmail com date : sunday 22 november 2020 at 12 : 28 to : subject : test pensions query dear sir i have recently had my pension transferred over to you my member reference is 12345678 i m all my previous correspondence from the previous supplier i had a pension age of 60 for some benefits and 63 for the remainder i note that on your website you show my normal retirement age as 65 please can you clarify why this change has been made thank you abc xyz</t>
-  </si>
-  <si>
-    <t>final transfer value good morning can i please ask for a final guaranteed pension transfer value kind regards 10 test road test street aa12 123 payroll number 123456 n i number zz123123z</t>
-  </si>
-  <si>
-    <t>questions to test - re - send dob : 01 01 1400 nat insurance : zz123123z address : 10 test road test street aa12 123 on 01 jan 1400 at 12 : 06 testfund fincorp com wrote : dear test do you have a pension questionnaire which i can complete with any questions i may have are there any guarantees on the plan such as a guaranteed annuity rate or minimum pension amount am i correct in thinking that i can take option 2 the defined benefit and the defined contribution parts of the pension to re - invest that money whilst leaving the annual reduced pension with you to be delivered monthly defined benefit tax free cash sum : 108 757 54 plus : a reduced annual pension : 16 313 64 plus : pension money current value : 115 139 06 many thanks abc</t>
-  </si>
-  <si>
-    <t>urgent : pension transfer request good afternoon i worked for test pension fundas a data scientist from january 2018 - september 2019 i am now working for a university and would like to transfer my sainsbury argos pension into my teachers pension i have a form that has a section that needs to be completed by someone from test pension scheme it would be best done by hand so printed out but could be done electronically if necessary i would be very grateful if you could complete part c on the attached form and return to me by the end of this week kind regards abc xyz abc xyz + 91 012345678</t>
-  </si>
-  <si>
-    <t>test group pension scheme address : - 10 test road test street aa12 123 dob 01 01 1400 national insurance no zz123123z regards abc from : test pensions pensions com sent : 09 november 2020 11 : 29 to : abc xyz testmail com subject : test group pension scheme dear abc test group pension scheme thank you for your email regarding the test group pension scheme to enable us to answer your enquiry please could you provide your full address date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 05 november 2020 19 : 27 to : test pensions pensions com subject : test group pension scheme reference tst12345678 i am mailing you regarding my test group defined contribution plan reference tst12345678 i have now received two letters from you regarding a number of phone calls i have made and to be honest neither is of any use to me i have spoken to def on 26th october and xyz on 27th october 2020 both conversations after your latest letter dated 23rd october 2020 in a nutshell i want my investment of 111 paying to me in full under the small pots rule i can t understand why someone who can agree this cannot speak to me on the phone and i have also stated i would like to know what is happening by email rather than the ludicrous situation i have had so far where i ring your number holding on for 45 minutes on the last occasion for someone to answer where i tell them what i want and they pass it on to someone else and i receive a letter several days later with both letters being of no use whatsoever abc my contact number is + 91 012345678</t>
-  </si>
-  <si>
-    <t>re : ms abc xyz dear abc xyz my question has been answered and letter confirming revised pension calculation already received regards ms abc xyz on 21 nov 2020 at 03 : 28 &lt;test pensions pensions com &lt;test pensions pensions com wrote : dear abc xyz ms abc xyz thank you for your email regarding the test pensions fund please accept our apologies for the delay in responding to you to enable us to answer your enquiry please could you provide your full address date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely abc xyz administrator customer support centre 10 test road test street aa12 123 direct dial : + 91 012345678 test pensions pensions com - - - - - original message - - - - - from : abc xyz abc xyz testmail com sent : 14 november 2020 18 : 27 to : test pensions cc : test ifa subject : pension payment ref tst12345678 importance : high to abc xyz team manager i have today received a letter advising that i will receive a pension lump sum payment of 100 in december leaving me with a pension of 500 per annum i have signed documentation to request a pension lump sum payment of 100 only please update your records and recalculate my annual pension accordingly thanks ms abc xyz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">re : test pension scheme - trivial commutation factors hi lisa following on from your email below i just wanted to confirm that you are correct and the current trivial commutation factors do not allow for gmp equalisation and therefore trivial commutation for pensioners with 90 - 97 gmp is currently on hold please let me know if you need anything else on this kind regards abc xyz abc xyz senior consultant fin corp ltd fin corp ltd 10 test road test street aa12 123 t + 91 012345678 f + 91 012345678 abc xyz testmail com &lt;mailto : abc xyz testmail com www fincorp com &lt;http : www fincorp com from : abc xyz sent : 10 november 2020 15 : 46 to : test pensions cc : test ifa subject : test pension scheme - trivial commutation factors alert : this message originated outside of fin corp ltd network be cautious before clicking any link or attachment hi we have received a request from a pensioner asking if he can commute his pension in payment however the member has a small guaranteed minimum pension gmp earned between 1990 and 1997 i understand the monthly trivial commutation factors we hold do not allow for gmp equalisation and therefore the member is not currently able to commute his pension benefits please can you confirm my understanding is correct kind regards abc xyz pensions administration mercer abc xyz testmail com &lt;mailto : abc xyz testmail com </t>
-  </si>
-  <si>
-    <t>abc xyz - tst12345678 termination hi abc xyz fin : tst12345678 has signed to leave the business on the 18th december 2020 the documentation was sent two weeks ago he will now be leaving on 4th december due to a change in personal circumstances can you please let me know if there is anything i need to amend kind regards test ifa 10 test road test street aa12 123</t>
-  </si>
-  <si>
-    <t>moving my pension pot from test and leaving final salary scheme good morning i am looking to retire shortly and i want to cancel my membership from the test final salary scheme and move my pension pot to a private scheme where i can draw down from it i would be happy to take advice from yourselves as potential future managers of the pot my payroll number is tst12345678 name abc xyz 10 test road test street aa12 123 regards abc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">outstanding money hello i have a letter dated months ago stating that the outstanding cash sum would be paid shortly but have had no reply to several emails please deal with it now </t>
-  </si>
-  <si>
-    <t xml:space="preserve">re : test salaried contributory pension fund - xyz good afternoon can you please confirm the case is now in the implementation period and advise when this is due to complete thank you test ifa from : test pensions pensions com sent : 30 october 2020 14 : 46 to : test ifa fincorp com subject : test salaried contributory pension fund - xyz dear team test salaried contributory pension fund thank you for your email regarding the test salaried contributory pension fund please accept our apologies for the delay in responding to you please note i have checked our records and i can confirm that your request is with our administration team and is being processed you will hear from us shortly if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : test ifa fincorp com sent : 21 october 2020 17 : 40 to : test pensions pensions com subject : re : test salaried contributory pension fund - xyz importance : high good afternoon can you please provide an urgent update on the pension sharing order transfer we have tried to call but you are currently not taking phone calls and we are yet to receive a response to our emails please advise if you have any queries thank you test ifa from : test ifa fincorp com sent : 14 october 2020 16 : 20 to : test pensions pensions com subject : re : test salaried contributory pension fund - xyz good afternoon please could you advise that you have now received everything you require to proceed and process the transfer kind regards test pensions from : test ifa fincorp com sent : 07 october 2020 15 : 39 to : test pensions pensions com subject : re : test salaried contributory pension fund - xyz good afternoon following your letter please see attached receiving scheme agreement please advise if you require any further information to be able to process the transfer thank you test ifa from : test pensions pensions com sent : 24 september 2020 12 : 41 to : test ifa fincorp com subject : test salaried contributory pension fund - xyz dear test ifa test salaried contributory pension fund thank you for your email regarding the test salaried contributory pension fund i can confirm that i have forwarded your query to the administration team; once a response has been received we will be in touch accordingly if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : test ifa fincorp com sent : 23 september 2020 14 : 49 to : test pensions pensions com subject : re : test salaried contributory pension fund - xyz good afternoon can you please provide an update on the clients transfer we are yet to receive a response via email and you are not currently taking phone calls please advise if you have any queries thank you test ifa from : test pensions pensions com sent : 10 september 2020 16 : 15 to : test ifa fincorp com subject : test salaried contributory pension fund - xyz dear test ifa test salaried contributory pension fund thank you for your email regarding the test salaried contributory pension fund i can confirm i have forwarded your email to our administration department and they will be in contact shortly if any further information is required if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : test ifa fincorp com sent : 09 september 2020 11 : 55 to : test pensions pensions com subject : re : test salaried contributory pension fund - xyz good afternoon can you please provide an update on the clients transfer and advise if you now have everything to proceed thank you test ifa from : test pensions pensions com sent : 14 august 2020 17 : 30 to : test ifa fincorp com subject : test salaried contributory pension fund - xyz dear test ifa test salaried contributory pension fund thank you for your email regarding the test salaried contributory pension fund i have checked our records and can confirm that the correspondence was issued to member on 13th august 2020 please note that member will receive it shortly if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : test ifa fincorp com sent : 12 august 2020 11 : 40 to : test pensions pensions com subject : re : test salaried contributory pension fund - xyz good morning please could you provide a rough timescale we can expect to hear from you with an update on this one kind regards test ifa from : test pensions pensions com sent : 05 august 2020 11 : 05 to : test ifa fincorp com subject : test salaried contributory pension fund - xyz dear test ifa test salaried contributory pension fund thank you for your email regarding the test salaried contributory pension fund please accept our apologies for the delay in responding to you i can confirm i have forwarded your email to our administration department and they will be in contact shortly if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com did you know that member s can access and manage their pension online by logging into their test account yours sincerely test pensions from : test ifa fincorp com sent : 30 july 2020 12 : 40 to : test pensions pensions com subject : re : test salaried contributory pension fund - xyz good afternoon the transfer is in relation to a pension sharing order can you please advise when we can expect to receive the funds your clients details are : xyz thank you test ifa from : test pensions pensions com sent : 22 july 2020 13 : 28 to : test ifa fincorp com subject : test salaried contributory pension fund - xyz dear test ifa test pension fund thank you for your email regarding the test pension fund please accept our apologies for the delay in responding to you to enable us to answer your enquiry please could you provide the member full address date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : test ifa fincorp com sent : 14 july 2020 08 : 57 to : test pensions pensions com subject : abcd - xyz - tst12345678 good afternoon we are processing a transfer for the above client as part of a pension sharing order can you please confirm you have received the transfer documents and advise if the case is now being processed thank you test ifa </t>
-  </si>
-  <si>
-    <t>urgent : lmn - test avc abcd our ref : tst12345678 urgent urgent urgent please can someone give us an urgent update on the attached loa and information request the client is looking for an update so would appreciate a current timescale just so as we can manage the client expectations many thanks please quote our client case number on all your replies tst12345678 test admin from : test admin pensions com sent : 06 november 2020 18 : 02 to : test pensions pensions com&lt;mailto : test pensions pensions com subject : urgent : lmn - test avc abcd our ref : tst12345678 please quote our client case number tst12345678on all your replies hi please find attached pension information projections letter together with our client s signed letter of authority loa please provide us with the requested information as soon as possible by secure email if possible transfer discharge requirements : please enclose your discharge transfer encashment form please confirm what form of id is required from our mutual client please confirm if your funds can be paid directly to xyz management for the client s benefit please confirm if the discharge encashment transfer of this plan is supported under the test options pension transfer service please email : test admin pensions com tel : + 91 012345678 regards test admin</t>
-  </si>
-  <si>
-    <t>test penison scheme member ref : tst12345678 many thanks for your letter of 1st january 1400 regarding the options for taking my pension benefits having taken advice on this matter and considering my current personal situation i would like to know if it would be possible to defer taking my pension benefits for potentially a further three years according to your guide notes this may be possible but is dependant on scheme rules at the time of enrolment into the scheme the normal retirement date was upon reaching the age of 60 as you are aware subsequent changes have resulted in my state pension retirement age now increasing to 66 years and 8 months which is not until 2030 i plan to formally retire with my husband when he reaches the age of 65 which will be in 2025 i would therefore like to delay taking my pension benefits for 2 years if this is possible please advise best regards mrs abc xyz email abc xyz testmail com</t>
-  </si>
-  <si>
-    <t>re : test pension scheme hi team with reference to below email member has given her new address and son s address as well and also we are unable to accept change of address request from son s email id could you please write back to member to confirm correspondent address and due to data protection purpose we are not able to accept the below request through email please provide us with the letter of authority which must be signed and dated by you within the last 12 months via post and also it should include your full name date of birth national insurance number and full address regards test pensions from : test pensions pensions com sent : 02 november 2020 21 : 08 to : abc xyz testmail com subject : test pension scheme dear abc test pension scheme thank you for your email regarding the test pension scheme your request for change of address has been logged and you will receive a written response from our administration department within 10 - 15 working days due to data protection purpose we are not able to accept the below request through email please provide us with the letter of authority which must be signed by you within the last 12 months and also it should include your full name date of birth national insurance number and full address if you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely test pensions - - - - - original message - - - - - from : abc xyz testmail com sent : 29 october 2020 17 : 40 to : test pensions pensions com subject : change of address and appointee abc national insurance number : date of birth address : i have two requests 1 i would like my son to be given full authority appointee to deal with all corespondent on my behalf from now on his details are as follows : name : date of birth : address : telephone : + 91 012345678 2 i have moved address on 23rd october 2020 my new address to send correspondence to is as follows : please can you update your records regards abc</t>
-  </si>
-  <si>
-    <t>change of details good morning i would like to notify of my change of name and address previous brown nocolour of 00 clarant ride teakwood road bb00 0bb now brown colour 0 greenland road penselvansey bay east sunset bn11 1bb regards brown colour sent from my ipad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">re : test pensions plan - : mr abc xyz external thank you for coming back to us i can confirm what we have received the details required and the payment has been applied appropriately kind regards abc xyz 10 test road test street aa12 123 + 91 012345678 from : test pensions pensions com sent : 18 november 2020 05 : 40 to : test pensions subject : test pensions plan - : mr abc xyz external dear abc xyz test pension fund thank you for your email regarding the test pension fund to enable us to answer your enquiry please could you provide member s full address date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com yours sincerely abc xyz administrator customer support centre 10 test road test street aa12 123 direct dial : + 91 012345678 test pensions pensions com from : abc xyz abc xyz testmail com sent : 13 november 2020 15 : 52 to : test pensions subject : mr abc xyz - transfer out tst12345678 good afternoon we have received the transfer payment of 100 for our above mutual client however we require further information to be able to process this please confirm the following is this payment crystallised or uncrystallized is this payment from a personal or occupational pension scheme if occupational is it defined contribution or defined benefit kind regards abc xyz platform administrator new money fin corp ltd </t>
-  </si>
-  <si>
-    <t>employee no 132456 hi im an ex employee trying to find all my old pensions from ex employers please could you inform me of steps required in obtaining my contribution while i worked for dsg i am planning on combining all of my pensions so need the data regards abc xyz</t>
-  </si>
-  <si>
-    <t>tst12345678 abc xyz reference tst12345678 abc xyz hi could you please change my address from 30 test road test street au12 123 to 10 test road test street aa12 123 kind regards abc</t>
-  </si>
-  <si>
-    <t>loa - transfer value request importance : high dear test pensions please see attached letter of authority please can you provide the requested information including a transfer value and a transfer pack for a sipp please advise timescale for receiving this information many thanks and please let us know if you need anything further kind regards test ifa 10 test road test street aa12 123 email : test ifa fincorp com&lt;mailto : test ifa fincorp com phone mobile : + 91 012345678</t>
-  </si>
-  <si>
-    <t>re : test death approval - lmno tst12345678 test pensions i agree with the recommendation from : test pensions pensions com sent : 05 october 2020 16 : 16 to : testfund fincorp com subject : fw : test death approval - lmno tst12345678 test lmno death in retirement further to our email below we note that we have only received a response from xyz can we please have the additional responses so that we can proceed with the case kind regards test pensions from : test pensions pensions com sent : 03 september 2020 17 : 20 to : testfund fincorp com subject : test death approval - lmno tst12345678 test lmno death in retirement please find attached the documentation relating to the above late member who died whilst in receipt of his pension as the member was a the committee are being asked to consider the lump sum death benefit of 1 500 only this case is being referred to the committee as there is conflict between the nomination form and the will the form is in favour of his nephew mr jkl and the will not signed or dated in favour of his sister mrs abc it would be our recommendation that the lump sum is paid to his nephew in accordance with his nomination form please would you agree with this recommendation kind regards test pensions</t>
-  </si>
-  <si>
-    <t>test pension scheme reference tst12345678 dear sir madam mr abc ni : zz123123z 10 test road test street aa12 123 thank you for your email would you kindly provide me with a list of funds that my test pension scheme are held in and the that is held within each fund please email or by post to my address yours faithfully mr abc + 91 012345678 abc xyz testmail com - - - - - - - - - - forwarded message - - - - - - - - - from : test pensions pensions com date : wed 4 nov 2020 at 19 : 42 subject : test pension scheme reference tst12345678 to : abc xyz testmail com dear abc test pension scheme thank you for your email regarding the test pension scheme i have checked our records and can confirm that the correspondence was issued to def ltd on 29th october 2020 please note that you will receive it shortly if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 02 november 2020 17 : 26 to : test pensions pensions com subject : test pension scheme reference tst12345678 dear sir madam test pension scheme abc reference : tst12345678 national insurance number : i refer to your letter dated 28th october 2020 a copy of which is attached for your reference and to my telephone conversation with test pensions today i can confirm that i have given def ltd my full authority to act on my behalf regarding all matters relating to my test pension scheme would you please provide them with a transfer value statement as requested by them and any other information that they may request regarding my pension yours faithfully abc 10 test road test street aa12 123</t>
-  </si>
-  <si>
-    <t>re : warning : message encrypted test pension scheme message encrypted hello thank you for your email; regarding the password protection; you will have realised we live in australia; so phoning a tel number is not an option : you are not making this easy at all please provide email link or other option plus and much more importantly; i forwarded original documentation to you; you have not acknowledged receipt or that you have forwarded the death cert our marriage cert or my birth cert back to me; please organise this if not already in transit as i have not heard back and i did ask that someone let me know the documents arrived there safely and when they would be returned to me i require these documents to finalise abc s tax return here in australia i look forward to hearing from you at your earliest convenience thank you abc - - - - - original message - - - - - from : test pensions pensions com to : abc xyz testmail com sent : fri 20 nov 2020 12 : 16 subject : warning : message encrypted test pension scheme message encrypted our reference : tst12345678 member : mr abc xyz dear mrs abc xyz i write with reference to the above late member s benefits from the scheme please find attached a death pack this document has been password protected for security reasons please contact us on the number below to obtain the password required to access this document should you have any further queries please do not hesitate to contact the test pensions scheme customer service team between 9 00am and 5 00pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com kind regards test pensions test pensions 10 test road test street aa12 123 direct dial : + 91 012345678</t>
-  </si>
-  <si>
-    <t>change of address abc xyz nino - zz123123z dob - 01 01 1400 reference - tst12345678 new address : 10 test road test street aa12 123 tel : + 91 012345678 could you please update your records with the members new address kind regards abc + 91 012345678</t>
-  </si>
-  <si>
-    <t>re : test pension scheme address 10 test road test street aa12 123 on mon 23 nov 2020 05 : 07 &lt; testscheme fincorp com &lt;mailto : testscheme fincorp com wrote : dear abc xyz test pension scheme thank you for your email regarding the test pension scheme i can confirm that you are able to transfer either your defined benefits or defined contribution benefits subject to trustees consent in order to assist you further please could you provide your full address for data verification purposes should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com &lt;mailto : test pensions pensions com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 from : abc xyz &lt;abc xyz testmail com sent : 19 november 2020 20 : 13 to : test pension fund subject : ref tst12345678 hi i am writing to enquire whether there is an option to transfer my defined contribution and or my defined benefit rnib pension fund to an test pension fund ie if i wanted to would i be allowed under this scheme abc xyz</t>
-  </si>
-  <si>
-    <t>pension fund equiry hello my name is abc xyz i have resent this mail with some more details i have a pension fund with you i worked for test pensions many years ago i m not sure what the policy number is but i can give you a couple of references that may help : my national insurance number is : zz123123z address : abc xyz 10 test road test street aa12 123 date of birth : 1st january 1400 also i found this reference number within correspondence from you not sure if this is my policy number tst12345678 what i would like to do is bring the pension fund into drawdown take some cash out and re - invest the remaining amount can you advice on the next steps do you need to send a info pack to me look forward to hearing from you regards abc xyz</t>
-  </si>
-  <si>
-    <t>pension summary hi i m in the test pensions scheme i ve logged into fin corp to have a look at my pension summary and it s only showing me my pension summary as at 01 jan 1400 is there a reason for this also i have tried to get an early retirement quote calculation but it has been unable to calculate my quote can you help national insurance number zz123123z regards abc xyz</t>
-  </si>
-  <si>
-    <t>request for pension details abc - ref : tst12345678 hi team please see below query and reply accordingly thank you test pensions from : test ifa fincorp com sent : 06 november 2020 16 : 15 to : test pensions pensions com subject : request for pension details abc - ref : tst12345678 to whom this may concern please find attached a letter of authority for client abc in relation to their policies plans held with you i have attached a standard schedule setting out the information we require in connection with any policies held by the client with yourselves along with a full information questionnaire if you so wish to use if you could please fully answer all questions and return the schedule by email or post as soon as possible it would be very much appreciated if there are any additional features of the scheme that are relevant to any decision that might be made by our client to exercise any options under the scheme which are not covered in this schedule please ensure that the relevant information is provided we would like to draw your attention to the fact that where the member is entitled to draw immediate retirement benefits we have asked you to provide a quotation for this in addition to the transfer data please also provide all relevant discharge transfer and open market option documents for any options involving immediate retirement or transfer if you anticipate that there will be a significant delay in providing all or any of the information requested please contact us immediately to indicate when the details will be supplied kind regards def</t>
-  </si>
-  <si>
-    <t>abc test pensions tst12345678 urgent hi please can you provide an update on the progress of this information request and an estimated date we can expect a response with the information many thanks in advance please quote our client case number on all your replies tst12345678 regards test ifa from : test ifa fincorp com sent : 10 november 2020 12 : 05 to : test pensions pensions com&lt;mailto : test pensions pensions com subject : abc test pensions tst12345678 urgent urgent urgent urgent please can someone give us an urgent update on the attached loa and information request the client is looking for an update so would appreciate a current timescale just so as we can manage the client expectations many thanks please quote our client case number on all your replies tst12345678 test ifa from : test ifa fincorp com sent : 06 november 2020 18 : 02 to : test pensions pensions com&lt;mailto : test pensions pensions com testfund fincorp com&lt;mailto : testfund fincorp com subject : abc test pensions tst12345678 urgent please quote our client case number tst12345678 on all your replies hi please find attached pension information projections letter together with our client s signed letter of authority loa please provide us with the requested information as soon as possible by secure email if possible transfer discharge requirements : please enclose your discharge transfer encashment form please confirm what form of id is required from our mutual client please confirm if your funds can be paid directly to st james s place wealth management for the client s benefit please confirm if the discharge encashment transfer of this plan is supported under the origo options pension transfer service please email : tst12345678 tel : + 91 012345678 regards test ifa</t>
-  </si>
-  <si>
-    <t>abc xyz - test pensions for senior staff - case ref : tst12345678 dear def further to your telephone call on 12 november 2020 and subsequent calls on 17 and 18 november 2020 please accept my sincere apologies for the delay in providing the revised transfer value for mr abc xyz we do pride ourselves on the quality of service that we deliver to our corporate clients trustees and most importantly individual members we receive relatively few complaints and do take any very seriously we are sorry about your dissatisfaction you have had to wait so long for the information you requested i can advise that an email has been issued earlier today providing the transfer information on behalf of myself and the team at mercer we would like to extend our apologies for any inconvenience caused and trust that you will be reassured that we do seek to minimise the number of occasions on which matters such as this arise should you have any further queries or cause for concern please do not hesitate to contact us on the number quoted below your sincerely test pensions postal address : 10 test road test street aa12 123 helpline : + 91 012345678</t>
-  </si>
-  <si>
-    <t>hello can i ask for final guaranteed transfer value please thank you abc xyz 10 test road test street aa12 123 zz123123z clock number 12345</t>
-  </si>
-  <si>
-    <t>test salaried contributory pension fund - mr abc xyz good morning do you have an update on the below please kind regards test ifa adviser support test ifa 10 test road test street aa12 123 tel : + 91 012345678 email : test ifa fincorp com dear test ifa test salaried contributory pension fund thank you for your email regarding the test salaried contributory pension fund i can confirm i have forwarded your email to our administration department and they will be in contact shortly if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : test ifa fincorp com sent : 28 october 2020 14 : 15 to : test pensions pensions com subject : re : test salaried contributory pension fund - mr abc xyz good morning thank you for confirming the below do you have any timescale for when the leaver notification will be processed and when we the client can expect to receive the transfer pack kind regards test ifa from : test pensions pensions com sent : 28 october 2020 08 : 37 to : test ifa fincorp com subject : test salaried contributory pension fund - mr abc xyz this message originated outside your organization dear test ifa test salaried contributory pension fund thank you for your email regarding the test salaried contributory pension fund please accept our sincerest apologies for the delay in responding to you please note that we have received member s leaver notification which is under review once this process is complete we will provide you with the requested transfer pack please be advised that as member is an still active employee of the test motor company all requests for retirement figures must be made through your hr representative please contact hr department for further information if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : test ifa fincorp com sent : 21 october 2020 15 : 53 to : test pensions pensions com subject : test salaried contributory pension fund - mr abc xyz dear sir madam re : i attach a signed letter of authority password protected with the member s dob : dd mm yyyy i would ask you to supply a scheme benefit leaver s statement together with confirmation of the following : current transfer value very important immediate retirement quote and quote at normal retirement age very important gmp pre and post 97 benefits - breakdowns and amounts inc s9 2b does gmp franking apply total pension at a day revaluation and escalation rates of the scheme - very important please specify rpi cpi etc plus min and max levels service dates and salary levels at date of leaving confirmation of tax - free cash details of the commutation factor for tax - free cash widows and lump - sum death benefits guarantee period in years whether any in house avc is included and is so whether the easement introduced by a day on 6th april 2006 a higher proportion than 25 of the tfc may be commuted depending on main scheme benefits details of early and late retirement factors age at which member is entitled to an unreduced pension commutation factor applicable for early retirement if pre a day max tfc is there a money purchase underpin is the scheme contracted out scheme funding status overall funding position scheme open or closed if closed please specify date transfer forms if you have any questions concerning the above please do not hesitate to call me on the number at the bottom of this letter sincerely test ifa adviser support test ifa 10 test road test street aa12 123 tel : + 91 012345678 email : test ifa fincorp com</t>
-  </si>
-  <si>
-    <t>re : test pension fund - our ref : tst12345678 good morning thank you for your email please find attached the client s letter of authority with the requested information the document is password protected password to follow in separate email if you have any queries please don t hesitate to contact us many thanks test ifa from : test pensions pensions com sent : 02 november 2020 10 : 03 to : test ifa fincorp com subject : ford pension fund dear test ifa test pension fund thank you for your email regarding the test pension fund to enable us to answer your enquiry please could you provide the member full address date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely tets pensions from : test ifa fincorp com sent : 23 october 2020 16 : 11 to : test pensions pensions com subject : tst12345678 0123456789 good afternoon please can you provide an update on our mutual clients pension transfer many thanks test ifa</t>
-  </si>
-  <si>
-    <t>change of address dear test pensions re : test pension plan i wish to inform you of my new address royal mail is currently redirecting my mail for a fixed period i could not get through to you on the telephone you can call my mobile but my landline has changed both the home and the work lines please advise - do i email you my new address i am assuming post may not be received or opened in your office if staff are working from home yours sincerely abcd + 91 012345678</t>
-  </si>
-  <si>
-    <t>burger fries fin : 100000 retirement quote importance : high please can i request a ser quote for the above employee due to separate from the company on 1st january 1400 many thanks kind regards</t>
-  </si>
-  <si>
-    <t xml:space="preserve">password reset hi team please assist with the following kind regards abc xyz administrator benpal helpdesk customer support centre fin corp ltd 10 test road test street aa12 123 t + 91 012345678 from : abc xyz &lt;abc xyz testmail com sent : 20 november 2020 18 : 42 to : fin corp support subject : password reset hi i tried a password reset earlier this evening i messed it up and tried again i guess i have upset the system as i m not receiving reset details now can you help regards abc xyz fin corp ltd </t>
-  </si>
-  <si>
-    <t>re : test salaried contributory pension fund address on file : 10 test road test street aa12 123 new address 102 test road test street ea12 123 thanks and regards abc - - - - - - - - original message - - - - - - - - from : test pensions pensions com date : 17 11 20 4 : 37 pm gmt + 10 : 00 to : abc xyz testmail com subject : test salaried contributory pension fund dear test pensions test salaried contributory pension fund thank you for your email regarding the test salaried contributory pension fund please accept our sincerest apologies for the delay in responding to you to enable us to answer your enquiry please could you provide your full address for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 10 november 2020 13 : 24 to : test pensions pensions com subject : current proof of pension importance : high test scheme number dear sir or madam i have been asked for proof of my current test pension payments the financial institution i am dealing with will not accept documents older than two months and the most recent i have are from january 2018 they will accept proof in the form of an email attachment hopefully this is something you can respond to quickly further to this i am still waiting for a reply to my email of 6th november where i asked for clarification on an overpayment into my account best regards abc</t>
-  </si>
-  <si>
-    <t>change of address - mrs abc i am writing to advise you that i have recently moved house and my new address is : 2 test road test street ee12 123 i am not sure if you have my last address listed as : 10 test road test street aa12 123 if not then i it will be : 2 test road test street ee12 123 should you need any further information then please contact me on + 91 012345678 kind regards abc</t>
-  </si>
-  <si>
-    <t>fw : abcd query hello team please see below query and reply accordingly to the member ifa many thanks test pensions from : test ifa fincorp com sent : 30 november 2020 17 : 33 to : test pensions pensions com subject : abcd query hi please find attached a letter of authority and scheme information request letter that was previously sent to xyz in september 2020 can you please confirm receipt and arrange for this information to be provided to me as a matter of urgency we have received other cetv s for this client which are administered by yourselves which are due to expire at end of december 2020 therefore we would appreciate your assistance to expedite this request we have unfortunately spent some time trying to trace the administrators of this scheme and i understand the benefits were invested through xyz your assistance in this matter would be gratefully appreciated password to follow kind regards test ifa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test pensions letter of authority - abc good morning test pension scheme reference : tst12345678 member name : mr abc thank you for your letter of 3 november please find attached a new signed letter of authority from mr abc can you please let me know if you are able to provide the information requested in my previous email kind regards test ifa from : abc xyz testmail com sent : 07 november 2020 10 : 10 to : test ifa fincorp com&lt;mailto : test ifa fincorp com subject : re : test pensions letter of authority - abc hi test ifa pls find attached scanned authorisation letter regards abc on fri 6 nov 2020 at 18 : 21 kate davis &lt;test ifa fincorp com&lt;mailto : test ifa fincorp com wrote : hi abc i have just had a reply from test pensions they need a new letter of authority could you please print sign and return the attached to me and i will send it off so we can get access to your scheme information many thanks kind regards test ifa mobile + 91 012345678 email test ifa fincorp com&lt;mailto : test ifa fincorp com </t>
-  </si>
-  <si>
-    <t>change of address from 2 test road please note that as from 27th november my address will be as follows : 10 test road test street aa12 123 payroll reference : tst12345678 dob : 01 january 1400 should you require any further information please do not hesitate to contact me regards abc</t>
-  </si>
-  <si>
-    <t>change of address - tst12345678 good afternoon please could i request that my address is amended to the following : 10 test road test street aa12 123 i am unable to amend the details on the benpal website your help in this matter is most appreciated warmest regards abc xyz tst12345678 former employee of def</t>
-  </si>
-  <si>
-    <t>policy ref : 13245 dear sirs re : policy ref 132456 mrs abc xyz 10 test road test street aa12 123 date of birth 01 01 1400 ni : zz123123z my employment at yorkshire water ceased on 01 01 1400 and i am writing to request early retirement quotation estimation calculations from you for the following options : 01 01 1400 with lump sum and without lump sum options - age 58 01 01 1400 with lump sum and without lump sum options - age 60 i look forward to hearing from you soon yours faithfully mrs abc xyz</t>
-  </si>
-  <si>
-    <t>def group pension plan hi team please see below query and reply accordingly many thanks test pensions from : abc xyz testmail com sent : 18 november 2020 12 : 59 to : test pensions pensions com subject : fw : def group pension plan hi my full address is 10 test road test street aa12 123 abc xyz + 91 012345678 10 test road test street aa12 123 from : test pensions pensions com sent : 18 november 2020 12 : 54 to : abc xyz testmail com subject : def group pension plan dear mrs abc def group pension plan thank you for your email regarding the def group pension plan to enable us to answer your enquiry please could you provide your full address for data verification purposes should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 16 november 2020 08 : 33 to : test pensions pensions com subject : re : thank you for contacting the def group pension plan morning as indicated by the you email below please see the details requested full name abc xyz date of birth national insurance number i am wanting to know how i can get view me pension statement abc xyz + 91 012345678 10 test road test street aa12 123 from : test pensions pensions com sent : 16 november 2020 08 : 25 to : abc xyz testmail com subject : thank you for contacting the def group pension plan thank you for contacting the def group pension plan we confirm receipt of your enquiry and will aim to respond within 2 working days we are unable to deal with your request if you have not provided your full name date of birth and national insurance number if this is the case please re - send your original email including this information please note that if you have flagged your email as personal private or confidential it will be hidden from our view so please resend the message to us removing the flag before you send it why do we request this information so that we can ensure that we identify and respond to the correct person in accordance with data protection act regulations you may not wish to provide this information via e mail in which case we can deal with your enquiry via telephone or in writing please use either of these methods to contact us if this is the case we are unable to proceed with your enquiry via e mail without the information requested if you wish to change your address or bank account information def only accept signed written requests sent to our office regards test pensions</t>
-  </si>
-  <si>
-    <t>abc xyz deceased dear sirs we refer to the above and attach a letter and grant of probate for abc xyz the originals of the attached will be sent out in the post this evening we look forward to hearing from you yours faithfully abc xyz fin corp ltd t : + 91 012345678 e : test pensions pensions com 10 test road test street aa12 123</t>
-  </si>
-  <si>
-    <t>fw : test pension scheme - member reference zz123123z importance : high hello team please see below query and reply accordingly to the member ifa many thanks abc xyz - agent - customer support centre 10 test road test street aa12 123 + 91 012345678 abc xyz testmail com &lt;mailto : abc xyz testmail com from : abc xyz abc xyz testmail com sent : 23 november 2020 07 : 09 to : test pensions subject : re : test pension scheme - member reference zz123123z importance : high good morning approximately 10 days ago i informed test pensions that the course of action i wished to take was to start receiving my pension benefits in january 1400 they said that they had contacted the appropriate people and that i should hear something to that effect i have not heard anything thus far can you please update me asap there approximately 3 weeks until my pension is due to commence regards abc xyz from : test pensions pensions com sent : wednesday september 23 2020 8 : 12 am to : abc xyz testmail com subject : test pensions scheme dear abc xyz thank you for your email your request has been logged and you will receive a written response from our administration department within 10 - 15 working days should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely from : abc xyz abc xyz testmail com sent : 21 september 2020 11 : 39 to : test pensions subject : pension information pack importance : high good afternoon please can you tell me if my information pack has been sent yet thank you regards abc xyz</t>
-  </si>
-  <si>
-    <t>pension details hi team please assist with the following kind regards abc xyz administrator benpal helpdesk customer support centre fin corp ltd 10 test road test street aa12 123 t + 91 012345678 from : abc xyz &lt;abc xyz testmail com sent : 20 november 2020 14 : 15 to : fin corp support &lt;fin corp testmail com subject : fw : pension details from : abc xyz sent : friday november 20 2020 2 : 15 pm to : fin corp testmail com &lt;mailto : fin corp testmail com subject : pension details hi i have never been provided a log in or password for my pension scheme can this be sent over asap please abc xyz 10 test road test street aa12 123 regards</t>
-  </si>
-  <si>
-    <t>mr lmno test group pension scheme ref tst12345678 dear sir madam i write to you as representative of my father lmno to inform you that he sadly passed away on 1st january 1400 my understanding is that lmno has two pensions with test 111 11 and 11 11 net month if you can please let me know what needs to happen next and if you require any further information from me at this time thank you abc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test pensions - abc xyz - 12345 - funeral fee to : test pensions please can you settle funeral payment in relation to test pensions of abc xyz fin 12345 the funeral payment was settled by mr abc s brother abc xyz copy of funeral invoice and confirmation of payment from mr abc xyz are attached sort code : 01 - 02 - 03 a c ending 123 kind regards abc xyz supervisor - hr welfare team 10 test road test street aa12 123 tel : + 91 012345678 fax : + 91 012345678 email : in corp testmail com from : abc xyz sent : 26 october 2020 13 : 09 to : abc xyz subject : abc xyz funeral items hello abc please find attached the invoice and full payment details for my brother abc xyz s funeral many thanks abc xyz </t>
-  </si>
-  <si>
-    <t>re : ghij paid pension fund good afternoon the below was acknowledged with thanks on thu nov 19 2020 6 : 13 am test pensions pensions com wrote : dear mrs abc ghij paid pension fund thank you for your email regarding the ghij paid pension fund please accept our apologies for the delay in responding to you i have checked the record and i can confirm that we have updated your address and a correspondence was also issued to you on 17th november 2020 stating the same we have informed payroll team to reinstate your pension payment if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 11 november 2020 13 : 57 to : test pensions pensions com subject : re : ghij paid pension fund good afternoon i have been trying to contact your offices by phone but whenever i did today the phone call was disconnected the rep i spoke seemed to have sighed then disconnected the interaction i have been trying to resolve this matter for two months now i have signed your form and returned same to you via express mail i have tried calling to update my address and i have verified myself a 1000 times over in light of the pandemic i rely heavily on my pension and it was unfortunate that same was discontinued without proper notice your agents appear to be very rude to me whenever i call and when the call is dropped no one calls me back i had moved from my previous location and called earlier on to advise you of same i was assured my address was updated kindly provide an update on the receipt of the verification form and more importantly advise me on when payments can continue my nino is dob my address is my contact is + 91 012345678 warm regards abc xyz on fri oct 16 2020 at 4 : 46 am test pensions pensions com&lt;mailto : test pensions pensions com wrote : dear abc ghij paid pension fund thank you for your email regarding the ghij paid pension fund i can confirm that your current address is not updated in our records in order to update your address please arrange for the attached verification form to be completed and returned via post to the address detailed below test post handling centre 10 test road test street aa12 123 once your address is updated we will proceed with your request also please could you provide your date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 14 october 2020 16 : 47 to : test pensions pensions com subject : re : ghij paid pension fund : member number good morning my national insurance number is normally by this time i would received 45 pounds paid out by the 6th of the month and received by the 12th however my local bank has not yet received same kindly confirm if it was sent warmest regards abc xyz</t>
-  </si>
-  <si>
-    <t>re : test pension fund - late lmno dear sirs we can confirm the following information as requested : lmno address : 10 test road test street aa12 123 date of death : 1st january 1400 national insurance no : zz123123z we look forward to hearing from you abc from : test pensions pensions com sent : 06 october 2020 11 : 10 to : abc xyz testmail com subject : test pension fund - late lmno dear test ifa test pension fund thank you for your email regarding the test pension fund to enable us to answer your enquiry please could you provide the member full address date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : test ifa fincorp com sent : 02 october 2020 16 : 23 to : test pensions pensions com subject : lmno deceased - reference : tst12345678 dear sirs we are in receipt of your letter dated 16 june 2020 to miss abc we can confirm that miss abc has appointed test ifa to act on her behalf in relation to the administration of the estate of her late father lmno we have noted the overpayment of pension which is due back from the estate unfortunately we have not yet obtained letters of administration and therefore do not have access to the requisite funds to reimburse you however we will be in touch in that regard with an update as soon as we are able on a separate note we have arranged for the funeral benefit form to be signed and we will return this to you in due course in the meantime please find enclosed the funeral receipt and invoice we look forward to hearing from you yours faithfully test ifa</t>
-  </si>
-  <si>
-    <t>urgent tst12345678 defg good morning i appreciate that you are very busy at present i have been trying the phone lines and just keep getting automated messages saying my call cannot be taken we have submitted transfer out paperwork for defg tst12345678 zz123123z 01 01 1400 aa12 123 the documents were signed for in your offices on 18 11 2020 and the guarantee date for the cetv is 30 11 2020 i just please need confirmation that the cetv is secured by the confirmation that the paperwork reached your offices well in advance of the guarantee date despite your current workloads if you are able to advise of your current turnaround times then this would also be appreciated - - kind regards test ifa</t>
-  </si>
-  <si>
-    <t>re : change of address - ref tst12345678 good morning i have a pension scheme with you test group pension scheme 1400 with my reference no tst12345678 my name and dob are : abc xyz 01 01 1400 national insurance no : zz123123z i am writing to you to let you know of my change of address my new address is in xx : 10 test road test street aa12 123 my previous address was at 102 test road test street ea12 123 please could you update my personal details accordingly additionally i would like to update my beneficiary how can i do this finally i would like to be able to loggin to my account online what is the process please could you register me please many thanks abc xyz + 91 012345678 on tue 17 nov 2020 at 10 : 37 abc xyz testmail com&lt;mailto : abc xyz testmail com wrote : good morning i have a pension scheme with you test group pension scheme 1400 with my reference no tst12345678 i am writing to you to let you know of my change of address my new address is in france : 10 test road test street aa12 123 please could you update my personal details accordingly additionally i would like to update my beneficiary how can i do this finally i would like to be able to loggin to my account online what is the process please could you register me please many thanks abc xyz + 91 012345678</t>
-  </si>
-  <si>
-    <t>documents relating to your claim dear test scheme please find attached the following documents relating to your claim : info request pdf info request - 1 signed fscs declaration and consent pdf if you have any questions please contact us on test pensions pensions com make sure you include your fscs reference number in the subject line of the email so that we know which claim your information applies to yours sincerely customer service team</t>
-  </si>
-  <si>
-    <t>re : test pension fund dear abc xyz please find enclosed the information you requested nat ins no zz123123z 10 test road test street aa12 123 d o b 01 01 1400 yours sincerely abc xyz sent from my iphone on 20 nov 2020 at 15 : 30 testfund fincorp com &lt;mailto : testfund fincorp com wrote : dear abc xyz test pension fund thank you for your email regarding the test pension fund please accept our apologies for the delay in responding to you to enable us to answer your enquiry please could you provide your full address date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at testfund fincorp com &lt;mailto : testfund fincorp com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 www fincorp com &lt;http : www fincorp com - - - - - original message - - - - - from : abc xyz abc xyz testmail com sent : 13 november 2020 11 : 17 to : test pension fund cc : test ifa subject : car fin no zz123123z please be advised that no car payment has been taken out in november abc xyz sent from my ipad</t>
-  </si>
-  <si>
-    <t>change of address good morning i have a pension with you and wish to notify you of my new address abc xyz date of birth 01 01 1400 national insurance number zz123123z old employee number tst12345678 old address 10 test road test street aa12 123 new address 102 test road test street ee12 123 please can you let me know that you have changed my address thank you abc</t>
-  </si>
-  <si>
-    <t>re : def trust pension plan hi test pensions please find attached my verification form with my new address can you please confirmation of receipt and provide my account balance details or online details kind regards abc from : test pensions pensions com sent : tuesday 2 june 2020 12 : 49 am to : abc xyz testmail com subject : def trust pension plan dear abc def trust pension plan thank you for your email regarding the def pension plan please find the attached correspondence which was issued to you on 05 may 2020 if you require any further information or have any questions please contact the customer support centre on abc xyz testmail com between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 26 may 2020 10 : 38 to : test pensions pensions com subject : re : def trust pension plan hi test pensions i was just following up on this as i have not received any communication from you regarding my plan can you please advise where this request is placed kind regards abc from : test pensions pensions com sent : wednesday 22 april 2020 5 : 26 pm to : abc xyz testmail com subject : def trust pension plan dear mr abc def trust pension plan thank you for your email regarding the def pension plan your request has been logged and you will receive a written response from our administration department within 10 - 15 working days once your address has been updated on our records we will proceed with your pension query if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 21 april 2020 08 : 05 to : test pensions pensions com subject : re : def trust pension plan hi i m not 100 sure what my final address was on the pension fund but my details when i was working there are below : dob : 01 01 1400 address : 10 test road test street aa12 123 national insurance : zz123123z cheers abc on 20 apr 2020 at 6 : 24 pm test pensions pensions com wrote : dear abc def trust pension plan thank you for your email regarding the def pension plan to enable us to answer your enquiry please could you provide your previous address date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 17 april 2020 00 : 12 to : test pensions pensions com subject : def pension plan query hi i worked at def in 2005 to 2010 investments and was part of the def trust pension plan i have moved back to australia so i would like to update my personal details for the pension plan so i can get a regular update from the plan can you please update my details to the below details and also provide a current report of my pension kind regards abc mobile : + 91 012345678 address : email : abc xyz testmail com begin forwarded message : from : testfund fincorp com date : 16 april 2020 at 10 : 40 : 21 pm acst to : abc xyz testmail com subject : re : def - 0000 def 14 04 2020 05 : 39 hi abc i have been forwarded your email as i look after pensions and benefits at def test pensions our pension administrators look after all deferred members of the def pension plan please do therefore reach out to them via phone or email as detailed below and they will be able to update your contact details test pensions pensions com + 91 012345678 please let me know if i can help any further many thanks test fund</t>
-  </si>
-  <si>
-    <t>test pensions scheme hi abc ref tst12345678 apologies i should have contacted you i wish to defer my retirement untill 01 jan 1400 many thanks abc xyz 10 test road test street aa12 123</t>
-  </si>
-  <si>
-    <t>pension ref - tst12345678 good afternoon thank you for you recent correspondence on the 1st january 1400 in relation to pension ref no tst12345678 i can conform i left the test pension when i left fin corp ltd on the 1st january 1400 i would like confirmation of the following : when can i take any of the current pension as a lump sum and what the exact amount would be regards abc xyz</t>
-  </si>
-  <si>
-    <t>abcd xx tst12345678 good morning re xx test pensions ref no tst12345678 sorry this is quite urgent as docs only valid until 01 01 1400 i have tried to contact your office vis phone today still holding after 45 minutes documents received to transfer client benefits can we email across discharge forms signed by client or are originals required no adviser sign off doc was attached is this required can we send across our standard document of can you provide such a document via email asap again is original required in post or can we email i look forward to your response test ifa</t>
-  </si>
-  <si>
-    <t>change of address good afternoon my name is abc and i wish to inform you of a change of address in xyz and also request a document stating my pension details for the last two years for my test bank my national insurance number is zz123123z reference number - tst12345678 my new address is - 10 test road test street aa12 123 thank ypu abc</t>
-  </si>
-  <si>
-    <t>change of address details hi i am in the test pension scheme and we have moved house in the last few days i have updated my address details with hr here at xxx but wondered how i can do this on my test pension account or will this update automatically over time now that hr are aware regards abc</t>
-  </si>
-  <si>
-    <t>retirement quotation - abc nino - zz123123z dob - 01 01 1400 could you please issue a transfer value and pack for the above member kind regards abc</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> warning : message encrypted our reference 12346 message encrypted good afternoon i am writing today with regard to the transfer of the above policy to the test sipp i would be grateful if you could provide us with an update on this transfer; for your convenience i attach a copy of the letter of authority the password will follow separately kind regards abc</t>
-  </si>
-  <si>
-    <t>urgent cetv guarantee date ending - def importance : high good morning please find attached a letter of authority and request for information for our client def - zz123123z the password to access the document is the clients dob in the format xx xx xxxx please send us a copy of the most recent cetv and transfer out paperwork asap the guarantee end date is december and the client is considering transferring out the clients postcode is aa12 123 if you have any queries do not hesitate to contact me kind regards abc</t>
-  </si>
-  <si>
-    <t>re : test pension plan hi apologies i should have included them n i zz123123z 01 01 1400 regards abc on 12 nov 2020 at 07 : 51 test pensions pensions com&lt;mailto : test pensions pensions com wrote : dear mr abc test pension plan thank you for your email regarding the test pension plan to enable us to answer your enquiry please could you provide your date of birth and national insurance number for data verification purposes i have also attached an expression of wish form for you to print and complete as appropriate please send the signed and completed document to the address as detailed below at your earliest convenience if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions - - - - - original message - - - - - from : abc xyz testmail com sent : 10 november 2020 16 : 39 to : test pensions pensions com subject : expression of wish hi morning i need to update my wish details i received the latest newsblast brief and it says i need a test account and i should request a eow from admin my details can i not do this on line please advise regards abc mob + 91 012345678</t>
-  </si>
-  <si>
-    <t>re : test retirement and death benefits plan - mr abcd good morning i am following up again on the outstanding queries for this member would you please respond as soon as possible thank you test ifa from : test pensions pensions com&lt;mailto : test pensions pensions com sent : 03 november 2020 12 : 04 to : test ifa fincorp com subject : test retirement and death benefits plan - mr abcd dear test ifa test retirement and death benefits plan thank you for your email regarding the test retirement and death benefits plan please accept our sincerest apologies for the delay we will review the current position of your case and ensure that it is dealt with promptly if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com&lt;mailto : test pensions pensions com yours sincerely test pensions from : test ifa fincorp com sent : 30 october 2020 15 : 39 to : test pensions pensions com subject : fw : test retirement and death benefits plan - mr abcd good morning i am just following up on the outstanding queries below please let me know as soon as possible if you require any additional information thank you test ifa from : test pensions pensions com sent : 09 october 2020 13 : 21 to : test ifa fincorp com subject : test retirement and death benefits plan - mr abcd dear test ifa test retirement and death benefits plan thank you for your email regarding the test retirement and death benefits plan your request has been logged and you will receive a written response from our administration department within 10 - 15 working days if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : test ifa fincorp com sent : 07 october 2020 17 : 11 to : test pensions pensions com subject : test retirement and death benefits plan - mr abcd good afternoon please find attached the loa for this member the member s national insurance no will open the document thank you test ifa from : test pensions pensions com sent : 02 october 2020 12 : 34 to : test ifa fincorp com subject : test retirement and death benefits plan - mr abcd dear test ifa test retirement and death benefits plan thank you for your email regarding the test retirement and death benefits plan i can confirm that i have checked our records and we do not hold a valid letter of authority on file allowing us to release information to yourself in order for us to provide any information could you please arrange for the letter of authority to be sent via email which will allow us to process your request please note that the letter of authority must be signed by the member within the last 12 months and confirm the full ifa company name and address if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : test ifa fincorp com sent : 30 september 2020 16 : 01 to : test pensions pensions com subject : test retirement and death benefits plan - mr abcd good morning please find attached the additional member details you require the password is the member s national insurance number as supplied in my previous email thank you test ifa from : test ifa fincorp com sent : 30 september 2020 11 : 29 to : test pensions pensions com subject : test retirement and death benefits plan - mr abcd good morning we are currently working on producing a test for the above member as part of our advice process please can you respond to the following query from ctc to enable us to complete the report 1 please confirm that the pension amounts shown in columns r onwards are at date of leaving 24 2 99 if not please advise the members national insurance no xxxxxxxxx additional member information you require to follow in a password protected document thank you test ifa</t>
-  </si>
-  <si>
-    <t>abc xyz pension dear abc xyz thank you for your letter dated 1st january 1400 checking on the accuracy of my records as you are aware i now live in australia because banks in the american and australia are no longer honouring cheques from next year i wish to arrange for my test pensions to be paid directly into my bank account and not into my joint account could you please let me know what information you need to get this set up my national insurance number is zz123123z yours sincerely abc xyz e 10 test road test street aa12 123 + 91 012345678 sent from my ipad</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pre - identified user support request lmno reply email address : abc xyz testmail com forename : abc surname : xyz ni number : zz123123z dob : 01 january 1400 home postcode : employer : test subject : spouses pension benefits content : i understand that a spouses pension is 50 of the members pension upon the death of the member is this 50 guaranteed or subject to agreement from the pension trustees is this 50 applicable regardless of the age of the spouse and or the difference in ages between the member and the spouse i have heard that the 50 does not necessarily apply if the spouse if more than 10 years younger than the member this would be applicable to me hence the question </t>
-  </si>
-  <si>
-    <t xml:space="preserve">re : fw : test pensions scheme hi you said someone would be intouch with me but no one has i have gave all information needed to get my pension paid out in full and yet nothing get someone to deal with this asap thanks abc from : test pensions pensions com sent : wednesday november 11 2020 3 : 05 : 16 am to : abc xyz testmail com subject : test pensions scheme dear mrs abc xyz test pensions formerly test pension fund thank you for your email regarding the test pensions i have checked our records and can confirm that the correspondence was issued to you on 1st january 1400 in relation to your query please note that you will receive it shortly should you have any further queries please do not hesitate to contact the customer support centre between 9 00am and 5 00pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 from : abc xyz abc xyz testmail com sent : 06 november 2020 23 : 16 to : test pensions subject : re : test pensions scheme i am just letting you know that now one has contacted me yet thanks abc xyz on 13 oct 2020 16 : 19 test pensions pensions com wrote : dear mrs abc xyz test pensions formerly test pension fund thank you for your email regarding the test pensions scheme i can confirm i have forwarded your email to our administration department and they will be in contact shortly should you have any further queries please do not hesitate to contact the customer support centre between 9 00am and 5 00pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely abc xyz administrator customer support centre test pensions 10 test road test street aa12 123 direct dial : + 91 012345678 from : abc xyz abc xyz testmail com sent : 09 october 2020 09 : 30 to : test pensions subject : my pension hi iam writing about my pension tst12345678 i wish to take my full pension out i need it to buy my house i have taken legal advice and i can do this i have spoken to a few other people too i need this as soon as possible i have tried contacting you by phone and apparently my call is not important but it is to me i do not want to lose the house i want abc xyz national insurance number zz123123z thank you abc xyz </t>
-  </si>
-  <si>
-    <t>re : test pension fund - mr abc xyz hi abc xyz further to the emails below we still haven t received a reply to our queries : does the member have any avcs and if so can they be used to pay the tax free cash without commuting the pension does the scheme allow partial transfers can you provide a copy of the schemes most recent funding statement funding position are there any pension sharing orders against this pension please can you provide a response to these questions as we need this information to complete our review of the pension as per the members request kind regards abc xyz from : test pensions pensions com &lt;mailto : test pensions pensions com sent : 17 november 2020 10 : 37 to : abc xyz subject : test pension fund - mr abc xyz dear abc xyz test pension fund thank you for your email regarding test pension fund please accept our sincerest apologies for the delay we will review the current position of your case and ensure that it is dealt with promptly if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at testfund fincorp com &lt;mailto : testfund fincorp com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 testfund fincorp com &lt;mailto : testfund fincorp com www fincorp com &lt;http : www fincorp com from : abc xyz &lt;abc xyz testmail com sent : monday november 23 2020 2 : 36 pm to : test pensions &lt;test pensions pensions com cc : test ifa &lt;test ifa fincorp com subject : re : test pension fund - mr abc xyz hi abc xyz further to the email below we have not received a response yet please can you provide an update kindest regards abc xyz from : test pensions pensions com &lt;mailto : test pensions pensions com sent : 17 november 2020 10 : 37 to : abc xyz subject : test pension fund - mr abc xyz dear abc xyz test pension fund thank you for your email regarding the test pension fund i can confirm that our administration department is working on your query you will receive the response shortly if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at testfund fincorp com &lt;mailto : testfund fincorp com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 testfund fincorp com &lt;mailto : testfund fincorp com www fincorp com &lt;http : www fincorp com from : abc xyz &lt;abc xyz testmail com sent : monday november 23 2020 2 : 36 pm to : test pensions &lt;test pensions pensions com cc : test ifa &lt;test ifa fincorp com subject : re : test pension fund - mr abc xyz hi re : mr abc xyz test pension fund tst12345678 zz123123z we have received the cetv and immediate retirement option statement for the above member please could you provide the following bits of information to allow us to complete our review : does the member have any avcs and if so can the be used to pay the tax free cash without commuting the pension does the scheme allow partial transfers can you provide a copy of the schemes most recent funding statement funding position are there any pension sharing orders against this pension kind regards abc xyz senior paraplanner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fw : abc xyz secure internet mail importance : high advance portfolio : zz123123z your reference : tst12345678 our reference : zz123123z dear sir madam we have received your correspondence dated 11 11 20 i can confirm we are still outstanding the fin corp portal print mentioned below further to our request for an fin corp portal print for the above customer pension transfer i can confirm how you can obtain this please go to the website : www fincorp com within this you can navigate to get the pstr for the scheme that you are the administrator for when in the fin corp portal and on the screen which displays the pstr number but not the date - rather than click the green print text on the screen - click file and print and convert to adobe pdf this will produce a two page document with both the date and pstr number that satisfies the requirements kind regards abc xyz - - - - - original message - - - - - from : fin corp sent : 16 november 2020 12 : 59 to : test pensions pensions com subject : abc xyz secure internet mail advance portfolio : zz123123z your reference : tst12345678 good afternoon we have now received the money for the above clients pension transfer but have not yet received the payment confirmation letter we also require : - scheme name - scheme type if defined benefit please also confirm if there is gmp and we may also require confirmation that the transfer value for any post 1st january 1400 service has been calculated on an equalised basis - pstr number - fin corp print showing scheme name and pstr dated within the last 3 months if you have any questions please call us on + 91 012345678 we will be happy to help kind regards abc xyz fin corp 10 test road test street aa12 123 telephone + 91 012345678 we may record or monitor calls to improve our service </t>
-  </si>
-  <si>
-    <t>fw : change of address from : abc xyz testmail com sent : thursday october 15 2020 3 : 00 : 24 to : test pensions pensions com subject : change of address i would like to update my personal details can someone please contact me as i am not able to contact you via telephone regards abc</t>
-  </si>
-  <si>
-    <t>re : test pension plan - mr abc good afternoon re : test pension plan - mr abc please could you confirm if there is any update to our query of 02 11 2020 if you have any queries please do not hesitate to contact us kind regards test pensions on 03 11 2020 3 : 22 pm test scheme pensions com wrote : fyi - - - - - - - - forwarded message - - - - - - - - subject : test pension plan - mr abc date : tue 3 nov 2020 14 : 26 : 51 + 0000 from : test pensions pensions com to : testfund fincorp com dear test fund test pension plan thank you for your email regarding the test pension plan i can confirm i have forwarded your email to our administration department to process as requested and they will be in contact shortly if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : testfund fincorp com sent : 02 november 2020 18 : 09 to : test pensions pensions com subject : test pension plan - mr abc good morning re : test pension plan - mr abc please could you let us know if there is any update on the below if you have any queries please do not hesitate to contact us kind regards test pensions - - - - - - - - forwarded message - - - - - - - - subject : test pension plan - mr abc date : wed 14 oct 2020 11 : 31 : 03 + 0100 from : testfund fincorp com to : test pensions pensions com good morning re : test pension plan - mr abc please find copies of documents previously sent to you that show the clients date of birth national insurance number and address the documents are password protected in our normal way - if you need to check this please call us on + 91 012345678 if you have any queries please do not hesitate to contact us kind regards test pensions on 13 10 2020 5 : 08 pm test pensions pensions com wrote : dear test pensions test pension plan thank you for your email regarding the test pension plan to enable us to answer your enquiry please could you provide the member full address date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : testfund fincorp com sent : 12 october 2020 12 : 08 to : test pensions pensions com subject : test pension plan - mr abc good morning re : test pension plan - mr abc is there any update on the below thanks test pensions - - - - - - - - forwarded message - - - - - - subject : test pension plan - mr abc date : fri 9 oct 2020 09 : 40 : 49 + 0100 from : testfund fincorp com to : test pensions pensions com good morning re : test pension plan - mr abc test reference : tst12345678 following on from our below emails please kindly confirm receipt of the transfer documents and please confirm if the transfer value has been upheld or not if you have any queries please do not hesitate to contact us kind regards test pensions - - - - - - - - forwarded message - - - - - - - - subject : test pension plan - mr abc date : thu 17 sep 2020 10 : 32 : 27 + 0100 from : test ifa fincorp com&lt;mailto : test ifa fincorp com reply - to : test pensions pensions com good afternoon following on from my below email please kindly confirm receipt of the transfer documents kind regards test ifa on 14 09 2020 3 : 46 pm test ifa fincorp com&lt;mailto : test ifa fincorp com wrote : good afternoon i am writing to submit the attached transfer request for the above client policy from test to test the client policy number is tst12345678 and the guarantee date for the transfer is 01 01 1400 the documents have also been sent via post on the 11th of september please kindly confirm receipt of these documents and request the password for the document on + 91 012345678 kind regards test ifa</t>
-  </si>
-  <si>
-    <t>pension hello please could you kindly send me a full pension transfer pack and updated cash equivalent transfer value cetv i received a plan in march 2020 but i believe i need an updated one my reference number on the one in march was tst12345678 mrs abc xyz 10 test road test street aa12 123 + 91 012345678 kind regards abc xyz</t>
-  </si>
-  <si>
-    <t>abc - zz123123z hello further to my previous email please now find attached correspondence from the receiving scheme test pensions i trust this is satisfactory and meets your requirements to proceed with the transfer it would be most appreciated if you could give me an indication of when we can expect the transfer to be paid to def i look forward to hearing from you kind regards test ifa from : test ifa fincorp com sent : 11 november 2020 16 : 36 to : testfund fincorp com cc : test pensions pensions com subject : abc - zz123123z hello please find attached a duly completed transfer discharge form and a letter confirming that the above member has received financial advice in relation to transferring his benefits away from the test pension scheme the receiving scheme warranty form and any other required documents will follow shortly i trust this is satisfactory and look forward to receiving confirmation that the guaranteed cetv which expires on 31 12 2020 is now secured kind regards test ifa</t>
-  </si>
-  <si>
-    <t>test pension scheme hi team please see below query and reply accordingly many thanks test pensions from : abc xyz testmail com sent : 07 november 2020 12 : 48 to : test pensions pensions com subject : re : test pension scheme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">re : test pension scheme - lmno she was born on 1st january 1400 and died on monday 1st january 1400 death has been registered electronically and certificate issued there are no financial dependents i am lmno s son abc 10 test road test street aa12 123 phone number + 91 012345678 abc son from : test pensions pensions com sent : 07 october 2020 04 : 08 to : abc xyz testmail com subject : test pension scheme - lmno dear abc test pension scheme thank you for your email on regarding the test pension scheme please accept my sincerest condolences for your loss in order to assist us could you please provide us with the following details : emailer s relation to member : date of birth : date of death : has the death been registered and death certificate issued : did the member have any financial dependents address for condolence : contact number : if you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 05 october 2020 15 : 02 to : test pensions pensions com subject : bereavement i am contacting you to advise of the death of one of your pensioners and to stop any undue payments the deceased is member no tst12345678 nat ins no she was residing at abc son and executor </t>
-  </si>
-  <si>
-    <t>re : test pension scheme - abc xyz dear mr abc xyz i am sorry but i do not feel in the least comfortable sending that information in an email please liaise with abc xyz thank you mrs abc xyz from : testscheme fincorp com sent : friday november 20 2020 7 : 40 am to : abc xyz testmail com subject : test pension scheme - abc xyz dear abc xyz test pension scheme thank you for your email regarding the test pension scheme in order to forward your email to our administration department please could you provide the member full address date of birth and national insurance number for data verification purposes should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at testscheme fincorp com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 www fincorp com from : abc xyz &lt; abc xyz testmail com sent : friday november 20 2020 10 : 35 pm to : test pension scheme &lt; testscheme fincorp com cc : test ifa &lt;test ifa fincorp com subject : test pension scheme - abc xyz importance : high dear abc xyz team manager i have just received a hard copy letter from you fin corp ltd dated 1st january 1400 questions : 1 i thought my pension was with test pensions what happened 2 you request that i complete a beneficiaries data form and original documentation and send it i have just recently completed all of this information and sent in it to test pensions they have acknowledged receipt approved my eligibility for benefits and returned my originals i have just suffered a three - month delay in receiving the arrears to my pension while all of this was being processed and was finally paid now i am being asked to resubmit information already received and approved please advise immediately thank you sincerely mrs abc xyz</t>
-  </si>
-  <si>
-    <t>urgent cetv guarantee date ending - abcd importance : high good morning please find attached a letter of authority and request for information for our client abcd - zz123123z the password to access the document is the clients dob in the format xx xx xxxx please send us a copy of the most recent cetv and transfer out paperwork asap the guarantee end date is december and the client is considering transferring out the clients postcode is aa12 123 if you have any queries do not hesitate to contact me kind regards test ifa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pension transfer requesting documents for transferring out of db dc pension scheme abc xyz working at fin corp ltd date birth 01 01 1400 zz123123z n s number </t>
-  </si>
-  <si>
-    <t>fw : information request - letter of authority attached ref : tst12345678 hello team please see below query and reply accordingly to the member ifa many thanks test pensions from : test ifa fincorp com sent : 01 december 2020 08 : 35 to : test pensions pensions com subject : information request - letter of authority attached ref : tst12345678 dear representative of xx please see attached herewith an authorisation letter from with the following personal information : customer personal information : name : abc current address : 10 test road test street aa12 123 date of birth : 01 01 1400 gender : male national insurance number : zz123123z pension type : workplace workplace pension information : employer name : test employer pension provider : xx pension reference number : not known estimated valuation : not known additional information provided : please see information request attachment please note any reference number s or scheme name s listed above are those known to the customer there may however be additional pensions belonging to the customer therefore please ensure you provide information on all of test pensions with xx not just those referenced above with respect to the customer above please provide information on the following : latest transfer valuation current status of the plan : in force paid up or in payment are there any exit charges associated with the specific funds or with the plan overall any guaranteed or non - standard benefits including guaranteed salaries guaranteed annuity rates guaranteed maturity amount guaranteed minimum pension and any other benefits and the conditions attached to them please confirm whether partial transfers are possible from this plan if transfer forms are required to action a transfer out of the scheme please include these in your response test ifa is a company with the following details : company name : test ifa email : test ifa fincorp com address : 10 test road test street aa12 123 telephone : + 91 012345678 please contact test ifa if you require further information sincerely test ifa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">change of address hi my name is abc my birthday is 01 01 1400 around a year ago i moved house my new address is as below mr abc 10 test road test street aa12 123 my previous address was 103 test road test street ua12 123 i have tried to register online but it didn t seem to work properly regards abc </t>
-  </si>
-  <si>
-    <t>re : test death approval - lmno tst12345678 i agree with the recommendation with regards mr lmno regards test schemes from : test pensions pensions com sent : 03 december 2020 11 : 41 to : testfund fincorp com subject : re : test death approval - lmno tst12345678 test lmno death in retirement please find attached the documentation relating to the above late member who died whilst in receipt of his pension the member was survived by his spouse therefore the committee are being asked to consider the lump sum death benefit of 1 500 00 only this case is being referred to the committee as there is no nomination form it would be our recommendation that the lump sum is paid to his spouse - mrs jkl in line with his will please would you agree with this recommendation kind regards test pensions</t>
-  </si>
-  <si>
-    <t>re : test pension plan - mr abc hi test pensions my request was sent a week ago can you give me a progress update thanks test ifa from : test pensions pensions com sent : 06 november 2020 09 : 57 to : test ifa fincorp com subject : test pension plan - mr abc dear test pension test pension plan thank you for your email regarding the test pension plan your request for transfer out has been logged and you will receive a written response from our administration department within 5 - 10 working days if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com &lt;mailto : 20test pensions pensions com 20 yours sincerely test pensions from : test ifa fincorp com sent : 03 november 2020 21 : 22 to : test pensions pensions com subject : test pension plan - mr abc hi member s full name : abc member s ni number : scheme name : test pension scheme scheme reference : please find attached the following documents in respect of the above member : your transfer request and discharge form signed by mr abc our advice confirmation letter sent to mr abc i have sent the receiving scheme warranty form to def and have asked them to send the completed form directly to you if there are any further documents you require to complete the transfer please let me know best regards test ifa</t>
-  </si>
-  <si>
-    <t>report of death of a pension recipient hello i need to report the death of my father who was in receipt of pension payments from test can you please let me know what i need to do thank you kind regards abc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">re : test pension fund - abc xyz respected abc xyz administrator customer support centre thank you for your response regrading fpf and condolences for our loss the requisite detail is as under : - abc xyz nephew 01 01 1400 1st january 1400 01 01 1400 1st january 1400 1st january 1400 yes death was registered and death certificate got yes the widow in old age 1st january 1400 the contact number of widow is + + 91 012345678 but due to old age she is unable to talk you may contact me over my cell no + + 91 012345678 looking forward your kind response yours truly abc cell no + 91 012345678 official email : abc xyz testmail com &lt;mailto : atiq rehman nbp com pk from : test pensions &lt;test pensions pensions com sent : friday november 20 2020 3 : 32 am to : abc xyz subject : test pension fund - abc xyz dear abc xyz test pension fund thank you for your email regarding the ford pension fund please accept our apologies for the delay in responding to you please accept my sincerest condolences for your loss in order to assist us could you please provide us with the following details : members name : emailer s relation to member : date of birth : date of death : member s address at date of death : has the death been registered and death certificate issued : did the member have any financial dependents address for condolence : contact number : if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely abc xyz administrator customer support centre test pensions 10 test road test street aa12 123 direct dial : + 91 012345678 test pensions pensions com &lt;mailto : test pensions pensions com from : abc xyz&lt;abc xyz testmail com sent : 11 november 2020 06 : 38 to : test pensions subject : fw : intimation of death and request for procedure to get payment of funds to widow mrs abc xyz the correct official email is abc xyz testmail com &lt;mailto : atiq rehman nbp com pk thanks - - - - - forwarded message - - - - - from : abc xyz to : abc xyz testmail com sent : tuesday 10 november 2020 10 : 32 : 27 pm gmt - 8 subject : intimation of death and request for procedure to get payment of funds to widow mrs abc xyz dear team first i introduce my self my name is abc xyz and working in the fin corp as assistant vice president i am engaged in delivering training to our human capital my uncle mr abc xyz died on jan 1 2020 at home and buried in rawalpindi his particulars are as under : - 1 test pensions fund reference : tst12345678 the captioned provided information has been obtained from a letter dated 7th february 2020 duly signed by mr abc xyz senior manager - payroll my uncle was also getting a uk state pension outside the uk under reference no kindly requested to guide us to proceed further in the matter for smooth payment to widow from all related institutions including fin corp aa12 123 the particulars of the widow who is also still getting her own uk state pension outside the uk under reference no the widow in old age and she is residing with her daughter at the following new change mailing address; - 10 test road test street aa12 123 you are kindly requested to please guide us on the matter for the fixation of pension and end service benefits thanks regards yours truly abc xyz cell no + 91 012345678 official email : abc xyz testmail com &lt;mailto : abc xyz testmail com </t>
-  </si>
-  <si>
-    <t>pension value dear sir madam i would like to know how i can review the total value of my pension and its transfer value i can access fin corp but can only find my annual entitlement at retirement age regards abc xyz supply chain me direct : + 91 012345678 mobile : + 91 012345678 email : abc xyz testmail com</t>
-  </si>
-  <si>
-    <t>change of name dear sir abc pension reference tst12345678 zz123123z i refer to a mail forwarded to your payroll department on 13th october on reflection i think this should have been sent to you i would like to confirm my change of name i married on 4th august 2020 and my new surname is abc i have advised hmrc and my details have been updated with them similarly my bank have been informed and my accounts have been amended from def to abc but the account number and sort code remain the same i attach a photocopy of my marriage certificate for your records should you require any further information please do not hesitate to contact me my phone numbers and email address remain the same yours faithfully mrs abc</t>
-  </si>
-  <si>
-    <t>re : test pension scheme - mr abc xyz clients details; name - abc xyz address 10 test road test street aa12 123 dob 01 january 1400 nino zz123123z our reference tst12345678 good morning please see the below email from my colleague this states the directions needed to obtain a hmrc portal print out dated within the last three months please can you advise us of a timescale in which we are likely to receive this outstanding paperwork we are unable to match the monies for the client until we have received this from yourself kind regards test ifa from : test pensions pensions com sent : 29 october 2020 07 : 46 to : test transfers pensions com subject : test pension scheme - mr abc xyz dear test transfers test pension scheme thank you for your email regarding the test pension scheme i can confirm i have forwarded your email to our administration department and they will be in contact shortly if any further information is required if you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely test pensions from : test transfers pensions com sent : 27 october 2020 14 : 44 to : test pensions pensions com subject : re : test pension scheme - mr abc xyz importance : high clients details; name - address dob nino our reference tst12345678 good morning thank you for your letter dated 22 october with the attached confirmation of the date the pension scheme started however this is not the information we require i can confirm how you can obtain this please go to the website : https : www rrrrrrrrrrrrrrr within this you can navigate to get the pstr for the scheme that you are the administrator for when in the hmrc portal and on the screen which displays the pstr number but not the date - rather than click the green print text on the screen - click file and print and convert to adobe pdf this will produce a two page document with both the date and pstr number that satisfies the requirements kind regards test transfers from : test pensions pensions com sent : 17 october 2020 08 : 23 to : test transfers pensions com subject : test pension scheme - mr abc xyz dear team test pension scheme thank you for your email regarding the test pension scheme i can confirm i have forwarded your email to our administration department to process as requested and they will be in contact shortly if you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely test pensions from : test transfers pensions com sent : 14 october 2020 18 : 53 to : test pensions pensions com subject : re : test pension scheme - mr abc xyz good afternoon clients details; name address dob nino kind regards test transfers from : test pensions pensions com sent : 14 october 2020 08 : 31 to : test transfers pensions com subject : test pension scheme - mr abc xyz dear team test pension scheme thank you for your email regarding the test pension scheme to enable us to answer your enquiry please could you provide the member full address date of birth and national insurance number for data verification purposes if you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely test pensions from : test transfers pensions com sent : 12 october 2020 11 : 33 to : test pensions pensions com subject : test pension scheme - mr abc xyz thank you for sending us the payment in relations to the pension transfer for the above client as mentioned in our acceptance letter dated 28 september 2020 please can you provide us with your hmrc portal screen print date within the last 3 months kind regards transfers team</t>
-  </si>
-  <si>
-    <t>re : abc xyz tst12345678 pension quote hi please can you provide me with an eta for the below pension quotation many thanks from : abc xyz testmail com sent : 30 october 2020 10 : 43 to : test pensions pensions com subject : abc xyz tst12345678 pension quote hi please can i request pension figures for the following; employee : abc xyz tst12345678 dob : 01 01 1400 retirement date : 1st january 1400 retirement type : normal early retirement actuarily reduced thank you</t>
-  </si>
-  <si>
-    <t>re : test pension scheme good evening the info you require is as follows abc xyz 10 test road test street aa12 123 zz123123z regards abc xyz on 17 nov 2020 at 01 : 40 test pensions pensions com &lt;mailto : test pensions pensions com wrote : dear abc xyz test pensions scheme thank you for your email regarding the test pensions scheme to enable us to answer your enquiry please could you provide your full address date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely abc xyz administrator customer support centre test pensions 10 test road test street aa12 123 direct dial : + 91 012345678 - - - - - original message - - - - - from : abc xyz&lt;abc xyz testmail com sent : 12 november 2020 16 : 38 to : test pension subject : pension query good morning a long time ago around 1400 01 i worked for a company who were associated with your pension scheme i do get a booklet from test pension industries from time to time however i am just wondering how i can get access to my own pension account i worked for fin corp machine tool company in bredbury stockport is there any login details i can log into any advice on this would be gratefully appreciated regards abc xyz def tel + 91 012345678</t>
-  </si>
-  <si>
-    <t>abc xyzz importance : high hi are partial transfers allowed on the attached policy many thanks test ifa research analyst 10 test road test street aa12 123 tel : + 91 012345678</t>
-  </si>
-  <si>
-    <t>change of address i would like to notify you of a change of address : mr abc 102 test road test street ea12 123 i have moved to the following address : 10 test road test street aa12 123 d o b 1st january 1400 n h no zz123123z pension ref : tst12345678 many thanks abc</t>
-  </si>
-  <si>
-    <t>re : test pension fund - mr abc xyz dear mr abc xyz i refer to my below email dated 26 october 2020 as previously advised we are unable to accept the copy passport it will need to be the original or a certified copy of the original could you please arrange for this matter to be resolved as previously advised are awaiting documentation and the implementation fee from the member before we can implement the pension sharing order and have requested for this we will chase on a regular basis and upon receipt of all the outstanding items kind regards test pension scheme from : abc xyz sent : 26 october 2020 11 : 11 to : test pension scheme subject : re : test pension fund - mr abc xyz dear mr abc xyz thank you for your letter dated 22 september 2020 please accept my apologies for the delay in issuing this reply i confirm receipt of the following : completed ex - spouse information form ex - spouse transfer request and discharge form copy of passport please note that we are unable to accept the copy passport it will need to be the original or a certified copy of the original we have also received documentation directly from test pension fund please be advised that we are awaiting documentation and the implementation fee from the member before we can implement the pension sharing order and have requested for this we will chase on a regular basis and upon receipt of all the outstanding items we will process the order kind regards abc xyz senior administrator mercer fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 from : abc xyz &lt;abc xyz testmail com sent : 16 october 2020 14 : 41 to : test pensions subject : rcw abc abc xyz - tst12345678 dear sir madam with reference to the above please could you provide us with an update on how the ex - spouse pension transfer is proceeding we sent you all of the required ex - spouse transfer forms on the 1st january 1400 and have noy yet heard back from you if you have any questions please do not hesitate to get in touch kind regards abc</t>
-  </si>
-  <si>
-    <t>ref : tst12345678 mr abc xyz dear sir madam i have a pension test industries pension scheme tst12345678 i would like to have this pension paid out to me as a lump sum as soon as possible can you advise if you require any further information so as to proceed with my request as requested on your correspondence to me please find below details as requested abc xyz zz123123z yours sincerely abc</t>
-  </si>
-  <si>
-    <t>pension retirement pack abc xyz nino - zz123123z dob - 01 01 1400 retirement date - 01 01 1400 could you please issue a retirement quotation to the above member including a transfer value kind regards abc xyz pensions manager direct : + 91 012345678 mobile : + 91 012345678 hi abc xyz i was informed by one of my colleagues that i can request a pension pack quote as i am considering retiring next year also as i am part of the test pensions scheme can i get a opt out figure if i retire next april just in case you try to call me at fin corp i have been seconded out for 6 months by fin corp onto a training exercise around region 1 and i am in oban this week many thanks abc abc xyz area manager 10 test road + 91 012345678</t>
-  </si>
-  <si>
-    <t>xyz - tst12345678 - cetv forms urgent good afternoon sir or madam abc xyz tst12345678 01 01 1400 zz123123z please find attached a copy of the forms which were sent 1st class rm signed for today to your def address the receiving scheme warrantee form has been relayed to uvw who will in turn send it on to yourselves please can you confirm as soon as possible that you have what you need in order to secure the transfer value this is an urgent request owing to the expiry date of the cetv being 30th november confirmation can be sent to my email or via the communication methods listed below if you have any questions or queries please can you contact me kind regards test ifa</t>
-  </si>
-  <si>
-    <t>test pension scheme hi team please see below query and reply accordingly many thanks abc xyz administrator customer support centre test pensions 10 test road test street aa12 123 direct dial : + 91 012345678 from : abc xyz&lt;abc xyz testmail com sent : 09 november 2020 10 : 23 to : test pensions subject : re : test pension scheme hi i have still not received an answer to my query now dating back several months despite your promise to review it and deal with it promptly it is just a small query but i need it answered so i know what my tax position is in regard to the arrears payment please can i ask you to just answer this i have tried ringing the no you gave me but i am unable to speak to anyone and it is becoming so frustrating thank you abc xyz tha on wed oct 7 2020 at 1 : 48 pm &lt; test pensions pensions com wrote : dear abc xyz test pensions scheme thank you for your email regarding the test pensions scheme please accept our sincerest apologies for the delay we will review the current position of your case and ensure that it is dealt with promptly if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 from : abc xyz&lt;abc xyz testmail com sent : 05 october 2020 16 : 00 to : test pensions pensions com subject : re : your letter dated 26 june 2020 hi this is in relation to a query i first made by email on 24 june last correspondence from you was a letter dated 7 september saying you were asking cgi for a response and would get back to me your letters always state that i can contact you by phone but this is not the case as the options i am given by the automated service blocks me from getting through i appreciate that the current circumstances have had an effect and also know that my question is a minor one but it is very frustrating that it is taking more than 3 months to get an answer from you kind regards abc xyz on fri jul 3 2020 at 8 : 03 am abc xyz &lt; abc xyz abc xyz testmail com wrote : re : test pension scheme the scheme dear helpdesk your letter dated 26 june advised that a gross payment of pension arrears would be paid into my bank account on or around 3 july this amount being 11 176 62 today i received a payment of 7 243 42 so am wondering whether this is a net amount after tax has been taken out i am very happy to receive the arrears and thank you but would appreciate clarification on the amount thank you abc xyz</t>
-  </si>
-  <si>
-    <t>test pension scheme - ref zz123123z tst12345678 good morning i have been advised that this is the new email address i need to send my request to look forward to your reply abc xyz from : abc xyz testmail com&lt;mailto : abc xyz testmail com sent : 06 november 2020 10 : 02 to : testfund fincorp com&lt;mailto : testfund fincorp com subject : test pension scheme - ref zz123123z tst12345678 good morning i am writing in relation to my test pension and my details are as follows : - mrs abc xyz 10 test road test street aa12 123 date of birth 01 01 1400 phone number + 91 012345678 as i am approaching my 60th birthday i am considering taking this pension and would be interested in receiving an up to date statement from you including transfer value and an estimate of what i could expect to receive if i took a 25 lump sum payment tax free and the rest as an annuity the last statement i received from you was in march 2016 i look forward to your response thanking you kind regards abc xyz</t>
-  </si>
-  <si>
-    <t>fin corp anomaly - early retirement figures address : 10 test road test street aa12 123 date of birth : 18 01 1800 national insurance number : aa000000a payroll reference number : 000000 i have today generated early retirement quotes from benpal that i would like to have explained please as there appears to be an anomaly that i do not understand a quote for early retirement date of 02 04 18 showed : max pension zero lump sum : 27 343 min pension max lump sum : 19 367 129 115 whereas a quote for early retirement date of 06 04 19 showed : max pension zero lump sum : 27 217 min pension max lump sum : 19 277 128 519 clearly i find a slightly later retirement date returning lower figures to be anomalous and requiring explanation this is particularly important to me at this time as i anticipate retiring and taking my pension around these dates and am trying to determine what will be optimal for me regards abc xyz event manager fin corp 10 test road test street aa12 123 mobile : + 91 012345678</t>
-  </si>
-  <si>
-    <t>re : test pensions death approval - mr abc xyz - tst12345678 hi abc xyz i support the recommendation in respect of mr abc xyz thanks abc xyz from : test pensions pensions com sent : tuesday november 17 2020 5 : 18 : 34 pm to : test pensions cc : abc xyz testmail com subject : test pensions death approval - mr abc xyz - tst12345678 test pension plan - mr abc xyz - death after retirement please find attached the documentation relating to the above late pensioner who died whilst in receipt of his pension the committee are being asked to consider the spouse s pension and the lump sum death benefit of 1000 this case is being referred to the committee as the member has left a nomination form in favour of his ex spouse - mrs abc xyz and a will in favour of current wife - mrs abc xyz it would be our recommendation that the lump sum and pension to be paid to his current spouse as per the recent will please would you agree with this recommendation regards abc xyz senior administrator fin corp ltd 10 test road test street aa12 123 p : + 91 012345678</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pre - identified user support request - pension quote reply email address : abc xyz testmail com forename : abc surname : xyz ni number : zz123123z dob : 01 jan 1400 home postcode : aa12 123 employer : test pensions subject : pension quote content : hi can you tell my pension figure is now if i take my pension out company pension and both sets of avc please name abc xyz address; 10 test road test street post code : aa12 123 ni : zz123123z dob 01 01 1400 regards abc xyz</t>
-  </si>
-  <si>
-    <t>re : test pension scheme - test section dear sirs ref : tst12345678 i have received the required retirement quote and would now like to request the retirement pack to proceed many thanks abc xyz zz123123z from : test pensions pensions com sent : friday 9 october 2020 11 : 25 to : abc xyz testmail com dear miss abc test pension scheme - test section formerly test group thank you for your email regarding the test pension scheme - test section your request has been logged and you will receive a written response from our administration department within 10 - 15 working days should you have any further queries please do not hesitate to contact the customer support centre between 9 00am and 5 00pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely abc from : abc xyz testmail com sent : 07 october 2020 13 : 38 to : test pensions pensions com subject : re : test pension scheme - test section my full address is many thanks abc on 7 oct 2020 7 : 36 am test pensions pensions com&lt;mailto : test pensions pensions com wrote : dear miss abc test pension scheme - test section formerly test group thank you for your email regarding the test pension scheme - test section to enable us to answer your enquiry please could you provide your full address for data verification purposes should you have any further queries please do not hesitate to contact the customer support centre between 9 00am and 5 00pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely abc from : abc xyz testmail com sent : 05 october 2020 09 : 01 to : test pensions pensions com subject : re : retirement quote dear sirs could you please give me an estimated retirement quote for me to retire on 1st january 1400 test pension scheme - test section tst12345678 many thanks abc from : abc xyz testmail com sent : sunday 4 october 2020 10 : 14 to : test pensions pensions com dear sirs could you please give me an estimated retirement quote for me to retire on 1st january 1400 test pension scheme - test section tst12345678 many thanks abc</t>
-  </si>
-  <si>
-    <t>re : test pension fund hello here is the information you have requested abc xyz 01 01 1400 ni number zz123123z address 10 test road test street aa12 123 can you please confirm you have all the satisfactory information required please as to avoid any further delays in the process of my request regards abc xyz from : test pensions pensions com sent : saturday november 21 2020 2 : 40 : 35 am to : abc xyz testmail com subject : test pension fund dear abc xyz test pension fund thank you for your email regarding the test pension fund please accept our apologies for the delay in responding to you to enable us to answer your enquiry please could you provide your full address date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely abc xyz administrator customer support centre 10 test road test street aa12 123 direct dial : + 91 012345678 abc xyz testmail com from : abc xyz abc xyz testmail com sent : 13 november 2020 21 : 09 to : test pensions subject : reference : tst12345678 to whom it may concern in relation to the letter from yourselves typed 01 january 1400 i am emailing to confirm i still wish to continue with the variable pension option 4 my reference is tst12345678 kind regards abc xyz</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pre - identified user support request reply email address : test ifa fincorp com forename : abc surname : xyz ni number : zz123123z dob : 01 jan 1400 home postcode : aa12 12 employer : fin corp ltd subject : fin corp ltd content : policy 1234567 as i reach retirement age - wish to make arrangements for bringing this pension into payment abc</t>
-  </si>
-  <si>
-    <t>test pension fund def zz123123z hi team member name : def nino : zz123123z scheme name : test pension fund please create an admin bizflow job for the attached request from member s nok informing member death please verify the date of death and get back to us we have suspended members record regards test fund</t>
-  </si>
-  <si>
-    <t>test scheme - ref tst12345678 hi team please see below query and reply accordingly many thanks test pensions from : abc xyz testmail com sent : 15 october 2020 16 : 52 to : test pensions pensions com subject : ref tst12345678 hi i am writing with regards to above account my aunt lmno recently passed away a payment was made into joint account i want to return this money i do not have any of the details asked for in the forms i was sent out but i am in the process of trying to get these shall i just leave the relevant sections and sign and post it back to you i have tried ringing the number but havnt had any success trying to speak to an agent in person please advise regards abc</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> warning : message encrypted abc xyz your ref tst12345678 our ref tvaut - 123456 message encrypted good morning please find attached completed transfer paperwork for the above member looking to transfer to fin corp you will need to use the clients ni number in uppercase to view these documents if anything further is required please let me know kind regards abc xyz 10 test road test street aa12 123 tel : + 91 012345678 email : test pensions pensions com &lt;mailto : test pensions pensions com tel : + 91 012345678 email : test pensions pensions com &lt;mailto : test pensions pensions com </t>
-  </si>
-  <si>
-    <t>def pension d o b 01 01 1400 national insurance number zz123123z hi team please see below query and reply accordingly thank you test pensions from : abc xyz testmail com sent : 08 november 2020 19 : 05 to : test pensions pensions com subject : def pension d o b 01 01 1400 national insurance number zz123123z please find attached confirmation of change of bank details as requested regards abc on wed 28 oct 2020 19 : 42 &lt;test pensions pensions com wrote : dear abc def group pension plan thank you for your email regarding the def group pension plan your request has been logged for change of address and you will receive a written response from our administration department within 10 - 15 working days also i can confirm that due to data protection requirements we cannot update our records without a signed letter on file i have attached a change of bank details form for you to fill and scan back to us in order to update our records should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 26 october 2020 14 : 31 to : test pensions pensions com subject : def pension - dob - national insurance number to whom it may concern i am writing to inform you that i am now on a full time course at university course details attached and i am currently living in xyz proof of booked accommodation attached the address is : - i have also attached a copy of my student id which tells you the length of my course my bank details for payment are : - barclays bank payments were previously sent to my mum bank account but no payment has been received since august my mum address my previous address is : - i would appreciate it if you could please email confirmation that my payments will re - commence regards abc</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pre - identified user support request reply email address : testfund fincorp com forename : abc surname : xyz ni number : zz123123z dob : 01 january 1400 home postcode : aa12 123 employer : test pensions subject : transfer value content : good afternoon i am unable to see my transfer value on the website i phoned over a month ago and was told that this would be looked into and that i would also receive my transfer value by post i have not received this yet please look into this matter for me thanks test pensions</t>
-  </si>
-  <si>
-    <t>cob request third request with additional information included dear sirs test pension scheme reference tst12345678 you are currently paying my pension into my account no 123123 with nationwide i intend to close this account so wish you to make future payments into my account with the xx my account details with them are : name abc sort code 00 - 00 - 00 account no 1231234 my address is 10 test road test street aa12 123 national insurance no zz123123z date of birth 01 01 1400 please confirm you are actioning this request thank you abc xyz</t>
-  </si>
-  <si>
-    <t>fw : request for pension details - abc xyz - ref : tst12345678 hello team please see below query and reply accordingly to the member ifa many thanks abc xyz - agent - customer support centre 10 test road test street aa12 123 abc xyz testmail com from : abc xyz - pension tracing service abc xyz testmail com sent : 20 november 2020 12 : 04 to : test pensions subject : request for pension details - abc xyz - ref : tst12345678 to whom this may concern please find attached a letter of authority for client abc xyz in relation to their policies plans held with you i have attached a standard schedule setting out the information we require in connection with any policies held by the client with yourselves along with a full information questionnaire if you so wish to use if you could please fully answer all questions and return the schedule by email or post as soon as possible it would be very much appreciated if there are any additional features of the scheme that are relevant to any decision that might be made by our client to exercise any options under the scheme which are not covered in this schedule please ensure that the relevant information is provided we would like to draw your attention to the fact that where the member is entitled to draw immediate retirement benefits we have asked you to provide a quotation for this in addition to the transfer data please also provide all relevant discharge transfer and open market option documents for any options involving immediate retirement or transfer if you anticipate that there will be a significant delay in providing all or any of the information requested please contact us immediately to indicate when the details will be supplied kind regards abc xyz</t>
-  </si>
-  <si>
-    <t>zz123123z dear sir madam please may you confirm if you consider ill health unreduced pension for deferred members if so what is the process thanks in advance kind regards abc xyz</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pre - identified user support request reply email address : abc xyz testmail com forename : abc surname : xyz ni number : zz123123z dob : 01 january 1400 home postcode : aa12 123 employer : test pension scheme subject : pension transfer content : hi i recently requested that my fin corp pension be transferred to my fin corp scheme 12345678 and sent you the required documentation via post can you please provide an update on this transfer as fin corp have not yet received the funds best regards abc xyz</t>
-  </si>
-  <si>
-    <t>abcd zz123123z importance : high good morning we have recently received a new cetv pack however we need the following confirmed due to conflicting information we have two different commutation factors for age 65 please could you confirm what is the correct factor to use please could this be looked into urgently thank you abcd</t>
-  </si>
-  <si>
-    <t>re : test pension scheme - test section thank you for responding my details are as follows mrs abc 10 test road test street aa12 123 dob : 01 01 1400 ni number : zz123123z mrs abc data manager deputy dpo + 91 012345678 from : test pensions pensions com sent : 09 november 2020 12 : 45 to : abc xyz testmail com subject : test pension scheme - test section dear mrs abc test pension scheme - test section formerly test group thank you for your email regarding the test pension scheme - test section to enable us to answer your enquiry please could you provide your full address date of birth and national insurance number for data verification purposes should you have any further queries please do not hesitate to contact the customer support centre between 9 00am and 5 00pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 05 november 2020 18 : 46 to : test pensions pensions com subject : test pension scheme - test section good afternoon ref : tst12345678 now that my account has been updated and confirmed that i do have a pension with yourself can you please tell me my options can i withdraw from this pension does this affect my current state pension if i do withdraw could you please send me some literature on what my options would be thank you for your assistance in advance kind regards mrs abc data manager deputy dpo + 91 012345678 from : spsargos mercer com sent : 02 a test pensions pensions comugust 2020 19 : 55 to : abc xyz testmail coml goff subject : test pension scheme - test section dear mrs abc test pension scheme - test section formerly test group thank you for your email regarding the test pension scheme - test section i can confirm that we hold your record of pension with us in order for our records to be updated with your correct surname please provide original documentary evidence eg marriage certificate deed poll or decree absolute confirming your change in details original documents will be returned to you by recorded delivery should you have any further queries please do not hesitate to contact the customer support centre between 9 00am and 5 00pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely abc from : abc xyz testmail com sent : 27 july 2020 16 : 35 to : test pensions pensions com subject : test pension scheme - test section good afternoon you have not actually answered my original question i want to know if i do hold a pension with your company if you can confirm that then i will of course update you with the required documents kind regards mrs abc data manager deputy dpo + 91 012345678 from : test pensions pensions com sent : 27 abc pension scheme - test section dear mrs goff test pension scheme - test section formerly test group thank you for your email regarding the test pension scheme - test section and please accept our sincerest apologies for the delay in responding to you in order for our records to be updated with your correct surname please provide original documentary evidence eg marriage certificate deed poll or decree absolute confirming your change in details original documents will be returned to you by recorded delivery should you have any further queries please do not hesitate to contact the customer support centre between 9 00am and 5 00pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 21 july 2020 19 : 20 to : test pensions pensions com subject : test pension scheme - test section thank you for getting back to me my details are; mrs abc data manager deputy dpo + 91 012345678 from : test pensions pensions com sent : 21 july 2020 14 : 38 to : abc xyz testmail com subject : test pension scheme - test section dear mrs abc test pension scheme - test section formerly test group thank you for your email regarding the test pension scheme - test section to enable us to answer your enquiry please could you provide your full address date of birth and national insurance number for data verification purposes should you have any further queries please do not hesitate to contact the customer support centre between 9 00am and 5 00pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 15 july 2020 17 : 59 to : test pensions pensions com subject : pension enquiry good evening my maiden name is def date of birth i am enquiring as to whether i have a pension or frozen pension with your company i am on your mailing list so was wondering thank you for your assistance kind regards abc</t>
-  </si>
-  <si>
-    <t>test pensions - abc xyz - 123456 caution : this email originates from a non - jaguarlandrover source do not click links or open attachments unless you recognise the sender and know the content is safe hi we have been advised by the above member that they have moved from 10 test road test street aa12 123 please could you confirm the new address from your records thanks jaguar pension plan</t>
-  </si>
-  <si>
-    <t>fw : - tst12345678 importance : high hi team please see below query and reply accordingly thank you test pensions from : abc xyz testmail com sent : 09 november 2020 10 : 14 to : test pensions pensions com cc : test ifa subject : re : - tst12345678 importance : high good morning further to the below email please can you confirm that you now have all the information you require to process the clients transfer i await your response thanks abc from : test pensions pensions com sent : 26 october 2020 12 : 40 to : abc xyz testmail com subject : - tst12345678 dear abc thank you for your email i have checked our records and can confirm that the correspondence was issued to the member on 21 october 2020 should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely test pensions 10 test road test street aa12 123 direct dial : + 91 012345678 test pensions pensions com from : abc xyz testmail com sent : 21 october 2020 14 : 19 to : test pensions pensions com subject : - tst12345678 importance : high good afternoon please can you provide me with an update on the transfer away to test pensions i await your response regards abc tel : + 91 012345678</t>
-  </si>
-  <si>
-    <t>change of address good evening is it possible to change my contact address via email kind regards abc xyz</t>
-  </si>
-  <si>
-    <t>re : test pension scheme - late mrs abc xyz sorry forgot to add into my last email yes the death has been registered on 1 january i am still waiting for certificate to arrive in post could not collect because of covid thanks abc xyz sent from my iphone on 23 nov 2020 at 03 : 36 &lt;test pensions pensions com &lt;test pensions pensions com wrote : dear abc xyz test pension scheme thank you for your email regarding the test pension scheme please accept my sincerest condolences for your loss in order to assist us could you please provide us with the following details : date of death : member s address at date of death : has the death been registered and death certificate issued : did the member have any financial dependents address for condolence : also please reconfirm member s national insurance number contact number should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely abc xyz administrator customer support centre test pensions 10 test road test street aa12 123 direct dial : + 91 012345678 fin corp testmail com &lt;mailto : fin corp testmail com - - - - - original message - - - - - from : abc xyz&lt;abc xyz testmail com sent : 22 november 2020 17 : 13 to : test pension scheme subject : re : tst12345678 hello re the below email sent on behalf of my mother abc xyz deceased information needed national insurance number date of birth many thanks abc xyz daughter sent from my iphone on 19 nov 2020 at 10 : 56 susan evans &lt; abc xyz testmail com wrote : hello re the above pension plan for mrs abc xyz i would just like to inform you that my mother passed away on 1st january 2020 could you please cancel any further payments made that my mother won t be entitled to any problems please advise and i ll try my best to assist you kind regards abc xyz deceased s daughter sent from my iphone</t>
-  </si>
-  <si>
-    <t>lmn pension fund - def good afternoon could you please provide me with an update on the progress of the transfer pack that was requested from you kind regards abc tel + 91 012345678 from : abc xyz testmail com sent : 12 november 2020 16 : 11 to : test pensions pensions com subject : lmn pension fund - def good afternoon could you please provide me with an update on the progress of the transfer pack that was requested from you kind regards abc tel + 91 012345678 from : test pensions pensions com sent : 28 october 2020 06 : 32 to : abc xyz testmail com subject : lmn pension fund - def dear abc test pension scheme thank you for your email regarding the lmn pension fund i have checked the records and i can confirm that we have issued a correspondence to you on 26th october 2020 stating below : please be advised that the transfer value of the member has been referred to the scheme actuary for review as a result we are unable to provide a transfer value quotation until we have received confirmation to issue as soon as we have this confirmation the transfer value quotation will be sent to you i can confirm i have forwarded your email to our administration department in relation to your other queries and they will be in contact shortly if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com&lt;mailto : test pensions pensions com yours sincerely test from : abc xyz testmail com sent : 20 october 2020 09 : 32 to : test pensions pensions com subject : lmn pension fund - def 20 10 2020 def dear sir madam re : request for information we are acting on behalf of the above client who is considering transferring their benefits from the test pension scheme please find attached a letter of authority to allow you to release information to us on the benefits that our client holds in the scheme please can you provide the following information at your earliest convenience : i require uk transfer documents basic details date of joining scheme date of leaving scheme accrual rate final pensionable salary please provide a cash equivalent transfer value cetv cetv expiry date has the cetv been reduced or enhanced normal retirement date nrd of the scheme does the scheme permit partial transfers if so on what basis were any member s contributions paid if so please specify the amount please provide a copy of the latest scheme booklet or website link breakdown of benefits benefits at date of leaving including a breakdown between pre - 88 gmp post - 88 gmp pre - 97 excess post - 97 excess post - 05 excess and post - 09 excess does gmp franking apply if so on what basis revaluation rate of each of the above tranches in deferment escalation rate of each of the above tranches in payment is a lump sum payable in addition to the scheme pension does the scheme provide a bridging pension or state pension deduction if so provide details does the scheme provide an ill - health pension if so please give details death benefits lump sum death benefits in deferment lump sum death benefits in payment are any member s contributions returned on death before retirement if so is interest added if yes at what rate guarantee period of pension in payment spouse s pension death in deferment spouse s pension death in retirement is the spouse s pension calculation based on the pre - commutation figure is the spouse s pension reduced where there is an age difference if so provide details if there is no legal spouse will the scheme pay the spouse s pension to a partner or dependent is there a children s pension if so provide details pension commencement lump sum does the scheme provide a pension commencement lump sum pcls if pcls is an option what are the commutation factors between age 55 and age 75 scheme funding please provide the latest scheme funding summary early and late retirement what is the earliest age the member can retire what is the earliest age the member can retire with unreduced benefits what are the early retirement factors between age 55 and nrd can the member take late retirement what are the late retirement factors between nrd and 75 where early or late retirement is taken are the benefits revalued to the normal retirement date or the early late retirement date before the factor is applied as our client has already reached normal retirement date under the scheme please also provide the following : immediate retirement quote given the time sensitive nature of the request we would greatly appreciate all requested information be sent via email to test pensions pensions com&lt;mailto : test pensions pensions com we thank you for your assistance with this matter kind regards abc</t>
-  </si>
-  <si>
-    <t>test pension plan - tst12345678 abc thanks you however mr abc has left employment through voluntary redundancy and i need the guaranteed cetv please from : test pensions pensions com sent : 11 november 2020 14 : 42 to : test ifa fincorp com subject : test pension plan - tst12345678 abc dear test ifa thank you for your email regarding the test pension plan please find attached information regarding mr abc this has been encrypted with the member s national insurance number in the format zz123123z kind regards test pensions</t>
-  </si>
-  <si>
-    <t>pension query hi team please see below query and reply accordingly many thanks test pensions from : abc xyz testmail com sent : 18 november 2020 09 : 02 to : test pensions pensions com subject : re : pension query abc xyz dob : 01 01 1400 ni : zz123123z thanks regards abc from : test pensions pensions com sent : 18 november 2020 04 : 02 to : abc xyz testmail com subject : pension query dear abc thank you for your email to enable us to answer your enquiry please could you provide your date of birth and national insurance number and full address for data verification purposes should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 13 november 2020 14 : 44 to : test pensions pensions com subject : pension check hi just checking on the pension i started with you back in the 80 s when i worked for def could you please send me some information on its value thanks regards abc</t>
-  </si>
-  <si>
-    <t>retirement quotian hi my name is abc xyz 10 test road test street aa12 123 dob 01 01 1400 national insurance number zz123123z test pension scheme payroll number zz123123z i am writing to ask for my retirement figures as i intend to retire on 01 jan 1400 i have not officially handed in my notice yet but my immediate managers are aware of my intended date subject to my figures i have had my figures from you in the past and i have already decided my option choice but to avoid a problem i would like to take all my dc pot from fin corp 1 and combine it with my db allowance so as to draw the max tax - free cash sum that i am allowed i would also need to know my step pension and the cost of this step pension i have gone on the fin corp web site but i prefer to have a written copy of all my figures please excuse me if this email is hard to understand as my knowledge of pension jargon is very limited i am happy for anybody to call or text or email me if i have not explained what i want i have had conflicting quotations in the past but i would hope to get as accurate figures as is possible as i am serious about my intention to retire i have only needed estimates in the past i have been advised by your office to mention the phrase i wish to claim my pension thanking you and look forward to hearing from you my phone number is + 91 012345678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pension forecast - abc xyz nino - zz123123z dob - 01 01 1400 could you please issue an early retirement quotation for the 1 december 2020 kind regards abc direct : + 91 012345678 abc xyz testmail com from : abc xyz testmail com to : test pensions pensions com date : 05 11 2020 10 : 40 subject : pension forecast - abc xyz please could you send me a pension forecast abc xyz 10 test road test street aa12 123 thank you warning : this is an external email do not click links or open attachments unless you recognise the sender and know the content is safe </t>
-  </si>
-  <si>
-    <t>re : test fund pension plan dear test pensions please see amended expression of wish form many thanks abc from : test pensions pensions com sent : 13 november 2020 09 : 27 to : abc xyz testmail com subject : test fund pension plan dear mrs abc test pension plan thank you for your email regarding the test pension plan your request for change of address and change of name has been logged and you will receive a written response from our administration department within 5 - 10 working days i have attached an expression of wish form for you to print and complete as appropriate please send the signed and completed document to the address as detailed below at your earliest convenience once your address details are updated we will proceed with your pension statement query if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com did you know that member s can access and manage their pension online by logging into their test account if you are a scheme of this member you can access your account if you have forgotten your username and or password there is a link on this page to reset it if you have not previously activated your account email us so we can provide you with the activation link yours sincerely test pensions from : abc xyz testmail com sent : 11 november 2020 21 : 55 to : test pensions pensions com subject : change of address and name good evening could you please update the following details current details : - new details : - wedding cert attached dob : - ni number : - also could you send me an expression wish form and my latest pension statement many thanks abc from : abc xyz testmail com sent : 11 november 2020 16 : 13 to : abc xyz testmail com subject : wedding cert</t>
-  </si>
-  <si>
-    <t>pension value reads as nil hello my test pension is now with fin corp pension reference is zz123123z the value has remained at nil since january 2019 pension notes indicate that a value will be uploaded shortly but that hasn t happened to date could you please confirm that my pension is still active and that a value will appear soon kind regards abc xyz 10 test road test street aa12 123 sent from mail &lt;https : go microsoft com fwlink linkid = 550986 for windows 10</t>
-  </si>
-  <si>
-    <t>re : test pension scheme test pension scheme ref : tst12345678 abc xyz zz123123z with reference to my email or 21st october requesting to know the figure a lump sum would be unfortunately i did not receive this information i received paperwork i have previously received before i make a decision on whether to to opt for a lump sum i obviously need to know what this would be i would be grateful if you could let me know this abc xyz on friday 30 october 2020 11 : 26 : 25 gmt wrote : dear mrs abc xyz test pension scheme thank you for your email regarding test pension scheme your request has been logged and you will receive a written response from our administration department within 5 - 10 working days should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at testscheme fincorp com &lt;mailto : testscheme fincorp com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 www fincorp com from : abc xyz &lt;abc xyz testmail com sent : 28 october 2020 03 : 45 to : test pension scheme subject : re : test pension scheme my address is 10 test road test street aa12 123 on saturday 24 october 2020 19 : 25 : 53 bst wrote : dear abc xyz test pension scheme thank you for your email regarding the test pension scheme to enable us to answer your enquiry please could you provide your full address for data verification purposes should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at testscheme fincorp com &lt;mailto : testscheme fincorp com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 www fincorp com &lt;http : www fincorp com from : abc xyz &lt;abc xyz testmail com sent : 22 october 2020 00 : 42 to : test pension scheme subject : fw : test pension scheme ref tst12345678 - - - - - forwarded message - - - - - from : abc xyz testmail com to : testscheme fincorp com sent : wednesday 21 october 2020 16 : 08 : 58 bst subject : test pension scheme ref tst12345678 i have received retirement quotations as requested they state that i may be able to have a one - off lump sum i would like to know how much this would be before making a decision and completing the paperwork abc xyz ni no zz123123z</t>
-  </si>
-  <si>
-    <t>change of address dear test pension please note that i have moved from : 107 test road test street wa12 123 to : 10 test road test street aa12 123 regards abc + 91 012345678</t>
-  </si>
-  <si>
-    <t>fw : address change - former employee def hi team please see below query and reply accordingly thank you test pensions from : testfund fincorp com sent : 16 november 2020 09 : 00 to : test pensions pensions com subject : address change - former employee def hi please note address change for abc below ni number zz123123z thank you kind regards test fund from : abc xyz testmail com sent : 13 november 2020 12 : 59 to : testfund fincorp com subject : address change - former employee def hi i used to work for def and left in 2007 i am m now coming up to retirement age and trying to sort out my pensions can i update my current address with yourselves i now live at : 10 test road test street aa12 123 thanks for your attention kind regards abc</t>
-  </si>
-  <si>
-    <t>test pension fund - bheem b message encrypted dear sir madam as per previous correspondence from ms bheem please find attached copy of our correspondence sent to you today confirming the member s cash lump sum on retirement from the above fund the attachment is password protected with the member s national insurance number all upper case kind regards sun light senior pensions administration leatherhead office postal address : post email fax centre z st tower 0 chennai road loundon m0 00a direct dial : + 44 1 1000 000 000</t>
-  </si>
-  <si>
-    <t>re : lmno pension plan i have already provided this information once before you informed me that the address had been updated on your systems however as requested : 10 test road test street aa12 123 zz123123z 1st january 1400 regards abc on 13 nov 2020 at 12 : 25 test pensions pensions com&lt;mailto : test pensions pensions com wrote : dear abc test pension plan thank you for your email regarding the test pension plan to enable us to answer your enquiry please could you provide your full address date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 11 november 2020 20 : 29 to : test pensions pensions com subject : re : lmno pension plan as you can see from the below email trail i requested that all communication to me should be sent to a new email address abc xyz testmail com &lt;mailto : mebehelen gmail com however the newsletter that was recently sent out to me from : testfund fincorp com was sent to the old email address please confirm how i can get my address details updated correctly on the mailing list for the newsletter regards abc on 11 may 2020 at 06 : 10 test pensions pensions com wrote : dear abc test pension plan thank you for your email regarding the test pension plan we note that you wish to receive newsletter through email we have updated our records with your email id abc xyz testmail com&lt;mailto : abc xyz testmail com i can confirm that going forward you will receive newsletter on your registered email id every year if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 06 may 2020 11 : 51 to : test pensions pensions com subject : re : lmno pension plan dear test pensions as requested : kind regards abc on 6 may 2020 at 06 : 28 test pensions pensions com&lt;mailto : test pensions pensions com wrote : dear abc test pension plan thank you for your email regarding the test pension plan to enable us to answer your enquiry please could you provide your date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 04 may 2020 15 : 47 to : test pensions pensions com subject : change of contact details hi i have recently received the newsletter from test pensions to an old email address abc testmail com&lt;mailto : abc testmail com and need to request that future communications are sent to this address abc xyz testmail com i am not sure whether there is an official way to request this change if so please provide the details my full name is and my address is regards abc</t>
-  </si>
-  <si>
-    <t>question about my pension after death good morning i have a question regarding my pension after my death i understand my wife who is a beneficiary will get a lump sum but what about the pension it self would my wife get a weekly monthly percentage of my pension or just receive the lump sum many thanks abc xyz</t>
-  </si>
-  <si>
-    <t>re : def pension fund i still haven t received the reset password email from : test pensions pensions com sent : 19 november 2020 07 : 27 to : abc xyz testmail com subject : def pension fund dear mr abc def pension fund thank you for your email regarding the def pension fund please accept our apologies for the delay in responding to you i can confirm your username for test is : xxx an email containing a password reset link has been sent to your abc xyz testmail com&lt;mailto : abc xyz testmail com email address and you will receive this within the next 30 minutes this will only be active for 24 hours if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com did you know that member s can access and manage their pension online by logging into their test account yours sincerely test pensions from : abc xyz testmail com sent : 11 november 2020 06 : 20 to : test pensions pensions com subject : re : def pension fund hi i didn t receive any reset email from : test pensions pensions com sent : 10 november 2020 14 : 57 to : abc xyz testmail com subject : def pension fund dear mr goth def pension fund thank you for your email regarding the def pension fund i can confirm your username for test is : xxx an email containing a password reset link has been sent to your abc xyz testmail com&lt;mailto : abc xyz testmail com email address and you will receive this within the next 30 minutes this will only be active for 24 hours also your address is updated in our records if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com did you know that member s can access and manage their pension online by logging into their test account yours sincerely test pensions from : abc xyz testmail com sent : 06 november 2020 12 : 59 to : test pensions pensions com subject : change of address and access to account dear sirs i have changed address and cannot get into my account have tried several times please can someone help and advise my national insurance number is my date of birth is regards abc</t>
-  </si>
-  <si>
-    <t>mr abc xyz test zz123123z importance : high dear sirs thank you for your letter dated 3 11 2020 can you please provide us with an immediate retirement pack assuming client retires now please email it to us asap as the deadline of 30 11 is fast approaching and need to conclude the advice within a 3 week period thanks with warm regards test ifa</t>
-  </si>
-  <si>
-    <t>test pension plan dear test pensions thank you for your response the email i received asked me to await a hard copy version of this information before proceeding any further i know 2 copies have been sent but the def train system is not running at the present time so no postal deliveries have been made not to worry i would like to expedite my pension plan immediately and i am choosing option 1 = the largest lump sum possible gbp58000 + and the relevant monthly income thereafter as my wife and i live in lmn we would like all the funds deposited into her bank account - the account number will be supplied if this is possible we can also provide proof of identity current passports + adhaar national id card + my xx card and government certified marriage certificate which will endorse our relationship please advise kind regards abc test employee no 000000 ni number : zz123123z on wed 11 nov 2020 at 10 : 51 test pensions pensions com&lt;mailto : test pensions pensions com wrote : dear abc test pension plan thank you for your email regarding the test pension plan please accept our apologies for the delay in responding to you i have checked the record and i can confirm that we did sent you a copy of retirement quote via email on 22nd september 2020 however i have attached the copy of correspondence once again for your convenience please note we have encrypted the document with a password which is your national insurance number all in uppercase for ex ab123456c if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com did you know that member s can access and manage their pension online by logging into their test account if you are a scheme of this member you can access your account if you have forgotten your username and or password there is a link on this page to reset it if you have not previously activated your account email us so we can provide you with the activation link yours sincerely test pensions from : abc xyz testmail com sent : 06 november 2020 07 : 40 to : test pensions pensions com subject : re : test pension plan dear test pensions it would appear that def state is currently experiencing a train strike this means that mail is not being delivered would it be possible to send my test pension pack via email to this address please advise kind regards abc on sat 10 oct 2020 9 : 06 am abc xyz testmail com&lt;mailto : abc xyz testmail com wrote : dear test pensions that is good news thank you i suspect the delay is just the sheer distance combined with the logistical challenges caused by the virus my contact details are + 91 012345678 please note that i teach for 5 5 hours per day 11 00 am to 4 30 pm monday to friday and my phone is usually on silent therefore it would be advisable to reach me in the afternoon after 1 00 pm regards abc on thu 8 oct 2020 at 21 : 31 test pensions pensions com&lt;mailto : test pensions pensions com wrote : dear mr abc test pension plan thank you for your email regarding the test pension plan please accept my sincerest apologies for any inconvenience this may cause you i have checked our records and can confirm that the correspondence was issued to you on 29th september 2020 however i have arranged for the information to be re - issued to you as you have not received it please note that you will receive it shortly also could you please provide your contact details to call you if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 06 october 2020 12 : 13 to : test pensions pensions com subject : re : test pension plan reference : tst12345678 dear test pensions unfortunately i have yet to hear back from the administration department as of today tuesday 6 10 2020 would it be possible for them to make contact within the next 48 to 72 hours please regards abc test employee no ni number on thu 24 sep 2020 at 18 : 43 abc xyz testmail com&lt;mailto : abc xyz testmail com wrote : reference : tst12345678 dear test pensions firstly please note that my home address has changed it is now : it is exactly the same building but the local government has changed the way they officially designate them please amend your records to reflect this secondly as i am in india do i still need to call the 0000 number to request the necessary forms or is there an alternative method please advise kind regards abc test employee no ni number : on tue 22 sep 2020 at 21 : 56 test pensions pensions com&lt;mailto : test pensions pensions com wrote : dear mr abc further to your email please see the attached response the document has been encrypted with your national insurance number letters in upper case kind regards test pension scheme administration team from : abc xyz testmail com sent : 15 september 2020 17 : 41 to : test pensions pensions com subject : re : test pension plan dear test pensions ref : 00000 please find attached the original document containing the original address i have also attached the response letter i received from test pensions just to clarify the building is the same one; the local government has altered their method of identifying them hence the change of address regards abc on fri 11 sep 2020 at 10 : 11 test pensions pensions com&lt;mailto : test pensions pensions com wrote : dear mr abc test pension plan thank you for your email regarding the test pension plan please accept my sincerest apologies for any inconvenience this may cause you to enable us to answer your enquiry please could you provide your previous address for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com to : test pensions pensions com subject : re : test pension plan dear test pensions ref no here are the details that you requested address : date of birth : ni number : test employee payroll number : regards abc on wed 2 sep 2020 at 16 : 55 test pensions pensions com&lt;mailto : test pensions pensions com wrote : dear abc test pension plan thank you for your email regarding the test pension plan to enable us to answer your enquiry please could you provide your full address date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 01 september 2020 17 : 16 to : test pensions pensions com subject : re : fw : verification form ref no 00000 dear test pensions i would like to begin the process of activating my test pension we have corresponded several times and the process seems fairly simple as previously stated i would like to take the maximum lump sum available plus the relevant monthly payments there are 2 issues that will need resolving : 1 i am based in the def northern india and the local government have recently altered their house identification system therefore i would need to update my address 2 question : can i have the monthly payments transferred to my wife bank account if we supply the necessary documents proving that she is in fact my wife could you also include all the relevant information regarding what my wife is entitled to in the event of my death regards abc on mon 1 oct 2018 at 09 : 42 abc xyz testmail com&lt;mailto : abc xyz testmail com wrote : dear test pensions would it be possible to send me the following information please 1 my monthly pension amount if i commence payments in may 2020 2 the maximum amount i can take in a lump sum in may 2020 and the relevant subsequent monthly payment please send this information to this email address kind regards abc on wed 26 sep 2018 at 10 : 34 abc xyz testmail com&lt;mailto : abc xyz testmail com wrote : dear test pensions would it be possible to send me the following information please 1 my monthly pension amount if i commence payments in may 2020 2 the maximum amount i can take in a lump sum in may 2020 and the relevant subsequent monthly payment please send this information to this email address kind regards abc former test employee payroll no 00000 on fri 6 apr 2018 at 12 : 07 test pensions pensions com&lt;mailto : test pensions pensions com wrote : dear mr abc thank you for your email your address has been updated and a retirement quote was issued to your new address in the middle of march 2018 regards test pensions test pension administration team from : test pensions pensions com sent : 05 april 2018 15 : 35 to : test pensions pensions com subject : fw : verification form from : abc xyz testmail com sent : 05 april 2018 05 : 43 to : test pensions pensions com subject : re : verification form dear test pensions do you have any information regarding my pension request it has been several weeks since the completed form was sent and there has been no reply kind regards abc ref : 00000 on 24 november 2017 at 22 : 44 test pensions pensions com&lt;mailto : test pensions pensions com wrote : dear abc please find attached verification letter that was originally issued to def without the filled verification form we won t be able to proceed with your request in the mean time if you require any further information please do not hesitate to contact us regards test pensions test pension scheme administration team</t>
-  </si>
-  <si>
-    <t>ref tst12345678 mr abc xyz deceased please find attached a copy of your letter and the completed bank mandate form as requested i will also post the originals to fin corp aa12 123 kind regards abc xyz daughter and executor of the will</t>
-  </si>
-  <si>
-    <t>test pension scheme - tst12345678 - abc xyz good afternoon i am writing in reference to the above group life claim i can confirm that the claim for mr abc xyz has been registered onto our systems and we have commenced our assessment i note that the address on the death register does not match the address provided on the claim form please can you provide a reason for this the address on the death register is 10 test road test street aa12 123 kind regards abc xyz</t>
-  </si>
-  <si>
-    <t>abc - guaranteed transfer value - zz123123z good morning i would be grateful if you would confirm the above member has now left the scheme and when we can expect to received the guaranteed transfer value requested kind regards test ifa from : test ifa fincorp com sent : 16 september 2020 17 : 16 to : test pensions pensions com cc : testfund fincorp com subject : abc - guaranteed transfer value - zz123123z good afternoon further to my email below i would request a guaranteed cetv be produced and sent to us as soon as possible kind regards test ifa from : test ifa fincorp com sent : 02 september 2020 10 : 06 to : test pensions pensions com cc : testfund fincorp com subject : abc - guaranteed transfer value - zz123123z good morning i would be grateful if you could confirm you have received notification the above client has left the scheme and subsequently provide a guaranteed transfer value kind regards test ifa</t>
-  </si>
-  <si>
-    <t>test pension plan hello thank you for reply just want to ask is it completely safe for me to send such details in a email as we are told not to do this ! hope you understand apology for any inconvenience abc - - - - - original message - - - - - from : test pensions pensions com to : abc xyz testmail com sent : wed nov 11 2020 08 : 23 am subject : test pension plan dear mr abc test pension plan thank you for your email regarding the test pension plan to enable us to answer your enquiry please could you provide your full address date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 07 november 2020 13 : 01 to : test pensions pensions com subject : re : your transfer value request hello many thanks for helping out with login after reading all about early retirement i am worried that i may run out of money to live on ! it is such a big decision to leave than not have a wage that goes in every week i have read about so many scams bad advice etc that people have lost thousands from there hard earned savings now i do not know whether to cancel my vr application also as i am 57 it will be another ten years before state pension so am i wanting to leave too early i just dont know ! now with so many things going on i feel i am worried i really do not know what to do is there a person who i can talk to about this sorry for any inconvenience abc - - - - - original message - - - - - from : test pension team to : abc xyz testmail com sent : fri oct 30 2020 07 : 27 pm subject : your transfer value request the result of the transfer value calculation you requested for your test pension scheme is now available you can view your transfer value by logging on to the pension section of test at https : www test com this information will be available to you until 01 11 2020 00 : 00 : 00 or until such time you request another calculation if you have any questions regarding the document or your test pension just call the test team on + 91 012345678or email us at test pensions pensions com regards test pension team + 91 012345678 test pensions pensions com</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pre - identified user support request reply email address : test pensions pensions com forename : abc xyz surname : def ni number : zz123123z dob : 01 jan 1400 home postcode : aa12 123 employer : fin corp ltd subject : question re my test pension and the lifetimes allowance content : i am 55 in 1400 and i am now looking to start considering my pension retirement options i have a sipp with over 100 000 in it so looking ahead i am conscious that over the next few years i may come close to the lifetime allowance when i also consider the value of my test pension my understanding is that to work out the amount of my test pension within the lifetime allowance i multiply the annual pension payment by 20 is it possible to tell me what my pension is for lifetimes allowance calculation at 55 amd 60 much appreciated</t>
-  </si>
-  <si>
-    <t>immediate retirement quote ref : tst12345678 test pension scheme mr abc xyz 10 test road test street aa12 123 ni zz123123z dear abc thank you for your recent correspondence i would like to request an immediate retirement quote for mr abc and retirement pack with his options on taking his pension from the scheme if you could also please send me a copy of this information if you require any further information from myself please let me know kind regards abc xyz</t>
-  </si>
-  <si>
-    <t>mr abc ref - tst12345678 dear test pensions i hope this email finds you well further to your email to def at investacc i understand you have requested a copy of our financial advice declaration addressed to the member i can confirm the declaration was sent to mr abc along with our original advice but now attach a copy in a letter format addressed to the member i have copied in mr abc on this email so you can verify this letter has been provided please can you now advise on timescales as to when we can expect the transfer to complete kind regards</t>
-  </si>
-  <si>
-    <t>registering via fin corp i had a letter from you back in july advising me that i had been found under the fin corp organisation unfortunately i had mislaid the letter and only just found it and realised that i had missed the required date to register my account i would be very grateful if you could forward me new five pair characters so that i may register my account many thanks for your kind cooperation yours sincerely abc xyz tel + 91 012345678</t>
-  </si>
-  <si>
-    <t>tst12345678 lv = classification : confidential good afternoon i have provided advice to mr abc xyz as per the above reference mr dowell would like to start his test pension under the early retirement rules can you please provide a quote with the maximum tax free cash with a start date of 01 01 1400 and a quote with a start date of 01 01 1400 can you also include the forms he needs to sign to start the pension can the quotes and forms be sent to mr abc xyz if however it is quicker to send to us please do this and we will forward to mr abc xyz if you have any questions please get back to me on this email address kind regards</t>
-  </si>
-  <si>
-    <t>abc - test industries pension scheme - death notification no nino as previously stated dob 01 01 1400 test fund from : testscheme fincorp com sent : 06 october 2020 17 : 23 to : testfund fincorp com subject : abc - test industries pension scheme - death notification hi test fund please provide member dob and nino as we are unable to locate member record within the above scheme regards test scheme from : testfund fincorp com sent : 02 october 2020 14 : 14 to : testscheme fincorp com subject : abc - test industries pension scheme - death notification condolence pack will need to be sent to 10 test road test street aa12 123 test fund from : testscheme fincorp com sent : 02 october 2020 09 : 42 to : testfund fincorp com subject : abc - test industries pension scheme - death notification hi test fund can you check and assist is there any work required from csc team or not regards test scheme from : testfund fincorp com sent : 30 september 2020 14 : 30 to : testscheme fincorp com subject : abc - test industries pension scheme - death notification hello member s sp does not have a nino so i am unable to create a job please complete death process death notification preserved pension idu check pass sla quoted date member passed 01 01 1400 date the death was registered : cannot remember members forename : abc what address did you will you use to register the death : 10 test road test street aa12 123 did the member have any financial dependants or a spouse husband xyz address for condolence pack : 10 test road test street aa12 123 did the member leave a will yes if yes - can i take the name of the executor husband - xyz test fund</t>
-  </si>
-  <si>
-    <t>test pension tst12345678 hi i have been sent a update on my scheme many thanks for that i have a question can i withdraw any funds tax free when i reach 55 next year also if so how much would that figure be kind regards abc xyz 10 test road test street aa12 123 ref tst12345678 national insurance number zz123123z kind regards</t>
-  </si>
-  <si>
-    <t>re : test pension fund - our ref : tst12345678 password is xxxxxx from : test ifa fincorp com sent : 09 november 2020 09 : 51 to : test pensions pensions com subject : re : test pension fund - our ref : tst12345678 good morning thank you for your email please find attached the client s letter of authority with the requested information the document is password protected password to follow in separate email if you have any queries please don t hesitate to contact us many thanks test ifa from : test pensions pensions com sent : 02 november 2020 10 : 03 to : test ifa fincorp com subject : test pension fund dear test ifa test pension fund thank you for your email regarding the ford pension fund to enable us to answer your enquiry please could you provide the member full address date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : test ifa fincorp com sent : 23 october 2020 16 : 11 to : test pensions pensions com subject : tst12345678 zz123123z good afternoon please can you provide an update on our mutual clients pension transfer many thanks test ifa</t>
-  </si>
-  <si>
-    <t>test pension plan - mr xyz mr xyz 10 test road test street aa12 123 zz123123z thanks test ifa from : test pensions pensions com sent : 11 november 2020 06 : 27 to : test ifa fincorp com subject : test pension plan - mr xyz dear test ifa test pension plan thank you for your email regarding the test pension plan to enable us to answer your enquiry please could you provide member s full address date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com&lt;mailto : test pensions pensions com yours sincerely test pensions from : test ifa fincorp com sent : 06 november 2020 11 : 59 to : test pensions pensions com subject : test pension plan - mr xyz good afternoon i am emailing in regards to the above member we have recently submitted a paper based transfer for the below policy number : - tst12345678 would it be possible to confirm receipt of our request and confirm whether anything further is required to proceed test ifa</t>
-  </si>
-  <si>
-    <t>fw : tst12345678 thanks test pensions i have copied all the admin details on our data so someone from the team can look into this though looking at the file there does seem to be a few emails on the file to ifa so may just be a lack of clarity on what the hold up for mr abc is please can someone contact the client asap to nip this complaint in the bud thanks test fund - - - - - original message - - - - - from : test pensions pensions com sent : 01 december 2020 10 : 11 to : testfund pensions com subject : fw : tst12345678 hi test fund i am not sure if stu is around but please can you pass this on to the manager of mr abc scheme please i have issued an initial holding response as per the attached but this will need to be escalated accordingly thanks test pensions - - - - - original message - - - - - from : test pensions pensions com sent : 01 december 2020 10 : 04 to : abc xyz testmail com subject : re : tst12345678 good morning mr abc firstly please accept my apologies on behalf of xyz for the problems that you have been experiencing we take matters like this very seriously and i will do everything i can to assist you your email has come through to our specialist sipp and ssas team mailbox and we are unfortunately not the area that look after your pension scheme we also do not have access to the main pensions administration area records to enable me to search for your scheme and trace your policy however i have referred your email across to our complaints team and also to a senior manager in our main pensions administration area to enable them to trace your scheme and make contact with you regarding this they should be in touch with you shortly in the meantime i can also confirm that there is a customer service centre for our main pensions administration area which you can contact if you need to in the future by telephone on + 91 012345678 or by email to test pensions pensions com to help them to trace your scheme in the future you may need to quote the name of the scheme your policy reference number and your name and national insurance number i hope this is of assistance to you for the future and please rest assured that someone will be in touch with you shortly regarding your scheme kind regards test pensions - - - - - original message - - - - - from : abc xyz testmail com sent : 30 november 2020 14 : 30 to : test pensions pensions com subject : tst12345678 hi i ve sent the below message to the contact us page on your website someone needs to contact me or reply to test ifa with regards to transferring this pension to them you do not respond to me you do not respond to them nobody answers your phone this request was first made in september and will be sent to the ombudsman this week unless you actually reply to someone i will try here as well can someone respond to this before i m left no option but to go to the ombudsman from my point of view you have 20000 of my money you refuse to handover i consider that a form of theft i know someone looks at this as i ve been sent three useless letters in the post that achieve nothing you need to reply to test ifa when they contact you i thought def had the worst customer service ever but at least they eventually respond this is just corporate stonewalling have you tried using your service it s pathetic thanks abc</t>
-  </si>
-  <si>
-    <t>re : test pension plan hi this is my previous address 10 test road test street aa12 123 this is my new address 10 test road test street aa12 123 thanks abc xyz sent from my iphone on 21 nov 2020 at 04 : 06 test pensions pensions com wrote : dear mr abc xyz test pensions plan thank you for your email regarding the test pensions plan to enable us to update your address please could you provide your previous full address and current full address for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at testscheme fincorp com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 - - - - - original message - - - - - from : test pensions sent : 12 october 2020 22 : 24 to : test pensions subject : pre - identified user support request reply email address : abc xyz testmail com forename : abc surname : xyz ni number : zz123123z dob : 01 jan 1400 home postcode : aa12 123 employer : test pension subject : personal details content : i had asked to change my new address and married status i had been told it s already done but today i had checked it out my personal details it s not been done yet ! would you look into this please thanks abc xyz</t>
-  </si>
-  <si>
-    <t>re : test pension scheme abc xyz tst12345678 hello i have checked with mr abc who confirmed that he had sent documents when they were requested he will download and complete again regards test fund on 18 nov 2020 at 12 : 06 test pensions pensions com wrote : dear test fund it is about the statement and forms that we sent to you following the death of mrs abc we do not think that you have returned the documents requested what do i need to do please refer to the statement that we sent to you and send us the information requested completed beneficiary form completed bank mandate form please include your address and national insurance number where can i get more information or ask questions please call + 91 012345678 to speak to our team lines are open between 9 00am and 5 00pm monday to friday please have the member s national insurance number ready so that we can deal with your enquiry quickly if you write to us please provide the member s full name and national insurance number the scheme name and the reference tst12345678 regards test pensions</t>
-  </si>
-  <si>
-    <t>test pension scheme reference : tst12345678 dear test pensions i am enclosing the information you asked for in your recent letter dated 23 october 2020 the beneficiaries addresses you asked for are mrs def 10 test road test street aa12 123 mr jkl 110 test road test street ee12 123 the solicitor dealing with the estate of lmno is stu her email is stu testmail com&lt;mailto : stu testmail com yours sincerely abc</t>
-  </si>
-  <si>
-    <t>re : test pension plan hi national insurance number is zz123123z date of birth is 01 01 1400 if i remember correctly my clock number was 000000 i took early retirement in 2006 aged 50 abc on friday 13 november 2020 03 : 33 : 13 gmt wrote : dear mr abc test pension plan thank you for your email regarding the test pension plan to enable us to answer your enquiry please could you provide your date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com yours sincerely abc from : abc xyz testmail com sent : 11 november 2020 07 : 44 to : test pensions pensions com subject : test form hi i would like to have a test account please if not may i have an test form my name and address is; mr abc cheers abc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">re : thank you for your email to test pensions pensions com just received your reply by post basically telling me i can t retire yet all i asked was how much was in the pension i m wanting to take it next april when i m 55 you ve been horrendous to deal with be in touch next april hope your more helpful sent from my iphone </t>
-  </si>
-  <si>
-    <t>test pension fund - late mr def dear test pensions we have not yet received any letter regarding the test pension scheme please can you let me know when this will be sent out and if it has the date in which it was sent kind regards abc from : abc xyz testmail com sent : 24 september 2020 14 : 11 to : test pensions pensions com subject : test pension fund - late mr def dear test pensions thank you for your email please send any correspondence to the following address : abc test cos 10 test road test street aa12 123 if you have any further queries please let me know kind regards abc from : test pensions pensions com sent : 24 september 2020 12 : 48 to : abc xyz testmail com subject : test pension fund - late mr def dear abc test pension fund thank you for your email regarding the test pension fund please confirm your office address to which we should send the correspondence if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 21 september 2020 14 : 54 to : test pensions pensions com subject : test pension fund - late mr def dear test pensions thank you for your email we have been in touch with the deceased s family and they have been able to locate an old piece of correspondence for the test pension please find this attached along with his death certificate both have been password protected with his date of birth in the format ddmmyyyy and i will email a note of this to you immediately after sending this email please note that the family have highlighted that the date of birth shown on your attached correspondence for the deceased is incorrect his correct date of birth is shown on his death certificate once you have located the deceased s pension details please advise of any payments due to his estate from the pension scheme including any benefits and cash lump sums due to any beneficiaries or dependents together with the next steps necessary to process any such claims i look forward to hearing back from you shortly but if you have any queries please let me know my direct line is + 91 012345678 kind regards abc from : test pensions pensions com sent : 02 september 2020 10 : 47 to : abc xyz testmail com subject : test pension fund - late mr def dear abc test pension fund thank you for your email regarding the test pension fund unfortunately i can confirm we are unable to locate a record of benefits within the above scheme using the details you have provided in addition could you please supply any additional reference numbers or the name of anyone you have received correspondence from within test in the past if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com&lt;mailto : test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 01 september 2020 14 : 32 to : test pensions pensions com subject : death of test pension member dear sir madam mr adefbc date of death 01 january 1400 nino we have been appointed by the executors of the above named deceased in relation to the administration of his estate and write to notify you of his death as he was in receipt of a pension from the test pension scheme as a former employee please advise of any payments due to the estate from the scheme including any benefits and cash lump sums due to any beneficiaries or dependents together with the next steps necessary to process any such claims we look forward to hearing back from you in due course kind regards abc</t>
-  </si>
-  <si>
-    <t>death in retirement hi can you help my father abc xyz is a retired employee of fin corp he retired approximately 30 years ago and is a member of the test pension plan dob 01 01 1400 ni no zz123123z paye ref tst12345678 pension payroll no tst12345678 address : 10 test road test street aa12 123 he is now 89 years of age and sadly in hospital receiving palliative care and is not expected to survive more than a few days who do i need to inform after he dies and as he will be survived by his wife will she be eligible for any benefit after his death importantly we are trying to put a care package in place for my mum as she herself has healthcare needs thank you for your help abc xyz</t>
-  </si>
-  <si>
-    <t>ref : tst12345678 dear sirs thank you for your letter ref above regarding my pension i do not have a spouse and what i really wanted to know for inheritance tax purposes will there be a lump sum payable upon my death and if so how much i look forward to hearing from you regards abc</t>
-  </si>
-  <si>
-    <t>change of bank account dear sir madam could you please advise me the process for having a test pension payed into a different bank account my father is a test pensioner and has opened a new bank account and would like his pension payed into it thanks in advance abc</t>
-  </si>
-  <si>
-    <t>1023456789 mr xyz confidential ref : 1023456789 mr xyz test pensions dear sir madam we ve received a transfer out request for the above member i ve attached a trustee declaration and a copy of the transfer request if you are happy for us to process this case please can you complete the form and return it to us if you need anything further please do not hesitate to contact us kind regards abc xyz test pension cid : image001 png 01d445ce e116bbd0 10 test road test street aa12 123 abcd com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zz123123z dear sir madam as the member is now deferred can you please provide us with an update on when we should receive the transfer information with the guaranteed transfer value any queries please do not hesitate to contact me </t>
-  </si>
-  <si>
-    <t>surname error member ref dep seq no surname inits nino tst12345678 0 xyz abc zz123123z i think the surname on the above name has been accidentally changed to something incorrect surname on valuation data ran in april is def and this matches sharepoint please can someone look into and correct thanks test fund direct dial : + 91 012345678</t>
-  </si>
-  <si>
-    <t>re : transfer out - abc good afternoon i was hoping to get an update on this transfer and confirm that you have all of the relevant paperwork to proceed many thanks test ifa from : test ifa fincorp com sent : 06 november 2020 12 : 03 to : test pensions pensions com subject : transfer out - abc good afternoon i wanted to make you aware that we have posted the paperwork in order to facilitate the transfer of mr abc test pension to def invest the reference is tst12345678 in the meantime i have attached copies of these documents for your reference the password is the client s date of birth in this format dd mm yyyy : i have also attached our hmrc information and other accompanying documents that confirm the registration of our pension scheme the client is now an active holder of an insured personal pension plan with us if you need anything else at this stage please let me know kind regards test ifa</t>
-  </si>
-  <si>
-    <t>test pension plan - zz123123z dear test pensions thank you for your response the email i received asked me to await a hard copy version of this information before proceeding any further i know 2 copies have been sent but the xxx train system is not running at the present time so no postal deliveries have been made not to worry i would like to expedite my pension plan immediately and i am choosing option 1 = the largest lump sum possible 11111 + and the relevant monthly income thereafter as my wife and i live in india we would like all the funds deposited into her def account - the account number will be supplied if this is possible we can also provide proof of identity current passports + adhaar national id card + my oci card and an indian government certified marriage certificate which will endorse our relationship please advise kind regards abc employee no 00000 ni number : zz123123z on wed 11 nov 2020 at 10 : 51 &lt; test pensions pensions com wrote : dear mr abc test pensions pension plan thank you for your email regarding the test pensions pension plan please accept our apologies for the delay in responding to you i have checked the record and i can confirm that we did sent you a copy of retirement quote via email on 22nd september 2020 however i have attached the copy of correspondence once again for your convenience please note we have encrypted the document with a password which is your national insurance number all in uppercase for ex zz123123z if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com did you know that member s can access and manage their pension online by logging into their test account if you are a scheme of this member you can access your account here&lt;https : login benpal com if you have forgotten your username and or password there is a link on this page to reset it if you have not previously activated your account email us so we can provide you with the activation link yours sincerely abc from : abc xyz testmail com sent : 06 november 2020 07 : 40 to : test pensions pensions com subject : test pension plan - zz123123z dear test pensions it would appear that def state is currently experiencing a train strike this means that mail is not being delivered would it be possible to send my pension pack via email to this address please advise kind regards abc on sat 10 oct 2020 9 : 06 am abc xyz testmail com wrote : dear test pensions that is good news thank you i suspect the delay is just the sheer distance combined with the logistical challenges caused by the virus my contact details are + 91 012345678 please note that i teach for 5 5 hours per day 11 00 am to 4 30 pm india time monday to friday and my phone is usually on silent therefore it would be advisable to reach me in the afternoon after 1 00 pm gmt regards abc on thu 8 oct 2020 at 21 : 31 &lt; test pensions pensions com &lt;mailto : 20test pensions pensions com 20 wrote : dear mr abc test pensions plan thank you for your email regarding the test pensions plan please accept my sincerest apologies for any inconvenience this may cause you i have checked our records and can confirm that the correspondence was issued to you on 1st january 1400 however i have arranged for the information to be re - issued to you as you have not received it please note that you will receive it shortly also could you please provide your contact details to call you if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 06 october 2020 12 : 13 to : test pensions pensions com subject : test pension plan - zz123123z reference : tst12345678 dear test pensions unfortunately i have yet to hear back from the administration department as of today tuesday 01 01 1400 would it be possible for them to make contact within the next 48 to 72 hours please regards abc employee no ni number on thu 24 sep 2020 at 18 : 43 abc xyz testmail com wrote : reference : tst12345678 dear test pensions firstly please note that my home address has changed it is now : it is exactly the same building but the local government has changed the way they officially designate them please amend your records to reflect this secondly as i am in india do i still need to call the 000000 number to request the necessary forms or is there an alternative method please advise kind regards abc employee no ni number : on tue 22 sep 2020 at 21 : 56 &lt; test pensions pensions com wrote : dear mr abc further to your email please see the attached response the document has been encrypted with your national insurance number letters in upper case kind regards test pension scheme administration team from : abc xyz testmail com sent : 15 september 2020 17 : 41 to : test pensions pensions com subject : test pension plan - zz123123z dear test pensions ref : tst12345678 please find attached the original document containing the original address i have also attached the response letter i received from pensions just to clarify the building is the same one; the local government has altered their method of identifying them hence the change of address regards abc on fri 11 sep 2020 at 10 : 11 &lt; test pensions pensions com wrote : dear mr abc test pension plan thank you for your email regarding the test pension plan please accept my sincerest apologies for any inconvenience this may cause you to enable us to answer your enquiry please could you provide your previous address for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com to : test pensions pensions com subject : test pension plan - zz123123z dear test pensions ref no here are the details that you requested address : date of birth : ni number : employee payroll number : regards abc on wed 2 sep 2020 at 16 : 55 &lt; test pensions pensions com wrote : dear abc test pension plan thank you for your email regarding the test pension plan to enable us to answer your enquiry please could you provide your full address date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 01 september 2020 17 : 16 to : test pensions pensions com subject : test pension plan - zz123123z ref no tst12345678 dear test pensions i would like to begin the process of activating my pension we have corresponded several times and the process seems fairly simple as previously stated i would like to take the maximum lump sum available plus the relevant monthly payments there are 2 issues that will need resolving : 1 i am based in the def xyz and the local government have recently altered their house identification system therefore i would need to update my address 2 question : can i have the monthly payments transferred to my wife hijk account if we supply the necessary documents proving that she is in fact my wife could you also include all the relevant information regarding what my wife is entitled to in the event of my death regards abc on mon 1 oct 2018 at 09 : 42 abc xyz testmail com wrote : dear test pensions would it be possible to send me the following information please 1 my monthly pension amount if i commence payments in may 2020 2 the maximum amount i can take in a lump sum in may 2020 and the relevant subsequent monthly payment please send this information to this email address kind regards abc on wed 26 sep 2018 at 10 : 34 abc xyz testmail com wrote : dear test pensions would it be possible to send me the following information please 1 my monthly pension amount if i commence payments in may 2020 2 the maximum amount i can take in a lump sum in may 2020 and the relevant subsequent monthly payment please send this information to this email address kind regards abc former x employee payroll no tst12345678 on fri 6 apr 2018 at 12 : 07 &lt; test pensions pensions com wrote : dear mr abc thank you for your email your address has been updated and a retirement quote was issued to your new address in the middle of march 2018 regards test pensions from : testfund fincorp com sent : 05 april 2018 15 : 35 to : test pensions pensions com subject : fw : verification form from : abc xyz testmail com sent : 05 april 2018 05 : 43 to : testfund fincorp com subject : test pension plan - zz123123z dear test pensions do you have any information regarding my pension request it has been several weeks since the completed form was sent and there has been no reply kind regards abc ref : tst12345678 on 24 november 2017 at 22 : 44 testfund fincorp com wrote : dear abc please find attached verification letter that was originally issued to def without the filled verification form we won t be able to proceed with your request in the mean time if you require any further information please do not hesitate to contact us regards test fund</t>
-  </si>
-  <si>
-    <t xml:space="preserve">re : thank you for your email to test pensions pensions com hello i was hoping you would be able to give me a little help regarding a pension which i previously had prior to starting test i have 7 years of pension with travel def and was hoping i would be able to transfer it into my current pension if this is possible how do i arrange it abc xyz 10 test road test street aa12 123 dob : 01 01 1400 ni : zz123123z payroll number : tst12345678 regards abc from : test pensions pensions com&lt;mailto : test pensions pensions com sent : 09 november 2020 13 : 27 to : abc xyz testmail com subject : thank you for your email to test pensions pensions com thank you for your email to test pensions pensions com&lt;mailto : test pensions pensions com depending upon the nature of your request we will issue a full written response to your home address or respond directly to this email address we can deal with your request if you have provided your full address date of birth and national insurance number payroll reference number please re - send your original email including this information if this was not included this information ensures that we identify and respond to the correct person in accordance with data protection act regulations if you do not wish to provide this information via email please telephone or write to test including the identification details please note - if you are contacting us on behalf of a member we also require this information in respect of them if you have any queries please contact a member of our team on + 91 012345678between 8 : 30am and 5 : 30pm monday to friday excluding bank holidays all calls are recorded for training and monitoring purposes </t>
-  </si>
-  <si>
-    <t>loa request qrst tst12345678 dear sir madam member name qrst member reference tst12345678 scheme name test pension scheme the above named has advised us that they wish to consider the possibility of a pension transfer please therefore find an electronic copy of the member s letter of authority attached which has been password protected using the member s national insurance number in the following format : 0000000000 we are in receipt of the cetv statement dated 26 10 2020 following the issue of the defined benefit transfers : abc on 8th july 2019 by the test has the scheme adopted the test member quote and scheme templates if so and the member s enquiry can be processed as a test standard case we are able to receive information in this format please provide the appropriate link for the test scheme template for this member if not in order to advise the member we would be grateful if you could provide the following documents : a retirement quote for aged 55 the member booklet applicable for their period of membership the latest report and accounts for the scheme showing the most recent funding position along with details of any recovery plan should the scheme be underfunded on an ongoing basis we also require the following information if it is not obtainable from the benefit illustrations scheme literature or member guides that you may be providing : transfer value 1 in response to the covid - 19 pandemic the pensions regulator are permitting schemes to apply a 3 month freeze on transfer activity have the scheme trustees already suspended or are they planning to suspend cetv quotations and or cetv payments 2 we note that the cetv is guaranteed until 26 01 2020 but are aware that transfer values are variable to reflect fixed interest yields and actuarial assumptions please advise whether any changes have been made to the cetv calculation or if any are due to be implemented that may be more favourable to the member since the original cetv was issued 3 has the transfer value been reduced to reflect any funding issues alternatively has the transfer value been enhanced 4 is it possible to take a partial transfer of db pension benefits and if so in what circumstances early retirement 5 is early retirement allowed if so from what age 6 what actuarial reduction factors would be applied to the member s pension in the event of early retirement at age 55 7 upon early retirement would the member s benefits be revalued to the date of actual retirement or normal retirement age if benefits are revalued to nra what assumption is made regarding future increases 8 in the event of the member having to retire early due to ill health are the benefits enhanced eg paid without the application of an early retirement factor please confirm the trustee s definition of ill health in this regard 9 please confirm the trustee s approach to serious ill health commutation lump sums sihc including how the sum would be calculated and on what grounds it would be paid would taking a sihc sum also extinguish the spouse s benefits within the scheme early retirement quotation request 10 as the member has expressed an interest in taking benefits at 55 please provide a retirement illustration showing both the full pension available along with any tax free cash and residual pension options offered 11 does the scheme offer pie pension increase exchange or any other options to change the amount of initial pension and or dependant s pension 12 please advise if there is a temporary pension included within the pension and if so how much this is and when it will fall away i e the member s actual state pension age of 67 or at original spa of age 13 please advise if there is a state pension deduction included within the pension and if so; a the value of the state pension deduction spd at date of leaving b at what age the spd applies c the rate of revaluation that applies to the spd between date of leaving and date of application if applicable d whether escalation on the pension in payment following the application of the spd is based upon the pension before or after the spd is applied client specific please confirm the following : 14 the member s final pensionable pay scheme information 15 does any part of this member s pension service have a different normal retirement age a if so please confirm the affected period of service and why a different nra applies eg as a result of equalisation transfer b the effect this has on the total benefits payable eg early or late retirement factors would apply if the pension is taken at outside of those ages 16 is the scheme open to all employees or are there restrictions if so what are they 17 what was the member s accrual rate 18 the excess pension revaluation basis; eg years and months rounded down 19 pensionable service basis; eg whole years whole years and months 20 rpi index month 21 does the scheme operate a money purchase underpin for this member if so please confirm the most recent value pension benefits at the date of leaving the scheme 22 excess benefits; showing any relevant splits such as post 97 09 care please confirm the rates of revaluation in deferment and escalation in payment for each section of benefits 23 please confirm the date the excess pension is revalued in deferment eg anniversary of date of leaving or a specific date in the year 24 statutory increases to occupational pensions are now in line with cpi instead of rpi please confirm whether the scheme intends to change to cpi in the future for revaluation in deferment and or escalation in payment 25 please list any discretionary increase applied to the pension either in deferment payment during the last 5 years and has potential future discretionary increases been taken into consideration in the calculation of the cetv 26 please provide a breakdown of any transferred - in benefits a if present are these benefits treated the same as the main benefits if not please highlight any differences b is there a fixed pension payable at nra as a result of the transferred in benefit c please provide details of any transferred - in gmp tax free cash tfc 27 does the scheme pay hmrc post a day maximum cash 28 if the hmrc maximum formula is not used how is the member s tfc calculated 29 what is the scheme s current tfc commutation factors 30 is the tfc taken on a pro rata basis across all elements of pension or from specific slices of pensionable service 31 if the member takes tax free cash is the pension increase in payment per annum applied based on pre or post commutation pension 32 does the member have protected scheme specific tax free cash that would be lost on individual transfer if so please advise amount at 5 4 2006 or if this client has bulk transfer protection for tax free cash death benefits 33 does the scheme pay a lump sum on death benefit before retirement if so what and how much if a return of member contributions sum is paid what is the interest applied to the figure 34 what pension would the member s spouse and or dependants receive upon death before and after retirement pension flexibilities 35 please advise if any changes to the scheme are being considered which could impact on the member for example following the introduction of pension freedoms in 2015 will the scheme be offering : flexi - access drawdown for the member on retirement or beneficiaries on the member s death uncrystallised fund pension lump sum either on a full withdrawal or partial withdrawal basis or partial crystallisations if so please provide details additional voluntary contributions avcs associated defined contribution dc schemes 36 please provide details and options of any other associated scheme benefits the member may have and a valuation of these we would be grateful if this information could be emailed to us at test ifa fincorp com or alternatively sent to the postal address above clearly marked for the attention of test ifa 10 test road test street aa12 123 we look forward to hearing from you but should you have any queries in the meantime please do not hesitate to contact us on the details above yours faithfully test ifa</t>
-  </si>
-  <si>
-    <t>updated address and contact details hi i am a deferred member of the test pension scheme and would like to update my contact details : name : abc xyz ni number : zz 12 31 23 z old address : 10 test road test street aa12 123 new address : 10 test road test street aa12 123 i would like to get updates and newsletters via email to abc xyz testmail com thanks abc xyz</t>
-  </si>
-  <si>
-    <t>additional information confirmed hi my name is : - abc j xyz dob 2 01 1800 ni no : zz123123z 10 test road test street aa12 123 i am currently in receipt of a pension since 2013 sss pension service waterup home 00 luke road waterup londonberry aa11 1aa ref no - 000000 tax district reference 000 a10000 the question i was asked - what was my life - time allowance i can now confirm that this was 16 9 i hope this information will result in a speedy payment of my pension kind regards abc sent from my ipad</t>
-  </si>
-  <si>
-    <t>test pension plan - abc good morning we are yet to receive this due to the time critical nature of these quotes would it be possible to email me a copy if this is not possible please post this again many thanks test ifa from : test pensions pensions com sent : 12 november 2020 07 : 45 to : test ifa fincorp com subject : test pension plan - abc dear test ifa test pension plan thank you for your email regarding the test pension plan a guaranteed transfer value statement was issued to your team on 06th november 2020 via post if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pension from : test ifa fincorp com sent : 10 november 2020 13 : 45 to : test pensions pensions com subject : test pension plan - abc importance : high good afternoon i would be grateful if you would confirm the above member has now left the scheme and when we can expect to received the guaranteed transfer value requested please post this to our below address or indeed send through by reply email if possible kind regards test ifa from : test ifa fincorp com sent : 22 july 2020 12 : 54 to : test pensions pensions com subject : test pension plan - abc hello i have not received a response please could i have this urgently thank you test ifa from : test ifa fincorp com sent : 07 july 2020 14 : 44 to : test pensions pensions com subject : test pension plan - abc hello please could i have an update on my request dated 30 06 2020 kind regards test ifa from : test ifa fincorp com sent : 30 june 2020 09 : 59 to : test pensions pensions com subject : test pension plan - abc good morning i refer to our above client and attached letter of authority and would like to request a benefits statement from the age of 56 : 1 max tax free cash being taken and a reduced pension and 2 maximum pension with no tax free cash for our above client many thanks test ifa</t>
-  </si>
-  <si>
-    <t>change of address i have changed my address and now living in xxx my new address is : - 10 test road test street aa12 123 best regards abc</t>
-  </si>
-  <si>
-    <t>test pension scheme; scheme member; change of address n i number : zz123123z dear sir madam i have recently received a publication regarding the above pension scheme redirected from my previous address details below : 10 test road test street aa12 123 i wish to register a change of address to that detailed below : 10 test road test street aa12 123 please could you acknowledge this change of address and forward any future information regarding the above referenced scheme to the changed address many thanks abc xyz lead assessor mobile number + 91 012345678 email : abc xyz testmail com</t>
-  </si>
-  <si>
-    <t>mr stu vwx good day i have spoken with one of your advisers today but i need some clarification please my father mr stu vwx ni no zz123123z ref tst12345678 currently as my father died and had received his pension in advance the estate owes 1 111 11 which i understand i am happy to have the money is paid out from what was his joint account with my mother she will be keeping the account to receive payments from yourselves could she then receive her payments i was also told that before any payments could be made to her a copy of the probate must be supplied but i see no reason for this as pensions fall outside the scope of probate we are in the process of applying for probate which will probably happen end of january can you confirm we can pay the amount owing and confirm that a copy of the probate is not required to release payments to my mother def if you have any questions please feel free to let me know thank you in advance kind regards abc + 91 012345678</t>
-  </si>
-  <si>
-    <t>abc ref tst12345678 for the attention of test pensions dear test pensions i refer to your letter of 16th october to my client abc in relation to his deferred pension benefits in the test pension scheme abc had requested a cetv back in august but did not received anything until late october after he had chased up several times the cetv was resent with your letter but still retained the original guarantee date of 21st november ; abc called to query this and was advised that he could have a 10 day extension ie 1st december abc wishes to proceed with the transfer and i now attach the signed discharge form which will hopefully secure the transfer value - we will forward all the supporting documentation as soon as possible i would mention that unfortunately abc suffered a heart attack in april and is back in hospital today for another angiogram so we hope that there are no issues which will cause any unnecessary stress i appreciate your assistance regards test ifa</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pre - identified user support request reply email address : testfund fincorp com forename : abc surname : xyz ni number : zz123123z dob : 01 january 1400 home postcode : aa12 123 employer : test pensions subject : pension transfer content : if i wanted a guaranteed transfer value how long would it take how long would it be valid for and what is the cost after the initial free quote thanks test pensions</t>
+    <t>MDU</t>
   </si>
   <si>
     <t>Transfer</t>
   </si>
   <si>
+    <t>Retirement</t>
+  </si>
+  <si>
     <t>Death</t>
   </si>
   <si>
-    <t>MDU</t>
-  </si>
-  <si>
-    <t>Retirement</t>
+    <t>FW ABC XYZ Your Ref TST12345678 Our Ref 12345678.msg</t>
+  </si>
+  <si>
+    <t>FWmsg.msg</t>
+  </si>
+  <si>
+    <t>RE Additional information confirmed.msg</t>
+  </si>
+  <si>
+    <t>FW Pension Retirement Pack ABC XYZ.msg</t>
+  </si>
+  <si>
+    <t>Estate of  - TEST Pension Ref TST12345678 Tees00123456789000.msg</t>
+  </si>
+  <si>
+    <t>TEST Pension Plan - Mr XYZ .msg</t>
+  </si>
+  <si>
+    <t>FW Test Pension Fund - ABC.msg</t>
+  </si>
+  <si>
+    <t>FW URGENT RE DEFG - ZZ123123Z - 01011400.msg</t>
+  </si>
+  <si>
+    <t>FW Change of address and bank details .msg</t>
+  </si>
+  <si>
+    <t>RE Burger Fries FIN 100000 retirement quote.msg</t>
+  </si>
+  <si>
+    <t>FW Urgent Information Request  Our ID 123456.msg</t>
+  </si>
+  <si>
+    <t>Mr ABCD - TEST Pension Scheme for Senior Staff - Case RefTST12345678.msg</t>
+  </si>
+  <si>
+    <t>FW Transfer Request Mr XYZZ 100 Your Ref TST12345678.msg</t>
+  </si>
+  <si>
+    <t>Pension Query.msg</t>
+  </si>
+  <si>
+    <t>RE Change of details.msg</t>
+  </si>
+  <si>
+    <t>TEST Retirement and Death Benefits Plan -Mr ABCD.msg</t>
+  </si>
+  <si>
+    <t>FW Pension Number 123456.msg</t>
+  </si>
+  <si>
+    <t>ABC XYZ.msg</t>
+  </si>
+  <si>
+    <t>change of address - ABC.msg</t>
+  </si>
+  <si>
+    <t>RE Change of Bank.msg</t>
+  </si>
+  <si>
+    <t>FW Test Pension Fund - Late Mr ABC XYZ.msg</t>
+  </si>
+  <si>
+    <t>FW URGENT ABC XYZ  - Test Pension Fund              (Our ref 12345)                   URGENT .msg</t>
+  </si>
+  <si>
+    <t>Member Address Change ZZ123123Z.msg</t>
+  </si>
+  <si>
+    <t>Test Pension Plan - TST12345678 ABC.msg</t>
+  </si>
+  <si>
+    <t>FW Policy Ref 132456.msg</t>
+  </si>
+  <si>
+    <t>FW Test Pension Fund 1.msg</t>
+  </si>
+  <si>
+    <t>FW Test Pensions Query.msg</t>
+  </si>
+  <si>
+    <t>RE Changing my home address.msg</t>
+  </si>
+  <si>
+    <t>FW RBC Retirement Option Form.msg</t>
+  </si>
+  <si>
+    <t>FW Test Pension Scheme - Test.msg</t>
+  </si>
+  <si>
+    <t>Request for Pensioner ID card for LMNO.msg</t>
+  </si>
+  <si>
+    <t>FW Test Pensions Death Approval - Mr ABC XYZ -  TST12345678 (25).msg</t>
+  </si>
+  <si>
+    <t>TEST Pension Scheme  - Mr ABC XYZ.msg</t>
+  </si>
+  <si>
+    <t>FW ABC XYZ.msg</t>
+  </si>
+  <si>
+    <t>URGENT ABC TST12345678.msg</t>
+  </si>
+  <si>
+    <t>Questions to Test - re-send.msg</t>
+  </si>
+  <si>
+    <t>ABC XYZ TST12345678 Pension Quote.msg</t>
+  </si>
+  <si>
+    <t>Mr LMNO TEST Group Pension Scheme Ref TST12345678.msg</t>
+  </si>
+  <si>
+    <t>Change of marital status - ABC - ZZ123123Z.msg</t>
+  </si>
+  <si>
+    <t>FW Test Pension Scheme - TST12345678 - ABC XYZ.msg</t>
+  </si>
+  <si>
+    <t>Test Pensions letter of authority - ABC.msg</t>
+  </si>
+  <si>
+    <t>URGENT CETV GUARANTEE DATE ENDING - DEF.msg</t>
+  </si>
+  <si>
+    <t>FW Mr ABC XYZ - TST12345678 - Test Pension Fund.msg</t>
+  </si>
+  <si>
+    <t>Test Pension Plan - ZZ123123Z.msg</t>
+  </si>
+  <si>
+    <t>FW Test Pension Plan.msg</t>
+  </si>
+  <si>
+    <t>Test Retirement and Death Benefits Plan - Test Section.msg</t>
+  </si>
+  <si>
+    <t>FW Test pension questions - Resent .msg</t>
+  </si>
+  <si>
+    <t>RE DSG Retirement and employee scheme. Ref JLT00000000.msg</t>
+  </si>
+  <si>
+    <t>TEST Pension Fund - Late Mr DEF.msg</t>
+  </si>
+  <si>
+    <t>FW PRE-IDENTIFIED USER SUPPORT REQUEST - Pension Quote.msg</t>
+  </si>
+  <si>
+    <t>FW Transfer Value - TEST Motor Company .msg</t>
+  </si>
+  <si>
+    <t>RE Reveiw of Pension Sharing order - Rome - JLT00000000 FOS.msg</t>
+  </si>
+  <si>
+    <t>FW Retirement Quotian.msg</t>
+  </si>
+  <si>
+    <t>FW Your transfer value request - TEST Pension Scheme .msg</t>
+  </si>
+  <si>
+    <t>FW Test Pension Scheme - ABC.msg</t>
+  </si>
+  <si>
+    <t>FW Not Virus Scanned - Password ProtectedWARNING MESSAGE ENCRYPTEDTest Pension Fund_Early Retirement Calculation_TST12345678 MESSAGE ENCRYPTED.msg</t>
+  </si>
+  <si>
+    <t>Test Retirement and Employee Security Scheme  Mr Mr ABC XYZ .msg</t>
+  </si>
+  <si>
+    <t>TEST Pension Plan - Mr ABCD.msg</t>
+  </si>
+  <si>
+    <t>FW Test Pension Fund.msg</t>
+  </si>
+  <si>
+    <t>XYZ LOA.msg</t>
+  </si>
+  <si>
+    <t>ABC - CETV Request.msg</t>
+  </si>
+  <si>
+    <t>ABC XYZ - ZZ123123Z.msg</t>
+  </si>
+  <si>
+    <t>FW FAO ABC XYZ ...Re Test Pension Fund.msg</t>
+  </si>
+  <si>
+    <t>FW Registering via Fin Corp.msg</t>
+  </si>
+  <si>
+    <t>TEST Pension Plan - test.pensions.msg</t>
+  </si>
+  <si>
+    <t>FW Test Pension Fund - Member Reference ZZ123123Z.msg</t>
+  </si>
+  <si>
+    <t>Change of address details.msg</t>
+  </si>
+  <si>
+    <t>Test Pension Fund - our ref TST12345678.msg</t>
+  </si>
+  <si>
+    <t>TEST Death Approval - ABCD (TST12345678).msg</t>
+  </si>
+  <si>
+    <t>Change of address --- TST12345678.msg</t>
+  </si>
+  <si>
+    <t>CETV Request_Mr XYZ .msg</t>
+  </si>
+  <si>
+    <t>Change of address TEST.msg</t>
+  </si>
+  <si>
+    <t>ZZ123123Z.msg</t>
+  </si>
+  <si>
+    <t>TST12345678_ABC.msg</t>
+  </si>
+  <si>
+    <t>FW Test Pension Scheme- ABC XYZ.msg</t>
+  </si>
+  <si>
+    <t>Test Pension Plan.msg</t>
+  </si>
+  <si>
+    <t>TST12345678.msg</t>
+  </si>
+  <si>
+    <t>TEST Pension Scheme- LMNO.msg</t>
+  </si>
+  <si>
+    <t>Test Pension Scheme - Test Section - TST12345678.msg</t>
+  </si>
+  <si>
+    <t>DEF Retirement and Employee Scheme.msg</t>
+  </si>
+  <si>
+    <t>FW Test pension.TST12345678.msg</t>
+  </si>
+  <si>
+    <t>ABC - TEST Industries Pension Scheme - Death Notification .msg</t>
+  </si>
+  <si>
+    <t>FW Pension summary - ABC.msg</t>
+  </si>
+  <si>
+    <t>FW Ms ABC XYZ.msg</t>
+  </si>
+  <si>
+    <t>FW telephone conversation.msg</t>
+  </si>
+  <si>
+    <t>LMNO Pension Plan.msg</t>
+  </si>
+  <si>
+    <t>FW Immediate Retirement Quote.msg</t>
+  </si>
+  <si>
+    <t>FW Test Pension Scheme.msg</t>
+  </si>
+  <si>
+    <t>FW  Test Pension Fund - ABC XYZ.msg</t>
+  </si>
+  <si>
+    <t>PRE-IDENTIFIED USER SUPPORT REQUEST.msg</t>
+  </si>
+  <si>
+    <t>FW WARNING MESSAGE ENCRYPTEDABC XYZ your ref TST12345678 our ref TVAUT-123456MESSAGE ENCRYPTED.msg</t>
+  </si>
+  <si>
+    <t>TEST Pension Fund - Late LMNO.msg</t>
+  </si>
+  <si>
+    <t>TEST Death Approval  ABC XYZ - TST12345678.msg</t>
+  </si>
+  <si>
+    <t>FW EMPLOYEE NO 123456.msg</t>
+  </si>
+  <si>
+    <t>Test Application for Ill health benefits - ABC (TST12345678).msg</t>
+  </si>
+  <si>
+    <t>FW URGENT TST12345678 DEFG.msg</t>
+  </si>
+  <si>
+    <t>Change of Address-ABCD.msg</t>
+  </si>
+  <si>
+    <t>FW ZZ123123Z - ABC.msg</t>
+  </si>
+  <si>
+    <t>TST12345678 Mr ABC XYZ.msg</t>
+  </si>
+  <si>
+    <t>TST12345678 ABC XYZ.msg</t>
+  </si>
+  <si>
+    <t>ABC XYZ  CHANGE OF ADDRESS.msg</t>
+  </si>
+  <si>
+    <t>Mr STU VWX.msg</t>
+  </si>
+  <si>
+    <t>FW WXYZ Pension Scheme  .msg</t>
+  </si>
+  <si>
+    <t>ABC  Test Pensions (TST12345678) URGENT .msg</t>
+  </si>
+  <si>
+    <t>ABC TST12345678 - ZZ123123Z- 01011400.msg</t>
+  </si>
+  <si>
+    <t>Test Pension Scheme Reference TST12345678.msg</t>
+  </si>
+  <si>
+    <t>RE Ford Salaried Contributory Pension Fund - Bheem_BMESSAGE ENCRYPTED.msg</t>
+  </si>
+  <si>
+    <t>FW Test Pension Scheme; Scheme Member; Change of Address.msg</t>
+  </si>
+  <si>
+    <t>FW Updated Address and contact details.msg</t>
+  </si>
+  <si>
+    <t>Change of personal details.msg</t>
+  </si>
+  <si>
+    <t>TEST Pension Fund  DEF.msg</t>
+  </si>
+  <si>
+    <t>FW Reference TST12345678 -ABC XYZ - Test Pension Scheme Membership Number ZZ123123Z  2 further important areas of understanding.msg</t>
+  </si>
+  <si>
+    <t>Test Fund Pension Plan.msg</t>
+  </si>
+  <si>
+    <t>Change of address - Ref TST12345678.msg</t>
+  </si>
+  <si>
+    <t>Test transfer - ABC.msg</t>
+  </si>
+  <si>
+    <t>FW PRE-IDENTIFIED USER SUPPORT REQUEST 1.msg</t>
+  </si>
+  <si>
+    <t>Change of address (TST12345678).msg</t>
+  </si>
+  <si>
+    <t>FW Test Pension Scheme 1.msg</t>
+  </si>
+  <si>
+    <t>FW Pension value reads as nil.msg</t>
+  </si>
+  <si>
+    <t>TEST Pension Plan - ABC.msg</t>
+  </si>
+  <si>
+    <t>Change of address - abc.xyz.msg</t>
+  </si>
+  <si>
+    <t>ABCD XX TST12345678.msg</t>
+  </si>
+  <si>
+    <t>FW Ref TST12345678 Mr ABC XYZ Deceased.msg</t>
+  </si>
+  <si>
+    <t>RE home address update.msg</t>
+  </si>
+  <si>
+    <t>Change of address - completed form.msg</t>
+  </si>
+  <si>
+    <t>DEF Retirement and Employee Scheme - ABC.msg</t>
+  </si>
+  <si>
+    <t>Change of address_ABC.msg</t>
+  </si>
+  <si>
+    <t>TEST Pension Plan - N.I. ZZ123123Z. 01011400.msg</t>
+  </si>
+  <si>
+    <t>PRE-IDENTIFIED USER SUPPORT REQUEST - Request for Personal Statement.msg</t>
+  </si>
+  <si>
+    <t>FW Extending decision time  .msg</t>
+  </si>
+  <si>
+    <t>RE Test Pension Scheme.msg</t>
+  </si>
+  <si>
+    <t>FW Fin Corp Registration.msg</t>
+  </si>
+  <si>
+    <t>Pension forecast - ABC XYZ.msg</t>
+  </si>
+  <si>
+    <t>FW ABC XYZ pension.msg</t>
+  </si>
+  <si>
+    <t>FW Change of address.msg</t>
+  </si>
+  <si>
+    <t>FW Test Pensions Death Approval - Mr ABC XYZ -  TST12345678 (17).msg</t>
+  </si>
+  <si>
+    <t>Change of Address  ABC.msg</t>
+  </si>
+  <si>
+    <t>- TST12345678.msg</t>
+  </si>
+  <si>
+    <t>FW Thank you for your e-mail to test.pensions@pensions.com.msg</t>
+  </si>
+  <si>
+    <t>FW PRE-IDENTIFIED USER SUPPORT REQUEST - ABC.msg</t>
+  </si>
+  <si>
+    <t>FW Transfer Out - ABC.msg</t>
+  </si>
+  <si>
+    <t>Change of Address  ABC XYZ.msg</t>
+  </si>
+  <si>
+    <t>URGENT CETV GUARANTEE DATE ENDING - ABCD.msg</t>
+  </si>
+  <si>
+    <t>FW Pension .msg</t>
+  </si>
+  <si>
+    <t>FW Test Pension Fund Scheme.msg</t>
+  </si>
+  <si>
+    <t>FW Test Pension Scheme - Member Reference ZZ123123Z.msg</t>
+  </si>
+  <si>
+    <t>FW Pension Information.msg</t>
+  </si>
+  <si>
+    <t>FW Test pension.msg</t>
+  </si>
+  <si>
+    <t>FW Test Pensions - ABC XYZ's - 12345 - Funeral Fee.msg</t>
+  </si>
+  <si>
+    <t>FW Bonjour!.msg</t>
+  </si>
+  <si>
+    <t>FW Test Pension Scheme - ZZ123123Z.msg</t>
+  </si>
+  <si>
+    <t>TST12345678 regarding my late father Mr LMNO.msg</t>
+  </si>
+  <si>
+    <t>FW Fin Corp Error Report.msg</t>
+  </si>
+  <si>
+    <t>Surname error.msg</t>
+  </si>
+  <si>
+    <t>FW WARNING MESSAGE ENCRYPTEDTest Pension Scheme MESSAGE ENCRYPTED (2).msg</t>
+  </si>
+  <si>
+    <t>Change of address - TST12345678.msg</t>
+  </si>
+  <si>
+    <t>Thank you for your email to test.pensions@pensions.com.msg</t>
+  </si>
+  <si>
+    <t>FW Test Pensions Scheme.msg</t>
+  </si>
+  <si>
+    <t>TEST scheme - Ref TST12345678.msg</t>
+  </si>
+  <si>
+    <t>FW Test Pension Scheme 2.msg</t>
+  </si>
+  <si>
+    <t>FW ZZ123123Z.msg</t>
+  </si>
+  <si>
+    <t>ABC XYZ - TST12345678 - ZZ123123Z.msg</t>
+  </si>
+  <si>
+    <t>FW Test Pension Fund - Mr ABC XYZ.msg</t>
+  </si>
+  <si>
+    <t>TEST Death Approval --- LMNO (TST12345678) (2).msg</t>
+  </si>
+  <si>
+    <t>ABC XYZ - Test Pensions for Senior Staff - Case RefTST12345678.msg</t>
+  </si>
+  <si>
+    <t>Retirement Quotation - ABC.msg</t>
+  </si>
+  <si>
+    <t>FW Pension transfer.msg</t>
+  </si>
+  <si>
+    <t>FW Test pensions Death Approval - Mr ABC XYZ - TST12345678.msg</t>
+  </si>
+  <si>
+    <t>FW ABC XYZ FIN TST12345678 retirement quote.msg</t>
+  </si>
+  <si>
+    <t>FW Test Pension Plan .msg</t>
+  </si>
+  <si>
+    <t>FW Change of details.msg</t>
+  </si>
+  <si>
+    <t>Documents relating to your claim .msg</t>
+  </si>
+  <si>
+    <t>FW Test Pensions Fund - ABC XYZ - ZZ123123Z (Your Ref  TST12345678).msg</t>
+  </si>
+  <si>
+    <t>FW Test Pension Scheme - ABC XYZ.msg</t>
+  </si>
+  <si>
+    <t>DEF Trust Pension Plan .msg</t>
+  </si>
+  <si>
+    <t>Retirement Figures.msg</t>
+  </si>
+  <si>
+    <t>WARNING MESSAGE ENCRYPTEDRef TST12345678 MESSAGE ENCRYPTED.msg</t>
+  </si>
+  <si>
+    <t>RE Address update.msg</t>
+  </si>
+  <si>
+    <t>LMN Pension Fund  - DEF.msg</t>
+  </si>
+  <si>
+    <t>change of bank account.msg</t>
+  </si>
+  <si>
+    <t>RE CMG Payor Pension Scheme.msg</t>
+  </si>
+  <si>
+    <t>TEST Pension Plan - ABC (ZZ123123Z).msg</t>
+  </si>
+  <si>
+    <t>Change of addresss.msg</t>
+  </si>
+  <si>
+    <t>Urgent pension transfer request.msg</t>
+  </si>
+  <si>
+    <t>FW Test Pension Scheme- Trivial Commutation Factors.msg</t>
+  </si>
+  <si>
+    <t>Test Death Approval - LMNO (TST12345678).msg</t>
+  </si>
+  <si>
+    <t>FW Test Pensions Scheme - ABC XYZ.msg</t>
+  </si>
+  <si>
+    <t>Your retirement quotation request.msg</t>
+  </si>
+  <si>
+    <t>FW Compensation.msg</t>
+  </si>
+  <si>
+    <t>FW Pension.msg</t>
+  </si>
+  <si>
+    <t>ABC - TST12345678 Termination  PLEASE IGNORE PREVIOUS E-MAIL.msg</t>
+  </si>
+  <si>
+    <t>Thank you for your e-mail to test.pensions@pensions.com.msg</t>
+  </si>
+  <si>
+    <t>FW Pension Ref-TST12345678.msg</t>
+  </si>
+  <si>
+    <t>FW Pension value.msg</t>
+  </si>
+  <si>
+    <t>TEST Death Approval  ABC XYZ - TST12345678 (2).msg</t>
+  </si>
+  <si>
+    <t>Test Retirement and Death Benefits Plan - Test Section - LMNO.msg</t>
+  </si>
+  <si>
+    <t>Test pension transfer.msg</t>
+  </si>
+  <si>
+    <t>RE Ford Salaried Contributory Pension Fund.msg</t>
+  </si>
+  <si>
+    <t>FW Test Pension Scheme - ABC XYZ - TST12345678.msg</t>
+  </si>
+  <si>
+    <t>FW Funeral Receipt for ABC XYZ.msg</t>
+  </si>
+  <si>
+    <t>FW Test Pensions Plan - Mr ABC XYZ EXTERNAL.msg</t>
+  </si>
+  <si>
+    <t>Test Pension Plan - Mr ABC.msg</t>
+  </si>
+  <si>
+    <t>Change of Adress 3.msg</t>
+  </si>
+  <si>
+    <t>FW Pension 2.msg</t>
+  </si>
+  <si>
+    <t>TEST Death Approval --- LMNO (TST12345678).msg</t>
+  </si>
+  <si>
+    <t>FW Test Pensions Death Approval - Mr ABC XYZ -  TST12345678 (11).msg</t>
+  </si>
+  <si>
+    <t>Mr LMNO TEST Group Pension Scheme Ref TST12345678 (2).msg</t>
+  </si>
+  <si>
+    <t>Death of a Pensioner  LMN.msg</t>
+  </si>
+  <si>
+    <t>TEST PENSIONS PLAN.msg</t>
+  </si>
+  <si>
+    <t>FW Final Transfer Value.msg</t>
+  </si>
+  <si>
+    <t>Letter of Authority - ABC.msg</t>
+  </si>
+  <si>
+    <t>ABCD QUERY.msg</t>
+  </si>
+  <si>
+    <t>COB REQUEST.msg</t>
+  </si>
+  <si>
+    <t>FW Pension ref. TST12345678.msg</t>
+  </si>
+  <si>
+    <t>FW Test Pension Fund- ABC XYZ.msg</t>
+  </si>
+  <si>
+    <t>FW Ref-  TST12345678.msg</t>
+  </si>
+  <si>
+    <t>Motion pictures  JLT00000000 - 01.01.1800  XX1 1XX.msg</t>
+  </si>
+  <si>
+    <t>RE Ford Salaried member Homie.msg</t>
+  </si>
+  <si>
+    <t>Test Retirement and Death Benefits Plan - DEF Section.msg</t>
+  </si>
+  <si>
+    <t>FW PRE-IDENTIFIED USER SUPPORT REQUEST.msg</t>
+  </si>
+  <si>
+    <t>FW Pension fund equiry.msg</t>
   </si>
   <si>
     <t>FW Mrs ABC XYZ TST12345678.msg</t>
   </si>
   <si>
+    <t>Test Pension Fund.msg</t>
+  </si>
+  <si>
+    <t>ABCChange of address.msg</t>
+  </si>
+  <si>
+    <t>FW TST12345678.msg</t>
+  </si>
+  <si>
+    <t>Mr ABC Ref - TST12345678.msg</t>
+  </si>
+  <si>
+    <t>ABC XYZ - TST12345678 Termination  .msg</t>
+  </si>
+  <si>
+    <t>FW Transfer value quote request.msg</t>
+  </si>
+  <si>
+    <t>Report of Death of a Pension Recipient.msg</t>
+  </si>
+  <si>
+    <t>Test Pension Scheme_ABC XYZ_TST12345678 .msg</t>
+  </si>
+  <si>
+    <t>TEST Pension Scheme.msg</t>
+  </si>
+  <si>
+    <t>Change of address - ABC XYZ.msg</t>
+  </si>
+  <si>
+    <t>Change of address Mr ABC XYZ.msg</t>
+  </si>
+  <si>
+    <t>PRE-IDENTIFIED USER SUPPORT REQUEST LMNO.msg</t>
+  </si>
+  <si>
+    <t>FW WARNING MESSAGE ENCRYPTEDTest Pension Scheme MESSAGE ENCRYPTED.msg</t>
+  </si>
+  <si>
+    <t>FW Mrs DEF _ REF  TST12345678.msg</t>
+  </si>
+  <si>
+    <t>Change of Address - TEST SCHEME.msg</t>
+  </si>
+  <si>
+    <t>XYZ - TST12345678 - CETV Forms URGENT.msg</t>
+  </si>
+  <si>
+    <t>TEST Pension Plan - ABCD  TST12345678.msg</t>
+  </si>
+  <si>
+    <t>FW Request for Pension Details - ABC XYZ - Ref TST12345678.msg</t>
+  </si>
+  <si>
+    <t>FW Test Penison scheme Member refTST12345678.msg</t>
+  </si>
+  <si>
+    <t>Beneficiaries Data Form.msg</t>
+  </si>
+  <si>
+    <t>RE Change of address 4.msg</t>
+  </si>
+  <si>
+    <t>Test Salaried Contributory Pension Fund - XYZ.msg</t>
+  </si>
+  <si>
+    <t>URGENT  CETV Value Request - Mr ABC XYZ Fin 123456.msg</t>
+  </si>
+  <si>
+    <t>TEST Pension Plan  - ABC.msg</t>
+  </si>
+  <si>
+    <t>Change of name.msg</t>
+  </si>
+  <si>
+    <t>LOA - Transfer Value Request.msg</t>
+  </si>
+  <si>
+    <t>FW Pension summary.msg</t>
+  </si>
+  <si>
+    <t>FW ABC XYZ  Secure Internet Mail.msg</t>
+  </si>
+  <si>
+    <t>Change of address ABC-XYZ.msg</t>
+  </si>
+  <si>
+    <t>RE Change of address.msg</t>
+  </si>
+  <si>
+    <t>FW Outstanding money.msg</t>
+  </si>
+  <si>
+    <t>FW WARNING MESSAGE ENCRYPTEDRetirement Options form - Test Pension Scheme - TST12345678MESSAGE ENCRYPTED.msg</t>
+  </si>
+  <si>
     <t>WARNING MESSAGE ENCRYPTEDABC XYZ LOAMESSAGE ENCRYPTED.msg</t>
   </si>
   <si>
-    <t>Test Retirement and Death Benefits Plan - Test Section - LMNO.msg</t>
-  </si>
-  <si>
-    <t>Change of address ABC-XYZ.msg</t>
-  </si>
-  <si>
-    <t>ABC XYZ  CHANGE OF ADDRESS.msg</t>
-  </si>
-  <si>
-    <t>FW Transfer Request Mr XYZZ 100 Your Ref TST12345678.msg</t>
-  </si>
-  <si>
-    <t>Test Pension Fund.msg</t>
-  </si>
-  <si>
-    <t>FW Pension ref. TST12345678.msg</t>
-  </si>
-  <si>
-    <t>RE Changing my home address.msg</t>
-  </si>
-  <si>
-    <t>FW ZZ123123Z - ABC.msg</t>
-  </si>
-  <si>
-    <t>RE home address update.msg</t>
-  </si>
-  <si>
-    <t>URGENT  CETV Value Request - Mr ABC XYZ Fin 123456.msg</t>
-  </si>
-  <si>
-    <t>TEST Death Approval - ABCD (TST12345678).msg</t>
+    <t>DEF Group Pension Plan.msg</t>
+  </si>
+  <si>
+    <t>Test Pension Fund_DEF_ZZ123123Z.msg</t>
+  </si>
+  <si>
+    <t>FW Test Pensions Scheme - ABC.msg</t>
+  </si>
+  <si>
+    <t>FW Mrs ABC XYZ  TST12345678  ZZ123123Z - QUERY.msg</t>
+  </si>
+  <si>
+    <t>FW Password reset.msg</t>
+  </si>
+  <si>
+    <t>Address change - former employee DEF.msg</t>
+  </si>
+  <si>
+    <t>FW XYZ TST12345678.msg</t>
+  </si>
+  <si>
+    <t>FW Test Pensions - ABC XYZ - 123456.msg</t>
+  </si>
+  <si>
+    <t>ABC XYZZ.msg</t>
+  </si>
+  <si>
+    <t>FW ABC XYZ - TST12345678.msg</t>
+  </si>
+  <si>
+    <t>ABC - ZZ123123Z.msg</t>
+  </si>
+  <si>
+    <t>FW Pension Details .msg</t>
+  </si>
+  <si>
+    <t>Request for Pension Details  ABC  - Ref TST12345678.msg</t>
+  </si>
+  <si>
+    <t>PRE-IDENTIFIED USER SUPPORT REQUEST G.msg</t>
+  </si>
+  <si>
+    <t>DEF Pension D.O.B 01011400 National Insurance Number ZZ123123Z.msg</t>
+  </si>
+  <si>
+    <t>Pension transfer out.msg</t>
+  </si>
+  <si>
+    <t>FW Password.msg</t>
+  </si>
+  <si>
+    <t>FW Test Pension SchemeMESSAGE ENCRYPTEDMESSAGE ENCRYPTED.msg</t>
+  </si>
+  <si>
+    <t>FW Test Pension Scheme -Late Mrs ABC XYZ.msg</t>
+  </si>
+  <si>
+    <t>Moving my pension pot.msg</t>
+  </si>
+  <si>
+    <t>Test Trust Pension Plan.msg</t>
+  </si>
+  <si>
+    <t>FW Addtional Information.msg</t>
+  </si>
+  <si>
+    <t>Change of Address - Mrs ABC.msg</t>
+  </si>
+  <si>
+    <t>Our Reference 123456.msg</t>
+  </si>
+  <si>
+    <t>RE Change of address 2.msg</t>
+  </si>
+  <si>
+    <t>Test Salaried Contributory Pension Fund - Mr ABC XYZ.msg</t>
+  </si>
+  <si>
+    <t>Transfer Request  ABC XYZ our ref 0124 - your ref TST12345678.msg</t>
+  </si>
+  <si>
+    <t>Letter of Authority - client ABCD.msg</t>
+  </si>
+  <si>
+    <t>FW Urgent Confirmation Required - Payment Received.msg</t>
+  </si>
+  <si>
+    <t>Test Salaried Contributory Pension Fund.msg</t>
+  </si>
+  <si>
+    <t>GHIJ Paid Pension Fund.msg</t>
+  </si>
+  <si>
+    <t>FW Pension triggered but no payment..msg</t>
+  </si>
+  <si>
+    <t>FW PRE-IDENTIFIED USER SUPPORT REQUEST 2.msg</t>
+  </si>
+  <si>
+    <t>DEF Pension Fund.msg</t>
+  </si>
+  <si>
+    <t>FW ABC ref. TST12345678 For the attention of Test Pensions.msg</t>
+  </si>
+  <si>
+    <t>Mr ABC XYZTestZZ123123Z.msg</t>
+  </si>
+  <si>
+    <t>FW Change of Address - ABC.msg</t>
+  </si>
+  <si>
+    <t>FW ABCD ZZ123123Z.msg</t>
   </si>
   <si>
     <t>Test Pension Scheme - Mrs ABC.msg</t>
   </si>
   <si>
-    <t>Beneficiaries Data Form.msg</t>
-  </si>
-  <si>
-    <t>Change of personal details.msg</t>
-  </si>
-  <si>
-    <t>FW ABC XYZ.msg</t>
-  </si>
-  <si>
-    <t>FW Test Pension Fund.msg</t>
-  </si>
-  <si>
-    <t>FW Extending decision time  .msg</t>
-  </si>
-  <si>
-    <t>Retirement Figures.msg</t>
-  </si>
-  <si>
-    <t>FW Change of details.msg</t>
-  </si>
-  <si>
-    <t>TEST Pension Fund  DEF.msg</t>
-  </si>
-  <si>
-    <t>Change of address - TST12345678.msg</t>
-  </si>
-  <si>
-    <t>ABC TST12345678 - ZZ123123Z- 01011400.msg</t>
+    <t>Change of bank for pension payment.msg</t>
+  </si>
+  <si>
+    <t>Question About My Pension After Death.msg</t>
+  </si>
+  <si>
+    <t>FW Death in Retirement.msg</t>
+  </si>
+  <si>
+    <t>PRE-IDENTIFIED USER SUPPORT REQUEST (2).msg</t>
+  </si>
+  <si>
+    <t>FW Mr ABC XYZ - Early Retirement Quote - Request .msg</t>
+  </si>
+  <si>
+    <t>TEST Pensions Plan - Mr ABC.msg</t>
+  </si>
+  <si>
+    <t>FW Your transfer value request - DEFG Pension Fund .msg</t>
+  </si>
+  <si>
+    <t>Test Pension Scheme - Test Section.msg</t>
+  </si>
+  <si>
+    <t>ABC - Guaranteed Transfer Value - ZZ123123Z.msg</t>
+  </si>
+  <si>
+    <t>FW 1023456789 Mr XYZ.msg</t>
+  </si>
+  <si>
+    <t>ABC_Change of address.msg</t>
+  </si>
+  <si>
+    <t>Test Pension Scheme.msg</t>
+  </si>
+  <si>
+    <t>TEST Pension Scheme - ref. ZZ123123ZTST12345678.msg</t>
+  </si>
+  <si>
+    <t>FW Test Pensions Pension Scheme ref TST12345678.msg</t>
+  </si>
+  <si>
+    <t>FW EFG UVW - ZZ123123Z.msg</t>
+  </si>
+  <si>
+    <t>Information Request - Letter of Authority attached (Ref TST12345678).msg</t>
+  </si>
+  <si>
+    <t>TEST Pension Plan - Update address.msg</t>
+  </si>
+  <si>
+    <t>RE surname error.msg</t>
+  </si>
+  <si>
+    <t>FW Test Pension Scheme - Mrs ABC.msg</t>
+  </si>
+  <si>
+    <t>FW Outstanding money 2.msg</t>
   </si>
   <si>
     <t>ABC.msg</t>
   </si>
   <si>
-    <t>RE Reveiw of Pension Sharing order - Rome - JLT00000000 FOS.msg</t>
-  </si>
-  <si>
-    <t>Your retirement quotation request.msg</t>
-  </si>
-  <si>
-    <t>FW Pension 2.msg</t>
+    <t>FW Mr ABC XYZ - TST12345678 - Test Pension Fund 2.msg</t>
+  </si>
+  <si>
+    <t>RE BenPal anomaly - early retirement figures.msg</t>
+  </si>
+  <si>
+    <t>DEF Pension Plan .msg</t>
+  </si>
+  <si>
+    <t>LMNO request for a guaranteed CETV pack.msg</t>
+  </si>
+  <si>
+    <t>Your reference TST12345678.msg</t>
+  </si>
+  <si>
+    <t>ABC XYZ deceased.msg</t>
+  </si>
+  <si>
+    <t>FW URGENT LMN - TEST AVC ABCD   (Our ref TST12345678) .msg</t>
+  </si>
+  <si>
+    <t>Change of address from 2 Test Road.msg</t>
+  </si>
+  <si>
+    <t>FW Reference TST123456.msg</t>
+  </si>
+  <si>
+    <t>Change of Address for ABC XYZ TST12345678.msg</t>
+  </si>
+  <si>
+    <t>PRE-IDENTIFIED USER SUPPORT REQUEST Pension uptake at 60.msg</t>
+  </si>
+  <si>
+    <t>Change of address.msg</t>
+  </si>
+  <si>
+    <t>FW Test Pensions Death Approval - Mr ABC XYZ -  TST12345678.msg</t>
+  </si>
+  <si>
+    <t>Change of Address - ABCD.msg</t>
   </si>
   <si>
     <t>FW Early quotation.msg</t>
   </si>
   <si>
-    <t>FW Your transfer value request - TEST Pension Scheme .msg</t>
-  </si>
-  <si>
-    <t>Change of Address - TEST SCHEME.msg</t>
-  </si>
-  <si>
-    <t>FW Transfer value quote request.msg</t>
-  </si>
-  <si>
-    <t>RE Address update.msg</t>
-  </si>
-  <si>
-    <t>TEST Pension Plan - Mr ABCD.msg</t>
-  </si>
-  <si>
-    <t>Thank you for your e-mail to test.pensions@pensions.com.msg</t>
-  </si>
-  <si>
-    <t>TEST Death Approval  ABC XYZ - TST12345678 (2).msg</t>
-  </si>
-  <si>
-    <t>FW Test Pension Scheme 2.msg</t>
-  </si>
-  <si>
-    <t>FW Test Pension Scheme- ABC XYZ.msg</t>
-  </si>
-  <si>
-    <t>FW Funeral Receipt for ABC XYZ.msg</t>
-  </si>
-  <si>
-    <t>Change of Address - ABCD.msg</t>
-  </si>
-  <si>
-    <t>Test Retirement and Death Benefits Plan - DEF Section.msg</t>
-  </si>
-  <si>
-    <t>FW PRE-IDENTIFIED USER SUPPORT REQUEST.msg</t>
-  </si>
-  <si>
-    <t>Estate of  - TEST Pension Ref TST12345678 Tees00123456789000.msg</t>
-  </si>
-  <si>
-    <t>PRE-IDENTIFIED USER SUPPORT REQUEST - Request for Personal Statement.msg</t>
-  </si>
-  <si>
-    <t>Pension transfer out.msg</t>
-  </si>
-  <si>
-    <t>FW Pension Number 123456.msg</t>
-  </si>
-  <si>
-    <t>RE DSG Retirement and employee scheme. Ref JLT00000000.msg</t>
-  </si>
-  <si>
-    <t>FW WXYZ Pension Scheme  .msg</t>
-  </si>
-  <si>
-    <t>Your reference TST12345678.msg</t>
-  </si>
-  <si>
-    <t>FW WARNING MESSAGE ENCRYPTEDRetirement Options form - Test Pension Scheme - TST12345678MESSAGE ENCRYPTED.msg</t>
-  </si>
-  <si>
-    <t>FW Test Pension Scheme - ABC.msg</t>
-  </si>
-  <si>
-    <t>RE CMG Payor Pension Scheme.msg</t>
-  </si>
-  <si>
-    <t>RE Ford Salaried member Homie.msg</t>
-  </si>
-  <si>
-    <t>FW Compensation.msg</t>
-  </si>
-  <si>
-    <t>LMNO request for a guaranteed CETV pack.msg</t>
-  </si>
-  <si>
-    <t>FW Fin Corp Error Report.msg</t>
-  </si>
-  <si>
-    <t>WARNING MESSAGE ENCRYPTEDRef TST12345678 MESSAGE ENCRYPTED.msg</t>
-  </si>
-  <si>
-    <t>Mr ABCD - TEST Pension Scheme for Senior Staff - Case RefTST12345678.msg</t>
-  </si>
-  <si>
-    <t>FW Test Pension Scheme - Test.msg</t>
-  </si>
-  <si>
-    <t>TST12345678.msg</t>
-  </si>
-  <si>
-    <t>FW Test Pension Plan.msg</t>
-  </si>
-  <si>
-    <t>FW Test pension questions - Resent .msg</t>
-  </si>
-  <si>
-    <t>DEF Retirement and Employee Scheme.msg</t>
-  </si>
-  <si>
-    <t>Test Retirement and Death Benefits Plan - Test Section.msg</t>
-  </si>
-  <si>
-    <t>Test Application for Ill health benefits - ABC (TST12345678).msg</t>
-  </si>
-  <si>
-    <t>ABC - CETV Request.msg</t>
-  </si>
-  <si>
-    <t>XYZ LOA.msg</t>
-  </si>
-  <si>
-    <t>Motion pictures  JLT00000000 - 01.01.1800  XX1 1XX.msg</t>
-  </si>
-  <si>
-    <t>Test transfer - ABC.msg</t>
-  </si>
-  <si>
-    <t>Change of address - abc.xyz.msg</t>
-  </si>
-  <si>
-    <t>PRE-IDENTIFIED USER SUPPORT REQUEST Pension uptake at 60.msg</t>
-  </si>
-  <si>
-    <t>FW URGENT RE DEFG - ZZ123123Z - 01011400.msg</t>
-  </si>
-  <si>
-    <t>FW Mr ABC XYZ - TST12345678 - Test Pension Fund.msg</t>
-  </si>
-  <si>
-    <t>FW Test Pension Scheme - ZZ123123Z.msg</t>
-  </si>
-  <si>
-    <t>FW XYZ TST12345678.msg</t>
-  </si>
-  <si>
-    <t>RE Ford Salaried Contributory Pension Fund.msg</t>
-  </si>
-  <si>
-    <t>Change of Address for ABC XYZ TST12345678.msg</t>
-  </si>
-  <si>
-    <t>RE Change of Bank.msg</t>
-  </si>
-  <si>
-    <t>TEST PENSIONS PLAN.msg</t>
-  </si>
-  <si>
-    <t>FW Change of address and bank details .msg</t>
-  </si>
-  <si>
-    <t>RE Change of address.msg</t>
-  </si>
-  <si>
-    <t>DEF Retirement and Employee Scheme - ABC.msg</t>
-  </si>
-  <si>
-    <t>Change of address - completed form.msg</t>
-  </si>
-  <si>
-    <t>FW Test Pensions Fund - ABC XYZ - ZZ123123Z (Your Ref  TST12345678).msg</t>
-  </si>
-  <si>
-    <t>FW telephone conversation.msg</t>
-  </si>
-  <si>
-    <t>FW Fin Corp Registration.msg</t>
+    <t>Test Group Pension Scheme .msg</t>
+  </si>
+  <si>
+    <t>RE TEST Pension Fund - our ref TST12345678 .msg</t>
+  </si>
+  <si>
+    <t>Test Pension Scheme .msg</t>
+  </si>
+  <si>
+    <t>FW Request for Information - ABC XYZ.msg</t>
+  </si>
+  <si>
+    <t>FW WARNING MESSAGE ENCRYPTEDOur Reference 12346MESSAGE ENCRYPTED.msg</t>
   </si>
   <si>
     <t>Test Pension Plan - ABC .msg</t>
   </si>
   <si>
-    <t>FW Urgent Information Request  Our ID 123456.msg</t>
-  </si>
-  <si>
-    <t>ABC XYZ.msg</t>
-  </si>
-  <si>
-    <t>TEST Pension Plan - ABCD  TST12345678.msg</t>
-  </si>
-  <si>
-    <t>FW Addtional Information.msg</t>
-  </si>
-  <si>
-    <t>RE surname error.msg</t>
-  </si>
-  <si>
-    <t>FW EFG UVW - ZZ123123Z.msg</t>
-  </si>
-  <si>
-    <t>TEST Pension Plan  - ABC.msg</t>
-  </si>
-  <si>
-    <t>FW Pension .msg</t>
-  </si>
-  <si>
-    <t>TEST Pension Plan - ABC (ZZ123123Z).msg</t>
-  </si>
-  <si>
-    <t>Change of address.msg</t>
-  </si>
-  <si>
-    <t>TEST Pension Plan - test.pensions.msg</t>
-  </si>
-  <si>
-    <t>FW Request for Information - ABC XYZ.msg</t>
-  </si>
-  <si>
-    <t>FW Reference TST12345678 -ABC XYZ - Test Pension Scheme Membership Number ZZ123123Z  2 further important areas of understanding.msg</t>
-  </si>
-  <si>
-    <t>FW Not Virus Scanned - Password ProtectedWARNING MESSAGE ENCRYPTEDTest Pension Fund_Early Retirement Calculation_TST12345678 MESSAGE ENCRYPTED.msg</t>
-  </si>
-  <si>
-    <t>FW Test Pension Fund 1.msg</t>
-  </si>
-  <si>
-    <t>TEST Death Approval  ABC XYZ - TST12345678.msg</t>
-  </si>
-  <si>
-    <t>FW Test pension.msg</t>
-  </si>
-  <si>
-    <t>Test Retirement and Employee Security Scheme  Mr Mr ABC XYZ .msg</t>
-  </si>
-  <si>
-    <t>FW ABC XYZ FIN TST12345678 retirement quote.msg</t>
-  </si>
-  <si>
-    <t>ABC - TST12345678 Termination  PLEASE IGNORE PREVIOUS E-MAIL.msg</t>
-  </si>
-  <si>
-    <t>FW ABC XYZ Your Ref TST12345678 Our Ref 12345678.msg</t>
-  </si>
-  <si>
-    <t>FW Password.msg</t>
-  </si>
-  <si>
-    <t>FW Your transfer value request - DEFG Pension Fund .msg</t>
-  </si>
-  <si>
-    <t>FW Test Pensions Death Approval - Mr ABC XYZ -  TST12345678.msg</t>
-  </si>
-  <si>
-    <t>FW Pension triggered but no payment..msg</t>
-  </si>
-  <si>
-    <t>Change of addresss.msg</t>
-  </si>
-  <si>
-    <t>Request for Pensioner ID card for LMNO.msg</t>
-  </si>
-  <si>
-    <t>FW Urgent Confirmation Required - Payment Received.msg</t>
-  </si>
-  <si>
-    <t>FW Transfer Value - TEST Motor Company .msg</t>
-  </si>
-  <si>
-    <t>Test pension transfer.msg</t>
-  </si>
-  <si>
-    <t>Our Reference 123456.msg</t>
-  </si>
-  <si>
-    <t>FW  Test Pension Fund - ABC XYZ.msg</t>
-  </si>
-  <si>
-    <t>Letter of Authority - client ABCD.msg</t>
-  </si>
-  <si>
-    <t>Death of a Pensioner  LMN.msg</t>
-  </si>
-  <si>
-    <t>FW Test Pension Fund - Member Reference ZZ123123Z.msg</t>
-  </si>
-  <si>
-    <t>FW FAO ABC XYZ ...Re Test Pension Fund.msg</t>
-  </si>
-  <si>
-    <t>FW Mrs ABC XYZ  TST12345678  ZZ123123Z - QUERY.msg</t>
-  </si>
-  <si>
-    <t>URGENT ABC TST12345678.msg</t>
-  </si>
-  <si>
-    <t>Change of marital status - ABC - ZZ123123Z.msg</t>
-  </si>
-  <si>
-    <t>FW Pension.msg</t>
-  </si>
-  <si>
-    <t>FW PRE-IDENTIFIED USER SUPPORT REQUEST 1.msg</t>
-  </si>
-  <si>
-    <t>Change of Adress 3.msg</t>
-  </si>
-  <si>
-    <t>FW Test Pension Scheme - ABC XYZ - TST12345678.msg</t>
-  </si>
-  <si>
-    <t>FW Test Pensions Scheme - ABC XYZ.msg</t>
-  </si>
-  <si>
-    <t>Transfer Request  ABC XYZ our ref 0124 - your ref TST12345678.msg</t>
-  </si>
-  <si>
-    <t>FW RBC Retirement Option Form.msg</t>
-  </si>
-  <si>
-    <t>DEF Pension Plan .msg</t>
-  </si>
-  <si>
-    <t>FW Test Pensions Pension Scheme ref TST12345678.msg</t>
-  </si>
-  <si>
-    <t>FW Reference TST123456.msg</t>
-  </si>
-  <si>
-    <t>FW Test Pension Fund - Late Mr ABC XYZ.msg</t>
-  </si>
-  <si>
-    <t>TST12345678 regarding my late father Mr LMNO.msg</t>
-  </si>
-  <si>
-    <t>FW Mr ABC XYZ - Early Retirement Quote - Request .msg</t>
-  </si>
-  <si>
-    <t>FW Test Pension Fund - ABC.msg</t>
-  </si>
-  <si>
-    <t>FW Mrs DEF _ REF  TST12345678.msg</t>
-  </si>
-  <si>
-    <t>FW Test Pension SchemeMESSAGE ENCRYPTEDMESSAGE ENCRYPTED.msg</t>
-  </si>
-  <si>
-    <t>FW Change of Address - ABC.msg</t>
-  </si>
-  <si>
-    <t>FW Test Pension Scheme.msg</t>
-  </si>
-  <si>
-    <t>FW Pension summary - ABC.msg</t>
-  </si>
-  <si>
-    <t>FW Mr ABC XYZ - TST12345678 - Test Pension Fund 2.msg</t>
-  </si>
-  <si>
-    <t>Test Trust Pension Plan.msg</t>
-  </si>
-  <si>
-    <t>ABC XYZ - TST12345678 - ZZ123123Z.msg</t>
-  </si>
-  <si>
-    <t>FW ABC XYZ - TST12345678.msg</t>
-  </si>
-  <si>
-    <t>Member Address Change ZZ123123Z.msg</t>
-  </si>
-  <si>
-    <t>FW Pension Information.msg</t>
-  </si>
-  <si>
-    <t>RE Change of address 4.msg</t>
+    <t>LOA Request QRST TST12345678 .msg</t>
   </si>
   <si>
     <t>Change of address for TEST pension.msg</t>
-  </si>
-  <si>
-    <t>Change of Address-ABCD.msg</t>
-  </si>
-  <si>
-    <t>FW Bonjour!.msg</t>
-  </si>
-  <si>
-    <t>Change of bank for pension payment.msg</t>
-  </si>
-  <si>
-    <t>CETV Request_Mr XYZ .msg</t>
-  </si>
-  <si>
-    <t>FW Ref-  TST12345678.msg</t>
-  </si>
-  <si>
-    <t>ABC XYZ - ZZ123123Z.msg</t>
-  </si>
-  <si>
-    <t>Letter of Authority - ABC.msg</t>
-  </si>
-  <si>
-    <t>FW URGENT ABC XYZ  - Test Pension Fund              (Our ref 12345)                   URGENT .msg</t>
-  </si>
-  <si>
-    <t>Change of address Mr ABC XYZ.msg</t>
-  </si>
-  <si>
-    <t>PRE-IDENTIFIED USER SUPPORT REQUEST.msg</t>
-  </si>
-  <si>
-    <t>FW Test Pensions Query.msg</t>
-  </si>
-  <si>
-    <t>FW Final Transfer Value.msg</t>
-  </si>
-  <si>
-    <t>Questions to Test - re-send.msg</t>
-  </si>
-  <si>
-    <t>Urgent pension transfer request.msg</t>
-  </si>
-  <si>
-    <t>Test Group Pension Scheme .msg</t>
-  </si>
-  <si>
-    <t>FW Ms ABC XYZ.msg</t>
-  </si>
-  <si>
-    <t>FW Test Pension Scheme- Trivial Commutation Factors.msg</t>
-  </si>
-  <si>
-    <t>FW Test Pensions Death Approval - Mr ABC XYZ -  TST12345678 (17).msg</t>
-  </si>
-  <si>
-    <t>ABC XYZ - TST12345678 Termination  .msg</t>
-  </si>
-  <si>
-    <t>Moving my pension pot.msg</t>
-  </si>
-  <si>
-    <t>FW Outstanding money 2.msg</t>
-  </si>
-  <si>
-    <t>Test Salaried Contributory Pension Fund - XYZ.msg</t>
-  </si>
-  <si>
-    <t>FW URGENT LMN - TEST AVC ABCD   (Our ref TST12345678) .msg</t>
-  </si>
-  <si>
-    <t>FW Test Penison scheme Member refTST12345678.msg</t>
-  </si>
-  <si>
-    <t>Test Pension Scheme .msg</t>
-  </si>
-  <si>
-    <t>RE Change of details.msg</t>
-  </si>
-  <si>
-    <t>FW Test Pensions Plan - Mr ABC XYZ EXTERNAL.msg</t>
-  </si>
-  <si>
-    <t>FW EMPLOYEE NO 123456.msg</t>
-  </si>
-  <si>
-    <t>TST12345678 ABC XYZ.msg</t>
-  </si>
-  <si>
-    <t>LOA - Transfer Value Request.msg</t>
-  </si>
-  <si>
-    <t>Test Death Approval - LMNO (TST12345678).msg</t>
-  </si>
-  <si>
-    <t>Test Pension Scheme Reference TST12345678.msg</t>
-  </si>
-  <si>
-    <t>FW WARNING MESSAGE ENCRYPTEDTest Pension Scheme MESSAGE ENCRYPTED (2).msg</t>
-  </si>
-  <si>
-    <t>Change of Address  ABC XYZ.msg</t>
-  </si>
-  <si>
-    <t>FW Pension fund equiry.msg</t>
-  </si>
-  <si>
-    <t>FW Pension summary.msg</t>
-  </si>
-  <si>
-    <t>Request for Pension Details  ABC  - Ref TST12345678.msg</t>
-  </si>
-  <si>
-    <t>ABC  Test Pensions (TST12345678) URGENT .msg</t>
-  </si>
-  <si>
-    <t>ABC XYZ - Test Pensions for Senior Staff - Case RefTST12345678.msg</t>
-  </si>
-  <si>
-    <t>FWmsg.msg</t>
-  </si>
-  <si>
-    <t>Test Salaried Contributory Pension Fund - Mr ABC XYZ.msg</t>
-  </si>
-  <si>
-    <t>RE TEST Pension Fund - our ref TST12345678 .msg</t>
-  </si>
-  <si>
-    <t>Change of address TEST.msg</t>
-  </si>
-  <si>
-    <t>RE Burger Fries FIN 100000 retirement quote.msg</t>
-  </si>
-  <si>
-    <t>FW Password reset.msg</t>
-  </si>
-  <si>
-    <t>RE Change of address 2.msg</t>
-  </si>
-  <si>
-    <t>Test Salaried Contributory Pension Fund.msg</t>
-  </si>
-  <si>
-    <t>FW WARNING MESSAGE ENCRYPTEDTest Pension Scheme MESSAGE ENCRYPTED.msg</t>
-  </si>
-  <si>
-    <t>Change of Address - Mrs ABC.msg</t>
-  </si>
-  <si>
-    <t>ABCD QUERY.msg</t>
-  </si>
-  <si>
-    <t>Test Pensions letter of authority - ABC.msg</t>
-  </si>
-  <si>
-    <t>Change of address from 2 Test Road.msg</t>
-  </si>
-  <si>
-    <t>Change of address --- TST12345678.msg</t>
-  </si>
-  <si>
-    <t>FW Policy Ref 132456.msg</t>
-  </si>
-  <si>
-    <t>DEF Group Pension Plan.msg</t>
-  </si>
-  <si>
-    <t>ABC XYZ deceased.msg</t>
-  </si>
-  <si>
-    <t>FW Test Pension Scheme - Member Reference ZZ123123Z.msg</t>
-  </si>
-  <si>
-    <t>FW Pension Details .msg</t>
-  </si>
-  <si>
-    <t>Mr LMNO TEST Group Pension Scheme Ref TST12345678 (2).msg</t>
-  </si>
-  <si>
-    <t>FW Test Pensions - ABC XYZ's - 12345 - Funeral Fee.msg</t>
-  </si>
-  <si>
-    <t>GHIJ Paid Pension Fund.msg</t>
-  </si>
-  <si>
-    <t>TEST Pension Fund - Late LMNO.msg</t>
-  </si>
-  <si>
-    <t>FW Test Pensions Death Approval - Mr ABC XYZ -  TST12345678 (11).msg</t>
-  </si>
-  <si>
-    <t>FW URGENT TST12345678 DEFG.msg</t>
-  </si>
-  <si>
-    <t>Change of address - Ref TST12345678.msg</t>
-  </si>
-  <si>
-    <t>Documents relating to your claim .msg</t>
-  </si>
-  <si>
-    <t>Change of address - ABC XYZ.msg</t>
-  </si>
-  <si>
-    <t>DEF Trust Pension Plan .msg</t>
-  </si>
-  <si>
-    <t>FW Test Pensions Death Approval - Mr ABC XYZ -  TST12345678 (25).msg</t>
-  </si>
-  <si>
-    <t>FW Test Pensions Scheme.msg</t>
-  </si>
-  <si>
-    <t>FW Pension Ref-TST12345678.msg</t>
-  </si>
-  <si>
-    <t>ABCD XX TST12345678.msg</t>
-  </si>
-  <si>
-    <t>change of address - ABC.msg</t>
-  </si>
-  <si>
-    <t>Change of address details.msg</t>
-  </si>
-  <si>
-    <t>Retirement Quotation - ABC.msg</t>
-  </si>
-  <si>
-    <t>FW WARNING MESSAGE ENCRYPTEDOur Reference 12346MESSAGE ENCRYPTED.msg</t>
-  </si>
-  <si>
-    <t>URGENT CETV GUARANTEE DATE ENDING - DEF.msg</t>
-  </si>
-  <si>
-    <t>TEST Pension Plan - N.I. ZZ123123Z. 01011400.msg</t>
-  </si>
-  <si>
-    <t>TEST Retirement and Death Benefits Plan -Mr ABCD.msg</t>
-  </si>
-  <si>
-    <t>FW ABC XYZ pension.msg</t>
-  </si>
-  <si>
-    <t>PRE-IDENTIFIED USER SUPPORT REQUEST LMNO.msg</t>
-  </si>
-  <si>
-    <t>FW Test Pensions Scheme - ABC.msg</t>
-  </si>
-  <si>
-    <t>FW Test Pension Fund - Mr ABC XYZ.msg</t>
-  </si>
-  <si>
-    <t>FW ABC XYZ  Secure Internet Mail.msg</t>
-  </si>
-  <si>
-    <t>Change of Address  ABC.msg</t>
-  </si>
-  <si>
-    <t>Test Pension Plan - Mr ABC.msg</t>
-  </si>
-  <si>
-    <t>ABC - ZZ123123Z.msg</t>
-  </si>
-  <si>
-    <t>Test Pension Scheme.msg</t>
-  </si>
-  <si>
-    <t>TEST Pension Scheme- LMNO.msg</t>
-  </si>
-  <si>
-    <t>FW Test Pension Scheme - ABC XYZ.msg</t>
-  </si>
-  <si>
-    <t>URGENT CETV GUARANTEE DATE ENDING - ABCD.msg</t>
-  </si>
-  <si>
-    <t>Mr LMNO TEST Group Pension Scheme Ref TST12345678.msg</t>
-  </si>
-  <si>
-    <t>FW Pension transfer.msg</t>
-  </si>
-  <si>
-    <t>Information Request - Letter of Authority attached (Ref TST12345678).msg</t>
-  </si>
-  <si>
-    <t>Change of address_ABC.msg</t>
-  </si>
-  <si>
-    <t>TEST Death Approval --- LMNO (TST12345678) (2).msg</t>
-  </si>
-  <si>
-    <t>TEST Pensions Plan - Mr ABC.msg</t>
-  </si>
-  <si>
-    <t>Report of Death of a Pension Recipient.msg</t>
-  </si>
-  <si>
-    <t>FW Test Pension Fund- ABC XYZ.msg</t>
-  </si>
-  <si>
-    <t>FW Pension value.msg</t>
-  </si>
-  <si>
-    <t>Change of name.msg</t>
-  </si>
-  <si>
-    <t>TEST Pension Scheme  - Mr ABC XYZ.msg</t>
-  </si>
-  <si>
-    <t>ABC XYZ TST12345678 Pension Quote.msg</t>
-  </si>
-  <si>
-    <t>FW Test Pension Scheme 1.msg</t>
-  </si>
-  <si>
-    <t>ABC XYZZ.msg</t>
-  </si>
-  <si>
-    <t>FW Change of address.msg</t>
-  </si>
-  <si>
-    <t>TST12345678 Mr ABC XYZ.msg</t>
-  </si>
-  <si>
-    <t>FW Pension Retirement Pack ABC XYZ.msg</t>
-  </si>
-  <si>
-    <t>XYZ - TST12345678 - CETV Forms URGENT.msg</t>
-  </si>
-  <si>
-    <t>RE Test Pension Scheme.msg</t>
-  </si>
-  <si>
-    <t>TEST Pension Scheme - ref. ZZ123123ZTST12345678.msg</t>
-  </si>
-  <si>
-    <t>RE BenPal anomaly - early retirement figures.msg</t>
-  </si>
-  <si>
-    <t>FW Test pensions Death Approval - Mr ABC XYZ - TST12345678.msg</t>
-  </si>
-  <si>
-    <t>FW PRE-IDENTIFIED USER SUPPORT REQUEST - Pension Quote.msg</t>
-  </si>
-  <si>
-    <t>Test Pension Scheme - Test Section - TST12345678.msg</t>
-  </si>
-  <si>
-    <t>FW Test Pension Fund Scheme.msg</t>
-  </si>
-  <si>
-    <t>Test Pension Fund_DEF_ZZ123123Z.msg</t>
-  </si>
-  <si>
-    <t>TEST scheme - Ref TST12345678.msg</t>
-  </si>
-  <si>
-    <t>FW WARNING MESSAGE ENCRYPTEDABC XYZ your ref TST12345678 our ref TVAUT-123456MESSAGE ENCRYPTED.msg</t>
-  </si>
-  <si>
-    <t>DEF Pension D.O.B 01011400 National Insurance Number ZZ123123Z.msg</t>
-  </si>
-  <si>
-    <t>COB REQUEST.msg</t>
-  </si>
-  <si>
-    <t>FW Request for Pension Details - ABC XYZ - Ref TST12345678.msg</t>
-  </si>
-  <si>
-    <t>ZZ123123Z.msg</t>
-  </si>
-  <si>
-    <t>FW PRE-IDENTIFIED USER SUPPORT REQUEST - ABC.msg</t>
-  </si>
-  <si>
-    <t>FW ABCD ZZ123123Z.msg</t>
-  </si>
-  <si>
-    <t>Test Pension Scheme - Test Section.msg</t>
-  </si>
-  <si>
-    <t>FW Test Pensions - ABC XYZ - 123456.msg</t>
-  </si>
-  <si>
-    <t>- TST12345678.msg</t>
-  </si>
-  <si>
-    <t>Change of address (TST12345678).msg</t>
-  </si>
-  <si>
-    <t>FW Test Pension Scheme -Late Mrs ABC XYZ.msg</t>
-  </si>
-  <si>
-    <t>LMN Pension Fund  - DEF.msg</t>
-  </si>
-  <si>
-    <t>Test Pension Plan - TST12345678 ABC.msg</t>
-  </si>
-  <si>
-    <t>Pension Query.msg</t>
-  </si>
-  <si>
-    <t>FW Retirement Quotian.msg</t>
-  </si>
-  <si>
-    <t>Pension forecast - ABC XYZ.msg</t>
-  </si>
-  <si>
-    <t>Test Fund Pension Plan.msg</t>
-  </si>
-  <si>
-    <t>FW Pension value reads as nil.msg</t>
-  </si>
-  <si>
-    <t>FW Test Pension Scheme - Mrs ABC.msg</t>
-  </si>
-  <si>
-    <t>ABC_Change of address.msg</t>
-  </si>
-  <si>
-    <t>Address change - former employee DEF.msg</t>
-  </si>
-  <si>
-    <t>RE Ford Salaried Contributory Pension Fund - Bheem_BMESSAGE ENCRYPTED.msg</t>
-  </si>
-  <si>
-    <t>LMNO Pension Plan.msg</t>
-  </si>
-  <si>
-    <t>Question About My Pension After Death.msg</t>
-  </si>
-  <si>
-    <t>DEF Pension Fund.msg</t>
-  </si>
-  <si>
-    <t>Mr ABC XYZTestZZ123123Z.msg</t>
-  </si>
-  <si>
-    <t>TEST Pension Plan - Update address.msg</t>
-  </si>
-  <si>
-    <t>PRE-IDENTIFIED USER SUPPORT REQUEST (2).msg</t>
-  </si>
-  <si>
-    <t>FW Ref TST12345678 Mr ABC XYZ Deceased.msg</t>
-  </si>
-  <si>
-    <t>TEST Death Approval --- LMNO (TST12345678).msg</t>
-  </si>
-  <si>
-    <t>FW Test Pension Scheme - TST12345678 - ABC XYZ.msg</t>
-  </si>
-  <si>
-    <t>ABC - Guaranteed Transfer Value - ZZ123123Z.msg</t>
-  </si>
-  <si>
-    <t>FW Outstanding money.msg</t>
-  </si>
-  <si>
-    <t>Test Pension Plan.msg</t>
-  </si>
-  <si>
-    <t>FW PRE-IDENTIFIED USER SUPPORT REQUEST 2.msg</t>
-  </si>
-  <si>
-    <t>FW Immediate Retirement Quote.msg</t>
-  </si>
-  <si>
-    <t>Mr ABC Ref - TST12345678.msg</t>
-  </si>
-  <si>
-    <t>FW Registering via Fin Corp.msg</t>
-  </si>
-  <si>
-    <t>FW TST12345678.msg</t>
-  </si>
-  <si>
-    <t>ABC - TEST Industries Pension Scheme - Death Notification .msg</t>
-  </si>
-  <si>
-    <t>FW Test pension.TST12345678.msg</t>
-  </si>
-  <si>
-    <t>Test Pension Fund - our ref TST12345678.msg</t>
-  </si>
-  <si>
-    <t>TEST Pension Plan - Mr XYZ .msg</t>
-  </si>
-  <si>
-    <t>FW Test Pension Plan .msg</t>
-  </si>
-  <si>
-    <t>Test Pension Scheme_ABC XYZ_TST12345678 .msg</t>
-  </si>
-  <si>
-    <t>TEST Pension Scheme.msg</t>
-  </si>
-  <si>
-    <t>FW Thank you for your e-mail to test.pensions@pensions.com.msg</t>
-  </si>
-  <si>
-    <t>TEST Pension Fund - Late Mr DEF.msg</t>
-  </si>
-  <si>
-    <t>FW Death in Retirement.msg</t>
-  </si>
-  <si>
-    <t>TST12345678_ABC.msg</t>
-  </si>
-  <si>
-    <t>change of bank account.msg</t>
-  </si>
-  <si>
-    <t>FW 1023456789 Mr XYZ.msg</t>
-  </si>
-  <si>
-    <t>FW ZZ123123Z.msg</t>
-  </si>
-  <si>
-    <t>Surname error.msg</t>
-  </si>
-  <si>
-    <t>FW Transfer Out - ABC.msg</t>
-  </si>
-  <si>
-    <t>Test Pension Plan - ZZ123123Z.msg</t>
-  </si>
-  <si>
-    <t>Thank you for your email to test.pensions@pensions.com.msg</t>
-  </si>
-  <si>
-    <t>LOA Request QRST TST12345678 .msg</t>
-  </si>
-  <si>
-    <t>FW Updated Address and contact details.msg</t>
-  </si>
-  <si>
-    <t>RE Additional information confirmed.msg</t>
-  </si>
-  <si>
-    <t>TEST Pension Plan - ABC.msg</t>
-  </si>
-  <si>
-    <t>ABCChange of address.msg</t>
-  </si>
-  <si>
-    <t>FW Test Pension Scheme; Scheme Member; Change of Address.msg</t>
-  </si>
-  <si>
-    <t>Mr STU VWX.msg</t>
-  </si>
-  <si>
-    <t>FW ABC ref. TST12345678 For the attention of Test Pensions.msg</t>
-  </si>
-  <si>
-    <t>PRE-IDENTIFIED USER SUPPORT REQUEST G.msg</t>
   </si>
 </sst>
 </file>
@@ -2481,7 +2481,7 @@
         <v>355</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2489,7 +2489,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C3" t="s">
         <v>356</v>
@@ -2503,13 +2503,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C4" t="s">
         <v>357</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2523,7 +2523,7 @@
         <v>358</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2531,13 +2531,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C6" t="s">
         <v>359</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2545,7 +2545,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C7" t="s">
         <v>360</v>
@@ -2559,13 +2559,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C8" t="s">
         <v>361</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2573,13 +2573,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C9" t="s">
         <v>362</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2587,7 +2587,7 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C10" t="s">
         <v>363</v>
@@ -2601,13 +2601,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C11" t="s">
         <v>364</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2615,13 +2615,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C12" t="s">
         <v>365</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2629,7 +2629,7 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C13" t="s">
         <v>366</v>
@@ -2649,7 +2649,7 @@
         <v>367</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2657,13 +2657,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C15" t="s">
         <v>368</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2671,13 +2671,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C16" t="s">
         <v>369</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2685,13 +2685,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C17" t="s">
         <v>370</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2699,7 +2699,7 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C18" t="s">
         <v>371</v>
@@ -2713,7 +2713,7 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C19" t="s">
         <v>372</v>
@@ -2733,7 +2733,7 @@
         <v>373</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2741,13 +2741,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C21" t="s">
         <v>374</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2755,13 +2755,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C22" t="s">
         <v>375</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2775,7 +2775,7 @@
         <v>376</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2783,7 +2783,7 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C24" t="s">
         <v>377</v>
@@ -2797,13 +2797,13 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C25" t="s">
         <v>378</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2811,13 +2811,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C26" t="s">
         <v>379</v>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2825,13 +2825,13 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C27" t="s">
         <v>380</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2839,13 +2839,13 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C28" t="s">
         <v>381</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2853,13 +2853,13 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C29" t="s">
         <v>382</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2867,7 +2867,7 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C30" t="s">
         <v>383</v>
@@ -2881,13 +2881,13 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C31" t="s">
         <v>384</v>
       </c>
       <c r="D31">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2895,13 +2895,13 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C32" t="s">
         <v>385</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2909,13 +2909,13 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C33" t="s">
         <v>386</v>
       </c>
       <c r="D33">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2923,13 +2923,13 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C34" t="s">
         <v>387</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2937,13 +2937,13 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C35" t="s">
         <v>388</v>
       </c>
       <c r="D35">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2951,13 +2951,13 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C36" t="s">
         <v>389</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2965,13 +2965,13 @@
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C37" t="s">
         <v>390</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2985,7 +2985,7 @@
         <v>391</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2993,13 +2993,13 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C39" t="s">
         <v>392</v>
       </c>
       <c r="D39">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -3007,13 +3007,13 @@
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C40" t="s">
         <v>393</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3021,7 +3021,7 @@
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C41" t="s">
         <v>394</v>
@@ -3035,13 +3035,13 @@
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C42" t="s">
         <v>395</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -3049,13 +3049,13 @@
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C43" t="s">
         <v>396</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -3063,13 +3063,13 @@
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C44" t="s">
         <v>397</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3077,7 +3077,7 @@
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C45" t="s">
         <v>398</v>
@@ -3097,7 +3097,7 @@
         <v>399</v>
       </c>
       <c r="D46">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3105,13 +3105,13 @@
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C47" t="s">
         <v>400</v>
       </c>
       <c r="D47">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -3119,10 +3119,10 @@
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C48" t="s">
-        <v>371</v>
+        <v>401</v>
       </c>
       <c r="D48">
         <v>2</v>
@@ -3133,10 +3133,10 @@
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C49" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D49">
         <v>2</v>
@@ -3147,13 +3147,13 @@
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C50" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D50">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -3161,13 +3161,13 @@
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C51" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -3175,13 +3175,13 @@
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C52" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D52">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -3189,10 +3189,10 @@
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C53" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D53">
         <v>2</v>
@@ -3203,10 +3203,10 @@
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C54" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D54">
         <v>2</v>
@@ -3217,13 +3217,13 @@
         <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C55" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D55">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -3231,13 +3231,13 @@
         <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C56" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D56">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -3245,13 +3245,13 @@
         <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C57" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D57">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -3262,10 +3262,10 @@
         <v>353</v>
       </c>
       <c r="C58" t="s">
-        <v>372</v>
+        <v>411</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -3273,13 +3273,13 @@
         <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C59" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -3287,13 +3287,13 @@
         <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C60" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D60">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -3301,10 +3301,10 @@
         <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C61" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D61">
         <v>3</v>
@@ -3315,13 +3315,13 @@
         <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C62" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D62">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -3332,10 +3332,10 @@
         <v>352</v>
       </c>
       <c r="C63" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -3346,10 +3346,10 @@
         <v>353</v>
       </c>
       <c r="C64" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -3357,13 +3357,13 @@
         <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C65" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -3371,10 +3371,10 @@
         <v>68</v>
       </c>
       <c r="B66" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C66" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -3385,13 +3385,13 @@
         <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C67" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D67">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -3399,13 +3399,13 @@
         <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C68" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D68">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -3413,10 +3413,10 @@
         <v>71</v>
       </c>
       <c r="B69" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C69" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D69">
         <v>3</v>
@@ -3427,13 +3427,13 @@
         <v>72</v>
       </c>
       <c r="B70" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C70" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D70">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -3441,13 +3441,13 @@
         <v>73</v>
       </c>
       <c r="B71" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C71" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D71">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -3455,10 +3455,10 @@
         <v>74</v>
       </c>
       <c r="B72" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C72" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D72">
         <v>3</v>
@@ -3469,10 +3469,10 @@
         <v>75</v>
       </c>
       <c r="B73" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C73" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -3483,10 +3483,10 @@
         <v>76</v>
       </c>
       <c r="B74" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C74" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D74">
         <v>2</v>
@@ -3497,13 +3497,13 @@
         <v>77</v>
       </c>
       <c r="B75" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C75" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -3511,10 +3511,10 @@
         <v>78</v>
       </c>
       <c r="B76" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C76" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="D76">
         <v>3</v>
@@ -3525,13 +3525,13 @@
         <v>79</v>
       </c>
       <c r="B77" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C77" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="D77">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -3539,13 +3539,13 @@
         <v>80</v>
       </c>
       <c r="B78" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C78" t="s">
-        <v>396</v>
+        <v>431</v>
       </c>
       <c r="D78">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3556,10 +3556,10 @@
         <v>354</v>
       </c>
       <c r="C79" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="D79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -3567,13 +3567,13 @@
         <v>82</v>
       </c>
       <c r="B80" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C80" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="D80">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3581,13 +3581,13 @@
         <v>83</v>
       </c>
       <c r="B81" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C81" t="s">
-        <v>371</v>
+        <v>434</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3595,10 +3595,10 @@
         <v>84</v>
       </c>
       <c r="B82" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C82" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="D82">
         <v>2</v>
@@ -3609,13 +3609,13 @@
         <v>85</v>
       </c>
       <c r="B83" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C83" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3626,10 +3626,10 @@
         <v>353</v>
       </c>
       <c r="C84" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="D84">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3637,13 +3637,13 @@
         <v>87</v>
       </c>
       <c r="B85" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C85" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="D85">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3651,10 +3651,10 @@
         <v>88</v>
       </c>
       <c r="B86" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C86" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="D86">
         <v>1</v>
@@ -3665,10 +3665,10 @@
         <v>89</v>
       </c>
       <c r="B87" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C87" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="D87">
         <v>1</v>
@@ -3679,13 +3679,13 @@
         <v>90</v>
       </c>
       <c r="B88" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C88" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="D88">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3693,13 +3693,13 @@
         <v>91</v>
       </c>
       <c r="B89" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C89" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3707,13 +3707,13 @@
         <v>92</v>
       </c>
       <c r="B90" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C90" t="s">
-        <v>438</v>
+        <v>388</v>
       </c>
       <c r="D90">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3721,10 +3721,10 @@
         <v>93</v>
       </c>
       <c r="B91" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C91" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="D91">
         <v>1</v>
@@ -3735,13 +3735,13 @@
         <v>94</v>
       </c>
       <c r="B92" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C92" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="D92">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3749,13 +3749,13 @@
         <v>95</v>
       </c>
       <c r="B93" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C93" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="D93">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3763,13 +3763,13 @@
         <v>96</v>
       </c>
       <c r="B94" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C94" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="D94">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3777,10 +3777,10 @@
         <v>97</v>
       </c>
       <c r="B95" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C95" t="s">
-        <v>443</v>
+        <v>413</v>
       </c>
       <c r="D95">
         <v>2</v>
@@ -3791,13 +3791,13 @@
         <v>98</v>
       </c>
       <c r="B96" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C96" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="D96">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3805,13 +3805,13 @@
         <v>99</v>
       </c>
       <c r="B97" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C97" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="D97">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3822,10 +3822,10 @@
         <v>353</v>
       </c>
       <c r="C98" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="D98">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3833,10 +3833,10 @@
         <v>101</v>
       </c>
       <c r="B99" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C99" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="D99">
         <v>3</v>
@@ -3850,10 +3850,10 @@
         <v>351</v>
       </c>
       <c r="C100" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="D100">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3861,13 +3861,13 @@
         <v>103</v>
       </c>
       <c r="B101" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C101" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="D101">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3875,13 +3875,13 @@
         <v>104</v>
       </c>
       <c r="B102" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C102" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="D102">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3889,10 +3889,10 @@
         <v>105</v>
       </c>
       <c r="B103" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C103" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="D103">
         <v>1</v>
@@ -3906,10 +3906,10 @@
         <v>351</v>
       </c>
       <c r="C104" t="s">
-        <v>372</v>
+        <v>455</v>
       </c>
       <c r="D104">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3917,13 +3917,13 @@
         <v>107</v>
       </c>
       <c r="B105" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C105" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="D105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3931,13 +3931,13 @@
         <v>108</v>
       </c>
       <c r="B106" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C106" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="D106">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3945,13 +3945,13 @@
         <v>109</v>
       </c>
       <c r="B107" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C107" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="D107">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3959,10 +3959,10 @@
         <v>110</v>
       </c>
       <c r="B108" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C108" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="D108">
         <v>2</v>
@@ -3973,108 +3973,108 @@
         <v>111</v>
       </c>
       <c r="B109" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C109" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="D109">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>39</v>
+        <v>112</v>
       </c>
       <c r="B110" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C110" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="D110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B111" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C111" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="D111">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B112" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C112" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="D112">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B113" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C113" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="D113">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B114" t="s">
         <v>354</v>
       </c>
       <c r="C114" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="D114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B115" t="s">
         <v>353</v>
       </c>
       <c r="C115" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="D115">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B116" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C116" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="D116">
         <v>1</v>
@@ -4082,41 +4082,41 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B117" t="s">
         <v>351</v>
       </c>
       <c r="C117" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="D117">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B118" t="s">
         <v>352</v>
       </c>
       <c r="C118" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="D118">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B119" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C119" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="D119">
         <v>2</v>
@@ -4124,13 +4124,13 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B120" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C120" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="D120">
         <v>1</v>
@@ -4138,41 +4138,41 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B121" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C121" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="D121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B122" t="s">
         <v>351</v>
       </c>
       <c r="C122" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="D122">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B123" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C123" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="D123">
         <v>3</v>
@@ -4180,27 +4180,27 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B124" t="s">
         <v>351</v>
       </c>
       <c r="C124" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="D124">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B125" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C125" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="D125">
         <v>3</v>
@@ -4208,55 +4208,55 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B126" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C126" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="D126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B127" t="s">
         <v>351</v>
       </c>
       <c r="C127" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="D127">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B128" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C128" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="D128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B129" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C129" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="D129">
         <v>3</v>
@@ -4264,13 +4264,13 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B130" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C130" t="s">
-        <v>477</v>
+        <v>409</v>
       </c>
       <c r="D130">
         <v>2</v>
@@ -4278,125 +4278,125 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B131" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C131" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="D131">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B132" t="s">
         <v>351</v>
       </c>
       <c r="C132" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="D132">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B133" t="s">
         <v>353</v>
       </c>
       <c r="C133" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="D133">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B134" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C134" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="D134">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B135" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C135" t="s">
-        <v>396</v>
+        <v>485</v>
       </c>
       <c r="D135">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B136" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C136" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="D136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B137" t="s">
         <v>353</v>
       </c>
       <c r="C137" t="s">
-        <v>483</v>
+        <v>430</v>
       </c>
       <c r="D137">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B138" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C138" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="D138">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B139" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C139" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="D139">
         <v>1</v>
@@ -4404,30 +4404,30 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B140" t="s">
         <v>351</v>
       </c>
       <c r="C140" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="D140">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>142</v>
+        <v>35</v>
       </c>
       <c r="B141" t="s">
         <v>354</v>
       </c>
       <c r="C141" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="D141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -4435,10 +4435,10 @@
         <v>143</v>
       </c>
       <c r="B142" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C142" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="D142">
         <v>1</v>
@@ -4449,13 +4449,13 @@
         <v>144</v>
       </c>
       <c r="B143" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C143" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="D143">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -4463,13 +4463,13 @@
         <v>145</v>
       </c>
       <c r="B144" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C144" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="D144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -4480,10 +4480,10 @@
         <v>352</v>
       </c>
       <c r="C145" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="D145">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -4494,10 +4494,10 @@
         <v>352</v>
       </c>
       <c r="C146" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="D146">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -4505,13 +4505,13 @@
         <v>148</v>
       </c>
       <c r="B147" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C147" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="D147">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -4519,10 +4519,10 @@
         <v>149</v>
       </c>
       <c r="B148" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C148" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="D148">
         <v>3</v>
@@ -4533,13 +4533,13 @@
         <v>150</v>
       </c>
       <c r="B149" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C149" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="D149">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -4547,10 +4547,10 @@
         <v>151</v>
       </c>
       <c r="B150" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C150" t="s">
-        <v>415</v>
+        <v>499</v>
       </c>
       <c r="D150">
         <v>2</v>
@@ -4561,13 +4561,13 @@
         <v>152</v>
       </c>
       <c r="B151" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C151" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="D151">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -4578,10 +4578,10 @@
         <v>353</v>
       </c>
       <c r="C152" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="D152">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -4589,10 +4589,10 @@
         <v>154</v>
       </c>
       <c r="B153" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C153" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="D153">
         <v>2</v>
@@ -4606,10 +4606,10 @@
         <v>354</v>
       </c>
       <c r="C154" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="D154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -4617,10 +4617,10 @@
         <v>156</v>
       </c>
       <c r="B155" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C155" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="D155">
         <v>2</v>
@@ -4631,10 +4631,10 @@
         <v>157</v>
       </c>
       <c r="B156" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C156" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="D156">
         <v>2</v>
@@ -4645,13 +4645,13 @@
         <v>158</v>
       </c>
       <c r="B157" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C157" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="D157">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4659,10 +4659,10 @@
         <v>159</v>
       </c>
       <c r="B158" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C158" t="s">
-        <v>405</v>
+        <v>507</v>
       </c>
       <c r="D158">
         <v>1</v>
@@ -4673,13 +4673,13 @@
         <v>160</v>
       </c>
       <c r="B159" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C159" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="D159">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4687,13 +4687,13 @@
         <v>161</v>
       </c>
       <c r="B160" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C160" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="D160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4701,13 +4701,13 @@
         <v>162</v>
       </c>
       <c r="B161" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C161" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="D161">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4715,13 +4715,13 @@
         <v>163</v>
       </c>
       <c r="B162" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C162" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="D162">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4732,10 +4732,10 @@
         <v>353</v>
       </c>
       <c r="C163" t="s">
-        <v>498</v>
+        <v>512</v>
       </c>
       <c r="D163">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4743,13 +4743,13 @@
         <v>165</v>
       </c>
       <c r="B164" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C164" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="D164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4757,10 +4757,10 @@
         <v>166</v>
       </c>
       <c r="B165" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C165" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="D165">
         <v>1</v>
@@ -4771,13 +4771,13 @@
         <v>167</v>
       </c>
       <c r="B166" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C166" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="D166">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4785,13 +4785,13 @@
         <v>168</v>
       </c>
       <c r="B167" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C167" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="D167">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4799,10 +4799,10 @@
         <v>169</v>
       </c>
       <c r="B168" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C168" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="D168">
         <v>3</v>
@@ -4816,10 +4816,10 @@
         <v>354</v>
       </c>
       <c r="C169" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="D169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4827,10 +4827,10 @@
         <v>171</v>
       </c>
       <c r="B170" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C170" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="D170">
         <v>3</v>
@@ -4841,13 +4841,13 @@
         <v>172</v>
       </c>
       <c r="B171" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C171" t="s">
-        <v>443</v>
+        <v>520</v>
       </c>
       <c r="D171">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4855,10 +4855,10 @@
         <v>173</v>
       </c>
       <c r="B172" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C172" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="D172">
         <v>3</v>
@@ -4869,13 +4869,13 @@
         <v>174</v>
       </c>
       <c r="B173" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C173" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="D173">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4886,10 +4886,10 @@
         <v>353</v>
       </c>
       <c r="C174" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="D174">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4897,13 +4897,13 @@
         <v>176</v>
       </c>
       <c r="B175" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C175" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="D175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4911,10 +4911,10 @@
         <v>177</v>
       </c>
       <c r="B176" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C176" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="D176">
         <v>1</v>
@@ -4925,10 +4925,10 @@
         <v>178</v>
       </c>
       <c r="B177" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C177" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="D177">
         <v>3</v>
@@ -4939,10 +4939,10 @@
         <v>179</v>
       </c>
       <c r="B178" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C178" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="D178">
         <v>2</v>
@@ -4953,13 +4953,13 @@
         <v>180</v>
       </c>
       <c r="B179" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C179" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="D179">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4967,13 +4967,13 @@
         <v>181</v>
       </c>
       <c r="B180" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C180" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="D180">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4981,10 +4981,10 @@
         <v>182</v>
       </c>
       <c r="B181" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C181" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="D181">
         <v>2</v>
@@ -4995,10 +4995,10 @@
         <v>183</v>
       </c>
       <c r="B182" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C182" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="D182">
         <v>2</v>
@@ -5006,83 +5006,83 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" t="s">
-        <v>119</v>
+        <v>184</v>
       </c>
       <c r="B183" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C183" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="D183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B184" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C184" t="s">
-        <v>526</v>
+        <v>372</v>
       </c>
       <c r="D184">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B185" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C185" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="D185">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B186" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C186" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="D186">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B187" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C187" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="D187">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B188" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C188" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="D188">
         <v>3</v>
@@ -5090,153 +5090,153 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B189" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C189" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="D189">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B190" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C190" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="D190">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B191" t="s">
         <v>353</v>
       </c>
       <c r="C191" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="D191">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B192" t="s">
         <v>354</v>
       </c>
       <c r="C192" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="D192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B193" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C193" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="D193">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B194" t="s">
         <v>353</v>
       </c>
       <c r="C194" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="D194">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B195" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C195" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="D195">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B196" t="s">
         <v>352</v>
       </c>
       <c r="C196" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="D196">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B197" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C197" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="D197">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B198" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C198" t="s">
-        <v>540</v>
+        <v>517</v>
       </c>
       <c r="D198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B199" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C199" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="D199">
         <v>1</v>
@@ -5244,27 +5244,27 @@
     </row>
     <row r="200" spans="1:4">
       <c r="A200" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B200" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C200" t="s">
-        <v>498</v>
+        <v>547</v>
       </c>
       <c r="D200">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B201" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C201" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="D201">
         <v>2</v>
@@ -5272,16 +5272,16 @@
     </row>
     <row r="202" spans="1:4">
       <c r="A202" t="s">
-        <v>202</v>
+        <v>98</v>
       </c>
       <c r="B202" t="s">
         <v>354</v>
       </c>
       <c r="C202" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="D202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -5289,13 +5289,13 @@
         <v>203</v>
       </c>
       <c r="B203" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C203" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="D203">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -5303,13 +5303,13 @@
         <v>204</v>
       </c>
       <c r="B204" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C204" t="s">
-        <v>545</v>
+        <v>399</v>
       </c>
       <c r="D204">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -5317,10 +5317,10 @@
         <v>205</v>
       </c>
       <c r="B205" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C205" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="D205">
         <v>3</v>
@@ -5331,13 +5331,13 @@
         <v>206</v>
       </c>
       <c r="B206" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C206" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="D206">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -5345,10 +5345,10 @@
         <v>207</v>
       </c>
       <c r="B207" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C207" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="D207">
         <v>3</v>
@@ -5359,13 +5359,13 @@
         <v>208</v>
       </c>
       <c r="B208" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C208" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="D208">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -5376,10 +5376,10 @@
         <v>353</v>
       </c>
       <c r="C209" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="D209">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -5387,13 +5387,13 @@
         <v>210</v>
       </c>
       <c r="B210" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C210" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="D210">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -5401,10 +5401,10 @@
         <v>211</v>
       </c>
       <c r="B211" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C211" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="D211">
         <v>1</v>
@@ -5412,41 +5412,41 @@
     </row>
     <row r="212" spans="1:4">
       <c r="A212" t="s">
-        <v>89</v>
+        <v>212</v>
       </c>
       <c r="B212" t="s">
         <v>353</v>
       </c>
       <c r="C212" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="D212">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" t="s">
-        <v>212</v>
+        <v>170</v>
       </c>
       <c r="B213" t="s">
         <v>354</v>
       </c>
       <c r="C213" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="D213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" t="s">
-        <v>198</v>
+        <v>35</v>
       </c>
       <c r="B214" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C214" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="D214">
         <v>0</v>
@@ -5454,41 +5454,41 @@
     </row>
     <row r="215" spans="1:4">
       <c r="A215" t="s">
-        <v>213</v>
+        <v>41</v>
       </c>
       <c r="B215" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C215" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="D215">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B216" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C216" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="D216">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B217" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C217" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="D217">
         <v>3</v>
@@ -5496,55 +5496,55 @@
     </row>
     <row r="218" spans="1:4">
       <c r="A218" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B218" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C218" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="D218">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B219" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C219" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="D219">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B220" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C220" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="D220">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B221" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C221" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="D221">
         <v>1</v>
@@ -5552,83 +5552,83 @@
     </row>
     <row r="222" spans="1:4">
       <c r="A222" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B222" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C222" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="D222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B223" t="s">
         <v>354</v>
       </c>
       <c r="C223" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="D223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B224" t="s">
         <v>353</v>
       </c>
       <c r="C224" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="D224">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B225" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C225" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="D225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B226" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C226" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="D226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B227" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C227" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="D227">
         <v>1</v>
@@ -5636,30 +5636,30 @@
     </row>
     <row r="228" spans="1:4">
       <c r="A228" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B228" t="s">
         <v>352</v>
       </c>
       <c r="C228" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="D228">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" t="s">
-        <v>119</v>
+        <v>226</v>
       </c>
       <c r="B229" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C229" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="D229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5667,10 +5667,10 @@
         <v>227</v>
       </c>
       <c r="B230" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C230" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="D230">
         <v>3</v>
@@ -5681,13 +5681,13 @@
         <v>228</v>
       </c>
       <c r="B231" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C231" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="D231">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -5698,10 +5698,10 @@
         <v>351</v>
       </c>
       <c r="C232" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="D232">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5709,10 +5709,10 @@
         <v>230</v>
       </c>
       <c r="B233" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C233" t="s">
-        <v>494</v>
+        <v>579</v>
       </c>
       <c r="D233">
         <v>2</v>
@@ -5723,13 +5723,13 @@
         <v>231</v>
       </c>
       <c r="B234" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C234" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="D234">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5740,77 +5740,77 @@
         <v>353</v>
       </c>
       <c r="C235" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="D235">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" t="s">
-        <v>119</v>
+        <v>233</v>
       </c>
       <c r="B236" t="s">
         <v>352</v>
       </c>
       <c r="C236" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="D236">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B237" t="s">
         <v>354</v>
       </c>
       <c r="C237" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="D237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B238" t="s">
         <v>354</v>
       </c>
       <c r="C238" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="D238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B239" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C239" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="D239">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B240" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C240" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="D240">
         <v>1</v>
@@ -5818,44 +5818,44 @@
     </row>
     <row r="241" spans="1:4">
       <c r="A241" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B241" t="s">
         <v>351</v>
       </c>
       <c r="C241" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="D241">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B242" t="s">
         <v>354</v>
       </c>
       <c r="C242" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="D242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" t="s">
-        <v>239</v>
+        <v>161</v>
       </c>
       <c r="B243" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C243" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="D243">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5863,10 +5863,10 @@
         <v>240</v>
       </c>
       <c r="B244" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C244" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="D244">
         <v>3</v>
@@ -5877,10 +5877,10 @@
         <v>241</v>
       </c>
       <c r="B245" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C245" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="D245">
         <v>1</v>
@@ -5891,10 +5891,10 @@
         <v>242</v>
       </c>
       <c r="B246" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C246" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="D246">
         <v>3</v>
@@ -5905,13 +5905,13 @@
         <v>243</v>
       </c>
       <c r="B247" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C247" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="D247">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5919,13 +5919,13 @@
         <v>244</v>
       </c>
       <c r="B248" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C248" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="D248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5933,10 +5933,10 @@
         <v>245</v>
       </c>
       <c r="B249" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C249" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="D249">
         <v>2</v>
@@ -5947,13 +5947,13 @@
         <v>246</v>
       </c>
       <c r="B250" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C250" t="s">
-        <v>590</v>
+        <v>431</v>
       </c>
       <c r="D250">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5964,10 +5964,10 @@
         <v>351</v>
       </c>
       <c r="C251" t="s">
-        <v>591</v>
+        <v>442</v>
       </c>
       <c r="D251">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5975,13 +5975,13 @@
         <v>248</v>
       </c>
       <c r="B252" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C252" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="D252">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5992,10 +5992,10 @@
         <v>351</v>
       </c>
       <c r="C253" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="D253">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -6003,10 +6003,10 @@
         <v>250</v>
       </c>
       <c r="B254" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C254" t="s">
-        <v>481</v>
+        <v>598</v>
       </c>
       <c r="D254">
         <v>3</v>
@@ -6017,10 +6017,10 @@
         <v>251</v>
       </c>
       <c r="B255" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C255" t="s">
-        <v>594</v>
+        <v>361</v>
       </c>
       <c r="D255">
         <v>3</v>
@@ -6031,13 +6031,13 @@
         <v>252</v>
       </c>
       <c r="B256" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C256" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="D256">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -6045,13 +6045,13 @@
         <v>253</v>
       </c>
       <c r="B257" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C257" t="s">
-        <v>596</v>
+        <v>544</v>
       </c>
       <c r="D257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -6062,10 +6062,10 @@
         <v>354</v>
       </c>
       <c r="C258" t="s">
-        <v>597</v>
+        <v>388</v>
       </c>
       <c r="D258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -6073,10 +6073,10 @@
         <v>255</v>
       </c>
       <c r="B259" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C259" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="D259">
         <v>3</v>
@@ -6084,27 +6084,27 @@
     </row>
     <row r="260" spans="1:4">
       <c r="A260" t="s">
-        <v>223</v>
+        <v>256</v>
       </c>
       <c r="B260" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C260" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="D260">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B261" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C261" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="D261">
         <v>3</v>
@@ -6112,111 +6112,111 @@
     </row>
     <row r="262" spans="1:4">
       <c r="A262" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B262" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C262" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="D262">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B263" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C263" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="D263">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B264" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C264" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="D264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B265" t="s">
         <v>351</v>
       </c>
       <c r="C265" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="D265">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B266" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C266" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="D266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B267" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C267" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="D267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B268" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C268" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="D268">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B269" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C269" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="D269">
         <v>1</v>
@@ -6224,27 +6224,27 @@
     </row>
     <row r="270" spans="1:4">
       <c r="A270" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B270" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C270" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="D270">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B271" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C271" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="D271">
         <v>2</v>
@@ -6252,41 +6252,41 @@
     </row>
     <row r="272" spans="1:4">
       <c r="A272" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B272" t="s">
         <v>353</v>
       </c>
       <c r="C272" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="D272">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B273" t="s">
         <v>351</v>
       </c>
       <c r="C273" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="D273">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B274" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C274" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="D274">
         <v>1</v>
@@ -6294,55 +6294,55 @@
     </row>
     <row r="275" spans="1:4">
       <c r="A275" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B275" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C275" t="s">
-        <v>590</v>
+        <v>442</v>
       </c>
       <c r="D275">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B276" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C276" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="D276">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B277" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C277" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="D277">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B278" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C278" t="s">
-        <v>616</v>
+        <v>579</v>
       </c>
       <c r="D278">
         <v>3</v>
@@ -6350,153 +6350,153 @@
     </row>
     <row r="279" spans="1:4">
       <c r="A279" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B279" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C279" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D279">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B280" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C280" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D280">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B281" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C281" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D281">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B282" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C282" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D282">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B283" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C283" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D283">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B284" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C284" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D284">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B285" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C285" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D285">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B286" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C286" t="s">
-        <v>482</v>
+        <v>413</v>
       </c>
       <c r="D286">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B287" t="s">
         <v>352</v>
       </c>
       <c r="C287" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D287">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B288" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C288" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B289" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C289" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D289">
         <v>3</v>
@@ -6504,83 +6504,83 @@
     </row>
     <row r="290" spans="1:4">
       <c r="A290" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B290" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C290" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D290">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B291" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C291" t="s">
-        <v>517</v>
+        <v>629</v>
       </c>
       <c r="D291">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B292" t="s">
         <v>353</v>
       </c>
       <c r="C292" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="D292">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B293" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C293" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="D293">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B294" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C294" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="D294">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B295" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C295" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="D295">
         <v>3</v>
@@ -6588,16 +6588,16 @@
     </row>
     <row r="296" spans="1:4">
       <c r="A296" t="s">
-        <v>291</v>
+        <v>261</v>
       </c>
       <c r="B296" t="s">
         <v>351</v>
       </c>
       <c r="C296" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="D296">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -6605,13 +6605,13 @@
         <v>292</v>
       </c>
       <c r="B297" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C297" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="D297">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -6619,10 +6619,10 @@
         <v>293</v>
       </c>
       <c r="B298" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C298" t="s">
-        <v>634</v>
+        <v>574</v>
       </c>
       <c r="D298">
         <v>1</v>
@@ -6633,10 +6633,10 @@
         <v>294</v>
       </c>
       <c r="B299" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C299" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D299">
         <v>3</v>
@@ -6647,13 +6647,13 @@
         <v>295</v>
       </c>
       <c r="B300" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C300" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D300">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -6664,10 +6664,10 @@
         <v>352</v>
       </c>
       <c r="C301" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D301">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -6675,13 +6675,13 @@
         <v>297</v>
       </c>
       <c r="B302" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C302" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D302">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -6692,10 +6692,10 @@
         <v>351</v>
       </c>
       <c r="C303" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D303">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -6703,10 +6703,10 @@
         <v>299</v>
       </c>
       <c r="B304" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C304" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D304">
         <v>2</v>
@@ -6717,10 +6717,10 @@
         <v>300</v>
       </c>
       <c r="B305" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C305" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D305">
         <v>2</v>
@@ -6731,13 +6731,13 @@
         <v>301</v>
       </c>
       <c r="B306" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C306" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D306">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -6745,13 +6745,13 @@
         <v>302</v>
       </c>
       <c r="B307" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C307" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D307">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -6762,10 +6762,10 @@
         <v>353</v>
       </c>
       <c r="C308" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D308">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -6773,13 +6773,13 @@
         <v>304</v>
       </c>
       <c r="B309" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C309" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D309">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -6787,13 +6787,13 @@
         <v>305</v>
       </c>
       <c r="B310" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C310" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D310">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -6801,13 +6801,13 @@
         <v>306</v>
       </c>
       <c r="B311" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C311" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D311">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -6815,13 +6815,13 @@
         <v>307</v>
       </c>
       <c r="B312" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C312" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D312">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -6829,13 +6829,13 @@
         <v>308</v>
       </c>
       <c r="B313" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C313" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D313">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -6843,10 +6843,10 @@
         <v>309</v>
       </c>
       <c r="B314" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C314" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="D314">
         <v>0</v>
@@ -6857,13 +6857,13 @@
         <v>310</v>
       </c>
       <c r="B315" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C315" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D315">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -6871,10 +6871,10 @@
         <v>311</v>
       </c>
       <c r="B316" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C316" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D316">
         <v>2</v>
@@ -6885,18 +6885,18 @@
         <v>312</v>
       </c>
       <c r="B317" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C317" t="s">
-        <v>653</v>
+        <v>470</v>
       </c>
       <c r="D317">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" t="s">
-        <v>176</v>
+        <v>313</v>
       </c>
       <c r="B318" t="s">
         <v>352</v>
@@ -6905,12 +6905,12 @@
         <v>654</v>
       </c>
       <c r="D318">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B319" t="s">
         <v>352</v>
@@ -6919,43 +6919,43 @@
         <v>655</v>
       </c>
       <c r="D319">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" t="s">
-        <v>259</v>
+        <v>315</v>
       </c>
       <c r="B320" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C320" t="s">
         <v>656</v>
       </c>
       <c r="D320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B321" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C321" t="s">
         <v>657</v>
       </c>
       <c r="D321">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B322" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C322" t="s">
         <v>658</v>
@@ -6966,52 +6966,52 @@
     </row>
     <row r="323" spans="1:4">
       <c r="A323" t="s">
-        <v>186</v>
+        <v>318</v>
       </c>
       <c r="B323" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C323" t="s">
         <v>659</v>
       </c>
       <c r="D323">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B324" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C324" t="s">
         <v>660</v>
       </c>
       <c r="D324">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B325" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C325" t="s">
         <v>661</v>
       </c>
       <c r="D325">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B326" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C326" t="s">
         <v>662</v>
@@ -7022,10 +7022,10 @@
     </row>
     <row r="327" spans="1:4">
       <c r="A327" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B327" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C327" t="s">
         <v>663</v>
@@ -7036,52 +7036,52 @@
     </row>
     <row r="328" spans="1:4">
       <c r="A328" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B328" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C328" t="s">
         <v>664</v>
       </c>
       <c r="D328">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B329" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C329" t="s">
         <v>665</v>
       </c>
       <c r="D329">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B330" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C330" t="s">
         <v>666</v>
       </c>
       <c r="D330">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B331" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C331" t="s">
         <v>667</v>
@@ -7092,24 +7092,24 @@
     </row>
     <row r="332" spans="1:4">
       <c r="A332" t="s">
-        <v>324</v>
+        <v>262</v>
       </c>
       <c r="B332" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C332" t="s">
         <v>668</v>
       </c>
       <c r="D332">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B333" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C333" t="s">
         <v>669</v>
@@ -7120,97 +7120,97 @@
     </row>
     <row r="334" spans="1:4">
       <c r="A334" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B334" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C334" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="D334">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B335" t="s">
         <v>353</v>
       </c>
       <c r="C335" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D335">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B336" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C336" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="D336">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B337" t="s">
         <v>352</v>
       </c>
       <c r="C337" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D337">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B338" t="s">
         <v>353</v>
       </c>
       <c r="C338" t="s">
-        <v>660</v>
+        <v>574</v>
       </c>
       <c r="D338">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B339" t="s">
         <v>354</v>
       </c>
       <c r="C339" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="B340" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C340" t="s">
-        <v>674</v>
+        <v>444</v>
       </c>
       <c r="D340">
         <v>0</v>
@@ -7218,10 +7218,10 @@
     </row>
     <row r="341" spans="1:4">
       <c r="A341" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B341" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C341" t="s">
         <v>675</v>
@@ -7232,7 +7232,7 @@
     </row>
     <row r="342" spans="1:4">
       <c r="A342" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B342" t="s">
         <v>352</v>
@@ -7241,15 +7241,15 @@
         <v>676</v>
       </c>
       <c r="D342">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="343" spans="1:4">
       <c r="A343" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B343" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C343" t="s">
         <v>677</v>
@@ -7260,21 +7260,21 @@
     </row>
     <row r="344" spans="1:4">
       <c r="A344" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B344" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C344" t="s">
         <v>678</v>
       </c>
       <c r="D344">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B345" t="s">
         <v>351</v>
@@ -7283,12 +7283,12 @@
         <v>679</v>
       </c>
       <c r="D345">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B346" t="s">
         <v>353</v>
@@ -7297,12 +7297,12 @@
         <v>680</v>
       </c>
       <c r="D346">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B347" t="s">
         <v>351</v>
@@ -7311,12 +7311,12 @@
         <v>681</v>
       </c>
       <c r="D347">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" t="s">
-        <v>340</v>
+        <v>35</v>
       </c>
       <c r="B348" t="s">
         <v>354</v>
@@ -7325,7 +7325,7 @@
         <v>682</v>
       </c>
       <c r="D348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -7339,7 +7339,7 @@
         <v>683</v>
       </c>
       <c r="D349">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -7347,13 +7347,13 @@
         <v>342</v>
       </c>
       <c r="B350" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C350" t="s">
         <v>684</v>
       </c>
       <c r="D350">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -7367,7 +7367,7 @@
         <v>685</v>
       </c>
       <c r="D351">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -7375,13 +7375,13 @@
         <v>344</v>
       </c>
       <c r="B352" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C352" t="s">
         <v>686</v>
       </c>
       <c r="D352">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -7395,7 +7395,7 @@
         <v>687</v>
       </c>
       <c r="D353">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -7409,7 +7409,7 @@
         <v>688</v>
       </c>
       <c r="D354">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -7417,13 +7417,13 @@
         <v>347</v>
       </c>
       <c r="B355" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C355" t="s">
         <v>689</v>
       </c>
       <c r="D355">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -7431,13 +7431,13 @@
         <v>348</v>
       </c>
       <c r="B356" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C356" t="s">
         <v>690</v>
       </c>
       <c r="D356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -7445,7 +7445,7 @@
         <v>349</v>
       </c>
       <c r="B357" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C357" t="s">
         <v>691</v>
@@ -7465,7 +7465,7 @@
         <v>692</v>
       </c>
       <c r="D358">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data_processed.xlsx
+++ b/data_processed.xlsx
@@ -28,2071 +28,2071 @@
     <t>Target</t>
   </si>
   <si>
+    <t>re : test pension scheme hi team with reference to below email member has given her new address and son s address as well and also we are unable to accept change of address request from son s email id could you please write back to member to confirm correspondent address and due to data protection purpose we are not able to accept the below request through email please provide us with the letter of authority which must be signed and dated by you within the last 12 months via post and also it should include your full name date of birth national insurance number and full address regards test pensions from : test pensions pensions com sent : 02 november 2020 21 : 08 to : abc xyz testmail com subject : test pension scheme dear abc test pension scheme thank you for your email regarding the test pension scheme your request for change of address has been logged and you will receive a written response from our administration department within 10 - 15 working days due to data protection purpose we are not able to accept the below request through email please provide us with the letter of authority which must be signed by you within the last 12 months and also it should include your full name date of birth national insurance number and full address if you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely test pensions - - - - - original message - - - - - from : abc xyz testmail com sent : 29 october 2020 17 : 40 to : test pensions pensions com subject : change of address and appointee abc national insurance number : date of birth address : i have two requests 1 i would like my son to be given full authority appointee to deal with all corespondent on my behalf from now on his details are as follows : name : date of birth : address : telephone : + 91 012345678 2 i have moved address on 23rd october 2020 my new address to send correspondence to is as follows : please can you update your records regards abc</t>
+  </si>
+  <si>
+    <t>fw : address change - former employee def hi team please see below query and reply accordingly thank you test pensions from : testfund fincorp com sent : 16 november 2020 09 : 00 to : test pensions pensions com subject : address change - former employee def hi please note address change for abc below ni number zz123123z thank you kind regards test fund from : abc xyz testmail com sent : 13 november 2020 12 : 59 to : testfund fincorp com subject : address change - former employee def hi i used to work for def and left in 2007 i am m now coming up to retirement age and trying to sort out my pensions can i update my current address with yourselves i now live at : 10 test road test street aa12 123 thanks for your attention kind regards abc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pre - identified user support request - abc reply email address : abc xyz testmail com forename : abc surname : xyz ni number : zz123123z dob : 01 jan 1400 home postcode : aa12 123 employer : test pension scheme subject : request for personal statement content : i am considering drawing on my deferred abc test pension from 25th june 2021 in order for me to come to a final decision could you please forward the necessary documentation to help me start the process member reference tst12345678 as shown in test account many thanks </t>
+  </si>
+  <si>
+    <t>request for pension details abc - ref : tst12345678 hi team please see below query and reply accordingly thank you test pensions from : test ifa fincorp com sent : 06 november 2020 16 : 15 to : test pensions pensions com subject : request for pension details abc - ref : tst12345678 to whom this may concern please find attached a letter of authority for client abc in relation to their policies plans held with you i have attached a standard schedule setting out the information we require in connection with any policies held by the client with yourselves along with a full information questionnaire if you so wish to use if you could please fully answer all questions and return the schedule by email or post as soon as possible it would be very much appreciated if there are any additional features of the scheme that are relevant to any decision that might be made by our client to exercise any options under the scheme which are not covered in this schedule please ensure that the relevant information is provided we would like to draw your attention to the fact that where the member is entitled to draw immediate retirement benefits we have asked you to provide a quotation for this in addition to the transfer data please also provide all relevant discharge transfer and open market option documents for any options involving immediate retirement or transfer if you anticipate that there will be a significant delay in providing all or any of the information requested please contact us immediately to indicate when the details will be supplied kind regards def</t>
+  </si>
+  <si>
+    <t>test pension transfer hi i am now almost 9 months into trying to obtain a cetv from yourselves i accept that progress could not be made until i personally stopped paying into the test pension fund this happened on the 25th september as you probably know i have spoken to yourselves on multiple occasions regarding obtaining my cetv before the efg deadline which has now come and gone i am now not even able to speak with anyone because your system cancels the call when i chose option 1 the ongoing option so i am requesting in writing that you please respond to this email and answer my concerns either through email or phone call on + 91 012345678 kind regards abc on 20 july 2020 at 05 : 15 test pensions pensions com&lt;mailto : test pensions pensions com wrote : dear mr abc test pensions fund thank you for your email regarding the ford hourly paid contributory pension fund please accept our apologies for the delay in responding to you i can confirm that your complaint is logged with the administration team and they will be in contact with you as soon as possible in relation to the transfer request if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com&lt;mailto : test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 10 july 2020 10 : 17 to : test pensions pensions com subject : re : test pension transfer hello i have tried contacting you through the number given below but because i need extension 1 an ongoing issue your system hangs up on me this is extremely frustrating because this is an urgent matter and has been going on since before the pandemic stated we are now getting on for 6 months into my request to def through the xyz to get my cetv and transfer out of the test fund i would request once again that you treat this as a matter of urgency kind regards abc on 09 july 2020 at 20 : 33 test pensions pensions com wrote : thank you for your email to the test pensions recent government and health authority advice on covid - 19 has meant we have had to change the way in which we work to safeguard the health and wellbeing of our staff this alongside the increased contact we are experiencing from members means that we may not be able to respond to you as quickly as we would like in the short - term but please be assured that we will respond as soon as we are able should you have any queries in the meantime please contact our member helpline on + 91 012345678 please note this is an automated response postal address : test pensions post handling centre x 10 test road test street aa12 123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fw : not virus scanned - password protected warning : message encrypted test pension fund early retirement calculation tst12345678 message encrypted hi all we have reviewed your retirement calculation for member zz123123z and can confirm that based on the information provided we are happy with your calculation of the member s retirement options the retirement quotation is based on the gmp information you have provided to us and may not have been updated to reflect any different gmp information held by hmrc further the retirement quotation makes no allowance for any adjustment which may be required in relation to the equalisation of gmps following the judgment in the lloyds case fin corp ltd fin corp has addressed this retirement quotation review to fin corp 2 you in your role as administrators on behalf of the trustees of the test pension trust under the terms of our agreement with the trustees the technical actuarial work involved in the preparation of this review complies with the financial reporting council s technical actuarial standard for tas purposes the sole user of this material are the trustees of the test pension trust the assumptions used in deriving this retirement quotation have been determined by the trustees in preparing this retirement quotation review we have relied upon the data outlined in your email below whilst reasonable care has been taken to gauge the reliability of this data we provide no guarantee as to the accuracy or completeness of this data and fin corp ltd accepts no responsibility and will not be liable for any errors or misrepresentations in the data made by any third party please let us know if you have any queries kind regards abc xyz lead associate retirement fin corp ltd 10 test road test street aa12 123 t + 91 012345678 abc xyz testmail com fin corp ltd testmail com &lt;mailto : fin corp ltd testmail com from : fin corp ltd testmail com &lt; fin corp ltd testmail com sent : 12 november 2020 16 : 40 to : test pensions &lt; test pensions pensions com &lt;mailto : test pensions pensions com cc : test ifa fincorp com &lt;mailto : test ifa fincorp com subject : not virus scanned - password protected warning : message encrypted test pension fund early retirement calculation tst12345678 message encrypted hi please find attached our early retirement calculation and member screen prints for review in respect of the above named member please provide us full retirement options including levelling options if any kindly let me know if you require any further information kind regards </t>
+  </si>
+  <si>
+    <t>re : test pension plan - mr abc hi test pensions my request was sent a week ago can you give me a progress update thanks test ifa from : test pensions pensions com sent : 06 november 2020 09 : 57 to : test ifa fincorp com subject : test pension plan - mr abc dear test pension test pension plan thank you for your email regarding the test pension plan your request for transfer out has been logged and you will receive a written response from our administration department within 5 - 10 working days if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com &lt;mailto : 20test pensions pensions com 20 yours sincerely test pensions from : test ifa fincorp com sent : 03 november 2020 21 : 22 to : test pensions pensions com subject : test pension plan - mr abc hi member s full name : abc member s ni number : scheme name : test pension scheme scheme reference : please find attached the following documents in respect of the above member : your transfer request and discharge form signed by mr abc our advice confirmation letter sent to mr abc i have sent the receiving scheme warranty form to def and have asked them to send the completed form directly to you if there are any further documents you require to complete the transfer please let me know best regards test ifa</t>
+  </si>
+  <si>
+    <t>loa request qrst tst12345678 dear sir madam member name qrst member reference tst12345678 scheme name test pension scheme the above named has advised us that they wish to consider the possibility of a pension transfer please therefore find an electronic copy of the member s letter of authority attached which has been password protected using the member s national insurance number in the following format : 0000000000 we are in receipt of the cetv statement dated 26 10 2020 following the issue of the defined benefit transfers : abc on 8th july 2019 by the test has the scheme adopted the test member quote and scheme templates if so and the member s enquiry can be processed as a test standard case we are able to receive information in this format please provide the appropriate link for the test scheme template for this member if not in order to advise the member we would be grateful if you could provide the following documents : a retirement quote for aged 55 the member booklet applicable for their period of membership the latest report and accounts for the scheme showing the most recent funding position along with details of any recovery plan should the scheme be underfunded on an ongoing basis we also require the following information if it is not obtainable from the benefit illustrations scheme literature or member guides that you may be providing : transfer value 1 in response to the covid - 19 pandemic the pensions regulator are permitting schemes to apply a 3 month freeze on transfer activity have the scheme trustees already suspended or are they planning to suspend cetv quotations and or cetv payments 2 we note that the cetv is guaranteed until 26 01 2020 but are aware that transfer values are variable to reflect fixed interest yields and actuarial assumptions please advise whether any changes have been made to the cetv calculation or if any are due to be implemented that may be more favourable to the member since the original cetv was issued 3 has the transfer value been reduced to reflect any funding issues alternatively has the transfer value been enhanced 4 is it possible to take a partial transfer of db pension benefits and if so in what circumstances early retirement 5 is early retirement allowed if so from what age 6 what actuarial reduction factors would be applied to the member s pension in the event of early retirement at age 55 7 upon early retirement would the member s benefits be revalued to the date of actual retirement or normal retirement age if benefits are revalued to nra what assumption is made regarding future increases 8 in the event of the member having to retire early due to ill health are the benefits enhanced eg paid without the application of an early retirement factor please confirm the trustee s definition of ill health in this regard 9 please confirm the trustee s approach to serious ill health commutation lump sums sihc including how the sum would be calculated and on what grounds it would be paid would taking a sihc sum also extinguish the spouse s benefits within the scheme early retirement quotation request 10 as the member has expressed an interest in taking benefits at 55 please provide a retirement illustration showing both the full pension available along with any tax free cash and residual pension options offered 11 does the scheme offer pie pension increase exchange or any other options to change the amount of initial pension and or dependant s pension 12 please advise if there is a temporary pension included within the pension and if so how much this is and when it will fall away i e the member s actual state pension age of 67 or at original spa of age 13 please advise if there is a state pension deduction included within the pension and if so; a the value of the state pension deduction spd at date of leaving b at what age the spd applies c the rate of revaluation that applies to the spd between date of leaving and date of application if applicable d whether escalation on the pension in payment following the application of the spd is based upon the pension before or after the spd is applied client specific please confirm the following : 14 the member s final pensionable pay scheme information 15 does any part of this member s pension service have a different normal retirement age a if so please confirm the affected period of service and why a different nra applies eg as a result of equalisation transfer b the effect this has on the total benefits payable eg early or late retirement factors would apply if the pension is taken at outside of those ages 16 is the scheme open to all employees or are there restrictions if so what are they 17 what was the member s accrual rate 18 the excess pension revaluation basis; eg years and months rounded down 19 pensionable service basis; eg whole years whole years and months 20 rpi index month 21 does the scheme operate a money purchase underpin for this member if so please confirm the most recent value pension benefits at the date of leaving the scheme 22 excess benefits; showing any relevant splits such as post 97 09 care please confirm the rates of revaluation in deferment and escalation in payment for each section of benefits 23 please confirm the date the excess pension is revalued in deferment eg anniversary of date of leaving or a specific date in the year 24 statutory increases to occupational pensions are now in line with cpi instead of rpi please confirm whether the scheme intends to change to cpi in the future for revaluation in deferment and or escalation in payment 25 please list any discretionary increase applied to the pension either in deferment payment during the last 5 years and has potential future discretionary increases been taken into consideration in the calculation of the cetv 26 please provide a breakdown of any transferred - in benefits a if present are these benefits treated the same as the main benefits if not please highlight any differences b is there a fixed pension payable at nra as a result of the transferred in benefit c please provide details of any transferred - in gmp tax free cash tfc 27 does the scheme pay hmrc post a day maximum cash 28 if the hmrc maximum formula is not used how is the member s tfc calculated 29 what is the scheme s current tfc commutation factors 30 is the tfc taken on a pro rata basis across all elements of pension or from specific slices of pensionable service 31 if the member takes tax free cash is the pension increase in payment per annum applied based on pre or post commutation pension 32 does the member have protected scheme specific tax free cash that would be lost on individual transfer if so please advise amount at 5 4 2006 or if this client has bulk transfer protection for tax free cash death benefits 33 does the scheme pay a lump sum on death benefit before retirement if so what and how much if a return of member contributions sum is paid what is the interest applied to the figure 34 what pension would the member s spouse and or dependants receive upon death before and after retirement pension flexibilities 35 please advise if any changes to the scheme are being considered which could impact on the member for example following the introduction of pension freedoms in 2015 will the scheme be offering : flexi - access drawdown for the member on retirement or beneficiaries on the member s death uncrystallised fund pension lump sum either on a full withdrawal or partial withdrawal basis or partial crystallisations if so please provide details additional voluntary contributions avcs associated defined contribution dc schemes 36 please provide details and options of any other associated scheme benefits the member may have and a valuation of these we would be grateful if this information could be emailed to us at test ifa fincorp com or alternatively sent to the postal address above clearly marked for the attention of test ifa 10 test road test street aa12 123 we look forward to hearing from you but should you have any queries in the meantime please do not hesitate to contact us on the details above yours faithfully test ifa</t>
+  </si>
+  <si>
+    <t>fw : xyz loa hi team please see below query and reply accordingly thank you def - agent - customer support centre 10 test road test street aa12 123 + 91 012345678 from : test ifa fincorp com sent : 09 november 2020 10 : 30 to : test pensions pensions com subject : xyz loa dear test pensions password to access the loa is : aaaaaaaa regards from : test ifa fincorp com sent : 09 november 2020 10 : 29 to : test pensions pensions com subject : xyz loa dear test pensions please find enclosed a letter of authority from the above client appointing creative benefits wealth management ltd to receive policy information the password will follow under separate cover please provide your standard transfer out pack including cash equivalent transfer value and full scheme information please ensure this includes all the information we will require to understand and project the member s benefits and advise the member on all the options available as a guide the information you provide should cover all the items identified as required by the pensions administration standards association in their agreed pasa templates below : scheme information template&lt;https : www pasa - uk com wp - content uploads 2019 10 scheme - template - final pdf member information template&lt;https : www pasa - uk com wp - content uploads 2019 10 transfer - template - member - info - final pdf where the member is eligible to take benefits please provide an immediate retirement quote very important information required : - please confirm the accrual tranches within the pension and their subsequent revaluation and escalation rates what are the clients options with respect to late retirement what are the commutation factors from normal retirement age onwards what are the late retirement factors from nra onwards does the client have any gmp in addition please provide me with the following information relating to policies at your earliest convenience : 1 policy type 2 commencement date 3 contribution history since inception 4 inclusion of waiver of premium 5 plan status 6 current value and breakdown of value between funds 7 current fund s choice please quote mex sedol isin number for each fund attaching to the plan 8 if the policy can offer adviser charging 9 if the policy can offer ufpls 10 if the policy can offer flexible access drawdown 11 pension input periods on the policy 12 if with profits funds please enclose full details including the current asset allocation of the fund and the last 5 years bonus declaration history 13 details of other funds available to invest in and relevant codes 14 transfer value please advise any transfer penalties applicable and reason for any penalty 15 any former protected rights funds 16 pension commencement lump sum amount 17 any guarantees associated to the plan eg guaranteed annuity rates bonus rates guaranteed fund at scheme retirement date srd etc 18 if with profits - please confirm if any with profits spot guarantees apply and when 19 scheme retirement date srd of the plan 20 illustration of projected value at srd age xx 21 a paid up illustration at srd age xx if regular premiums are still being paid please supply a quote to srd age xx assuming the premiums continue 22 the death benefits should the member die before srd and any nominated beneficiaries 23 charges allocation rates on the plan 24 any protected tax free cash at a day if yes please send paperwork to quantify this also please confirm fund value at a day and tax free cash at a day 25 premium and sum assured of any associated pension term assurance value as at a - day 26 is there a pension sharing order or attachment to the benefits if plan is a sipp with a capped drawdown arrangement : - 27 maximum income available 28 review date s 29 any remaining pcls entitlement 30 income currently being taken 31 fee schedule relating to sipp if member has taken benefits : - 32 please confirm the value of the crystallised and uncrystallised portions 33 please also confirm the percentage of the lifetime allowance that has been crystallised within this scheme please send any necessary transfer out paper work and id requirements to be completed i look forward to hearing from you however if you have any queries please let me know as soon as possible yours faithfully test ifa</t>
+  </si>
+  <si>
+    <t>lmno request for a guaranteed cetv pack to test pensions regarding your existing client lmno please find attached the new letter of request for a guaranteed cetv pack for lmno our letter of authority is already on your files and the client has now opted out of the pension scheme please send all the relevant information by post and send a copy by return email please contact me if you need any further information to be able to send the guaranteed cetv pack to us for lmno kind regards test ifa 10 test road test street aa12 123 + 91 012345678</t>
+  </si>
+  <si>
+    <t>test application for ill health benefits - abc tst12345678 test pensions i agree with the recommendation in respect of mr abc from : test trustees pensions com sent : 03 november 2020 15 : 39 to : test pensions pensions com cc : testfund fincorp com subject : test application for ill health benefits - abc tst12345678 hi i agree with the recommendation to full commutation of pension to mr abc on the grounds of having less than 12 months to live regards dc from : test pensions pensions com sent : 03 november 2020 15 : 00 to : test trustees pensions com cc : testfund fincorp com subject : test application for ill health benefits - abc tst12345678 dear trustees we received approval to issue an ill health quote for the above member we have now received a letter from the member s gp that he has less than 12 month to live could i please have your approval to issue a full commutation of pension to mr abc i look forward to your urgent response kind regards test pensions from : test pensions pensions com sent : 18 september 2020 10 : 54 to : test trustees pensions com cc : testfund fincorp com subject : test application for ill health benefits - abc tst12345678 dear trustees the above member has a small preserved pension in the plan - 111 11 p a at his date of leaving of 22 03 1991 the current value of his deferred pension is 1 111 p a he is currently aged 52 and has been diagnosed with an aggressive brain tumour - please see attached could we please have your authorisation to issue mr horgan with an ill health quotation if you have any queries please let me know kind regards test pensions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test pensions letter of authority - abc good morning test pension scheme reference : tst12345678 member name : mr abc thank you for your letter of 3 november please find attached a new signed letter of authority from mr abc can you please let me know if you are able to provide the information requested in my previous email kind regards test ifa from : abc xyz testmail com sent : 07 november 2020 10 : 10 to : test ifa fincorp com&lt;mailto : test ifa fincorp com subject : re : test pensions letter of authority - abc hi test ifa pls find attached scanned authorisation letter regards abc on fri 6 nov 2020 at 18 : 21 kate davis &lt;test ifa fincorp com&lt;mailto : test ifa fincorp com wrote : hi abc i have just had a reply from test pensions they need a new letter of authority could you please print sign and return the attached to me and i will send it off so we can get access to your scheme information many thanks kind regards test ifa mobile + 91 012345678 email test ifa fincorp com&lt;mailto : test ifa fincorp com </t>
+  </si>
+  <si>
+    <t>re : test pension scheme - late mrs abc xyz sorry forgot to add into my last email yes the death has been registered on 1 january i am still waiting for certificate to arrive in post could not collect because of covid thanks abc xyz sent from my iphone on 23 nov 2020 at 03 : 36 &lt;test pensions pensions com &lt;test pensions pensions com wrote : dear abc xyz test pension scheme thank you for your email regarding the test pension scheme please accept my sincerest condolences for your loss in order to assist us could you please provide us with the following details : date of death : member s address at date of death : has the death been registered and death certificate issued : did the member have any financial dependents address for condolence : also please reconfirm member s national insurance number contact number should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely abc xyz administrator customer support centre test pensions 10 test road test street aa12 123 direct dial : + 91 012345678 fin corp testmail com &lt;mailto : fin corp testmail com - - - - - original message - - - - - from : abc xyz&lt;abc xyz testmail com sent : 22 november 2020 17 : 13 to : test pension scheme subject : re : tst12345678 hello re the below email sent on behalf of my mother abc xyz deceased information needed national insurance number date of birth many thanks abc xyz daughter sent from my iphone on 19 nov 2020 at 10 : 56 susan evans &lt; abc xyz testmail com wrote : hello re the above pension plan for mrs abc xyz i would just like to inform you that my mother passed away on 1st january 2020 could you please cancel any further payments made that my mother won t be entitled to any problems please advise and i ll try my best to assist you kind regards abc xyz deceased s daughter sent from my iphone</t>
+  </si>
+  <si>
+    <t>abc - cetv request dear sirs re : test group pension plan member : abc ni number : zz123123z i refer to my request of 12 october 2020 for a new cetv in respect of the above member and your letter of 2 november confirming it was referred to the scheme actuary for review i should be grateful if you would provide me with an update on this and when i should expect receipt yours faithfully test fund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">re : test pension fund - abc xyz thank you for your response in answer to your questions the address that you have for abc xyz is 10 test road test street aa12 123 f date of birth 1st january 1400 national insurance no zz123123z i look forward to hearing from you further regards abc xyz - - - - - - original message - - - - - - from : test pensions pensions com to : abc xyz testmail com sent : friday 20 nov 2020 at 16 : 25 subject : test pension fund - abc xyz dear abc xyz test pension fund thank you for your email regarding the ford pension fund please accept our apologies for the delay in responding to you to enable us to answer your enquiry please could you provide member s full address date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com &lt;mailto : test pensions pensions com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 from : abc xyz &lt;abc xyz testmail com sent : 26 october 2020 11 : 40 to : test pensions subject : mrs abc xyz - pension ref : 123456 i am writing to inform you that abc xyz moved into residential care on 1st january and that i will be handling all of her financial affairs as attorney from now on i will of course let you have all of my details so that any correspondence can sent directly to me but so that i can do everything in one go would you kindly let me know what information you require from me many thanks abc xyz daughter </t>
+  </si>
+  <si>
+    <t>questions to test - re - send dob : 01 01 1400 nat insurance : zz123123z address : 10 test road test street aa12 123 on 01 jan 1400 at 12 : 06 testfund fincorp com wrote : dear test do you have a pension questionnaire which i can complete with any questions i may have are there any guarantees on the plan such as a guaranteed annuity rate or minimum pension amount am i correct in thinking that i can take option 2 the defined benefit and the defined contribution parts of the pension to re - invest that money whilst leaving the annual reduced pension with you to be delivered monthly defined benefit tax free cash sum : 108 757 54 plus : a reduced annual pension : 16 313 64 plus : pension money current value : 115 139 06 many thanks abc</t>
+  </si>
+  <si>
+    <t>test pension scheme message encrypted message encrypted hi team please see below query and reply accordingly many thanks def 10 test road test street aa12 123 direct dial : + 91 012345678 test pensions pensions com&lt;mailto : test pensions pensions com from : abc xyz testmail com sent : 09 november 2020 08 : 46 to : test pensions pensions com&lt;mailto : test pensions pensions com cc : xyz abc testmail com subject : warning : message encrypted fw : test pension scheme message encrypted message encrypted many thanks def from : test pensions pensions com&lt;mailto : test pensions pensions com sent : 05 november 2020 15 : 59 to : abc xyz testmail com cc : xyz abc testmail com subject : re : test pension scheme message encrypted good afternoon abc sorry for the delay in providing this we have obtained the current avc value from standard life and updated your pack for the revised guarantee date please find this attached protected with your national insurance number if you require anything else please let me know kind regards def def 10 test road test street aa12 123 p : + 91 012345678 test pensions pensions com&lt;mailto : test pensions pensions com from : abc xyz testmail com sent : 05 november 2020 11 : 23 to : test pensions pensions com&lt;mailto : test pensions pensions com cc : def subject : re : test pension scheme good morning def i still haven t received any updated documentation on the valuation to include avc s and the amended guaranteed date please can you advise if there s an eta on when i can expect this many thanks abc from : test pensions pensions com&lt;mailto : test pensions pensions com sent : 27 october 2020 10 : 07 to : abc xyz testmail com subject : test pension scheme dear abc thank you for your email i can confirm i have forwarded your email to our administration department and they will be in contact shortly should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com&lt;mailto : test pensions pensions com yours sincerely def 10 test road test street aa12 123direct dial : + 91 012345678 test pensions pensions com&lt;mailto : test pensions pensions com from : abc xyz testmail com sent : 23 october 2020 10 : 01 to : test pensions pensions com&lt;mailto : test pensions pensions com cc : mno uvw testmail com subject : re : test pension scheme good morning def many thanks for the update the actual letter that i received didn t mention that though i look forward to seeing the updated version soon many thanks abc from : test pensions pensions com&lt;mailto : test pensions pensions com sent : 22 october 2020 21 : 03 to : abc xyz testmail com cc : mno uvw testmail com subject : re : test pension scheme hi abc apologies i think this will be the hard copy letter of the quotation i issued via email on friday last week i have asked the team to update the pack with the updated guarantee date and avc value when they receive this i ve also asked for a copy so i can send on via email kind regards def 10 test road test street aa12 123 from : abc xyz testmail com sent : 22 october 2020 09 : 55 to : test pensions pensions com&lt;mailto : test pensions pensions com cc : abc mno testmail com subject : re : test pension scheme good morning def i have received the correspondence but there are 2 things that don t seem quite right with it : - 1 the valuation hasn t had any additional avc s added to it please see the attached email from def 2 the expiry date of the valuation hasn t been extended again please see the attached email from def please can you clarify many thanks abc from : test pensions pensions com&lt;mailto : test pensions pensions com sent : 21 october 2020 18 : 16 to : abc xyz testmail com subject : test pension scheme dear abc thank you for your email i have checked our records and can confirm that the correspondence was issued to you on 16th october 2020 in relation to your query please note that you will receive it shortly should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com&lt;mailto : test pensions pensions com yours sincerely def 10 test road test street aa12 123 direct dial : + 91 012345678 test pensions pensions com&lt;mailto : test pensions pensions com from : abc xyz testmail com sent : 15 october 2020 12 : 09 to : test pensions pensions com&lt;mailto : test pensions pensions com subject : re : test pension scheme good afternoon def is there an eta as to when i can expect this transfer value quotation please many thanks abc from : test pensions pensions com&lt;mailto : test pensions pensions com sent : 01 october 2020 12 : 33 to : abc xyz testmail com subject : test pension scheme dear abc thank you for your email i have checked our records and confirm that the transfer value has been referred to the scheme actuary for review as a result we are unable to provide a transfer value quotation until we have received confirmation to issue as soon as we have had this confirmation the transfer value quotation will be sent to you should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com&lt;mailto : test pensions pensions com yours sincerely def admin csc 10 test road test street aa12 123 direct dial : + 91 012345678 test pensions pensions com&lt;mailto : test pensions pensions com from : abc xyz testmail com sent : 30 september 2020 12 : 05 to : pensions subject : re : pension query good afternoon def i just wanted to check in to ensure that the money transfer was received and that the transfer value quotation is in process kindly advise many thanks abc from : test pensions pensions com&lt;mailto : test pensions pensions com sent : 24 september 2020 05 : 05 to : abc xyz testmail com subject : pension query dear abc thank you for your email i can confirm i have forwarded your email to our administration department to process as requested and they will be in contact shortly should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com&lt;mailto : test pensions pensions com yours sincerely abc admin csc 10 test road test street aa12 123 direct dial : + 91 012345678 test pensions pensions com&lt;mailto : test pensions pensions com from : abc xyz mailto : abc xyz testmail com&lt;mailto : frank l graham bacb co uk sent : 22 september 2020 20 : 19 to : test bank ltd cc : xyz abc testmail com subject : tst12345678 good afternoon i refer to your letter dated 16th september please be advised that i have just paid the 432 00 in regard of requesting another transfer value quotation receipt below : - as requested i m providing my full name national insurance number the scheme name and reference number in this email below : - abc xyz national insurance nbr : scheme name : test pension scheme scheme reference number : tst12345678 please can you confirm receipt of funds and this email many thanks best regards abc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> warning : message encrypted ref : tst12345678 message encrypted dear sirs ref; tst12345678 please find enclosed a letter of authority in relation to the above mentioned policy the attached document is password protected with the clients date of birth in the format dd mm yyyy including the the authority letter was previously submitted via your online submission portal but you have written to the client to confirm the letter was in an unreadable format if there are any issues with this letter please let me know asap please could you provide the full scheme information including the following : 1 policy start date 2 original investment amount 3 funds invested in and unit holding information number of units including sedol codes 4 list of funds available to the plan along with details of maximum invested 5 full contribution history 6 are there any ongoing contributions being made if so at what level 7 what is the selected retirement age s 8 projected illustration at selected retirement age and to age 65 if different 9 current fund and transfer values 10 is the policy written in trust if so please confirm the details 11 does the policy include any protected rights if so what is are the values 12 can you please confirm whether there is any enhanced protection advised for this plan 13 details of all nominated beneficiaries noted on the plan if not please provide us with an expression of wish form where possible please email any correspondence to test ifa fincorp com&lt;mailto : test ifa fincorp com i look forward to hearing from you and if you have any queries please let me know best regards test ifa</t>
+  </si>
+  <si>
+    <t>change of address - tst12345678 good afternoon please could i request that my address is amended to the following : 10 test road test street aa12 123 i am unable to amend the details on the benpal website your help in this matter is most appreciated warmest regards abc xyz tst12345678 former employee of def</t>
+  </si>
+  <si>
+    <t>test pension scheme; scheme member; change of address n i number : zz123123z dear sir madam i have recently received a publication regarding the above pension scheme redirected from my previous address details below : 10 test road test street aa12 123 i wish to register a change of address to that detailed below : 10 test road test street aa12 123 please could you acknowledge this change of address and forward any future information regarding the above referenced scheme to the changed address many thanks abc xyz lead assessor mobile number + 91 012345678 email : abc xyz testmail com</t>
+  </si>
+  <si>
+    <t>test pension fund - bheem b message encrypted dear sir madam as per previous correspondence from ms bheem please find attached copy of our correspondence sent to you today confirming the member s cash lump sum on retirement from the above fund the attachment is password protected with the member s national insurance number all upper case kind regards sun light senior pensions administration leatherhead office postal address : post email fax centre z st tower 0 chennai road loundon m0 00a direct dial : + 44 1 1000 000 000</t>
+  </si>
+  <si>
+    <t>surname error member ref dep seq no surname inits nino s000000 0 o apos; yeda aaa aa000000a i think the surname on the above name has been accidentally changed to something incorrect surname on valuation data ran in april is yeda and this matches sharepoint please can someone look into and correct thanks rgb</t>
+  </si>
+  <si>
+    <t>change of address - abcd nino - zz123123z dob - 01 01 1400 reference - tst12345678 new address : 10 test road test street aa12 123 tel : + 91 012345678 email : abc xyz testmail com could you please update the administration and payroll records with mr abcd new address abcd is the former chairman of xx and former chairman of def ltd kind regards test pension fund</t>
+  </si>
+  <si>
+    <t>re : change of personal details name abc further to my previous email my date of birth is 01 january 1400 t i pension reference number tst12345678 national insurance number zz123123z change of address from 70 test road test street wa12 123 new address 10 test road test street aa12 123 mobile + 91 012345678 email abc xyz testmail com&lt;mailto : email jackie barrett123197 gmail com regards abc on wed 14 oct 2020 15 : 01 abc xyz testmail com&lt;mailto : abc xyz testmail com wrote : name abc test group pension scheme member reference number tst12345678 national insurance number zz123123z i wish to advice you on my change of address now; 10 test road test street aa12 123 mobile number + 91 012345678 regards abc - - abc</t>
+  </si>
+  <si>
+    <t>urgent tst12345678 defg good morning i appreciate that you are very busy at present i have been trying the phone lines and just keep getting automated messages saying my call cannot be taken we have submitted transfer out paperwork for defg tst12345678 zz123123z 01 01 1400 aa12 123 the documents were signed for in your offices on 18 11 2020 and the guarantee date for the cetv is 30 11 2020 i just please need confirmation that the cetv is secured by the confirmation that the paperwork reached your offices well in advance of the guarantee date despite your current workloads if you are able to advise of your current turnaround times then this would also be appreciated - - kind regards test ifa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">password dear sir madam i am looking to access my ford pension benefits as i am looking to retire in 2021 would it be possible for you to send me a new activation code as the last one has expired incidentally i could not access my account orignially as the activation code would not be recognised kind regards mr abc xyz </t>
+  </si>
+  <si>
+    <t>re : test pension plan - abcd : tst12345678 hi request you to please confirm when the amount was expected to receive and in which bank account number transfer has been made regards test fund from : test pensions pensions com sent : monday november 9 2020 3 : 35 pm to : testfund fincorp com subject : test pension plan - abcd : tst12345678 importance : high hi can you please check and advise if a payment of 915 00 has been received from the above member kind regards test pensions</t>
+  </si>
+  <si>
+    <t>re : abc xyz tst12345678 pension quote hi please can you provide me with an eta for the below pension quotation many thanks from : abc xyz testmail com sent : 30 october 2020 10 : 43 to : test pensions pensions com subject : abc xyz tst12345678 pension quote hi please can i request pension figures for the following; employee : abc xyz tst12345678 dob : 01 01 1400 retirement date : 1st january 1400 retirement type : normal early retirement actuarily reduced thank you</t>
+  </si>
+  <si>
+    <t>fw : test pension fund - member reference zz123123z importance : high hello team please see below query and reply accordingly to the member ifa many thanks abc xyz - agent - customer support centre fin corp ltd 10 test road test street aa12 123 + 91 012345678 from : abc xyz &lt;abc xyz testmail com sent : 23 november 2020 07 : 09 to : test pensions subject : re : test pension fund - member reference zz123123z importance : high good morning approximately 10 days ago i informed test pensions that the course of action i wished to take was to start receiving my pension benefits in january 1400 they said that they had contacted the appropriate people and that i should hear something to that effect i have not heard anything thus far can you please update me asap there approximately 3 weeks until my pension is due to commence regards abc xyz from : test pensions pensions com sent : wednesday september 23 2020 8 : 12 am to : abc xyz testmail com subject : test pension fund dear mrs abc xyz thank you for your email your request has been logged and you will receive a written response from our administration department within 10 - 15 working days should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com &lt;mailto : test pensions pensions com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 from : abc xyz &lt;abc xyz testmail com sent : 23 november 2020 07 : 09 to : test pensions subject : pension information pack importance : high good afternoon please can you tell me if my information pack has been sent yet thank you regards abc xyz</t>
+  </si>
+  <si>
+    <t>documents relating to your claim dear test scheme please find attached the following documents relating to your claim : info request pdf info request - 1 signed fscs declaration and consent pdf if you have any questions please contact us on test pensions pensions com make sure you include your fscs reference number in the subject line of the email so that we know which claim your information applies to yours sincerely customer service team</t>
+  </si>
+  <si>
+    <t>pension summary hi i m in the test pensions scheme i ve logged into fin corp to have a look at my pension summary and it s only showing me my pension summary as at 01 jan 1400 is there a reason for this also i have tried to get an early retirement quote calculation but it has been unable to calculate my quote can you help national insurance number zz123123z regards abc xyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">outstanding money hello i have a letter dated months ago stating that the outstanding cash sum would be paid shortly but have had no reply to several emails please deal with it now </t>
+  </si>
+  <si>
+    <t>re : tst12345678 regarding my late father mr lmno good afternoon thank you for your email acknowledgment the information requested for data verification is as follows : date of birth : 01 01 1400 member national insurance number : zz123123z i look forward to hearing from you in due course kind regards ms abc on thu 8 oct 2020 at 07 : 20 test pensions pensions com wrote : dear ms abc test pension scheme thank you for your email regarding the test pension scheme in order to forward your email to our administration department please could you provide the member national insurance number and date of birth for data verification purposes if you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 06 october 2020 13 : 27 to : test pensions pensions com subject : reference : tst12345678 regarding my late father mr lmno good afternoon further to your postal letter dated 23rd september 2020 and my subsequent telephone call last week with one of your colleagues i have been advised to provide some more financial information regarding my late father test pension fund and some additional impact info i am now facing having been my dad carer my dad received his weekly state pension with an element of pension credit as well as a payment in the form of attendance allowance every 4 weeks as my dad carer for the last 11 years and his sole carer since 2009 and his appointee since 2017 i started receiving a weekly payment in the form of carers allowance around 2015 in dad final years test started paying his income into my bank account for his own welfare elements of xx and xx with finances we were instructed to always make sure dad received this but to monitor his spending as he was not great with handling his money i therefore enclose attachments of the above taken from my bank statements i believe this is important information requested that your colleague advised to forward to yourselves i also want to offer you an impact insight as to regardless of being an adult in my own right how interdependent my position became with dad too i had to give up full time work in 2015 due to ill health namely fibromyalgia and shortly after my partner had to give up his full time employment to help with my own care as well as that of my father this was an awful situation to find ourselves in and we struggled by as best we could when i received the carers allowance that was naturally of great help but without the odd financial crutch here and there from dad from his attendance allowance to attend to his needs the situation would have been harder there was never a requirement for dad to provide this and indeed it was certainly not a regular helping hand but on occasions when our teenage daughter was needing things like uniform for school xmas etc etc it was a very welcome and lovely helping hand naturally upon dad passing we knew things would go back to a certain level of hardship with the carers allowance ending 8 weeks after dad passing and no more loving occasional helping hand of course this is just how life is and no money will ever replace my longing to have at the very least one more cup of tea or a natter with him and i terribly miss his persistent curmudgeonly manner in short his passing continues to be felt and will do for however long that will be i hope this email and information requested is both sufficient and helpful for the panel and i shall await your further consideration in due course yours sincerely ms abc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> urgent re : defg - zz123123z - 01 01 1400 importance : high good morning i m concerned that i am yet to have a response to my below request please provide the answers to our queries urgently and by email if possible kind regards test ifa from : test ifa fincorp com sent : 06 october 2020 17 : 26 to : test pensions pensions com subject : urgent re : defg - zz123123z - 01 01 1400 importance : high good afternoon please find attached a letter of authority duly signed by our mutual client which should enable you to release information for this policy therefore please kindly provide me with the following information in writing; dates salary date of joining and leaving the scheme member s final pensionable salary has the gmp been equalised are partial transfers allowed i e can the gmp remain and post 97 rights be transferred funding statement if relevant is late retirement allowed if so to what age and late retirement factors please pension benefits at date of leaving scheme gmp benefits; showing any pre post 88 splits the rates of revaluation in deferment and escalation in payment excess benefits; showing any pre post 85 or 97 splits the rates of revaluation in deferment and escalation in payment list of any discretionary increases applied to pension either in deferment payment during last 5yrs breakdown of any transferred - in benefits; are the benefits treated the same as the main scheme benefits if not please highlight any differences is there a fixed pension at nra of service credit if no gmp contained does the member have any avcs if so how what is the current value do they have to be transferred with the main scheme benefits what funds are they invested in can the member switch into different funds early retirement is early retirement allowed if so from which age what actuarial reduction factors are currently applied to members pensions in the event of early retirement if a table of factors is not available please provide the percentage reduction applicable for each year early and whether this is compound or simple reduction would the member benefits be revalued to the date of actual or normal retirement upon early retirement if revalued to normal retirement at what assumed rate are benefits projected to normal retirement benefit payable now on a full pension basis and maximum pension commencement lump sum with reduced pension basis tax free cash member tfc at date of leaving would this amount revalue if so at what rate does the scheme pay hmrc post a - day maximum cash amount of pre a - day ir maximum cash at 5 4 2006 if protected what are the scheme current tfc commutation factors from nra to age 55 death benefits does the scheme pay a death before retirement lump sum if so what and how much what pension would the member spouse receive upon death before and after retirement what death after retirement guarantee does the scheme apply contracting out was the scheme contracted out pre post 06 04 1997 if yes for post 97 on what basis; reference scheme protected rights underpin mixed benefit transfer value total transfer value cetv ; showing any splits of gmp protected rights pre post 06 04 1997 calculation and guarantee dates also amount of member contributions included in the tv scheme information scheme s normal retirement age is the scheme open to all employees or are there restrictions if so what are they what is the scheme s current funding position would deferred members benefits be affected in any way if so how is the scheme a member of the transfer club will the scheme allow a partial transfer of benefits if yes please outline any restrictions that would be applied and or provide details of the basis on which a partial transfer would be allowed if no please confirm if there is more than one type section version of scheme membership which one applies to the member is the plan subject to an earmarking or attachment order what date was the scheme equalised and the earliest age benefits can be taken unreduced if the transfer were to proceed would the scheme be insistent that all forms must be returned within the guarantee period or could some discretion be used at that time please forward copies of any warranty discharge forms that would need to be completed if the client decided to transfer their benefits thank you for your assistance in this matter kind regards test ifa</t>
+  </si>
+  <si>
+    <t>zz123123z dear sir madam please may you confirm if you consider ill health unreduced pension for deferred members if so what is the process thanks in advance kind regards abc xyz</t>
+  </si>
+  <si>
+    <t>test retirement and employee security scheme : mr mr abc xyz hi test pensions thank you for your email could you please reissue the email sent on 21 10 to me has the request been processed kind regards test ifa from : test pensions pensions com sent : 09 november 2020 09 : 32 to : test ifa fincorp com subject : test retirement and employee security scheme : mr mr abc xyz dear test ifa test retirement and employee security scheme thank you for your email regarding the test retirement and employee security scheme i have checked our records and can confirm that the email was sent to you on 21 october 2020 in relation to member s retirement process should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com&lt;mailto : test pensions pensions com yours sincerely test pensions from : test ifa fincorp com sent : 05 november 2020 22 : 22 to : test pensions pensions com cc : testfund fincorp com subject : mr abc xyz tst12345678 good afternoon last month we sent mr abc s signed retirement options form on 14th october 2020 could you please confirm safe receipt also could you kindly provide me with an update on the process of setting up his annual pension should you need any further information or assistance please do not hesitate to contact me kind regards test ifa</t>
+  </si>
+  <si>
+    <t>test pension fund def zz123123z hi team member name : def nino : zz123123z scheme name : test pension fund please create an admin bizflow job for the attached request from member s nok informing member death please verify the date of death and get back to us we have suspended members record regards test fund</t>
+  </si>
+  <si>
+    <t>re : test retirement and death benefits plan - test section - lmno dear sir madam thank you for your response as requested on your email below : member s address at date of death : 10 test road test street aa12 123 has the death been registered and death certificate issued : see attached did the member have any financial dependents my mother his spouse mrs jkl address for condolence : 101 test road test street ea12 123 contact number : + 91 012345678 - my mother does not speak fluent english i am the next of kin and arranging dad estate and i can be contacted on + 91 012345678 alternatively we can arrange that we are all together at a suitable time to take a call should you wish to speak to my mother regards abc xyz from : test pensions pensions com sent : 05 october 2020 10 : 37 to : abc xyz testmail com subject : test retirement and death benefits plan - test section - lmno dear abc xyz test retirement and death benefits plan - test section thank you for your email regarding the test retirement and death benefits plan please accept my sincerest condolences for your loss in order to assist us could you please provide us with the following details : member s address at date of death : has the death been registered and death certificate issued : did the member have any financial dependents address for condolence : contact number : if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com&lt;mailto : test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 01 october 2020 17 : 53 to : test pensions pensions com subject : test retirement and death benefits plan - test section - lmno as requested national insurance number regards abc xyz - - - - - - - - original message - - - - - - - - from : abc xyz testmail com date : 01 10 2020 12 : 50 gmt + 00 : 00 to : test pensions pensions com subject : test retirement and death benefits plan - test section - lmno your ref : tst12345678 dear sir madam we wish to inform you of the death of our father on 18 09 2020 as you hold his pension and his cover includes spouse dependants on his cover i his son abc xyz as his next of kin and person responsible for his estate wish to inform you that our mother mrs jkl is the beneficiary of all of dads finances please let us know how we can arrange this at your earliest convenience i can be contacted on + 91 012345678 or alternatively in writing to my parents address as on your records and as above regards abc xyz</t>
+  </si>
+  <si>
+    <t>policy ref : 13245 dear sirs re : policy ref 132456 mrs abc xyz 10 test road test street aa12 123 date of birth 01 01 1400 ni : zz123123z my employment at yorkshire water ceased on 01 01 1400 and i am writing to request early retirement quotation estimation calculations from you for the following options : 01 01 1400 with lump sum and without lump sum options - age 58 01 01 1400 with lump sum and without lump sum options - age 60 i look forward to hearing from you soon yours faithfully mrs abc xyz</t>
+  </si>
+  <si>
+    <t>re : test pension fund - our ref : tst12345678 password is xxxxxx from : test ifa fincorp com sent : 09 november 2020 09 : 51 to : test pensions pensions com subject : re : test pension fund - our ref : tst12345678 good morning thank you for your email please find attached the client s letter of authority with the requested information the document is password protected password to follow in separate email if you have any queries please don t hesitate to contact us many thanks test ifa from : test pensions pensions com sent : 02 november 2020 10 : 03 to : test ifa fincorp com subject : test pension fund dear test ifa test pension fund thank you for your email regarding the ford pension fund to enable us to answer your enquiry please could you provide the member full address date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : test ifa fincorp com sent : 23 october 2020 16 : 11 to : test pensions pensions com subject : tst12345678 zz123123z good afternoon please can you provide an update on our mutual clients pension transfer many thanks test ifa</t>
+  </si>
+  <si>
+    <t>test pension fund : def good morning following the emails below my father xyz has received a letter from you dated 01 january 1400 regarding the death on my mother def - your reference tst12345678 in that letter you say you need to see certain original documents being my fathers birth certificate or passport marriage certificate and death certificate to say the least requiring original documents to be sent around the world is both unusual and high risk in dealing will my mothers estate no other pension provider xxx or xxx has asked for anything other than certified copies of documents to this end i spoke with a representative of test deceased estates department in xxx he thought your need to be extraordinary and said certified copies suffice here questions : 1 can my father send certified copies authorised by an appropriate authority or a test officer at you xxx office 2 what document or documents would be acceptable in lieu of a xxx marriage certificate as my father is unable to locate this document i await your reply regards abc - - - - - - original message - - - - - - from : abc xyz testmail com to : test pensions pensions com sent : thursday 13 aug 2020 at 7 : 41 am subject : test pension fund : def in my previous response to this i gave def s dob as 01 january 1400 which was an error the correct dob is 01 january 1400 regards abc - - - - - - original message - - - - - - from : test pensions pensions com to : abc xyz testmail com sent : tuesday 11 aug 2020 at 11 : 02 pm subject : test pension fund : def dear abc test pension fund please accept my sincerest condolences for your loss in order to assist us could you please provide us with the following details : date of birth : has the death been registered and death certificate issued : what address did you will you use to register the death : did the member have any financial dependants or a spouse address for condolence pack : did the member leave a will if yes - can i take the name of the executor contact number : if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 08 august 2020 05 : 45 to : test pensions pensions com subject : good morning this is to let you know that my mother died of natural causes on 1st january 1400 i assume you will terminate her payments from the test pension funds if there is anything else my father or i need to do please let me know also does your scheme provide any funeral or bereavement benefits for my father kind regards abc</t>
+  </si>
+  <si>
+    <t>re : your retirement quotation request as requested - full address date of birth and national insurance number payroll reference number abc 10 test road test street aa12 123 dob = 01 01 1400 ni = zz123123z pay = tst12345678 abc from : abc xyz testmail com sent : 12 november 2020 6 : 09 pm to : test pensions pensions com subject : re : your retirement quotation request hi - please could you help me understand this quote i have generated on the test website it would appear from the figures if i retire 1 day earlier than my 65 birthday that my pension is significantly increased obviously i do not believe this but need an explanation to help me understand and gain confidence that the other quotes i have generated for other dates 55 57 60 etc are actually valid to make some life changing decisions on i attach a screen grab of the normal retirement age quote and the one day before quote thanks in advance for your assistance abc d o b = 01 01 1400 company payrole number = tst12345678 abc from : test pensions pensions com sent : 12 november 2020 5 : 54 pm to : abc xyz testmail com subject : your retirement quotation request the results of the retirement quotation calculation you requested for your test pension plan are now available retirement date : 01 01 1400 calculated at : 01 01 1400 you can view your quotation by logging on to the pension section of test account this quotation will be available to you until 01 01 1400 00 : 00 : 00 or until such time you request another quotation if you have any questions regarding the document or your test pension just call the test support team on + 91 012345678or email us at test pensions pensions com&lt;mailto : test pensions pensions com about the links in this email - in order to protect you from potential security threats test does not use clickable links in emails to visit a link just copy and paste it into your browser regards test pension team</t>
+  </si>
+  <si>
+    <t>abc xyz - test pensions for senior staff - case ref : tst12345678 dear def further to your telephone call on 12 november 2020 and subsequent calls on 17 and 18 november 2020 please accept my sincere apologies for the delay in providing the revised transfer value for mr abc xyz we do pride ourselves on the quality of service that we deliver to our corporate clients trustees and most importantly individual members we receive relatively few complaints and do take any very seriously we are sorry about your dissatisfaction you have had to wait so long for the information you requested i can advise that an email has been issued earlier today providing the transfer information on behalf of myself and the team at mercer we would like to extend our apologies for any inconvenience caused and trust that you will be reassured that we do seek to minimise the number of occasions on which matters such as this arise should you have any further queries or cause for concern please do not hesitate to contact us on the number quoted below your sincerely test pensions postal address : 10 test road test street aa12 123 helpline : + 91 012345678</t>
+  </si>
+  <si>
+    <t>fin corp registration dear sir madam i am a previous employee of fin corp and have made payments into test pension scheme i have lost track of the details for that scheme and would again like to log in to the portal during 2019 i was contacted by the tracing group in relation to the test pension scheme and completed their on - line form i am contacting you today to understand the process i need to follow to register for online access to the portal that manages the test pension scheme i believe it is the fin corp portal any guidance would be appreciated thanks abc xyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test pension fund full name : abc xyz reference : tst12345678 ni : zz123123z i am writing with reference to your letter dated 1st january 1400 in which you state that i have sufficient unused annual allowance to cover any increase in pension savings during this tax year please consider this email as confirmation that i wish to continue with my chosen option 4 confirmation that you can now proceed with processing my retirement would be greatly appreciated kind regards abc xyz 10 test road test street aa12 123 + 91 012345678 abc xyz testmail com &lt;mailto : abc xyz testmail com </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pre - identified user support request reply email address : abc xyz testmail com forename : abc surname : xyz ni number : zz123123z dob : 01 jan 1400 home postcode : aa12 123 employer : test pension fund subject : transfer value content : please can you quote me the transfer value of my pension</t>
+  </si>
+  <si>
+    <t>abc xyzz importance : high hi are partial transfers allowed on the attached policy many thanks test ifa research analyst 10 test road test street aa12 123 tel : + 91 012345678</t>
+  </si>
+  <si>
+    <t>re : test pensions death approval - mr abc xyz - tst12345678 abc xyz i agree with the recommendation from : test pensions pensions com sent : 16 november 2020 17 : 06 to : test pensions subject : test pensions death approval - mr abc xyz - tst12345678 test pensions mr abc xyz death in retirement please find attached the documentation relating to the above late member who died whilst in receipt of his pension the member was a widower at the date of death this case is being referred to the committee because the member did not leave a nomination form but left a will in favour of his daughter - ms abc xyz mr xyz survived by a long term partner however she has indicated that she was not financially dependant on him it would be our recommendation that lump sum death benefit is paid to his daughter in accordance to his will please would you agree with this recommendation kind regards abc xyz mrs senior administrator test pensions 10 test road test street aa12 123 direct dial : + 91 012345678 fin corp</t>
+  </si>
+  <si>
+    <t>re : your transfer value request hi there i tried on the website to the get cash equivalent value of my pension for a pre - nup i m doing but as you see below it won t work can you provide this abc 012345 from : test pensions pensions com sent : 18 november 2020 21 : 57 to : abc xyz testmail com subject : your transfer value request unfortunately test account was not able to retrieve a transfer value for your defg pension fund defined benefit pension scheme at this time there are a number of reasons why the calculation you have requested could not be retrieved automatically for example : you are a member of the lmn scheme you have a transfer in you have had a pension sharing or earmarking order you are within one year of retirement if you have any questions please call the test pensions team on + 91 012345678 or email us at test pensions pensions com about the links in this email - in order to protect you from potential security threats test account sends links in emails as plain text your email client may turn this into a hyperlink for you however if you are unsure simply copy and paste it into your browser regards test pensions + 91 012345678</t>
+  </si>
+  <si>
+    <t>abcd zz123123z importance : high good morning we have recently received a new cetv pack however we need the following confirmed due to conflicting information we have two different commutation factors for age 65 please could you confirm what is the correct factor to use please could this be looked into urgently thank you abcd</t>
+  </si>
+  <si>
+    <t>retirement quotation - abc nino - zz123123z dob - 01 01 1400 could you please issue a transfer value and pack for the above member kind regards abc</t>
+  </si>
+  <si>
+    <t>pension fund equiry hello my name is abc xyz i have resent this mail with some more details i have a pension fund with you i worked for test pensions many years ago i m not sure what the policy number is but i can give you a couple of references that may help : my national insurance number is : zz123123z address : abc xyz 10 test road test street aa12 123 date of birth : 1st january 1400 also i found this reference number within correspondence from you not sure if this is my policy number tst12345678 what i would like to do is bring the pension fund into drawdown take some cash out and re - invest the remaining amount can you advice on the next steps do you need to send a info pack to me look forward to hearing from you regards abc xyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test pensions pension scheme : ref tst12345678 hi team please find enclosed the requested retirement pack as at normal retirement as per the policy rules lr cannot be provided hence provided with a normal retirement pack of 01 01 1400 regards </t>
+  </si>
+  <si>
+    <t>efg uvw - zz123123z hello please find attached a duly completed transfer discharge form and a letter confirming that the above member has received financial advice in relation to transferring his benefits away from the test pension scheme the receiving scheme warranty form and any other required documents will follow shortly i trust this is satisfactory and look forward to receiving confirmation that the guaranteed cetv which expires on 01 01 1400 is now secured kind regards abc xyz test admin 10 test road test street aa12 123</t>
+  </si>
+  <si>
+    <t>re : mr abcd - test pension scheme for senior staff - case ref : tst12345678 hi test pensions thank you for the below email we have been waiting for a long time and tend to have these issues with the ford scheme a lot when requesting information for different clients on top of having to sit on hold for over 30 minutes every time we call and keep getting told different things you mentioned below the cetv pack has been sent out via email earlier today can you please confirm as i have not received this on my email thanks abcd from : test pensions pensions com date : wednesday 18 november 2020 at 23 : 44 to : abc xyz testmail com subject : mr abcd - test pension scheme for senior staff - case ref : tst12345678 dear abcd further to your telephone call on 12 november 2020 and subsequent calls on 17 and 18 november 2020 please accept my sincere apologies for the delay in providing the revised transfer value for mr abcd we do pride ourselves on the quality of service that we deliver to our corporate clients trustees and most importantly individual members we receive relatively few complaints and do take any very seriously we are sorry about your dissatisfaction you have had to wait so long for the information you requested i can advise that an email has been issued earlier today providing the transfer information on behalf of myself and the team at test we would like to extend our apologies for any inconvenience caused and trust that you will be reassured that we do seek to minimise the number of occasions on which matters such as this arise should you have any further queries or cause for concern please do not hesitate to contact us on the number quoted below your sincerely test pensions</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pre - identified user support request reply email address : abc xyz testmail com forename : abc surname : xyz ni number : zz123123z dob : 01 jan 1400 home postcode : aa12 123 employer : test pensions subject : change to contributions content : hello i was wondering how i go about making a change to my plan for example upping my monthly contribution or changing to a plan that allows for a lump sum etc can i do this with you or do i need to go through my own payroll kind regards abc xyz</t>
+  </si>
+  <si>
+    <t>test pension plan - zz123123z dear test pensions thank you for your response the email i received asked me to await a hard copy version of this information before proceeding any further i know 2 copies have been sent but the xxx train system is not running at the present time so no postal deliveries have been made not to worry i would like to expedite my pension plan immediately and i am choosing option 1 = the largest lump sum possible 11111 + and the relevant monthly income thereafter as my wife and i live in india we would like all the funds deposited into her def account - the account number will be supplied if this is possible we can also provide proof of identity current passports + adhaar national id card + my oci card and an indian government certified marriage certificate which will endorse our relationship please advise kind regards abc employee no 00000 ni number : zz123123z on wed 11 nov 2020 at 10 : 51 &lt; test pensions pensions com wrote : dear mr abc test pensions pension plan thank you for your email regarding the test pensions pension plan please accept our apologies for the delay in responding to you i have checked the record and i can confirm that we did sent you a copy of retirement quote via email on 22nd september 2020 however i have attached the copy of correspondence once again for your convenience please note we have encrypted the document with a password which is your national insurance number all in uppercase for ex zz123123z if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com did you know that member s can access and manage their pension online by logging into their test account if you are a scheme of this member you can access your account here&lt;https : login benpal com if you have forgotten your username and or password there is a link on this page to reset it if you have not previously activated your account email us so we can provide you with the activation link yours sincerely abc from : abc xyz testmail com sent : 06 november 2020 07 : 40 to : test pensions pensions com subject : test pension plan - zz123123z dear test pensions it would appear that def state is currently experiencing a train strike this means that mail is not being delivered would it be possible to send my pension pack via email to this address please advise kind regards abc on sat 10 oct 2020 9 : 06 am abc xyz testmail com wrote : dear test pensions that is good news thank you i suspect the delay is just the sheer distance combined with the logistical challenges caused by the virus my contact details are + 91 012345678 please note that i teach for 5 5 hours per day 11 00 am to 4 30 pm india time monday to friday and my phone is usually on silent therefore it would be advisable to reach me in the afternoon after 1 00 pm gmt regards abc on thu 8 oct 2020 at 21 : 31 &lt; test pensions pensions com &lt;mailto : 20test pensions pensions com 20 wrote : dear mr abc test pensions plan thank you for your email regarding the test pensions plan please accept my sincerest apologies for any inconvenience this may cause you i have checked our records and can confirm that the correspondence was issued to you on 1st january 1400 however i have arranged for the information to be re - issued to you as you have not received it please note that you will receive it shortly also could you please provide your contact details to call you if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 06 october 2020 12 : 13 to : test pensions pensions com subject : test pension plan - zz123123z reference : tst12345678 dear test pensions unfortunately i have yet to hear back from the administration department as of today tuesday 01 01 1400 would it be possible for them to make contact within the next 48 to 72 hours please regards abc employee no ni number on thu 24 sep 2020 at 18 : 43 abc xyz testmail com wrote : reference : tst12345678 dear test pensions firstly please note that my home address has changed it is now : it is exactly the same building but the local government has changed the way they officially designate them please amend your records to reflect this secondly as i am in india do i still need to call the 000000 number to request the necessary forms or is there an alternative method please advise kind regards abc employee no ni number : on tue 22 sep 2020 at 21 : 56 &lt; test pensions pensions com wrote : dear mr abc further to your email please see the attached response the document has been encrypted with your national insurance number letters in upper case kind regards test pension scheme administration team from : abc xyz testmail com sent : 15 september 2020 17 : 41 to : test pensions pensions com subject : test pension plan - zz123123z dear test pensions ref : tst12345678 please find attached the original document containing the original address i have also attached the response letter i received from pensions just to clarify the building is the same one; the local government has altered their method of identifying them hence the change of address regards abc on fri 11 sep 2020 at 10 : 11 &lt; test pensions pensions com wrote : dear mr abc test pension plan thank you for your email regarding the test pension plan please accept my sincerest apologies for any inconvenience this may cause you to enable us to answer your enquiry please could you provide your previous address for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com to : test pensions pensions com subject : test pension plan - zz123123z dear test pensions ref no here are the details that you requested address : date of birth : ni number : employee payroll number : regards abc on wed 2 sep 2020 at 16 : 55 &lt; test pensions pensions com wrote : dear abc test pension plan thank you for your email regarding the test pension plan to enable us to answer your enquiry please could you provide your full address date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 01 september 2020 17 : 16 to : test pensions pensions com subject : test pension plan - zz123123z ref no tst12345678 dear test pensions i would like to begin the process of activating my pension we have corresponded several times and the process seems fairly simple as previously stated i would like to take the maximum lump sum available plus the relevant monthly payments there are 2 issues that will need resolving : 1 i am based in the def xyz and the local government have recently altered their house identification system therefore i would need to update my address 2 question : can i have the monthly payments transferred to my wife hijk account if we supply the necessary documents proving that she is in fact my wife could you also include all the relevant information regarding what my wife is entitled to in the event of my death regards abc on mon 1 oct 2018 at 09 : 42 abc xyz testmail com wrote : dear test pensions would it be possible to send me the following information please 1 my monthly pension amount if i commence payments in may 2020 2 the maximum amount i can take in a lump sum in may 2020 and the relevant subsequent monthly payment please send this information to this email address kind regards abc on wed 26 sep 2018 at 10 : 34 abc xyz testmail com wrote : dear test pensions would it be possible to send me the following information please 1 my monthly pension amount if i commence payments in may 2020 2 the maximum amount i can take in a lump sum in may 2020 and the relevant subsequent monthly payment please send this information to this email address kind regards abc former x employee payroll no tst12345678 on fri 6 apr 2018 at 12 : 07 &lt; test pensions pensions com wrote : dear mr abc thank you for your email your address has been updated and a retirement quote was issued to your new address in the middle of march 2018 regards test pensions from : testfund fincorp com sent : 05 april 2018 15 : 35 to : test pensions pensions com subject : fw : verification form from : abc xyz testmail com sent : 05 april 2018 05 : 43 to : testfund fincorp com subject : test pension plan - zz123123z dear test pensions do you have any information regarding my pension request it has been several weeks since the completed form was sent and there has been no reply kind regards abc ref : tst12345678 on 24 november 2017 at 22 : 44 testfund fincorp com wrote : dear abc please find attached verification letter that was originally issued to def without the filled verification form we won t be able to proceed with your request in the mean time if you require any further information please do not hesitate to contact us regards test fund</t>
+  </si>
+  <si>
+    <t>re : test pension plan hi apologies i should have included them n i zz123123z 01 01 1400 regards abc on 12 nov 2020 at 07 : 51 test pensions pensions com&lt;mailto : test pensions pensions com wrote : dear mr abc test pension plan thank you for your email regarding the test pension plan to enable us to answer your enquiry please could you provide your date of birth and national insurance number for data verification purposes i have also attached an expression of wish form for you to print and complete as appropriate please send the signed and completed document to the address as detailed below at your earliest convenience if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions - - - - - original message - - - - - from : abc xyz testmail com sent : 10 november 2020 16 : 39 to : test pensions pensions com subject : expression of wish hi morning i need to update my wish details i received the latest newsblast brief and it says i need a test account and i should request a eow from admin my details can i not do this on line please advise regards abc mob + 91 012345678</t>
+  </si>
+  <si>
+    <t>abc xyz - tst12345678 good afternoon thank you for the recent information regarding mr abc s scheme you have provided additional early retirement factors letter dated 4 november however these factors are different from the factors you provided in your letter dated 12 october can you please clarify that the erf if mr abc retired at age 60 would be 0 68 i also previously asked if pre 97 excess transfer in 1000 can you please confirm if this increases in deferment and in payment i look forward to hearing from you thanks abc kind regards abc xyz paraplanner fin corp ltd</t>
+  </si>
+  <si>
+    <t>mrs def ref tst12345678 further to my telephone call to your customer services this morning please find letter from mrs def confirming that she has received suitable advice from myself also her authority for me to have access to her pension with you our section 48 certificate we will appreciate a response confirming the date you will process this transfer regards test ifa independent financial adviser 10 test road test street aa12 123 ddi : + 91 012345678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">password reset hi team please assist with the following kind regards abc xyz administrator benpal helpdesk customer support centre fin corp ltd 10 test road test street aa12 123 t + 91 012345678 from : abc xyz &lt;abc xyz testmail com sent : 20 november 2020 18 : 42 to : fin corp support subject : password reset hi i tried a password reset earlier this evening i messed it up and tried again i guess i have upset the system as i m not receiving reset details now can you help regards abc xyz fin corp ltd </t>
+  </si>
+  <si>
+    <t>abc xyz pension dear abc xyz thank you for your letter dated 1st january 1400 checking on the accuracy of my records as you are aware i now live in australia because banks in the american and australia are no longer honouring cheques from next year i wish to arrange for my test pensions to be paid directly into my bank account and not into my joint account could you please let me know what information you need to get this set up my national insurance number is zz123123z yours sincerely abc xyz e 10 test road test street aa12 123 + 91 012345678 sent from my ipad</t>
+  </si>
+  <si>
+    <t>re : test pension fund hello here is the information you have requested abc xyz 01 01 1400 ni number zz123123z address 10 test road test street aa12 123 can you please confirm you have all the satisfactory information required please as to avoid any further delays in the process of my request regards abc xyz from : test pensions pensions com sent : saturday november 21 2020 2 : 40 : 35 am to : abc xyz testmail com subject : test pension fund dear abc xyz test pension fund thank you for your email regarding the test pension fund please accept our apologies for the delay in responding to you to enable us to answer your enquiry please could you provide your full address date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely abc xyz administrator customer support centre 10 test road test street aa12 123 direct dial : + 91 012345678 abc xyz testmail com from : abc xyz abc xyz testmail com sent : 13 november 2020 21 : 09 to : test pensions subject : reference : tst12345678 to whom it may concern in relation to the letter from yourselves typed 01 january 1400 i am emailing to confirm i still wish to continue with the variable pension option 4 my reference is tst12345678 kind regards abc xyz</t>
+  </si>
+  <si>
+    <t>fw : abc xyz fin : tst12345678 retirement quote importance : high hi i requested the below dser pension quote 2 weeks ago are you please able to provide this to me shortly for info : name : abc xyz fin : tst12345678 request : dser retirement date : 01 - 01 - 1400 many thanks from : abc xyz sent : monday november 9 2020 9 : 52 am to : test pensions pensions com subject : abc xyz fin : tst12345678 retirement quote importance : high please can i request a dser quote for the above employee due to separate from the company on 1st january 1400 many thanks</t>
+  </si>
+  <si>
+    <t>re : home address update hi benpal my name is jan feb national insurance number is : aa000000a day of birth : 1st april 1800 current address : 12 mountain hill 12 st tower ss0 0ss could you please change my address to : 100 neil armstrong circle london aa0 0aa fordshire kind regards jan jan feb phone + 44000 000 0000 mobile + 44000 000 0000 email jian jun - wang cba com au from : jan feb sent : friday november 27 2020 5 : 55 pm to : cba jltgroup com subject : home address update hi benpal team could you please change my home immediately to a new address : 100 neil armstrong circle london aa0 0aa fordshire kind regards jan feb jan feb phone + 44000 000 0000 mobile + 44000 000 0000 email jan feb cba com au</t>
+  </si>
+  <si>
+    <t>mr lmno test group pension scheme ref tst12345678 dear sir madam i write to you as representative of my father lmno to inform you that he sadly passed away on 1st january 1400 my understanding is that lmno has two pensions with test 111 11 and 11 11 net month if you can please let me know what needs to happen next and if you require any further information from me at this time thank you abc</t>
+  </si>
+  <si>
+    <t>re : transfer out - abc good afternoon i was hoping to get an update on this transfer and confirm that you have all of the relevant paperwork to proceed many thanks test ifa from : test ifa fincorp com sent : 06 november 2020 12 : 03 to : test pensions pensions com subject : transfer out - abc good afternoon i wanted to make you aware that we have posted the paperwork in order to facilitate the transfer of mr abc test pension to def invest the reference is tst12345678 in the meantime i have attached copies of these documents for your reference the password is the client s date of birth in this format dd mm yyyy : i have also attached our hmrc information and other accompanying documents that confirm the registration of our pension scheme the client is now an active holder of an insured personal pension plan with us if you need anything else at this stage please let me know kind regards test ifa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pre - identified user support request reply email address : test ifa fincorp com forename : abc surname : xyz ni number : zz123123z dob : 01 jan 1400 home postcode : aa12 12 employer : fin corp ltd subject : fin corp ltd content : policy 1234567 as i reach retirement age - wish to make arrangements for bringing this pension into payment abc</t>
+  </si>
+  <si>
+    <t>re : test death approval - lmno tst12345678 i agree with the recommendation with regards mr lmno regards test schemes from : test pensions pensions com sent : 03 december 2020 11 : 41 to : testfund fincorp com subject : re : test death approval - lmno tst12345678 test lmno death in retirement please find attached the documentation relating to the above late member who died whilst in receipt of his pension the member was survived by his spouse therefore the committee are being asked to consider the lump sum death benefit of 1 500 00 only this case is being referred to the committee as there is no nomination form it would be our recommendation that the lump sum is paid to his spouse - mrs jkl in line with his will please would you agree with this recommendation kind regards test pensions</t>
+  </si>
+  <si>
+    <t>fw : - tst12345678 importance : high hi team please see below query and reply accordingly thank you test pensions from : abc xyz testmail com sent : 09 november 2020 10 : 14 to : test pensions pensions com cc : test ifa subject : re : - tst12345678 importance : high good morning further to the below email please can you confirm that you now have all the information you require to process the clients transfer i await your response thanks abc from : test pensions pensions com sent : 26 october 2020 12 : 40 to : abc xyz testmail com subject : - tst12345678 dear abc thank you for your email i have checked our records and can confirm that the correspondence was issued to the member on 21 october 2020 should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely test pensions 10 test road test street aa12 123 direct dial : + 91 012345678 test pensions pensions com from : abc xyz testmail com sent : 21 october 2020 14 : 19 to : test pensions pensions com subject : - tst12345678 importance : high good afternoon please can you provide me with an update on the transfer away to test pensions i await your response regards abc tel : + 91 012345678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transfer request abc xyz our ref 0124 - your ref tst12345678 good afternoon the attached transfer request was sent to you on 27 10 could you please acknowledge receipt and advise of a timescale to process our request many thanks </t>
+  </si>
+  <si>
+    <t>re : test pension scheme - zz123123z hi with regards to the above member payroll has only received the notification to set up the 4 weekly pension which has already been actioned by us we ve not received any request to set up lump sum record from admin could you please get in touch with the admin to check if any such request was sent to payroll thanks abc xyz from : test pensions sent : 26 november 2020 12 : 05 to : test pension payroll - gbr subject : fw : test pension scheme - zz123123z hi team please investigate why payment was not released for the member regards abc xyz from : test pensions sent : 24 november 2020 09 : 35 to : test pension fund cc : test ifa subject : re : test pension scheme - zz123123z hi nothing we can do for this member over the phone this will have to be investigated thanks abc xyz 10 test road test street aa12 123 direct dial : + 91 012345678 from : test pensions sent : 18 november 2020 10 : 30 to : test pension fund cc : test ifa subject : test pension scheme - zz123123z hi team please assist and call below member thanks abc xyz from : abc xyz&lt;abc xyz testmail com sent : 16 november 2020 19 : 06 to : test pensions subject : test pension scheme - zz123123z good afternoon test pensions i received a letter from you dated 9th november 2020 advising the trustees have approved my application my lump sum of 1000 will be paid into my account on or around 1st january my 4 weekly payments will commence as of 1st january 1400 as of this email i have received no payment i am growing concerned that the money as gone elsewhere my contact details are : name - abc xyz dob - 1st january 1400 ni number - zz123123z scheme name - dsg retirement employment security scheme i would appreciate a phone call explanation as to when i will receive my lump sum my mobile number is + 91 012345678 regards abc xyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pre - identified user support request reply email address : abc xyz testmail com forename : abc surname : xyz ni number : zz123123z dob : 01 jan 1400 home postcode : aa12 123 employer : fin corp subject : beneficiaries content : i would be grateful if you could let me know the details of how much my wife would receive as a pension in the event of my death i am not planning on doing this anytime soon but it we need this information for future planning mant thanks abc xyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pre - identified user support request reply email address : abc xyz testmail com forename : abc surname : xyz ni number : zz123123z dob : 01 january 1400 home postcode : aa12 123 employer : test pension scheme subject : pension transfer content : hi i recently requested that my fin corp pension be transferred to my fin corp scheme 12345678 and sent you the required documentation via post can you please provide an update on this transfer as fin corp have not yet received the funds best regards abc xyz</t>
+  </si>
+  <si>
+    <t>fw : change of address sent from mail&lt;https : go microsoft com fwlink linkid = 550986 for windows 10 from : alexa siri &lt;mailto : yoshimura1400 hotmail com sent : 28 november 2020 15 : 23 to : keldapensions mercer com&lt;mailto : keldapensions mercer com subject : change of address good afternoon please could i request that my address is amended to the following : 11 highway to hell chalis chaurasia la hila st martial art bhun france 20000 i am unable to amend the details on the benpal website your help in this matter is most appreciated warmest regards alexa siri 00011589 former employee of yorkshire water 17 06 1965 nh124130a sent from mail&lt;https : go microsoft com fwlink linkid = 550986 for windows 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pre - identified user support request reply email address : testfund fincorp com forename : abc surname : xyz ni number : zz123123z dob : 01 january 1400 home postcode : aa12 123 employer : test pensions subject : pension transfer content : if i wanted a guaranteed transfer value how long would it take how long would it be valid for and what is the cost after the initial free quote thanks test pensions</t>
+  </si>
+  <si>
+    <t>test pension plan hello thank you for reply just want to ask is it completely safe for me to send such details in a email as we are told not to do this ! hope you understand apology for any inconvenience abc - - - - - original message - - - - - from : test pensions pensions com to : abc xyz testmail com sent : wed nov 11 2020 08 : 23 am subject : test pension plan dear mr abc test pension plan thank you for your email regarding the test pension plan to enable us to answer your enquiry please could you provide your full address date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 07 november 2020 13 : 01 to : test pensions pensions com subject : re : your transfer value request hello many thanks for helping out with login after reading all about early retirement i am worried that i may run out of money to live on ! it is such a big decision to leave than not have a wage that goes in every week i have read about so many scams bad advice etc that people have lost thousands from there hard earned savings now i do not know whether to cancel my vr application also as i am 57 it will be another ten years before state pension so am i wanting to leave too early i just dont know ! now with so many things going on i feel i am worried i really do not know what to do is there a person who i can talk to about this sorry for any inconvenience abc - - - - - original message - - - - - from : test pension team to : abc xyz testmail com sent : fri oct 30 2020 07 : 27 pm subject : your transfer value request the result of the transfer value calculation you requested for your test pension scheme is now available you can view your transfer value by logging on to the pension section of test at https : www test com this information will be available to you until 01 11 2020 00 : 00 : 00 or until such time you request another calculation if you have any questions regarding the document or your test pension just call the test team on + 91 012345678or email us at test pensions pensions com regards test pension team + 91 012345678 test pensions pensions com</t>
+  </si>
+  <si>
+    <t>re : test death approval abc xyz - tst12345678 test pensions i agree with the recommendation in respect of mr abc xyz from : test ifa fincorp com sent : 21 september 2020 15 : 36 to : test pensions pensions com subject : test death approval abc xyz - tst12345678 test abc xyz - death in retirement please find attached the documentation relating to the above late member who died whilst in receipt of his pension the member was unmarried at the date of death therefore the committee are being asked to consider the lump sum death benefit of 1 500 00 only this case is being referred to the committee because the member did not leave a will however a nomination form was completed in 2002 was in favour of his common law wife mrs jkl and son mr def mr def has advised that the late member has lived in a care home for the last 7 years and has had no involvement with mrs jkl furthermore since 2015 the member has been in the care of the adult social care team in birmingham city council who hold a court of protection order copy attached for reference it would be our recommendation that lump sum death benefit is paid to his son - mr def please would you agree this recommendation kind regards test ifa</t>
+  </si>
+  <si>
+    <t>change of address i am trying to change the address details for my def pension plan to 10 test road test street aa12 123 name : mr abc xyz : paye reference : tst12345678; national insurance number zz123123z : pension payroll number tst12345678 please change as above or advise me how it can be done because i cannot find a way to do it on line i look forward to your helpful reply kind regards abc xyz</t>
+  </si>
+  <si>
+    <t>employee no 132456 hi im an ex employee trying to find all my old pensions from ex employers please could you inform me of steps required in obtaining my contribution while i worked for dsg i am planning on combining all of my pensions so need the data regards abc xyz</t>
+  </si>
+  <si>
+    <t>abc - test industries pension scheme - death notification no nino as previously stated dob 01 01 1400 test fund from : testscheme fincorp com sent : 06 october 2020 17 : 23 to : testfund fincorp com subject : abc - test industries pension scheme - death notification hi test fund please provide member dob and nino as we are unable to locate member record within the above scheme regards test scheme from : testfund fincorp com sent : 02 october 2020 14 : 14 to : testscheme fincorp com subject : abc - test industries pension scheme - death notification condolence pack will need to be sent to 10 test road test street aa12 123 test fund from : testscheme fincorp com sent : 02 october 2020 09 : 42 to : testfund fincorp com subject : abc - test industries pension scheme - death notification hi test fund can you check and assist is there any work required from csc team or not regards test scheme from : testfund fincorp com sent : 30 september 2020 14 : 30 to : testscheme fincorp com subject : abc - test industries pension scheme - death notification hello member s sp does not have a nino so i am unable to create a job please complete death process death notification preserved pension idu check pass sla quoted date member passed 01 01 1400 date the death was registered : cannot remember members forename : abc what address did you will you use to register the death : 10 test road test street aa12 123 did the member have any financial dependants or a spouse husband xyz address for condolence pack : 10 test road test street aa12 123 did the member leave a will yes if yes - can i take the name of the executor husband - xyz test fund</t>
+  </si>
+  <si>
+    <t>fw : test pension scheme - member reference zz123123z importance : high hello team please see below query and reply accordingly to the member ifa many thanks abc xyz - agent - customer support centre 10 test road test street aa12 123 + 91 012345678 abc xyz testmail com &lt;mailto : abc xyz testmail com from : abc xyz abc xyz testmail com sent : 23 november 2020 07 : 09 to : test pensions subject : re : test pension scheme - member reference zz123123z importance : high good morning approximately 10 days ago i informed test pensions that the course of action i wished to take was to start receiving my pension benefits in january 1400 they said that they had contacted the appropriate people and that i should hear something to that effect i have not heard anything thus far can you please update me asap there approximately 3 weeks until my pension is due to commence regards abc xyz from : test pensions pensions com sent : wednesday september 23 2020 8 : 12 am to : abc xyz testmail com subject : test pensions scheme dear abc xyz thank you for your email your request has been logged and you will receive a written response from our administration department within 10 - 15 working days should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely from : abc xyz abc xyz testmail com sent : 21 september 2020 11 : 39 to : test pensions subject : pension information pack importance : high good afternoon please can you tell me if my information pack has been sent yet thank you regards abc xyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pre - identified user support request reply email address : abc xyz testmail com forename : abc surname : xyz ni number : zz123123z dob : 01 january 1400 home postcode : aa12 123 employer : test pension scheme subject : spouses pension content : although widowed i have been living with a partner for some years could you please advise me of any conditions i should be aware of relating to a spouses benefits should my death precede hers regards jkl</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pre - identified user support request reply email address : testfund fincorp com forename : abc surname : xyz ni number : zz123123z dob : 01 january 1400 home postcode : aa12 123 employer : test pensions subject : transfer value content : good afternoon i am unable to see my transfer value on the website i phoned over a month ago and was told that this would be looked into and that i would also receive my transfer value by post i have not received this yet please look into this matter for me thanks test pensions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zz123123z dear sir madam as the member is now deferred can you please provide us with an update on when we should receive the transfer information with the guaranteed transfer value any queries please do not hesitate to contact me </t>
+  </si>
+  <si>
+    <t>abc - guaranteed transfer value - zz123123z good morning i would be grateful if you would confirm the above member has now left the scheme and when we can expect to received the guaranteed transfer value requested kind regards test ifa from : test ifa fincorp com sent : 16 september 2020 17 : 16 to : test pensions pensions com cc : testfund fincorp com subject : abc - guaranteed transfer value - zz123123z good afternoon further to my email below i would request a guaranteed cetv be produced and sent to us as soon as possible kind regards test ifa from : test ifa fincorp com sent : 02 september 2020 10 : 06 to : test pensions pensions com cc : testfund fincorp com subject : abc - guaranteed transfer value - zz123123z good morning i would be grateful if you could confirm you have received notification the above client has left the scheme and subsequently provide a guaranteed transfer value kind regards test ifa</t>
+  </si>
+  <si>
+    <t>registering via fin corp i had a letter from you back in july advising me that i had been found under the fin corp organisation unfortunately i had mislaid the letter and only just found it and realised that i had missed the required date to register my account i would be very grateful if you could forward me new five pair characters so that i may register my account many thanks for your kind cooperation yours sincerely abc xyz tel + 91 012345678</t>
+  </si>
+  <si>
+    <t>test pension plan - tst12345678 abc thanks you however mr abc has left employment through voluntary redundancy and i need the guaranteed cetv please from : test pensions pensions com sent : 11 november 2020 14 : 42 to : test ifa fincorp com subject : test pension plan - tst12345678 abc dear test ifa thank you for your email regarding the test pension plan please find attached information regarding mr abc this has been encrypted with the member s national insurance number in the format zz123123z kind regards test pensions</t>
+  </si>
+  <si>
+    <t>our reference 123456 good afternoon i write with regards to the transfer of the above members plan to the test ifa before this transfer can take place we require further information regarding the members plan held with yourselves in order to complete our due diligence checks as such i would be grateful if you could confirm the following as appropriate : is the plan a defined contribution money purchase scheme if so is there a link to a defined benefit plan can this fund the main scheme tax free cash is there a defined benefit underpin if so what would be the value does the plan have any potential guarantees i e gmp 92b reference scheme test benefits if so what is the value of these do you require a wet signature on the forms or can you accept copies we would also be grateful if you could confirm to what extent the above answers apply to all members of this scheme who may wish to transfer providing this information will ensure we are able to minimise the contact we generate with you and do not contact you unnecessarily with future queries finally if you could provide the optimal contact details for contact via post email and telephone this will ensure work is not duplicated needlessly as it was not originally provided to the most appropriate place please note for your convenience i have attached a copy of the client s signed authority; the original has been sent to you in the post the password for the attached will follow separately thank you in advance kind regards def def test ifa test pensions pensions com + 91 012345678 10 test road test street aa12 123</t>
+  </si>
+  <si>
+    <t>cob request third request with additional information included dear sirs test pension scheme reference tst12345678 you are currently paying my pension into my account no 123123 with nationwide i intend to close this account so wish you to make future payments into my account with the xx my account details with them are : name abc sort code 00 - 00 - 00 account no 1231234 my address is 10 test road test street aa12 123 national insurance no zz123123z date of birth 01 01 1400 please confirm you are actioning this request thank you abc xyz</t>
+  </si>
+  <si>
+    <t>re : test pension scheme - mr abc xyz clients details; name - abc xyz address 10 test road test street aa12 123 dob 01 january 1400 nino zz123123z our reference tst12345678 good morning please see the below email from my colleague this states the directions needed to obtain a hmrc portal print out dated within the last three months please can you advise us of a timescale in which we are likely to receive this outstanding paperwork we are unable to match the monies for the client until we have received this from yourself kind regards test ifa from : test pensions pensions com sent : 29 october 2020 07 : 46 to : test transfers pensions com subject : test pension scheme - mr abc xyz dear test transfers test pension scheme thank you for your email regarding the test pension scheme i can confirm i have forwarded your email to our administration department and they will be in contact shortly if any further information is required if you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely test pensions from : test transfers pensions com sent : 27 october 2020 14 : 44 to : test pensions pensions com subject : re : test pension scheme - mr abc xyz importance : high clients details; name - address dob nino our reference tst12345678 good morning thank you for your letter dated 22 october with the attached confirmation of the date the pension scheme started however this is not the information we require i can confirm how you can obtain this please go to the website : https : www rrrrrrrrrrrrrrr within this you can navigate to get the pstr for the scheme that you are the administrator for when in the hmrc portal and on the screen which displays the pstr number but not the date - rather than click the green print text on the screen - click file and print and convert to adobe pdf this will produce a two page document with both the date and pstr number that satisfies the requirements kind regards test transfers from : test pensions pensions com sent : 17 october 2020 08 : 23 to : test transfers pensions com subject : test pension scheme - mr abc xyz dear team test pension scheme thank you for your email regarding the test pension scheme i can confirm i have forwarded your email to our administration department to process as requested and they will be in contact shortly if you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely test pensions from : test transfers pensions com sent : 14 october 2020 18 : 53 to : test pensions pensions com subject : re : test pension scheme - mr abc xyz good afternoon clients details; name address dob nino kind regards test transfers from : test pensions pensions com sent : 14 october 2020 08 : 31 to : test transfers pensions com subject : test pension scheme - mr abc xyz dear team test pension scheme thank you for your email regarding the test pension scheme to enable us to answer your enquiry please could you provide the member full address date of birth and national insurance number for data verification purposes if you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely test pensions from : test transfers pensions com sent : 12 october 2020 11 : 33 to : test pensions pensions com subject : test pension scheme - mr abc xyz thank you for sending us the payment in relations to the pension transfer for the above client as mentioned in our acceptance letter dated 28 september 2020 please can you provide us with your hmrc portal screen print date within the last 3 months kind regards transfers team</t>
+  </si>
+  <si>
+    <t>change of address good evening is it possible to change my contact address via email kind regards chacha salsa sent from my iphone</t>
+  </si>
+  <si>
+    <t>ref : tst12345678 dear sirs thank you for your letter ref above regarding my pension i do not have a spouse and what i really wanted to know for inheritance tax purposes will there be a lump sum payable upon my death and if so how much i look forward to hearing from you regards abc</t>
+  </si>
+  <si>
+    <t>re : ford pension fund - late mr abc xyz hi please see information below which had been already provided abc xyz address - 10 test road test street aa12 123 dob - 01 01 1400 national insurance - zz123123z thanks - - - - - original message - - - - - from : test pensions pensions com to : abc xyz testmail com sent : thu nov 19 2020 8 : 18 am subject : test pension fund - late mr abc xyz dear abc xyz test pension fund thank you for your email regarding the test pension fund please accept our apologies for the delay in responding to you to enable us to answer your enquiry please could you provide the member full address date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely abc xyz administrator customer support centre test pensions 10 test road test street aa12 123 direct dial : + 91 012345678 testfund fincorp com &lt;mailto : testfund fincorp com from : abc xyz&lt;abc xyz testmail com sent : 11 november 2020 10 : 35 to : test pensions subject : abc xyz funeral benefit - tst12345678 hi i am writing to you in regards to the funeral benefit payment in reference to my husband abc xyz please see attached the documentation required name - abc xyz relationship - wife national insurance number - fund name - mr abc xyz reference - tst12345678 regards abc xyz</t>
+  </si>
+  <si>
+    <t>re : def pension plan my previous address to my current one was 10 test road test street aa12 123 before that 02 test road test street wa23 123 before that 11 test road test street ua45 123 let me know if you need any more information regards abc tel : + 91 012345678 e : test pensions pensions com from : test pensions pensions com sent : 12 november 2020 10 : 55 to : abc xyz testmail com subject : def pension plan dear mr logan def pension plan thank you for your email regarding the def pension plan to enable us to answer your enquiry please could you provide your previous full address for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 11 november 2020 17 : 05 to : test pensions pensions com subject : pension details hi i wonder if you can help me please i have worked for def for 30 years left the business in 2010 and then joined def in 2016 i would like to gain access to view my initial pension details from my first stint at def but i m not sure how to do this my check number used to be 00 1980 - 2010 my current number is 11 2016 current my ni number is my home address is d o b any help you can give me with this would be much appreciated regards abc tel : + 91 012345678 e : abc xyz testmail com</t>
+  </si>
+  <si>
+    <t>fin corp error report error code : aa11 - aa11 - aa11 - aa11 hi i m trying to log in and have the above error code i need to activate my personal account i m in the test pensions plan and have received a letter this morning with log in details thanks abc xyz sent from my iphone</t>
+  </si>
+  <si>
+    <t>fw : change of address from : abc xyz testmail com sent : thursday october 15 2020 3 : 00 : 24 to : test pensions pensions com subject : change of address i would like to update my personal details can someone please contact me as i am not able to contact you via telephone regards abc</t>
+  </si>
+  <si>
+    <t>test pension scheme hi team please see below query and reply accordingly many thanks abc xyz administrator customer support centre test pensions 10 test road test street aa12 123 direct dial : + 91 012345678 from : abc xyz&lt;abc xyz testmail com sent : 09 november 2020 10 : 23 to : test pensions subject : re : test pension scheme hi i have still not received an answer to my query now dating back several months despite your promise to review it and deal with it promptly it is just a small query but i need it answered so i know what my tax position is in regard to the arrears payment please can i ask you to just answer this i have tried ringing the no you gave me but i am unable to speak to anyone and it is becoming so frustrating thank you abc xyz tha on wed oct 7 2020 at 1 : 48 pm &lt; test pensions pensions com wrote : dear abc xyz test pensions scheme thank you for your email regarding the test pensions scheme please accept our sincerest apologies for the delay we will review the current position of your case and ensure that it is dealt with promptly if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 from : abc xyz&lt;abc xyz testmail com sent : 05 october 2020 16 : 00 to : test pensions pensions com subject : re : your letter dated 26 june 2020 hi this is in relation to a query i first made by email on 24 june last correspondence from you was a letter dated 7 september saying you were asking cgi for a response and would get back to me your letters always state that i can contact you by phone but this is not the case as the options i am given by the automated service blocks me from getting through i appreciate that the current circumstances have had an effect and also know that my question is a minor one but it is very frustrating that it is taking more than 3 months to get an answer from you kind regards abc xyz on fri jul 3 2020 at 8 : 03 am abc xyz &lt; abc xyz abc xyz testmail com wrote : re : test pension scheme the scheme dear helpdesk your letter dated 26 june advised that a gross payment of pension arrears would be paid into my bank account on or around 3 july this amount being 11 176 62 today i received a payment of 7 243 42 so am wondering whether this is a net amount after tax has been taken out i am very happy to receive the arrears and thank you but would appreciate clarification on the amount thank you abc xyz</t>
+  </si>
+  <si>
+    <t>test pension scheme - tst12345678 - abc xyz good afternoon i am writing in reference to the above group life claim i can confirm that the claim for mr abc xyz has been registered onto our systems and we have commenced our assessment i note that the address on the death register does not match the address provided on the claim form please can you provide a reason for this the address on the death register is 10 test road test street aa12 123 kind regards abc xyz</t>
+  </si>
+  <si>
+    <t>abc xyz - tst12345678 - zz123123z hi fao def thank you for your email dated the 17 11 2020 we have arranged payment to the account mentioned please confirm receipt please could you now authorise a revaluation of abc xyz s test pension paid contributory pension fund immediately and confirm timescales for this if you require new forms to be completed could you please arrange them to be sent out to both abc and myself preferably via email we would like this transfer to go through without further delay so please outline whether you require anything else in the meanwhile to speed up the process thank you if you have any further questions please do not hesitate to contact me kind regards test ifa independent financial adviser</t>
+  </si>
+  <si>
+    <t>re : def pension fund i still haven t received the reset password email from : test pensions pensions com sent : 19 november 2020 07 : 27 to : abc xyz testmail com subject : def pension fund dear mr abc def pension fund thank you for your email regarding the def pension fund please accept our apologies for the delay in responding to you i can confirm your username for test is : xxx an email containing a password reset link has been sent to your abc xyz testmail com&lt;mailto : abc xyz testmail com email address and you will receive this within the next 30 minutes this will only be active for 24 hours if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com did you know that member s can access and manage their pension online by logging into their test account yours sincerely test pensions from : abc xyz testmail com sent : 11 november 2020 06 : 20 to : test pensions pensions com subject : re : def pension fund hi i didn t receive any reset email from : test pensions pensions com sent : 10 november 2020 14 : 57 to : abc xyz testmail com subject : def pension fund dear mr goth def pension fund thank you for your email regarding the def pension fund i can confirm your username for test is : xxx an email containing a password reset link has been sent to your abc xyz testmail com&lt;mailto : abc xyz testmail com email address and you will receive this within the next 30 minutes this will only be active for 24 hours also your address is updated in our records if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com did you know that member s can access and manage their pension online by logging into their test account yours sincerely test pensions from : abc xyz testmail com sent : 06 november 2020 12 : 59 to : test pensions pensions com subject : change of address and access to account dear sirs i have changed address and cannot get into my account have tried several times please can someone help and advise my national insurance number is my date of birth is regards abc</t>
+  </si>
+  <si>
+    <t>re : test pension fund hi there yes certainly as follows : 10 test road test street aa12 123 kind regards abc xyz on 23 11 2020 at 7 : 49 pm abc xyz testmail com &lt;mailto : abc xyz testmail com wrote : dear mr abc xyz test pension fund thank you for your email regarding the test pension fund please accept our apologies for the delay in responding to you to enable us to answer your enquiry please could you provide your full address date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com &lt;mailto : test pensions pensions com yours sincerely abc xyz customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 from : abc xyz &lt;abc xyz testmail com sent : 17 november 2020 20 : 02 to : test pensions subject : transfer value - hi please can you provide me with a transfer quotation for my test pension my test pension employee number is zz123123z importantly please can you send this to me by email and not by post as there are very significant delays on post at present thank you kind regards abc xyz</t>
+  </si>
+  <si>
+    <t>abc xyz deceased dear sirs we refer to the above and attach a letter and grant of probate for abc xyz the originals of the attached will be sent out in the post this evening we look forward to hearing from you yours faithfully abc xyz fin corp ltd t : + 91 012345678 e : test pensions pensions com 10 test road test street aa12 123</t>
+  </si>
+  <si>
+    <t>abc ref tst12345678 for the attention of test pensions dear test pensions i refer to your letter of 16th october to my client abc in relation to his deferred pension benefits in the test pension scheme abc had requested a cetv back in august but did not received anything until late october after he had chased up several times the cetv was resent with your letter but still retained the original guarantee date of 21st november ; abc called to query this and was advised that he could have a 10 day extension ie 1st december abc wishes to proceed with the transfer and i now attach the signed discharge form which will hopefully secure the transfer value - we will forward all the supporting documentation as soon as possible i would mention that unfortunately abc suffered a heart attack in april and is back in hospital today for another angiogram so we hope that there are no issues which will cause any unnecessary stress i appreciate your assistance regards test ifa</t>
+  </si>
+  <si>
+    <t>transfer request mr xyzz 100 your ref : tst12345678 test : confidential good afternoon please find attached our transfer request as our mutual client wishes to transfer their funds to test for an annuity please let us know if anything further is required many thanks test annuity</t>
+  </si>
+  <si>
+    <t>re : test pension fund dear abc xyz please find enclosed the information you requested nat ins no zz123123z 10 test road test street aa12 123 d o b 01 01 1400 yours sincerely abc xyz sent from my iphone on 20 nov 2020 at 15 : 30 testfund fincorp com &lt;mailto : testfund fincorp com wrote : dear abc xyz test pension fund thank you for your email regarding the test pension fund please accept our apologies for the delay in responding to you to enable us to answer your enquiry please could you provide your full address date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at testfund fincorp com &lt;mailto : testfund fincorp com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 www fincorp com &lt;http : www fincorp com - - - - - original message - - - - - from : abc xyz abc xyz testmail com sent : 13 november 2020 11 : 17 to : test pension fund cc : test ifa subject : car fin no zz123123z please be advised that no car payment has been taken out in november abc xyz sent from my ipad</t>
+  </si>
+  <si>
+    <t>re : test pension scheme test pension scheme ref : tst12345678 abc xyz zz123123z with reference to my email or 21st october requesting to know the figure a lump sum would be unfortunately i did not receive this information i received paperwork i have previously received before i make a decision on whether to to opt for a lump sum i obviously need to know what this would be i would be grateful if you could let me know this abc xyz on friday 30 october 2020 11 : 26 : 25 gmt wrote : dear mrs abc xyz test pension scheme thank you for your email regarding test pension scheme your request has been logged and you will receive a written response from our administration department within 5 - 10 working days should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at testscheme fincorp com &lt;mailto : testscheme fincorp com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 www fincorp com from : abc xyz &lt;abc xyz testmail com sent : 28 october 2020 03 : 45 to : test pension scheme subject : re : test pension scheme my address is 10 test road test street aa12 123 on saturday 24 october 2020 19 : 25 : 53 bst wrote : dear abc xyz test pension scheme thank you for your email regarding the test pension scheme to enable us to answer your enquiry please could you provide your full address for data verification purposes should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at testscheme fincorp com &lt;mailto : testscheme fincorp com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 www fincorp com &lt;http : www fincorp com from : abc xyz &lt;abc xyz testmail com sent : 22 october 2020 00 : 42 to : test pension scheme subject : fw : test pension scheme ref tst12345678 - - - - - forwarded message - - - - - from : abc xyz testmail com to : testscheme fincorp com sent : wednesday 21 october 2020 16 : 08 : 58 bst subject : test pension scheme ref tst12345678 i have received retirement quotations as requested they state that i may be able to have a one - off lump sum i would like to know how much this would be before making a decision and completing the paperwork abc xyz ni no zz123123z</t>
+  </si>
+  <si>
+    <t>test pension plan dear test pensions thank you for your response the email i received asked me to await a hard copy version of this information before proceeding any further i know 2 copies have been sent but the def train system is not running at the present time so no postal deliveries have been made not to worry i would like to expedite my pension plan immediately and i am choosing option 1 = the largest lump sum possible gbp58000 + and the relevant monthly income thereafter as my wife and i live in lmn we would like all the funds deposited into her bank account - the account number will be supplied if this is possible we can also provide proof of identity current passports + adhaar national id card + my xx card and government certified marriage certificate which will endorse our relationship please advise kind regards abc test employee no 000000 ni number : zz123123z on wed 11 nov 2020 at 10 : 51 test pensions pensions com&lt;mailto : test pensions pensions com wrote : dear abc test pension plan thank you for your email regarding the test pension plan please accept our apologies for the delay in responding to you i have checked the record and i can confirm that we did sent you a copy of retirement quote via email on 22nd september 2020 however i have attached the copy of correspondence once again for your convenience please note we have encrypted the document with a password which is your national insurance number all in uppercase for ex ab123456c if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com did you know that member s can access and manage their pension online by logging into their test account if you are a scheme of this member you can access your account if you have forgotten your username and or password there is a link on this page to reset it if you have not previously activated your account email us so we can provide you with the activation link yours sincerely test pensions from : abc xyz testmail com sent : 06 november 2020 07 : 40 to : test pensions pensions com subject : re : test pension plan dear test pensions it would appear that def state is currently experiencing a train strike this means that mail is not being delivered would it be possible to send my test pension pack via email to this address please advise kind regards abc on sat 10 oct 2020 9 : 06 am abc xyz testmail com&lt;mailto : abc xyz testmail com wrote : dear test pensions that is good news thank you i suspect the delay is just the sheer distance combined with the logistical challenges caused by the virus my contact details are + 91 012345678 please note that i teach for 5 5 hours per day 11 00 am to 4 30 pm monday to friday and my phone is usually on silent therefore it would be advisable to reach me in the afternoon after 1 00 pm regards abc on thu 8 oct 2020 at 21 : 31 test pensions pensions com&lt;mailto : test pensions pensions com wrote : dear mr abc test pension plan thank you for your email regarding the test pension plan please accept my sincerest apologies for any inconvenience this may cause you i have checked our records and can confirm that the correspondence was issued to you on 29th september 2020 however i have arranged for the information to be re - issued to you as you have not received it please note that you will receive it shortly also could you please provide your contact details to call you if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 06 october 2020 12 : 13 to : test pensions pensions com subject : re : test pension plan reference : tst12345678 dear test pensions unfortunately i have yet to hear back from the administration department as of today tuesday 6 10 2020 would it be possible for them to make contact within the next 48 to 72 hours please regards abc test employee no ni number on thu 24 sep 2020 at 18 : 43 abc xyz testmail com&lt;mailto : abc xyz testmail com wrote : reference : tst12345678 dear test pensions firstly please note that my home address has changed it is now : it is exactly the same building but the local government has changed the way they officially designate them please amend your records to reflect this secondly as i am in india do i still need to call the 0000 number to request the necessary forms or is there an alternative method please advise kind regards abc test employee no ni number : on tue 22 sep 2020 at 21 : 56 test pensions pensions com&lt;mailto : test pensions pensions com wrote : dear mr abc further to your email please see the attached response the document has been encrypted with your national insurance number letters in upper case kind regards test pension scheme administration team from : abc xyz testmail com sent : 15 september 2020 17 : 41 to : test pensions pensions com subject : re : test pension plan dear test pensions ref : 00000 please find attached the original document containing the original address i have also attached the response letter i received from test pensions just to clarify the building is the same one; the local government has altered their method of identifying them hence the change of address regards abc on fri 11 sep 2020 at 10 : 11 test pensions pensions com&lt;mailto : test pensions pensions com wrote : dear mr abc test pension plan thank you for your email regarding the test pension plan please accept my sincerest apologies for any inconvenience this may cause you to enable us to answer your enquiry please could you provide your previous address for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com to : test pensions pensions com subject : re : test pension plan dear test pensions ref no here are the details that you requested address : date of birth : ni number : test employee payroll number : regards abc on wed 2 sep 2020 at 16 : 55 test pensions pensions com&lt;mailto : test pensions pensions com wrote : dear abc test pension plan thank you for your email regarding the test pension plan to enable us to answer your enquiry please could you provide your full address date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 01 september 2020 17 : 16 to : test pensions pensions com subject : re : fw : verification form ref no 00000 dear test pensions i would like to begin the process of activating my test pension we have corresponded several times and the process seems fairly simple as previously stated i would like to take the maximum lump sum available plus the relevant monthly payments there are 2 issues that will need resolving : 1 i am based in the def northern india and the local government have recently altered their house identification system therefore i would need to update my address 2 question : can i have the monthly payments transferred to my wife bank account if we supply the necessary documents proving that she is in fact my wife could you also include all the relevant information regarding what my wife is entitled to in the event of my death regards abc on mon 1 oct 2018 at 09 : 42 abc xyz testmail com&lt;mailto : abc xyz testmail com wrote : dear test pensions would it be possible to send me the following information please 1 my monthly pension amount if i commence payments in may 2020 2 the maximum amount i can take in a lump sum in may 2020 and the relevant subsequent monthly payment please send this information to this email address kind regards abc on wed 26 sep 2018 at 10 : 34 abc xyz testmail com&lt;mailto : abc xyz testmail com wrote : dear test pensions would it be possible to send me the following information please 1 my monthly pension amount if i commence payments in may 2020 2 the maximum amount i can take in a lump sum in may 2020 and the relevant subsequent monthly payment please send this information to this email address kind regards abc former test employee payroll no 00000 on fri 6 apr 2018 at 12 : 07 test pensions pensions com&lt;mailto : test pensions pensions com wrote : dear mr abc thank you for your email your address has been updated and a retirement quote was issued to your new address in the middle of march 2018 regards test pensions test pension administration team from : test pensions pensions com sent : 05 april 2018 15 : 35 to : test pensions pensions com subject : fw : verification form from : abc xyz testmail com sent : 05 april 2018 05 : 43 to : test pensions pensions com subject : re : verification form dear test pensions do you have any information regarding my pension request it has been several weeks since the completed form was sent and there has been no reply kind regards abc ref : 00000 on 24 november 2017 at 22 : 44 test pensions pensions com&lt;mailto : test pensions pensions com wrote : dear abc please find attached verification letter that was originally issued to def without the filled verification form we won t be able to proceed with your request in the mean time if you require any further information please do not hesitate to contact us regards test pensions test pension scheme administration team</t>
+  </si>
+  <si>
+    <t>re : test pension fund - mr abc xyz dear mr abc xyz i refer to my below email dated 26 october 2020 as previously advised we are unable to accept the copy passport it will need to be the original or a certified copy of the original could you please arrange for this matter to be resolved as previously advised are awaiting documentation and the implementation fee from the member before we can implement the pension sharing order and have requested for this we will chase on a regular basis and upon receipt of all the outstanding items kind regards test pension scheme from : abc xyz sent : 26 october 2020 11 : 11 to : test pension scheme subject : re : test pension fund - mr abc xyz dear mr abc xyz thank you for your letter dated 22 september 2020 please accept my apologies for the delay in issuing this reply i confirm receipt of the following : completed ex - spouse information form ex - spouse transfer request and discharge form copy of passport please note that we are unable to accept the copy passport it will need to be the original or a certified copy of the original we have also received documentation directly from test pension fund please be advised that we are awaiting documentation and the implementation fee from the member before we can implement the pension sharing order and have requested for this we will chase on a regular basis and upon receipt of all the outstanding items we will process the order kind regards abc xyz senior administrator mercer fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 from : abc xyz &lt;abc xyz testmail com sent : 16 october 2020 14 : 41 to : test pensions subject : rcw abc abc xyz - tst12345678 dear sir madam with reference to the above please could you provide us with an update on how the ex - spouse pension transfer is proceeding we sent you all of the required ex - spouse transfer forms on the 1st january 1400 and have noy yet heard back from you if you have any questions please do not hesitate to get in touch kind regards abc</t>
+  </si>
+  <si>
+    <t>final transfer value good morning can i please ask for a final guaranteed pension transfer value kind regards 10 test road test street aa12 123 payroll number 123456 n i number zz123123z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abc xyz - zz123123z good afternoon please can you provide an update on the above members transfer request kind regards test ifa 10 test road test street aa12 123 t : + 91 012345678 e : test ifa fincorp com&lt;mailto : test ifa fincorp com </t>
+  </si>
+  <si>
+    <t>xyz - tst12345678 - cetv forms urgent good afternoon sir or madam abc xyz tst12345678 01 01 1400 zz123123z please find attached a copy of the forms which were sent 1st class rm signed for today to your def address the receiving scheme warrantee form has been relayed to uvw who will in turn send it on to yourselves please can you confirm as soon as possible that you have what you need in order to secure the transfer value this is an urgent request owing to the expiry date of the cetv being 30th november confirmation can be sent to my email or via the communication methods listed below if you have any questions or queries please can you contact me kind regards test ifa</t>
+  </si>
+  <si>
+    <t>change of details good morning i would like to notify of my change of name and address previous brown nocolour of 00 clarant ride teakwood road bb00 0bb now brown colour 0 greenland road penselvansey bay east sunset bn11 1bb regards brown colour sent from my ipad</t>
+  </si>
+  <si>
+    <t>fw : bonjour ! importance : high good afternoon i am trying to locate some information on a pension i hold with you under the test pension scheme i have received a number of booklets but no plan information regarding the benefits that i hold please see my details below : name : abc xyz dob : 1st january 1400 address : 10 test road test street aa12 123 please can you provide me with the following : type of pension plan defined benefit or defined contribution scheme rules for the section of the plan i am in current value and projected income normal retirement age please can i have the below via return email thanks abc xyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pre - identified user support request reply email address : abc xyz testmail com forename : abc surname : xyz ni number : zz123123z dob : 01 jan 1400 home postcode : aa12 123 employer : test pensions subject : pension uptake at 60 content : hello i am planning to take my pension at 60 on my birth date could you please give me projected figures for 1 a full pension 2 a pension with the full tax free allowance thank you abc</t>
+  </si>
+  <si>
+    <t>re : abc xyz hello abc xyz we are sad to hear about abc xyz s passing for us to assist you further would you be able to confirm abc xyz s and your cgi staff number we don t seem to find your records in our system please be advised that we will progress by closing the case shall we not received a response from your end within 7 business working days thank you kind regards abc xyz fin corp united kingdom from : abc xyz sent : friday november 13 2020 3 : 10 pm to : test pensions pensions com subject : re : abc xyz hi i have not yet received the documents you require me to fill in to process my request however i have found in abc xyz legal papers the expression of wish form that was drafted in 2012 please let me know the documents you need me to provide best regards abc xyz le mar 10 nov 2020 09 : 18 abc xyz&lt;abc xyz testmail com a crit : hi i am writing to you today to inform you of abc xyz born 01 jan 1400 death on june 1 im manilla philippines i am his ex - wife sandrine bessiere - smith i worked for fin corp uk empl 1235 and fin corp sweden then fin corp 2 uk empl 123 from 1994 to 2001 michael was employed by fin corp in sweden and the uk as well prior to the cgi acquisition i recently received his personal papers and i have gone through his uk pension papers and while i know he did not request his pension paid when he left to the philippines since he was still working when he passed i wonder if there would be any money owed to his son next of kin i do not have the details of any policy with fin corp michael nin was zz123123z would you be able to help me with this i have a lot of documentation to provide such as death and medical certificate passport copy birth certificate proof of next of kin marriage and divorce certificate last known address etc many thanks abc xyz - - - - - - - - - - forwarded message - - - - - - - - - de : abc xyz&lt;abc xyz testmail com date : mar 10 nov 2020 08 : 47 subject : re : abc xyz to : abc xyz&lt;abc xyz testmail com dear abc we are sad to hear about abc s passing please feel free to directly get in touch with this company who handles pensions fin corp ltd 10 test road test street aa12 123 helpline : + 91 012345678 fin corp testmail com &lt;mailto : fin corp testmail com query team uk from : abc xyz&lt;abc xyz testmail com sent : monday november 9 2020 4 : 29 pm to : test pension fund &lt;testfund fincorp com subject : abc xyz hi i am writing to you today to inform you of abc xyz born 01 jan 1400 death on jan 1st i am his ex - wife abc xyz i worked for fin corp uk empl 12345 and fin corp sweden then fin corp uk empl 123 from 1994 to 2001 abc was employed in sweden and the uk as well prior to the fin corp acquisition he died in the philippines and i just received all his documents sent to me in france i have gone through his uk pension papers and while i know he did not request his pension paid when he left to the philippines i wonder if there would be any money owner to his son next of kin i do not have the details of any policy with fin corp would you be able to help me with this many thanks abc xyz</t>
+  </si>
+  <si>
+    <t>test salaried contributory pension fund - mr abc xyz good morning do you have an update on the below please kind regards test ifa adviser support test ifa 10 test road test street aa12 123 tel : + 91 012345678 email : test ifa fincorp com dear test ifa test salaried contributory pension fund thank you for your email regarding the test salaried contributory pension fund i can confirm i have forwarded your email to our administration department and they will be in contact shortly if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : test ifa fincorp com sent : 28 october 2020 14 : 15 to : test pensions pensions com subject : re : test salaried contributory pension fund - mr abc xyz good morning thank you for confirming the below do you have any timescale for when the leaver notification will be processed and when we the client can expect to receive the transfer pack kind regards test ifa from : test pensions pensions com sent : 28 october 2020 08 : 37 to : test ifa fincorp com subject : test salaried contributory pension fund - mr abc xyz this message originated outside your organization dear test ifa test salaried contributory pension fund thank you for your email regarding the test salaried contributory pension fund please accept our sincerest apologies for the delay in responding to you please note that we have received member s leaver notification which is under review once this process is complete we will provide you with the requested transfer pack please be advised that as member is an still active employee of the test motor company all requests for retirement figures must be made through your hr representative please contact hr department for further information if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : test ifa fincorp com sent : 21 october 2020 15 : 53 to : test pensions pensions com subject : test salaried contributory pension fund - mr abc xyz dear sir madam re : i attach a signed letter of authority password protected with the member s dob : dd mm yyyy i would ask you to supply a scheme benefit leaver s statement together with confirmation of the following : current transfer value very important immediate retirement quote and quote at normal retirement age very important gmp pre and post 97 benefits - breakdowns and amounts inc s9 2b does gmp franking apply total pension at a day revaluation and escalation rates of the scheme - very important please specify rpi cpi etc plus min and max levels service dates and salary levels at date of leaving confirmation of tax - free cash details of the commutation factor for tax - free cash widows and lump - sum death benefits guarantee period in years whether any in house avc is included and is so whether the easement introduced by a day on 6th april 2006 a higher proportion than 25 of the tfc may be commuted depending on main scheme benefits details of early and late retirement factors age at which member is entitled to an unreduced pension commutation factor applicable for early retirement if pre a day max tfc is there a money purchase underpin is the scheme contracted out scheme funding status overall funding position scheme open or closed if closed please specify date transfer forms if you have any questions concerning the above please do not hesitate to call me on the number at the bottom of this letter sincerely test ifa adviser support test ifa 10 test road test street aa12 123 tel : + 91 012345678 email : test ifa fincorp com</t>
+  </si>
+  <si>
+    <t>abc tst12345678 - zz123123z - 01 01 1400 importance : high good morning i m concerned that i am yet to have a response to my below request please provide the answers to our queries urgently and by email if possible kind regards test ifa from : test ifa fincorp com sent : 06 october 2020 17 : 26 to : test pensions pensions com subject : abc tst12345678 - zz123123z - 01 01 1400 importance : high good afternoon please find attached a letter of authority duly signed by our mutual client which should enable you to release information for this policy therefore please kindly provide me with the following information in writing; dates salary date of joining and leaving the scheme member s final pensionable salary has the gmp been equalised are partial transfers allowed i e can the gmp remain and post 97 rights be transferred funding statement if relevant is late retirement allowed if so to what age and late retirement factors please pension benefits at date of leaving scheme gmp benefits; showing any pre post 88 splits the rates of revaluation in deferment and escalation in payment excess benefits; showing any pre post 85 or 97 splits the rates of revaluation in deferment and escalation in payment list of any discretionary increases applied to pension either in deferment payment during last 5yrs breakdown of any transferred - in benefits; are the benefits treated the same as the main scheme benefits if not please highlight any differences is there a fixed pension at nra of service credit if no gmp contained does the member have any avcs if so how what is the current value do they have to be transferred with the main scheme benefits what funds are they invested in can the member switch into different funds early retirement is early retirement allowed if so from which age what actuarial reduction factors are currently applied to members pensions in the event of early retirement if a table of factors is not available please provide the percentage reduction applicable for each year early and whether this is compound or simple reduction would the member benefits be revalued to the date of actual or normal retirement upon early retirement if revalued to normal retirement at what assumed rate are benefits projected to normal retirement benefit payable now on a full pension basis and maximum pension commencement lump sum with reduced pension basis tax free cash member tfc at date of leaving would this amount revalue if so at what rate does the scheme pay hmrc post a - day maximum cash amount of pre a - day ir maximum cash at 5 4 2006 if protected what are the scheme current tfc commutation factors from nra to age 55 death benefits does the scheme pay a death before retirement lump sum if so what and how much what pension would the member spouse receive upon death before and after retirement what death after retirement guarantee does the scheme apply contracting out was the scheme contracted out pre post 06 04 1997 if yes for post 97 on what basis; reference scheme protected rights underpin mixed benefit transfer value total transfer value cetv ; showing any splits of gmp protected rights pre post 06 04 1997 calculation and guarantee dates also amount of member contributions included in the tv scheme information scheme s normal retirement age is the scheme open to all employees or are there restrictions if so what are they what is the scheme s current funding position would deferred members benefits be affected in any way if so how is the scheme a member of the transfer club will the scheme allow a partial transfer of benefits if yes please outline any restrictions that would be applied and or provide details of the basis on which a partial transfer would be allowed if no please confirm if there is more than one type section version of scheme membership which one applies to the member is the plan subject to an earmarking or attachment order what date was the scheme equalised and the earliest age benefits can be taken unreduced if the transfer were to proceed would the scheme be insistent that all forms must be returned within the guarantee period or could some discretion be used at that time please forward copies of any warranty discharge forms that would need to be completed if the client decided to transfer their benefits thank you for your assistance in this matter kind regards test ifa</t>
+  </si>
+  <si>
+    <t>test pension tst12345678 hi i have been sent a update on my scheme many thanks for that i have a question can i withdraw any funds tax free when i reach 55 next year also if so how much would that figure be kind regards abc xyz 10 test road test street aa12 123 ref tst12345678 national insurance number zz123123z kind regards</t>
+  </si>
+  <si>
+    <t>re : test retirement and death benefits plan - mr abcd good morning i am following up again on the outstanding queries for this member would you please respond as soon as possible thank you test ifa from : test pensions pensions com&lt;mailto : test pensions pensions com sent : 03 november 2020 12 : 04 to : test ifa fincorp com subject : test retirement and death benefits plan - mr abcd dear test ifa test retirement and death benefits plan thank you for your email regarding the test retirement and death benefits plan please accept our sincerest apologies for the delay we will review the current position of your case and ensure that it is dealt with promptly if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com&lt;mailto : test pensions pensions com yours sincerely test pensions from : test ifa fincorp com sent : 30 october 2020 15 : 39 to : test pensions pensions com subject : fw : test retirement and death benefits plan - mr abcd good morning i am just following up on the outstanding queries below please let me know as soon as possible if you require any additional information thank you test ifa from : test pensions pensions com sent : 09 october 2020 13 : 21 to : test ifa fincorp com subject : test retirement and death benefits plan - mr abcd dear test ifa test retirement and death benefits plan thank you for your email regarding the test retirement and death benefits plan your request has been logged and you will receive a written response from our administration department within 10 - 15 working days if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : test ifa fincorp com sent : 07 october 2020 17 : 11 to : test pensions pensions com subject : test retirement and death benefits plan - mr abcd good afternoon please find attached the loa for this member the member s national insurance no will open the document thank you test ifa from : test pensions pensions com sent : 02 october 2020 12 : 34 to : test ifa fincorp com subject : test retirement and death benefits plan - mr abcd dear test ifa test retirement and death benefits plan thank you for your email regarding the test retirement and death benefits plan i can confirm that i have checked our records and we do not hold a valid letter of authority on file allowing us to release information to yourself in order for us to provide any information could you please arrange for the letter of authority to be sent via email which will allow us to process your request please note that the letter of authority must be signed by the member within the last 12 months and confirm the full ifa company name and address if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : test ifa fincorp com sent : 30 september 2020 16 : 01 to : test pensions pensions com subject : test retirement and death benefits plan - mr abcd good morning please find attached the additional member details you require the password is the member s national insurance number as supplied in my previous email thank you test ifa from : test ifa fincorp com sent : 30 september 2020 11 : 29 to : test pensions pensions com subject : test retirement and death benefits plan - mr abcd good morning we are currently working on producing a test for the above member as part of our advice process please can you respond to the following query from ctc to enable us to complete the report 1 please confirm that the pension amounts shown in columns r onwards are at date of leaving 24 2 99 if not please advise the members national insurance no xxxxxxxxx additional member information you require to follow in a password protected document thank you test ifa</t>
+  </si>
+  <si>
+    <t>re : test pension plan - mr abc good afternoon re : test pension plan - mr abc please could you confirm if there is any update to our query of 02 11 2020 if you have any queries please do not hesitate to contact us kind regards test pensions on 03 11 2020 3 : 22 pm test scheme pensions com wrote : fyi - - - - - - - - forwarded message - - - - - - - - subject : test pension plan - mr abc date : tue 3 nov 2020 14 : 26 : 51 + 0000 from : test pensions pensions com to : testfund fincorp com dear test fund test pension plan thank you for your email regarding the test pension plan i can confirm i have forwarded your email to our administration department to process as requested and they will be in contact shortly if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : testfund fincorp com sent : 02 november 2020 18 : 09 to : test pensions pensions com subject : test pension plan - mr abc good morning re : test pension plan - mr abc please could you let us know if there is any update on the below if you have any queries please do not hesitate to contact us kind regards test pensions - - - - - - - - forwarded message - - - - - - - - subject : test pension plan - mr abc date : wed 14 oct 2020 11 : 31 : 03 + 0100 from : testfund fincorp com to : test pensions pensions com good morning re : test pension plan - mr abc please find copies of documents previously sent to you that show the clients date of birth national insurance number and address the documents are password protected in our normal way - if you need to check this please call us on + 91 012345678 if you have any queries please do not hesitate to contact us kind regards test pensions on 13 10 2020 5 : 08 pm test pensions pensions com wrote : dear test pensions test pension plan thank you for your email regarding the test pension plan to enable us to answer your enquiry please could you provide the member full address date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : testfund fincorp com sent : 12 october 2020 12 : 08 to : test pensions pensions com subject : test pension plan - mr abc good morning re : test pension plan - mr abc is there any update on the below thanks test pensions - - - - - - - - forwarded message - - - - - - subject : test pension plan - mr abc date : fri 9 oct 2020 09 : 40 : 49 + 0100 from : testfund fincorp com to : test pensions pensions com good morning re : test pension plan - mr abc test reference : tst12345678 following on from our below emails please kindly confirm receipt of the transfer documents and please confirm if the transfer value has been upheld or not if you have any queries please do not hesitate to contact us kind regards test pensions - - - - - - - - forwarded message - - - - - - - - subject : test pension plan - mr abc date : thu 17 sep 2020 10 : 32 : 27 + 0100 from : test ifa fincorp com&lt;mailto : test ifa fincorp com reply - to : test pensions pensions com good afternoon following on from my below email please kindly confirm receipt of the transfer documents kind regards test ifa on 14 09 2020 3 : 46 pm test ifa fincorp com&lt;mailto : test ifa fincorp com wrote : good afternoon i am writing to submit the attached transfer request for the above client policy from test to test the client policy number is tst12345678 and the guarantee date for the transfer is 01 01 1400 the documents have also been sent via post on the 11th of september please kindly confirm receipt of these documents and request the password for the document on + 91 012345678 kind regards test ifa</t>
+  </si>
+  <si>
+    <t>mrs abc xyz tst12345678 zz123123z - query dear sirs re : mrs abc xyz tst12345678 zz123123z i write to you in reference to my benefits under the above scheme fin corp previously administered the plan and they mentioned in 2016 that i had protected tax - free cash of 1000 at a - day 6th april 2006 when the value was 100 90 now that you are the administrators please can you confirm if this is accurate and that on retirement i will receive the benefit of this assuming the calculation at that point results in an enhanced entitlement to tax free cash many thanks in advance abc xyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fw : mr abc xyz - early retirement quote - request good morning please can i request an immediate early retirement quote for the above mutual client zz123123z please can you send this back to the below email address test pensions pensions com &lt;mailto : test pensions pensions com </t>
+  </si>
+  <si>
+    <t>re : test pension scheme - abc xyz dear mr abc xyz i am sorry but i do not feel in the least comfortable sending that information in an email please liaise with abc xyz thank you mrs abc xyz from : testscheme fincorp com sent : friday november 20 2020 7 : 40 am to : abc xyz testmail com subject : test pension scheme - abc xyz dear abc xyz test pension scheme thank you for your email regarding the test pension scheme in order to forward your email to our administration department please could you provide the member full address date of birth and national insurance number for data verification purposes should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at testscheme fincorp com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 www fincorp com from : abc xyz &lt; abc xyz testmail com sent : friday november 20 2020 10 : 35 pm to : test pension scheme &lt; testscheme fincorp com cc : test ifa &lt;test ifa fincorp com subject : test pension scheme - abc xyz importance : high dear abc xyz team manager i have just received a hard copy letter from you fin corp ltd dated 1st january 1400 questions : 1 i thought my pension was with test pensions what happened 2 you request that i complete a beneficiaries data form and original documentation and send it i have just recently completed all of this information and sent in it to test pensions they have acknowledged receipt approved my eligibility for benefits and returned my originals i have just suffered a three - month delay in receiving the arrears to my pension while all of this was being processed and was finally paid now i am being asked to resubmit information already received and approved please advise immediately thank you sincerely mrs abc xyz</t>
+  </si>
+  <si>
+    <t>change of address - abc dear sir madam please be advised that on 3rd december 2020 i will be moving from 2 test road test street aa20 123 to 10 test road test street aa12 123 regards abc date of birth - 01 january 1400 national insurance no zz123123z references taken from letter about 2020 increase - your ref : tst12345678 my ref : 000000000000000000 my contact tel : + 91 012345678</t>
+  </si>
+  <si>
+    <t>urgent : pension transfer request good afternoon i worked for test pension fundas a data scientist from january 2018 - september 2019 i am now working for a university and would like to transfer my sainsbury argos pension into my teachers pension i have a form that has a section that needs to be completed by someone from test pension scheme it would be best done by hand so printed out but could be done electronically if necessary i would be very grateful if you could complete part c on the attached form and return to me by the end of this week kind regards abc xyz abc xyz + 91 012345678</t>
+  </si>
+  <si>
+    <t>fw : extending decision time dear ms abc xyz i refer to my email of 1 jan see below when i requested an extension to the guaranteed period for transfer value i hope that you can deal with this request urgently as time is passing and we must have confirmation on the extension to 30 january before taking further action i look forward to hearing from you regards abc xyz from : abc xyz &lt;abc xyz testmail com sent : 14 november 2020 15 : 34 to : test pensions &lt;test pensions pensions com subject : extending decision time : test pension scheme dear ms abc xyz thank you for the amended pension transfer pack received on 1 jan the pack refers to the transfer value of my pension as at 10 jan it also indicates that the transfer value expires on the 10 december given that the transfer pack did not get to me until 30 jan following delays that leaves just about 6 weeks to take advice from my financial adviser; which he tells me will include further information gathering from fin corp reflect make a decision complete and return the necessary documents to fin corp i feel that the period is too short and my financial adviser who is very experienced in dealing with defined benefits transfers also feels that it would be too short to make this deadline even in a best case scenario when considering this request please bear in mind the difficulties that companies like fin corp have in providing a normal service due to covid restrictions i am sure you will also consider that financial advice is not as accessible during this current lockdown my adviser confirms that his firm is unable to make face to face meetings which in my circumstances is not ideal the length of time involved in producing braille copies of print documents should also be considered as there is always an interval of 7 to 10 days between the date on the print letter and the date that i receive it in braille can i suggest and respectfully request given the circumstances that the three month guaranteed transfer value window should start from 30 october when i received the amended transfer pack i look forward to hearing from you urgently on this matter abc xyz 10 test road test street aa12 123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">change of address hi my name is abc my birthday is 01 01 1400 around a year ago i moved house my new address is as below mr abc 10 test road test street aa12 123 my previous address was 103 test road test street ua12 123 i have tried to register online but it didn t seem to work properly regards abc </t>
+  </si>
+  <si>
+    <t>urgent : abc tst12345678 signed transfer documents certified proof of address identity and financial advice declaration - cetv guarantee date october 23 2020 dear sirs : mr abc s signed transfer documents proof of address identity and confirmation of advice were emailed to the ford administrators on october 23 and i received an automated confirmation reply shortly thereafter both emails are below to that end please honor this valuation and proceed with the transfer thank you for your help with this matter appreciatively yours def 10 test road test street aa12 123 phone direct + 91 012345678 - - - - - - - - - - forwarded message - - - - - - - - - from : test pensions pensions com date : thu 19 nov 2020 20 : 04 subject : urgent : abc tst12345678 signed transfer documents certified proof of address identity and financial advice declaration - cetv guarantee date october 23 2020 to : test ifa fincorp com dear def i am emailing you with regards to mr abc s proposed transfer after reviewing the paperwork received we have noted that the our receiving scheme warranty form was signed dated and received after the guarantee date of the 23 10 2020 unfortunately as our requirements were not met before the guarantee date we are unable to proceed with the transfer we are required to recalculate mr abc s cetv if the he still wishes to transfer his benefits as member s of the fund are entitled to one cetv in a twelve month period a recalculation fee is 420 00 incl vat is payable payment can be made to the following account : account : test benefits account no : 12345678 sort code : 00 - 00 - 00 reference : member s name and national insurance number please let us know when payment has been made either by letter email of telephone call if you have queries regarding this email please do not hesitate to contact us kind regards test pensions postal address : 10 test road test street aa12 123 member helpline : + 91 012345678 test pensions pensions com from : test pensions pensions com sent : monday november 2 2020 5 : 36 am to : test ifa fincorp com subject : re : urgent : abc tst12345678 signed transfer documents certified proof of address identity and financial advice declaration - cetv guarantee date october 23 2020 dear def ford salaried contributory pension fund thank you for your email regarding the ford salaried contributory pension fund please accept our apologies for the delay in responding to you i can confirm i have forwarded your email to our administration department and they will be in contact shortly if any further information is required if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : testfund fincorp com sent : friday october 23 2020 5 : 36 pm to : test pensions pensions com subject : re : urgent : abc tst12345678 signed transfer documents certified proof of address identity and financial advice declaration - cetv guarantee date october 23 2020 thank you for your email to the test pension should you have any queries in the meantime please contact our member helpline on + 91 012345678 please note this is an automated response postal address : 10 test road test street aa12 123 from : test ifa fincorp com sent : 23 october 2020 22 : 32 to : test pensions pensions com subject : urgent : abc tst12345678 signed transfer documents certified proof of address identity and financial advice declaration - cetv guarantee date october 23 2020 dear sirs : please accept the attached scans of mr abc tranfer documents financial advice declaration and certifed proof of address and identity contingent that the originals are to follow shortly thank you for your help with this matter appreciatively yours def senior investment advisor test ifa 10 test road test street aa12 123 phone direct + 91 012345678</t>
+  </si>
+  <si>
+    <t>change of address good evening is it possible to change my contact address via email kind regards abc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fw : abc xyz secure internet mail importance : high advance portfolio : zz123123z your reference : tst12345678 our reference : zz123123z dear sir madam we have received your correspondence dated 11 11 20 i can confirm we are still outstanding the fin corp portal print mentioned below further to our request for an fin corp portal print for the above customer pension transfer i can confirm how you can obtain this please go to the website : www fincorp com within this you can navigate to get the pstr for the scheme that you are the administrator for when in the fin corp portal and on the screen which displays the pstr number but not the date - rather than click the green print text on the screen - click file and print and convert to adobe pdf this will produce a two page document with both the date and pstr number that satisfies the requirements kind regards abc xyz - - - - - original message - - - - - from : fin corp sent : 16 november 2020 12 : 59 to : test pensions pensions com subject : abc xyz secure internet mail advance portfolio : zz123123z your reference : tst12345678 good afternoon we have now received the money for the above clients pension transfer but have not yet received the payment confirmation letter we also require : - scheme name - scheme type if defined benefit please also confirm if there is gmp and we may also require confirmation that the transfer value for any post 1st january 1400 service has been calculated on an equalised basis - pstr number - fin corp print showing scheme name and pstr dated within the last 3 months if you have any questions please call us on + 91 012345678 we will be happy to help kind regards abc xyz fin corp 10 test road test street aa12 123 telephone + 91 012345678 we may record or monitor calls to improve our service </t>
+  </si>
+  <si>
+    <t>test pension scheme reference tst12345678 dear sir madam mr abc ni : zz123123z 10 test road test street aa12 123 thank you for your email would you kindly provide me with a list of funds that my test pension scheme are held in and the that is held within each fund please email or by post to my address yours faithfully mr abc + 91 012345678 abc xyz testmail com - - - - - - - - - - forwarded message - - - - - - - - - from : test pensions pensions com date : wed 4 nov 2020 at 19 : 42 subject : test pension scheme reference tst12345678 to : abc xyz testmail com dear abc test pension scheme thank you for your email regarding the test pension scheme i have checked our records and can confirm that the correspondence was issued to def ltd on 29th october 2020 please note that you will receive it shortly if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 02 november 2020 17 : 26 to : test pensions pensions com subject : test pension scheme reference tst12345678 dear sir madam test pension scheme abc reference : tst12345678 national insurance number : i refer to your letter dated 28th october 2020 a copy of which is attached for your reference and to my telephone conversation with test pensions today i can confirm that i have given def ltd my full authority to act on my behalf regarding all matters relating to my test pension scheme would you please provide them with a transfer value statement as requested by them and any other information that they may request regarding my pension yours faithfully abc 10 test road test street aa12 123</t>
+  </si>
+  <si>
+    <t>pension retirement pack abc xyz nino - zz123123z dob - 01 01 1400 retirement date - 01 01 1400 could you please issue a retirement quotation to the above member including a transfer value kind regards abc xyz pensions manager direct : + 91 012345678 mobile : + 91 012345678 hi abc xyz i was informed by one of my colleagues that i can request a pension pack quote as i am considering retiring next year also as i am part of the test pensions scheme can i get a opt out figure if i retire next april just in case you try to call me at fin corp i have been seconded out for 6 months by fin corp onto a training exercise around region 1 and i am in oban this week many thanks abc abc xyz area manager 10 test road + 91 012345678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">re : test pensions plan - : mr abc xyz external thank you for coming back to us i can confirm what we have received the details required and the payment has been applied appropriately kind regards abc xyz 10 test road test street aa12 123 + 91 012345678 from : test pensions pensions com sent : 18 november 2020 05 : 40 to : test pensions subject : test pensions plan - : mr abc xyz external dear abc xyz test pension fund thank you for your email regarding the test pension fund to enable us to answer your enquiry please could you provide member s full address date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com yours sincerely abc xyz administrator customer support centre 10 test road test street aa12 123 direct dial : + 91 012345678 test pensions pensions com from : abc xyz abc xyz testmail com sent : 13 november 2020 15 : 52 to : test pensions subject : mr abc xyz - transfer out tst12345678 good afternoon we have received the transfer payment of 100 for our above mutual client however we require further information to be able to process this please confirm the following is this payment crystallised or uncrystallized is this payment from a personal or occupational pension scheme if occupational is it defined contribution or defined benefit kind regards abc xyz platform administrator new money fin corp ltd </t>
+  </si>
+  <si>
+    <t>re : test pension scheme address 10 test road test street aa12 123 on mon 23 nov 2020 05 : 07 &lt; testscheme fincorp com &lt;mailto : testscheme fincorp com wrote : dear abc xyz test pension scheme thank you for your email regarding the test pension scheme i can confirm that you are able to transfer either your defined benefits or defined contribution benefits subject to trustees consent in order to assist you further please could you provide your full address for data verification purposes should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com &lt;mailto : test pensions pensions com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 from : abc xyz &lt;abc xyz testmail com sent : 19 november 2020 20 : 13 to : test pension fund subject : ref tst12345678 hi i am writing to enquire whether there is an option to transfer my defined contribution and or my defined benefit rnib pension fund to an test pension fund ie if i wanted to would i be allowed under this scheme abc xyz</t>
+  </si>
+  <si>
+    <t>fw : change of address for test pension - - - - - original message - - - - - from : abc xyz testmail com sent : 16 october 2020 12 : 59 to : test pensions pensions com subject : change of address for test pension dear sir ma am please note a change of address for a recipient of a test pension pension ref tst12345678 mrs abc of 10 test road test street aa12 123 has now moved to 10 test road test street aa12 123 banking details remain the same please update your records accordingly many thanks abc + 91 012345678</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> warning : message encrypted retirement options form - test pension scheme - tst12345678 message encrypted importance : high good evening please find attached a completed retirement options form for our mutual client to start his pension payments plus lump sum the password is his abc123 which i m hoping you can find out from the reference number quoted please let me know that you can access this form and whether you can accept it in the format or whether you need the original form posted to you many thanks kind regards abc xyz</t>
+  </si>
+  <si>
+    <t>test pension plan - abc importance : high hi please see attached a revised letter of authority confirming the scheme name the password is the members date of birth in the format ddmmyyyy i would be grateful if you could now expedite our request below kind regards test ifa from : test pensions pensions com sent : 12 november 2020 13 : 30 to : test ifa fincorp com subject : test pension plan - abc dear mr test ifa test pension plan thank you for your email regarding the test pension plan unfortunately we are unable to accept the letter of authority provided by you as it does not include scheme name could you please provide us with revised letter of authority if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com&lt;mailto : test pensions pensions com yours sincerely test pensions from : test ifa fincorp com sent : 10 november 2020 15 : 15 to : test pensions subject : warning : message encrypted urgent action required - - letter of authority - information only message encrypted importance : high to whom it may concern please see attached the signed letter of authority for mr abc s scheme ref : tst12345678 the document has been password protected with mr abc s date of birth in the format ddmmyyyy we should be grateful if you could provide the following information : date joined service normal retirement age benefits accrued to date where applicable please provide the breakdown between all relevant tranches i e pre and post 88 gmp and pre and post 97 excess confirmation of the escalation basis of the pension in payment scheme late retirement factors from nra to age 75 is there an automatic tax - free lump sum payable on vesting ill health early retirement benefit options available to mr tooray under the grounds of serious ill health death benefits provided by the scheme please confirm the types of dependent s benefits offered by the scheme and the qualifying criteria details of any avc benefits linked to this pension spouse s pension details including : if death occurs before retirement is the spouse s pension based upon the full pension to nrd or revalued pension to date of death if death occurs after retirement is the spouse s pension calculated on the full pension before commutation lump sum death benefits pre and post retirement please provide a copy of the scheme booklet please note this is not a request for a cash equivalent transfer value should you require any further information to process this request please do let me know kind regards test ifa</t>
+  </si>
+  <si>
+    <t>re : test pensions query as requested additional information name : abc xyz dob : 01 01 1400 ni : zz123123z i have recently had my pension transferred over to you my member reference is 12345678 i m all my previous correspondence from the previous supplier i had a pension age of 60 for some benefits and 63 for the remainder i note that on your website you show my normal retirement age as 65 please can you clarify why this change has been made thank you abc xyz from : abc xyz testmail com &lt;mailto : abc xyz testmail com date : sunday 22 november 2020 at 12 : 28 to : subject : test pensions query dear sir i have recently had my pension transferred over to you my member reference is 12345678 i m all my previous correspondence from the previous supplier i had a pension age of 60 for some benefits and 63 for the remainder i note that on your website you show my normal retirement age as 65 please can you clarify why this change has been made thank you abc xyz</t>
+  </si>
+  <si>
+    <t>loa - transfer value request importance : high dear test pensions please see attached letter of authority please can you provide the requested information including a transfer value and a transfer pack for a sipp please advise timescale for receiving this information many thanks and please let us know if you need anything further kind regards test ifa 10 test road test street aa12 123 email : test ifa fincorp com&lt;mailto : test ifa fincorp com phone mobile : + 91 012345678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fw : mr abc xyz - tst12345678 - test pension fund importance : high good afternoon with regard to the above client please can you advise whether the client has protected tax free cash within the plan kind regards abc xyz - - - - - - - - - - - - - - - - - - - - - - - - - - - - abc xyz covid - 19 please note we are unable to accept visitors at the office without prior appointment please do not attend our office if you have a persistent cough a high temperature or have lost your sense of taste or smell upon entering the office all visitors must sanitise at the unit provided and adhere to social distancing guidelines hoping you and your families stay safe and well </t>
+  </si>
+  <si>
+    <t>re : test pension scheme - test section thank you for responding my details are as follows mrs abc 10 test road test street aa12 123 dob : 01 01 1400 ni number : zz123123z mrs abc data manager deputy dpo + 91 012345678 from : test pensions pensions com sent : 09 november 2020 12 : 45 to : abc xyz testmail com subject : test pension scheme - test section dear mrs abc test pension scheme - test section formerly test group thank you for your email regarding the test pension scheme - test section to enable us to answer your enquiry please could you provide your full address date of birth and national insurance number for data verification purposes should you have any further queries please do not hesitate to contact the customer support centre between 9 00am and 5 00pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 05 november 2020 18 : 46 to : test pensions pensions com subject : test pension scheme - test section good afternoon ref : tst12345678 now that my account has been updated and confirmed that i do have a pension with yourself can you please tell me my options can i withdraw from this pension does this affect my current state pension if i do withdraw could you please send me some literature on what my options would be thank you for your assistance in advance kind regards mrs abc data manager deputy dpo + 91 012345678 from : spsargos mercer com sent : 02 a test pensions pensions comugust 2020 19 : 55 to : abc xyz testmail coml goff subject : test pension scheme - test section dear mrs abc test pension scheme - test section formerly test group thank you for your email regarding the test pension scheme - test section i can confirm that we hold your record of pension with us in order for our records to be updated with your correct surname please provide original documentary evidence eg marriage certificate deed poll or decree absolute confirming your change in details original documents will be returned to you by recorded delivery should you have any further queries please do not hesitate to contact the customer support centre between 9 00am and 5 00pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely abc from : abc xyz testmail com sent : 27 july 2020 16 : 35 to : test pensions pensions com subject : test pension scheme - test section good afternoon you have not actually answered my original question i want to know if i do hold a pension with your company if you can confirm that then i will of course update you with the required documents kind regards mrs abc data manager deputy dpo + 91 012345678 from : test pensions pensions com sent : 27 abc pension scheme - test section dear mrs goff test pension scheme - test section formerly test group thank you for your email regarding the test pension scheme - test section and please accept our sincerest apologies for the delay in responding to you in order for our records to be updated with your correct surname please provide original documentary evidence eg marriage certificate deed poll or decree absolute confirming your change in details original documents will be returned to you by recorded delivery should you have any further queries please do not hesitate to contact the customer support centre between 9 00am and 5 00pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 21 july 2020 19 : 20 to : test pensions pensions com subject : test pension scheme - test section thank you for getting back to me my details are; mrs abc data manager deputy dpo + 91 012345678 from : test pensions pensions com sent : 21 july 2020 14 : 38 to : abc xyz testmail com subject : test pension scheme - test section dear mrs abc test pension scheme - test section formerly test group thank you for your email regarding the test pension scheme - test section to enable us to answer your enquiry please could you provide your full address date of birth and national insurance number for data verification purposes should you have any further queries please do not hesitate to contact the customer support centre between 9 00am and 5 00pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 15 july 2020 17 : 59 to : test pensions pensions com subject : pension enquiry good evening my maiden name is def date of birth i am enquiring as to whether i have a pension or frozen pension with your company i am on your mailing list so was wondering thank you for your assistance kind regards abc</t>
+  </si>
+  <si>
+    <t>test pension plan - abc good morning we are yet to receive this due to the time critical nature of these quotes would it be possible to email me a copy if this is not possible please post this again many thanks test ifa from : test pensions pensions com sent : 12 november 2020 07 : 45 to : test ifa fincorp com subject : test pension plan - abc dear test ifa test pension plan thank you for your email regarding the test pension plan a guaranteed transfer value statement was issued to your team on 06th november 2020 via post if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pension from : test ifa fincorp com sent : 10 november 2020 13 : 45 to : test pensions pensions com subject : test pension plan - abc importance : high good afternoon i would be grateful if you would confirm the above member has now left the scheme and when we can expect to received the guaranteed transfer value requested please post this to our below address or indeed send through by reply email if possible kind regards test ifa from : test ifa fincorp com sent : 22 july 2020 12 : 54 to : test pensions pensions com subject : test pension plan - abc hello i have not received a response please could i have this urgently thank you test ifa from : test ifa fincorp com sent : 07 july 2020 14 : 44 to : test pensions pensions com subject : test pension plan - abc hello please could i have an update on my request dated 30 06 2020 kind regards test ifa from : test ifa fincorp com sent : 30 june 2020 09 : 59 to : test pensions pensions com subject : test pension plan - abc good morning i refer to our above client and attached letter of authority and would like to request a benefits statement from the age of 56 : 1 max tax free cash being taken and a reduced pension and 2 maximum pension with no tax free cash for our above client many thanks test ifa</t>
+  </si>
+  <si>
+    <t>burger fries fin : 100000 retirement quote importance : high please can i request a ser quote for the above employee due to separate from the company on 1st january 1400 many thanks kind regards</t>
+  </si>
+  <si>
+    <t>ref : tst12345678 mr abc xyz dear sir madam i have a pension test industries pension scheme tst12345678 i would like to have this pension paid out to me as a lump sum as soon as possible can you advise if you require any further information so as to proceed with my request as requested on your correspondence to me please find below details as requested abc xyz zz123123z yours sincerely abc</t>
+  </si>
+  <si>
+    <t>re : def retirement and employee scheme thank you for your reply if i could please have a uptodate benifit statment issued that would be great regards abc from : test pensions pensions com sent : 17 november 2020 12 : 21 to : abc xyz testmail com subject : def retirement and employee scheme dear abc def retirement and employee scheme thank you for your email regarding the def retirement and employee scheme your request for change of address has been logged and you will receive a written response from our administration department in due course please note that you can apply for early retirement from the scheme from the age of 55 and over however an update of benefit statement can be issued on request once your address is updated on our records we will be able to assist you with online access should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 13 november 2020 12 : 08 to : test pensions pensions com subject : re : def retirement and employee scheme sure my current address is please could you also let me know how i get full details of my pension and what the balance and projections are for retirement how can i access these details thank you abc friday 13 november 2020 09 : 37 + 0000 from test pensions pensions com : dear mr abc def retirement and employee scheme thank you for your email regarding the def retirement and employee scheme could you please provide the current address to update your record should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 11 november 2020 09 : 58 to : test pensions pensions com subject : re : def retirement and employee scheme hi one of the reasons i was making contact is because my address has changed i believe my registered address is - i have also attached a copy of my passport for further varification regards abc from : test pensions pensions com sent : 11 november 2020 03 : 06 to : abc xyz testmail com subject : def retirement and employee scheme dear member def retirement and employee scheme thank you for your email regarding the def retirement and employee scheme to enable us to answer your enquiry please could you provide your full address for data verification purposes should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 06 november 2020 18 : 33 to : test pensions pensions com subject : def pension hi i have a final salary pension with dress and i am trying to get details about where it is now and what cover and benifits it gives me my emploee number which i belived is used as the referance number is christopher pearce dop ni - please could you advise how i find out where i information is now held if you require any further information please call regards abc</t>
+  </si>
+  <si>
+    <t>abc - zz123123z hello further to my previous email please now find attached correspondence from the receiving scheme test pensions i trust this is satisfactory and meets your requirements to proceed with the transfer it would be most appreciated if you could give me an indication of when we can expect the transfer to be paid to def i look forward to hearing from you kind regards test ifa from : test ifa fincorp com sent : 11 november 2020 16 : 36 to : testfund fincorp com cc : test pensions pensions com subject : abc - zz123123z hello please find attached a duly completed transfer discharge form and a letter confirming that the above member has received financial advice in relation to transferring his benefits away from the test pension scheme the receiving scheme warranty form and any other required documents will follow shortly i trust this is satisfactory and look forward to receiving confirmation that the guaranteed cetv which expires on 31 12 2020 is now secured kind regards test ifa</t>
+  </si>
+  <si>
+    <t>re : test pensions death approval - mr abc xyz - tst12345678 hi abc xyz i support the recommendation in respect of mr abc xyz thanks abc xyz from : test pensions pensions com sent : tuesday november 17 2020 5 : 18 : 34 pm to : test pensions cc : abc xyz testmail com subject : test pensions death approval - mr abc xyz - tst12345678 test pension plan - mr abc xyz - death after retirement please find attached the documentation relating to the above late pensioner who died whilst in receipt of his pension the committee are being asked to consider the spouse s pension and the lump sum death benefit of 1000 this case is being referred to the committee as the member has left a nomination form in favour of his ex spouse - mrs abc xyz and a will in favour of current wife - mrs abc xyz it would be our recommendation that the lump sum and pension to be paid to his current spouse as per the recent will please would you agree with this recommendation regards abc xyz senior administrator fin corp ltd 10 test road test street aa12 123 p : + 91 012345678</t>
+  </si>
+  <si>
+    <t>change of address - mrs abc i am writing to advise you that i have recently moved house and my new address is : 2 test road test street ee12 123 i am not sure if you have my last address listed as : 10 test road test street aa12 123 if not then i it will be : 2 test road test street ee12 123 should you need any further information then please contact me on + 91 012345678 kind regards abc</t>
+  </si>
+  <si>
+    <t>test scheme - ref tst12345678 hi team please see below query and reply accordingly many thanks test pensions from : abc xyz testmail com sent : 15 october 2020 16 : 52 to : test pensions pensions com subject : ref tst12345678 hi i am writing with regards to above account my aunt lmno recently passed away a payment was made into joint account i want to return this money i do not have any of the details asked for in the forms i was sent out but i am in the process of trying to get these shall i just leave the relevant sections and sign and post it back to you i have tried ringing the number but havnt had any success trying to speak to an agent in person please advise regards abc</t>
+  </si>
+  <si>
+    <t>abc hello dob : 01 01 1400 ni : zz123123z please find attached an loa for your records we are reviewing a case for the above named client and would appreciate if you could answer a few points please confirm the transfer value of 192 265 50 takes into account the members pension sharing order please provide the last 5 years of discretionary increases in payment please confirm if the fixed addition tranche revalues in deferment or increases in payment if so is this by rpi or cpi any max 5 or 2 5 please provide a full table of commutation factors specifically for age 65 and 60 please provide an early retirement factor for age 60 please confirm in the event of early retirement if the pension revalues to nrd or actual retirement date please provide the value of the members contributions at date of leaving kind regards test ifa t : + 91 012345678 e : test ifa fincorp com</t>
+  </si>
+  <si>
+    <t>pension hello please could you kindly send me a full pension transfer pack and updated cash equivalent transfer value cetv i received a plan in march 2020 but i believe i need an updated one my reference number on the one in march was tst12345678 mrs abc xyz 10 test road test street aa12 123 + 91 012345678 kind regards abc xyz</t>
+  </si>
+  <si>
+    <t>lmn pension fund - def good afternoon could you please provide me with an update on the progress of the transfer pack that was requested from you kind regards abc tel + 91 012345678 from : abc xyz testmail com sent : 12 november 2020 16 : 11 to : test pensions pensions com subject : lmn pension fund - def good afternoon could you please provide me with an update on the progress of the transfer pack that was requested from you kind regards abc tel + 91 012345678 from : test pensions pensions com sent : 28 october 2020 06 : 32 to : abc xyz testmail com subject : lmn pension fund - def dear abc test pension scheme thank you for your email regarding the lmn pension fund i have checked the records and i can confirm that we have issued a correspondence to you on 26th october 2020 stating below : please be advised that the transfer value of the member has been referred to the scheme actuary for review as a result we are unable to provide a transfer value quotation until we have received confirmation to issue as soon as we have this confirmation the transfer value quotation will be sent to you i can confirm i have forwarded your email to our administration department in relation to your other queries and they will be in contact shortly if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com&lt;mailto : test pensions pensions com yours sincerely test from : abc xyz testmail com sent : 20 october 2020 09 : 32 to : test pensions pensions com subject : lmn pension fund - def 20 10 2020 def dear sir madam re : request for information we are acting on behalf of the above client who is considering transferring their benefits from the test pension scheme please find attached a letter of authority to allow you to release information to us on the benefits that our client holds in the scheme please can you provide the following information at your earliest convenience : i require uk transfer documents basic details date of joining scheme date of leaving scheme accrual rate final pensionable salary please provide a cash equivalent transfer value cetv cetv expiry date has the cetv been reduced or enhanced normal retirement date nrd of the scheme does the scheme permit partial transfers if so on what basis were any member s contributions paid if so please specify the amount please provide a copy of the latest scheme booklet or website link breakdown of benefits benefits at date of leaving including a breakdown between pre - 88 gmp post - 88 gmp pre - 97 excess post - 97 excess post - 05 excess and post - 09 excess does gmp franking apply if so on what basis revaluation rate of each of the above tranches in deferment escalation rate of each of the above tranches in payment is a lump sum payable in addition to the scheme pension does the scheme provide a bridging pension or state pension deduction if so provide details does the scheme provide an ill - health pension if so please give details death benefits lump sum death benefits in deferment lump sum death benefits in payment are any member s contributions returned on death before retirement if so is interest added if yes at what rate guarantee period of pension in payment spouse s pension death in deferment spouse s pension death in retirement is the spouse s pension calculation based on the pre - commutation figure is the spouse s pension reduced where there is an age difference if so provide details if there is no legal spouse will the scheme pay the spouse s pension to a partner or dependent is there a children s pension if so provide details pension commencement lump sum does the scheme provide a pension commencement lump sum pcls if pcls is an option what are the commutation factors between age 55 and age 75 scheme funding please provide the latest scheme funding summary early and late retirement what is the earliest age the member can retire what is the earliest age the member can retire with unreduced benefits what are the early retirement factors between age 55 and nrd can the member take late retirement what are the late retirement factors between nrd and 75 where early or late retirement is taken are the benefits revalued to the normal retirement date or the early late retirement date before the factor is applied as our client has already reached normal retirement date under the scheme please also provide the following : immediate retirement quote given the time sensitive nature of the request we would greatly appreciate all requested information be sent via email to test pensions pensions com&lt;mailto : test pensions pensions com we thank you for your assistance with this matter kind regards abc</t>
+  </si>
+  <si>
+    <t>re : test pension scheme dear abc xyz thank you for your response my address is : 10 test road test street aa12 123 sincerely abc xyz on dec 2 2020 at 3 : 20 am &lt; test pensions pensions com &lt; test pensions pensions com wrote : dear mr abc xyz test pension scheme thank you for your email regarding test pension scheme to enable us to answer your enquiry please could you provide your full address for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 - - - - - original message - - - - - from : abc xyz&lt;abc xyz testmail com sent : 28 november 2020 06 : 39 to : test pensions subject : test pensions hello my pension payroll number is 123456 as a dual uk and usa citizen and resident of the usa i am required to report my pension income on my usa tax return i am contacting you to ask whether you will be able to supply a report of pension paid in the calendar year 2020 on an internal revenue service form 1099 - r if you are not able to supply this form i have to submit a substitute 1099 - r with self - reported income and an explanation of any attempts i have made to obtain a 1099 - r from the payer i did receive a p60 form from you for the uk financial year to 5 april 2020 however that form only reported the taxable periodic payments from when i started receiving the pension on 30 jan 2020 until my 3rd payment on 31 mar 2020 it did not include the non - taxable commencement lump sum that i received in january 2020 i am supposed to report that income on my us income tax return and then claim exemption from tax under the usa - uk tax treaty thank you in advance for your assistance with this matter regards abc xyz</t>
+  </si>
+  <si>
+    <t>re : test pension plan hi this is my previous address 10 test road test street aa12 123 this is my new address 10 test road test street aa12 123 thanks abc xyz sent from my iphone on 21 nov 2020 at 04 : 06 test pensions pensions com wrote : dear mr abc xyz test pensions plan thank you for your email regarding the test pensions plan to enable us to update your address please could you provide your previous full address and current full address for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at testscheme fincorp com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 - - - - - original message - - - - - from : test pensions sent : 12 october 2020 22 : 24 to : test pensions subject : pre - identified user support request reply email address : abc xyz testmail com forename : abc surname : xyz ni number : zz123123z dob : 01 jan 1400 home postcode : aa12 123 employer : test pension subject : personal details content : i had asked to change my new address and married status i had been told it s already done but today i had checked it out my personal details it s not been done yet ! would you look into this please thanks abc xyz</t>
+  </si>
+  <si>
+    <t>test pensions plan reference number : tst12345678 test pensions can i have an update on my enquiry please i last emailed you on 4 11 20 i have confirmed that test payroll have forwarded my opt out confirmation again 4 11 20 by email i keep getting the standard reply that my enquiry has been forwarded to customer services and then i don t hear anything this has been an ongoing request that seems to be taking a great deal of time even with the effects of covid test payroll sent my pension opt out confirmation to test test pensions on november 4th 2020 test have completed and submitted all the required forms as required by the test approved and signed by myself i am waiting for test to forward my guaranteed cetv to test can i ask that my request to release the guaranteed cetv is reviewed and expedite the release with some urgency can you give me a notion of the time frame that is required to get the cetv released to test as i have requested regards abc from : test pensions pensions com sent : 06 november 2020 11 : 33 to : abc xyz testmail com subject : test pensions plan dear abc test pension plan thank you for your email regarding the test pension plan i can confirm i have forwarded your email to our administration department and they will be in contact shortly if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 04 november 2020 10 : 59 to : test pensions pensions com subject : test pensions plan test pensions thanks for your help previously relating to my pension choices i am hoping you may be able to help me with a query which is proving frustrating : i elected to opt out of the test defined benefit pension scheme which was actioned in september payroll email chain below i am currently trying to transfer my pension pot test defined benefit pension scheme and as part of this thee company i have chosen to move the pot need the guaranteed cetv i have been irregular contact emails with test test pension company to issue the cetv so i can move my pension pot i m being informed that test are still waiting for my opt out details before they will make me a deferred member do you know who is responsible for sending my opt out details to test and the pension trustees and what i need to do to get the opt out details issued if you could point me in the right direction if this isn t anything you deal with i will be very grateful regards abc from : test pensions pensions com sent : 27 august 2020 10 : 52 to : abc xyz testmail com subject : re : test pensions plan morning your forms and request will be processed for september payroll kind regards test pensions from : abc xyz testmail com sent : 27 august 2020 10 : 49 to : test pensions pensions com subject : test pensions plan please find attached : 1 completed test defined benefit pension scheme request 2 completed test defined contribution pension def enrolment form could you expedite the requests as per the forms attached regards abc</t>
+  </si>
+  <si>
+    <t>test pension questions - resent abc xyz 10 test road test street aa12 123 date birth : 01 01 1400 jlr payroll number : 132456 naonal insurance number : zz 12 31 23 z policy reference number : 12345678 dear test pensions i am intending to retire from work this january 1400 on my 59 birthday and wish to take my test pension from the beginning of march 1400 i have some questions i would like to ask please how long does my pension last for what does my wife get if i die while taking my pension percentage and duration i presume i will pay tax on anything above my personal tax allowance will i pay national insurance on my pension will my pension go up per year or stay at the level i took it at how do i start the process of taking my pension how long do i need to arrange the start of my pension i would welcome the opportunity to discuss this further i am available any time during week commencing 01 01 1400 and look forward to receiving a phone call my mobile is + 91 012345678 or home + 91 012345678 best regards abc xyz</t>
+  </si>
+  <si>
+    <t>fw : information request - letter of authority attached ref : tst12345678 hello team please see below query and reply accordingly to the member ifa many thanks test pensions from : test ifa fincorp com sent : 01 december 2020 08 : 35 to : test pensions pensions com subject : information request - letter of authority attached ref : tst12345678 dear representative of xx please see attached herewith an authorisation letter from with the following personal information : customer personal information : name : abc current address : 10 test road test street aa12 123 date of birth : 01 01 1400 gender : male national insurance number : zz123123z pension type : workplace workplace pension information : employer name : test employer pension provider : xx pension reference number : not known estimated valuation : not known additional information provided : please see information request attachment please note any reference number s or scheme name s listed above are those known to the customer there may however be additional pensions belonging to the customer therefore please ensure you provide information on all of test pensions with xx not just those referenced above with respect to the customer above please provide information on the following : latest transfer valuation current status of the plan : in force paid up or in payment are there any exit charges associated with the specific funds or with the plan overall any guaranteed or non - standard benefits including guaranteed salaries guaranteed annuity rates guaranteed maturity amount guaranteed minimum pension and any other benefits and the conditions attached to them please confirm whether partial transfers are possible from this plan if transfer forms are required to action a transfer out of the scheme please include these in your response test ifa is a company with the following details : company name : test ifa email : test ifa fincorp com address : 10 test road test street aa12 123 telephone : + 91 012345678 please contact test ifa if you require further information sincerely test ifa</t>
+  </si>
+  <si>
+    <t>test group pension scheme address : - 10 test road test street aa12 123 dob 01 01 1400 national insurance no zz123123z regards abc from : test pensions pensions com sent : 09 november 2020 11 : 29 to : abc xyz testmail com subject : test group pension scheme dear abc test group pension scheme thank you for your email regarding the test group pension scheme to enable us to answer your enquiry please could you provide your full address date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 05 november 2020 19 : 27 to : test pensions pensions com subject : test group pension scheme reference tst12345678 i am mailing you regarding my test group defined contribution plan reference tst12345678 i have now received two letters from you regarding a number of phone calls i have made and to be honest neither is of any use to me i have spoken to def on 26th october and xyz on 27th october 2020 both conversations after your latest letter dated 23rd october 2020 in a nutshell i want my investment of 111 paying to me in full under the small pots rule i can t understand why someone who can agree this cannot speak to me on the phone and i have also stated i would like to know what is happening by email rather than the ludicrous situation i have had so far where i ring your number holding on for 45 minutes on the last occasion for someone to answer where i tell them what i want and they pass it on to someone else and i receive a letter several days later with both letters being of no use whatsoever abc my contact number is + 91 012345678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thank you for your email to test pensions pensions com dear test team please be advised that i have changed address my new address is : 10 test road test street aa12 123 dob 01 jan 1400 nat ins number zz123123z would you be so kind as to confirm you have recieved this email and that my address details you have on file will be updated many thanks kind regards abc on tue 17 nov 2020 14 : 48 &lt; test pensions pensions com wrote : thank you for your email to test pensions pensions com your enquiry will be reviewed resulting in a reply from our support team shortly depending upon the nature of your request full resolution may take longer and we will inform you of the next steps in our initial reply we can deal with your request if you have provided your full address date of birth and national insurance number please re - send your original email including this information if it was not included this information ensures that we identify and respond to the correct person in accordance with data protection act regulations if you do not wish to provide this information via email please telephone or write to test including the identification details please note - if you are contacting us on behalf of a member we also require this information in respect of them if you have any enquiries please contact a member of our team on + 91 012345678 between 8 : 30am and 5 : 30pm monday to friday excluding bank holidays all calls are recorded for training and monitoring purposes </t>
+  </si>
+  <si>
+    <t>re : test death approval - lmno tst12345678 test pensions i agree with the recommendation from : test pensions pensions com sent : 05 october 2020 16 : 16 to : testfund fincorp com subject : fw : test death approval - lmno tst12345678 test lmno death in retirement further to our email below we note that we have only received a response from xyz can we please have the additional responses so that we can proceed with the case kind regards test pensions from : test pensions pensions com sent : 03 september 2020 17 : 20 to : testfund fincorp com subject : test death approval - lmno tst12345678 test lmno death in retirement please find attached the documentation relating to the above late member who died whilst in receipt of his pension as the member was a the committee are being asked to consider the lump sum death benefit of 1 500 only this case is being referred to the committee as there is conflict between the nomination form and the will the form is in favour of his nephew mr jkl and the will not signed or dated in favour of his sister mrs abc it would be our recommendation that the lump sum is paid to his nephew in accordance with his nomination form please would you agree with this recommendation kind regards test pensions</t>
+  </si>
+  <si>
+    <t>fw : cetv request mr xyz following my email dated 28th october mr xyz has now left employment and is no longer an active member of the pension scheme please calculate and send his guaranteed transfer value cetv as soon as possible regards test ifa from : test ifa fincorp com sent : 28 october 2020 13 : 45 to : test pensions pensions com subject : cetv request mr xyz importance : high mr xyz 10 test road test street aa12 123 works number : tst12345678 dob : 01 01 1400 ni no : zz123123z i hold authority for mr xyz and request a cetv be sent to me for him as soon as possible thank you test ifa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">re : test pensions fund - abc xyz - zz123123z your ref : tst12345678 importance : high dear sir madam could you please provide an update as to when we might receive the information below please; our client is chasing us on a regular basis we were advised that we would receive the information by the beginning of last week but have yet to receive this when my colleague called on 18th november we were advised that there was no outstanding jobs on your system for this client and therefore i would be grateful if this matter could be dealt with as a matter of extreme urgency i look forward to hearing from you as soon as possible yours faithfully abc xyz from : abc xyz sent : 03 november 2020 10 : 53 to : test pensions pensions com cc : test ifa subject : test pensions fund - abc xyz - zz123123z your ref : tst12345678 importance : high dear sir madam many thanks for your letter of 01 january 1400 providing a cash equivalent transfer value for our above named client however some of the information we requested from you has not been supplied and i would be grateful if you could please provide the following missing information as soon as possible : please confirm our client s final pensionable earnings you have supplied the cetv for our client and also confirmed the post 97 section 9 2b rights within this value could you please also confirm the post 88 gmp amount as well as the pre 97 excess benefits amount too could you please advise if the cetv has been reduced increased due to the funding status of the scheme could you please advise if there is a pension sharing or earmarking order against our client s benefits could you please advise if our client has a protected tax free cash benefits within the scheme or will tax free cash be restricted to 25 could you please advise if our client holds an avc benefits within the scheme and if so could you please supply full details to include fund values charges funds invested in etc could you please advise if there is any money purchase underpin applicable and if so could you please supply full details could you please advise when we might receive the retirement quote requested i look forward to receiving this information from you as soon as possible in the meantime if you require clarification on any of the above points please do not hesitate to contact me on + 91 012345678 yours faithfully abc xyz fin corp ltd </t>
+  </si>
+  <si>
+    <t>fw : test pension plan hello team please see below query and reply accordingly to the member ifa many thanks abc xyz - agent - customer support centre from : abc xyz abc xyz testmail com &lt;mailto : kathandtonybarber btinternet com sent : 21 november 2020 09 : 39 to : test pensions subject : re : test pension plan forget it ! i will just ignore the test pensions letter it ronic that for data protection you are asking for basically all my details i would telephone only thing is you use a chargeable number 1234 and then have customers holding the line listening to some robot telling them you are very busy and you are caller number 54 frustrated abc xyz - - - - - - - - original message - - - - - - - - from : test pensions pensions com date : 21 11 2020 04 : 06 gmt + 00 : 00 to : abc xyz testmail com subject : test pension plan dear abc xyz test pension plan thank you for your email regarding the test pension plan to enable us to answer your enquiry please could you provide your full address for data verification purposes should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely from : abc xyz abc xyz testmail com &lt;mailto : kathandtonybarber btinternet com sent : 18 november 2020 20 : 32 to : test pensions pensions com subject : abc xyz nat ins no zz123123z date of birth 01 01 1400 in october of this year i received a letter informing me that fin corp ltd would be responsible for my pension payments and have since received a payments slip from them today i have received a letter from fin corp giving me access to my account details i am left rather puzzled and a little concerned as to the authenticity of the latter letter as i have had no correspondence informing me of their existence regards abc xyz</t>
+  </si>
+  <si>
+    <t>tst12345678 dear sir madam i am the next of kin to xyz who died earlier this year we received communication from you regarding regarding my deceased father pension and we returned the required form with death certificate some weeks ago i have subsequently received correspondence from you saying you have not had a response from me i have tried to call with no success so would like to know how this can be resolved yours faithfully abc</t>
+  </si>
+  <si>
+    <t>compensation zz123123z dob 01 01 1400 attention abc xyz i refer to your emails dated 1st january 1400 and 1st january 1500 and abc xyz email dated 1st january 1400 all these emails advised me my compensation agreement for 500 pounds had been referred to administration to date i have have had no acknowledgement and no money from your company can you please explain why your company does nothing since august after it was agreed with your manager to compensate me 500 pounds i really do feel this is very bad abc xyz</t>
+  </si>
+  <si>
+    <t>re : test pension fund hi my dob : 01 01 1400 ni : zz123123z regards on 20 nov 2020 at 15 : 10 test pensions pensions com &lt;mailto : test pensions pensions com wrote : dear abc xyz test pension fund thank you for your email regarding the test pension fund please accept our apologies for the delay in responding to you to enable us to answer your enquiry please could you provide your date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at testfund fincorp com yours sincerely abc xyz administrator customer support centre test pensions 10 test road test street aa12 123 direct dial : + 91 012345678 - - - - - original message - - - - - from : abc xyz&lt;abc xyz testmail com sent : 10 november 2020 09 : 39 to : test pensions subject : change of address hi can i change my address please 10 test road test street aa12 123 regards abc xyz 123456 57</t>
+  </si>
+  <si>
     <t>abc xyz your ref : tst12345678 our ref : 12345678 dear sirs we act for mrs abc xyz of 10 test road test street aa12 123 and attach certified copy lasting power of attorney for property and financial affairs if you require any further information please do not hesitate to contact our office yours sincerely abc xyz fin corp ltd 10 test road test street aa12 123 tel : + 91 012345678 fax : + 91 012345678</t>
   </si>
   <si>
+    <t>surname error member ref dep seq no surname inits nino tst12345678 0 xyz abc zz123123z i think the surname on the above name has been accidentally changed to something incorrect surname on valuation data ran in april is def and this matches sharepoint please can someone look into and correct thanks test fund direct dial : + 91 012345678</t>
+  </si>
+  <si>
+    <t>transfer value hi i am trying to obtain the transfer value of my pension and am unable to obtain one online please can you advise as i have recently been made redundant from test motor company and require one to assess my pension options going forward kind regards abc</t>
+  </si>
+  <si>
+    <t>request for information - abc xyz dear sir madam we are acting on behalf of the above client who is considering transferring their benefits from the test pension fund please find attached a letter of authority to allow you to release information to us on the benefits that our client holds in the scheme please can you provide the following information at your earliest convenience : basic details date of joining scheme date of leaving scheme please provide a copy of the cash equivalent transfer value cetv issued on 01 jan 1400 cetv expiry date has the cetv been reduced or enhanced normal retirement date nrd of the scheme does the scheme permit partial transfers please provide a copy of the latest scheme booklet breakdown of benefits benefits at date of leaving including a breakdown between pre - 88 gmp post - 88 gmp pre - 97 excess post - 97 excess post - 05 excess and post - 09 excess does gmp franking apply if so on what basis revaluation rate of each of the above tranches in deferment escalation rate of each of the above tranches in payment is a lump sum payable in addition to the scheme pension does the scheme provide a bridging pension or state pension deduction if so provide details death benefits lump sum death benefits in deferment lump sum death benefits in payment guarantee period spouse s pension death in deferment spouse s pension death in retirement is the spouse s pension reduced where there is an age difference if so provide details if there is no legal spouse will the scheme pay the spouse s pension to a partner or dependent is there a children s pension if so provide details pension commencement lump sum does the scheme provide a pension commencement lump sum pcls if pcls is an option what are the commutation factors between age 55 and age 75 scheme funding what is the most recent scheme funding level please provide the latest scheme funding summary early and late retirement what is the earliest age the member can retire what is the earliest age the member can retire with unreduced benefits what are the early retirement factors between age 55 and nrd can the member take late retirement what are the late retirement factors between nrd and 75 where early or late retirement is taken are the benefits revalued to the normal retirement date or the early late retirement date before the factor is applied if the client is over the age of 55 please also provide the following : immediate retirement quote given the time sensitive nature of the request we would greatly appreciate all requested information be sent via email to abc xyz testmail com &lt;mailto : abc xyz testmail com we thank you for your assistance with this matter kind regards abc xyz administration office address 10 test road test street aa12 123 tel + 91 012345678</t>
+  </si>
+  <si>
+    <t>change of address dear test pension please note that i have moved from : 107 test road test street wa12 123 to : 10 test road test street aa12 123 regards abc + 91 012345678</t>
+  </si>
+  <si>
+    <t>funeral receipt for abc xyz to whom it may concern please find attached the funeral receipt of my father mr abc xyz ref : tst12345678 regards mr abc xyz son sent from my galaxy</t>
+  </si>
+  <si>
+    <t>test pensions scheme hi team please see below query and reply accordingly many thanks abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 from : abc xyz&lt;abc xyz testmail com sent : 09 november 2020 10 : 23 to : test pensions subject : re : test pension scheme hi i have still not received an answer to my query now dating back several months despite your promise to review it and deal with it promptly it is just a small query but i need it answered so i know what my tax position is in regard to the arrears payment please can i ask you to just answer this i have tried ringing the no you gave me but i am unable to speak to anyone and it is becoming so frustrating thank you abc xyz tha on wed oct 7 2020 at 1 : 48 pm &lt; cmpayyor mercer com wrote : dear larry harry parry cmg payyor uk pension scheme thank you for your email regarding the cmg uk pension scheme please accept our sincerest apologies for the delay we will review the current position of your case and ensure that it is dealt with promptly if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : 0000 000 1111 from : abc xyz&lt;abc xyz testmail com sent : 05 october 2020 16 : 00 to : test pensions pensions com subject : re : your letter dated 26 june 2020 hi this is in relation to a query i first made by email on 24 june last correspondence from you was a letter dated 7 september saying you were asking cgi for a response and would get back to me your letters always state that i can contact you by phone but this is not the case as the options i am given by the automated service blocks me from getting through i appreciate that the current circumstances have had an effect and also know that my question is a minor one but it is very frustrating that it is taking more than 3 months to get an answer from you kind regards on fri jul 3 2020 at 8 : 03 am julie parry &lt; larry harry larryharry786 gmail com wrote : re : cmg payyor uk pension scheme the scheme dear helpdesk your letter dated 26 june advised that a gross payment of pension arrears would be paid into my bank account on or around 3 july this amount being 11 176 62 today i received a payment of 7 243 42 so am wondering whether this is a net amount after tax has been taken out i am very happy to receive the arrears and thank you but would appreciate clarification on the amount thank you larry harry</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> warning : message encrypted our reference 12346 message encrypted good afternoon i am writing today with regard to the transfer of the above policy to the test sipp i would be grateful if you could provide us with an update on this transfer; for your convenience i attach a copy of the letter of authority the password will follow separately kind regards abc</t>
+  </si>
+  <si>
+    <t>re : test pension scheme dear abc xyz please see my data below : 10 test road test street aa12 123 dob : 1st january 1400 nin : zz123123z best wishes abc xyz on wed 2 dec 2020 at 11 : 42 &lt; test pensions pensions com wrote : dear abc xyz test pension scheme thank you for your email regarding the test pension scheme to enable us to answer your enquiry please could you provide your full address date of birth and national insurance number for data verification purposes should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely abc xyz administrator customer support centre test pensions 10 test road test street aa12 123 direct dial : + 91 012345678 from : abc xyz&lt;abc xyz testmail com sent : 30 november 2020 18 : 19 to : test pensions subject : short service refund lump sum - tst12345678 good afternoon two months ago i received a letter dated 15 september 2020 confirming that my request to receive short service refund lump sum has been accepted and that the payment will be made into my account in the next payroll run of my former employer it been 2 5 months since the letter was sent to me and i have not received the payment yet and was not contacted in order to inform me about any delay could you please update me on the status of my refund my nin is zz123132z best wishes abc xyz</t>
+  </si>
+  <si>
+    <t>pension dear sir madam i have been trying to contact you by phone for weeks i would like to take a lump sum and a monthly pension many thanks abc xyz sent from my iphone</t>
+  </si>
+  <si>
+    <t>test pensions scheme - abc xyz hi team further to the below email could you please request document over post abc xyz senior associate fin corp ltd 10 test road test street aa12 123 from : test pensions sent : 19 november 2020 09 : 31 to : abc xyz subject : test pensions scheme - abc xyz dear abc xyz test pension scheme thank you for your email regarding the test pension scheme i can confirm i have forwarded your email to our administration department and they will be in contact shortly if you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com &lt;mailto : test pensions pensions com yours sincerely abc xyz administrator customer support centre test pensions 10 test road test street aa12 123 direct dial : + 91 012345678 from : abc xyz &lt;abc xyz testmail com sent : 17 november 2020 08 : 42 to : test pensions subject : test pensions registering court of protection further to your email i can confirm we have received the sealed copy of the court of protection see below the document with the court seal imprinted at the bottom of each page we were issued with only one sealed copy and have been using this to notify all organisations we hope you can use this to amend your records and send any correspondence to 10 test road test street aa12 123 regards abc xyz sent from my ipad</t>
+  </si>
+  <si>
+    <t>changing my home address good afternoon i have a pension with dixons stores group and need to let you know my new address my old address is 00 avilon road meham swiss ss00 0ss my new address is 11 margrate mojito burgman on sea summerset tt0 0tt name stephen stone man date of birth 31st december 1800 old employee number with dixons 000xxx0 please can you let me know that this as been done and arrange for my pension statement to be sent to me i have two pensions with dixons i know one was transferred to mercer ltd which i have notified separately thank you kind regards stone man sent from mail&lt;https : go microsoft com fwlink linkid = 550986 for windows 10</t>
+  </si>
+  <si>
+    <t>re : test pension scheme good evening the info you require is as follows abc xyz 10 test road test street aa12 123 zz123123z regards abc xyz on 17 nov 2020 at 01 : 40 test pensions pensions com &lt;mailto : test pensions pensions com wrote : dear abc xyz test pensions scheme thank you for your email regarding the test pensions scheme to enable us to answer your enquiry please could you provide your full address date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely abc xyz administrator customer support centre test pensions 10 test road test street aa12 123 direct dial : + 91 012345678 - - - - - original message - - - - - from : abc xyz&lt;abc xyz testmail com sent : 12 november 2020 16 : 38 to : test pension subject : pension query good morning a long time ago around 1400 01 i worked for a company who were associated with your pension scheme i do get a booklet from test pension industries from time to time however i am just wondering how i can get access to my own pension account i worked for fin corp machine tool company in bredbury stockport is there any login details i can log into any advice on this would be gratefully appreciated regards abc xyz def tel + 91 012345678</t>
+  </si>
+  <si>
+    <t>re : your transfer value request would it be possible to call me i ve just spent 30 minutes waiting on your contact number + 91 012345678 on 18 nov 2020 at 3 : 30 pm test pensions pensions com&lt;mailto : test pensions pensions com wrote : unfortunately test account was not able to retrieve a transfer value for your test pension scheme at this time due to the complex nature of your pension benefits we are unable to provide a pension quotation via test account self service if you have any questions regarding the document or your test pension just call the test pensions team on + 91 012345678 or email us at test pensions pensions com regards test pensions team + 91 012345678</t>
+  </si>
+  <si>
+    <t>re : member address change zz123123z hi abc i can confirm that this has now been corrected regards test pensions from : testfund fincorp com sent : 19 november 2020 08 : 50 to : test pensions pensions com subject : re : member address change zz123123z good morning please could i escalate this as only half of this address change has been completed - on mr abc s test account it is showing half his old address and half his new address this could be a technical error or something perhaps although mr abc is needing the correct information to be displayed this was initially requested manually by myself on this email trail on 27th october as i believe he may have missed the september cut off for the address feed as he moved in september so that i am able to resolve his query from our end please can this be changed as soon as possible many thanks in advance test fund from : testfund fincorp com sent : 04 november 2020 09 : 37 to : test pensions pensions com subject : fw : member address change zz123123z good morning further to the below request the member has contacted us today to inform only half of his address has been changed and this is therefore still incorrect please can this be looked into and the address changed exactly as the initial request many thanks in advance for your help kind regards test fund from : testfund fincorp com sent : 27 october 2020 11 : 02 to : test pensions pensions com subject : member address change zz123123z good morning mr abc zz123123z moved address in september 2019 although this has not been updated with test please can you change your records to reflect the following address : many thanks in advance for your help kind regards test fund</t>
+  </si>
+  <si>
+    <t>re : test pension plan good morning the reason i wanted to set up the account online is so i can change my address if the letter is being sent to my old address i will not be able to collect it regards abc tel : + 91 012345678 10 test road test street aa12 123 from : test pensions pensions com sent : 13 november 2020 03 : 33 to : abc xyz testmail com subject : test pension plan dear mr abc test pension plan thank you for your email regarding the test pension plan i have requested an activation letter to be issued to you via post this will be issued within 5 working days this will be active for 28 days if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 10 november 2020 16 : 21 to : test pensions pensions com subject : re : test pension plan hi my previous address was : regards abc tel : + 91 012345678 10 test road test street aa12 123 from : test pensions pensions com sent : 10 november 2020 06 : 54 to : abc xyz testmail com subject : test pension plan dear mr abc test pension plan thank you for your email regarding the test pension plan to enable us to update your address please could you provide your previous full address for data verification purposes once your address get updated in our system we will be able to provide the activation link for test also please note that if the member has been drawing on their pension for over 5 years an eow is not applicable in order to update your beneficiaries please update your beneficiaries on benpal arrange for the attached expression of wish to be completed and returned to the address detailed below if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : test pensions pensions com sent : 04 november 2020 21 : 01 to : test account pensions com subject : set up test account hi i have been trying to set up my online test account i wanted to change my address and beneficiary detail as i have recently moved home i work for test my ni is d o b : old postcode new post code if the change has already been made on the account regards abc tel : + 91 012345678 10 test road test street aa12 123</t>
+  </si>
+  <si>
+    <t>change of address good evening is it possible to change my contact address via email kind regards abc xyz</t>
+  </si>
+  <si>
+    <t>pension information hello i am consulting with a financial advisor regarding my pension and they have asked me to acquire the following information : information on pension you would receive at age 55 : 1 on an income basis 2 on a tax free cash and income basis information on pension you would receive at age 65 : 1 on an income basis 2 on a tax free cash and income basis could you also obtain the latest value of the pension plan my details are as follows : mr abc xyz dob 01 01 1400 10 test road test street aa12 123 national insurance number is as follows : zz123123z employee number 123456 cdsid : zz123123z can you email me the requested information if you require further details please contact me kind regards abc xyz sent from my galaxy sent from my galaxy</t>
+  </si>
+  <si>
+    <t>re : test pension scheme - test section dear sirs ref : tst12345678 i have received the required retirement quote and would now like to request the retirement pack to proceed many thanks abc xyz zz123123z from : test pensions pensions com sent : friday 9 october 2020 11 : 25 to : abc xyz testmail com dear miss abc test pension scheme - test section formerly test group thank you for your email regarding the test pension scheme - test section your request has been logged and you will receive a written response from our administration department within 10 - 15 working days should you have any further queries please do not hesitate to contact the customer support centre between 9 00am and 5 00pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely abc from : abc xyz testmail com sent : 07 october 2020 13 : 38 to : test pensions pensions com subject : re : test pension scheme - test section my full address is many thanks abc on 7 oct 2020 7 : 36 am test pensions pensions com&lt;mailto : test pensions pensions com wrote : dear miss abc test pension scheme - test section formerly test group thank you for your email regarding the test pension scheme - test section to enable us to answer your enquiry please could you provide your full address for data verification purposes should you have any further queries please do not hesitate to contact the customer support centre between 9 00am and 5 00pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely abc from : abc xyz testmail com sent : 05 october 2020 09 : 01 to : test pensions pensions com subject : re : retirement quote dear sirs could you please give me an estimated retirement quote for me to retire on 1st january 1400 test pension scheme - test section tst12345678 many thanks abc from : abc xyz testmail com sent : sunday 4 october 2020 10 : 14 to : test pensions pensions com dear sirs could you please give me an estimated retirement quote for me to retire on 1st january 1400 test pension scheme - test section tst12345678 many thanks abc</t>
+  </si>
+  <si>
+    <t>test pension i received a pension options statement from yourselves in august and took your advice and contacted fin corp i have been through the process but it appears to have stalled i have further noted the date of the statement is until 1st january 1400 and will then have to be revaluated it is further noted i have to pay for the services of fin corp could advise if there is a problem your in anticipation abc xyz account number 12345678 dob 01 01 1400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mrs abc xyz tst12345678 as per your letter dated 1st january 1400 please find enclosed scan of letter provided to mrs abc xyz in respect of advice to the transfer of her test pension which includes safeguarded benefits please let me know if you require anything further best regards abc xyz director independent financial adviser pension specialist fin corp limited mobile : + 91 012345678 office : + 91 012345678 email : fin corp testmail com &lt;mailto : fin corp testmail com </t>
+  </si>
+  <si>
+    <t>change of address i would like to notify you of a change of address : mr abc 102 test road test street ea12 123 i have moved to the following address : 10 test road test street aa12 123 d o b 1st january 1400 n h no zz123123z pension ref : tst12345678 many thanks abc</t>
+  </si>
+  <si>
+    <t>change of address dear test pensions re : test pension plan i wish to inform you of my new address royal mail is currently redirecting my mail for a fixed period i could not get through to you on the telephone you can call my mobile but my landline has changed both the home and the work lines please advise - do i email you my new address i am assuming post may not be received or opened in your office if staff are working from home yours sincerely abcd + 91 012345678</t>
+  </si>
+  <si>
+    <t>abc xyz i attach our client s authority please provide : - estimate of benefits at age 60 estimate of benefits at nrd cetv statement in anticipation thank you for your assistance regards test ifa</t>
+  </si>
+  <si>
+    <t>re : ghij paid pension fund good afternoon the below was acknowledged with thanks on thu nov 19 2020 6 : 13 am test pensions pensions com wrote : dear mrs abc ghij paid pension fund thank you for your email regarding the ghij paid pension fund please accept our apologies for the delay in responding to you i have checked the record and i can confirm that we have updated your address and a correspondence was also issued to you on 17th november 2020 stating the same we have informed payroll team to reinstate your pension payment if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 11 november 2020 13 : 57 to : test pensions pensions com subject : re : ghij paid pension fund good afternoon i have been trying to contact your offices by phone but whenever i did today the phone call was disconnected the rep i spoke seemed to have sighed then disconnected the interaction i have been trying to resolve this matter for two months now i have signed your form and returned same to you via express mail i have tried calling to update my address and i have verified myself a 1000 times over in light of the pandemic i rely heavily on my pension and it was unfortunate that same was discontinued without proper notice your agents appear to be very rude to me whenever i call and when the call is dropped no one calls me back i had moved from my previous location and called earlier on to advise you of same i was assured my address was updated kindly provide an update on the receipt of the verification form and more importantly advise me on when payments can continue my nino is dob my address is my contact is + 91 012345678 warm regards abc xyz on fri oct 16 2020 at 4 : 46 am test pensions pensions com&lt;mailto : test pensions pensions com wrote : dear abc ghij paid pension fund thank you for your email regarding the ghij paid pension fund i can confirm that your current address is not updated in our records in order to update your address please arrange for the attached verification form to be completed and returned via post to the address detailed below test post handling centre 10 test road test street aa12 123 once your address is updated we will proceed with your request also please could you provide your date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 14 october 2020 16 : 47 to : test pensions pensions com subject : re : ghij paid pension fund : member number good morning my national insurance number is normally by this time i would received 45 pounds paid out by the 6th of the month and received by the 12th however my local bank has not yet received same kindly confirm if it was sent warmest regards abc xyz</t>
+  </si>
+  <si>
+    <t>ref tst12345678 mr abc xyz deceased please find attached a copy of your letter and the completed bank mandate form as requested i will also post the originals to fin corp aa12 123 kind regards abc xyz daughter and executor of the will</t>
+  </si>
+  <si>
+    <t>tst12345678 lv = classification : confidential good afternoon i have provided advice to mr abc xyz as per the above reference mr dowell would like to start his test pension under the early retirement rules can you please provide a quote with the maximum tax free cash with a start date of 01 01 1400 and a quote with a start date of 01 01 1400 can you also include the forms he needs to sign to start the pension can the quotes and forms be sent to mr abc xyz if however it is quicker to send to us please do this and we will forward to mr abc xyz if you have any questions please get back to me on this email address kind regards</t>
+  </si>
+  <si>
+    <t>re : test trust pension plan hi it is now 15 working days since you sent this email so this is a polite chasing email when can i expect a response regards abc on tue 27 oct 2020 at 12 : 25 &lt;test pensions pensions com wrote : dear abc test trust pension plan thank you for your email regarding the test pension plan your request has been logged and you will receive a written response from our administration department within 10 - 15 working days if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 23 october 2020 17 : 01 to : test pensions pensions com subject : pension forecast dear sir madam ref tst12345678 you were kind enough to send me a forecast on the 01 01 1400 of my pension at the normal retirement date - 01 01 1400 i was wondering whether you could also send me indicative forecasts for different dates of retirement namely : - age 58 - 01 01 1400 age 59 - 01 01 1400 age 61 - 01 01 1400 so that i can examine the costs of taking it early and the potential benefit for delaying it by 1 year also if you felt that the figure indicated in the may letter had changed for the projection for my normal retirement date of 01 01 1400 had altered please update it kind regards abc</t>
+  </si>
+  <si>
+    <t>abc xyz change of address pension reference tst12345678 my new address is 10 test road test street aa12 123 kind regards abc xyz</t>
+  </si>
+  <si>
+    <t>test pensions member homie dear mr ip we write with regards to your telephone request relating to the above named post 97 non lpi element increases in payment at the higher of lpi maximum 5 and statutory increase and in deferment in line with statutory increases up to a maximum of 5 the estimated accrued pension at the 05 04 2016 amounted to 30 209 31 regards eletricity senior pensions administrator leatherhead office postal address : post handling centre u st tower 7 chennai road m00 0aa member line : + 44 0 1000 100000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">re : thank you for your email to test pensions pensions com hello i was hoping you would be able to give me a little help regarding a pension which i previously had prior to starting test i have 7 years of pension with travel def and was hoping i would be able to transfer it into my current pension if this is possible how do i arrange it abc xyz 10 test road test street aa12 123 dob : 01 01 1400 ni : zz123123z payroll number : tst12345678 regards abc from : test pensions pensions com&lt;mailto : test pensions pensions com sent : 09 november 2020 13 : 27 to : abc xyz testmail com subject : thank you for your email to test pensions pensions com thank you for your email to test pensions pensions com&lt;mailto : test pensions pensions com depending upon the nature of your request we will issue a full written response to your home address or respond directly to this email address we can deal with your request if you have provided your full address date of birth and national insurance number payroll reference number please re - send your original email including this information if this was not included this information ensures that we identify and respond to the correct person in accordance with data protection act regulations if you do not wish to provide this information via email please telephone or write to test including the identification details please note - if you are contacting us on behalf of a member we also require this information in respect of them if you have any queries please contact a member of our team on + 91 012345678between 8 : 30am and 5 : 30pm monday to friday excluding bank holidays all calls are recorded for training and monitoring purposes </t>
+  </si>
+  <si>
+    <t>urgent : lmn - test avc abcd our ref : tst12345678 urgent urgent urgent please can someone give us an urgent update on the attached loa and information request the client is looking for an update so would appreciate a current timescale just so as we can manage the client expectations many thanks please quote our client case number on all your replies tst12345678 test admin from : test admin pensions com sent : 06 november 2020 18 : 02 to : test pensions pensions com&lt;mailto : test pensions pensions com subject : urgent : lmn - test avc abcd our ref : tst12345678 please quote our client case number tst12345678on all your replies hi please find attached pension information projections letter together with our client s signed letter of authority loa please provide us with the requested information as soon as possible by secure email if possible transfer discharge requirements : please enclose your discharge transfer encashment form please confirm what form of id is required from our mutual client please confirm if your funds can be paid directly to xyz management for the client s benefit please confirm if the discharge encashment transfer of this plan is supported under the test options pension transfer service please email : test admin pensions com tel : + 91 012345678 regards test admin</t>
+  </si>
+  <si>
+    <t>urgent cetv guarantee date ending - def importance : high good morning please find attached a letter of authority and request for information for our client def - zz123123z the password to access the document is the clients dob in the format xx xx xxxx please send us a copy of the most recent cetv and transfer out paperwork asap the guarantee end date is december and the client is considering transferring out the clients postcode is aa12 123 if you have any queries do not hesitate to contact me kind regards abc</t>
+  </si>
+  <si>
+    <t>mr stu vwx good day i have spoken with one of your advisers today but i need some clarification please my father mr stu vwx ni no zz123123z ref tst12345678 currently as my father died and had received his pension in advance the estate owes 1 111 11 which i understand i am happy to have the money is paid out from what was his joint account with my mother she will be keeping the account to receive payments from yourselves could she then receive her payments i was also told that before any payments could be made to her a copy of the probate must be supplied but i see no reason for this as pensions fall outside the scope of probate we are in the process of applying for probate which will probably happen end of january can you confirm we can pay the amount owing and confirm that a copy of the probate is not required to release payments to my mother def if you have any questions please feel free to let me know thank you in advance kind regards abc + 91 012345678</t>
+  </si>
+  <si>
+    <t>change of address abc - xyz trying to contact you regarding change of address and finding out the value of my pension my name is abc - xyz you will have me down at my previous address down as 20 test road test street ae12 123 my new address is 10 test road test street aa12 123 my date of birth is 01 01 1400 and my number is + 91 012345678 many thanks and hope to hear from you soon abc xyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> warning : message encrypted abc xyz loa message encrypted hi team please see below query and reply accordingly thank you def - agent - customer support centre 10 test road test street aa12 123 + 91 012345678 from : test ifa fincorp com sent : 09 november 2020 10 : 29 to : test pensions pensions com subject : warning : message encrypted abc xyz loa message encrypted dear test pensions please find enclosed a letter of authority from the above client appointing def management ltd to receive policy information the password will follow under separate cover please provide your standard transfer out pack including cash equivalent transfer value and full scheme information please ensure this includes all the information we will require to understand and project the member s benefits and advise the member on all the options available as a guide the information you provide should cover all the items identified as required by the pensions administration standards association in their agreed pasa templates below : scheme information template&lt;https : www pasa - uk com wp - content uploads 2019 10 scheme - template - final pdf member information template&lt;https : www pasa - uk com wp - content uploads 2019 10 transfer - template - member - info - final pdf where the member is eligible to take benefits please provide an immediate retirement quote very important information required : - please confirm the accrual tranches within the pension and their subsequent revaluation and escalation rates what are the clients options with respect to late retirement what are the commutation factors from normal retirement age onwards what are the late retirement factors from nra onwards does the client have any gmp in addition please provide me with the following information relating to policies at your earliest convenience : 1 policy type 2 commencement date 3 contribution history since inception 4 inclusion of waiver of premium 5 plan status 6 current value and breakdown of value between funds 7 current fund s choice please quote mex sedol isin number for each fund attaching to the plan 8 if the policy can offer adviser charging 9 if the policy can offer ufpls 10 if the policy can offer flexible access drawdown 11 pension input periods on the policy 12 if with profits funds please enclose full details including the current asset allocation of the fund and the last 5 years bonus declaration history 13 details of other funds available to invest in and relevant codes 14 transfer value please advise any transfer penalties applicable and reason for any penalty 15 any former protected rights funds 16 pension commencement lump sum amount 17 any guarantees associated to the plan eg guaranteed annuity rates bonus rates guaranteed fund at scheme retirement date srd etc 18 if with profits - please confirm if any with profits spot guarantees apply and when 19 scheme retirement date srd of the plan 20 illustration of projected value at srd age xx 21 a paid up illustration at srd age xx if regular premiums are still being paid please supply a quote to srd age xx assuming the premiums continue 22 the death benefits should the member die before srd and any nominated beneficiaries 23 charges allocation rates on the plan 24 any protected tax free cash at a day if yes please send paperwork to quantify this also please confirm fund value at a day and tax free cash at a day 25 premium and sum assured of any associated pension term assurance value as at a - day 26 is there a pension sharing order or attachment to the benefits if plan is a sipp with a capped drawdown arrangement : - 27 maximum income available 28 review date s 29 any remaining pcls entitlement 30 income currently being taken 31 fee schedule relating to sipp if member has taken benefits : - 32 please confirm the value of the crystallised and uncrystallised portions 33 please also confirm the percentage of the lifetime allowance that has been crystallised within this scheme please send any necessary transfer out paper work and id requirements to be completed i look forward to hearing from you however if you have any queries please let me know as soon as possible yours faithfully test ifa</t>
+  </si>
+  <si>
+    <t>tst12345678 abc xyz reference tst12345678 abc xyz hi could you please change my address from 30 test road test street au12 123 to 10 test road test street aa12 123 kind regards abc</t>
+  </si>
+  <si>
+    <t>fin corp anomaly - early retirement figures address : 10 test road test street aa12 123 date of birth : 18 01 1800 national insurance number : aa000000a payroll reference number : 000000 i have today generated early retirement quotes from benpal that i would like to have explained please as there appears to be an anomaly that i do not understand a quote for early retirement date of 02 04 18 showed : max pension zero lump sum : 27 343 min pension max lump sum : 19 367 129 115 whereas a quote for early retirement date of 06 04 19 showed : max pension zero lump sum : 27 217 min pension max lump sum : 19 277 128 519 clearly i find a slightly later retirement date returning lower figures to be anomalous and requiring explanation this is particularly important to me at this time as i anticipate retiring and taking my pension around these dates and am trying to determine what will be optimal for me regards abc xyz event manager fin corp 10 test road test street aa12 123 mobile : + 91 012345678</t>
+  </si>
+  <si>
+    <t>re : abc - tst12345678 termination : please ignore previous email importance : high team please ignore previous email as below employee will be leaving on 18 - 12 - 20 as previously requested test fund from : testfund fincorp com sent : 19 november 2020 11 : 56 to : test pensions pensions com subject : abc - tst12345678 termination hi abc xyz fin : tst12345678 has signed to leave the business on the 18th december 2020 the documentation was sent two weeks ago he will now be leaving on 4th december due to a change in personal circumstances can you please let me know if there is anything i need to amend kind regards test fund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">re : test pension fund - abc xyz respected abc xyz administrator customer support centre thank you for your response regrading fpf and condolences for our loss the requisite detail is as under : - abc xyz nephew 01 01 1400 1st january 1400 01 01 1400 1st january 1400 1st january 1400 yes death was registered and death certificate got yes the widow in old age 1st january 1400 the contact number of widow is + + 91 012345678 but due to old age she is unable to talk you may contact me over my cell no + + 91 012345678 looking forward your kind response yours truly abc cell no + 91 012345678 official email : abc xyz testmail com &lt;mailto : atiq rehman nbp com pk from : test pensions &lt;test pensions pensions com sent : friday november 20 2020 3 : 32 am to : abc xyz subject : test pension fund - abc xyz dear abc xyz test pension fund thank you for your email regarding the ford pension fund please accept our apologies for the delay in responding to you please accept my sincerest condolences for your loss in order to assist us could you please provide us with the following details : members name : emailer s relation to member : date of birth : date of death : member s address at date of death : has the death been registered and death certificate issued : did the member have any financial dependents address for condolence : contact number : if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely abc xyz administrator customer support centre test pensions 10 test road test street aa12 123 direct dial : + 91 012345678 test pensions pensions com &lt;mailto : test pensions pensions com from : abc xyz&lt;abc xyz testmail com sent : 11 november 2020 06 : 38 to : test pensions subject : fw : intimation of death and request for procedure to get payment of funds to widow mrs abc xyz the correct official email is abc xyz testmail com &lt;mailto : atiq rehman nbp com pk thanks - - - - - forwarded message - - - - - from : abc xyz to : abc xyz testmail com sent : tuesday 10 november 2020 10 : 32 : 27 pm gmt - 8 subject : intimation of death and request for procedure to get payment of funds to widow mrs abc xyz dear team first i introduce my self my name is abc xyz and working in the fin corp as assistant vice president i am engaged in delivering training to our human capital my uncle mr abc xyz died on jan 1 2020 at home and buried in rawalpindi his particulars are as under : - 1 test pensions fund reference : tst12345678 the captioned provided information has been obtained from a letter dated 7th february 2020 duly signed by mr abc xyz senior manager - payroll my uncle was also getting a uk state pension outside the uk under reference no kindly requested to guide us to proceed further in the matter for smooth payment to widow from all related institutions including fin corp aa12 123 the particulars of the widow who is also still getting her own uk state pension outside the uk under reference no the widow in old age and she is residing with her daughter at the following new change mailing address; - 10 test road test street aa12 123 you are kindly requested to please guide us on the matter for the fixation of pension and end service benefits thanks regards yours truly abc xyz cell no + 91 012345678 official email : abc xyz testmail com &lt;mailto : abc xyz testmail com </t>
+  </si>
+  <si>
+    <t>re : test death approval - abcd tst12345678 i agree with the recommendation with regards mr abcd from : test pensions pensions com sent : 29 october 2020 17 : 03 to : testfund fincorp com subject : test death approval - abcd tst12345678 test pension plan abcd death in retirement please find attached the documentation relating to the above late member who died whilst in receipt of his pension as the member is a widower the committee are being asked to consider the lump sum death benefit of 1 500 only this case is being referred to the committee as the nomination form was in the name of the deceased spouse and therefore no longer valid the member was survived by his son and a daughter and it would be our recommendation to pay the lump sum equally to both the son and the daughter please would you agree with this recommendation kind regards test pensions</t>
+  </si>
+  <si>
+    <t>re : test pension fund - mr abc xyz hi abc xyz further to the emails below we still haven t received a reply to our queries : does the member have any avcs and if so can they be used to pay the tax free cash without commuting the pension does the scheme allow partial transfers can you provide a copy of the schemes most recent funding statement funding position are there any pension sharing orders against this pension please can you provide a response to these questions as we need this information to complete our review of the pension as per the members request kind regards abc xyz from : test pensions pensions com &lt;mailto : test pensions pensions com sent : 17 november 2020 10 : 37 to : abc xyz subject : test pension fund - mr abc xyz dear abc xyz test pension fund thank you for your email regarding test pension fund please accept our sincerest apologies for the delay we will review the current position of your case and ensure that it is dealt with promptly if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at testfund fincorp com &lt;mailto : testfund fincorp com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 testfund fincorp com &lt;mailto : testfund fincorp com www fincorp com &lt;http : www fincorp com from : abc xyz &lt;abc xyz testmail com sent : monday november 23 2020 2 : 36 pm to : test pensions &lt;test pensions pensions com cc : test ifa &lt;test ifa fincorp com subject : re : test pension fund - mr abc xyz hi abc xyz further to the email below we have not received a response yet please can you provide an update kindest regards abc xyz from : test pensions pensions com &lt;mailto : test pensions pensions com sent : 17 november 2020 10 : 37 to : abc xyz subject : test pension fund - mr abc xyz dear abc xyz test pension fund thank you for your email regarding the test pension fund i can confirm that our administration department is working on your query you will receive the response shortly if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at testfund fincorp com &lt;mailto : testfund fincorp com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 testfund fincorp com &lt;mailto : testfund fincorp com www fincorp com &lt;http : www fincorp com from : abc xyz &lt;abc xyz testmail com sent : monday november 23 2020 2 : 36 pm to : test pensions &lt;test pensions pensions com cc : test ifa &lt;test ifa fincorp com subject : re : test pension fund - mr abc xyz hi re : mr abc xyz test pension fund tst12345678 zz123123z we have received the cetv and immediate retirement option statement for the above member please could you provide the following bits of information to allow us to complete our review : does the member have any avcs and if so can the be used to pay the tax free cash without commuting the pension does the scheme allow partial transfers can you provide a copy of the schemes most recent funding statement funding position are there any pension sharing orders against this pension kind regards abc xyz senior paraplanner</t>
+  </si>
+  <si>
+    <t>re : test pension fund hi thanks for the response my details are as follows; address : 10 test road test street aa12 123 dob : 01 01 1400 ni no : zz123123z kind regards abc - - - - - - - - original message - - - - - - - - from : test pensions pensions com date : 16 11 2020 11 : 19 gmt + 00 : 00 to : abc xyz testmail com subject : test pension fund dear abc test pension fund thank you for your email regarding the test pension fund please accept our sincerest apologies for the delay in responding to you to enable us to answer your enquiry please could you provide your full address date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 09 november 2020 17 : 55 to : test pensions pensions com subject : transfer value hi i am trying to obtain the transfer value of my pension and am unable to obtain one online please can you advise as i have recently been made redundant from test motor company and require one to assess my pension options going forward kind regards abc</t>
+  </si>
+  <si>
+    <t>re : warning : message encrypted test pension scheme message encrypted hello thank you for your email; regarding the password protection; you will have realised we live in australia; so phoning a tel number is not an option : you are not making this easy at all please provide email link or other option plus and much more importantly; i forwarded original documentation to you; you have not acknowledged receipt or that you have forwarded the death cert our marriage cert or my birth cert back to me; please organise this if not already in transit as i have not heard back and i did ask that someone let me know the documents arrived there safely and when they would be returned to me i require these documents to finalise abc s tax return here in australia i look forward to hearing from you at your earliest convenience thank you abc - - - - - original message - - - - - from : test pensions pensions com to : abc xyz testmail com sent : fri 20 nov 2020 12 : 16 subject : warning : message encrypted test pension scheme message encrypted our reference : tst12345678 member : mr abc xyz dear mrs abc xyz i write with reference to the above late member s benefits from the scheme please find attached a death pack this document has been password protected for security reasons please contact us on the number below to obtain the password required to access this document should you have any further queries please do not hesitate to contact the test pensions scheme customer service team between 9 00am and 5 00pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com kind regards test pensions test pensions 10 test road test street aa12 123 direct dial : + 91 012345678</t>
+  </si>
+  <si>
+    <t>abc test pensions tst12345678 urgent hi please can you provide an update on the progress of this information request and an estimated date we can expect a response with the information many thanks in advance please quote our client case number on all your replies tst12345678 regards test ifa from : test ifa fincorp com sent : 10 november 2020 12 : 05 to : test pensions pensions com&lt;mailto : test pensions pensions com subject : abc test pensions tst12345678 urgent urgent urgent urgent please can someone give us an urgent update on the attached loa and information request the client is looking for an update so would appreciate a current timescale just so as we can manage the client expectations many thanks please quote our client case number on all your replies tst12345678 test ifa from : test ifa fincorp com sent : 06 november 2020 18 : 02 to : test pensions pensions com&lt;mailto : test pensions pensions com testfund fincorp com&lt;mailto : testfund fincorp com subject : abc test pensions tst12345678 urgent please quote our client case number tst12345678 on all your replies hi please find attached pension information projections letter together with our client s signed letter of authority loa please provide us with the requested information as soon as possible by secure email if possible transfer discharge requirements : please enclose your discharge transfer encashment form please confirm what form of id is required from our mutual client please confirm if your funds can be paid directly to st james s place wealth management for the client s benefit please confirm if the discharge encashment transfer of this plan is supported under the origo options pension transfer service please email : tst12345678 tel : + 91 012345678 regards test ifa</t>
+  </si>
+  <si>
+    <t>change of details good morning i would like to notify of my change of name and address previous abc xyz of 0 test road test street aa12 123 now xyz abc 11 test road jaiden street aa12 124 regards abc xyz sent from my ipad</t>
+  </si>
+  <si>
+    <t>re : pension triggered but no payment on wed 2 dec 2020 at 09 : 55 abc xyz&lt;abc xyz testmail com wrote : dear sir madam i duly completed the required pension application form and submitted it within the specified time frame earlier this year i know that it was received as i made a later enquiry regarding lifetime allowance prior to the switch from fin corp ltd to test pensions unfortunately i have not received any pension payments nor the lump sum or any feedback i recently reached my sixtieth year the trigger point i opted for please would you investigate as to what went wrong yours faithfully abc xyz dob : 01 01 1400 ni : zz123123z 10 test road test street aa12 123</t>
+  </si>
+  <si>
+    <t>urgent cetv guarantee date ending - abcd importance : high good morning please find attached a letter of authority and request for information for our client abcd - zz123123z the password to access the document is the clients dob in the format xx xx xxxx please send us a copy of the most recent cetv and transfer out paperwork asap the guarantee end date is december and the client is considering transferring out the clients postcode is aa12 123 if you have any queries do not hesitate to contact me kind regards test ifa</t>
+  </si>
+  <si>
+    <t>test transfer - abc hi test pensions thanks for this i have received this now we had already sent all the old signed documents in from the previous transfer value documents we had as the value expired just before transfer we had to request a new value can you please confirm what the client needs to sign now as we have already sent everything in before is it only the new signed cetv document that needs to be signed from the member please let me know thanks test ifa from : test pensions pensions com&lt;mailto : test pensions pensions com date : thursday 19 november 2020 at 00 : 18 to : test ifa fincorp com&lt;mailto : test ifa fincorp com subject : test transfer - abc dear test ifa please find below the original email with attachments apologies that you did not receive this initially it appears the email address was incomplete please do not hesitate to contact us should you have any queries kind regards test pensions from : test pensions pensions com sent : 18 november 2020 14 : 12 to : test ifa fincorp com subject : test transfer - abc good afternoon please find attached the transfer pack for mr abc the documents are password protected using the members national insurance number kind regards test pensions</t>
+  </si>
+  <si>
+    <t>re : test pension fund - our ref : tst12345678 good morning thank you for your email please find attached the client s letter of authority with the requested information the document is password protected password to follow in separate email if you have any queries please don t hesitate to contact us many thanks test ifa from : test pensions pensions com sent : 02 november 2020 10 : 03 to : test ifa fincorp com subject : ford pension fund dear test ifa test pension fund thank you for your email regarding the test pension fund to enable us to answer your enquiry please could you provide the member full address date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely tets pensions from : test ifa fincorp com sent : 23 october 2020 16 : 11 to : test pensions pensions com subject : tst12345678 0123456789 good afternoon please can you provide an update on our mutual clients pension transfer many thanks test ifa</t>
+  </si>
+  <si>
+    <t>change of address please could you send me a form for change of address my current address is mrs abc 10 test road test street aa12 123 my old address is 09 test road test street ee12 123 regards abc</t>
+  </si>
+  <si>
+    <t>re : change of address - abcd hi test fund the members address has been updated thank you test pensions from : testfund fincorp com sent : 13 october 2020 18 : 14 to : test pensions pensions com subject : change of address - abcd nino - zz123123z dob - 01 01 1400 new address : 10 test road test street aa12 123 tel : + 91 012345678 email abc xyz testmail com could you please update your records with the members new address and contact details could you also previde him with his pension options see attached request kind regards test fund</t>
+  </si>
+  <si>
+    <t>change of bank account dear sir madam could you please advise me the process for having a test pension payed into a different bank account my father is a test pensioner and has opened a new bank account and would like his pension payed into it thanks in advance abc</t>
+  </si>
+  <si>
+    <t>re : estate of - test pension ref : tst12345678 tees : 00123456789000 dear test pensions thank you for your email however i am confused test s letter of 28th september has been received and my letter sent by email on 5th october acknowledged this my letter of 5th october 2020 also provided the bank account details for mr lmno spouse of the deceased as requested in the letter from test please confirm that the funeral benefit is now being processed and will be sent to mr lmno shortly please also let me have details of your complaints procedure as this is now completely unacceptable i look forward to hearing from you yours sincerely test ifa from : test pensions pensions com sent : 08 october 2020 07 : 10 to : test ifa fincorp com subject : estate of - test pension ref : tst12345678 tees : 00123456789000 dear test ifa test pension fund thank you for your email regarding the test pension fund i have checked our records and can confirm that the correspondence was issued to you on 28 september 2020 however i have attached correspondence for your reference if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com&lt;mailto : test pensions pensions com yours sincerely test pensions from : test ifa fincorp com sent : 05 october 2020 22 : 23 to : test pensions pensions com subject : estate of - test pension ref : tst12345678 tees : 00123456789000 importance : high dear sirs please find attached our letter to you of today s date we look forward to receiving confirmation of the payment to mr lmno shortly yours faithfully test ifa</t>
+  </si>
+  <si>
+    <t>change of bank third request with additional information included dear sirs booker pension scheme reference 10000000 you are currently paying my pension into my account no 10000000 with nationalwide i intend to close this account so wish you to make future payments into my account with the holifax my account details with them are : name n addidas sort code 100000 account no 00000001 my address is 10 nashley lawn grandure avenue homee b00 0bb national insurance no zz000000a date of birth 30 10 1800 please confirm you are actioning this request thank you nike addidas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">re : fw : test pensions scheme hi you said someone would be intouch with me but no one has i have gave all information needed to get my pension paid out in full and yet nothing get someone to deal with this asap thanks abc from : test pensions pensions com sent : wednesday november 11 2020 3 : 05 : 16 am to : abc xyz testmail com subject : test pensions scheme dear mrs abc xyz test pensions formerly test pension fund thank you for your email regarding the test pensions i have checked our records and can confirm that the correspondence was issued to you on 1st january 1400 in relation to your query please note that you will receive it shortly should you have any further queries please do not hesitate to contact the customer support centre between 9 00am and 5 00pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 from : abc xyz abc xyz testmail com sent : 06 november 2020 23 : 16 to : test pensions subject : re : test pensions scheme i am just letting you know that now one has contacted me yet thanks abc xyz on 13 oct 2020 16 : 19 test pensions pensions com wrote : dear mrs abc xyz test pensions formerly test pension fund thank you for your email regarding the test pensions scheme i can confirm i have forwarded your email to our administration department and they will be in contact shortly should you have any further queries please do not hesitate to contact the customer support centre between 9 00am and 5 00pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely abc xyz administrator customer support centre test pensions 10 test road test street aa12 123 direct dial : + 91 012345678 from : abc xyz abc xyz testmail com sent : 09 october 2020 09 : 30 to : test pensions subject : my pension hi iam writing about my pension tst12345678 i wish to take my full pension out i need it to buy my house i have taken legal advice and i can do this i have spoken to a few other people too i need this as soon as possible i have tried contacting you by phone and apparently my call is not important but it is to me i do not want to lose the house i want abc xyz national insurance number zz123123z thank you abc xyz </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fwd : rbc retirement option form my national insurance number and address are in the attached forms so i have assumed i don t also have to include this in the body of the email please find attached my retirement forms to take retirement in my 60th birthday 01 01 1400 please confirm that my pension is not discounted as i have grandfathered rights i do not wish to take all my tax free cash for the test plan i have indicated the reduced amount on my form please confirm you have picked this up please can you let me know what my amended annual pension will be also please can you confirm when my first pension payment will be made and which date in the month this will be also please can you confirm when i will receive the cash lump sum i will also post the originals many thanks for your help sent from my iphone begin forwarded message : from : abc xyz date : 22 november 2020 at 19 : 35 : 54 gmt to : test pensions subject : rbc retirement option form </t>
+  </si>
+  <si>
+    <t>fw : letter of authority - abc good morning as this member has now opted out we would like to request a transfer pack asap please do let me know if there are issues asap regards test pensions from : test ifa fincorp com date : wednesday 15 april 2020 at 09 : 52 to : test pensions pensions com subject : letter of authority - abc dear sir or madam can you please provide me with the following information about the above policy please find attached a letter of authority from the client to enable you to release this information this can be emailed to test ifa fincorp com therefore please kindly provide me with the following information in writing; dates salary general information date of joining and leaving the scheme member s final pensionable salary is there a pension sharing order or pension earmarking order connected to this plan please provide the details of any cap which may apply for high earners marital status of this member the commutation factor used for an lta tax charge scheme accrual rate pension benefits at date of leaving scheme gmp benefits; showing any pre post 88 splits the rates of revaluation in deferment and escalation in payment excess benefits; showing any pre post 85 or 97 splits the rates of revaluation in deferment and escalation in payment list of any discretionary increases applied to pension either in deferment payment during last 5yrs breakdown of any transferred - in benefits; are the benefits treated the same as the main scheme benefits if not please highlight any differences is there a fixed pension at nra of service credit if no gmp contained does the member have any avcs if so how what is the current value do they have to be transferred with the main scheme benefits what funds are they invested in can the member switch into different funds where a scheme is still active is there an avc scheme available if so please provide details of the provider fund choices and charges current value of any avc the member holds can the member purchase added years can the member transfer in from external pensions can the avc scheme be used to fund tfc at retirement accrual rate commutation factor for tfc scheme retirement age early retirement is early retirement allowed if so from which age what actuarial reduction factors are currently applied to members pensions in the event of early retirement if a table of factors is not available please provide the percentage reduction applicable for each year early and whether this is compound or simple reduction would the member benefits be revalued to the date of actual or normal retirement upon early retirement if revalued to normal retirement at what assumed rate are benefits projected to normal retirement benefit payable now on a full pension basis and maximum pension commencement lump sum with reduced pension basis tax free cash member tfc at date of leaving would this amount revalue if so at what rate does the scheme pay hmrc post a - day maximum cash amount of pre a - day ir maximum cash at 5 4 2006 if protected what are the scheme current tfc commutation factors from nra to age 55 can the tfc be paid from any attached avc death benefits does the scheme pay a death before retirement lump sum if so what and how much what pension would the member spouse receive upon death before and after retirement what death after retirement guarantee does the scheme apply definition of pension payable on death spouse or dependent late retirement please provide late retirement factors which are applicable if the member should choose to retire beyond the scheme nra contracting out was the scheme contracted out pre post 06 04 1997 if yes for post 97 on what basis; reference scheme protected rights underpin mixed benefit transfer value total transfer value cetv ; showing any splits of gmp protected rights pre post 06 04 1997 calculation and guarantee dates also amount of member contributions included in the tv scheme information scheme s normal retirement age is the scheme open to all employees or are there restrictions if so what are they what is the scheme s current funding position would deferred members benefits be affected in any way if so how is the scheme a member of the transfer club will the scheme allow a partial transfer of benefits if yes please outline any restrictions that would be applied and or provide details of the basis on which a partial transfer would be allowed if no please confirm if there is more than one type section version of scheme membership which one applies to the member what date was the scheme equalised and the earliest age benefits can be taken unreduced if the transfer were to proceed would the scheme be insistent that all forms must be returned within the guarantee period or could some discretion be used at that time please forward copies of any warranty discharge forms that would need to be completed if the client decided to transfer their benefits thank you for your assistance in this matter yours faithfully def</t>
+  </si>
+  <si>
+    <t>telephone conversation hi as per telephone conversation on the 20 nov 2020 i attach my passport driving license and letter from solicitor ref to i need my name on all correspondence to be changed to abc xyz and not def on there as all my id and bank accounts are in abc my national insurance number is zz123123z please can you confirm this is done thanks abc xyz + 91 012345678 sent from my galaxy</t>
+  </si>
+  <si>
+    <t>fw : ref : - tst12345678 full name - mrs abc xyz d o b 01 01 1400 n i number : - zz123123z please see my email below sent from my iphone begin forwarded message : from : abc xyz date : 21 november 2020 at 11 : 01 : 43 gmt to : test pensions pensions com subject : ref : - tst12345678 hello i would just like to make an enquiry request about my pension please as the pension is quite minimal would it be possible to simply withdraw all the funds and close it down please advise me accordingly regards mrs abc xyz sent from my iphone</t>
+  </si>
+  <si>
+    <t>test pension fund - late mr def dear test pensions we have not yet received any letter regarding the test pension scheme please can you let me know when this will be sent out and if it has the date in which it was sent kind regards abc from : abc xyz testmail com sent : 24 september 2020 14 : 11 to : test pensions pensions com subject : test pension fund - late mr def dear test pensions thank you for your email please send any correspondence to the following address : abc test cos 10 test road test street aa12 123 if you have any further queries please let me know kind regards abc from : test pensions pensions com sent : 24 september 2020 12 : 48 to : abc xyz testmail com subject : test pension fund - late mr def dear abc test pension fund thank you for your email regarding the test pension fund please confirm your office address to which we should send the correspondence if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 21 september 2020 14 : 54 to : test pensions pensions com subject : test pension fund - late mr def dear test pensions thank you for your email we have been in touch with the deceased s family and they have been able to locate an old piece of correspondence for the test pension please find this attached along with his death certificate both have been password protected with his date of birth in the format ddmmyyyy and i will email a note of this to you immediately after sending this email please note that the family have highlighted that the date of birth shown on your attached correspondence for the deceased is incorrect his correct date of birth is shown on his death certificate once you have located the deceased s pension details please advise of any payments due to his estate from the pension scheme including any benefits and cash lump sums due to any beneficiaries or dependents together with the next steps necessary to process any such claims i look forward to hearing back from you shortly but if you have any queries please let me know my direct line is + 91 012345678 kind regards abc from : test pensions pensions com sent : 02 september 2020 10 : 47 to : abc xyz testmail com subject : test pension fund - late mr def dear abc test pension fund thank you for your email regarding the test pension fund unfortunately i can confirm we are unable to locate a record of benefits within the above scheme using the details you have provided in addition could you please supply any additional reference numbers or the name of anyone you have received correspondence from within test in the past if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com&lt;mailto : test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 01 september 2020 14 : 32 to : test pensions pensions com subject : death of test pension member dear sir madam mr adefbc date of death 01 january 1400 nino we have been appointed by the executors of the above named deceased in relation to the administration of his estate and write to notify you of his death as he was in receipt of a pension from the test pension scheme as a former employee please advise of any payments due to the estate from the scheme including any benefits and cash lump sums due to any beneficiaries or dependents together with the next steps necessary to process any such claims we look forward to hearing back from you in due course kind regards abc</t>
+  </si>
+  <si>
+    <t>fwd : early quotation get outlook for android from : abc xyz sent : tuesday august 27 2019 10 : 55 : 53 am to : test ifa fincorp com subject : early quotation please can you send me some early retirement quotation forms ref tst12345678 national insurance number zz123123z get outlook for android</t>
+  </si>
+  <si>
+    <t>1023456789 mr xyz confidential ref : 1023456789 mr xyz test pensions dear sir madam we ve received a transfer out request for the above member i ve attached a trustee declaration and a copy of the transfer request if you are happy for us to process this case please can you complete the form and return it to us if you need anything further please do not hesitate to contact us kind regards abc xyz test pension cid : image001 png 01d445ce e116bbd0 10 test road test street aa12 123 abcd com</t>
+  </si>
+  <si>
+    <t>tst12345678 hi team please see below query and reply accordingly many thanks test pensions - - - - - original message - - - - - from : abc xyz testmail com sent : 17 november 2020 14 : 36 to : test pensions pensions com subject : tst12345678 could you please update your records for recent change of address from 2 test road test street ee12 123 to 10 test road test street aa12 123 thank you abc</t>
+  </si>
+  <si>
+    <t>abcd xx tst12345678 good morning re xx test pensions ref no tst12345678 sorry this is quite urgent as docs only valid until 01 01 1400 i have tried to contact your office vis phone today still holding after 45 minutes documents received to transfer client benefits can we email across discharge forms signed by client or are originals required no adviser sign off doc was attached is this required can we send across our standard document of can you provide such a document via email asap again is original required in post or can we email i look forward to your response test ifa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">re : test pension scheme - trivial commutation factors hi lisa following on from your email below i just wanted to confirm that you are correct and the current trivial commutation factors do not allow for gmp equalisation and therefore trivial commutation for pensioners with 90 - 97 gmp is currently on hold please let me know if you need anything else on this kind regards abc xyz abc xyz senior consultant fin corp ltd fin corp ltd 10 test road test street aa12 123 t + 91 012345678 f + 91 012345678 abc xyz testmail com &lt;mailto : abc xyz testmail com www fincorp com &lt;http : www fincorp com from : abc xyz sent : 10 november 2020 15 : 46 to : test pensions cc : test ifa subject : test pension scheme - trivial commutation factors alert : this message originated outside of fin corp ltd network be cautious before clicking any link or attachment hi we have received a request from a pensioner asking if he can commute his pension in payment however the member has a small guaranteed minimum pension gmp earned between 1990 and 1997 i understand the monthly trivial commutation factors we hold do not allow for gmp equalisation and therefore the member is not currently able to commute his pension benefits please can you confirm my understanding is correct kind regards abc xyz pensions administration mercer abc xyz testmail com &lt;mailto : abc xyz testmail com </t>
+  </si>
+  <si>
+    <t>test pension plan - mr abcd urgent cetv 30 11 2020 to whom it may concern i have received the cetv documentation as requested but only the overseas transfer out paperwork can you please provide me with the transfer documentation via e mail as soon as you can to allow me to transfer out of the test scheme i would also respectfully request an extension due to this error as the cetv is 30 11 2020 kindest regards abcd from : test pensions pensions com sent : thursday september 10 2020 9 : 16 : 24 pm to : abc xyz testmail com subject : test pension plan - mr abcd thank you for your email please note that unfortunately you are unable to take 25 lump sum payment now you can only take the lump sum option should you decide to retire from the plan with the remaining benefits paid as a pension you may if you wish transfer the full benefits to an approved pension provider that will allow you to take part of the benefits now however you will need to speak to a financial adviser if you wish to investigate this option kind regards test pension administration team from : abc xyz testmail com sent : 26 august 2020 12 : 39 to : test admin pensions com subject : re : test pension plan - mr abcd thankyou for your email am i allowed to take a 25 lump sum payment and yes i would like to investigate transferring the pension your advice would be greatly appreciated from : test admin pensions com sent : wednesday august 26 2020 8 : 54 : 11 pm to : abc xyz testmail com subject : test pension plan - mr abcd dear mr foster please find attached the information as requested please note that this has been encrypted with your national insurance number in the format ab123456c kind regards test pensions administration team</t>
+  </si>
+  <si>
+    <t>change of address good morning i have a pension with you and wish to notify you of my new address abc xyz date of birth 01 01 1400 national insurance number zz123123z old employee number tst12345678 old address 10 test road test street aa12 123 new address 102 test road test street ee12 123 please can you let me know that you have changed my address thank you abc</t>
+  </si>
+  <si>
+    <t>moving my pension pot from test and leaving final salary scheme good morning i am looking to retire shortly and i want to cancel my membership from the test final salary scheme and move my pension pot to a private scheme where i can draw down from it i would be happy to take advice from yourselves as potential future managers of the pot my payroll number is tst12345678 name abc xyz 10 test road test street aa12 123 regards abc</t>
+  </si>
+  <si>
+    <t>urgent : cetv value request - mr abc xyz fin 123456 to : pensions team are you able to provide an update on this request from mr abc kind regards test pensions 10 test road test street aa12 123 tel : + 91 012345678 from : abc xyz testmail com sent : 28 october 2020 17 : 52 to : test pensions pensions com subject : re : urgent : cetv value request - mr abc xyz fin 123456 hello i wonder if you could help i have still not received any information regarding my pension transfer value please would you be able to assist me regarding the process of this it is over 3 months and i was of the understanding it would be completed in 3 months thanks for you help with this matter abc on thu 16 jul 2020 at 07 : 53 test pensions pensions com wrote : to : test pensions pensions com please can you urgently provide the cetv value for mr abc xyz fin 123456 kind regards test pesnions supervisor - hr welfare team 10 test road test street aa12 123 tel : + 91 012345678</t>
+  </si>
+  <si>
+    <t>re : fao abc xyz re : test pension fund good morning not only has no one called me as i was promised on 01 01 1400 but no one has replied to my email of 01 01 just to let you know that if you come back saying that this slow service is down to coronavirus i will simply ask why regards abc xyz ps as this is a sunday not expecting a reply today ! - - - - - - original message - - - - - - from : abc xyz testmail com to : test pensions pensions com sent : thursday 19 nov 2020 at 16 : 51 subject : fao abc xyz re : test pension fund thank you for your email of 01 01 1400 abc xyz however it is now 01 01 1400 and no one has called me can you define shortly regards abc xyz - - - - - - original message - - - - - - from : test pensions pensions com to : abc xyz testmail com sent : wednesday 11 nov 2020 at 14 : 28 subject : test pension fund dear abc xyz test pension fund thank you for your email regarding the test pension fund please accept my sincerest apologies for any inconvenience this may cause you i have arranged a call back for you our representative will contact you shortly if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com &lt;mailto : test pensions pensions com yours sincerely abc xyz administrator customer support centre 10 test road test street aa12 123 direct dial : + 91 012345678 test pensions pensions com - - - - - original message - - - - - from : test pensions sent : 06 november 2020 15 : 15 to : test pensions subject : pre - identified user support request reply email address : abc xyz testmail com forename : abc surname : xyz ni number : zz123123z dob : 01 01 1400 home postcode : aa12 123 employer : fin corp ltd subject : need to talk to someone content : good afternoon i have just tried calling + 91 012345678 to arrange a phone conversation regarding when i take my test pensions pension the voice message system said you are very busy and so can only handle urgent enquiries not sure why coronavirus is making every call centre help desk etc so busy but that what i am experiencing and what do i know as i suppose what i am asking for is a new request i pressed 4 and was advised to contact a company called fin corp ltd never heard of them could someone call me when they have a moment abc xyz thanks abc xyz</t>
+  </si>
+  <si>
+    <t>report of death of a pension recipient hello i need to report the death of my father who was in receipt of pension payments from test can you please let me know what i need to do thank you kind regards abc</t>
+  </si>
+  <si>
+    <t>test pensions - abc xyz - 123456 caution : this email originates from a non - jaguarlandrover source do not click links or open attachments unless you recognise the sender and know the content is safe hi we have been advised by the above member that they have moved from 10 test road test street aa12 123 please could you confirm the new address from your records thanks jaguar pension plan</t>
+  </si>
+  <si>
+    <t>re : test pension plan please find attached the screenshot regards abc xyz on fri nov 20 2020 at 11 : 06 pm &lt; test pensions pensions com &lt;mailto : test pensions pensions com wrote : dear abc xyz test pension fund thank you for your email regarding the test pension fund please accept our apologies for any inconvenience this has caused you could you please share the screenshot of an error you are getting on fin corp while entering your post code so that we can able to assist you properly if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com &lt;mailto : test pensions pensions com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 from : abc xyz &lt;abc xyz testmail com sent : 19 november 2020 00 : 31 to : test pensions pensions com subject : re : fin corp login further to your response please also see my additional info abc xyz dob 01 01 1400 payroll 123456 ni zz123123z address 10 test road test street aa12 123 i am trying to create a fin corp account but using the link you sent me it asks for a post code i put in my usa zip code which was not accepted please help thanks abc xyz on wed nov 18 2020 at 9 : 25 am abc xyz &lt; abc xyz testmail com &lt;mailto : abc xyz testmail com wrote : hi my name i abc xyz payroll number 13245678 i have tried to login to the fin corp website using the link you sent me but i do not have a uk post code as i live in the usa and it does not accept my us zip code 12345 please help me to create a fin corp account thanks abc xyz</t>
+  </si>
+  <si>
+    <t>beneficiaries data form name : lmno ni number : zz123123z reference : tst12345678 hello please find attached the beneficiaries application if you have any questions and you can best to email to me at this email address otherwise contact my mother at the address on the application thank you abc xyz</t>
+  </si>
+  <si>
+    <t>pension details hi team please assist with the following kind regards abc xyz administrator benpal helpdesk customer support centre fin corp ltd 10 test road test street aa12 123 t + 91 012345678 from : abc xyz &lt;abc xyz testmail com sent : 20 november 2020 14 : 15 to : fin corp support &lt;fin corp testmail com subject : fw : pension details from : abc xyz sent : friday november 20 2020 2 : 15 pm to : fin corp testmail com &lt;mailto : fin corp testmail com subject : pension details hi i have never been provided a log in or password for my pension scheme can this be sent over asap please abc xyz 10 test road test street aa12 123 regards</t>
+  </si>
+  <si>
+    <t>pension abc xyz 01 01 1400 zz123123z hi i got a quote this morning to take my pension and want to know was my care allowance included in the quote and also i would like a quote to take my whole pension as one lump sum please can you provide this for me as i can t do this on line thanks in advance abc xyz</t>
+  </si>
+  <si>
+    <t>re : test pension plan hi national insurance number is zz123123z date of birth is 01 01 1400 if i remember correctly my clock number was 000000 i took early retirement in 2006 aged 50 abc on friday 13 november 2020 03 : 33 : 13 gmt wrote : dear mr abc test pension plan thank you for your email regarding the test pension plan to enable us to answer your enquiry please could you provide your date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com yours sincerely abc from : abc xyz testmail com sent : 11 november 2020 07 : 44 to : test pensions pensions com subject : test form hi i would like to have a test account please if not may i have an test form my name and address is; mr abc cheers abc</t>
+  </si>
+  <si>
+    <t>re : def trust pension plan hi test pensions please find attached my verification form with my new address can you please confirmation of receipt and provide my account balance details or online details kind regards abc from : test pensions pensions com sent : tuesday 2 june 2020 12 : 49 am to : abc xyz testmail com subject : def trust pension plan dear abc def trust pension plan thank you for your email regarding the def pension plan please find the attached correspondence which was issued to you on 05 may 2020 if you require any further information or have any questions please contact the customer support centre on abc xyz testmail com between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 26 may 2020 10 : 38 to : test pensions pensions com subject : re : def trust pension plan hi test pensions i was just following up on this as i have not received any communication from you regarding my plan can you please advise where this request is placed kind regards abc from : test pensions pensions com sent : wednesday 22 april 2020 5 : 26 pm to : abc xyz testmail com subject : def trust pension plan dear mr abc def trust pension plan thank you for your email regarding the def pension plan your request has been logged and you will receive a written response from our administration department within 10 - 15 working days once your address has been updated on our records we will proceed with your pension query if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 21 april 2020 08 : 05 to : test pensions pensions com subject : re : def trust pension plan hi i m not 100 sure what my final address was on the pension fund but my details when i was working there are below : dob : 01 01 1400 address : 10 test road test street aa12 123 national insurance : zz123123z cheers abc on 20 apr 2020 at 6 : 24 pm test pensions pensions com wrote : dear abc def trust pension plan thank you for your email regarding the def pension plan to enable us to answer your enquiry please could you provide your previous address date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 17 april 2020 00 : 12 to : test pensions pensions com subject : def pension plan query hi i worked at def in 2005 to 2010 investments and was part of the def trust pension plan i have moved back to australia so i would like to update my personal details for the pension plan so i can get a regular update from the plan can you please update my details to the below details and also provide a current report of my pension kind regards abc mobile : + 91 012345678 address : email : abc xyz testmail com begin forwarded message : from : testfund fincorp com date : 16 april 2020 at 10 : 40 : 21 pm acst to : abc xyz testmail com subject : re : def - 0000 def 14 04 2020 05 : 39 hi abc i have been forwarded your email as i look after pensions and benefits at def test pensions our pension administrators look after all deferred members of the def pension plan please do therefore reach out to them via phone or email as detailed below and they will be able to update your contact details test pensions pensions com + 91 012345678 please let me know if i can help any further many thanks test fund</t>
+  </si>
+  <si>
+    <t>fwd : test pension scheme thank you for your reply but this does not answer my query i already have an activation letter and code but for some reason your system will not recogise my email address when i try to add this in as part of the set up process please can you investigate as a matter of urgency i do not believe that sending a further activation letter wo not fix the problem thank you ian mills from : test pensions date : monday 23 november 2020 subject : test pensions scheme to : jmills255 dear mr abc xyz test pension fund thank you for your email regarding the test pension fund i have requested an activation letter to be issued to you via post this will be issued within 5 working days this will be active for 28 days if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at fin corp testmail com &lt;mailto : fin corp testmail com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 from : abc xyz &lt;abc xyz testmail com sent : 19 november 2020 09 : 37 to : fin corp support subject : fwd : logging issues re email address as requested for security here are further details nat ins no zz123123z date of birth 01 01 1400 address is as in email below thanks abc xyz from : abc xyz date : wednesday 18 november 2020 subject : logging issues re email address to : test pensions i have received my activation code today and tried to log into my fin corp account i entered the code set a user name and password but the system wo not accept my email address it says it not recognised but i have entered my correct email address which is abc xyz testmail com p ease can you advise as soon as possible many thanks abc xyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pre - identified user support request reply email address : abc xyz testmail com forename : abc xyz surname : def ni number : zz123123z dob : 01 jan 1400 home postcode : aa12 123 employer : fin corp ltd subject : leaving fin corp ltd content : hi i will be leaving fin corp ltd in february 1400 but not taking any pension at that time my nrd is not until 1500 am i ok to simply leave the arrangements as they stand at the point when i leave or do i need to make any addtional arrangements thanks abc</t>
+  </si>
+  <si>
+    <t>fw : abcd query hello team please see below query and reply accordingly to the member ifa many thanks test pensions from : test ifa fincorp com sent : 30 november 2020 17 : 33 to : test pensions pensions com subject : abcd query hi please find attached a letter of authority and scheme information request letter that was previously sent to xyz in september 2020 can you please confirm receipt and arrange for this information to be provided to me as a matter of urgency we have received other cetv s for this client which are administered by yourselves which are due to expire at end of december 2020 therefore we would appreciate your assistance to expedite this request we have unfortunately spent some time trying to trace the administrators of this scheme and i understand the benefits were invested through xyz your assistance in this matter would be gratefully appreciated password to follow kind regards test ifa</t>
+  </si>
+  <si>
+    <t>test pension scheme - ref zz123123z tst12345678 good morning i have been advised that this is the new email address i need to send my request to look forward to your reply abc xyz from : abc xyz testmail com&lt;mailto : abc xyz testmail com sent : 06 november 2020 10 : 02 to : testfund fincorp com&lt;mailto : testfund fincorp com subject : test pension scheme - ref zz123123z tst12345678 good morning i am writing in relation to my test pension and my details are as follows : - mrs abc xyz 10 test road test street aa12 123 date of birth 01 01 1400 phone number + 91 012345678 as i am approaching my 60th birthday i am considering taking this pension and would be interested in receiving an up to date statement from you including transfer value and an estimate of what i could expect to receive if i took a 25 lump sum payment tax free and the rest as an annuity the last statement i received from you was in march 2016 i look forward to your response thanking you kind regards abc xyz</t>
+  </si>
+  <si>
+    <t>change of address i have changed my address and now living in xxx my new address is : - 10 test road test street aa12 123 best regards abc</t>
+  </si>
+  <si>
+    <t>re : change of address - ref tst12345678 good morning i have a pension scheme with you test group pension scheme 1400 with my reference no tst12345678 my name and dob are : abc xyz 01 01 1400 national insurance no : zz123123z i am writing to you to let you know of my change of address my new address is in xx : 10 test road test street aa12 123 my previous address was at 102 test road test street ea12 123 please could you update my personal details accordingly additionally i would like to update my beneficiary how can i do this finally i would like to be able to loggin to my account online what is the process please could you register me please many thanks abc xyz + 91 012345678 on tue 17 nov 2020 at 10 : 37 abc xyz testmail com&lt;mailto : abc xyz testmail com wrote : good morning i have a pension scheme with you test group pension scheme 1400 with my reference no tst12345678 i am writing to you to let you know of my change of address my new address is in france : 10 test road test street aa12 123 please could you update my personal details accordingly additionally i would like to update my beneficiary how can i do this finally i would like to be able to loggin to my account online what is the process please could you register me please many thanks abc xyz + 91 012345678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pension transfer requesting documents for transferring out of db dc pension scheme abc xyz working at fin corp ltd date birth 01 01 1400 zz123123z n s number </t>
+  </si>
+  <si>
+    <t xml:space="preserve">addtional information i just send an email however it appears you need additional information my date of birth is 1st jan 1400 and my ni is zz123123z full name is abc xyz your ref tst12345678 xyz s dear sir madam i received a letter from your good selves stating that if i need another transfer value then i would need to pay an additional 250 pounds + vat the first transfer request was to a company based in dubai who are shady i done my due diligence and checked them out after the transfer request was made i realize you are a business and need to make money however would you consider reducing the fee amount for an additional transfer request i have found a legitimate uk based company who can deal with me could you help me out by reducing the fee to around 200 i am not a wealthy man and i have been affected financially by the pandemic any help would be appreciated regards abc xyz - - </t>
+  </si>
+  <si>
+    <t>re : zz123123z hello again i write to advise you that i wish to transfer out of the test pension fund and i have been told that the company i have chosen test pension fund have already contacted you to advise of this please confirm to me that you have received this from them and that this will be allowed to progress based on your transfer value that expires on 1st january 1400 regards abc xyz dob 01 01 1400 zz123123z 10 test road test street aa12 123</t>
+  </si>
+  <si>
+    <t>fw : tst12345678 thanks test pensions i have copied all the admin details on our data so someone from the team can look into this though looking at the file there does seem to be a few emails on the file to ifa so may just be a lack of clarity on what the hold up for mr abc is please can someone contact the client asap to nip this complaint in the bud thanks test fund - - - - - original message - - - - - from : test pensions pensions com sent : 01 december 2020 10 : 11 to : testfund pensions com subject : fw : tst12345678 hi test fund i am not sure if stu is around but please can you pass this on to the manager of mr abc scheme please i have issued an initial holding response as per the attached but this will need to be escalated accordingly thanks test pensions - - - - - original message - - - - - from : test pensions pensions com sent : 01 december 2020 10 : 04 to : abc xyz testmail com subject : re : tst12345678 good morning mr abc firstly please accept my apologies on behalf of xyz for the problems that you have been experiencing we take matters like this very seriously and i will do everything i can to assist you your email has come through to our specialist sipp and ssas team mailbox and we are unfortunately not the area that look after your pension scheme we also do not have access to the main pensions administration area records to enable me to search for your scheme and trace your policy however i have referred your email across to our complaints team and also to a senior manager in our main pensions administration area to enable them to trace your scheme and make contact with you regarding this they should be in touch with you shortly in the meantime i can also confirm that there is a customer service centre for our main pensions administration area which you can contact if you need to in the future by telephone on + 91 012345678 or by email to test pensions pensions com to help them to trace your scheme in the future you may need to quote the name of the scheme your policy reference number and your name and national insurance number i hope this is of assistance to you for the future and please rest assured that someone will be in touch with you shortly regarding your scheme kind regards test pensions - - - - - original message - - - - - from : abc xyz testmail com sent : 30 november 2020 14 : 30 to : test pensions pensions com subject : tst12345678 hi i ve sent the below message to the contact us page on your website someone needs to contact me or reply to test ifa with regards to transferring this pension to them you do not respond to me you do not respond to them nobody answers your phone this request was first made in september and will be sent to the ombudsman this week unless you actually reply to someone i will try here as well can someone respond to this before i m left no option but to go to the ombudsman from my point of view you have 20000 of my money you refuse to handover i consider that a form of theft i know someone looks at this as i ve been sent three useless letters in the post that achieve nothing you need to reply to test ifa when they contact you i thought def had the worst customer service ever but at least they eventually respond this is just corporate stonewalling have you tried using your service it s pathetic thanks abc</t>
+  </si>
+  <si>
+    <t>mr abc xyz test zz123123z importance : high dear sirs thank you for your letter dated 3 11 2020 can you please provide us with an immediate retirement pack assuming client retires now please email it to us asap as the deadline of 30 11 is fast approaching and need to conclude the advice within a 3 week period thanks with warm regards test ifa</t>
+  </si>
+  <si>
+    <t>abc xyz hello dob : 01 01 1400 ni : zz123123z you should already have a true potential loa we are reviewing a case for the above named client and would appreciate if you could answer a few points please provide a funding status of the plan this must show a fixed percentage at a fixed date if db benefits are transferred out do avc s also need to be transferred out please confirm the 5pc benefits are treated the same as excess how do the following revalue in deferment is it by rpi or cpi any max 5 2 5 post 09 post 12 how do the following increase in payment is it by rpi or cpi any max 5 2 5 post 09 post 12 what is the spouses pension upon death in deferment for the following 50 post 09 post 12 what is the spouses pension upon death in retirement for the following 50 post 09 post 12 is the pension guaranteed in payment is it for 5 years in the event of early retirement does the pension revalue to nrd or actual retirement date kind regards test ifa t : 012345678 e : test ifa fincorp com</t>
+  </si>
+  <si>
+    <t>urgent confirmation required - payment received 20 november 2020 test pensions pensions com &lt;mailto : test pensions pensions com dear sirs re : pension information request transfer value confirmation client name : abc xyz your reference : zz123123z our reference : aa11 - aa11 - aa11 - aa11 following request for pension transfer on behalf of the above - named client we can now confirm receipt of the transfer value of 1000 on the 17th november 2020 our records show we are still not in receipt of the final transfer confirmation schedule from your scheme as mentioned in our previous correspondence to you we are unable to accept and correctly apply funds transferred without relevant pension information from your scheme kindly provide the following information as a matter of urgency : 1 confirmation of the total transfer value including a split between uncrystallised and crystallised funds 2 where funds are crystallised details of the following items for each crystallised pot where applicable 2 1 fund value 2 2 capped or flexible drawdown status 2 3 date of bces including amount of pcls paid amount crystallised and percentage lta used at each bce 2 4 maximum income entitlement and whether this amount is calculated on 100 ; 120 or 150 of the basis amount 2 5 date of last formal review and date of next formal review 2 6 amount of income taken in current pension year 3 details of any of the following items 3 1 any form of lta or lump sum protection 3 2 pension credit rights 3 3 death benefit entitlement 3 4 pension sharing ear marking other court orders 4 where applicable whether the scheme contains avcs fsavcs scheme commutation factor and gmp equalisation information 5 any additional information that would assist us apply funds correctly under our scheme please note that we are only able to hold on to the transfer value received for awhile and would process return of funds to your scheme if we are not in receipt of the above information in a few weeks we can accept the information via email in the first instance and the original copy by post : we look forward to receiving the information requested as soon as possible if there are any points of clarification you require in respect of the request please do not hesitate to contact us yours faithfully test pension confirmations team tel : + 91 012345678</t>
+  </si>
+  <si>
+    <t>pension value reads as nil hello my test pension is now with fin corp pension reference is zz123123z the value has remained at nil since january 2019 pension notes indicate that a value will be uploaded shortly but that hasn t happened to date could you please confirm that my pension is still active and that a value will appear soon kind regards abc xyz 10 test road test street aa12 123 sent from mail &lt;https : go microsoft com fwlink linkid = 550986 for windows 10</t>
+  </si>
+  <si>
+    <t>retirement quotian hi my name is abc xyz 10 test road test street aa12 123 dob 01 01 1400 national insurance number zz123123z test pension scheme payroll number zz123123z i am writing to ask for my retirement figures as i intend to retire on 01 jan 1400 i have not officially handed in my notice yet but my immediate managers are aware of my intended date subject to my figures i have had my figures from you in the past and i have already decided my option choice but to avoid a problem i would like to take all my dc pot from fin corp 1 and combine it with my db allowance so as to draw the max tax - free cash sum that i am allowed i would also need to know my step pension and the cost of this step pension i have gone on the fin corp web site but i prefer to have a written copy of all my figures please excuse me if this email is hard to understand as my knowledge of pension jargon is very limited i am happy for anybody to call or text or email me if i have not explained what i want i have had conflicting quotations in the past but i would hope to get as accurate figures as is possible as i am serious about my intention to retire i have only needed estimates in the past i have been advised by your office to mention the phrase i wish to claim my pension thanking you and look forward to hearing from you my phone number is + 91 012345678</t>
+  </si>
+  <si>
+    <t>pension ref - tst12345678 good afternoon thank you for you recent correspondence on the 1st january 1400 in relation to pension ref no tst12345678 i can conform i left the test pension when i left fin corp ltd on the 1st january 1400 i would like confirmation of the following : when can i take any of the current pension as a lump sum and what the exact amount would be regards abc xyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pension forecast - abc xyz nino - zz123123z dob - 01 01 1400 could you please issue an early retirement quotation for the 1 december 2020 kind regards abc direct : + 91 012345678 abc xyz testmail com from : abc xyz testmail com to : test pensions pensions com date : 05 11 2020 10 : 40 subject : pension forecast - abc xyz please could you send me a pension forecast abc xyz 10 test road test street aa12 123 thank you warning : this is an external email do not click links or open attachments unless you recognise the sender and know the content is safe </t>
+  </si>
+  <si>
+    <t>abc xyz - tst12345678 termination hi abc xyz fin : tst12345678 has signed to leave the business on the 18th december 2020 the documentation was sent two weeks ago he will now be leaving on 4th december due to a change in personal circumstances can you please let me know if there is anything i need to amend kind regards test ifa 10 test road test street aa12 123</t>
+  </si>
+  <si>
+    <t>test pension scheme hi team please see below query and reply accordingly many thanks test pensions from : abc xyz testmail com sent : 07 november 2020 12 : 48 to : test pensions pensions com subject : re : test pension scheme</t>
+  </si>
+  <si>
+    <t>test pensions scheme hi abc ref tst12345678 apologies i should have contacted you i wish to defer my retirement untill 01 jan 1400 many thanks abc xyz 10 test road test street aa12 123</t>
+  </si>
+  <si>
+    <t>updated address and contact details hi i am a deferred member of the test pension scheme and would like to update my contact details : name : abc xyz ni number : zz 12 31 23 z old address : 10 test road test street aa12 123 new address : 10 test road test street aa12 123 i would like to get updates and newsletters via email to abc xyz testmail com thanks abc xyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">re : test salaried contributory pension fund - xyz good afternoon can you please confirm the case is now in the implementation period and advise when this is due to complete thank you test ifa from : test pensions pensions com sent : 30 october 2020 14 : 46 to : test ifa fincorp com subject : test salaried contributory pension fund - xyz dear team test salaried contributory pension fund thank you for your email regarding the test salaried contributory pension fund please accept our apologies for the delay in responding to you please note i have checked our records and i can confirm that your request is with our administration team and is being processed you will hear from us shortly if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : test ifa fincorp com sent : 21 october 2020 17 : 40 to : test pensions pensions com subject : re : test salaried contributory pension fund - xyz importance : high good afternoon can you please provide an urgent update on the pension sharing order transfer we have tried to call but you are currently not taking phone calls and we are yet to receive a response to our emails please advise if you have any queries thank you test ifa from : test ifa fincorp com sent : 14 october 2020 16 : 20 to : test pensions pensions com subject : re : test salaried contributory pension fund - xyz good afternoon please could you advise that you have now received everything you require to proceed and process the transfer kind regards test pensions from : test ifa fincorp com sent : 07 october 2020 15 : 39 to : test pensions pensions com subject : re : test salaried contributory pension fund - xyz good afternoon following your letter please see attached receiving scheme agreement please advise if you require any further information to be able to process the transfer thank you test ifa from : test pensions pensions com sent : 24 september 2020 12 : 41 to : test ifa fincorp com subject : test salaried contributory pension fund - xyz dear test ifa test salaried contributory pension fund thank you for your email regarding the test salaried contributory pension fund i can confirm that i have forwarded your query to the administration team; once a response has been received we will be in touch accordingly if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : test ifa fincorp com sent : 23 september 2020 14 : 49 to : test pensions pensions com subject : re : test salaried contributory pension fund - xyz good afternoon can you please provide an update on the clients transfer we are yet to receive a response via email and you are not currently taking phone calls please advise if you have any queries thank you test ifa from : test pensions pensions com sent : 10 september 2020 16 : 15 to : test ifa fincorp com subject : test salaried contributory pension fund - xyz dear test ifa test salaried contributory pension fund thank you for your email regarding the test salaried contributory pension fund i can confirm i have forwarded your email to our administration department and they will be in contact shortly if any further information is required if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : test ifa fincorp com sent : 09 september 2020 11 : 55 to : test pensions pensions com subject : re : test salaried contributory pension fund - xyz good afternoon can you please provide an update on the clients transfer and advise if you now have everything to proceed thank you test ifa from : test pensions pensions com sent : 14 august 2020 17 : 30 to : test ifa fincorp com subject : test salaried contributory pension fund - xyz dear test ifa test salaried contributory pension fund thank you for your email regarding the test salaried contributory pension fund i have checked our records and can confirm that the correspondence was issued to member on 13th august 2020 please note that member will receive it shortly if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : test ifa fincorp com sent : 12 august 2020 11 : 40 to : test pensions pensions com subject : re : test salaried contributory pension fund - xyz good morning please could you provide a rough timescale we can expect to hear from you with an update on this one kind regards test ifa from : test pensions pensions com sent : 05 august 2020 11 : 05 to : test ifa fincorp com subject : test salaried contributory pension fund - xyz dear test ifa test salaried contributory pension fund thank you for your email regarding the test salaried contributory pension fund please accept our apologies for the delay in responding to you i can confirm i have forwarded your email to our administration department and they will be in contact shortly if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com did you know that member s can access and manage their pension online by logging into their test account yours sincerely test pensions from : test ifa fincorp com sent : 30 july 2020 12 : 40 to : test pensions pensions com subject : re : test salaried contributory pension fund - xyz good afternoon the transfer is in relation to a pension sharing order can you please advise when we can expect to receive the funds your clients details are : xyz thank you test ifa from : test pensions pensions com sent : 22 july 2020 13 : 28 to : test ifa fincorp com subject : test salaried contributory pension fund - xyz dear test ifa test pension fund thank you for your email regarding the test pension fund please accept our apologies for the delay in responding to you to enable us to answer your enquiry please could you provide the member full address date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : test ifa fincorp com sent : 14 july 2020 08 : 57 to : test pensions pensions com subject : abcd - xyz - tst12345678 good afternoon we are processing a transfer for the above client as part of a pension sharing order can you please confirm you have received the transfer documents and advise if the case is now being processed thank you test ifa </t>
+  </si>
+  <si>
+    <t>change of address good afternoon my name is abc and i wish to inform you of a change of address in xyz and also request a document stating my pension details for the last two years for my test bank my national insurance number is zz123123z reference number - tst12345678 my new address is - 10 test road test street aa12 123 thank ypu abc</t>
+  </si>
+  <si>
+    <t>pension ref tst12345678 good morning could you please advise me if there is a lump sum payment payable on this pension my date of birth is 01 01 1400 and ni number is zz123123z kind regards abc xyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pre - identified user support request - pension quote reply email address : abc xyz testmail com forename : abc surname : xyz ni number : zz123123z dob : 01 jan 1400 home postcode : aa12 123 employer : test pensions subject : pension quote content : hi can you tell my pension figure is now if i take my pension out company pension and both sets of avc please name abc xyz address; 10 test road test street post code : aa12 123 ni : zz123123z dob 01 01 1400 regards abc xyz</t>
+  </si>
+  <si>
+    <t>re : test pension scheme - abc xyz good morning please find attached the client s signed letter of authority showing the requested information regards abc xyz from : test pensions pensions com sent : monday november 23 2020 3 : 02 am to : abc xyz subject : test pension scheme - abc xyz dear abc xyz test pension scheme thank you for your email regarding the test pension scheme please accept my sincerest apologies for any inconvenience this may cause you to enable us to answer your enquiry please could you provide your member s address date of birth and national insurance number for data verification purposes should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at fin corp testmail com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 from : abc xyz &lt;abc xyz testmail com sent : 19 november 2020 14 : 04 to : test pension scheme &lt;testscheme fincorp com cc : test ifa fincorp com subject : fw : test pension scheme - abc xyz good morning we have tried making contact by phone numerous times and we are not getting any response to our emails the cetv has now expired does a revaluation fee apply if so please send us an invoice addressed to the below details 10 test road test street aa12 123 regards abc xyz from : abc xyz sent : monday september 7 2020 1 : 12 pm to : test pensions pensions com cc : test ifa fincorp com subject : fw : test pension scheme - abc xyz good morning we have been chasing week after week and not got a response back could someone please assist regards abc xyz from : abc xyz sent : monday august 24 2020 12 : 59 to : test pensions &lt;test pensions pensions com cc : test ifa fincorp com subject : fw : test pension scheme - abc xyz could someone please reply from : abc xyz sent : monday august 24 2020 12 : 59 to : test pensions &lt;test pensions pensions com cc : test ifa fincorp com subject : fw : test pension scheme - abc xyz good morning please send us a copy of the documents by email from : abc xyz sent : monday august 24 2020 12 : 59 to : test pensions &lt;test pensions pensions com cc : test ifa fincorp com subject : fw : test pension scheme - abc xyz good morning we still haven t received the documents by post please send us a copy by email from : abc xyz sent : monday august 24 2020 12 : 59 to : test pensions &lt;test pensions pensions com cc : test ifa fincorp com subject : fw : test pension scheme - abc xyz good afternoon abc xyz thank you for your email please accept my sincere apologies for the delayed response i can advise you that the transfer information was sent to you on 28 july the additional information requested will follow in due course regards abc xyz administrator fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 from : abc xyz sent : monday august 24 2020 12 : 59 to : test pensions &lt;test pensions pensions com cc : test ifa fincorp com subject : fw : test pension scheme - abc xyz good morning we have not had a response in the past month we have been chasing kindle assist from : abc xyz sent : monday august 24 2020 12 : 59 to : test pensions &lt;test pensions pensions com cc : test ifa fincorp com subject : fw : test pension scheme - abc xyz good morning has a response been issued please from : test pensions &lt;test pensions pensions com sent : 30 june 2020 16 : 05 to : abc xyz &lt;abc xyz testmail com subject : re : abc xyz loa urgent good afternoon abc thank you for your email the information requested has been prepared and is in the process of being checked if there are any further details you require please contact us regards abc abc xyz administration team fin corp ltd 10 test road test street aa12 123 telephone : + 91 012345678 from : abc xyz &lt;abc xyz testmail com sent : 29 june 2020 14 : 10 to : test ifa subject : fw : abc xyz loa urgent good afternoon please provide us with an update from : abc xyz &lt;abc xyz testmail com sent : 05 june 2020 17 : 45 to : abc xyz &lt;abc xyz testmail com subject : re : test pension scheme good afternoon abc xyz thank you for your email please accept my apologies for the delayed response i have asked for your request to be dealt with as a priority regards abc xyz test pension scheme administration team fin corp ltd 10 test road test street aa12 123 telephone : + 91 012345678 from : abc xyz &lt;abc xyz testmail com sent : 02 june 2020 10 : 39 to : test pension scheme subject : fw : test pension scheme - abc xyz good afternoon please provide us with an update from : abc xyz sent : 15 may 2020 13 : 25 to : abc xyz testmail com subject : abc xyz loa please send the information by email or fax dear sir or madam please find attached a current letter of authority for the above client this is an initial request looking into a potential transfer once the above client confirms they wish to proceed we will confirm the receiving scheme uk transfer forms overseas transfer forms immediate retirement quote discharge forms including hmrc requirements forms for the transfer to take place scheme and plan type test pension equalisation date nra pre and post test pension equalisation date date of joining and leaving the pension scheme normal retirement date age members contributions to the scheme confirmation of any avc s or money purchase benefits held within the scheme are there any pension sharing earmarking orders if yes does the tv reflect this current fund value - including all fund details full cetv - if the cetv has been reduced please confirm by what amount value of pension at date of leaving value of pension at statement date deferred pension at date of leaving per annum figure showing : o pre 88 gmp o post 88 gmp o pre 97 gmp o post 97 gmp o excess over and above gmp should any gmp revalue at different rates please provide the relevant split pension increases in deferment gmp and excess if this is by price inflation please specify if this is cpi or rpi pension increases in retirement gmp and excess - if this is by price inflation please specify if this is cpi or rpi is there a spouses pension details in both deferment and retirement - also confirm if spouse s pension is calculated before or after any commutation is there a children s pension details in both deferment and retirement guarantee period on death of the member lump sum payable in death full income without taking pcls earnings on leaving pcls at nra commutation factor for ages 55 - 70 early retirement factors and how they are applied - are these applied to pension at retirement or nra late retirement factors and how they are applied - are these applied to pension at retirement or nra scheme funding status date latest scheme funding statement leaflet booklet is the plan paid up longevity adjustment factor and how this is applied if applicable scheme booklet do you permit partial transfers and if so on what terms have you yet equalised gmp payments in line with the may 1990 ruling by the european court of justice are there any gars if so what are the annuity rate has there previously been a transfer in or not if yes then the amount of gmp transferred in revaluation rate for gmp transferred in does it hold all the same death benefits as the rest of the pension the member s final pensionable earnings figure in order to determine the spouse s pension payable on death in deferment; rate of interest applied to the refund of contributions on death in deferment all the above details are required in order to provide the client with full fca regulated advice please ensure all these details are confirmed with the initial response please ensure all these details are confirmed with the initial response abc xyz pension administrator tel : + 91 012345678 fax : + 91 012345678 email : abc xyz testmail com</t>
+  </si>
+  <si>
+    <t>request for pensioner id card for lmno importance : high to : test pensions please could you urgently provide lmno with her pensioner id card miss lmno s father sadly passed away on and she is still awaiting from november 2019 mr xyz s fin : tst12345678 a pensioner id card has been issued to her sister abcd but the card for lmno is still outstanding please could you rectify this as a matter of urgency regards test pensions from : testfund fincorp com sent : 11 november 2020 20 : 29 to : test pensions pensions com subject : hi test pensions hope you are well are you able to chase lmno s card which she has never received attached is abcd s one she can contact you direct if you prefer but as she is studying in xxx she has asked if i could do it on her behalf many thanks test fund</t>
+  </si>
+  <si>
+    <t>death of a pensioner lmn nino - zz123123z dob - 01 01 1400 date of death - 01 january 1400 reference - tst12345678 spouse or partner - no informant - daughter mrs def 10 test road test street aa12 123 tel + 91 012345678 i have been informed of the above members death could you please cease payment and contact the informant for the death certificate kind regards abc</t>
+  </si>
+  <si>
+    <t>def pension d o b 01 01 1400 national insurance number zz123123z hi team please see below query and reply accordingly thank you test pensions from : abc xyz testmail com sent : 08 november 2020 19 : 05 to : test pensions pensions com subject : def pension d o b 01 01 1400 national insurance number zz123123z please find attached confirmation of change of bank details as requested regards abc on wed 28 oct 2020 19 : 42 &lt;test pensions pensions com wrote : dear abc def group pension plan thank you for your email regarding the def group pension plan your request has been logged for change of address and you will receive a written response from our administration department within 10 - 15 working days also i can confirm that due to data protection requirements we cannot update our records without a signed letter on file i have attached a change of bank details form for you to fill and scan back to us in order to update our records should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 26 october 2020 14 : 31 to : test pensions pensions com subject : def pension - dob - national insurance number to whom it may concern i am writing to inform you that i am now on a full time course at university course details attached and i am currently living in xyz proof of booked accommodation attached the address is : - i have also attached a copy of my student id which tells you the length of my course my bank details for payment are : - barclays bank payments were previously sent to my mum bank account but no payment has been received since august my mum address my previous address is : - i would appreciate it if you could please email confirmation that my payments will re - commence regards abc</t>
+  </si>
+  <si>
+    <t>re : wxyz pension scheme hello scheme number : tst12345678 abc 10 test road test street aa12 123 dob : 01 01 1400 ni : zz123123z thanks for passing on my query to the administration to team i wanted to share some pieces of correspendence i have previosuly received in relation to the def lump sum i have attached some letters i have received including the last letter dated 24 april 2020 in this letter it mentions about the def lump sum saying that i can take the money prior to the transfer to lmn are you able to give me an update on this process please i have always been made aware that i am eligible for this lump sum but have never been given the opportuntiy to opt in to it which was stated in a previous letter kind regards abc from : test pensions pensions com sent : 26 october 2020 13 : 40 to : abc xyz testmail com subject : wxyz pension scheme dear abc wxyz pension scheme thank you for your email regarding the wxyz pension scheme i can confirm that i have forwarded your query to the administration team; once a response has been received we will be in touch accordingly should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 22 october 2020 19 : 24 to : test pensions pensions com subject : re : wxyz pension scheme good afternoon thanks for your email after months and months of correspondence from the wxyz pension scheme i was lead to believe that due to the winding up of this scheme if the value of my pension was under 18 000 - which it is then i could take the sum as cash i do have most of the letters so would it be easier to call someone and discuss regards abc from : test pensions pensions com sent : 22 october 2020 14 : 41 to : abc xyz testmail com subject : wxyz pension scheme dear abc wxyz pension scheme thank you for your email regarding the wxyz pension scheme i can confirm that i have logged your request to our administration team to update your address a written response will be issued to your home address within 10 - 15 working days also i can confirm from the scheme rules that earliest we can issue retirement projection is from the age of 55 however i have logged a request for update of benefits instead once your address details are updated we will proceed with your pension query should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 20 october 2020 14 : 12 to : test pensions pensions com subject : re : wxyz pension scheme good morning my current full address is other info is name : dob : ni number : other addresses are kind regards abc from : test pensions pensions com sent : 16 october 2020 12 : 33 to : abc xyz testmail com subject : wxyz pension scheme dear test pensions wxyz pension scheme thank you for your email regarding the wxyz pension scheme to enable us to answer your enquiry please could you provide previosu your full address for data verification purposes should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 14 october 2020 21 : 36 to : test pensions pensions com subject : pension update good afternoon are you able to give me an update please on the situation with my pension and when you think there will be a resolution i am looking to take the amount i have as a cash lump sum kind regards abc</t>
+  </si>
+  <si>
+    <t>re : def retirement and employee scheme - abc good morning further to your email please see the following : 10 test road test street aa12 123 1st january 1400 zz123123z regards test ifa from : test pensions pensions com sent : 01 december 2020 08 : 04 to : test ifa fincorp com subject : def retirement and employee scheme abc dear test ifa def retirement and employee scheme thank you for your email regarding the def retirement and employee scheme to enable us to answer your enquiry please could you provide the member full address date of birth and national insurance number for data verification purposes for added security please also confirm your full company name and the address stated on the provided letter of authority should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely test pensions from : test ifa fincorp com sent : 27 november 2020 14 : 55 to : test pensions pensions com subject : - tst12345678 good morning i uploaded an loa and information request form to your website on 29 10 20 please could you provide me with an update kind regards test ifa</t>
+  </si>
+  <si>
+    <t>retirement figures hi could i please have updated pension figures with a retirement date of 31 3 21 my full name is abc xyz national insurance number zz123123z regards abc</t>
+  </si>
+  <si>
+    <t>re : test pension scheme address 10 test road test street aa12 123 on mon 23 nov 2020 05 : 07 &lt;test pensions pensions com wrote : dear abc xyz test pension scheme thank you for your email regarding the test pension scheme i can confirm that you are able to transfer either your defined benefits or defined contribution benefits subject to trustees consent in order to assist you further please could you provide your full address for data verification purposes should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at testscheme fincorp com &lt;mailto : testscheme fincorp com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 1237 direct dial : + 91 012345678 test pensions pensions com &lt;mailto : test pensions pensions com from : abc xyz mailto : abc xyz testmail com &lt;mailto : abc xyz testmail com sent : 19 november 2020 20 : 13 to : test pensions subject : ref tst12345678 hi i am writing to enquire whether there is an option to transfer my defined contribution and or my defined benefit rnib pension fund to a test pension scheme fund ie if i wanted to would i be allowed under this scheme abc xyz</t>
+  </si>
+  <si>
+    <t>additional information confirmed hi my name is : - abc j xyz dob 2 01 1800 ni no : zz123123z 10 test road test street aa12 123 i am currently in receipt of a pension since 2013 sss pension service waterup home 00 luke road waterup londonberry aa11 1aa ref no - 000000 tax district reference 000 a10000 the question i was asked - what was my life - time allowance i can now confirm that this was 16 9 i hope this information will result in a speedy payment of my pension kind regards abc sent from my ipad</t>
+  </si>
+  <si>
+    <t>re : pension transfer out good afternoon abc xyz 10 test road test street aa12 123 dob 01 01 1400 zz123123z tst12345678 i am planning to transfer my pension out of the scheme i have been informed that i need to inform you how do i do this abc from : abc xyz testmail com&lt;mailto : abc xyz testmail com sent : 12 november 2020 14 : 05 to : test pensions pensions com subject : pension good afternoon i am planning to transfer my pension out of the scheme i have been informed that i need to inform you how do i do this abc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">re : test retirement and death benefits plan - def section been over a month are you going to send me the information i requested on 12 oct 2020 at 11 : 36 test pensions pensions com wrote : dear mr abc test retirement and death benefits plan - def section thank you for your email regarding the test retirement and death benefits plan i can confirm that i have logged your request to our administration team to update your address a written response will be issued to your home address within 10 - 15 working days once your address details are updated we will proceed with your pension query if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 08 october 2020 13 : 53 to : test pensions pensions com subject : re : test retirement and death benefits plan - def section it s 1400 since i left the scheme not sure which address to give you on 8 oct 2020 at 07 : 13 test pensions pensions com&lt;mailto : test pensions pensions com wrote : dear abc test retirement and death benefits plan - def section thank you for your email regarding the test retirement and death benefits plan to enable us to answer your enquiry please could you provide your previous address for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions - - - - - original message - - - - - from : abc xyz testmail com sent : 06 october 2020 09 : 23 to : test pensions pensions com subject : test pension dear sir madam i m trying to track down a test pension from when i worked at def formerly xyz hope you can help me it ran from 1400 to 1400 my name is abc dob ni number if you find any details can you let me know the value and options for taking it at 55 thank you mr </t>
+  </si>
+  <si>
+    <t>re : change of address for abc xyz tst12345678 additional info required dob 01 january 1400 ni zz123123z from : abc xyz testmail com sent : 16 november 2020 15 : 59 to : test pensions pensions com subject : change of address for abc xyz tst12345678 please update you records asap to reflect my new email address abc xyz testmail com and a change of home address from 101 test road test street ea34 123 to below regards abc xyz 10 test road test street aa12 123</t>
+  </si>
+  <si>
+    <t>change of address from 2 test road please note that as from 27th november my address will be as follows : 10 test road test street aa12 123 payroll reference : tst12345678 dob : 01 january 1400 should you require any further information please do not hesitate to contact me regards abc</t>
+  </si>
+  <si>
+    <t>test pension fund abc d dear sirs i refer to your correspondence of 03 october 2020 your ref z zzzz01 0001 please note that the final implementation of the pension share and calculation will take into account the member s uurbs benefits please see attached information concerning uurbs and quotations for divorce purposes as the member is in receipt of his pension the total implementation fee is 2 025 00 plus vat split between the 2 x parties as per the pso i trust the above to be in order however if you have any queries concerning the above please contact us on 01000 100 100 or email us at test pensions pensions com kind regards sun light senior pensions administration leatherhead office postal address : post handling centre u st tower 7 chennai road london m00 0mm direct dial : + 44 0 0000 100100</t>
+  </si>
+  <si>
     <t>hello can i ask for final guaranteed transfer value please thank you abc xyz 10 test road test street aa12 123 zz123123z clock number 12345</t>
   </si>
   <si>
-    <t>additional information confirmed hi my name is : - abc j xyz dob 2 01 1800 ni no : zz123123z 10 test road test street aa12 123 i am currently in receipt of a pension since 2013 sss pension service waterup home 00 luke road waterup londonberry aa11 1aa ref no - 000000 tax district reference 000 a10000 the question i was asked - what was my life - time allowance i can now confirm that this was 16 9 i hope this information will result in a speedy payment of my pension kind regards abc sent from my ipad</t>
-  </si>
-  <si>
-    <t>pension retirement pack abc xyz nino - zz123123z dob - 01 01 1400 retirement date - 01 01 1400 could you please issue a retirement quotation to the above member including a transfer value kind regards abc xyz pensions manager direct : + 91 012345678 mobile : + 91 012345678 hi abc xyz i was informed by one of my colleagues that i can request a pension pack quote as i am considering retiring next year also as i am part of the test pensions scheme can i get a opt out figure if i retire next april just in case you try to call me at fin corp i have been seconded out for 6 months by fin corp onto a training exercise around region 1 and i am in oban this week many thanks abc abc xyz area manager 10 test road + 91 012345678</t>
-  </si>
-  <si>
-    <t>re : estate of - test pension ref : tst12345678 tees : 00123456789000 dear test pensions thank you for your email however i am confused test s letter of 28th september has been received and my letter sent by email on 5th october acknowledged this my letter of 5th october 2020 also provided the bank account details for mr lmno spouse of the deceased as requested in the letter from test please confirm that the funeral benefit is now being processed and will be sent to mr lmno shortly please also let me have details of your complaints procedure as this is now completely unacceptable i look forward to hearing from you yours sincerely test ifa from : test pensions pensions com sent : 08 october 2020 07 : 10 to : test ifa fincorp com subject : estate of - test pension ref : tst12345678 tees : 00123456789000 dear test ifa test pension fund thank you for your email regarding the test pension fund i have checked our records and can confirm that the correspondence was issued to you on 28 september 2020 however i have attached correspondence for your reference if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com&lt;mailto : test pensions pensions com yours sincerely test pensions from : test ifa fincorp com sent : 05 october 2020 22 : 23 to : test pensions pensions com subject : estate of - test pension ref : tst12345678 tees : 00123456789000 importance : high dear sirs please find attached our letter to you of today s date we look forward to receiving confirmation of the payment to mr lmno shortly yours faithfully test ifa</t>
+    <t>change of address - tst12345678 good afternoon i wish to inform you of a change to my address mr abc national insurance number : zz123123z test pension scheme reference : tst12345678 old adress : 10 test road test street aa12 123 as of the 30th october 20 new address : 2 test road test street uu12 123 kind regards abc</t>
+  </si>
+  <si>
+    <t>change of address abc xyz nino - zz123123z dob - 01 01 1400 reference - tst12345678 new address : 10 test road test street aa12 123 tel : + 91 012345678 could you please update your records with the members new address kind regards abc + 91 012345678</t>
+  </si>
+  <si>
+    <t>fw : request for pension details - abc xyz - ref : tst12345678 hello team please see below query and reply accordingly to the member ifa many thanks abc xyz - agent - customer support centre 10 test road test street aa12 123 abc xyz testmail com from : abc xyz - pension tracing service abc xyz testmail com sent : 20 november 2020 12 : 04 to : test pensions subject : request for pension details - abc xyz - ref : tst12345678 to whom this may concern please find attached a letter of authority for client abc xyz in relation to their policies plans held with you i have attached a standard schedule setting out the information we require in connection with any policies held by the client with yourselves along with a full information questionnaire if you so wish to use if you could please fully answer all questions and return the schedule by email or post as soon as possible it would be very much appreciated if there are any additional features of the scheme that are relevant to any decision that might be made by our client to exercise any options under the scheme which are not covered in this schedule please ensure that the relevant information is provided we would like to draw your attention to the fact that where the member is entitled to draw immediate retirement benefits we have asked you to provide a quotation for this in addition to the transfer data please also provide all relevant discharge transfer and open market option documents for any options involving immediate retirement or transfer if you anticipate that there will be a significant delay in providing all or any of the information requested please contact us immediately to indicate when the details will be supplied kind regards abc xyz</t>
+  </si>
+  <si>
+    <t>def group pension plan hi team please see below query and reply accordingly many thanks test pensions from : abc xyz testmail com sent : 18 november 2020 12 : 59 to : test pensions pensions com subject : fw : def group pension plan hi my full address is 10 test road test street aa12 123 abc xyz + 91 012345678 10 test road test street aa12 123 from : test pensions pensions com sent : 18 november 2020 12 : 54 to : abc xyz testmail com subject : def group pension plan dear mrs abc def group pension plan thank you for your email regarding the def group pension plan to enable us to answer your enquiry please could you provide your full address for data verification purposes should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 16 november 2020 08 : 33 to : test pensions pensions com subject : re : thank you for contacting the def group pension plan morning as indicated by the you email below please see the details requested full name abc xyz date of birth national insurance number i am wanting to know how i can get view me pension statement abc xyz + 91 012345678 10 test road test street aa12 123 from : test pensions pensions com sent : 16 november 2020 08 : 25 to : abc xyz testmail com subject : thank you for contacting the def group pension plan thank you for contacting the def group pension plan we confirm receipt of your enquiry and will aim to respond within 2 working days we are unable to deal with your request if you have not provided your full name date of birth and national insurance number if this is the case please re - send your original email including this information please note that if you have flagged your email as personal private or confidential it will be hidden from our view so please resend the message to us removing the flag before you send it why do we request this information so that we can ensure that we identify and respond to the correct person in accordance with data protection act regulations you may not wish to provide this information via e mail in which case we can deal with your enquiry via telephone or in writing please use either of these methods to contact us if this is the case we are unable to proceed with your enquiry via e mail without the information requested if you wish to change your address or bank account information def only accept signed written requests sent to our office regards test pensions</t>
+  </si>
+  <si>
+    <t>pension number 123456 hi could you please let me have a cetv quotation and also a statement of my deferred benefits both from the pension plan and for my avc also could you please post me the necessary forms required should i decide to request a cetv transfer to my test pension regards mr abc xyz 10 test road test street aa12 123 pension no : 123456 nino : zz123123z d o b : 01 01 1400</t>
   </si>
   <si>
     <t>test pension plan - mr xyz mr xyz 10 test road test street aa12 123 zz123123z thanks test ifa from : test pensions pensions com sent : 11 november 2020 06 : 27 to : test ifa fincorp com subject : test pension plan - mr xyz dear test ifa test pension plan thank you for your email regarding the test pension plan to enable us to answer your enquiry please could you provide member s full address date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com&lt;mailto : test pensions pensions com yours sincerely test pensions from : test ifa fincorp com sent : 06 november 2020 11 : 59 to : test pensions pensions com subject : test pension plan - mr xyz good afternoon i am emailing in regards to the above member we have recently submitted a paper based transfer for the below policy number : - tst12345678 would it be possible to confirm receipt of our request and confirm whether anything further is required to proceed test ifa</t>
   </si>
   <si>
-    <t>re : test pension fund dear abc xyz please find enclosed the information you requested nat ins no zz123123z 10 test road test street aa12 123 d o b 01 01 1400 yours sincerely abc xyz sent from my iphone on 20 nov 2020 at 15 : 30 testfund fincorp com &lt;mailto : testfund fincorp com wrote : dear abc xyz test pension fund thank you for your email regarding the test pension fund please accept our apologies for the delay in responding to you to enable us to answer your enquiry please could you provide your full address date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at testfund fincorp com &lt;mailto : testfund fincorp com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 www fincorp com &lt;http : www fincorp com - - - - - original message - - - - - from : abc xyz abc xyz testmail com sent : 13 november 2020 11 : 17 to : test pension fund cc : test ifa subject : car fin no zz123123z please be advised that no car payment has been taken out in november abc xyz sent from my ipad</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> urgent re : defg - zz123123z - 01 01 1400 importance : high good morning i m concerned that i am yet to have a response to my below request please provide the answers to our queries urgently and by email if possible kind regards test ifa from : test ifa fincorp com sent : 06 october 2020 17 : 26 to : test pensions pensions com subject : urgent re : defg - zz123123z - 01 01 1400 importance : high good afternoon please find attached a letter of authority duly signed by our mutual client which should enable you to release information for this policy therefore please kindly provide me with the following information in writing; dates salary date of joining and leaving the scheme member s final pensionable salary has the gmp been equalised are partial transfers allowed i e can the gmp remain and post 97 rights be transferred funding statement if relevant is late retirement allowed if so to what age and late retirement factors please pension benefits at date of leaving scheme gmp benefits; showing any pre post 88 splits the rates of revaluation in deferment and escalation in payment excess benefits; showing any pre post 85 or 97 splits the rates of revaluation in deferment and escalation in payment list of any discretionary increases applied to pension either in deferment payment during last 5yrs breakdown of any transferred - in benefits; are the benefits treated the same as the main scheme benefits if not please highlight any differences is there a fixed pension at nra of service credit if no gmp contained does the member have any avcs if so how what is the current value do they have to be transferred with the main scheme benefits what funds are they invested in can the member switch into different funds early retirement is early retirement allowed if so from which age what actuarial reduction factors are currently applied to members pensions in the event of early retirement if a table of factors is not available please provide the percentage reduction applicable for each year early and whether this is compound or simple reduction would the member benefits be revalued to the date of actual or normal retirement upon early retirement if revalued to normal retirement at what assumed rate are benefits projected to normal retirement benefit payable now on a full pension basis and maximum pension commencement lump sum with reduced pension basis tax free cash member tfc at date of leaving would this amount revalue if so at what rate does the scheme pay hmrc post a - day maximum cash amount of pre a - day ir maximum cash at 5 4 2006 if protected what are the scheme current tfc commutation factors from nra to age 55 death benefits does the scheme pay a death before retirement lump sum if so what and how much what pension would the member spouse receive upon death before and after retirement what death after retirement guarantee does the scheme apply contracting out was the scheme contracted out pre post 06 04 1997 if yes for post 97 on what basis; reference scheme protected rights underpin mixed benefit transfer value total transfer value cetv ; showing any splits of gmp protected rights pre post 06 04 1997 calculation and guarantee dates also amount of member contributions included in the tv scheme information scheme s normal retirement age is the scheme open to all employees or are there restrictions if so what are they what is the scheme s current funding position would deferred members benefits be affected in any way if so how is the scheme a member of the transfer club will the scheme allow a partial transfer of benefits if yes please outline any restrictions that would be applied and or provide details of the basis on which a partial transfer would be allowed if no please confirm if there is more than one type section version of scheme membership which one applies to the member is the plan subject to an earmarking or attachment order what date was the scheme equalised and the earliest age benefits can be taken unreduced if the transfer were to proceed would the scheme be insistent that all forms must be returned within the guarantee period or could some discretion be used at that time please forward copies of any warranty discharge forms that would need to be completed if the client decided to transfer their benefits thank you for your assistance in this matter kind regards test ifa</t>
+    <t>pension query hi team please see below query and reply accordingly many thanks test pensions from : abc xyz testmail com sent : 18 november 2020 09 : 02 to : test pensions pensions com subject : re : pension query abc xyz dob : 01 01 1400 ni : zz123123z thanks regards abc from : test pensions pensions com sent : 18 november 2020 04 : 02 to : abc xyz testmail com subject : pension query dear abc thank you for your email to enable us to answer your enquiry please could you provide your date of birth and national insurance number and full address for data verification purposes should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 13 november 2020 14 : 44 to : test pensions pensions com subject : pension check hi just checking on the pension i started with you back in the 80 s when i worked for def could you please send me some information on its value thanks regards abc</t>
+  </si>
+  <si>
+    <t>your reference : tst12345678 our reference : zz123123z good morning we have received your letter of 18 september 2020 regarding the passing of mr lmno we have searched our records and cannot find a policy for mr lmno on the money purchase department we are unable to forward your letter to the correct department as we are unsure of the department please could you confirm who your usual contact is for the test retirement death benefits plan xxxx section if we do not hear from you within the next 20 days we will close the request kind regards test fund</t>
+  </si>
+  <si>
+    <t>fw : urgent : abc xyz - test pension fund our ref : 12345 urgent hi apologies for chasing but our client is very keen for us to acquire this information please can you provide an update on the progress of this information request and an estimated date we can expect a response with the information many thanks in advance please quote our client case number on all your replies 12345 regards abc xyz for and on behalf of fin corp ltd 10 test road test street aa12 123 + 91 012345678 fin corp testmail com from : abc xyz &lt;abc xyz testmail com sent : friday november 20 2020 8 : 18 pm to : test pension fund &lt;testfund fincorp com subject : fw : urgent : abc xyz - test pension fund our ref : 12345 urgent hi please can you provide an update on the progress of this information request and an estimated date we can expect a response with the information many thanks in advance please quote our client case number on all your replies 12345 regards abc xyz for and on behalf of fin corp ltd 10 test road test street aa12 123 + 91 012345678 fin corp testmail com from : abc xyz &lt;abc xyz testmail com sent : friday november 20 2020 8 : 18 pm to : test pension fund &lt;testfund fincorp com subject : urgent : abc xyz - test pension fund our ref : 12345 urgent please quote our client case number 12345 on all your replies hi please find attached pension information projections letter together with our client s signed letter of authority loa please provide us with the requested information as soon as possible by secure email if possible transfer discharge requirements : please enclose your discharge transfer encashment form please confirm what form of id is required from our mutual client please confirm if your funds can be paid directly to fin corp ltd for the client s benefit please confirm if the discharge encashment transfer of this plan is supported under the fin corp options pension transfer service please email : fin corp testmail com &lt;mailto : fin corp testmail com tel : + 91 012345678 regards abc xyz</t>
+  </si>
+  <si>
+    <t>question about my pension after death good morning i have a question regarding my pension after my death i understand my wife who is a beneficiary will get a lump sum but what about the pension it self would my wife get a weekly monthly percentage of my pension or just receive the lump sum many thanks abc xyz</t>
+  </si>
+  <si>
+    <t>test pension scheme - mrs abc importance : high hi team please see below query and reply accordingly thank you test pensions from : test ifa fincorp com sent : 06 november 2020 17 : 58 to : test pensions pensions com subject : test pension scheme - mrs abc importance : high dear test pensions i confirm receipt of your letter dated 22 october 2020 providing us with a cetv this information did not contain a basis pension information including : date of joining scheme date of leaving scheme breakdown of the pension payable as revalued to now revaluation increases pre and post retirement please could you also confirm whether you accept pension credit to be received from mrs hall s spouse by way of a pension sharing order given that the above information is generally provided in a basis cetv report and that my request for a cetv was registered on 24 july 2020 i should be most grateful if you could provide me with a response at your earliest convenience kind regards def from : test pensions pensions com sent : 25 september 2020 13 : 11 to : test ifa fincorp com subject : test pension scheme - mrs abc dear def thank you for your email i have checked the records and can confirm that our administration department are working on your requests and they will issue the correspondence to you as soon as possible should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely test pensions from : test ifa fincorp com sent : 23 september 2020 10 : 35 to : test pensions pensions com subject : test pension scheme - mrs abc dear sir madam on the 1st september 2020 i called and spoke to one of your representatives called david who advised that we should receive the cetv for divorce purpose in 10 - 15 working days this time period has now elapsed and we have not received anything i should be grateful if you could provide me with an update as to when i am likely to receive this information i would apricate if someone could respond to be as soon as possible given that callers are unable to get an update over the phone kind regards def from : test pensions pensions com sent : 31 july 2020 12 : 38 to : test ifa fincorp com&lt;mailto : test ifa fincorp com subject : test pension scheme - mrs abc dear def thank you for your email your request has been logged and you will receive a written response from our administration department within 10 - 15 working days should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely test pensions from : test ifa fincorp com sent : 24 july 2020 17 : 19 to : test pensions pensions com subject : test pension scheme - mrs abc dear test pensions yes please log a job now for the calculation of a cetv for divorce purposes and let me know the current turn - around time i am likely to receive this i understand this will be free however please let me know if this is not the case kind regards def from : test pensions pensions com sent : 24 july 2020 14 : 52 to : test ifa fincorp com subject : test pension scheme - mrs abc dear def thank you for your email please accept our apologies for the delay in responding to you as the initial email states that you do not require transfer value hence the request is not booked however please confirm is the cetv required for transfer or divorce purpose should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com&lt;mailto : test pensions pensions com yours sincerely test pensions from : test ifa fincorp com sent : 15 july 2020 17 : 30 to : test pensions pensions com subject : re : test pension scheme - mrs abc dear test pensions further to your email below i should be grateful if you could provide us with an updated cetv of mrs abc s benefits held in the test pension scheme we note that the previous calculation was produced on 10 july 2019 and therefore i understand that this cetv should be free of charge please advise if this is not the case we would be grateful if you could also advise the current turn - around time for producing a cetv should you have any queries in the meantime please do not hesitate to contact us kind regards def from : test pensions pensions com sent : 09 july 2020 05 : 07 to : test ifa fincorp com subject : test pension scheme - mrs abc dear test pensions thank you for your email and please accept our sincerest apologies for the delay in responding to you your request has been logged and you will receive a written response from our administration department within 10 - 15 working days should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com&lt;mailto : test pensions pensions com yours sincerely test pensions from : test ifa fincorp com sent : 24 june 2020 16 : 23 to : test pensions pensions com subject : warning : message encrypted tst12345678 - letter of authority queries wxyz00 message encrypted dear sir madam policyholder : mrs abc policy number : tst12345678 please find attached a letter of authority in respect of the above policy the attachment has been password protected using the policyholder s date of birth in the format ddmmyyyy please confirm that our authority has been recorded to this policy we would be grateful if you could provide the following information : - 1 full details of benefits payable including copy of most recent annual benefit statement or deferred benefit statement 2 copy of the scheme booklet relevant to the membership category 3 options for pension credit members and schedule of charges for implementing pension sharing orders please note we do not require a current cash equivalent transfer value cetv at this time please send all information by email to def email : test ifa fincorp com&lt;mailto : test ifa fincorp com if information may only be sent by fax or post please mark this for the attention def we look forward to hearing from you kind regards def</t>
+  </si>
+  <si>
+    <t>re : test salaried contributory pension fund address on file : 10 test road test street aa12 123 new address 102 test road test street ea12 123 thanks and regards abc - - - - - - - - original message - - - - - - - - from : test pensions pensions com date : 17 11 20 4 : 37 pm gmt + 10 : 00 to : abc xyz testmail com subject : test salaried contributory pension fund dear test pensions test salaried contributory pension fund thank you for your email regarding the test salaried contributory pension fund please accept our sincerest apologies for the delay in responding to you to enable us to answer your enquiry please could you provide your full address for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 10 november 2020 13 : 24 to : test pensions pensions com subject : current proof of pension importance : high test scheme number dear sir or madam i have been asked for proof of my current test pension payments the financial institution i am dealing with will not accept documents older than two months and the most recent i have are from january 2018 they will accept proof in the form of an email attachment hopefully this is something you can respond to quickly further to this i am still waiting for a reply to my email of 6th november where i asked for clarification on an overpayment into my account best regards abc</t>
+  </si>
+  <si>
+    <t>re : ms abc xyz dear abc xyz my question has been answered and letter confirming revised pension calculation already received regards ms abc xyz on 21 nov 2020 at 03 : 28 &lt;test pensions pensions com &lt;test pensions pensions com wrote : dear abc xyz ms abc xyz thank you for your email regarding the test pensions fund please accept our apologies for the delay in responding to you to enable us to answer your enquiry please could you provide your full address date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely abc xyz administrator customer support centre 10 test road test street aa12 123 direct dial : + 91 012345678 test pensions pensions com - - - - - original message - - - - - from : abc xyz abc xyz testmail com sent : 14 november 2020 18 : 27 to : test pensions cc : test ifa subject : pension payment ref tst12345678 importance : high to abc xyz team manager i have today received a letter advising that i will receive a pension lump sum payment of 100 in december leaving me with a pension of 500 per annum i have signed documentation to request a pension lump sum payment of 100 only please update your records and recalculate my annual pension accordingly thanks ms abc xyz</t>
+  </si>
+  <si>
+    <t>re : test pension fund - late lmno dear sirs we can confirm the following information as requested : lmno address : 10 test road test street aa12 123 date of death : 1st january 1400 national insurance no : zz123123z we look forward to hearing from you abc from : test pensions pensions com sent : 06 october 2020 11 : 10 to : abc xyz testmail com subject : test pension fund - late lmno dear test ifa test pension fund thank you for your email regarding the test pension fund to enable us to answer your enquiry please could you provide the member full address date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : test ifa fincorp com sent : 02 october 2020 16 : 23 to : test pensions pensions com subject : lmno deceased - reference : tst12345678 dear sirs we are in receipt of your letter dated 16 june 2020 to miss abc we can confirm that miss abc has appointed test ifa to act on her behalf in relation to the administration of the estate of her late father lmno we have noted the overpayment of pension which is due back from the estate unfortunately we have not yet obtained letters of administration and therefore do not have access to the requisite funds to reimburse you however we will be in touch in that regard with an update as soon as we are able on a separate note we have arranged for the funeral benefit form to be signed and we will return this to you in due course in the meantime please find enclosed the funeral receipt and invoice we look forward to hearing from you yours faithfully test ifa</t>
+  </si>
+  <si>
+    <t>test pension scheme - abc xyz - tst12345678 hi there following my earlier email today i now enclose all the documentation you require to instigate a pension transfer to the test pension scheme we have recommended abc xyz you are therefore receiving this before the 1st january 1400 deadline for the cetv so we hope all is satisfactory for you to proceed we would be obliged if you reply as quickly as possible please acknowledging this email and enclosures and confirming that you have all you need to process the transfer we look forward to hearing further from you many thanks kind regards abc xyz from : abc xyz &lt;abc xyz testmail com sent : monday november 23 2020 7 : 31 am to : test pension scheme &lt;testscheme fincorp com cc : test ifa &lt;test ifa fincorp com subject : abc xyz - tst12345678 hi there following the attached letter you have sent to the client only just received today by the way as using the postal system with covid delays around the world is not ideal we are planning to email you all the transfer documentation you require by the deadline of 1st january which is the cetv guarantee date as the transfer to an overseas test pension scheme is to proceed we are just awaiting on some final documents to come through to us before we email this all through to you you have already advised us that you will accept emailed transfer documentation so once you receive this you will hopefully have everything you need to process the transfer the letter you therefore sent to the client is somewhat confusing as the cetv deadline is 1st january however we also note in the letter that we are still able to provide you with the paperwork and the transfer can be made before 1st january 2021 we will forward the paperwork to you soon however if you have any questions please contact us thank you kind regards charlene from : abc xyz &lt;abc xyz testmail com sent : monday 23 november 2020 1 : 09 pm to : abc xyz &lt;abc xyz testmail com subject : fw : internet fax job hi i received this letter today from fin corp ltd can you please advise next step thanks abc xyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">re : thank you for your email to test pensions pensions com just received your reply by post basically telling me i can t retire yet all i asked was how much was in the pension i m wanting to take it next april when i m 55 you ve been horrendous to deal with be in touch next april hope your more helpful sent from my iphone </t>
+  </si>
+  <si>
+    <t>letter of authority - client abcd good afternoon please find attached a letter of authority and information request for our client abcd please send all correspondence to this email where possible kind regards test ifa</t>
+  </si>
+  <si>
+    <t>fw : reveiw of pension sharing order rome jlt00000000 fos further to my email below we would be grateful for a response thank you abc xyz from : electricity transformer sent : 25 september 2020 17 : 58 to : test pensions cc : test pensions subject : fw : reveiw of pension sharing order - rome - jlt00000000 fos good afternoon please find attached a sharing order which we would be grateful if you could review thank you electricity transformer senior pensions administrator leathe office postal address : post handling centre u st tower 7 chennai street m0 00a member line : + 44 0 1000 100000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pre - identified user support request lmno reply email address : abc xyz testmail com forename : abc surname : xyz ni number : zz123123z dob : 01 january 1400 home postcode : employer : test subject : spouses pension benefits content : i understand that a spouses pension is 50 of the members pension upon the death of the member is this 50 guaranteed or subject to agreement from the pension trustees is this 50 applicable regardless of the age of the spouse and or the difference in ages between the member and the spouse i have heard that the 50 does not necessarily apply if the spouse if more than 10 years younger than the member this would be applicable to me hence the question </t>
+  </si>
+  <si>
+    <t>fw : mr abc xyz - tst12345678 - test pension fund importance : high please see the client s full details below abc xyz dob : 01 01 1400 ni no : zz123123z kind regards abc xyz - - - - - - - - - - - - - - - - - - - - - - - - - - - - abc xyz covid - 19 please note we are unable to accept visitors at the office without prior appointment please do not attend our office if you have a persistent cough a high temperature or have lost your sense of taste or smell upon entering the office all visitors must sanitise at the unit provided and adhere to social distancing guidelines hoping you and your families stay safe and well from : abc xyz sent : 20 november 2020 14 : 55 to : test pensions pensions com subject : mr abc xyz - tst12345678 - test pension fund importance : high good afternoon with regard to the above client please can you advise whether the client has protected tax free cash within the plan kind regards abc xyz</t>
+  </si>
+  <si>
+    <t>death in retirement hi can you help my father abc xyz is a retired employee of fin corp he retired approximately 30 years ago and is a member of the test pension plan dob 01 01 1400 ni no zz123123z paye ref tst12345678 pension payroll no tst12345678 address : 10 test road test street aa12 123 he is now 89 years of age and sadly in hospital receiving palliative care and is not expected to survive more than a few days who do i need to inform after he dies and as he will be survived by his wife will she be eligible for any benefit after his death importantly we are trying to put a care package in place for my mum as she herself has healthcare needs thank you for your help abc xyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">urgent information request our id : 123456 good morning client name abc xyz client national insurance number zz123123z we recently requested a cetv pack for the above client please can you confirm receipt of our request and confirm when the cetv pack will be issued if it has already been issued please can you provide a copy by email to test pensions pensions com &lt;mailto : test pensions pensions com thank you abc xyz </t>
+  </si>
+  <si>
+    <t>test pensions jlt00000000 - 01 01 1800 xx1 1xx good morning with regards to the above member of the test pensions scheme and the information you kindly provided i would be grateful if you could please confirm that the normal retirement date is age 65 when the client originally joined the scheme believed the retirement age was 60 and therefore if it is now 65 i would be grateful if you could please confirm when it changed to age 65 and whether or not benefits can still be taken unreduced at age 60 i look forward to hearing from you however should you have any questions or queries in the meantime please do not hesitate to contact me kind regards abc xyz senior paraplanner chartered financial planner 10 test road test street aa12 123 tel : 0111 11 11 11 fax : 01111 11 11 11 web : www fincorp com email : fin corp testmail com</t>
+  </si>
+  <si>
+    <t>change of address details hi i am in the test pension scheme and we have moved house in the last few days i have updated my address details with hr here at xxx but wondered how i can do this on my test pension account or will this update automatically over time now that hr are aware regards abc</t>
   </si>
   <si>
     <t>change of address and bank details as per my telecom with efg today i am forwarding my original email which i sent to the wrong address efg has very kindly updated the system with our new address below but was unable to update our bank details kindly update our bank account details as per below thanking you abc and xyz begin forwarded message : from : abc xyz testmail com date : 11 november 2020 at 15 : 02 : 16 to : test pensions pensions com subject : change of address and bank details re : abc pension ref tst12345678 - ni no zz123123z and xyz pension refs tst12312678 - ni no zz120023z please be advised that we have relocated permanently from xx to the xx recently we would like to inform you to change our address and bank account details as follows : old address : 10 test road test street aa12 123 to new address wef 30 10 2020 : 02 test road test street ee12 123 from old bank account details : xx account hijk joint account 11223344556 tuvw - 0000 0000 0000 0000 0000 0000 000 fgh stuvwx0bank to new bank account details : xx account pqrs joint account in the name of mrs abc mr xyz sort code 00 - 00 - 00 account no 12345678 tuvw - 0000 0000 0000 0000 0000 0000 000 fgh stuvwx0bank there are 3 separate pensions in total - 2 in the name of xyz and 1 in the name of mrs abc thank you sincerely abc and xyz tel : + 91 012345678</t>
   </si>
   <si>
-    <t>burger fries fin : 100000 retirement quote importance : high please can i request a ser quote for the above employee due to separate from the company on 1st january 1400 many thanks kind regards</t>
-  </si>
-  <si>
-    <t xml:space="preserve">urgent information request our id : 123456 good morning client name abc xyz client national insurance number zz123123z we recently requested a cetv pack for the above client please can you confirm receipt of our request and confirm when the cetv pack will be issued if it has already been issued please can you provide a copy by email to test pensions pensions com &lt;mailto : test pensions pensions com thank you abc xyz </t>
-  </si>
-  <si>
-    <t>re : mr abcd - test pension scheme for senior staff - case ref : tst12345678 hi test pensions thank you for the below email we have been waiting for a long time and tend to have these issues with the ford scheme a lot when requesting information for different clients on top of having to sit on hold for over 30 minutes every time we call and keep getting told different things you mentioned below the cetv pack has been sent out via email earlier today can you please confirm as i have not received this on my email thanks abcd from : test pensions pensions com date : wednesday 18 november 2020 at 23 : 44 to : abc xyz testmail com subject : mr abcd - test pension scheme for senior staff - case ref : tst12345678 dear abcd further to your telephone call on 12 november 2020 and subsequent calls on 17 and 18 november 2020 please accept my sincere apologies for the delay in providing the revised transfer value for mr abcd we do pride ourselves on the quality of service that we deliver to our corporate clients trustees and most importantly individual members we receive relatively few complaints and do take any very seriously we are sorry about your dissatisfaction you have had to wait so long for the information you requested i can advise that an email has been issued earlier today providing the transfer information on behalf of myself and the team at test we would like to extend our apologies for any inconvenience caused and trust that you will be reassured that we do seek to minimise the number of occasions on which matters such as this arise should you have any further queries or cause for concern please do not hesitate to contact us on the number quoted below your sincerely test pensions</t>
-  </si>
-  <si>
-    <t>transfer request mr xyzz 100 your ref : tst12345678 test : confidential good afternoon please find attached our transfer request as our mutual client wishes to transfer their funds to test for an annuity please let us know if anything further is required many thanks test annuity</t>
-  </si>
-  <si>
-    <t>pension query hi team please see below query and reply accordingly many thanks test pensions from : abc xyz testmail com sent : 18 november 2020 09 : 02 to : test pensions pensions com subject : re : pension query abc xyz dob : 01 01 1400 ni : zz123123z thanks regards abc from : test pensions pensions com sent : 18 november 2020 04 : 02 to : abc xyz testmail com subject : pension query dear abc thank you for your email to enable us to answer your enquiry please could you provide your date of birth and national insurance number and full address for data verification purposes should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 13 november 2020 14 : 44 to : test pensions pensions com subject : pension check hi just checking on the pension i started with you back in the 80 s when i worked for def could you please send me some information on its value thanks regards abc</t>
-  </si>
-  <si>
-    <t>change of details good morning i would like to notify of my change of name and address previous brown nocolour of 00 clarant ride teakwood road bb00 0bb now brown colour 0 greenland road penselvansey bay east sunset bn11 1bb regards brown colour sent from my ipad</t>
-  </si>
-  <si>
-    <t>re : test retirement and death benefits plan - mr abcd good morning i am following up again on the outstanding queries for this member would you please respond as soon as possible thank you test ifa from : test pensions pensions com&lt;mailto : test pensions pensions com sent : 03 november 2020 12 : 04 to : test ifa fincorp com subject : test retirement and death benefits plan - mr abcd dear test ifa test retirement and death benefits plan thank you for your email regarding the test retirement and death benefits plan please accept our sincerest apologies for the delay we will review the current position of your case and ensure that it is dealt with promptly if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com&lt;mailto : test pensions pensions com yours sincerely test pensions from : test ifa fincorp com sent : 30 october 2020 15 : 39 to : test pensions pensions com subject : fw : test retirement and death benefits plan - mr abcd good morning i am just following up on the outstanding queries below please let me know as soon as possible if you require any additional information thank you test ifa from : test pensions pensions com sent : 09 october 2020 13 : 21 to : test ifa fincorp com subject : test retirement and death benefits plan - mr abcd dear test ifa test retirement and death benefits plan thank you for your email regarding the test retirement and death benefits plan your request has been logged and you will receive a written response from our administration department within 10 - 15 working days if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : test ifa fincorp com sent : 07 october 2020 17 : 11 to : test pensions pensions com subject : test retirement and death benefits plan - mr abcd good afternoon please find attached the loa for this member the member s national insurance no will open the document thank you test ifa from : test pensions pensions com sent : 02 october 2020 12 : 34 to : test ifa fincorp com subject : test retirement and death benefits plan - mr abcd dear test ifa test retirement and death benefits plan thank you for your email regarding the test retirement and death benefits plan i can confirm that i have checked our records and we do not hold a valid letter of authority on file allowing us to release information to yourself in order for us to provide any information could you please arrange for the letter of authority to be sent via email which will allow us to process your request please note that the letter of authority must be signed by the member within the last 12 months and confirm the full ifa company name and address if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : test ifa fincorp com sent : 30 september 2020 16 : 01 to : test pensions pensions com subject : test retirement and death benefits plan - mr abcd good morning please find attached the additional member details you require the password is the member s national insurance number as supplied in my previous email thank you test ifa from : test ifa fincorp com sent : 30 september 2020 11 : 29 to : test pensions pensions com subject : test retirement and death benefits plan - mr abcd good morning we are currently working on producing a test for the above member as part of our advice process please can you respond to the following query from ctc to enable us to complete the report 1 please confirm that the pension amounts shown in columns r onwards are at date of leaving 24 2 99 if not please advise the members national insurance no xxxxxxxxx additional member information you require to follow in a password protected document thank you test ifa</t>
-  </si>
-  <si>
-    <t>pension number 123456 hi could you please let me have a cetv quotation and also a statement of my deferred benefits both from the pension plan and for my avc also could you please post me the necessary forms required should i decide to request a cetv transfer to my test pension regards mr abc xyz 10 test road test street aa12 123 pension no : 123456 nino : zz123123z d o b : 01 01 1400</t>
+    <t>pension hello my name is abc xyz i am 56 years old and would like to take a portion of my gkn pension but not sure how to go about it would be thankful if someone could contact me on 123456789 many thanks sent from my huawei phone</t>
+  </si>
+  <si>
+    <t>re : test pension plan - abc hi - we have the attached info - this is the last statement he has received - he has moved house a few times ! hope this helps ! abc from : test pensions pensions com sent : 09 november 2020 14 : 01 to : abc xyz testmail com subject : test pension plan - abc dear abc test pension plan thank you for your email regarding the test pension plan unfortunately i can confirm we are unable to locate a record of benefits using the details you have provided could you please confirm the name of the scheme the member is part of in addition could you please supply any additional reference numbers or the name of anyone you have received correspondence from within test in the past if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test from : test ifa fincorp com&lt;mailto : test ifa fincorp com sent : 05 november 2020 19 : 28 to : test pensions pensions com subject : test pension plan - abc hi - please find attached a signed letter of authority from our mutual client we would appreciate it if you could please provide us with the following information please let us know of you need the original authority sent in the post : his previous address was when providing the cash equivalent transfer value and details of the deferred pension entitlement in respect of the scheme we would be grateful if you could ensure that the following information in respect of the entitlement is included in your response : general 1 a copy of the scheme booklet in relation to their membership of the scheme 2 a copy of the latest summary funding statement in respect of the scheme 3 confirmation as to whether the cetv provided reflects any underfunded position that the scheme has at present 4 confirmation as to whether a partial transfer option is available to the member and if so details of how that option can be applied specific 1 the scheme normal retirement age 2 the earliest age at which the member can become entitled to unreduced benefits 3 the earliest age at which benefits can be taken and any accrual reduction to the benefits that will be applied in such circumstances 4 the breakdown of the deferred pension entitlement at the date of leaving service between any gmp entitlement pre - and post - 1988 pre 06 04 1997 excess and post 05 04 1997 entitlement 5 the rates of revaluation of the pension in deferment including for any gmp entitlement where revaluation is on a limited revaluation basis the amount of the lrp and whether that is included in or is additional to the cetv you provide 6 the rates of escalation of the pension in payment and the measure of inflation rpi or cpi that is used within any increase measure 7 confirmation as to whether the member has any pre - a day protected tax - free cash entitlement within the deferred pension entitlement 8 confirmation of whether any tax - free cash entitlement is by commutation and is provided under post - a day maximum rules if not please specify the amount formula used in calculating the maximum tax - free cash available to the member 9 details of the cash commutation factors applicable at the scheme normal retirement age 10 details of any spouse civil partner death pre - retirement and post - retirement pensions that may be payable 11 details of any guaranteed period of payment for the members pension if death occurs in the guaranteed period is any lump sum payable 12 details of any lump sum payable in the event of the members death pre - retirement including details of any member contributions that may be included in such a payment and the current rate of interest if any that would be added to those contributions 13 for post 05 04 1997 benefits confirmation that the scheme is contracted out on a reference scheme basis or if not the split of the post 05 04 1997 transfer value between protected and non - protected rights 14 details of any option available to the member to defer taking benefits beyond the scheme normal retirement age and any revaluation factors that will apply to the pension entitlement post the scheme normal retirement age many thanks test ifa</t>
   </si>
   <si>
     <t>abc xyz hello dob : 01 01 1400 ni : zz123123z please find attached an loa for your records we are reviewing a case for the above named client and would appreciate if you could answer a few points please confirm the transfer value of 192 265 50 takes into account the members pension sharing order please provide the last 5 years of discretionary increases in payment please confirm if the fixed addition tranche revalues in deferment or increases in payment if so is this by rpi or cpi any max 5 or 2 5 please provide a full table of commutation factors specifically for age 65 and 60 please provide an early retirement factor for age 60 please confirm in the event of early retirement if the pension revalues to nrd or actual retirement date please provide the value of the members contributions at date of leaving kind regards test ifa t : + 91 012345678 e : test ifa fincorp com</t>
   </si>
   <si>
-    <t>change of address good afternoon my name is abc and i wish to inform you of a change of address in xyz and also request a document stating my pension details for the last two years for my test bank my national insurance number is zz123123z reference number - tst12345678 my new address is - 10 test road test street aa12 123 thank ypu abc</t>
-  </si>
-  <si>
-    <t>change of bank third request with additional information included dear sirs booker pension scheme reference 10000000 you are currently paying my pension into my account no 10000000 with nationalwide i intend to close this account so wish you to make future payments into my account with the holifax my account details with them are : name n addidas sort code 100000 account no 00000001 my address is 10 nashley lawn grandure avenue homee b00 0bb national insurance no zz000000a date of birth 30 10 1800 please confirm you are actioning this request thank you nike addidas</t>
-  </si>
-  <si>
-    <t>re : ford pension fund - late mr abc xyz hi please see information below which had been already provided abc xyz address - 10 test road test street aa12 123 dob - 01 01 1400 national insurance - zz123123z thanks - - - - - original message - - - - - from : test pensions pensions com to : abc xyz testmail com sent : thu nov 19 2020 8 : 18 am subject : test pension fund - late mr abc xyz dear abc xyz test pension fund thank you for your email regarding the test pension fund please accept our apologies for the delay in responding to you to enable us to answer your enquiry please could you provide the member full address date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely abc xyz administrator customer support centre test pensions 10 test road test street aa12 123 direct dial : + 91 012345678 testfund fincorp com &lt;mailto : testfund fincorp com from : abc xyz&lt;abc xyz testmail com sent : 11 november 2020 10 : 35 to : test pensions subject : abc xyz funeral benefit - tst12345678 hi i am writing to you in regards to the funeral benefit payment in reference to my husband abc xyz please see attached the documentation required name - abc xyz relationship - wife national insurance number - fund name - mr abc xyz reference - tst12345678 regards abc xyz</t>
-  </si>
-  <si>
-    <t>fw : urgent : abc xyz - test pension fund our ref : 12345 urgent hi apologies for chasing but our client is very keen for us to acquire this information please can you provide an update on the progress of this information request and an estimated date we can expect a response with the information many thanks in advance please quote our client case number on all your replies 12345 regards abc xyz for and on behalf of fin corp ltd 10 test road test street aa12 123 + 91 012345678 fin corp testmail com from : abc xyz &lt;abc xyz testmail com sent : friday november 20 2020 8 : 18 pm to : test pension fund &lt;testfund fincorp com subject : fw : urgent : abc xyz - test pension fund our ref : 12345 urgent hi please can you provide an update on the progress of this information request and an estimated date we can expect a response with the information many thanks in advance please quote our client case number on all your replies 12345 regards abc xyz for and on behalf of fin corp ltd 10 test road test street aa12 123 + 91 012345678 fin corp testmail com from : abc xyz &lt;abc xyz testmail com sent : friday november 20 2020 8 : 18 pm to : test pension fund &lt;testfund fincorp com subject : urgent : abc xyz - test pension fund our ref : 12345 urgent please quote our client case number 12345 on all your replies hi please find attached pension information projections letter together with our client s signed letter of authority loa please provide us with the requested information as soon as possible by secure email if possible transfer discharge requirements : please enclose your discharge transfer encashment form please confirm what form of id is required from our mutual client please confirm if your funds can be paid directly to fin corp ltd for the client s benefit please confirm if the discharge encashment transfer of this plan is supported under the fin corp options pension transfer service please email : fin corp testmail com &lt;mailto : fin corp testmail com tel : + 91 012345678 regards abc xyz</t>
-  </si>
-  <si>
-    <t>re : member address change zz123123z hi abc i can confirm that this has now been corrected regards test pensions from : testfund fincorp com sent : 19 november 2020 08 : 50 to : test pensions pensions com subject : re : member address change zz123123z good morning please could i escalate this as only half of this address change has been completed - on mr abc s test account it is showing half his old address and half his new address this could be a technical error or something perhaps although mr abc is needing the correct information to be displayed this was initially requested manually by myself on this email trail on 27th october as i believe he may have missed the september cut off for the address feed as he moved in september so that i am able to resolve his query from our end please can this be changed as soon as possible many thanks in advance test fund from : testfund fincorp com sent : 04 november 2020 09 : 37 to : test pensions pensions com subject : fw : member address change zz123123z good morning further to the below request the member has contacted us today to inform only half of his address has been changed and this is therefore still incorrect please can this be looked into and the address changed exactly as the initial request many thanks in advance for your help kind regards test fund from : testfund fincorp com sent : 27 october 2020 11 : 02 to : test pensions pensions com subject : member address change zz123123z good morning mr abc zz123123z moved address in september 2019 although this has not been updated with test please can you change your records to reflect the following address : many thanks in advance for your help kind regards test fund</t>
-  </si>
-  <si>
-    <t>test pension plan - tst12345678 abc thanks you however mr abc has left employment through voluntary redundancy and i need the guaranteed cetv please from : test pensions pensions com sent : 11 november 2020 14 : 42 to : test ifa fincorp com subject : test pension plan - tst12345678 abc dear test ifa thank you for your email regarding the test pension plan please find attached information regarding mr abc this has been encrypted with the member s national insurance number in the format zz123123z kind regards test pensions</t>
-  </si>
-  <si>
-    <t>policy ref : 13245 dear sirs re : policy ref 132456 mrs abc xyz 10 test road test street aa12 123 date of birth 01 01 1400 ni : zz123123z my employment at yorkshire water ceased on 01 01 1400 and i am writing to request early retirement quotation estimation calculations from you for the following options : 01 01 1400 with lump sum and without lump sum options - age 58 01 01 1400 with lump sum and without lump sum options - age 60 i look forward to hearing from you soon yours faithfully mrs abc xyz</t>
-  </si>
-  <si>
-    <t>re : test pension fund hi my dob : 01 01 1400 ni : zz123123z regards on 20 nov 2020 at 15 : 10 test pensions pensions com &lt;mailto : test pensions pensions com wrote : dear abc xyz test pension fund thank you for your email regarding the test pension fund please accept our apologies for the delay in responding to you to enable us to answer your enquiry please could you provide your date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at testfund fincorp com yours sincerely abc xyz administrator customer support centre test pensions 10 test road test street aa12 123 direct dial : + 91 012345678 - - - - - original message - - - - - from : abc xyz&lt;abc xyz testmail com sent : 10 november 2020 09 : 39 to : test pensions subject : change of address hi can i change my address please 10 test road test street aa12 123 regards abc xyz 123456 57</t>
-  </si>
-  <si>
-    <t>re : test pensions query as requested additional information name : abc xyz dob : 01 01 1400 ni : zz123123z i have recently had my pension transferred over to you my member reference is 12345678 i m all my previous correspondence from the previous supplier i had a pension age of 60 for some benefits and 63 for the remainder i note that on your website you show my normal retirement age as 65 please can you clarify why this change has been made thank you abc xyz from : abc xyz testmail com &lt;mailto : abc xyz testmail com date : sunday 22 november 2020 at 12 : 28 to : subject : test pensions query dear sir i have recently had my pension transferred over to you my member reference is 12345678 i m all my previous correspondence from the previous supplier i had a pension age of 60 for some benefits and 63 for the remainder i note that on your website you show my normal retirement age as 65 please can you clarify why this change has been made thank you abc xyz</t>
-  </si>
-  <si>
-    <t>changing my home address good afternoon i have a pension with dixons stores group and need to let you know my new address my old address is 00 avilon road meham swiss ss00 0ss my new address is 11 margrate mojito burgman on sea summerset tt0 0tt name stephen stone man date of birth 31st december 1800 old employee number with dixons 000xxx0 please can you let me know that this as been done and arrange for my pension statement to be sent to me i have two pensions with dixons i know one was transferred to mercer ltd which i have notified separately thank you kind regards stone man sent from mail&lt;https : go microsoft com fwlink linkid = 550986 for windows 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fwd : rbc retirement option form my national insurance number and address are in the attached forms so i have assumed i don t also have to include this in the body of the email please find attached my retirement forms to take retirement in my 60th birthday 01 01 1400 please confirm that my pension is not discounted as i have grandfathered rights i do not wish to take all my tax free cash for the test plan i have indicated the reduced amount on my form please confirm you have picked this up please can you let me know what my amended annual pension will be also please can you confirm when my first pension payment will be made and which date in the month this will be also please can you confirm when i will receive the cash lump sum i will also post the originals many thanks for your help sent from my iphone begin forwarded message : from : abc xyz date : 22 november 2020 at 19 : 35 : 54 gmt to : test pensions subject : rbc retirement option form </t>
-  </si>
-  <si>
-    <t>re : test pension scheme dear abc xyz thank you for your response my address is : 10 test road test street aa12 123 sincerely abc xyz on dec 2 2020 at 3 : 20 am &lt; test pensions pensions com &lt; test pensions pensions com wrote : dear mr abc xyz test pension scheme thank you for your email regarding test pension scheme to enable us to answer your enquiry please could you provide your full address for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 - - - - - original message - - - - - from : abc xyz&lt;abc xyz testmail com sent : 28 november 2020 06 : 39 to : test pensions subject : test pensions hello my pension payroll number is 123456 as a dual uk and usa citizen and resident of the usa i am required to report my pension income on my usa tax return i am contacting you to ask whether you will be able to supply a report of pension paid in the calendar year 2020 on an internal revenue service form 1099 - r if you are not able to supply this form i have to submit a substitute 1099 - r with self - reported income and an explanation of any attempts i have made to obtain a 1099 - r from the payer i did receive a p60 form from you for the uk financial year to 5 april 2020 however that form only reported the taxable periodic payments from when i started receiving the pension on 30 jan 2020 until my 3rd payment on 31 mar 2020 it did not include the non - taxable commencement lump sum that i received in january 2020 i am supposed to report that income on my us income tax return and then claim exemption from tax under the usa - uk tax treaty thank you in advance for your assistance with this matter regards abc xyz</t>
-  </si>
-  <si>
-    <t>request for pensioner id card for lmno importance : high to : test pensions please could you urgently provide lmno with her pensioner id card miss lmno s father sadly passed away on and she is still awaiting from november 2019 mr xyz s fin : tst12345678 a pensioner id card has been issued to her sister abcd but the card for lmno is still outstanding please could you rectify this as a matter of urgency regards test pensions from : testfund fincorp com sent : 11 november 2020 20 : 29 to : test pensions pensions com subject : hi test pensions hope you are well are you able to chase lmno s card which she has never received attached is abcd s one she can contact you direct if you prefer but as she is studying in xxx she has asked if i could do it on her behalf many thanks test fund</t>
-  </si>
-  <si>
-    <t>re : test pensions death approval - mr abc xyz - tst12345678 abc xyz i agree with the recommendation from : test pensions pensions com sent : 16 november 2020 17 : 06 to : test pensions subject : test pensions death approval - mr abc xyz - tst12345678 test pensions mr abc xyz death in retirement please find attached the documentation relating to the above late member who died whilst in receipt of his pension the member was a widower at the date of death this case is being referred to the committee because the member did not leave a nomination form but left a will in favour of his daughter - ms abc xyz mr xyz survived by a long term partner however she has indicated that she was not financially dependant on him it would be our recommendation that lump sum death benefit is paid to his daughter in accordance to his will please would you agree with this recommendation kind regards abc xyz mrs senior administrator test pensions 10 test road test street aa12 123 direct dial : + 91 012345678 fin corp</t>
-  </si>
-  <si>
-    <t>re : test pension scheme - mr abc xyz clients details; name - abc xyz address 10 test road test street aa12 123 dob 01 january 1400 nino zz123123z our reference tst12345678 good morning please see the below email from my colleague this states the directions needed to obtain a hmrc portal print out dated within the last three months please can you advise us of a timescale in which we are likely to receive this outstanding paperwork we are unable to match the monies for the client until we have received this from yourself kind regards test ifa from : test pensions pensions com sent : 29 october 2020 07 : 46 to : test transfers pensions com subject : test pension scheme - mr abc xyz dear test transfers test pension scheme thank you for your email regarding the test pension scheme i can confirm i have forwarded your email to our administration department and they will be in contact shortly if any further information is required if you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely test pensions from : test transfers pensions com sent : 27 october 2020 14 : 44 to : test pensions pensions com subject : re : test pension scheme - mr abc xyz importance : high clients details; name - address dob nino our reference tst12345678 good morning thank you for your letter dated 22 october with the attached confirmation of the date the pension scheme started however this is not the information we require i can confirm how you can obtain this please go to the website : https : www rrrrrrrrrrrrrrr within this you can navigate to get the pstr for the scheme that you are the administrator for when in the hmrc portal and on the screen which displays the pstr number but not the date - rather than click the green print text on the screen - click file and print and convert to adobe pdf this will produce a two page document with both the date and pstr number that satisfies the requirements kind regards test transfers from : test pensions pensions com sent : 17 october 2020 08 : 23 to : test transfers pensions com subject : test pension scheme - mr abc xyz dear team test pension scheme thank you for your email regarding the test pension scheme i can confirm i have forwarded your email to our administration department to process as requested and they will be in contact shortly if you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely test pensions from : test transfers pensions com sent : 14 october 2020 18 : 53 to : test pensions pensions com subject : re : test pension scheme - mr abc xyz good afternoon clients details; name address dob nino kind regards test transfers from : test pensions pensions com sent : 14 october 2020 08 : 31 to : test transfers pensions com subject : test pension scheme - mr abc xyz dear team test pension scheme thank you for your email regarding the test pension scheme to enable us to answer your enquiry please could you provide the member full address date of birth and national insurance number for data verification purposes if you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely test pensions from : test transfers pensions com sent : 12 october 2020 11 : 33 to : test pensions pensions com subject : test pension scheme - mr abc xyz thank you for sending us the payment in relations to the pension transfer for the above client as mentioned in our acceptance letter dated 28 september 2020 please can you provide us with your hmrc portal screen print date within the last 3 months kind regards transfers team</t>
-  </si>
-  <si>
-    <t>abc xyz hello dob : 01 01 1400 ni : zz123123z you should already have a true potential loa we are reviewing a case for the above named client and would appreciate if you could answer a few points please provide a funding status of the plan this must show a fixed percentage at a fixed date if db benefits are transferred out do avc s also need to be transferred out please confirm the 5pc benefits are treated the same as excess how do the following revalue in deferment is it by rpi or cpi any max 5 2 5 post 09 post 12 how do the following increase in payment is it by rpi or cpi any max 5 2 5 post 09 post 12 what is the spouses pension upon death in deferment for the following 50 post 09 post 12 what is the spouses pension upon death in retirement for the following 50 post 09 post 12 is the pension guaranteed in payment is it for 5 years in the event of early retirement does the pension revalue to nrd or actual retirement date kind regards test ifa t : 012345678 e : test ifa fincorp com</t>
-  </si>
-  <si>
-    <t>urgent : abc tst12345678 signed transfer documents certified proof of address identity and financial advice declaration - cetv guarantee date october 23 2020 dear sirs : mr abc s signed transfer documents proof of address identity and confirmation of advice were emailed to the ford administrators on october 23 and i received an automated confirmation reply shortly thereafter both emails are below to that end please honor this valuation and proceed with the transfer thank you for your help with this matter appreciatively yours def 10 test road test street aa12 123 phone direct + 91 012345678 - - - - - - - - - - forwarded message - - - - - - - - - from : test pensions pensions com date : thu 19 nov 2020 20 : 04 subject : urgent : abc tst12345678 signed transfer documents certified proof of address identity and financial advice declaration - cetv guarantee date october 23 2020 to : test ifa fincorp com dear def i am emailing you with regards to mr abc s proposed transfer after reviewing the paperwork received we have noted that the our receiving scheme warranty form was signed dated and received after the guarantee date of the 23 10 2020 unfortunately as our requirements were not met before the guarantee date we are unable to proceed with the transfer we are required to recalculate mr abc s cetv if the he still wishes to transfer his benefits as member s of the fund are entitled to one cetv in a twelve month period a recalculation fee is 420 00 incl vat is payable payment can be made to the following account : account : test benefits account no : 12345678 sort code : 00 - 00 - 00 reference : member s name and national insurance number please let us know when payment has been made either by letter email of telephone call if you have queries regarding this email please do not hesitate to contact us kind regards test pensions postal address : 10 test road test street aa12 123 member helpline : + 91 012345678 test pensions pensions com from : test pensions pensions com sent : monday november 2 2020 5 : 36 am to : test ifa fincorp com subject : re : urgent : abc tst12345678 signed transfer documents certified proof of address identity and financial advice declaration - cetv guarantee date october 23 2020 dear def ford salaried contributory pension fund thank you for your email regarding the ford salaried contributory pension fund please accept our apologies for the delay in responding to you i can confirm i have forwarded your email to our administration department and they will be in contact shortly if any further information is required if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : testfund fincorp com sent : friday october 23 2020 5 : 36 pm to : test pensions pensions com subject : re : urgent : abc tst12345678 signed transfer documents certified proof of address identity and financial advice declaration - cetv guarantee date october 23 2020 thank you for your email to the test pension should you have any queries in the meantime please contact our member helpline on + 91 012345678 please note this is an automated response postal address : 10 test road test street aa12 123 from : test ifa fincorp com sent : 23 october 2020 22 : 32 to : test pensions pensions com subject : urgent : abc tst12345678 signed transfer documents certified proof of address identity and financial advice declaration - cetv guarantee date october 23 2020 dear sirs : please accept the attached scans of mr abc tranfer documents financial advice declaration and certifed proof of address and identity contingent that the originals are to follow shortly thank you for your help with this matter appreciatively yours def senior investment advisor test ifa 10 test road test street aa12 123 phone direct + 91 012345678</t>
-  </si>
-  <si>
-    <t>questions to test - re - send dob : 01 01 1400 nat insurance : zz123123z address : 10 test road test street aa12 123 on 01 jan 1400 at 12 : 06 testfund fincorp com wrote : dear test do you have a pension questionnaire which i can complete with any questions i may have are there any guarantees on the plan such as a guaranteed annuity rate or minimum pension amount am i correct in thinking that i can take option 2 the defined benefit and the defined contribution parts of the pension to re - invest that money whilst leaving the annual reduced pension with you to be delivered monthly defined benefit tax free cash sum : 108 757 54 plus : a reduced annual pension : 16 313 64 plus : pension money current value : 115 139 06 many thanks abc</t>
-  </si>
-  <si>
-    <t>re : abc xyz tst12345678 pension quote hi please can you provide me with an eta for the below pension quotation many thanks from : abc xyz testmail com sent : 30 october 2020 10 : 43 to : test pensions pensions com subject : abc xyz tst12345678 pension quote hi please can i request pension figures for the following; employee : abc xyz tst12345678 dob : 01 01 1400 retirement date : 1st january 1400 retirement type : normal early retirement actuarily reduced thank you</t>
-  </si>
-  <si>
-    <t>mr lmno test group pension scheme ref tst12345678 dear sir madam i write to you as representative of my father lmno to inform you that he sadly passed away on 1st january 1400 my understanding is that lmno has two pensions with test 111 11 and 11 11 net month if you can please let me know what needs to happen next and if you require any further information from me at this time thank you abc</t>
+    <t>change of name dear sir abc pension reference tst12345678 zz123123z i refer to a mail forwarded to your payroll department on 13th october on reflection i think this should have been sent to you i would like to confirm my change of name i married on 4th august 2020 and my new surname is abc i have advised hmrc and my details have been updated with them similarly my bank have been informed and my accounts have been amended from def to abc but the account number and sort code remain the same i attach a photocopy of my marriage certificate for your records should you require any further information please do not hesitate to contact me my phone numbers and email address remain the same yours faithfully mrs abc</t>
+  </si>
+  <si>
+    <t>re : test pension plan - abc zz123123z good evening following my recent email and as we have not heard from you please may i ask you to provide a guaranteed transfer value pack for mr abc as a matter of urgency i look forward to hearing from you kind regards test ifa from : test ifa fincorp com&lt;mailto : test ifa fincorp com sent : 21 october 2020 11 : 21 to : test pensions pensions com subject : re : test pension plan - abc zz123123z importance : high good morning i have checked with our client and the request to opt out has definitely been requested as such please may i ask you to check your records again and forward the guaranteed transfer value pack for mr abc as soon as possible i look forward to hearing from you kind reagrds test ifa from : test pensions pensions com sent : 19 october 2020 16 : 44 to : test ifa fincorp com subject : test pension plan - abc zz123123z dear test ifa test pension plan thank you for your email regarding the test pension plan i have checked our records and can confirm that we have not received the opt out notification from employer if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : test ifa fincorp com sent : 15 october 2020 14 : 30 to : test pensions pensions com subject : test pension plan - abc zz123123z importance : high good morning please may i ask you to forward a guaranteed transfer value pack for mr abc as soon as possible now that he has opted out of the scheme i look forward to hearing from you kind regards test ifa</t>
+  </si>
+  <si>
+    <t>re : test pension fund thanks for getting back to me my address is 10 test road test street aa12 123 date of birth is 1st january 1400 and national insurance number is zz123123z regards abc xyz on 21 nov 2020 03 : 29 test pensions pensions com &lt;mailto : test pensions pensions com wrote : dear abc xyz test pension fund thank you for your email regarding the test pension fund please accept our apologies for the delay in responding to you to enable us to answer your enquiry please could you provide your full address date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com &lt;mailto : test pensions pensions com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 from : abc xyz &lt;abc xyz testmail com sent : 14 november 2020 22 : 28 to : test pensions subject : logging in to manage my benefits my name is abc xyz based in test locatyion my fin is 123456 and am a driver specialist in fin corp ltd i would to be able to access and manage my pension benefits online i know i received a letter way back in 1400 to activate my account i cant remember if i did if i did i have completely forgotten my log in details please could you assist thank you regards abc xyz 12345678</t>
+  </si>
+  <si>
+    <t>pension value dear sir madam i would like to know how i can review the total value of my pension and its transfer value i can access fin corp but can only find my annual entitlement at retirement age regards abc xyz supply chain me direct : + 91 012345678 mobile : + 91 012345678 email : abc xyz testmail com</t>
+  </si>
+  <si>
+    <t>change of address - completed form please find attached a completed change of address form abc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pre - identified user support request reply email address : test pensions pensions com forename : abc xyz surname : def ni number : zz123123z dob : 01 jan 1400 home postcode : aa12 123 employer : fin corp ltd subject : question re my test pension and the lifetimes allowance content : i am 55 in 1400 and i am now looking to start considering my pension retirement options i have a sipp with over 100 000 in it so looking ahead i am conscious that over the next few years i may come close to the lifetime allowance when i also consider the value of my test pension my understanding is that to work out the amount of my test pension within the lifetime allowance i multiply the annual pension payment by 20 is it possible to tell me what my pension is for lifetimes allowance calculation at 55 amd 60 much appreciated</t>
+  </si>
+  <si>
+    <t>fw : test pension scheme hello team please see below query and reply accordingly to the member ifa many thanks abc xyz - agent - customer support centre test pensions 10 test road test street aa12 123 + 91 012345678 from : abc xyz &lt;abc xyz testmail com sent : 19 november 2020 22 : 47 to : test pensions &lt;test pensions pensions com subject : re : test pension scheme hi abc my date of birth is 01 jan 1400 ni number is zz123123z best regards abc xyz sent from my iphone on 19 nov 2020 at 20 : 59 test pensions pensions com &lt;mailto : test pensions pensions com wrote : dear abc xyz test pension scheme thank you for your email regarding the test pension scheme to enable us to answer your enquiry please could you provide your date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com &lt;mailto : test pensions pensions com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 from : abc xyz &lt;abc xyz testmail com sent : 17 november 2020 21 : 27 to : test pension fund subject : activation code hi i left it rather to long to use the fin corp activation code sent to me could you send a new activation code many thanks best regards abc xyz</t>
+  </si>
+  <si>
+    <t>test penison scheme member ref : tst12345678 many thanks for your letter of 1st january 1400 regarding the options for taking my pension benefits having taken advice on this matter and considering my current personal situation i would like to know if it would be possible to defer taking my pension benefits for potentially a further three years according to your guide notes this may be possible but is dependant on scheme rules at the time of enrolment into the scheme the normal retirement date was upon reaching the age of 60 as you are aware subsequent changes have resulted in my state pension retirement age now increasing to 66 years and 8 months which is not until 2030 i plan to formally retire with my husband when he reaches the age of 65 which will be in 2025 i would therefore like to delay taking my pension benefits for 2 years if this is possible please advise best regards mrs abc xyz email abc xyz testmail com</t>
+  </si>
+  <si>
+    <t>change of address i am trying to change the address details for my test pension to 3 def 10 test road test street aa12 123 name : mr abc : paye reference : 1234; national insurance number zz123123z : pension payroll number tst12345678 please change as above or advise me how it can be done because i cannot find a way to do it on line i look forward to your helpful reply kind regards abc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> warning : message encrypted abc xyz your ref tst12345678 our ref tvaut - 123456 message encrypted good morning please find attached completed transfer paperwork for the above member looking to transfer to fin corp you will need to use the clients ni number in uppercase to view these documents if anything further is required please let me know kind regards abc xyz 10 test road test street aa12 123 tel : + 91 012345678 email : test pensions pensions com &lt;mailto : test pensions pensions com tel : + 91 012345678 email : test pensions pensions com &lt;mailto : test pensions pensions com </t>
+  </si>
+  <si>
+    <t>re : test pension scheme thank you for your email my ni number is zz123123z and my date of birth is 01 01 1400 kind regards abc xyz on 20 nov 2020 at 06 : 59 test pensions pensions com &lt;mailto : test pensions pensions com wrote : dear mrs abc xyz test pension scheme thank you for your email regarding the test pension scheme to enable us to answer your enquiry please could you provide your date of birth and national insurance number for data verification purposes should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com &lt;mailto : test pensions pensions com yours sincerely abc xyz administrator customer support centre test pensions 10 test road test street aa12 123 direct dial : + 91 012345678 from : abc xyz&lt;abc xyz testmail com sent : 18 november 2020 23 : 32 to : test pensions subject : change of address - mrs abc xyz i am writing to advise you that i have recently moved house and my new address is : 10 test road test street aa12 123 i am not sure if you have my last address listed as : 10 test road test street aa12 123 if not then i it will be : 10 test road test street aa12 123 should you need any further information then please contact me on + 91 012345678 kind regards abc xyz</t>
+  </si>
+  <si>
+    <t>re : test pension scheme abc xyz tst12345678 hello i have checked with mr abc who confirmed that he had sent documents when they were requested he will download and complete again regards test fund on 18 nov 2020 at 12 : 06 test pensions pensions com wrote : dear test fund it is about the statement and forms that we sent to you following the death of mrs abc we do not think that you have returned the documents requested what do i need to do please refer to the statement that we sent to you and send us the information requested completed beneficiary form completed bank mandate form please include your address and national insurance number where can i get more information or ask questions please call + 91 012345678 to speak to our team lines are open between 9 00am and 5 00pm monday to friday please have the member s national insurance number ready so that we can deal with your enquiry quickly if you write to us please provide the member s full name and national insurance number the scheme name and the reference tst12345678 regards test pensions</t>
+  </si>
+  <si>
+    <t>test pension scheme reference : tst12345678 dear test pensions i am enclosing the information you asked for in your recent letter dated 23 october 2020 the beneficiaries addresses you asked for are mrs def 10 test road test street aa12 123 mr jkl 110 test road test street ee12 123 the solicitor dealing with the estate of lmno is stu her email is stu testmail com&lt;mailto : stu testmail com yours sincerely abc</t>
+  </si>
+  <si>
+    <t>immediate retirement quote ref : tst12345678 test pension scheme mr abc xyz 10 test road test street aa12 123 ni zz123123z dear abc thank you for your recent correspondence i would like to request an immediate retirement quote for mr abc and retirement pack with his options on taking his pension from the scheme if you could also please send me a copy of this information if you require any further information from myself please let me know kind regards abc xyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xyz tst12345678 good afternoon thank you for your letter dated 29th october 2020 please find attached a revised letter of authority and request for information for your attention i look forward to hearing from you in due course yours sincerely test ifa 10 test road test street aa12 123 tel : + 91 012345678 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">re : test pension scheme - lmno she was born on 1st january 1400 and died on monday 1st january 1400 death has been registered electronically and certificate issued there are no financial dependents i am lmno s son abc 10 test road test street aa12 123 phone number + 91 012345678 abc son from : test pensions pensions com sent : 07 october 2020 04 : 08 to : abc xyz testmail com subject : test pension scheme - lmno dear abc test pension scheme thank you for your email on regarding the test pension scheme please accept my sincerest condolences for your loss in order to assist us could you please provide us with the following details : emailer s relation to member : date of birth : date of death : has the death been registered and death certificate issued : did the member have any financial dependents address for condolence : contact number : if you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 05 october 2020 15 : 02 to : test pensions pensions com subject : bereavement i am contacting you to advise of the death of one of your pensioners and to stop any undue payments the deceased is member no tst12345678 nat ins no she was residing at abc son and executor </t>
   </si>
   <si>
     <t>re : change of marital status - abc - zz123123z abc from : test jobcreation pensions com sent : 15 october 2020 14 : 09 to : test pensions pensions com subject : fw : change of marital status - abc - zz123123z hi test pensions please provide the email address as it is missing on below email regards test creation from : abc xyz testmail com sent : tuesday october 13 2020 2 : 47 : 37 to : test pensions pensions com subject : change of marital status - abc - zz123123z hi i would like to notify you that i recently married and would ask that you amend your records to ensure my husband xyz is now listed as the beneficiary to my pension i have attached a copy of my wedding certificate my address is : 10 test road test street aa12 123 please let me know if you require any further information many thanks and regards abc</t>
   </si>
   <si>
-    <t>test pension scheme - tst12345678 - abc xyz good afternoon i am writing in reference to the above group life claim i can confirm that the claim for mr abc xyz has been registered onto our systems and we have commenced our assessment i note that the address on the death register does not match the address provided on the claim form please can you provide a reason for this the address on the death register is 10 test road test street aa12 123 kind regards abc xyz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test pensions letter of authority - abc good morning test pension scheme reference : tst12345678 member name : mr abc thank you for your letter of 3 november please find attached a new signed letter of authority from mr abc can you please let me know if you are able to provide the information requested in my previous email kind regards test ifa from : abc xyz testmail com sent : 07 november 2020 10 : 10 to : test ifa fincorp com&lt;mailto : test ifa fincorp com subject : re : test pensions letter of authority - abc hi test ifa pls find attached scanned authorisation letter regards abc on fri 6 nov 2020 at 18 : 21 kate davis &lt;test ifa fincorp com&lt;mailto : test ifa fincorp com wrote : hi abc i have just had a reply from test pensions they need a new letter of authority could you please print sign and return the attached to me and i will send it off so we can get access to your scheme information many thanks kind regards test ifa mobile + 91 012345678 email test ifa fincorp com&lt;mailto : test ifa fincorp com </t>
-  </si>
-  <si>
-    <t>urgent cetv guarantee date ending - def importance : high good morning please find attached a letter of authority and request for information for our client def - zz123123z the password to access the document is the clients dob in the format xx xx xxxx please send us a copy of the most recent cetv and transfer out paperwork asap the guarantee end date is december and the client is considering transferring out the clients postcode is aa12 123 if you have any queries do not hesitate to contact me kind regards abc</t>
-  </si>
-  <si>
-    <t>fw : mr abc xyz - tst12345678 - test pension fund importance : high please see the client s full details below abc xyz dob : 01 01 1400 ni no : zz123123z kind regards abc xyz - - - - - - - - - - - - - - - - - - - - - - - - - - - - abc xyz covid - 19 please note we are unable to accept visitors at the office without prior appointment please do not attend our office if you have a persistent cough a high temperature or have lost your sense of taste or smell upon entering the office all visitors must sanitise at the unit provided and adhere to social distancing guidelines hoping you and your families stay safe and well from : abc xyz sent : 20 november 2020 14 : 55 to : test pensions pensions com subject : mr abc xyz - tst12345678 - test pension fund importance : high good afternoon with regard to the above client please can you advise whether the client has protected tax free cash within the plan kind regards abc xyz</t>
-  </si>
-  <si>
-    <t>test pension plan - zz123123z dear test pensions thank you for your response the email i received asked me to await a hard copy version of this information before proceeding any further i know 2 copies have been sent but the xxx train system is not running at the present time so no postal deliveries have been made not to worry i would like to expedite my pension plan immediately and i am choosing option 1 = the largest lump sum possible 11111 + and the relevant monthly income thereafter as my wife and i live in india we would like all the funds deposited into her def account - the account number will be supplied if this is possible we can also provide proof of identity current passports + adhaar national id card + my oci card and an indian government certified marriage certificate which will endorse our relationship please advise kind regards abc employee no 00000 ni number : zz123123z on wed 11 nov 2020 at 10 : 51 &lt; test pensions pensions com wrote : dear mr abc test pensions pension plan thank you for your email regarding the test pensions pension plan please accept our apologies for the delay in responding to you i have checked the record and i can confirm that we did sent you a copy of retirement quote via email on 22nd september 2020 however i have attached the copy of correspondence once again for your convenience please note we have encrypted the document with a password which is your national insurance number all in uppercase for ex zz123123z if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com did you know that member s can access and manage their pension online by logging into their test account if you are a scheme of this member you can access your account here&lt;https : login benpal com if you have forgotten your username and or password there is a link on this page to reset it if you have not previously activated your account email us so we can provide you with the activation link yours sincerely abc from : abc xyz testmail com sent : 06 november 2020 07 : 40 to : test pensions pensions com subject : test pension plan - zz123123z dear test pensions it would appear that def state is currently experiencing a train strike this means that mail is not being delivered would it be possible to send my pension pack via email to this address please advise kind regards abc on sat 10 oct 2020 9 : 06 am abc xyz testmail com wrote : dear test pensions that is good news thank you i suspect the delay is just the sheer distance combined with the logistical challenges caused by the virus my contact details are + 91 012345678 please note that i teach for 5 5 hours per day 11 00 am to 4 30 pm india time monday to friday and my phone is usually on silent therefore it would be advisable to reach me in the afternoon after 1 00 pm gmt regards abc on thu 8 oct 2020 at 21 : 31 &lt; test pensions pensions com &lt;mailto : 20test pensions pensions com 20 wrote : dear mr abc test pensions plan thank you for your email regarding the test pensions plan please accept my sincerest apologies for any inconvenience this may cause you i have checked our records and can confirm that the correspondence was issued to you on 1st january 1400 however i have arranged for the information to be re - issued to you as you have not received it please note that you will receive it shortly also could you please provide your contact details to call you if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 06 october 2020 12 : 13 to : test pensions pensions com subject : test pension plan - zz123123z reference : tst12345678 dear test pensions unfortunately i have yet to hear back from the administration department as of today tuesday 01 01 1400 would it be possible for them to make contact within the next 48 to 72 hours please regards abc employee no ni number on thu 24 sep 2020 at 18 : 43 abc xyz testmail com wrote : reference : tst12345678 dear test pensions firstly please note that my home address has changed it is now : it is exactly the same building but the local government has changed the way they officially designate them please amend your records to reflect this secondly as i am in india do i still need to call the 000000 number to request the necessary forms or is there an alternative method please advise kind regards abc employee no ni number : on tue 22 sep 2020 at 21 : 56 &lt; test pensions pensions com wrote : dear mr abc further to your email please see the attached response the document has been encrypted with your national insurance number letters in upper case kind regards test pension scheme administration team from : abc xyz testmail com sent : 15 september 2020 17 : 41 to : test pensions pensions com subject : test pension plan - zz123123z dear test pensions ref : tst12345678 please find attached the original document containing the original address i have also attached the response letter i received from pensions just to clarify the building is the same one; the local government has altered their method of identifying them hence the change of address regards abc on fri 11 sep 2020 at 10 : 11 &lt; test pensions pensions com wrote : dear mr abc test pension plan thank you for your email regarding the test pension plan please accept my sincerest apologies for any inconvenience this may cause you to enable us to answer your enquiry please could you provide your previous address for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com to : test pensions pensions com subject : test pension plan - zz123123z dear test pensions ref no here are the details that you requested address : date of birth : ni number : employee payroll number : regards abc on wed 2 sep 2020 at 16 : 55 &lt; test pensions pensions com wrote : dear abc test pension plan thank you for your email regarding the test pension plan to enable us to answer your enquiry please could you provide your full address date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 01 september 2020 17 : 16 to : test pensions pensions com subject : test pension plan - zz123123z ref no tst12345678 dear test pensions i would like to begin the process of activating my pension we have corresponded several times and the process seems fairly simple as previously stated i would like to take the maximum lump sum available plus the relevant monthly payments there are 2 issues that will need resolving : 1 i am based in the def xyz and the local government have recently altered their house identification system therefore i would need to update my address 2 question : can i have the monthly payments transferred to my wife hijk account if we supply the necessary documents proving that she is in fact my wife could you also include all the relevant information regarding what my wife is entitled to in the event of my death regards abc on mon 1 oct 2018 at 09 : 42 abc xyz testmail com wrote : dear test pensions would it be possible to send me the following information please 1 my monthly pension amount if i commence payments in may 2020 2 the maximum amount i can take in a lump sum in may 2020 and the relevant subsequent monthly payment please send this information to this email address kind regards abc on wed 26 sep 2018 at 10 : 34 abc xyz testmail com wrote : dear test pensions would it be possible to send me the following information please 1 my monthly pension amount if i commence payments in may 2020 2 the maximum amount i can take in a lump sum in may 2020 and the relevant subsequent monthly payment please send this information to this email address kind regards abc former x employee payroll no tst12345678 on fri 6 apr 2018 at 12 : 07 &lt; test pensions pensions com wrote : dear mr abc thank you for your email your address has been updated and a retirement quote was issued to your new address in the middle of march 2018 regards test pensions from : testfund fincorp com sent : 05 april 2018 15 : 35 to : test pensions pensions com subject : fw : verification form from : abc xyz testmail com sent : 05 april 2018 05 : 43 to : testfund fincorp com subject : test pension plan - zz123123z dear test pensions do you have any information regarding my pension request it has been several weeks since the completed form was sent and there has been no reply kind regards abc ref : tst12345678 on 24 november 2017 at 22 : 44 testfund fincorp com wrote : dear abc please find attached verification letter that was originally issued to def without the filled verification form we won t be able to proceed with your request in the mean time if you require any further information please do not hesitate to contact us regards test fund</t>
-  </si>
-  <si>
-    <t>re : test pension plan please find attached the screenshot regards abc xyz on fri nov 20 2020 at 11 : 06 pm &lt; test pensions pensions com &lt;mailto : test pensions pensions com wrote : dear abc xyz test pension fund thank you for your email regarding the test pension fund please accept our apologies for any inconvenience this has caused you could you please share the screenshot of an error you are getting on fin corp while entering your post code so that we can able to assist you properly if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com &lt;mailto : test pensions pensions com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 from : abc xyz &lt;abc xyz testmail com sent : 19 november 2020 00 : 31 to : test pensions pensions com subject : re : fin corp login further to your response please also see my additional info abc xyz dob 01 01 1400 payroll 123456 ni zz123123z address 10 test road test street aa12 123 i am trying to create a fin corp account but using the link you sent me it asks for a post code i put in my usa zip code which was not accepted please help thanks abc xyz on wed nov 18 2020 at 9 : 25 am abc xyz &lt; abc xyz testmail com &lt;mailto : abc xyz testmail com wrote : hi my name i abc xyz payroll number 13245678 i have tried to login to the fin corp website using the link you sent me but i do not have a uk post code as i live in the usa and it does not accept my us zip code 12345 please help me to create a fin corp account thanks abc xyz</t>
+    <t>re : pension summary sent from my ipad on 20 nov 2020 at 16 : 54 abc xyz &lt;test pensions pensions com wrote : hi i m in the test pensions scheme i ve logged into test pensions to have a look at my pension summary and it s only showing me my pension summary as at 01 jan 1400 is there a reason for this also i have tried to get an early retirement quote calculation but it has been unable to calculate my quote can you help dob 01 01 1400 national insurance number zz123123z 10 test road test street aa12 123 regards abc xyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abc xyz dear sir or madam please find attached a current letter of authority for the above client this is an initial request looking into a potential transfer once the above client confirms they wish to proceed we will confirm the receiving scheme qrops sipp transfer request list please provide all details in full both overseas and uk discharge forms including fin corp requirements forms for the transfer to take place scheme and plan type barber equalisation date nra pre and post barber equalisation date has there previously been a transfer in or not if yes then the amount of gmp transferred in revaluation rate for gmp transferred in confirmation of any avc or money purchase benefits held within the scheme are there any pension sharing earmarking orders - if yes does the tv reflect this does the scheme provide a bridging pension guaranteed annuity rates where applicable please provide details on single life level basis single life 10 year guarantee joint life 50 spouses guaranteed growth rates guaranteed plan value at retirement ill - health pension or enhancement current fund value including all fund details full cetv if the cetv has been reduced please confirm by what amount date of joining and leaving the pension scheme normal retirement date age members contributions to the scheme an immediate retirement quote value of pension at date of leaving value of pension at statement date deferred pension at date of leaving - per annum figure showing : o pre 88 gmp o post 88 gmp o pre 97 gmp o post 97 gmp o post 05 o post 09 o excess o should any gmp revalue at different rates please provide the relevant split pension increases in deferment for : o gmp o excess o if this is by price inflation please specify if this is cpi or rpi pension increases in retirement for : o gmp o excess o if this is by price inflation please specify if this is cpi or rpi have there been any discretionary increases in the last 10 years is there a spouses pension details in both deferment and retirement - also confirm if spouse s pension is calculated before or after any commutation confirmation of the reduction to the spouse benefits if the spouse is more than 10 years younger is there a children s pension details in both deferment and retirement guarantee period on death of the member lump sum payable in death in deferment and retirement the member s final pensionable earnings figure in order to determine the spouse s pension payable on death in deferment rate of interest applied to the refund of contributions on death in deferment full income without taking pcls earnings on leaving pcls at nra commutation factor for ages 55 - 70 early retirement factors and how they are applied - are these applied to pension at retirement or nra late retirement factors and how they are applied - are these applied to pension at retirement or nra scheme funding status date latest scheme funding statement leaflet booklet is the plan paid up longevity adjustment factor and how this is applied if applicable scheme booklet do you permit partial transfers and if so on what terms have you as yet equalised gmp payments in line with the may 1990 ruling by the european court of justice abc xyz pension administrator tel : + 91 012345678 fax : + 91 012345678 email : fin corp testmail com &lt;mailto : fin corp testmail com </t>
+  </si>
+  <si>
+    <t>fw : address update from : abc xyz mailto : dexterspost sky com sent : 23 november 2020 19 : 37 to : test payroll subject : address update good morning i recently received a pension payslip from you which was sent to my previous address i thought i had updated you with my new address in july could you kindly check the details you have for me are correct please and let me know if they have been updated test pension scheme mr abc cba pension ref : 10000 my address : 10 test road test street aa12 123 kind regards abc cba sent from my galaxy</t>
+  </si>
+  <si>
+    <t>re : change of bank for pension payment completed form attached as requested will you please confirm when actioned many thanks on tue 17 nov 2020 at 10 : 30 test pensions pensions com wrote : dear abc def retirement and employee scheme thank you for your email regarding the def retirement and employee scheme i have attached a change of bank details form for you to print and complete as appropriate you should return the form either via a scanned attachment in your email alternatively you can return the form to our postal address : test scheme post handling centre 10 test road test street aa12 123 please do not close your old bank account until you have received the first payment in your new account should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 13 november 2020 16 : 23 to : test pensions pensions com subject : fwd : change of bank for pension payment having now read your auto response to my email this is the extra information you require many thanks abc - - - - - - - - - - forwarded message - - - - - - - - - from : abc xyz testmail com date : fri 13 nov 2020 at 10 : 32 subject : change of bank for pension payment to : test pensions pensions com i wish to change the bank into which my dress pension is paid currently it is xx and from the november payment would you please pay it into the following please contact me by this email or by phone + 91 012345678 if you wish to ask any security questions also importantly please advise me if this switch will not be completed prior to the november payment which is due on november 26th as i have internal transfers to do once it is completed many thanks abc</t>
   </si>
   <si>
     <t>test retirement and death benefits plan - test section good morning i have not yet received anything from you in respect of my request to start drawing my pension can you advise please regards abc on thu 15 oct 2020 15 : 40 &lt;test pensions pensions com wrote : dear abc test retirement and death benefits plan - test section thank you for your email regarding the test retirement and death benefits plan - test section your request has been logged and you will receive a written response from our administration department within 10 - 15 working days if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 13 october 2020 15 : 03 to : test pensions pensions com subject : fwd : test retirement and death benefits plan - test section further to the attached abc - - - - - - - - - - forwarded message - - - - - - - - - from : abc xyz testmail com date : tue 13 oct 2020 10 : 29 subject : test retirement and death benefits plan - test section to : test pensions pensions com following on from the recent information sent regarding pension options i have decided i would like to start receiving my test pension can you advise the process for this please and the information required regards abc</t>
   </si>
   <si>
-    <t>test pension questions - resent abc xyz 10 test road test street aa12 123 date birth : 01 01 1400 jlr payroll number : 132456 naonal insurance number : zz 12 31 23 z policy reference number : 12345678 dear test pensions i am intending to retire from work this january 1400 on my 59 birthday and wish to take my test pension from the beginning of march 1400 i have some questions i would like to ask please how long does my pension last for what does my wife get if i die while taking my pension percentage and duration i presume i will pay tax on anything above my personal tax allowance will i pay national insurance on my pension will my pension go up per year or stay at the level i took it at how do i start the process of taking my pension how long do i need to arrange the start of my pension i would welcome the opportunity to discuss this further i am available any time during week commencing 01 01 1400 and look forward to receiving a phone call my mobile is + 91 012345678 or home + 91 012345678 best regards abc xyz</t>
+    <t>re : test pension fund abc thank you for your response i have received the letter acknowledging my complaint and confirming you will investigate however please prioritise sending the transfer information requested by my ifa please confirm by return email when you will be providing the transfer information requested by my ifa including the statutory transfer value my ifa informs me that they have already been provided one promise date for the information by an individual in your team which has been missed regards abc xyz sent from my iphone on 22 nov 2020 at 11 : 03 test pensions pensions com &lt;mailto : test pensions pensions com wrote : dear mr abc test pension fund thank you for your email regarding the test pension fund please accept our apologies for the delay in responding to you i have checked the records and i can confirm that we have issued a complaint acknowledgement to you and your ifa on 1st january 1400 please note our administration will get back to you with the findings as soon as possible if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 from : abc xyz &lt;abc xyz testmail com sent : 16 november 2020 16 : 04 to : test pensions subject : re : test pension fund re : my plan 123456 having not received any further response to my complaint in the emails below i have now made a formal complaint to the pensions ombudsman and requested their assistance my complaint is that test pension fund has been obstructively slow in responding to my requests for information necessary for me to investigate transferring my pension regards abc xyz sent from my iphone on 10 nov 2020 at 17 : 42 test pensions pensions com wrote : dear mr abc test pension fund thank you for your email and i very much regret that it has been necessary for you to write to us with your concerns we do pride ourselves on the quality of service that we deliver to our corporate clients trustees and most importantly individual members we receive relatively few complaints and do take any very seriously the issues you have raised will be investigated and we will endeavour to respond to you within the course of the next five days if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at fin corp testmail com &lt;mailto : fin corp testmail com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 from : abc xyz &lt;abc xyz testmail com sent : 05 november 2020 11 : 42 to : test pensions subject : plan complaint to ombudsman i still have not had a response to my email below dated 22 july ! in addition i have now instructed a financial adviser test ifa regarding moving my pension and despite requesting a transfer pack on 16 sept they have still received nothing from you it appears as if you are obstructing my wish to pursue a pension transfer and so if my financial adviser has not received a transfer pack from you within 5 working days of this email i will be referring my complaint to the pension ombudsman regards abc xyz sent from my iphone begin forwarded message : from : abc xyz date : 22 july 2020 at 17 : 53 : 48 bst to : test pensions pensions com &lt;mailto : test pensions pensions com subject : re : test pension fund hi my address is : 10 test road test street aa12 123 regards abc xyz sent from my iphone on 22 jul 2020 at 15 : 54 &lt; test pensions pensions com &lt;mailto : test pensions pensions com &lt; test pensions pensions com &lt;mailto : test pensions pensions com wrote : dear abc xyz test pension fund thank you for your email regarding the test pension fund please accept our apologies for the delay in responding to you to enable us to answer your enquiry please could you provide your full address for data verification purposes please let me know if i can be of further assistance if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com &lt;mailto : test pensions pensions com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 from : abc xyz &lt;abc xyz testmail com sent : 14 july 2020 19 : 37 to : test pensions subject : pension transfer hi i am considering transferring my pension to a sipp and i would like to understand the process for doing this any charges that will apply and how long the process is likely to take i understand that : - i need to get financial advice from a registered adviser and i need to prove that i have done so - i need to request a statutory transfer value valid for 3 months i would like to understand what happens next plus as i said above timescale and costs my details are : pension scheme : test pension fund name : abc xyz thanks regards abc xyz</t>
+  </si>
+  <si>
+    <t>re : test fund pension plan dear test pensions please see amended expression of wish form many thanks abc from : test pensions pensions com sent : 13 november 2020 09 : 27 to : abc xyz testmail com subject : test fund pension plan dear mrs abc test pension plan thank you for your email regarding the test pension plan your request for change of address and change of name has been logged and you will receive a written response from our administration department within 5 - 10 working days i have attached an expression of wish form for you to print and complete as appropriate please send the signed and completed document to the address as detailed below at your earliest convenience once your address details are updated we will proceed with your pension statement query if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com did you know that member s can access and manage their pension online by logging into their test account if you are a scheme of this member you can access your account if you have forgotten your username and or password there is a link on this page to reset it if you have not previously activated your account email us so we can provide you with the activation link yours sincerely test pensions from : abc xyz testmail com sent : 11 november 2020 21 : 55 to : test pensions pensions com subject : change of address and name good evening could you please update the following details current details : - new details : - wedding cert attached dob : - ni number : - also could you send me an expression wish form and my latest pension statement many thanks abc from : abc xyz testmail com sent : 11 november 2020 16 : 13 to : abc xyz testmail com subject : wedding cert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test pensions - abc xyz - 12345 - funeral fee to : test pensions please can you settle funeral payment in relation to test pensions of abc xyz fin 12345 the funeral payment was settled by mr abc s brother abc xyz copy of funeral invoice and confirmation of payment from mr abc xyz are attached sort code : 01 - 02 - 03 a c ending 123 kind regards abc xyz supervisor - hr welfare team 10 test road test street aa12 123 tel : + 91 012345678 fax : + 91 012345678 email : in corp testmail com from : abc xyz sent : 26 october 2020 13 : 09 to : abc xyz subject : abc xyz funeral items hello abc please find attached the invoice and full payment details for my brother abc xyz s funeral many thanks abc xyz </t>
+  </si>
+  <si>
+    <t>change of address hi team i refer to the below email we have tried to contact member on the below mentioned address however no reply received hence could you please forward this attached verification form over email and ask member daughter to get it signed by member test pensions from : test pensions pensions com sent : 05 october 2020 17 : 47 to : post handling pensions com&lt;mailto : post handling pensions com subject : fw : change of address hi member name : xyz scheme name : test scheme nino : zz123123z could you please create admin bizflow job for the below request we have received change of address from the member s daughter please verify the same and get back to us test pensions from : abc xyz testmail com sent : 21 september 2020 08 : 33 to : test pensions pensions com&lt;mailto : test pensions pensions com subject : change of address good morning i am emailing on behalf of my mother xyz dob 01 01 1400 ref num tst12345678 mum has changed her address as she has gone into sheltered accommodation her new address is : 10 test road test street aa12 123 if you need any further information please do not hesitate to contact me abc</t>
+  </si>
+  <si>
+    <t>mr abc ref - tst12345678 dear test pensions i hope this email finds you well further to your email to def at investacc i understand you have requested a copy of our financial advice declaration addressed to the member i can confirm the declaration was sent to mr abc along with our original advice but now attach a copy in a letter format addressed to the member i have copied in mr abc on this email so you can verify this letter has been provided please can you now advise on timescales as to when we can expect the transfer to complete kind regards</t>
+  </si>
+  <si>
+    <t>re : transfer value quote request hi can you advise when you expect to be able to respond to my questions in my email of 14 october thanks for your help regards abc on 23 oct 2020 at 11 : 50 abc xyz testmail com&lt;mailto : abc xyz testmail com wrote : i have today received the transfer quote thank you i have a couple of questions related to the pension : - 1 could you confirm the current amount of the annual deferred pension please and if available the projected amount at nrd 2 can the pension be paid early and if so what would it be worth currently annually 3 if paid early or at nrd would it be possible to fully commute the pension and if so what would the fully commuted value be now at nrd thanks for your help regards abc on 14 oct 2020 at 08 : 27 abc xyz testmail com&lt;mailto : abc xyz testmail com wrote : could you confirm that you received my request below and advise the likely timescale for your response to it please thanks abc on 26 sep 2020 at 09 : 42 abc xyz testmail com&lt;mailto : abc xyz testmail com wrote : i am a former member of the test pension scheme and have a gmp remaining in the scheme could you please advise the current transfer value for this and the current annual value of the gmp and revaluation rate that applies to it as i am considering transferring it to my test to enable you to locate my record my name is abc my ni number is zz123123z my date of birth is 1st january 1400 my home address is 10 test road test street aa12 123 thanks for your help and please let me know if you need any additional information regards abc</t>
+  </si>
+  <si>
+    <t>reference tst12345678 - abc xyz - test pension scheme membership number zz123123z 2 further important areas of understanding importance : high dear sirs abc xyz national insurance number : - zz123123z smiths industries pension scheme reference : - tst12345678 thank - you for your letter dated 30 10 2020 confirming correction of my statement as at 01 01 1400 and explanation as to why my fin corp account is not yet up to date i would like to take the opportunity to enquire about two further important areas of understanding please : - 1 the possible size of lifetime allowance amount to be expected from the sips at retirement 2 should i wish to take my benefits earlier than normal retirement age nra the reduction i could expect with respect to 1 my understanding is that the rule of thumb calculation is to multiply the annual pension at retirement ap by 20 in the attached excel sheet i have attempted to project ap and lifetime allowance amounts using a number of assumptions i have applied a range of rpi assumptions to items b c and the fixed 5 p a to items a e over 10 years item d transferred - in pension 100 p a as at 01 01 1400 will be at least the fixed pension guarantee of 500 p a at age 65 according to my attached pdf statement of preserved retirement benefits so i have assumed this amount as any higher amount would need average compound growth of over 10 p a which seems unlikely the sum of all of these using rpi assumptions of 1 2 5 and 4 computes ap values of c 10000 c 20000 and c 50000 respectively and applying the rule of thumb x10 calculation computes lifetime allowance amounts of c 300000 c 500000 and c 600000 respectively at nra i would be grateful if you could confirm that my understanding and expectations are correct using the stated assumptions for rpi with respect to item 2 i would be grateful for an understanding of how much my annual pension could be if benefits were taken early for example now and how i could estimate what this value could be as each year passes between now and nra in terms of reduction would item d above include a reduced proportion of the fixed pension guarantee of 1000 p a which then ought to be higher than the 300 p a as at 01 01 1400 i look forward to hearing from you again in due course many thanks kind regards abc xyz 10 test road test street aa12 123 tel : + 91 012345678 mob : + 91 012345678 from : abc xyz sent : 18 october 2020 21 : 41 to : testscheme fincorp com subject : reference tst12345678 - abc xyz - test pension scheme membership number zz123123z 2 further important areas of understanding dear sirs abc xyz national insurance number : - zz123123z test pension scheme reference : - tst12345678 since my email below the attached annual valuation letter arrived in the post on 17 10 2020 however the figure quoted appears unexplainably low in relation to last year s valuation which i would like to urgently query please the format of the letter also lacks the requested detailed format i have received each year and been accustomed to so it is not possible to follow how this has been calculated but it does not seem correct according to the scheme rules i am also concerned should fin corp ltd not have received my full pension details from fin corp 2 ltd and this perhaps explains the sudden inconsistent valuation as well as why my fin corp account lacks the correct up to date pension details in order to ensure your records are complete and assist with my query i am attaching in addition the following with comments : - 1 my official statement of preserved retirement benefits received 01 01 1400 with key notes including how my augmented preserved pension will increase over time according to the rules 2 an excel sheet showing each year s detailed valuation starting 01 01 1400 500 until 01 01 1400 1000 attached i have a detailed annual valuation letter for each of these years from initially fin corp 1 then fin corp 2 and then fin corp 3 the key point is that the scheme gmp and transferred in gmp are guaranteed to be increased by 10 p a and the rest is guaranteed to increase by the lower of 10 or rpi p a with an additional guarantee minimum fixed pension of 700 p a for the transferred in pension the sheet shows that a value of 1000 on 01 01 1400 cannot be mathematically correct even if rpi for 2019 20 had been 0 the resulting value on 01 01 1400 would have been higher than 1000 and with an assumed estimated rpi of 3 it would be 1500 the sheet also shows a projection at retirement age assuming average rpi of 2 8 p a to emphasize how import the correct annual increases are combining with the transferred in pension guarantee for the overall pension amount i would therefore be grateful for the following please : - a review of the above valuation and then issuance of the detailed annual valuation letter in the form prepared by fin corp ltd as attached which tabulates each component as at 01 01 1400 with the confirmatory narrative which aligns with my preserved retirement benefits details hopefully this results in an updated correct valuation update of my fin corp account for my pension details and overall confirmation that my pension details are held safely by fin corp and are up to date finally i intend to continue to request this annual valuation letter and would ask if it could be possible please to receive this automatically each year for 1 may if not possible i will continue requesting each year i look forward to hearing from you again in due course many thanks kind regards abc xyz 10 test road test street aa12 123 tel : + 91 012345678 mob : + 91 012345678 from : abc xyz sent : 18 october 2020 21 : 41 to : testscheme fincorp com subject : re : abc xyz - test pension scheme membership number zz123123z annual valuation letter 1 june importance : high dear xyz dear sirs i hope you are keeping safe and well i was just wondering if my requested annual valuation letter is close to being completed as i have not yet received anything i realize due to the current unprecedented circumstances that there is a delay in administration requests but i would be grateful if you could give me an indication when it could be ready please i have also just logged in to my fin corp account and noticed that my pension details are not up to date and aligned with any of the valuations i have received up to now fin corp actually states that i left the pension scheme on 01 01 1400 which is not correct nor is the value quoted i would be grateful if you could also review this and update my account in due course please would it also be possible to receive my annual valuation letters uploaded on to my account in future to keep my account up to date in this way many thanks kind regards abc xyz 10 test road test street aa12 123 tel : + 91 012345678 mob : + 91 012345678 from : abc xyz sent : 18 october 2020 21 : 41 to : testscheme fincorp com subject : re : abc xyz - test pension scheme membership number zz123123z annual valuation letter 1 june importance : high xyz my verification information which you requested is as follows : - date of birth : - 01 01 1400 national insurance number : - zz123123z many thanks kind regards abc xyz 10 test road test street aa12 123 tel : + 91 012345678 mob : + 91 012345678 from : test pension scheme &lt;testscheme fincorp com sent : 23 july 2020 12 : 34 to : abc xyz testmail com subject : abc xyz - test pension scheme membership number zz123123z annual valuation letter 1 june importance : high dear mr abc xyz test pension scheme thank you for your email regarding the test pension scheme to enable us to answer your enquiry please could you provide your date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 www fincorp com from : abc xyz sent : 18 october 2020 21 : 41 to : testscheme fincorp com subject : re : abc xyz - test pension scheme membership number zz123123z annual valuation letter 1 june importance : high dear sirs i hope you are all keeping well during these unprecedented times every year i always request an updated valuation letter in the attached form to keep abreast of how my pension is progressing could i please request a new update as at 01 01 1400 i realize you may have other priorities currently but would appreciate if this could be prepared and sent when time permits in due course many thanks kind regards abc xyz 10 test road test street aa12 123 tel : + 91 012345678 mob : + 91 012345678</t>
+  </si>
+  <si>
+    <t>reference tst12345678 dear test pension further to your later dated 1 november 2020 requesting a copy of the funeral expenses paid in full i have attached a copy please could confirm receipt kind regards abc xyz</t>
   </si>
   <si>
     <t>fw : dsg retirement and employee scheme ref jlt00000000 my dob is 10 01 1800 - - - - - forwarded message - - - - - from : andaman nicobar to : test pensions pensions com cc : sent : mon 9 nov 2020 at 8 : 53 subject : test pensions scheme ref jlt00000000 hi i was inquiring as to the progress with my request for early retirement on 1 10 2020 my details are as follows test pensions scheme ref jlt00000000 andaman nicobar aa000000a the coaching homie coooaa phone 07000000000 kind regards andaman nicobar</t>
   </si>
   <si>
-    <t>test pension fund - late mr def dear test pensions we have not yet received any letter regarding the test pension scheme please can you let me know when this will be sent out and if it has the date in which it was sent kind regards abc from : abc xyz testmail com sent : 24 september 2020 14 : 11 to : test pensions pensions com subject : test pension fund - late mr def dear test pensions thank you for your email please send any correspondence to the following address : abc test cos 10 test road test street aa12 123 if you have any further queries please let me know kind regards abc from : test pensions pensions com sent : 24 september 2020 12 : 48 to : abc xyz testmail com subject : test pension fund - late mr def dear abc test pension fund thank you for your email regarding the test pension fund please confirm your office address to which we should send the correspondence if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 21 september 2020 14 : 54 to : test pensions pensions com subject : test pension fund - late mr def dear test pensions thank you for your email we have been in touch with the deceased s family and they have been able to locate an old piece of correspondence for the test pension please find this attached along with his death certificate both have been password protected with his date of birth in the format ddmmyyyy and i will email a note of this to you immediately after sending this email please note that the family have highlighted that the date of birth shown on your attached correspondence for the deceased is incorrect his correct date of birth is shown on his death certificate once you have located the deceased s pension details please advise of any payments due to his estate from the pension scheme including any benefits and cash lump sums due to any beneficiaries or dependents together with the next steps necessary to process any such claims i look forward to hearing back from you shortly but if you have any queries please let me know my direct line is + 91 012345678 kind regards abc from : test pensions pensions com sent : 02 september 2020 10 : 47 to : abc xyz testmail com subject : test pension fund - late mr def dear abc test pension fund thank you for your email regarding the test pension fund unfortunately i can confirm we are unable to locate a record of benefits within the above scheme using the details you have provided in addition could you please supply any additional reference numbers or the name of anyone you have received correspondence from within test in the past if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com&lt;mailto : test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 01 september 2020 14 : 32 to : test pensions pensions com subject : death of test pension member dear sir madam mr adefbc date of death 01 january 1400 nino we have been appointed by the executors of the above named deceased in relation to the administration of his estate and write to notify you of his death as he was in receipt of a pension from the test pension scheme as a former employee please advise of any payments due to the estate from the scheme including any benefits and cash lump sums due to any beneficiaries or dependents together with the next steps necessary to process any such claims we look forward to hearing back from you in due course kind regards abc</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pre - identified user support request - pension quote reply email address : abc xyz testmail com forename : abc surname : xyz ni number : zz123123z dob : 01 jan 1400 home postcode : aa12 123 employer : test pensions subject : pension quote content : hi can you tell my pension figure is now if i take my pension out company pension and both sets of avc please name abc xyz address; 10 test road test street post code : aa12 123 ni : zz123123z dob 01 01 1400 regards abc xyz</t>
-  </si>
-  <si>
-    <t>transfer value hi i am trying to obtain the transfer value of my pension and am unable to obtain one online please can you advise as i have recently been made redundant from test motor company and require one to assess my pension options going forward kind regards abc</t>
-  </si>
-  <si>
-    <t>fw : reveiw of pension sharing order rome jlt00000000 fos further to my email below we would be grateful for a response thank you abc xyz from : electricity transformer sent : 25 september 2020 17 : 58 to : test pensions cc : test pensions subject : fw : reveiw of pension sharing order - rome - jlt00000000 fos good afternoon please find attached a sharing order which we would be grateful if you could review thank you electricity transformer senior pensions administrator leathe office postal address : post handling centre u st tower 7 chennai street m0 00a member line : + 44 0 1000 100000</t>
-  </si>
-  <si>
-    <t>retirement quotian hi my name is abc xyz 10 test road test street aa12 123 dob 01 01 1400 national insurance number zz123123z test pension scheme payroll number zz123123z i am writing to ask for my retirement figures as i intend to retire on 01 jan 1400 i have not officially handed in my notice yet but my immediate managers are aware of my intended date subject to my figures i have had my figures from you in the past and i have already decided my option choice but to avoid a problem i would like to take all my dc pot from fin corp 1 and combine it with my db allowance so as to draw the max tax - free cash sum that i am allowed i would also need to know my step pension and the cost of this step pension i have gone on the fin corp web site but i prefer to have a written copy of all my figures please excuse me if this email is hard to understand as my knowledge of pension jargon is very limited i am happy for anybody to call or text or email me if i have not explained what i want i have had conflicting quotations in the past but i would hope to get as accurate figures as is possible as i am serious about my intention to retire i have only needed estimates in the past i have been advised by your office to mention the phrase i wish to claim my pension thanking you and look forward to hearing from you my phone number is + 91 012345678</t>
-  </si>
-  <si>
-    <t>re : your transfer value request would it be possible to call me i ve just spent 30 minutes waiting on your contact number + 91 012345678 on 18 nov 2020 at 3 : 30 pm test pensions pensions com&lt;mailto : test pensions pensions com wrote : unfortunately test account was not able to retrieve a transfer value for your test pension scheme at this time due to the complex nature of your pension benefits we are unable to provide a pension quotation via test account self service if you have any questions regarding the document or your test pension just call the test pensions team on + 91 012345678 or email us at test pensions pensions com regards test pensions team + 91 012345678</t>
-  </si>
-  <si>
-    <t>fw : test pension scheme hello team please see below query and reply accordingly to the member ifa many thanks abc xyz - agent - customer support centre test pensions 10 test road test street aa12 123 + 91 012345678 from : abc xyz &lt;abc xyz testmail com sent : 19 november 2020 22 : 47 to : test pensions &lt;test pensions pensions com subject : re : test pension scheme hi abc my date of birth is 01 jan 1400 ni number is zz123123z best regards abc xyz sent from my iphone on 19 nov 2020 at 20 : 59 test pensions pensions com &lt;mailto : test pensions pensions com wrote : dear abc xyz test pension scheme thank you for your email regarding the test pension scheme to enable us to answer your enquiry please could you provide your date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com &lt;mailto : test pensions pensions com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 from : abc xyz &lt;abc xyz testmail com sent : 17 november 2020 21 : 27 to : test pension fund subject : activation code hi i left it rather to long to use the fin corp activation code sent to me could you send a new activation code many thanks best regards abc xyz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fw : not virus scanned - password protected warning : message encrypted test pension fund early retirement calculation tst12345678 message encrypted hi all we have reviewed your retirement calculation for member zz123123z and can confirm that based on the information provided we are happy with your calculation of the member s retirement options the retirement quotation is based on the gmp information you have provided to us and may not have been updated to reflect any different gmp information held by hmrc further the retirement quotation makes no allowance for any adjustment which may be required in relation to the equalisation of gmps following the judgment in the lloyds case fin corp ltd fin corp has addressed this retirement quotation review to fin corp 2 you in your role as administrators on behalf of the trustees of the test pension trust under the terms of our agreement with the trustees the technical actuarial work involved in the preparation of this review complies with the financial reporting council s technical actuarial standard for tas purposes the sole user of this material are the trustees of the test pension trust the assumptions used in deriving this retirement quotation have been determined by the trustees in preparing this retirement quotation review we have relied upon the data outlined in your email below whilst reasonable care has been taken to gauge the reliability of this data we provide no guarantee as to the accuracy or completeness of this data and fin corp ltd accepts no responsibility and will not be liable for any errors or misrepresentations in the data made by any third party please let us know if you have any queries kind regards abc xyz lead associate retirement fin corp ltd 10 test road test street aa12 123 t + 91 012345678 abc xyz testmail com fin corp ltd testmail com &lt;mailto : fin corp ltd testmail com from : fin corp ltd testmail com &lt; fin corp ltd testmail com sent : 12 november 2020 16 : 40 to : test pensions &lt; test pensions pensions com &lt;mailto : test pensions pensions com cc : test ifa fincorp com &lt;mailto : test ifa fincorp com subject : not virus scanned - password protected warning : message encrypted test pension fund early retirement calculation tst12345678 message encrypted hi please find attached our early retirement calculation and member screen prints for review in respect of the above named member please provide us full retirement options including levelling options if any kindly let me know if you require any further information kind regards </t>
-  </si>
-  <si>
-    <t>test retirement and employee security scheme : mr mr abc xyz hi test pensions thank you for your email could you please reissue the email sent on 21 10 to me has the request been processed kind regards test ifa from : test pensions pensions com sent : 09 november 2020 09 : 32 to : test ifa fincorp com subject : test retirement and employee security scheme : mr mr abc xyz dear test ifa test retirement and employee security scheme thank you for your email regarding the test retirement and employee security scheme i have checked our records and can confirm that the email was sent to you on 21 october 2020 in relation to member s retirement process should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com&lt;mailto : test pensions pensions com yours sincerely test pensions from : test ifa fincorp com sent : 05 november 2020 22 : 22 to : test pensions pensions com cc : testfund fincorp com subject : mr abc xyz tst12345678 good afternoon last month we sent mr abc s signed retirement options form on 14th october 2020 could you please confirm safe receipt also could you kindly provide me with an update on the process of setting up his annual pension should you need any further information or assistance please do not hesitate to contact me kind regards test ifa</t>
-  </si>
-  <si>
-    <t>test pension plan - mr abcd urgent cetv 30 11 2020 to whom it may concern i have received the cetv documentation as requested but only the overseas transfer out paperwork can you please provide me with the transfer documentation via e mail as soon as you can to allow me to transfer out of the test scheme i would also respectfully request an extension due to this error as the cetv is 30 11 2020 kindest regards abcd from : test pensions pensions com sent : thursday september 10 2020 9 : 16 : 24 pm to : abc xyz testmail com subject : test pension plan - mr abcd thank you for your email please note that unfortunately you are unable to take 25 lump sum payment now you can only take the lump sum option should you decide to retire from the plan with the remaining benefits paid as a pension you may if you wish transfer the full benefits to an approved pension provider that will allow you to take part of the benefits now however you will need to speak to a financial adviser if you wish to investigate this option kind regards test pension administration team from : abc xyz testmail com sent : 26 august 2020 12 : 39 to : test admin pensions com subject : re : test pension plan - mr abcd thankyou for your email am i allowed to take a 25 lump sum payment and yes i would like to investigate transferring the pension your advice would be greatly appreciated from : test admin pensions com sent : wednesday august 26 2020 8 : 54 : 11 pm to : abc xyz testmail com subject : test pension plan - mr abcd dear mr foster please find attached the information as requested please note that this has been encrypted with your national insurance number in the format ab123456c kind regards test pensions administration team</t>
-  </si>
-  <si>
-    <t>re : test pension fund hi there yes certainly as follows : 10 test road test street aa12 123 kind regards abc xyz on 23 11 2020 at 7 : 49 pm abc xyz testmail com &lt;mailto : abc xyz testmail com wrote : dear mr abc xyz test pension fund thank you for your email regarding the test pension fund please accept our apologies for the delay in responding to you to enable us to answer your enquiry please could you provide your full address date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com &lt;mailto : test pensions pensions com yours sincerely abc xyz customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 from : abc xyz &lt;abc xyz testmail com sent : 17 november 2020 20 : 02 to : test pensions subject : transfer value - hi please can you provide me with a transfer quotation for my test pension my test pension employee number is zz123123z importantly please can you send this to me by email and not by post as there are very significant delays on post at present thank you kind regards abc xyz</t>
-  </si>
-  <si>
-    <t>fw : xyz loa hi team please see below query and reply accordingly thank you def - agent - customer support centre 10 test road test street aa12 123 + 91 012345678 from : test ifa fincorp com sent : 09 november 2020 10 : 30 to : test pensions pensions com subject : xyz loa dear test pensions password to access the loa is : aaaaaaaa regards from : test ifa fincorp com sent : 09 november 2020 10 : 29 to : test pensions pensions com subject : xyz loa dear test pensions please find enclosed a letter of authority from the above client appointing creative benefits wealth management ltd to receive policy information the password will follow under separate cover please provide your standard transfer out pack including cash equivalent transfer value and full scheme information please ensure this includes all the information we will require to understand and project the member s benefits and advise the member on all the options available as a guide the information you provide should cover all the items identified as required by the pensions administration standards association in their agreed pasa templates below : scheme information template&lt;https : www pasa - uk com wp - content uploads 2019 10 scheme - template - final pdf member information template&lt;https : www pasa - uk com wp - content uploads 2019 10 transfer - template - member - info - final pdf where the member is eligible to take benefits please provide an immediate retirement quote very important information required : - please confirm the accrual tranches within the pension and their subsequent revaluation and escalation rates what are the clients options with respect to late retirement what are the commutation factors from normal retirement age onwards what are the late retirement factors from nra onwards does the client have any gmp in addition please provide me with the following information relating to policies at your earliest convenience : 1 policy type 2 commencement date 3 contribution history since inception 4 inclusion of waiver of premium 5 plan status 6 current value and breakdown of value between funds 7 current fund s choice please quote mex sedol isin number for each fund attaching to the plan 8 if the policy can offer adviser charging 9 if the policy can offer ufpls 10 if the policy can offer flexible access drawdown 11 pension input periods on the policy 12 if with profits funds please enclose full details including the current asset allocation of the fund and the last 5 years bonus declaration history 13 details of other funds available to invest in and relevant codes 14 transfer value please advise any transfer penalties applicable and reason for any penalty 15 any former protected rights funds 16 pension commencement lump sum amount 17 any guarantees associated to the plan eg guaranteed annuity rates bonus rates guaranteed fund at scheme retirement date srd etc 18 if with profits - please confirm if any with profits spot guarantees apply and when 19 scheme retirement date srd of the plan 20 illustration of projected value at srd age xx 21 a paid up illustration at srd age xx if regular premiums are still being paid please supply a quote to srd age xx assuming the premiums continue 22 the death benefits should the member die before srd and any nominated beneficiaries 23 charges allocation rates on the plan 24 any protected tax free cash at a day if yes please send paperwork to quantify this also please confirm fund value at a day and tax free cash at a day 25 premium and sum assured of any associated pension term assurance value as at a - day 26 is there a pension sharing order or attachment to the benefits if plan is a sipp with a capped drawdown arrangement : - 27 maximum income available 28 review date s 29 any remaining pcls entitlement 30 income currently being taken 31 fee schedule relating to sipp if member has taken benefits : - 32 please confirm the value of the crystallised and uncrystallised portions 33 please also confirm the percentage of the lifetime allowance that has been crystallised within this scheme please send any necessary transfer out paper work and id requirements to be completed i look forward to hearing from you however if you have any queries please let me know as soon as possible yours faithfully test ifa</t>
-  </si>
-  <si>
-    <t>abc - cetv request dear sirs re : test group pension plan member : abc ni number : zz123123z i refer to my request of 12 october 2020 for a new cetv in respect of the above member and your letter of 2 november confirming it was referred to the scheme actuary for review i should be grateful if you would provide me with an update on this and when i should expect receipt yours faithfully test fund</t>
-  </si>
-  <si>
-    <t xml:space="preserve">abc xyz - zz123123z good afternoon please can you provide an update on the above members transfer request kind regards test ifa 10 test road test street aa12 123 t : + 91 012345678 e : test ifa fincorp com&lt;mailto : test ifa fincorp com </t>
-  </si>
-  <si>
-    <t>re : fao abc xyz re : test pension fund good morning not only has no one called me as i was promised on 01 01 1400 but no one has replied to my email of 01 01 just to let you know that if you come back saying that this slow service is down to coronavirus i will simply ask why regards abc xyz ps as this is a sunday not expecting a reply today ! - - - - - - original message - - - - - - from : abc xyz testmail com to : test pensions pensions com sent : thursday 19 nov 2020 at 16 : 51 subject : fao abc xyz re : test pension fund thank you for your email of 01 01 1400 abc xyz however it is now 01 01 1400 and no one has called me can you define shortly regards abc xyz - - - - - - original message - - - - - - from : test pensions pensions com to : abc xyz testmail com sent : wednesday 11 nov 2020 at 14 : 28 subject : test pension fund dear abc xyz test pension fund thank you for your email regarding the test pension fund please accept my sincerest apologies for any inconvenience this may cause you i have arranged a call back for you our representative will contact you shortly if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com &lt;mailto : test pensions pensions com yours sincerely abc xyz administrator customer support centre 10 test road test street aa12 123 direct dial : + 91 012345678 test pensions pensions com - - - - - original message - - - - - from : test pensions sent : 06 november 2020 15 : 15 to : test pensions subject : pre - identified user support request reply email address : abc xyz testmail com forename : abc surname : xyz ni number : zz123123z dob : 01 01 1400 home postcode : aa12 123 employer : fin corp ltd subject : need to talk to someone content : good afternoon i have just tried calling + 91 012345678 to arrange a phone conversation regarding when i take my test pensions pension the voice message system said you are very busy and so can only handle urgent enquiries not sure why coronavirus is making every call centre help desk etc so busy but that what i am experiencing and what do i know as i suppose what i am asking for is a new request i pressed 4 and was advised to contact a company called fin corp ltd never heard of them could someone call me when they have a moment abc xyz thanks abc xyz</t>
-  </si>
-  <si>
-    <t>registering via fin corp i had a letter from you back in july advising me that i had been found under the fin corp organisation unfortunately i had mislaid the letter and only just found it and realised that i had missed the required date to register my account i would be very grateful if you could forward me new five pair characters so that i may register my account many thanks for your kind cooperation yours sincerely abc xyz tel + 91 012345678</t>
-  </si>
-  <si>
-    <t>re : test pension plan good morning the reason i wanted to set up the account online is so i can change my address if the letter is being sent to my old address i will not be able to collect it regards abc tel : + 91 012345678 10 test road test street aa12 123 from : test pensions pensions com sent : 13 november 2020 03 : 33 to : abc xyz testmail com subject : test pension plan dear mr abc test pension plan thank you for your email regarding the test pension plan i have requested an activation letter to be issued to you via post this will be issued within 5 working days this will be active for 28 days if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 10 november 2020 16 : 21 to : test pensions pensions com subject : re : test pension plan hi my previous address was : regards abc tel : + 91 012345678 10 test road test street aa12 123 from : test pensions pensions com sent : 10 november 2020 06 : 54 to : abc xyz testmail com subject : test pension plan dear mr abc test pension plan thank you for your email regarding the test pension plan to enable us to update your address please could you provide your previous full address for data verification purposes once your address get updated in our system we will be able to provide the activation link for test also please note that if the member has been drawing on their pension for over 5 years an eow is not applicable in order to update your beneficiaries please update your beneficiaries on benpal arrange for the attached expression of wish to be completed and returned to the address detailed below if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : test pensions pensions com sent : 04 november 2020 21 : 01 to : test account pensions com subject : set up test account hi i have been trying to set up my online test account i wanted to change my address and beneficiary detail as i have recently moved home i work for test my ni is d o b : old postcode new post code if the change has already been made on the account regards abc tel : + 91 012345678 10 test road test street aa12 123</t>
-  </si>
-  <si>
-    <t>fw : test pension fund - member reference zz123123z importance : high hello team please see below query and reply accordingly to the member ifa many thanks abc xyz - agent - customer support centre fin corp ltd 10 test road test street aa12 123 + 91 012345678 from : abc xyz &lt;abc xyz testmail com sent : 23 november 2020 07 : 09 to : test pensions subject : re : test pension fund - member reference zz123123z importance : high good morning approximately 10 days ago i informed test pensions that the course of action i wished to take was to start receiving my pension benefits in january 1400 they said that they had contacted the appropriate people and that i should hear something to that effect i have not heard anything thus far can you please update me asap there approximately 3 weeks until my pension is due to commence regards abc xyz from : test pensions pensions com sent : wednesday september 23 2020 8 : 12 am to : abc xyz testmail com subject : test pension fund dear mrs abc xyz thank you for your email your request has been logged and you will receive a written response from our administration department within 10 - 15 working days should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com &lt;mailto : test pensions pensions com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 from : abc xyz &lt;abc xyz testmail com sent : 23 november 2020 07 : 09 to : test pensions subject : pension information pack importance : high good afternoon please can you tell me if my information pack has been sent yet thank you regards abc xyz</t>
-  </si>
-  <si>
-    <t>change of address details hi i am in the test pension scheme and we have moved house in the last few days i have updated my address details with hr here at xxx but wondered how i can do this on my test pension account or will this update automatically over time now that hr are aware regards abc</t>
-  </si>
-  <si>
-    <t>re : test pension fund - our ref : tst12345678 password is xxxxxx from : test ifa fincorp com sent : 09 november 2020 09 : 51 to : test pensions pensions com subject : re : test pension fund - our ref : tst12345678 good morning thank you for your email please find attached the client s letter of authority with the requested information the document is password protected password to follow in separate email if you have any queries please don t hesitate to contact us many thanks test ifa from : test pensions pensions com sent : 02 november 2020 10 : 03 to : test ifa fincorp com subject : test pension fund dear test ifa test pension fund thank you for your email regarding the ford pension fund to enable us to answer your enquiry please could you provide the member full address date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : test ifa fincorp com sent : 23 october 2020 16 : 11 to : test pensions pensions com subject : tst12345678 zz123123z good afternoon please can you provide an update on our mutual clients pension transfer many thanks test ifa</t>
-  </si>
-  <si>
-    <t>re : test death approval - abcd tst12345678 i agree with the recommendation with regards mr abcd from : test pensions pensions com sent : 29 october 2020 17 : 03 to : testfund fincorp com subject : test death approval - abcd tst12345678 test pension plan abcd death in retirement please find attached the documentation relating to the above late member who died whilst in receipt of his pension as the member is a widower the committee are being asked to consider the lump sum death benefit of 1 500 only this case is being referred to the committee as the nomination form was in the name of the deceased spouse and therefore no longer valid the member was survived by his son and a daughter and it would be our recommendation to pay the lump sum equally to both the son and the daughter please would you agree with this recommendation kind regards test pensions</t>
-  </si>
-  <si>
-    <t>change of address - tst12345678 good afternoon please could i request that my address is amended to the following : 10 test road test street aa12 123 i am unable to amend the details on the benpal website your help in this matter is most appreciated warmest regards abc xyz tst12345678 former employee of def</t>
-  </si>
-  <si>
-    <t>fw : cetv request mr xyz following my email dated 28th october mr xyz has now left employment and is no longer an active member of the pension scheme please calculate and send his guaranteed transfer value cetv as soon as possible regards test ifa from : test ifa fincorp com sent : 28 october 2020 13 : 45 to : test pensions pensions com subject : cetv request mr xyz importance : high mr xyz 10 test road test street aa12 123 works number : tst12345678 dob : 01 01 1400 ni no : zz123123z i hold authority for mr xyz and request a cetv be sent to me for him as soon as possible thank you test ifa</t>
-  </si>
-  <si>
-    <t>change of address dear test pensions re : test pension plan i wish to inform you of my new address royal mail is currently redirecting my mail for a fixed period i could not get through to you on the telephone you can call my mobile but my landline has changed both the home and the work lines please advise - do i email you my new address i am assuming post may not be received or opened in your office if staff are working from home yours sincerely abcd + 91 012345678</t>
-  </si>
-  <si>
-    <t>zz123123z dear sir madam please may you confirm if you consider ill health unreduced pension for deferred members if so what is the process thanks in advance kind regards abc xyz</t>
-  </si>
-  <si>
-    <t>ref : tst12345678 dear sirs thank you for your letter ref above regarding my pension i do not have a spouse and what i really wanted to know for inheritance tax purposes will there be a lump sum payable upon my death and if so how much i look forward to hearing from you regards abc</t>
-  </si>
-  <si>
-    <t>re : test pension scheme - abc xyz good morning please find attached the client s signed letter of authority showing the requested information regards abc xyz from : test pensions pensions com sent : monday november 23 2020 3 : 02 am to : abc xyz subject : test pension scheme - abc xyz dear abc xyz test pension scheme thank you for your email regarding the test pension scheme please accept my sincerest apologies for any inconvenience this may cause you to enable us to answer your enquiry please could you provide your member s address date of birth and national insurance number for data verification purposes should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at fin corp testmail com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 from : abc xyz &lt;abc xyz testmail com sent : 19 november 2020 14 : 04 to : test pension scheme &lt;testscheme fincorp com cc : test ifa fincorp com subject : fw : test pension scheme - abc xyz good morning we have tried making contact by phone numerous times and we are not getting any response to our emails the cetv has now expired does a revaluation fee apply if so please send us an invoice addressed to the below details 10 test road test street aa12 123 regards abc xyz from : abc xyz sent : monday september 7 2020 1 : 12 pm to : test pensions pensions com cc : test ifa fincorp com subject : fw : test pension scheme - abc xyz good morning we have been chasing week after week and not got a response back could someone please assist regards abc xyz from : abc xyz sent : monday august 24 2020 12 : 59 to : test pensions &lt;test pensions pensions com cc : test ifa fincorp com subject : fw : test pension scheme - abc xyz could someone please reply from : abc xyz sent : monday august 24 2020 12 : 59 to : test pensions &lt;test pensions pensions com cc : test ifa fincorp com subject : fw : test pension scheme - abc xyz good morning please send us a copy of the documents by email from : abc xyz sent : monday august 24 2020 12 : 59 to : test pensions &lt;test pensions pensions com cc : test ifa fincorp com subject : fw : test pension scheme - abc xyz good morning we still haven t received the documents by post please send us a copy by email from : abc xyz sent : monday august 24 2020 12 : 59 to : test pensions &lt;test pensions pensions com cc : test ifa fincorp com subject : fw : test pension scheme - abc xyz good afternoon abc xyz thank you for your email please accept my sincere apologies for the delayed response i can advise you that the transfer information was sent to you on 28 july the additional information requested will follow in due course regards abc xyz administrator fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 from : abc xyz sent : monday august 24 2020 12 : 59 to : test pensions &lt;test pensions pensions com cc : test ifa fincorp com subject : fw : test pension scheme - abc xyz good morning we have not had a response in the past month we have been chasing kindle assist from : abc xyz sent : monday august 24 2020 12 : 59 to : test pensions &lt;test pensions pensions com cc : test ifa fincorp com subject : fw : test pension scheme - abc xyz good morning has a response been issued please from : test pensions &lt;test pensions pensions com sent : 30 june 2020 16 : 05 to : abc xyz &lt;abc xyz testmail com subject : re : abc xyz loa urgent good afternoon abc thank you for your email the information requested has been prepared and is in the process of being checked if there are any further details you require please contact us regards abc abc xyz administration team fin corp ltd 10 test road test street aa12 123 telephone : + 91 012345678 from : abc xyz &lt;abc xyz testmail com sent : 29 june 2020 14 : 10 to : test ifa subject : fw : abc xyz loa urgent good afternoon please provide us with an update from : abc xyz &lt;abc xyz testmail com sent : 05 june 2020 17 : 45 to : abc xyz &lt;abc xyz testmail com subject : re : test pension scheme good afternoon abc xyz thank you for your email please accept my apologies for the delayed response i have asked for your request to be dealt with as a priority regards abc xyz test pension scheme administration team fin corp ltd 10 test road test street aa12 123 telephone : + 91 012345678 from : abc xyz &lt;abc xyz testmail com sent : 02 june 2020 10 : 39 to : test pension scheme subject : fw : test pension scheme - abc xyz good afternoon please provide us with an update from : abc xyz sent : 15 may 2020 13 : 25 to : abc xyz testmail com subject : abc xyz loa please send the information by email or fax dear sir or madam please find attached a current letter of authority for the above client this is an initial request looking into a potential transfer once the above client confirms they wish to proceed we will confirm the receiving scheme uk transfer forms overseas transfer forms immediate retirement quote discharge forms including hmrc requirements forms for the transfer to take place scheme and plan type test pension equalisation date nra pre and post test pension equalisation date date of joining and leaving the pension scheme normal retirement date age members contributions to the scheme confirmation of any avc s or money purchase benefits held within the scheme are there any pension sharing earmarking orders if yes does the tv reflect this current fund value - including all fund details full cetv - if the cetv has been reduced please confirm by what amount value of pension at date of leaving value of pension at statement date deferred pension at date of leaving per annum figure showing : o pre 88 gmp o post 88 gmp o pre 97 gmp o post 97 gmp o excess over and above gmp should any gmp revalue at different rates please provide the relevant split pension increases in deferment gmp and excess if this is by price inflation please specify if this is cpi or rpi pension increases in retirement gmp and excess - if this is by price inflation please specify if this is cpi or rpi is there a spouses pension details in both deferment and retirement - also confirm if spouse s pension is calculated before or after any commutation is there a children s pension details in both deferment and retirement guarantee period on death of the member lump sum payable in death full income without taking pcls earnings on leaving pcls at nra commutation factor for ages 55 - 70 early retirement factors and how they are applied - are these applied to pension at retirement or nra late retirement factors and how they are applied - are these applied to pension at retirement or nra scheme funding status date latest scheme funding statement leaflet booklet is the plan paid up longevity adjustment factor and how this is applied if applicable scheme booklet do you permit partial transfers and if so on what terms have you yet equalised gmp payments in line with the may 1990 ruling by the european court of justice are there any gars if so what are the annuity rate has there previously been a transfer in or not if yes then the amount of gmp transferred in revaluation rate for gmp transferred in does it hold all the same death benefits as the rest of the pension the member s final pensionable earnings figure in order to determine the spouse s pension payable on death in deferment; rate of interest applied to the refund of contributions on death in deferment all the above details are required in order to provide the client with full fca regulated advice please ensure all these details are confirmed with the initial response please ensure all these details are confirmed with the initial response abc xyz pension administrator tel : + 91 012345678 fax : + 91 012345678 email : abc xyz testmail com</t>
-  </si>
-  <si>
-    <t>re : test pension plan hi national insurance number is zz123123z date of birth is 01 01 1400 if i remember correctly my clock number was 000000 i took early retirement in 2006 aged 50 abc on friday 13 november 2020 03 : 33 : 13 gmt wrote : dear mr abc test pension plan thank you for your email regarding the test pension plan to enable us to answer your enquiry please could you provide your date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com yours sincerely abc from : abc xyz testmail com sent : 11 november 2020 07 : 44 to : test pensions pensions com subject : test form hi i would like to have a test account please if not may i have an test form my name and address is; mr abc cheers abc</t>
-  </si>
-  <si>
-    <t>tst12345678 dear sir madam i am the next of kin to xyz who died earlier this year we received communication from you regarding regarding my deceased father pension and we returned the required form with death certificate some weeks ago i have subsequently received correspondence from you saying you have not had a response from me i have tried to call with no success so would like to know how this can be resolved yours faithfully abc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">re : test pension scheme - lmno she was born on 1st january 1400 and died on monday 1st january 1400 death has been registered electronically and certificate issued there are no financial dependents i am lmno s son abc 10 test road test street aa12 123 phone number + 91 012345678 abc son from : test pensions pensions com sent : 07 october 2020 04 : 08 to : abc xyz testmail com subject : test pension scheme - lmno dear abc test pension scheme thank you for your email on regarding the test pension scheme please accept my sincerest condolences for your loss in order to assist us could you please provide us with the following details : emailer s relation to member : date of birth : date of death : has the death been registered and death certificate issued : did the member have any financial dependents address for condolence : contact number : if you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 05 october 2020 15 : 02 to : test pensions pensions com subject : bereavement i am contacting you to advise of the death of one of your pensioners and to stop any undue payments the deceased is member no tst12345678 nat ins no she was residing at abc son and executor </t>
-  </si>
-  <si>
-    <t>re : test pension scheme - test section dear sirs ref : tst12345678 i have received the required retirement quote and would now like to request the retirement pack to proceed many thanks abc xyz zz123123z from : test pensions pensions com sent : friday 9 october 2020 11 : 25 to : abc xyz testmail com dear miss abc test pension scheme - test section formerly test group thank you for your email regarding the test pension scheme - test section your request has been logged and you will receive a written response from our administration department within 10 - 15 working days should you have any further queries please do not hesitate to contact the customer support centre between 9 00am and 5 00pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely abc from : abc xyz testmail com sent : 07 october 2020 13 : 38 to : test pensions pensions com subject : re : test pension scheme - test section my full address is many thanks abc on 7 oct 2020 7 : 36 am test pensions pensions com&lt;mailto : test pensions pensions com wrote : dear miss abc test pension scheme - test section formerly test group thank you for your email regarding the test pension scheme - test section to enable us to answer your enquiry please could you provide your full address for data verification purposes should you have any further queries please do not hesitate to contact the customer support centre between 9 00am and 5 00pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely abc from : abc xyz testmail com sent : 05 october 2020 09 : 01 to : test pensions pensions com subject : re : retirement quote dear sirs could you please give me an estimated retirement quote for me to retire on 1st january 1400 test pension scheme - test section tst12345678 many thanks abc from : abc xyz testmail com sent : sunday 4 october 2020 10 : 14 to : test pensions pensions com dear sirs could you please give me an estimated retirement quote for me to retire on 1st january 1400 test pension scheme - test section tst12345678 many thanks abc</t>
-  </si>
-  <si>
-    <t>re : def retirement and employee scheme thank you for your reply if i could please have a uptodate benifit statment issued that would be great regards abc from : test pensions pensions com sent : 17 november 2020 12 : 21 to : abc xyz testmail com subject : def retirement and employee scheme dear abc def retirement and employee scheme thank you for your email regarding the def retirement and employee scheme your request for change of address has been logged and you will receive a written response from our administration department in due course please note that you can apply for early retirement from the scheme from the age of 55 and over however an update of benefit statement can be issued on request once your address is updated on our records we will be able to assist you with online access should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 13 november 2020 12 : 08 to : test pensions pensions com subject : re : def retirement and employee scheme sure my current address is please could you also let me know how i get full details of my pension and what the balance and projections are for retirement how can i access these details thank you abc friday 13 november 2020 09 : 37 + 0000 from test pensions pensions com : dear mr abc def retirement and employee scheme thank you for your email regarding the def retirement and employee scheme could you please provide the current address to update your record should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 11 november 2020 09 : 58 to : test pensions pensions com subject : re : def retirement and employee scheme hi one of the reasons i was making contact is because my address has changed i believe my registered address is - i have also attached a copy of my passport for further varification regards abc from : test pensions pensions com sent : 11 november 2020 03 : 06 to : abc xyz testmail com subject : def retirement and employee scheme dear member def retirement and employee scheme thank you for your email regarding the def retirement and employee scheme to enable us to answer your enquiry please could you provide your full address for data verification purposes should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 06 november 2020 18 : 33 to : test pensions pensions com subject : def pension hi i have a final salary pension with dress and i am trying to get details about where it is now and what cover and benifits it gives me my emploee number which i belived is used as the referance number is christopher pearce dop ni - please could you advise how i find out where i information is now held if you require any further information please call regards abc</t>
-  </si>
-  <si>
-    <t>test pension tst12345678 hi i have been sent a update on my scheme many thanks for that i have a question can i withdraw any funds tax free when i reach 55 next year also if so how much would that figure be kind regards abc xyz 10 test road test street aa12 123 ref tst12345678 national insurance number zz123123z kind regards</t>
-  </si>
-  <si>
-    <t>abc - test industries pension scheme - death notification no nino as previously stated dob 01 01 1400 test fund from : testscheme fincorp com sent : 06 october 2020 17 : 23 to : testfund fincorp com subject : abc - test industries pension scheme - death notification hi test fund please provide member dob and nino as we are unable to locate member record within the above scheme regards test scheme from : testfund fincorp com sent : 02 october 2020 14 : 14 to : testscheme fincorp com subject : abc - test industries pension scheme - death notification condolence pack will need to be sent to 10 test road test street aa12 123 test fund from : testscheme fincorp com sent : 02 october 2020 09 : 42 to : testfund fincorp com subject : abc - test industries pension scheme - death notification hi test fund can you check and assist is there any work required from csc team or not regards test scheme from : testfund fincorp com sent : 30 september 2020 14 : 30 to : testscheme fincorp com subject : abc - test industries pension scheme - death notification hello member s sp does not have a nino so i am unable to create a job please complete death process death notification preserved pension idu check pass sla quoted date member passed 01 01 1400 date the death was registered : cannot remember members forename : abc what address did you will you use to register the death : 10 test road test street aa12 123 did the member have any financial dependants or a spouse husband xyz address for condolence pack : 10 test road test street aa12 123 did the member leave a will yes if yes - can i take the name of the executor husband - xyz test fund</t>
-  </si>
-  <si>
-    <t>re : pension summary sent from my ipad on 20 nov 2020 at 16 : 54 abc xyz &lt;test pensions pensions com wrote : hi i m in the test pensions scheme i ve logged into test pensions to have a look at my pension summary and it s only showing me my pension summary as at 01 jan 1400 is there a reason for this also i have tried to get an early retirement quote calculation but it has been unable to calculate my quote can you help dob 01 01 1400 national insurance number zz123123z 10 test road test street aa12 123 regards abc xyz</t>
-  </si>
-  <si>
-    <t>re : ms abc xyz dear abc xyz my question has been answered and letter confirming revised pension calculation already received regards ms abc xyz on 21 nov 2020 at 03 : 28 &lt;test pensions pensions com &lt;test pensions pensions com wrote : dear abc xyz ms abc xyz thank you for your email regarding the test pensions fund please accept our apologies for the delay in responding to you to enable us to answer your enquiry please could you provide your full address date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely abc xyz administrator customer support centre 10 test road test street aa12 123 direct dial : + 91 012345678 test pensions pensions com - - - - - original message - - - - - from : abc xyz abc xyz testmail com sent : 14 november 2020 18 : 27 to : test pensions cc : test ifa subject : pension payment ref tst12345678 importance : high to abc xyz team manager i have today received a letter advising that i will receive a pension lump sum payment of 100 in december leaving me with a pension of 500 per annum i have signed documentation to request a pension lump sum payment of 100 only please update your records and recalculate my annual pension accordingly thanks ms abc xyz</t>
-  </si>
-  <si>
-    <t>telephone conversation hi as per telephone conversation on the 20 nov 2020 i attach my passport driving license and letter from solicitor ref to i need my name on all correspondence to be changed to abc xyz and not def on there as all my id and bank accounts are in abc my national insurance number is zz123123z please can you confirm this is done thanks abc xyz + 91 012345678 sent from my galaxy</t>
+    <t>change of adress pension reference 1000000 my new address is 00 witchwood lane kawali sunset rr00rr kind regards red fort</t>
   </si>
   <si>
     <t>re : lmno pension plan i have already provided this information once before you informed me that the address had been updated on your systems however as requested : 10 test road test street aa12 123 zz123123z 1st january 1400 regards abc on 13 nov 2020 at 12 : 25 test pensions pensions com&lt;mailto : test pensions pensions com wrote : dear abc test pension plan thank you for your email regarding the test pension plan to enable us to answer your enquiry please could you provide your full address date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 11 november 2020 20 : 29 to : test pensions pensions com subject : re : lmno pension plan as you can see from the below email trail i requested that all communication to me should be sent to a new email address abc xyz testmail com &lt;mailto : mebehelen gmail com however the newsletter that was recently sent out to me from : testfund fincorp com was sent to the old email address please confirm how i can get my address details updated correctly on the mailing list for the newsletter regards abc on 11 may 2020 at 06 : 10 test pensions pensions com wrote : dear abc test pension plan thank you for your email regarding the test pension plan we note that you wish to receive newsletter through email we have updated our records with your email id abc xyz testmail com&lt;mailto : abc xyz testmail com i can confirm that going forward you will receive newsletter on your registered email id every year if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 06 may 2020 11 : 51 to : test pensions pensions com subject : re : lmno pension plan dear test pensions as requested : kind regards abc on 6 may 2020 at 06 : 28 test pensions pensions com&lt;mailto : test pensions pensions com wrote : dear abc test pension plan thank you for your email regarding the test pension plan to enable us to answer your enquiry please could you provide your date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 04 may 2020 15 : 47 to : test pensions pensions com subject : change of contact details hi i have recently received the newsletter from test pensions to an old email address abc testmail com&lt;mailto : abc testmail com and need to request that future communications are sent to this address abc xyz testmail com i am not sure whether there is an official way to request this change if so please provide the details my full name is and my address is regards abc</t>
   </si>
   <si>
-    <t>immediate retirement quote ref : tst12345678 test pension scheme mr abc xyz 10 test road test street aa12 123 ni zz123123z dear abc thank you for your recent correspondence i would like to request an immediate retirement quote for mr abc and retirement pack with his options on taking his pension from the scheme if you could also please send me a copy of this information if you require any further information from myself please let me know kind regards abc xyz</t>
-  </si>
-  <si>
-    <t>re : test pension scheme address 10 test road test street aa12 123 on mon 23 nov 2020 05 : 07 &lt; testscheme fincorp com &lt;mailto : testscheme fincorp com wrote : dear abc xyz test pension scheme thank you for your email regarding the test pension scheme i can confirm that you are able to transfer either your defined benefits or defined contribution benefits subject to trustees consent in order to assist you further please could you provide your full address for data verification purposes should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com &lt;mailto : test pensions pensions com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 from : abc xyz &lt;abc xyz testmail com sent : 19 november 2020 20 : 13 to : test pension fund subject : ref tst12345678 hi i am writing to enquire whether there is an option to transfer my defined contribution and or my defined benefit rnib pension fund to an test pension fund ie if i wanted to would i be allowed under this scheme abc xyz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">abc xyz dear sir or madam please find attached a current letter of authority for the above client this is an initial request looking into a potential transfer once the above client confirms they wish to proceed we will confirm the receiving scheme qrops sipp transfer request list please provide all details in full both overseas and uk discharge forms including fin corp requirements forms for the transfer to take place scheme and plan type barber equalisation date nra pre and post barber equalisation date has there previously been a transfer in or not if yes then the amount of gmp transferred in revaluation rate for gmp transferred in confirmation of any avc or money purchase benefits held within the scheme are there any pension sharing earmarking orders - if yes does the tv reflect this does the scheme provide a bridging pension guaranteed annuity rates where applicable please provide details on single life level basis single life 10 year guarantee joint life 50 spouses guaranteed growth rates guaranteed plan value at retirement ill - health pension or enhancement current fund value including all fund details full cetv if the cetv has been reduced please confirm by what amount date of joining and leaving the pension scheme normal retirement date age members contributions to the scheme an immediate retirement quote value of pension at date of leaving value of pension at statement date deferred pension at date of leaving - per annum figure showing : o pre 88 gmp o post 88 gmp o pre 97 gmp o post 97 gmp o post 05 o post 09 o excess o should any gmp revalue at different rates please provide the relevant split pension increases in deferment for : o gmp o excess o if this is by price inflation please specify if this is cpi or rpi pension increases in retirement for : o gmp o excess o if this is by price inflation please specify if this is cpi or rpi have there been any discretionary increases in the last 10 years is there a spouses pension details in both deferment and retirement - also confirm if spouse s pension is calculated before or after any commutation confirmation of the reduction to the spouse benefits if the spouse is more than 10 years younger is there a children s pension details in both deferment and retirement guarantee period on death of the member lump sum payable in death in deferment and retirement the member s final pensionable earnings figure in order to determine the spouse s pension payable on death in deferment rate of interest applied to the refund of contributions on death in deferment full income without taking pcls earnings on leaving pcls at nra commutation factor for ages 55 - 70 early retirement factors and how they are applied - are these applied to pension at retirement or nra late retirement factors and how they are applied - are these applied to pension at retirement or nra scheme funding status date latest scheme funding statement leaflet booklet is the plan paid up longevity adjustment factor and how this is applied if applicable scheme booklet do you permit partial transfers and if so on what terms have you as yet equalised gmp payments in line with the may 1990 ruling by the european court of justice abc xyz pension administrator tel : + 91 012345678 fax : + 91 012345678 email : fin corp testmail com &lt;mailto : fin corp testmail com </t>
-  </si>
-  <si>
-    <t xml:space="preserve">re : test pension fund - abc xyz thank you for your response in answer to your questions the address that you have for abc xyz is 10 test road test street aa12 123 f date of birth 1st january 1400 national insurance no zz123123z i look forward to hearing from you further regards abc xyz - - - - - - original message - - - - - - from : test pensions pensions com to : abc xyz testmail com sent : friday 20 nov 2020 at 16 : 25 subject : test pension fund - abc xyz dear abc xyz test pension fund thank you for your email regarding the ford pension fund please accept our apologies for the delay in responding to you to enable us to answer your enquiry please could you provide member s full address date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com &lt;mailto : test pensions pensions com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 from : abc xyz &lt;abc xyz testmail com sent : 26 october 2020 11 : 40 to : test pensions subject : mrs abc xyz - pension ref : 123456 i am writing to inform you that abc xyz moved into residential care on 1st january and that i will be handling all of her financial affairs as attorney from now on i will of course let you have all of my details so that any correspondence can sent directly to me but so that i can do everything in one go would you kindly let me know what information you require from me many thanks abc xyz daughter </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pre - identified user support request reply email address : testfund fincorp com forename : abc surname : xyz ni number : zz123123z dob : 01 january 1400 home postcode : aa12 123 employer : test pensions subject : transfer value content : good afternoon i am unable to see my transfer value on the website i phoned over a month ago and was told that this would be looked into and that i would also receive my transfer value by post i have not received this yet please look into this matter for me thanks test pensions</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> warning : message encrypted abc xyz your ref tst12345678 our ref tvaut - 123456 message encrypted good morning please find attached completed transfer paperwork for the above member looking to transfer to fin corp you will need to use the clients ni number in uppercase to view these documents if anything further is required please let me know kind regards abc xyz 10 test road test street aa12 123 tel : + 91 012345678 email : test pensions pensions com &lt;mailto : test pensions pensions com tel : + 91 012345678 email : test pensions pensions com &lt;mailto : test pensions pensions com </t>
-  </si>
-  <si>
-    <t>re : test pension fund - late lmno dear sirs we can confirm the following information as requested : lmno address : 10 test road test street aa12 123 date of death : 1st january 1400 national insurance no : zz123123z we look forward to hearing from you abc from : test pensions pensions com sent : 06 october 2020 11 : 10 to : abc xyz testmail com subject : test pension fund - late lmno dear test ifa test pension fund thank you for your email regarding the test pension fund to enable us to answer your enquiry please could you provide the member full address date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : test ifa fincorp com sent : 02 october 2020 16 : 23 to : test pensions pensions com subject : lmno deceased - reference : tst12345678 dear sirs we are in receipt of your letter dated 16 june 2020 to miss abc we can confirm that miss abc has appointed test ifa to act on her behalf in relation to the administration of the estate of her late father lmno we have noted the overpayment of pension which is due back from the estate unfortunately we have not yet obtained letters of administration and therefore do not have access to the requisite funds to reimburse you however we will be in touch in that regard with an update as soon as we are able on a separate note we have arranged for the funeral benefit form to be signed and we will return this to you in due course in the meantime please find enclosed the funeral receipt and invoice we look forward to hearing from you yours faithfully test ifa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test pension fund full name : abc xyz reference : tst12345678 ni : zz123123z i am writing with reference to your letter dated 1st january 1400 in which you state that i have sufficient unused annual allowance to cover any increase in pension savings during this tax year please consider this email as confirmation that i wish to continue with my chosen option 4 confirmation that you can now proceed with processing my retirement would be greatly appreciated kind regards abc xyz 10 test road test street aa12 123 + 91 012345678 abc xyz testmail com &lt;mailto : abc xyz testmail com </t>
-  </si>
-  <si>
-    <t>re : test death approval abc xyz - tst12345678 test pensions i agree with the recommendation in respect of mr abc xyz from : test ifa fincorp com sent : 21 september 2020 15 : 36 to : test pensions pensions com subject : test death approval abc xyz - tst12345678 test abc xyz - death in retirement please find attached the documentation relating to the above late member who died whilst in receipt of his pension the member was unmarried at the date of death therefore the committee are being asked to consider the lump sum death benefit of 1 500 00 only this case is being referred to the committee because the member did not leave a will however a nomination form was completed in 2002 was in favour of his common law wife mrs jkl and son mr def mr def has advised that the late member has lived in a care home for the last 7 years and has had no involvement with mrs jkl furthermore since 2015 the member has been in the care of the adult social care team in birmingham city council who hold a court of protection order copy attached for reference it would be our recommendation that lump sum death benefit is paid to his son - mr def please would you agree this recommendation kind regards test ifa</t>
-  </si>
-  <si>
-    <t>employee no 132456 hi im an ex employee trying to find all my old pensions from ex employers please could you inform me of steps required in obtaining my contribution while i worked for dsg i am planning on combining all of my pensions so need the data regards abc xyz</t>
-  </si>
-  <si>
-    <t>test application for ill health benefits - abc tst12345678 test pensions i agree with the recommendation in respect of mr abc from : test trustees pensions com sent : 03 november 2020 15 : 39 to : test pensions pensions com cc : testfund fincorp com subject : test application for ill health benefits - abc tst12345678 hi i agree with the recommendation to full commutation of pension to mr abc on the grounds of having less than 12 months to live regards dc from : test pensions pensions com sent : 03 november 2020 15 : 00 to : test trustees pensions com cc : testfund fincorp com subject : test application for ill health benefits - abc tst12345678 dear trustees we received approval to issue an ill health quote for the above member we have now received a letter from the member s gp that he has less than 12 month to live could i please have your approval to issue a full commutation of pension to mr abc i look forward to your urgent response kind regards test pensions from : test pensions pensions com sent : 18 september 2020 10 : 54 to : test trustees pensions com cc : testfund fincorp com subject : test application for ill health benefits - abc tst12345678 dear trustees the above member has a small preserved pension in the plan - 111 11 p a at his date of leaving of 22 03 1991 the current value of his deferred pension is 1 111 p a he is currently aged 52 and has been diagnosed with an aggressive brain tumour - please see attached could we please have your authorisation to issue mr horgan with an ill health quotation if you have any queries please let me know kind regards test pensions</t>
-  </si>
-  <si>
-    <t>urgent tst12345678 defg good morning i appreciate that you are very busy at present i have been trying the phone lines and just keep getting automated messages saying my call cannot be taken we have submitted transfer out paperwork for defg tst12345678 zz123123z 01 01 1400 aa12 123 the documents were signed for in your offices on 18 11 2020 and the guarantee date for the cetv is 30 11 2020 i just please need confirmation that the cetv is secured by the confirmation that the paperwork reached your offices well in advance of the guarantee date despite your current workloads if you are able to advise of your current turnaround times then this would also be appreciated - - kind regards test ifa</t>
-  </si>
-  <si>
-    <t>re : change of address - abcd hi test fund the members address has been updated thank you test pensions from : testfund fincorp com sent : 13 october 2020 18 : 14 to : test pensions pensions com subject : change of address - abcd nino - zz123123z dob - 01 01 1400 new address : 10 test road test street aa12 123 tel : + 91 012345678 email abc xyz testmail com could you please update your records with the members new address and contact details could you also previde him with his pension options see attached request kind regards test fund</t>
-  </si>
-  <si>
-    <t>re : zz123123z hello again i write to advise you that i wish to transfer out of the test pension fund and i have been told that the company i have chosen test pension fund have already contacted you to advise of this please confirm to me that you have received this from them and that this will be allowed to progress based on your transfer value that expires on 1st january 1400 regards abc xyz dob 01 01 1400 zz123123z 10 test road test street aa12 123</t>
-  </si>
-  <si>
-    <t>ref : tst12345678 mr abc xyz dear sir madam i have a pension test industries pension scheme tst12345678 i would like to have this pension paid out to me as a lump sum as soon as possible can you advise if you require any further information so as to proceed with my request as requested on your correspondence to me please find below details as requested abc xyz zz123123z yours sincerely abc</t>
-  </si>
-  <si>
-    <t>tst12345678 abc xyz reference tst12345678 abc xyz hi could you please change my address from 30 test road test street au12 123 to 10 test road test street aa12 123 kind regards abc</t>
-  </si>
-  <si>
-    <t>abc xyz change of address pension reference tst12345678 my new address is 10 test road test street aa12 123 kind regards abc xyz</t>
-  </si>
-  <si>
-    <t>mr stu vwx good day i have spoken with one of your advisers today but i need some clarification please my father mr stu vwx ni no zz123123z ref tst12345678 currently as my father died and had received his pension in advance the estate owes 1 111 11 which i understand i am happy to have the money is paid out from what was his joint account with my mother she will be keeping the account to receive payments from yourselves could she then receive her payments i was also told that before any payments could be made to her a copy of the probate must be supplied but i see no reason for this as pensions fall outside the scope of probate we are in the process of applying for probate which will probably happen end of january can you confirm we can pay the amount owing and confirm that a copy of the probate is not required to release payments to my mother def if you have any questions please feel free to let me know thank you in advance kind regards abc + 91 012345678</t>
-  </si>
-  <si>
-    <t>re : wxyz pension scheme hello scheme number : tst12345678 abc 10 test road test street aa12 123 dob : 01 01 1400 ni : zz123123z thanks for passing on my query to the administration to team i wanted to share some pieces of correspendence i have previosuly received in relation to the def lump sum i have attached some letters i have received including the last letter dated 24 april 2020 in this letter it mentions about the def lump sum saying that i can take the money prior to the transfer to lmn are you able to give me an update on this process please i have always been made aware that i am eligible for this lump sum but have never been given the opportuntiy to opt in to it which was stated in a previous letter kind regards abc from : test pensions pensions com sent : 26 october 2020 13 : 40 to : abc xyz testmail com subject : wxyz pension scheme dear abc wxyz pension scheme thank you for your email regarding the wxyz pension scheme i can confirm that i have forwarded your query to the administration team; once a response has been received we will be in touch accordingly should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 22 october 2020 19 : 24 to : test pensions pensions com subject : re : wxyz pension scheme good afternoon thanks for your email after months and months of correspondence from the wxyz pension scheme i was lead to believe that due to the winding up of this scheme if the value of my pension was under 18 000 - which it is then i could take the sum as cash i do have most of the letters so would it be easier to call someone and discuss regards abc from : test pensions pensions com sent : 22 october 2020 14 : 41 to : abc xyz testmail com subject : wxyz pension scheme dear abc wxyz pension scheme thank you for your email regarding the wxyz pension scheme i can confirm that i have logged your request to our administration team to update your address a written response will be issued to your home address within 10 - 15 working days also i can confirm from the scheme rules that earliest we can issue retirement projection is from the age of 55 however i have logged a request for update of benefits instead once your address details are updated we will proceed with your pension query should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 20 october 2020 14 : 12 to : test pensions pensions com subject : re : wxyz pension scheme good morning my current full address is other info is name : dob : ni number : other addresses are kind regards abc from : test pensions pensions com sent : 16 october 2020 12 : 33 to : abc xyz testmail com subject : wxyz pension scheme dear test pensions wxyz pension scheme thank you for your email regarding the wxyz pension scheme to enable us to answer your enquiry please could you provide previosu your full address for data verification purposes should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 14 october 2020 21 : 36 to : test pensions pensions com subject : pension update good afternoon are you able to give me an update please on the situation with my pension and when you think there will be a resolution i am looking to take the amount i have as a cash lump sum kind regards abc</t>
-  </si>
-  <si>
-    <t>abc test pensions tst12345678 urgent hi please can you provide an update on the progress of this information request and an estimated date we can expect a response with the information many thanks in advance please quote our client case number on all your replies tst12345678 regards test ifa from : test ifa fincorp com sent : 10 november 2020 12 : 05 to : test pensions pensions com&lt;mailto : test pensions pensions com subject : abc test pensions tst12345678 urgent urgent urgent urgent please can someone give us an urgent update on the attached loa and information request the client is looking for an update so would appreciate a current timescale just so as we can manage the client expectations many thanks please quote our client case number on all your replies tst12345678 test ifa from : test ifa fincorp com sent : 06 november 2020 18 : 02 to : test pensions pensions com&lt;mailto : test pensions pensions com testfund fincorp com&lt;mailto : testfund fincorp com subject : abc test pensions tst12345678 urgent please quote our client case number tst12345678 on all your replies hi please find attached pension information projections letter together with our client s signed letter of authority loa please provide us with the requested information as soon as possible by secure email if possible transfer discharge requirements : please enclose your discharge transfer encashment form please confirm what form of id is required from our mutual client please confirm if your funds can be paid directly to st james s place wealth management for the client s benefit please confirm if the discharge encashment transfer of this plan is supported under the origo options pension transfer service please email : tst12345678 tel : + 91 012345678 regards test ifa</t>
-  </si>
-  <si>
-    <t>abc tst12345678 - zz123123z - 01 01 1400 importance : high good morning i m concerned that i am yet to have a response to my below request please provide the answers to our queries urgently and by email if possible kind regards test ifa from : test ifa fincorp com sent : 06 october 2020 17 : 26 to : test pensions pensions com subject : abc tst12345678 - zz123123z - 01 01 1400 importance : high good afternoon please find attached a letter of authority duly signed by our mutual client which should enable you to release information for this policy therefore please kindly provide me with the following information in writing; dates salary date of joining and leaving the scheme member s final pensionable salary has the gmp been equalised are partial transfers allowed i e can the gmp remain and post 97 rights be transferred funding statement if relevant is late retirement allowed if so to what age and late retirement factors please pension benefits at date of leaving scheme gmp benefits; showing any pre post 88 splits the rates of revaluation in deferment and escalation in payment excess benefits; showing any pre post 85 or 97 splits the rates of revaluation in deferment and escalation in payment list of any discretionary increases applied to pension either in deferment payment during last 5yrs breakdown of any transferred - in benefits; are the benefits treated the same as the main scheme benefits if not please highlight any differences is there a fixed pension at nra of service credit if no gmp contained does the member have any avcs if so how what is the current value do they have to be transferred with the main scheme benefits what funds are they invested in can the member switch into different funds early retirement is early retirement allowed if so from which age what actuarial reduction factors are currently applied to members pensions in the event of early retirement if a table of factors is not available please provide the percentage reduction applicable for each year early and whether this is compound or simple reduction would the member benefits be revalued to the date of actual or normal retirement upon early retirement if revalued to normal retirement at what assumed rate are benefits projected to normal retirement benefit payable now on a full pension basis and maximum pension commencement lump sum with reduced pension basis tax free cash member tfc at date of leaving would this amount revalue if so at what rate does the scheme pay hmrc post a - day maximum cash amount of pre a - day ir maximum cash at 5 4 2006 if protected what are the scheme current tfc commutation factors from nra to age 55 death benefits does the scheme pay a death before retirement lump sum if so what and how much what pension would the member spouse receive upon death before and after retirement what death after retirement guarantee does the scheme apply contracting out was the scheme contracted out pre post 06 04 1997 if yes for post 97 on what basis; reference scheme protected rights underpin mixed benefit transfer value total transfer value cetv ; showing any splits of gmp protected rights pre post 06 04 1997 calculation and guarantee dates also amount of member contributions included in the tv scheme information scheme s normal retirement age is the scheme open to all employees or are there restrictions if so what are they what is the scheme s current funding position would deferred members benefits be affected in any way if so how is the scheme a member of the transfer club will the scheme allow a partial transfer of benefits if yes please outline any restrictions that would be applied and or provide details of the basis on which a partial transfer would be allowed if no please confirm if there is more than one type section version of scheme membership which one applies to the member is the plan subject to an earmarking or attachment order what date was the scheme equalised and the earliest age benefits can be taken unreduced if the transfer were to proceed would the scheme be insistent that all forms must be returned within the guarantee period or could some discretion be used at that time please forward copies of any warranty discharge forms that would need to be completed if the client decided to transfer their benefits thank you for your assistance in this matter kind regards test ifa</t>
-  </si>
-  <si>
-    <t>test pension scheme reference tst12345678 dear sir madam mr abc ni : zz123123z 10 test road test street aa12 123 thank you for your email would you kindly provide me with a list of funds that my test pension scheme are held in and the that is held within each fund please email or by post to my address yours faithfully mr abc + 91 012345678 abc xyz testmail com - - - - - - - - - - forwarded message - - - - - - - - - from : test pensions pensions com date : wed 4 nov 2020 at 19 : 42 subject : test pension scheme reference tst12345678 to : abc xyz testmail com dear abc test pension scheme thank you for your email regarding the test pension scheme i have checked our records and can confirm that the correspondence was issued to def ltd on 29th october 2020 please note that you will receive it shortly if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 02 november 2020 17 : 26 to : test pensions pensions com subject : test pension scheme reference tst12345678 dear sir madam test pension scheme abc reference : tst12345678 national insurance number : i refer to your letter dated 28th october 2020 a copy of which is attached for your reference and to my telephone conversation with test pensions today i can confirm that i have given def ltd my full authority to act on my behalf regarding all matters relating to my test pension scheme would you please provide them with a transfer value statement as requested by them and any other information that they may request regarding my pension yours faithfully abc 10 test road test street aa12 123</t>
-  </si>
-  <si>
-    <t>test pension fund - bheem b message encrypted dear sir madam as per previous correspondence from ms bheem please find attached copy of our correspondence sent to you today confirming the member s cash lump sum on retirement from the above fund the attachment is password protected with the member s national insurance number all upper case kind regards sun light senior pensions administration leatherhead office postal address : post email fax centre z st tower 0 chennai road loundon m0 00a direct dial : + 44 1 1000 000 000</t>
-  </si>
-  <si>
-    <t>test pension scheme; scheme member; change of address n i number : zz123123z dear sir madam i have recently received a publication regarding the above pension scheme redirected from my previous address details below : 10 test road test street aa12 123 i wish to register a change of address to that detailed below : 10 test road test street aa12 123 please could you acknowledge this change of address and forward any future information regarding the above referenced scheme to the changed address many thanks abc xyz lead assessor mobile number + 91 012345678 email : abc xyz testmail com</t>
-  </si>
-  <si>
-    <t>updated address and contact details hi i am a deferred member of the test pension scheme and would like to update my contact details : name : abc xyz ni number : zz 12 31 23 z old address : 10 test road test street aa12 123 new address : 10 test road test street aa12 123 i would like to get updates and newsletters via email to abc xyz testmail com thanks abc xyz</t>
-  </si>
-  <si>
-    <t>re : change of personal details name abc further to my previous email my date of birth is 01 january 1400 t i pension reference number tst12345678 national insurance number zz123123z change of address from 70 test road test street wa12 123 new address 10 test road test street aa12 123 mobile + 91 012345678 email abc xyz testmail com&lt;mailto : email jackie barrett123197 gmail com regards abc on wed 14 oct 2020 15 : 01 abc xyz testmail com&lt;mailto : abc xyz testmail com wrote : name abc test group pension scheme member reference number tst12345678 national insurance number zz123123z i wish to advice you on my change of address now; 10 test road test street aa12 123 mobile number + 91 012345678 regards abc - - abc</t>
-  </si>
-  <si>
-    <t>test pension fund : def good morning following the emails below my father xyz has received a letter from you dated 01 january 1400 regarding the death on my mother def - your reference tst12345678 in that letter you say you need to see certain original documents being my fathers birth certificate or passport marriage certificate and death certificate to say the least requiring original documents to be sent around the world is both unusual and high risk in dealing will my mothers estate no other pension provider xxx or xxx has asked for anything other than certified copies of documents to this end i spoke with a representative of test deceased estates department in xxx he thought your need to be extraordinary and said certified copies suffice here questions : 1 can my father send certified copies authorised by an appropriate authority or a test officer at you xxx office 2 what document or documents would be acceptable in lieu of a xxx marriage certificate as my father is unable to locate this document i await your reply regards abc - - - - - - original message - - - - - - from : abc xyz testmail com to : test pensions pensions com sent : thursday 13 aug 2020 at 7 : 41 am subject : test pension fund : def in my previous response to this i gave def s dob as 01 january 1400 which was an error the correct dob is 01 january 1400 regards abc - - - - - - original message - - - - - - from : test pensions pensions com to : abc xyz testmail com sent : tuesday 11 aug 2020 at 11 : 02 pm subject : test pension fund : def dear abc test pension fund please accept my sincerest condolences for your loss in order to assist us could you please provide us with the following details : date of birth : has the death been registered and death certificate issued : what address did you will you use to register the death : did the member have any financial dependants or a spouse address for condolence pack : did the member leave a will if yes - can i take the name of the executor contact number : if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 08 august 2020 05 : 45 to : test pensions pensions com subject : good morning this is to let you know that my mother died of natural causes on 1st january 1400 i assume you will terminate her payments from the test pension funds if there is anything else my father or i need to do please let me know also does your scheme provide any funeral or bereavement benefits for my father kind regards abc</t>
-  </si>
-  <si>
-    <t>reference tst12345678 - abc xyz - test pension scheme membership number zz123123z 2 further important areas of understanding importance : high dear sirs abc xyz national insurance number : - zz123123z smiths industries pension scheme reference : - tst12345678 thank - you for your letter dated 30 10 2020 confirming correction of my statement as at 01 01 1400 and explanation as to why my fin corp account is not yet up to date i would like to take the opportunity to enquire about two further important areas of understanding please : - 1 the possible size of lifetime allowance amount to be expected from the sips at retirement 2 should i wish to take my benefits earlier than normal retirement age nra the reduction i could expect with respect to 1 my understanding is that the rule of thumb calculation is to multiply the annual pension at retirement ap by 20 in the attached excel sheet i have attempted to project ap and lifetime allowance amounts using a number of assumptions i have applied a range of rpi assumptions to items b c and the fixed 5 p a to items a e over 10 years item d transferred - in pension 100 p a as at 01 01 1400 will be at least the fixed pension guarantee of 500 p a at age 65 according to my attached pdf statement of preserved retirement benefits so i have assumed this amount as any higher amount would need average compound growth of over 10 p a which seems unlikely the sum of all of these using rpi assumptions of 1 2 5 and 4 computes ap values of c 10000 c 20000 and c 50000 respectively and applying the rule of thumb x10 calculation computes lifetime allowance amounts of c 300000 c 500000 and c 600000 respectively at nra i would be grateful if you could confirm that my understanding and expectations are correct using the stated assumptions for rpi with respect to item 2 i would be grateful for an understanding of how much my annual pension could be if benefits were taken early for example now and how i could estimate what this value could be as each year passes between now and nra in terms of reduction would item d above include a reduced proportion of the fixed pension guarantee of 1000 p a which then ought to be higher than the 300 p a as at 01 01 1400 i look forward to hearing from you again in due course many thanks kind regards abc xyz 10 test road test street aa12 123 tel : + 91 012345678 mob : + 91 012345678 from : abc xyz sent : 18 october 2020 21 : 41 to : testscheme fincorp com subject : reference tst12345678 - abc xyz - test pension scheme membership number zz123123z 2 further important areas of understanding dear sirs abc xyz national insurance number : - zz123123z test pension scheme reference : - tst12345678 since my email below the attached annual valuation letter arrived in the post on 17 10 2020 however the figure quoted appears unexplainably low in relation to last year s valuation which i would like to urgently query please the format of the letter also lacks the requested detailed format i have received each year and been accustomed to so it is not possible to follow how this has been calculated but it does not seem correct according to the scheme rules i am also concerned should fin corp ltd not have received my full pension details from fin corp 2 ltd and this perhaps explains the sudden inconsistent valuation as well as why my fin corp account lacks the correct up to date pension details in order to ensure your records are complete and assist with my query i am attaching in addition the following with comments : - 1 my official statement of preserved retirement benefits received 01 01 1400 with key notes including how my augmented preserved pension will increase over time according to the rules 2 an excel sheet showing each year s detailed valuation starting 01 01 1400 500 until 01 01 1400 1000 attached i have a detailed annual valuation letter for each of these years from initially fin corp 1 then fin corp 2 and then fin corp 3 the key point is that the scheme gmp and transferred in gmp are guaranteed to be increased by 10 p a and the rest is guaranteed to increase by the lower of 10 or rpi p a with an additional guarantee minimum fixed pension of 700 p a for the transferred in pension the sheet shows that a value of 1000 on 01 01 1400 cannot be mathematically correct even if rpi for 2019 20 had been 0 the resulting value on 01 01 1400 would have been higher than 1000 and with an assumed estimated rpi of 3 it would be 1500 the sheet also shows a projection at retirement age assuming average rpi of 2 8 p a to emphasize how import the correct annual increases are combining with the transferred in pension guarantee for the overall pension amount i would therefore be grateful for the following please : - a review of the above valuation and then issuance of the detailed annual valuation letter in the form prepared by fin corp ltd as attached which tabulates each component as at 01 01 1400 with the confirmatory narrative which aligns with my preserved retirement benefits details hopefully this results in an updated correct valuation update of my fin corp account for my pension details and overall confirmation that my pension details are held safely by fin corp and are up to date finally i intend to continue to request this annual valuation letter and would ask if it could be possible please to receive this automatically each year for 1 may if not possible i will continue requesting each year i look forward to hearing from you again in due course many thanks kind regards abc xyz 10 test road test street aa12 123 tel : + 91 012345678 mob : + 91 012345678 from : abc xyz sent : 18 october 2020 21 : 41 to : testscheme fincorp com subject : re : abc xyz - test pension scheme membership number zz123123z annual valuation letter 1 june importance : high dear xyz dear sirs i hope you are keeping safe and well i was just wondering if my requested annual valuation letter is close to being completed as i have not yet received anything i realize due to the current unprecedented circumstances that there is a delay in administration requests but i would be grateful if you could give me an indication when it could be ready please i have also just logged in to my fin corp account and noticed that my pension details are not up to date and aligned with any of the valuations i have received up to now fin corp actually states that i left the pension scheme on 01 01 1400 which is not correct nor is the value quoted i would be grateful if you could also review this and update my account in due course please would it also be possible to receive my annual valuation letters uploaded on to my account in future to keep my account up to date in this way many thanks kind regards abc xyz 10 test road test street aa12 123 tel : + 91 012345678 mob : + 91 012345678 from : abc xyz sent : 18 october 2020 21 : 41 to : testscheme fincorp com subject : re : abc xyz - test pension scheme membership number zz123123z annual valuation letter 1 june importance : high xyz my verification information which you requested is as follows : - date of birth : - 01 01 1400 national insurance number : - zz123123z many thanks kind regards abc xyz 10 test road test street aa12 123 tel : + 91 012345678 mob : + 91 012345678 from : test pension scheme &lt;testscheme fincorp com sent : 23 july 2020 12 : 34 to : abc xyz testmail com subject : abc xyz - test pension scheme membership number zz123123z annual valuation letter 1 june importance : high dear mr abc xyz test pension scheme thank you for your email regarding the test pension scheme to enable us to answer your enquiry please could you provide your date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 www fincorp com from : abc xyz sent : 18 october 2020 21 : 41 to : testscheme fincorp com subject : re : abc xyz - test pension scheme membership number zz123123z annual valuation letter 1 june importance : high dear sirs i hope you are all keeping well during these unprecedented times every year i always request an updated valuation letter in the attached form to keep abreast of how my pension is progressing could i please request a new update as at 01 01 1400 i realize you may have other priorities currently but would appreciate if this could be prepared and sent when time permits in due course many thanks kind regards abc xyz 10 test road test street aa12 123 tel : + 91 012345678 mob : + 91 012345678</t>
-  </si>
-  <si>
-    <t>re : test fund pension plan dear test pensions please see amended expression of wish form many thanks abc from : test pensions pensions com sent : 13 november 2020 09 : 27 to : abc xyz testmail com subject : test fund pension plan dear mrs abc test pension plan thank you for your email regarding the test pension plan your request for change of address and change of name has been logged and you will receive a written response from our administration department within 5 - 10 working days i have attached an expression of wish form for you to print and complete as appropriate please send the signed and completed document to the address as detailed below at your earliest convenience once your address details are updated we will proceed with your pension statement query if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com did you know that member s can access and manage their pension online by logging into their test account if you are a scheme of this member you can access your account if you have forgotten your username and or password there is a link on this page to reset it if you have not previously activated your account email us so we can provide you with the activation link yours sincerely test pensions from : abc xyz testmail com sent : 11 november 2020 21 : 55 to : test pensions pensions com subject : change of address and name good evening could you please update the following details current details : - new details : - wedding cert attached dob : - ni number : - also could you send me an expression wish form and my latest pension statement many thanks abc from : abc xyz testmail com sent : 11 november 2020 16 : 13 to : abc xyz testmail com subject : wedding cert</t>
-  </si>
-  <si>
-    <t>re : change of address - ref tst12345678 good morning i have a pension scheme with you test group pension scheme 1400 with my reference no tst12345678 my name and dob are : abc xyz 01 01 1400 national insurance no : zz123123z i am writing to you to let you know of my change of address my new address is in xx : 10 test road test street aa12 123 my previous address was at 102 test road test street ea12 123 please could you update my personal details accordingly additionally i would like to update my beneficiary how can i do this finally i would like to be able to loggin to my account online what is the process please could you register me please many thanks abc xyz + 91 012345678 on tue 17 nov 2020 at 10 : 37 abc xyz testmail com&lt;mailto : abc xyz testmail com wrote : good morning i have a pension scheme with you test group pension scheme 1400 with my reference no tst12345678 i am writing to you to let you know of my change of address my new address is in france : 10 test road test street aa12 123 please could you update my personal details accordingly additionally i would like to update my beneficiary how can i do this finally i would like to be able to loggin to my account online what is the process please could you register me please many thanks abc xyz + 91 012345678</t>
-  </si>
-  <si>
-    <t>test transfer - abc hi test pensions thanks for this i have received this now we had already sent all the old signed documents in from the previous transfer value documents we had as the value expired just before transfer we had to request a new value can you please confirm what the client needs to sign now as we have already sent everything in before is it only the new signed cetv document that needs to be signed from the member please let me know thanks test ifa from : test pensions pensions com&lt;mailto : test pensions pensions com date : thursday 19 november 2020 at 00 : 18 to : test ifa fincorp com&lt;mailto : test ifa fincorp com subject : test transfer - abc dear test ifa please find below the original email with attachments apologies that you did not receive this initially it appears the email address was incomplete please do not hesitate to contact us should you have any queries kind regards test pensions from : test pensions pensions com sent : 18 november 2020 14 : 12 to : test ifa fincorp com subject : test transfer - abc good afternoon please find attached the transfer pack for mr abc the documents are password protected using the members national insurance number kind regards test pensions</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pre - identified user support request reply email address : test ifa fincorp com forename : abc surname : xyz ni number : zz123123z dob : 01 jan 1400 home postcode : aa12 12 employer : fin corp ltd subject : fin corp ltd content : policy 1234567 as i reach retirement age - wish to make arrangements for bringing this pension into payment abc</t>
-  </si>
-  <si>
-    <t>change of address good evening is it possible to change my contact address via email kind regards abc xyz</t>
-  </si>
-  <si>
-    <t>re : test pension scheme good evening the info you require is as follows abc xyz 10 test road test street aa12 123 zz123123z regards abc xyz on 17 nov 2020 at 01 : 40 test pensions pensions com &lt;mailto : test pensions pensions com wrote : dear abc xyz test pensions scheme thank you for your email regarding the test pensions scheme to enable us to answer your enquiry please could you provide your full address date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely abc xyz administrator customer support centre test pensions 10 test road test street aa12 123 direct dial : + 91 012345678 - - - - - original message - - - - - from : abc xyz&lt;abc xyz testmail com sent : 12 november 2020 16 : 38 to : test pension subject : pension query good morning a long time ago around 1400 01 i worked for a company who were associated with your pension scheme i do get a booklet from test pension industries from time to time however i am just wondering how i can get access to my own pension account i worked for fin corp machine tool company in bredbury stockport is there any login details i can log into any advice on this would be gratefully appreciated regards abc xyz def tel + 91 012345678</t>
-  </si>
-  <si>
-    <t>pension value reads as nil hello my test pension is now with fin corp pension reference is zz123123z the value has remained at nil since january 2019 pension notes indicate that a value will be uploaded shortly but that hasn t happened to date could you please confirm that my pension is still active and that a value will appear soon kind regards abc xyz 10 test road test street aa12 123 sent from mail &lt;https : go microsoft com fwlink linkid = 550986 for windows 10</t>
-  </si>
-  <si>
-    <t>test pension plan - abc good morning we are yet to receive this due to the time critical nature of these quotes would it be possible to email me a copy if this is not possible please post this again many thanks test ifa from : test pensions pensions com sent : 12 november 2020 07 : 45 to : test ifa fincorp com subject : test pension plan - abc dear test ifa test pension plan thank you for your email regarding the test pension plan a guaranteed transfer value statement was issued to your team on 06th november 2020 via post if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pension from : test ifa fincorp com sent : 10 november 2020 13 : 45 to : test pensions pensions com subject : test pension plan - abc importance : high good afternoon i would be grateful if you would confirm the above member has now left the scheme and when we can expect to received the guaranteed transfer value requested please post this to our below address or indeed send through by reply email if possible kind regards test ifa from : test ifa fincorp com sent : 22 july 2020 12 : 54 to : test pensions pensions com subject : test pension plan - abc hello i have not received a response please could i have this urgently thank you test ifa from : test ifa fincorp com sent : 07 july 2020 14 : 44 to : test pensions pensions com subject : test pension plan - abc hello please could i have an update on my request dated 30 06 2020 kind regards test ifa from : test ifa fincorp com sent : 30 june 2020 09 : 59 to : test pensions pensions com subject : test pension plan - abc good morning i refer to our above client and attached letter of authority and would like to request a benefits statement from the age of 56 : 1 max tax free cash being taken and a reduced pension and 2 maximum pension with no tax free cash for our above client many thanks test ifa</t>
-  </si>
-  <si>
-    <t>change of address good evening is it possible to change my contact address via email kind regards abc</t>
-  </si>
-  <si>
-    <t>abcd xx tst12345678 good morning re xx test pensions ref no tst12345678 sorry this is quite urgent as docs only valid until 01 01 1400 i have tried to contact your office vis phone today still holding after 45 minutes documents received to transfer client benefits can we email across discharge forms signed by client or are originals required no adviser sign off doc was attached is this required can we send across our standard document of can you provide such a document via email asap again is original required in post or can we email i look forward to your response test ifa</t>
-  </si>
-  <si>
-    <t>ref tst12345678 mr abc xyz deceased please find attached a copy of your letter and the completed bank mandate form as requested i will also post the originals to fin corp aa12 123 kind regards abc xyz daughter and executor of the will</t>
-  </si>
-  <si>
-    <t>re : home address update hi benpal my name is jan feb national insurance number is : aa000000a day of birth : 1st april 1800 current address : 12 mountain hill 12 st tower ss0 0ss could you please change my address to : 100 neil armstrong circle london aa0 0aa fordshire kind regards jan jan feb phone + 44000 000 0000 mobile + 44000 000 0000 email jian jun - wang cba com au from : jan feb sent : friday november 27 2020 5 : 55 pm to : cba jltgroup com subject : home address update hi benpal team could you please change my home immediately to a new address : 100 neil armstrong circle london aa0 0aa fordshire kind regards jan feb jan feb phone + 44000 000 0000 mobile + 44000 000 0000 email jan feb cba com au</t>
-  </si>
-  <si>
-    <t>change of address - completed form please find attached a completed change of address form abc</t>
-  </si>
-  <si>
-    <t>re : def retirement and employee scheme - abc good morning further to your email please see the following : 10 test road test street aa12 123 1st january 1400 zz123123z regards test ifa from : test pensions pensions com sent : 01 december 2020 08 : 04 to : test ifa fincorp com subject : def retirement and employee scheme abc dear test ifa def retirement and employee scheme thank you for your email regarding the def retirement and employee scheme to enable us to answer your enquiry please could you provide the member full address date of birth and national insurance number for data verification purposes for added security please also confirm your full company name and the address stated on the provided letter of authority should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely test pensions from : test ifa fincorp com sent : 27 november 2020 14 : 55 to : test pensions pensions com subject : - tst12345678 good morning i uploaded an loa and information request form to your website on 29 10 20 please could you provide me with an update kind regards test ifa</t>
-  </si>
-  <si>
-    <t>re : test pension scheme dear abc xyz please see my data below : 10 test road test street aa12 123 dob : 1st january 1400 nin : zz123123z best wishes abc xyz on wed 2 dec 2020 at 11 : 42 &lt; test pensions pensions com wrote : dear abc xyz test pension scheme thank you for your email regarding the test pension scheme to enable us to answer your enquiry please could you provide your full address date of birth and national insurance number for data verification purposes should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely abc xyz administrator customer support centre test pensions 10 test road test street aa12 123 direct dial : + 91 012345678 from : abc xyz&lt;abc xyz testmail com sent : 30 november 2020 18 : 19 to : test pensions subject : short service refund lump sum - tst12345678 good afternoon two months ago i received a letter dated 15 september 2020 confirming that my request to receive short service refund lump sum has been accepted and that the payment will be made into my account in the next payroll run of my former employer it been 2 5 months since the letter was sent to me and i have not received the payment yet and was not contacted in order to inform me about any delay could you please update me on the status of my refund my nin is zz123132z best wishes abc xyz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">change of address hi my name is abc my birthday is 01 01 1400 around a year ago i moved house my new address is as below mr abc 10 test road test street aa12 123 my previous address was 103 test road test street ua12 123 i have tried to register online but it didn t seem to work properly regards abc </t>
-  </si>
-  <si>
-    <t>re : test pension plan hi apologies i should have included them n i zz123123z 01 01 1400 regards abc on 12 nov 2020 at 07 : 51 test pensions pensions com&lt;mailto : test pensions pensions com wrote : dear mr abc test pension plan thank you for your email regarding the test pension plan to enable us to answer your enquiry please could you provide your date of birth and national insurance number for data verification purposes i have also attached an expression of wish form for you to print and complete as appropriate please send the signed and completed document to the address as detailed below at your earliest convenience if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions - - - - - original message - - - - - from : abc xyz testmail com sent : 10 november 2020 16 : 39 to : test pensions pensions com subject : expression of wish hi morning i need to update my wish details i received the latest newsblast brief and it says i need a test account and i should request a eow from admin my details can i not do this on line please advise regards abc mob + 91 012345678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pre - identified user support request - abc reply email address : abc xyz testmail com forename : abc surname : xyz ni number : zz123123z dob : 01 jan 1400 home postcode : aa12 123 employer : test pension scheme subject : request for personal statement content : i am considering drawing on my deferred abc test pension from 25th june 2021 in order for me to come to a final decision could you please forward the necessary documentation to help me start the process member reference tst12345678 as shown in test account many thanks </t>
-  </si>
-  <si>
-    <t>fw : extending decision time dear ms abc xyz i refer to my email of 1 jan see below when i requested an extension to the guaranteed period for transfer value i hope that you can deal with this request urgently as time is passing and we must have confirmation on the extension to 30 january before taking further action i look forward to hearing from you regards abc xyz from : abc xyz &lt;abc xyz testmail com sent : 14 november 2020 15 : 34 to : test pensions &lt;test pensions pensions com subject : extending decision time : test pension scheme dear ms abc xyz thank you for the amended pension transfer pack received on 1 jan the pack refers to the transfer value of my pension as at 10 jan it also indicates that the transfer value expires on the 10 december given that the transfer pack did not get to me until 30 jan following delays that leaves just about 6 weeks to take advice from my financial adviser; which he tells me will include further information gathering from fin corp reflect make a decision complete and return the necessary documents to fin corp i feel that the period is too short and my financial adviser who is very experienced in dealing with defined benefits transfers also feels that it would be too short to make this deadline even in a best case scenario when considering this request please bear in mind the difficulties that companies like fin corp have in providing a normal service due to covid restrictions i am sure you will also consider that financial advice is not as accessible during this current lockdown my adviser confirms that his firm is unable to make face to face meetings which in my circumstances is not ideal the length of time involved in producing braille copies of print documents should also be considered as there is always an interval of 7 to 10 days between the date on the print letter and the date that i receive it in braille can i suggest and respectfully request given the circumstances that the three month guaranteed transfer value window should start from 30 october when i received the amended transfer pack i look forward to hearing from you urgently on this matter abc xyz 10 test road test street aa12 123</t>
-  </si>
-  <si>
-    <t>test pension scheme hi team please see below query and reply accordingly many thanks abc xyz administrator customer support centre test pensions 10 test road test street aa12 123 direct dial : + 91 012345678 from : abc xyz&lt;abc xyz testmail com sent : 09 november 2020 10 : 23 to : test pensions subject : re : test pension scheme hi i have still not received an answer to my query now dating back several months despite your promise to review it and deal with it promptly it is just a small query but i need it answered so i know what my tax position is in regard to the arrears payment please can i ask you to just answer this i have tried ringing the no you gave me but i am unable to speak to anyone and it is becoming so frustrating thank you abc xyz tha on wed oct 7 2020 at 1 : 48 pm &lt; test pensions pensions com wrote : dear abc xyz test pensions scheme thank you for your email regarding the test pensions scheme please accept our sincerest apologies for the delay we will review the current position of your case and ensure that it is dealt with promptly if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 from : abc xyz&lt;abc xyz testmail com sent : 05 october 2020 16 : 00 to : test pensions pensions com subject : re : your letter dated 26 june 2020 hi this is in relation to a query i first made by email on 24 june last correspondence from you was a letter dated 7 september saying you were asking cgi for a response and would get back to me your letters always state that i can contact you by phone but this is not the case as the options i am given by the automated service blocks me from getting through i appreciate that the current circumstances have had an effect and also know that my question is a minor one but it is very frustrating that it is taking more than 3 months to get an answer from you kind regards abc xyz on fri jul 3 2020 at 8 : 03 am abc xyz &lt; abc xyz abc xyz testmail com wrote : re : test pension scheme the scheme dear helpdesk your letter dated 26 june advised that a gross payment of pension arrears would be paid into my bank account on or around 3 july this amount being 11 176 62 today i received a payment of 7 243 42 so am wondering whether this is a net amount after tax has been taken out i am very happy to receive the arrears and thank you but would appreciate clarification on the amount thank you abc xyz</t>
-  </si>
-  <si>
-    <t>fin corp registration dear sir madam i am a previous employee of fin corp and have made payments into test pension scheme i have lost track of the details for that scheme and would again like to log in to the portal during 2019 i was contacted by the tracing group in relation to the test pension scheme and completed their on - line form i am contacting you today to understand the process i need to follow to register for online access to the portal that manages the test pension scheme i believe it is the fin corp portal any guidance would be appreciated thanks abc xyz</t>
-  </si>
-  <si>
-    <t>test pension plan hello thank you for reply just want to ask is it completely safe for me to send such details in a email as we are told not to do this ! hope you understand apology for any inconvenience abc - - - - - original message - - - - - from : test pensions pensions com to : abc xyz testmail com sent : wed nov 11 2020 08 : 23 am subject : test pension plan dear mr abc test pension plan thank you for your email regarding the test pension plan to enable us to answer your enquiry please could you provide your full address date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 07 november 2020 13 : 01 to : test pensions pensions com subject : re : your transfer value request hello many thanks for helping out with login after reading all about early retirement i am worried that i may run out of money to live on ! it is such a big decision to leave than not have a wage that goes in every week i have read about so many scams bad advice etc that people have lost thousands from there hard earned savings now i do not know whether to cancel my vr application also as i am 57 it will be another ten years before state pension so am i wanting to leave too early i just dont know ! now with so many things going on i feel i am worried i really do not know what to do is there a person who i can talk to about this sorry for any inconvenience abc - - - - - original message - - - - - from : test pension team to : abc xyz testmail com sent : fri oct 30 2020 07 : 27 pm subject : your transfer value request the result of the transfer value calculation you requested for your test pension scheme is now available you can view your transfer value by logging on to the pension section of test at https : www test com this information will be available to you until 01 11 2020 00 : 00 : 00 or until such time you request another calculation if you have any questions regarding the document or your test pension just call the test team on + 91 012345678or email us at test pensions pensions com regards test pension team + 91 012345678 test pensions pensions com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pension forecast - abc xyz nino - zz123123z dob - 01 01 1400 could you please issue an early retirement quotation for the 1 december 2020 kind regards abc direct : + 91 012345678 abc xyz testmail com from : abc xyz testmail com to : test pensions pensions com date : 05 11 2020 10 : 40 subject : pension forecast - abc xyz please could you send me a pension forecast abc xyz 10 test road test street aa12 123 thank you warning : this is an external email do not click links or open attachments unless you recognise the sender and know the content is safe </t>
-  </si>
-  <si>
-    <t>abc xyz pension dear abc xyz thank you for your letter dated 1st january 1400 checking on the accuracy of my records as you are aware i now live in australia because banks in the american and australia are no longer honouring cheques from next year i wish to arrange for my test pensions to be paid directly into my bank account and not into my joint account could you please let me know what information you need to get this set up my national insurance number is zz123123z yours sincerely abc xyz e 10 test road test street aa12 123 + 91 012345678 sent from my ipad</t>
-  </si>
-  <si>
-    <t>change of address i would like to notify you of a change of address : mr abc 102 test road test street ea12 123 i have moved to the following address : 10 test road test street aa12 123 d o b 1st january 1400 n h no zz123123z pension ref : tst12345678 many thanks abc</t>
-  </si>
-  <si>
-    <t>fw : change of address from : abc xyz testmail com sent : thursday october 15 2020 3 : 00 : 24 to : test pensions pensions com subject : change of address i would like to update my personal details can someone please contact me as i am not able to contact you via telephone regards abc</t>
-  </si>
-  <si>
-    <t>fw : - tst12345678 importance : high hi team please see below query and reply accordingly thank you test pensions from : abc xyz testmail com sent : 09 november 2020 10 : 14 to : test pensions pensions com cc : test ifa subject : re : - tst12345678 importance : high good morning further to the below email please can you confirm that you now have all the information you require to process the clients transfer i await your response thanks abc from : test pensions pensions com sent : 26 october 2020 12 : 40 to : abc xyz testmail com subject : - tst12345678 dear abc thank you for your email i have checked our records and can confirm that the correspondence was issued to the member on 21 october 2020 should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely test pensions 10 test road test street aa12 123 direct dial : + 91 012345678 test pensions pensions com from : abc xyz testmail com sent : 21 october 2020 14 : 19 to : test pensions pensions com subject : - tst12345678 importance : high good afternoon please can you provide me with an update on the transfer away to test pensions i await your response regards abc tel : + 91 012345678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">re : thank you for your email to test pensions pensions com just received your reply by post basically telling me i can t retire yet all i asked was how much was in the pension i m wanting to take it next april when i m 55 you ve been horrendous to deal with be in touch next april hope your more helpful sent from my iphone </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pre - identified user support request reply email address : abc xyz testmail com forename : abc surname : xyz ni number : zz123123z dob : 01 january 1400 home postcode : aa12 123 employer : test pension scheme subject : pension transfer content : hi i recently requested that my fin corp pension be transferred to my fin corp scheme 12345678 and sent you the required documentation via post can you please provide an update on this transfer as fin corp have not yet received the funds best regards abc xyz</t>
-  </si>
-  <si>
-    <t>re : transfer out - abc good afternoon i was hoping to get an update on this transfer and confirm that you have all of the relevant paperwork to proceed many thanks test ifa from : test ifa fincorp com sent : 06 november 2020 12 : 03 to : test pensions pensions com subject : transfer out - abc good afternoon i wanted to make you aware that we have posted the paperwork in order to facilitate the transfer of mr abc test pension to def invest the reference is tst12345678 in the meantime i have attached copies of these documents for your reference the password is the client s date of birth in this format dd mm yyyy : i have also attached our hmrc information and other accompanying documents that confirm the registration of our pension scheme the client is now an active holder of an insured personal pension plan with us if you need anything else at this stage please let me know kind regards test ifa</t>
-  </si>
-  <si>
-    <t>change of address abc xyz nino - zz123123z dob - 01 01 1400 reference - tst12345678 new address : 10 test road test street aa12 123 tel : + 91 012345678 could you please update your records with the members new address kind regards abc + 91 012345678</t>
-  </si>
-  <si>
-    <t>urgent cetv guarantee date ending - abcd importance : high good morning please find attached a letter of authority and request for information for our client abcd - zz123123z the password to access the document is the clients dob in the format xx xx xxxx please send us a copy of the most recent cetv and transfer out paperwork asap the guarantee end date is december and the client is considering transferring out the clients postcode is aa12 123 if you have any queries do not hesitate to contact me kind regards test ifa</t>
-  </si>
-  <si>
-    <t>pension dear sir madam i have been trying to contact you by phone for weeks i would like to take a lump sum and a monthly pension many thanks abc xyz sent from my iphone</t>
-  </si>
-  <si>
-    <t>re : test pension fund hello here is the information you have requested abc xyz 01 01 1400 ni number zz123123z address 10 test road test street aa12 123 can you please confirm you have all the satisfactory information required please as to avoid any further delays in the process of my request regards abc xyz from : test pensions pensions com sent : saturday november 21 2020 2 : 40 : 35 am to : abc xyz testmail com subject : test pension fund dear abc xyz test pension fund thank you for your email regarding the test pension fund please accept our apologies for the delay in responding to you to enable us to answer your enquiry please could you provide your full address date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely abc xyz administrator customer support centre 10 test road test street aa12 123 direct dial : + 91 012345678 abc xyz testmail com from : abc xyz abc xyz testmail com sent : 13 november 2020 21 : 09 to : test pensions subject : reference : tst12345678 to whom it may concern in relation to the letter from yourselves typed 01 january 1400 i am emailing to confirm i still wish to continue with the variable pension option 4 my reference is tst12345678 kind regards abc xyz</t>
-  </si>
-  <si>
-    <t>fw : test pension scheme - member reference zz123123z importance : high hello team please see below query and reply accordingly to the member ifa many thanks abc xyz - agent - customer support centre 10 test road test street aa12 123 + 91 012345678 abc xyz testmail com &lt;mailto : abc xyz testmail com from : abc xyz abc xyz testmail com sent : 23 november 2020 07 : 09 to : test pensions subject : re : test pension scheme - member reference zz123123z importance : high good morning approximately 10 days ago i informed test pensions that the course of action i wished to take was to start receiving my pension benefits in january 1400 they said that they had contacted the appropriate people and that i should hear something to that effect i have not heard anything thus far can you please update me asap there approximately 3 weeks until my pension is due to commence regards abc xyz from : test pensions pensions com sent : wednesday september 23 2020 8 : 12 am to : abc xyz testmail com subject : test pensions scheme dear abc xyz thank you for your email your request has been logged and you will receive a written response from our administration department within 10 - 15 working days should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely from : abc xyz abc xyz testmail com sent : 21 september 2020 11 : 39 to : test pensions subject : pension information pack importance : high good afternoon please can you tell me if my information pack has been sent yet thank you regards abc xyz</t>
-  </si>
-  <si>
-    <t>pension information hello i am consulting with a financial advisor regarding my pension and they have asked me to acquire the following information : information on pension you would receive at age 55 : 1 on an income basis 2 on a tax free cash and income basis information on pension you would receive at age 65 : 1 on an income basis 2 on a tax free cash and income basis could you also obtain the latest value of the pension plan my details are as follows : mr abc xyz dob 01 01 1400 10 test road test street aa12 123 national insurance number is as follows : zz123123z employee number 123456 cdsid : zz123123z can you email me the requested information if you require further details please contact me kind regards abc xyz sent from my galaxy sent from my galaxy</t>
-  </si>
-  <si>
-    <t>test pension i received a pension options statement from yourselves in august and took your advice and contacted fin corp i have been through the process but it appears to have stalled i have further noted the date of the statement is until 1st january 1400 and will then have to be revaluated it is further noted i have to pay for the services of fin corp could advise if there is a problem your in anticipation abc xyz account number 12345678 dob 01 01 1400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test pensions - abc xyz - 12345 - funeral fee to : test pensions please can you settle funeral payment in relation to test pensions of abc xyz fin 12345 the funeral payment was settled by mr abc s brother abc xyz copy of funeral invoice and confirmation of payment from mr abc xyz are attached sort code : 01 - 02 - 03 a c ending 123 kind regards abc xyz supervisor - hr welfare team 10 test road test street aa12 123 tel : + 91 012345678 fax : + 91 012345678 email : in corp testmail com from : abc xyz sent : 26 october 2020 13 : 09 to : abc xyz subject : abc xyz funeral items hello abc please find attached the invoice and full payment details for my brother abc xyz s funeral many thanks abc xyz </t>
-  </si>
-  <si>
-    <t>fw : bonjour ! importance : high good afternoon i am trying to locate some information on a pension i hold with you under the test pension scheme i have received a number of booklets but no plan information regarding the benefits that i hold please see my details below : name : abc xyz dob : 1st january 1400 address : 10 test road test street aa12 123 please can you provide me with the following : type of pension plan defined benefit or defined contribution scheme rules for the section of the plan i am in current value and projected income normal retirement age please can i have the below via return email thanks abc xyz</t>
-  </si>
-  <si>
-    <t>re : test pension scheme - zz123123z hi with regards to the above member payroll has only received the notification to set up the 4 weekly pension which has already been actioned by us we ve not received any request to set up lump sum record from admin could you please get in touch with the admin to check if any such request was sent to payroll thanks abc xyz from : test pensions sent : 26 november 2020 12 : 05 to : test pension payroll - gbr subject : fw : test pension scheme - zz123123z hi team please investigate why payment was not released for the member regards abc xyz from : test pensions sent : 24 november 2020 09 : 35 to : test pension fund cc : test ifa subject : re : test pension scheme - zz123123z hi nothing we can do for this member over the phone this will have to be investigated thanks abc xyz 10 test road test street aa12 123 direct dial : + 91 012345678 from : test pensions sent : 18 november 2020 10 : 30 to : test pension fund cc : test ifa subject : test pension scheme - zz123123z hi team please assist and call below member thanks abc xyz from : abc xyz&lt;abc xyz testmail com sent : 16 november 2020 19 : 06 to : test pensions subject : test pension scheme - zz123123z good afternoon test pensions i received a letter from you dated 9th november 2020 advising the trustees have approved my application my lump sum of 1000 will be paid into my account on or around 1st january my 4 weekly payments will commence as of 1st january 1400 as of this email i have received no payment i am growing concerned that the money as gone elsewhere my contact details are : name - abc xyz dob - 1st january 1400 ni number - zz123123z scheme name - dsg retirement employment security scheme i would appreciate a phone call explanation as to when i will receive my lump sum my mobile number is + 91 012345678 regards abc xyz</t>
-  </si>
-  <si>
-    <t>re : tst12345678 regarding my late father mr lmno good afternoon thank you for your email acknowledgment the information requested for data verification is as follows : date of birth : 01 01 1400 member national insurance number : zz123123z i look forward to hearing from you in due course kind regards ms abc on thu 8 oct 2020 at 07 : 20 test pensions pensions com wrote : dear ms abc test pension scheme thank you for your email regarding the test pension scheme in order to forward your email to our administration department please could you provide the member national insurance number and date of birth for data verification purposes if you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 06 october 2020 13 : 27 to : test pensions pensions com subject : reference : tst12345678 regarding my late father mr lmno good afternoon further to your postal letter dated 23rd september 2020 and my subsequent telephone call last week with one of your colleagues i have been advised to provide some more financial information regarding my late father test pension fund and some additional impact info i am now facing having been my dad carer my dad received his weekly state pension with an element of pension credit as well as a payment in the form of attendance allowance every 4 weeks as my dad carer for the last 11 years and his sole carer since 2009 and his appointee since 2017 i started receiving a weekly payment in the form of carers allowance around 2015 in dad final years test started paying his income into my bank account for his own welfare elements of xx and xx with finances we were instructed to always make sure dad received this but to monitor his spending as he was not great with handling his money i therefore enclose attachments of the above taken from my bank statements i believe this is important information requested that your colleague advised to forward to yourselves i also want to offer you an impact insight as to regardless of being an adult in my own right how interdependent my position became with dad too i had to give up full time work in 2015 due to ill health namely fibromyalgia and shortly after my partner had to give up his full time employment to help with my own care as well as that of my father this was an awful situation to find ourselves in and we struggled by as best we could when i received the carers allowance that was naturally of great help but without the odd financial crutch here and there from dad from his attendance allowance to attend to his needs the situation would have been harder there was never a requirement for dad to provide this and indeed it was certainly not a regular helping hand but on occasions when our teenage daughter was needing things like uniform for school xmas etc etc it was a very welcome and lovely helping hand naturally upon dad passing we knew things would go back to a certain level of hardship with the carers allowance ending 8 weeks after dad passing and no more loving occasional helping hand of course this is just how life is and no money will ever replace my longing to have at the very least one more cup of tea or a natter with him and i terribly miss his persistent curmudgeonly manner in short his passing continues to be felt and will do for however long that will be i hope this email and information requested is both sufficient and helpful for the panel and i shall await your further consideration in due course yours sincerely ms abc</t>
-  </si>
-  <si>
-    <t>fin corp error report error code : aa11 - aa11 - aa11 - aa11 hi i m trying to log in and have the above error code i need to activate my personal account i m in the test pensions plan and have received a letter this morning with log in details thanks abc xyz sent from my iphone</t>
-  </si>
-  <si>
-    <t>surname error member ref dep seq no surname inits nino tst12345678 0 xyz abc zz123123z i think the surname on the above name has been accidentally changed to something incorrect surname on valuation data ran in april is def and this matches sharepoint please can someone look into and correct thanks test fund direct dial : + 91 012345678</t>
-  </si>
-  <si>
-    <t>re : warning : message encrypted test pension scheme message encrypted hello thank you for your email; regarding the password protection; you will have realised we live in australia; so phoning a tel number is not an option : you are not making this easy at all please provide email link or other option plus and much more importantly; i forwarded original documentation to you; you have not acknowledged receipt or that you have forwarded the death cert our marriage cert or my birth cert back to me; please organise this if not already in transit as i have not heard back and i did ask that someone let me know the documents arrived there safely and when they would be returned to me i require these documents to finalise abc s tax return here in australia i look forward to hearing from you at your earliest convenience thank you abc - - - - - original message - - - - - from : test pensions pensions com to : abc xyz testmail com sent : fri 20 nov 2020 12 : 16 subject : warning : message encrypted test pension scheme message encrypted our reference : tst12345678 member : mr abc xyz dear mrs abc xyz i write with reference to the above late member s benefits from the scheme please find attached a death pack this document has been password protected for security reasons please contact us on the number below to obtain the password required to access this document should you have any further queries please do not hesitate to contact the test pensions scheme customer service team between 9 00am and 5 00pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com kind regards test pensions test pensions 10 test road test street aa12 123 direct dial : + 91 012345678</t>
-  </si>
-  <si>
-    <t>change of address - tst12345678 good afternoon i wish to inform you of a change to my address mr abc national insurance number : zz123123z test pension scheme reference : tst12345678 old adress : 10 test road test street aa12 123 as of the 30th october 20 new address : 2 test road test street uu12 123 kind regards abc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">re : thank you for your email to test pensions pensions com hello i was hoping you would be able to give me a little help regarding a pension which i previously had prior to starting test i have 7 years of pension with travel def and was hoping i would be able to transfer it into my current pension if this is possible how do i arrange it abc xyz 10 test road test street aa12 123 dob : 01 01 1400 ni : zz123123z payroll number : tst12345678 regards abc from : test pensions pensions com&lt;mailto : test pensions pensions com sent : 09 november 2020 13 : 27 to : abc xyz testmail com subject : thank you for your email to test pensions pensions com thank you for your email to test pensions pensions com&lt;mailto : test pensions pensions com depending upon the nature of your request we will issue a full written response to your home address or respond directly to this email address we can deal with your request if you have provided your full address date of birth and national insurance number payroll reference number please re - send your original email including this information if this was not included this information ensures that we identify and respond to the correct person in accordance with data protection act regulations if you do not wish to provide this information via email please telephone or write to test including the identification details please note - if you are contacting us on behalf of a member we also require this information in respect of them if you have any queries please contact a member of our team on + 91 012345678between 8 : 30am and 5 : 30pm monday to friday excluding bank holidays all calls are recorded for training and monitoring purposes </t>
-  </si>
-  <si>
-    <t>test pensions scheme hi abc ref tst12345678 apologies i should have contacted you i wish to defer my retirement untill 01 jan 1400 many thanks abc xyz 10 test road test street aa12 123</t>
-  </si>
-  <si>
-    <t>test scheme - ref tst12345678 hi team please see below query and reply accordingly many thanks test pensions from : abc xyz testmail com sent : 15 october 2020 16 : 52 to : test pensions pensions com subject : ref tst12345678 hi i am writing with regards to above account my aunt lmno recently passed away a payment was made into joint account i want to return this money i do not have any of the details asked for in the forms i was sent out but i am in the process of trying to get these shall i just leave the relevant sections and sign and post it back to you i have tried ringing the number but havnt had any success trying to speak to an agent in person please advise regards abc</t>
-  </si>
-  <si>
-    <t>re : test pension scheme thank you for your email my ni number is zz123123z and my date of birth is 01 01 1400 kind regards abc xyz on 20 nov 2020 at 06 : 59 test pensions pensions com &lt;mailto : test pensions pensions com wrote : dear mrs abc xyz test pension scheme thank you for your email regarding the test pension scheme to enable us to answer your enquiry please could you provide your date of birth and national insurance number for data verification purposes should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com &lt;mailto : test pensions pensions com yours sincerely abc xyz administrator customer support centre test pensions 10 test road test street aa12 123 direct dial : + 91 012345678 from : abc xyz&lt;abc xyz testmail com sent : 18 november 2020 23 : 32 to : test pensions subject : change of address - mrs abc xyz i am writing to advise you that i have recently moved house and my new address is : 10 test road test street aa12 123 i am not sure if you have my last address listed as : 10 test road test street aa12 123 if not then i it will be : 10 test road test street aa12 123 should you need any further information then please contact me on + 91 012345678 kind regards abc xyz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zz123123z dear sir madam as the member is now deferred can you please provide us with an update on when we should receive the transfer information with the guaranteed transfer value any queries please do not hesitate to contact me </t>
-  </si>
-  <si>
-    <t>abc xyz - tst12345678 - zz123123z hi fao def thank you for your email dated the 17 11 2020 we have arranged payment to the account mentioned please confirm receipt please could you now authorise a revaluation of abc xyz s test pension paid contributory pension fund immediately and confirm timescales for this if you require new forms to be completed could you please arrange them to be sent out to both abc and myself preferably via email we would like this transfer to go through without further delay so please outline whether you require anything else in the meanwhile to speed up the process thank you if you have any further questions please do not hesitate to contact me kind regards test ifa independent financial adviser</t>
-  </si>
-  <si>
-    <t>re : test pension fund - mr abc xyz dear mr abc xyz i refer to my below email dated 26 october 2020 as previously advised we are unable to accept the copy passport it will need to be the original or a certified copy of the original could you please arrange for this matter to be resolved as previously advised are awaiting documentation and the implementation fee from the member before we can implement the pension sharing order and have requested for this we will chase on a regular basis and upon receipt of all the outstanding items kind regards test pension scheme from : abc xyz sent : 26 october 2020 11 : 11 to : test pension scheme subject : re : test pension fund - mr abc xyz dear mr abc xyz thank you for your letter dated 22 september 2020 please accept my apologies for the delay in issuing this reply i confirm receipt of the following : completed ex - spouse information form ex - spouse transfer request and discharge form copy of passport please note that we are unable to accept the copy passport it will need to be the original or a certified copy of the original we have also received documentation directly from test pension fund please be advised that we are awaiting documentation and the implementation fee from the member before we can implement the pension sharing order and have requested for this we will chase on a regular basis and upon receipt of all the outstanding items we will process the order kind regards abc xyz senior administrator mercer fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 from : abc xyz &lt;abc xyz testmail com sent : 16 october 2020 14 : 41 to : test pensions subject : rcw abc abc xyz - tst12345678 dear sir madam with reference to the above please could you provide us with an update on how the ex - spouse pension transfer is proceeding we sent you all of the required ex - spouse transfer forms on the 1st january 1400 and have noy yet heard back from you if you have any questions please do not hesitate to get in touch kind regards abc</t>
-  </si>
-  <si>
-    <t>re : test death approval - lmno tst12345678 i agree with the recommendation with regards mr lmno regards test schemes from : test pensions pensions com sent : 03 december 2020 11 : 41 to : testfund fincorp com subject : re : test death approval - lmno tst12345678 test lmno death in retirement please find attached the documentation relating to the above late member who died whilst in receipt of his pension the member was survived by his spouse therefore the committee are being asked to consider the lump sum death benefit of 1 500 00 only this case is being referred to the committee as there is no nomination form it would be our recommendation that the lump sum is paid to his spouse - mrs jkl in line with his will please would you agree with this recommendation kind regards test pensions</t>
-  </si>
-  <si>
-    <t>abc xyz - test pensions for senior staff - case ref : tst12345678 dear def further to your telephone call on 12 november 2020 and subsequent calls on 17 and 18 november 2020 please accept my sincere apologies for the delay in providing the revised transfer value for mr abc xyz we do pride ourselves on the quality of service that we deliver to our corporate clients trustees and most importantly individual members we receive relatively few complaints and do take any very seriously we are sorry about your dissatisfaction you have had to wait so long for the information you requested i can advise that an email has been issued earlier today providing the transfer information on behalf of myself and the team at mercer we would like to extend our apologies for any inconvenience caused and trust that you will be reassured that we do seek to minimise the number of occasions on which matters such as this arise should you have any further queries or cause for concern please do not hesitate to contact us on the number quoted below your sincerely test pensions postal address : 10 test road test street aa12 123 helpline : + 91 012345678</t>
-  </si>
-  <si>
-    <t>retirement quotation - abc nino - zz123123z dob - 01 01 1400 could you please issue a transfer value and pack for the above member kind regards abc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pension transfer requesting documents for transferring out of db dc pension scheme abc xyz working at fin corp ltd date birth 01 01 1400 zz123123z n s number </t>
-  </si>
-  <si>
-    <t>re : test pensions death approval - mr abc xyz - tst12345678 hi abc xyz i support the recommendation in respect of mr abc xyz thanks abc xyz from : test pensions pensions com sent : tuesday november 17 2020 5 : 18 : 34 pm to : test pensions cc : abc xyz testmail com subject : test pensions death approval - mr abc xyz - tst12345678 test pension plan - mr abc xyz - death after retirement please find attached the documentation relating to the above late pensioner who died whilst in receipt of his pension the committee are being asked to consider the spouse s pension and the lump sum death benefit of 1000 this case is being referred to the committee as the member has left a nomination form in favour of his ex spouse - mrs abc xyz and a will in favour of current wife - mrs abc xyz it would be our recommendation that the lump sum and pension to be paid to his current spouse as per the recent will please would you agree with this recommendation regards abc xyz senior administrator fin corp ltd 10 test road test street aa12 123 p : + 91 012345678</t>
-  </si>
-  <si>
-    <t>fw : abc xyz fin : tst12345678 retirement quote importance : high hi i requested the below dser pension quote 2 weeks ago are you please able to provide this to me shortly for info : name : abc xyz fin : tst12345678 request : dser retirement date : 01 - 01 - 1400 many thanks from : abc xyz sent : monday november 9 2020 9 : 52 am to : test pensions pensions com subject : abc xyz fin : tst12345678 retirement quote importance : high please can i request a dser quote for the above employee due to separate from the company on 1st january 1400 many thanks</t>
-  </si>
-  <si>
-    <t>re : test pension plan hi this is my previous address 10 test road test street aa12 123 this is my new address 10 test road test street aa12 123 thanks abc xyz sent from my iphone on 21 nov 2020 at 04 : 06 test pensions pensions com wrote : dear mr abc xyz test pensions plan thank you for your email regarding the test pensions plan to enable us to update your address please could you provide your previous full address and current full address for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at testscheme fincorp com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 - - - - - original message - - - - - from : test pensions sent : 12 october 2020 22 : 24 to : test pensions subject : pre - identified user support request reply email address : abc xyz testmail com forename : abc surname : xyz ni number : zz123123z dob : 01 jan 1400 home postcode : aa12 123 employer : test pension subject : personal details content : i had asked to change my new address and married status i had been told it s already done but today i had checked it out my personal details it s not been done yet ! would you look into this please thanks abc xyz</t>
-  </si>
-  <si>
-    <t>change of details good morning i would like to notify of my change of name and address previous abc xyz of 0 test road test street aa12 123 now xyz abc 11 test road jaiden street aa12 124 regards abc xyz sent from my ipad</t>
-  </si>
-  <si>
-    <t>documents relating to your claim dear test scheme please find attached the following documents relating to your claim : info request pdf info request - 1 signed fscs declaration and consent pdf if you have any questions please contact us on test pensions pensions com make sure you include your fscs reference number in the subject line of the email so that we know which claim your information applies to yours sincerely customer service team</t>
-  </si>
-  <si>
-    <t xml:space="preserve">re : test pensions fund - abc xyz - zz123123z your ref : tst12345678 importance : high dear sir madam could you please provide an update as to when we might receive the information below please; our client is chasing us on a regular basis we were advised that we would receive the information by the beginning of last week but have yet to receive this when my colleague called on 18th november we were advised that there was no outstanding jobs on your system for this client and therefore i would be grateful if this matter could be dealt with as a matter of extreme urgency i look forward to hearing from you as soon as possible yours faithfully abc xyz from : abc xyz sent : 03 november 2020 10 : 53 to : test pensions pensions com cc : test ifa subject : test pensions fund - abc xyz - zz123123z your ref : tst12345678 importance : high dear sir madam many thanks for your letter of 01 january 1400 providing a cash equivalent transfer value for our above named client however some of the information we requested from you has not been supplied and i would be grateful if you could please provide the following missing information as soon as possible : please confirm our client s final pensionable earnings you have supplied the cetv for our client and also confirmed the post 97 section 9 2b rights within this value could you please also confirm the post 88 gmp amount as well as the pre 97 excess benefits amount too could you please advise if the cetv has been reduced increased due to the funding status of the scheme could you please advise if there is a pension sharing or earmarking order against our client s benefits could you please advise if our client has a protected tax free cash benefits within the scheme or will tax free cash be restricted to 25 could you please advise if our client holds an avc benefits within the scheme and if so could you please supply full details to include fund values charges funds invested in etc could you please advise if there is any money purchase underpin applicable and if so could you please supply full details could you please advise when we might receive the retirement quote requested i look forward to receiving this information from you as soon as possible in the meantime if you require clarification on any of the above points please do not hesitate to contact me on + 91 012345678 yours faithfully abc xyz fin corp ltd </t>
-  </si>
-  <si>
-    <t>re : test pension scheme - abc xyz dear mr abc xyz i am sorry but i do not feel in the least comfortable sending that information in an email please liaise with abc xyz thank you mrs abc xyz from : testscheme fincorp com sent : friday november 20 2020 7 : 40 am to : abc xyz testmail com subject : test pension scheme - abc xyz dear abc xyz test pension scheme thank you for your email regarding the test pension scheme in order to forward your email to our administration department please could you provide the member full address date of birth and national insurance number for data verification purposes should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at testscheme fincorp com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 www fincorp com from : abc xyz &lt; abc xyz testmail com sent : friday november 20 2020 10 : 35 pm to : test pension scheme &lt; testscheme fincorp com cc : test ifa &lt;test ifa fincorp com subject : test pension scheme - abc xyz importance : high dear abc xyz team manager i have just received a hard copy letter from you fin corp ltd dated 1st january 1400 questions : 1 i thought my pension was with test pensions what happened 2 you request that i complete a beneficiaries data form and original documentation and send it i have just recently completed all of this information and sent in it to test pensions they have acknowledged receipt approved my eligibility for benefits and returned my originals i have just suffered a three - month delay in receiving the arrears to my pension while all of this was being processed and was finally paid now i am being asked to resubmit information already received and approved please advise immediately thank you sincerely mrs abc xyz</t>
-  </si>
-  <si>
-    <t>re : def trust pension plan hi test pensions please find attached my verification form with my new address can you please confirmation of receipt and provide my account balance details or online details kind regards abc from : test pensions pensions com sent : tuesday 2 june 2020 12 : 49 am to : abc xyz testmail com subject : def trust pension plan dear abc def trust pension plan thank you for your email regarding the def pension plan please find the attached correspondence which was issued to you on 05 may 2020 if you require any further information or have any questions please contact the customer support centre on abc xyz testmail com between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 26 may 2020 10 : 38 to : test pensions pensions com subject : re : def trust pension plan hi test pensions i was just following up on this as i have not received any communication from you regarding my plan can you please advise where this request is placed kind regards abc from : test pensions pensions com sent : wednesday 22 april 2020 5 : 26 pm to : abc xyz testmail com subject : def trust pension plan dear mr abc def trust pension plan thank you for your email regarding the def pension plan your request has been logged and you will receive a written response from our administration department within 10 - 15 working days once your address has been updated on our records we will proceed with your pension query if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 21 april 2020 08 : 05 to : test pensions pensions com subject : re : def trust pension plan hi i m not 100 sure what my final address was on the pension fund but my details when i was working there are below : dob : 01 01 1400 address : 10 test road test street aa12 123 national insurance : zz123123z cheers abc on 20 apr 2020 at 6 : 24 pm test pensions pensions com wrote : dear abc def trust pension plan thank you for your email regarding the def pension plan to enable us to answer your enquiry please could you provide your previous address date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 17 april 2020 00 : 12 to : test pensions pensions com subject : def pension plan query hi i worked at def in 2005 to 2010 investments and was part of the def trust pension plan i have moved back to australia so i would like to update my personal details for the pension plan so i can get a regular update from the plan can you please update my details to the below details and also provide a current report of my pension kind regards abc mobile : + 91 012345678 address : email : abc xyz testmail com begin forwarded message : from : testfund fincorp com date : 16 april 2020 at 10 : 40 : 21 pm acst to : abc xyz testmail com subject : re : def - 0000 def 14 04 2020 05 : 39 hi abc i have been forwarded your email as i look after pensions and benefits at def test pensions our pension administrators look after all deferred members of the def pension plan please do therefore reach out to them via phone or email as detailed below and they will be able to update your contact details test pensions pensions com + 91 012345678 please let me know if i can help any further many thanks test fund</t>
-  </si>
-  <si>
-    <t>retirement figures hi could i please have updated pension figures with a retirement date of 31 3 21 my full name is abc xyz national insurance number zz123123z regards abc</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> warning : message encrypted ref : tst12345678 message encrypted dear sirs ref; tst12345678 please find enclosed a letter of authority in relation to the above mentioned policy the attached document is password protected with the clients date of birth in the format dd mm yyyy including the the authority letter was previously submitted via your online submission portal but you have written to the client to confirm the letter was in an unreadable format if there are any issues with this letter please let me know asap please could you provide the full scheme information including the following : 1 policy start date 2 original investment amount 3 funds invested in and unit holding information number of units including sedol codes 4 list of funds available to the plan along with details of maximum invested 5 full contribution history 6 are there any ongoing contributions being made if so at what level 7 what is the selected retirement age s 8 projected illustration at selected retirement age and to age 65 if different 9 current fund and transfer values 10 is the policy written in trust if so please confirm the details 11 does the policy include any protected rights if so what is are the values 12 can you please confirm whether there is any enhanced protection advised for this plan 13 details of all nominated beneficiaries noted on the plan if not please provide us with an expression of wish form where possible please email any correspondence to test ifa fincorp com&lt;mailto : test ifa fincorp com i look forward to hearing from you and if you have any queries please let me know best regards test ifa</t>
-  </si>
-  <si>
-    <t>fw : address update from : abc xyz mailto : dexterspost sky com sent : 23 november 2020 19 : 37 to : test payroll subject : address update good morning i recently received a pension payslip from you which was sent to my previous address i thought i had updated you with my new address in july could you kindly check the details you have for me are correct please and let me know if they have been updated test pension scheme mr abc cba pension ref : 10000 my address : 10 test road test street aa12 123 kind regards abc cba sent from my galaxy</t>
-  </si>
-  <si>
-    <t>abc xyz i attach our client s authority please provide : - estimate of benefits at age 60 estimate of benefits at nrd cetv statement in anticipation thank you for your assistance regards test ifa</t>
-  </si>
-  <si>
-    <t>lmn pension fund - def good afternoon could you please provide me with an update on the progress of the transfer pack that was requested from you kind regards abc tel + 91 012345678 from : abc xyz testmail com sent : 12 november 2020 16 : 11 to : test pensions pensions com subject : lmn pension fund - def good afternoon could you please provide me with an update on the progress of the transfer pack that was requested from you kind regards abc tel + 91 012345678 from : test pensions pensions com sent : 28 october 2020 06 : 32 to : abc xyz testmail com subject : lmn pension fund - def dear abc test pension scheme thank you for your email regarding the lmn pension fund i have checked the records and i can confirm that we have issued a correspondence to you on 26th october 2020 stating below : please be advised that the transfer value of the member has been referred to the scheme actuary for review as a result we are unable to provide a transfer value quotation until we have received confirmation to issue as soon as we have this confirmation the transfer value quotation will be sent to you i can confirm i have forwarded your email to our administration department in relation to your other queries and they will be in contact shortly if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com&lt;mailto : test pensions pensions com yours sincerely test from : abc xyz testmail com sent : 20 october 2020 09 : 32 to : test pensions pensions com subject : lmn pension fund - def 20 10 2020 def dear sir madam re : request for information we are acting on behalf of the above client who is considering transferring their benefits from the test pension scheme please find attached a letter of authority to allow you to release information to us on the benefits that our client holds in the scheme please can you provide the following information at your earliest convenience : i require uk transfer documents basic details date of joining scheme date of leaving scheme accrual rate final pensionable salary please provide a cash equivalent transfer value cetv cetv expiry date has the cetv been reduced or enhanced normal retirement date nrd of the scheme does the scheme permit partial transfers if so on what basis were any member s contributions paid if so please specify the amount please provide a copy of the latest scheme booklet or website link breakdown of benefits benefits at date of leaving including a breakdown between pre - 88 gmp post - 88 gmp pre - 97 excess post - 97 excess post - 05 excess and post - 09 excess does gmp franking apply if so on what basis revaluation rate of each of the above tranches in deferment escalation rate of each of the above tranches in payment is a lump sum payable in addition to the scheme pension does the scheme provide a bridging pension or state pension deduction if so provide details does the scheme provide an ill - health pension if so please give details death benefits lump sum death benefits in deferment lump sum death benefits in payment are any member s contributions returned on death before retirement if so is interest added if yes at what rate guarantee period of pension in payment spouse s pension death in deferment spouse s pension death in retirement is the spouse s pension calculation based on the pre - commutation figure is the spouse s pension reduced where there is an age difference if so provide details if there is no legal spouse will the scheme pay the spouse s pension to a partner or dependent is there a children s pension if so provide details pension commencement lump sum does the scheme provide a pension commencement lump sum pcls if pcls is an option what are the commutation factors between age 55 and age 75 scheme funding please provide the latest scheme funding summary early and late retirement what is the earliest age the member can retire what is the earliest age the member can retire with unreduced benefits what are the early retirement factors between age 55 and nrd can the member take late retirement what are the late retirement factors between nrd and 75 where early or late retirement is taken are the benefits revalued to the normal retirement date or the early late retirement date before the factor is applied as our client has already reached normal retirement date under the scheme please also provide the following : immediate retirement quote given the time sensitive nature of the request we would greatly appreciate all requested information be sent via email to test pensions pensions com&lt;mailto : test pensions pensions com we thank you for your assistance with this matter kind regards abc</t>
-  </si>
-  <si>
-    <t>change of bank account dear sir madam could you please advise me the process for having a test pension payed into a different bank account my father is a test pensioner and has opened a new bank account and would like his pension payed into it thanks in advance abc</t>
-  </si>
-  <si>
-    <t>test pensions scheme hi team please see below query and reply accordingly many thanks abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 from : abc xyz&lt;abc xyz testmail com sent : 09 november 2020 10 : 23 to : test pensions subject : re : test pension scheme hi i have still not received an answer to my query now dating back several months despite your promise to review it and deal with it promptly it is just a small query but i need it answered so i know what my tax position is in regard to the arrears payment please can i ask you to just answer this i have tried ringing the no you gave me but i am unable to speak to anyone and it is becoming so frustrating thank you abc xyz tha on wed oct 7 2020 at 1 : 48 pm &lt; cmpayyor mercer com wrote : dear larry harry parry cmg payyor uk pension scheme thank you for your email regarding the cmg uk pension scheme please accept our sincerest apologies for the delay we will review the current position of your case and ensure that it is dealt with promptly if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : 0000 000 1111 from : abc xyz&lt;abc xyz testmail com sent : 05 october 2020 16 : 00 to : test pensions pensions com subject : re : your letter dated 26 june 2020 hi this is in relation to a query i first made by email on 24 june last correspondence from you was a letter dated 7 september saying you were asking cgi for a response and would get back to me your letters always state that i can contact you by phone but this is not the case as the options i am given by the automated service blocks me from getting through i appreciate that the current circumstances have had an effect and also know that my question is a minor one but it is very frustrating that it is taking more than 3 months to get an answer from you kind regards on fri jul 3 2020 at 8 : 03 am julie parry &lt; larry harry larryharry786 gmail com wrote : re : cmg payyor uk pension scheme the scheme dear helpdesk your letter dated 26 june advised that a gross payment of pension arrears would be paid into my bank account on or around 3 july this amount being 11 176 62 today i received a payment of 7 243 42 so am wondering whether this is a net amount after tax has been taken out i am very happy to receive the arrears and thank you but would appreciate clarification on the amount thank you larry harry</t>
-  </si>
-  <si>
-    <t>re : test pension plan - abc zz123123z good evening following my recent email and as we have not heard from you please may i ask you to provide a guaranteed transfer value pack for mr abc as a matter of urgency i look forward to hearing from you kind regards test ifa from : test ifa fincorp com&lt;mailto : test ifa fincorp com sent : 21 october 2020 11 : 21 to : test pensions pensions com subject : re : test pension plan - abc zz123123z importance : high good morning i have checked with our client and the request to opt out has definitely been requested as such please may i ask you to check your records again and forward the guaranteed transfer value pack for mr abc as soon as possible i look forward to hearing from you kind reagrds test ifa from : test pensions pensions com sent : 19 october 2020 16 : 44 to : test ifa fincorp com subject : test pension plan - abc zz123123z dear test ifa test pension plan thank you for your email regarding the test pension plan i have checked our records and can confirm that we have not received the opt out notification from employer if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : test ifa fincorp com sent : 15 october 2020 14 : 30 to : test pensions pensions com subject : test pension plan - abc zz123123z importance : high good morning please may i ask you to forward a guaranteed transfer value pack for mr abc as soon as possible now that he has opted out of the scheme i look forward to hearing from you kind regards test ifa</t>
-  </si>
-  <si>
-    <t>change of address please could you send me a form for change of address my current address is mrs abc 10 test road test street aa12 123 my old address is 09 test road test street ee12 123 regards abc</t>
-  </si>
-  <si>
-    <t>urgent : pension transfer request good afternoon i worked for test pension fundas a data scientist from january 2018 - september 2019 i am now working for a university and would like to transfer my sainsbury argos pension into my teachers pension i have a form that has a section that needs to be completed by someone from test pension scheme it would be best done by hand so printed out but could be done electronically if necessary i would be very grateful if you could complete part c on the attached form and return to me by the end of this week kind regards abc xyz abc xyz + 91 012345678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">re : test pension scheme - trivial commutation factors hi lisa following on from your email below i just wanted to confirm that you are correct and the current trivial commutation factors do not allow for gmp equalisation and therefore trivial commutation for pensioners with 90 - 97 gmp is currently on hold please let me know if you need anything else on this kind regards abc xyz abc xyz senior consultant fin corp ltd fin corp ltd 10 test road test street aa12 123 t + 91 012345678 f + 91 012345678 abc xyz testmail com &lt;mailto : abc xyz testmail com www fincorp com &lt;http : www fincorp com from : abc xyz sent : 10 november 2020 15 : 46 to : test pensions cc : test ifa subject : test pension scheme - trivial commutation factors alert : this message originated outside of fin corp ltd network be cautious before clicking any link or attachment hi we have received a request from a pensioner asking if he can commute his pension in payment however the member has a small guaranteed minimum pension gmp earned between 1990 and 1997 i understand the monthly trivial commutation factors we hold do not allow for gmp equalisation and therefore the member is not currently able to commute his pension benefits please can you confirm my understanding is correct kind regards abc xyz pensions administration mercer abc xyz testmail com &lt;mailto : abc xyz testmail com </t>
-  </si>
-  <si>
-    <t>re : test death approval - lmno tst12345678 test pensions i agree with the recommendation from : test pensions pensions com sent : 05 october 2020 16 : 16 to : testfund fincorp com subject : fw : test death approval - lmno tst12345678 test lmno death in retirement further to our email below we note that we have only received a response from xyz can we please have the additional responses so that we can proceed with the case kind regards test pensions from : test pensions pensions com sent : 03 september 2020 17 : 20 to : testfund fincorp com subject : test death approval - lmno tst12345678 test lmno death in retirement please find attached the documentation relating to the above late member who died whilst in receipt of his pension as the member was a the committee are being asked to consider the lump sum death benefit of 1 500 only this case is being referred to the committee as there is conflict between the nomination form and the will the form is in favour of his nephew mr jkl and the will not signed or dated in favour of his sister mrs abc it would be our recommendation that the lump sum is paid to his nephew in accordance with his nomination form please would you agree with this recommendation kind regards test pensions</t>
-  </si>
-  <si>
-    <t>test pensions scheme - abc xyz hi team further to the below email could you please request document over post abc xyz senior associate fin corp ltd 10 test road test street aa12 123 from : test pensions sent : 19 november 2020 09 : 31 to : abc xyz subject : test pensions scheme - abc xyz dear abc xyz test pension scheme thank you for your email regarding the test pension scheme i can confirm i have forwarded your email to our administration department and they will be in contact shortly if you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com &lt;mailto : test pensions pensions com yours sincerely abc xyz administrator customer support centre test pensions 10 test road test street aa12 123 direct dial : + 91 012345678 from : abc xyz &lt;abc xyz testmail com sent : 17 november 2020 08 : 42 to : test pensions subject : test pensions registering court of protection further to your email i can confirm we have received the sealed copy of the court of protection see below the document with the court seal imprinted at the bottom of each page we were issued with only one sealed copy and have been using this to notify all organisations we hope you can use this to amend your records and send any correspondence to 10 test road test street aa12 123 regards abc xyz sent from my ipad</t>
-  </si>
-  <si>
-    <t>re : your retirement quotation request as requested - full address date of birth and national insurance number payroll reference number abc 10 test road test street aa12 123 dob = 01 01 1400 ni = zz123123z pay = tst12345678 abc from : abc xyz testmail com sent : 12 november 2020 6 : 09 pm to : test pensions pensions com subject : re : your retirement quotation request hi - please could you help me understand this quote i have generated on the test website it would appear from the figures if i retire 1 day earlier than my 65 birthday that my pension is significantly increased obviously i do not believe this but need an explanation to help me understand and gain confidence that the other quotes i have generated for other dates 55 57 60 etc are actually valid to make some life changing decisions on i attach a screen grab of the normal retirement age quote and the one day before quote thanks in advance for your assistance abc d o b = 01 01 1400 company payrole number = tst12345678 abc from : test pensions pensions com sent : 12 november 2020 5 : 54 pm to : abc xyz testmail com subject : your retirement quotation request the results of the retirement quotation calculation you requested for your test pension plan are now available retirement date : 01 01 1400 calculated at : 01 01 1400 you can view your quotation by logging on to the pension section of test account this quotation will be available to you until 01 01 1400 00 : 00 : 00 or until such time you request another quotation if you have any questions regarding the document or your test pension just call the test support team on + 91 012345678or email us at test pensions pensions com&lt;mailto : test pensions pensions com about the links in this email - in order to protect you from potential security threats test does not use clickable links in emails to visit a link just copy and paste it into your browser regards test pension team</t>
-  </si>
-  <si>
-    <t>compensation zz123123z dob 01 01 1400 attention abc xyz i refer to your emails dated 1st january 1400 and 1st january 1500 and abc xyz email dated 1st january 1400 all these emails advised me my compensation agreement for 500 pounds had been referred to administration to date i have have had no acknowledgement and no money from your company can you please explain why your company does nothing since august after it was agreed with your manager to compensate me 500 pounds i really do feel this is very bad abc xyz</t>
-  </si>
-  <si>
-    <t>pension hello please could you kindly send me a full pension transfer pack and updated cash equivalent transfer value cetv i received a plan in march 2020 but i believe i need an updated one my reference number on the one in march was tst12345678 mrs abc xyz 10 test road test street aa12 123 + 91 012345678 kind regards abc xyz</t>
-  </si>
-  <si>
-    <t>re : abc - tst12345678 termination : please ignore previous email importance : high team please ignore previous email as below employee will be leaving on 18 - 12 - 20 as previously requested test fund from : testfund fincorp com sent : 19 november 2020 11 : 56 to : test pensions pensions com subject : abc - tst12345678 termination hi abc xyz fin : tst12345678 has signed to leave the business on the 18th december 2020 the documentation was sent two weeks ago he will now be leaving on 4th december due to a change in personal circumstances can you please let me know if there is anything i need to amend kind regards test fund</t>
-  </si>
-  <si>
-    <t>re : test pension fund - mr abc xyz hi abc xyz further to the emails below we still haven t received a reply to our queries : does the member have any avcs and if so can they be used to pay the tax free cash without commuting the pension does the scheme allow partial transfers can you provide a copy of the schemes most recent funding statement funding position are there any pension sharing orders against this pension please can you provide a response to these questions as we need this information to complete our review of the pension as per the members request kind regards abc xyz from : test pensions pensions com &lt;mailto : test pensions pensions com sent : 17 november 2020 10 : 37 to : abc xyz subject : test pension fund - mr abc xyz dear abc xyz test pension fund thank you for your email regarding test pension fund please accept our sincerest apologies for the delay we will review the current position of your case and ensure that it is dealt with promptly if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at testfund fincorp com &lt;mailto : testfund fincorp com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 testfund fincorp com &lt;mailto : testfund fincorp com www fincorp com &lt;http : www fincorp com from : abc xyz &lt;abc xyz testmail com sent : monday november 23 2020 2 : 36 pm to : test pensions &lt;test pensions pensions com cc : test ifa &lt;test ifa fincorp com subject : re : test pension fund - mr abc xyz hi abc xyz further to the email below we have not received a response yet please can you provide an update kindest regards abc xyz from : test pensions pensions com &lt;mailto : test pensions pensions com sent : 17 november 2020 10 : 37 to : abc xyz subject : test pension fund - mr abc xyz dear abc xyz test pension fund thank you for your email regarding the test pension fund i can confirm that our administration department is working on your query you will receive the response shortly if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at testfund fincorp com &lt;mailto : testfund fincorp com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 testfund fincorp com &lt;mailto : testfund fincorp com www fincorp com &lt;http : www fincorp com from : abc xyz &lt;abc xyz testmail com sent : monday november 23 2020 2 : 36 pm to : test pensions &lt;test pensions pensions com cc : test ifa &lt;test ifa fincorp com subject : re : test pension fund - mr abc xyz hi re : mr abc xyz test pension fund tst12345678 zz123123z we have received the cetv and immediate retirement option statement for the above member please could you provide the following bits of information to allow us to complete our review : does the member have any avcs and if so can the be used to pay the tax free cash without commuting the pension does the scheme allow partial transfers can you provide a copy of the schemes most recent funding statement funding position are there any pension sharing orders against this pension kind regards abc xyz senior paraplanner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thank you for your email to test pensions pensions com dear test team please be advised that i have changed address my new address is : 10 test road test street aa12 123 dob 01 jan 1400 nat ins number zz123123z would you be so kind as to confirm you have recieved this email and that my address details you have on file will be updated many thanks kind regards abc on tue 17 nov 2020 14 : 48 &lt; test pensions pensions com wrote : thank you for your email to test pensions pensions com your enquiry will be reviewed resulting in a reply from our support team shortly depending upon the nature of your request full resolution may take longer and we will inform you of the next steps in our initial reply we can deal with your request if you have provided your full address date of birth and national insurance number please re - send your original email including this information if it was not included this information ensures that we identify and respond to the correct person in accordance with data protection act regulations if you do not wish to provide this information via email please telephone or write to test including the identification details please note - if you are contacting us on behalf of a member we also require this information in respect of them if you have any enquiries please contact a member of our team on + 91 012345678 between 8 : 30am and 5 : 30pm monday to friday excluding bank holidays all calls are recorded for training and monitoring purposes </t>
-  </si>
-  <si>
-    <t>pension ref - tst12345678 good afternoon thank you for you recent correspondence on the 1st january 1400 in relation to pension ref no tst12345678 i can conform i left the test pension when i left fin corp ltd on the 1st january 1400 i would like confirmation of the following : when can i take any of the current pension as a lump sum and what the exact amount would be regards abc xyz</t>
-  </si>
-  <si>
-    <t>pension value dear sir madam i would like to know how i can review the total value of my pension and its transfer value i can access fin corp but can only find my annual entitlement at retirement age regards abc xyz supply chain me direct : + 91 012345678 mobile : + 91 012345678 email : abc xyz testmail com</t>
-  </si>
-  <si>
-    <t>re : test retirement and death benefits plan - test section - lmno dear sir madam thank you for your response as requested on your email below : member s address at date of death : 10 test road test street aa12 123 has the death been registered and death certificate issued : see attached did the member have any financial dependents my mother his spouse mrs jkl address for condolence : 101 test road test street ea12 123 contact number : + 91 012345678 - my mother does not speak fluent english i am the next of kin and arranging dad estate and i can be contacted on + 91 012345678 alternatively we can arrange that we are all together at a suitable time to take a call should you wish to speak to my mother regards abc xyz from : test pensions pensions com sent : 05 october 2020 10 : 37 to : abc xyz testmail com subject : test retirement and death benefits plan - test section - lmno dear abc xyz test retirement and death benefits plan - test section thank you for your email regarding the test retirement and death benefits plan please accept my sincerest condolences for your loss in order to assist us could you please provide us with the following details : member s address at date of death : has the death been registered and death certificate issued : did the member have any financial dependents address for condolence : contact number : if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com&lt;mailto : test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 01 october 2020 17 : 53 to : test pensions pensions com subject : test retirement and death benefits plan - test section - lmno as requested national insurance number regards abc xyz - - - - - - - - original message - - - - - - - - from : abc xyz testmail com date : 01 10 2020 12 : 50 gmt + 00 : 00 to : test pensions pensions com subject : test retirement and death benefits plan - test section - lmno your ref : tst12345678 dear sir madam we wish to inform you of the death of our father on 18 09 2020 as you hold his pension and his cover includes spouse dependants on his cover i his son abc xyz as his next of kin and person responsible for his estate wish to inform you that our mother mrs jkl is the beneficiary of all of dads finances please let us know how we can arrange this at your earliest convenience i can be contacted on + 91 012345678 or alternatively in writing to my parents address as on your records and as above regards abc xyz</t>
-  </si>
-  <si>
-    <t>fw : test pension plan hello team please see below query and reply accordingly to the member ifa many thanks abc xyz - agent - customer support centre from : abc xyz abc xyz testmail com &lt;mailto : kathandtonybarber btinternet com sent : 21 november 2020 09 : 39 to : test pensions subject : re : test pension plan forget it ! i will just ignore the test pensions letter it ronic that for data protection you are asking for basically all my details i would telephone only thing is you use a chargeable number 1234 and then have customers holding the line listening to some robot telling them you are very busy and you are caller number 54 frustrated abc xyz - - - - - - - - original message - - - - - - - - from : test pensions pensions com date : 21 11 2020 04 : 06 gmt + 00 : 00 to : abc xyz testmail com subject : test pension plan dear abc xyz test pension plan thank you for your email regarding the test pension plan to enable us to answer your enquiry please could you provide your full address for data verification purposes should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely from : abc xyz abc xyz testmail com &lt;mailto : kathandtonybarber btinternet com sent : 18 november 2020 20 : 32 to : test pensions pensions com subject : abc xyz nat ins no zz123123z date of birth 01 01 1400 in october of this year i received a letter informing me that fin corp ltd would be responsible for my pension payments and have since received a payments slip from them today i have received a letter from fin corp giving me access to my account details i am left rather puzzled and a little concerned as to the authenticity of the latter letter as i have had no correspondence informing me of their existence regards abc xyz</t>
-  </si>
-  <si>
-    <t>test pension transfer hi i am now almost 9 months into trying to obtain a cetv from yourselves i accept that progress could not be made until i personally stopped paying into the test pension fund this happened on the 25th september as you probably know i have spoken to yourselves on multiple occasions regarding obtaining my cetv before the efg deadline which has now come and gone i am now not even able to speak with anyone because your system cancels the call when i chose option 1 the ongoing option so i am requesting in writing that you please respond to this email and answer my concerns either through email or phone call on + 91 012345678 kind regards abc on 20 july 2020 at 05 : 15 test pensions pensions com&lt;mailto : test pensions pensions com wrote : dear mr abc test pensions fund thank you for your email regarding the ford hourly paid contributory pension fund please accept our apologies for the delay in responding to you i can confirm that your complaint is logged with the administration team and they will be in contact with you as soon as possible in relation to the transfer request if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com&lt;mailto : test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 10 july 2020 10 : 17 to : test pensions pensions com subject : re : test pension transfer hello i have tried contacting you through the number given below but because i need extension 1 an ongoing issue your system hangs up on me this is extremely frustrating because this is an urgent matter and has been going on since before the pandemic stated we are now getting on for 6 months into my request to def through the xyz to get my cetv and transfer out of the test fund i would request once again that you treat this as a matter of urgency kind regards abc on 09 july 2020 at 20 : 33 test pensions pensions com wrote : thank you for your email to the test pensions recent government and health authority advice on covid - 19 has meant we have had to change the way in which we work to safeguard the health and wellbeing of our staff this alongside the increased contact we are experiencing from members means that we may not be able to respond to you as quickly as we would like in the short - term but please be assured that we will respond as soon as we are able should you have any queries in the meantime please contact our member helpline on + 91 012345678 please note this is an automated response postal address : test pensions post handling centre x 10 test road test street aa12 123</t>
-  </si>
-  <si>
-    <t>test pension fund abc d dear sirs i refer to your correspondence of 03 october 2020 your ref z zzzz01 0001 please note that the final implementation of the pension share and calculation will take into account the member s uurbs benefits please see attached information concerning uurbs and quotations for divorce purposes as the member is in receipt of his pension the total implementation fee is 2 025 00 plus vat split between the 2 x parties as per the pso i trust the above to be in order however if you have any queries concerning the above please contact us on 01000 100 100 or email us at test pensions pensions com kind regards sun light senior pensions administration leatherhead office postal address : post handling centre u st tower 7 chennai road london m00 0mm direct dial : + 44 0 0000 100100</t>
-  </si>
-  <si>
-    <t>test pension scheme - abc xyz - tst12345678 hi there following my earlier email today i now enclose all the documentation you require to instigate a pension transfer to the test pension scheme we have recommended abc xyz you are therefore receiving this before the 1st january 1400 deadline for the cetv so we hope all is satisfactory for you to proceed we would be obliged if you reply as quickly as possible please acknowledging this email and enclosures and confirming that you have all you need to process the transfer we look forward to hearing further from you many thanks kind regards abc xyz from : abc xyz &lt;abc xyz testmail com sent : monday november 23 2020 7 : 31 am to : test pension scheme &lt;testscheme fincorp com cc : test ifa &lt;test ifa fincorp com subject : abc xyz - tst12345678 hi there following the attached letter you have sent to the client only just received today by the way as using the postal system with covid delays around the world is not ideal we are planning to email you all the transfer documentation you require by the deadline of 1st january which is the cetv guarantee date as the transfer to an overseas test pension scheme is to proceed we are just awaiting on some final documents to come through to us before we email this all through to you you have already advised us that you will accept emailed transfer documentation so once you receive this you will hopefully have everything you need to process the transfer the letter you therefore sent to the client is somewhat confusing as the cetv deadline is 1st january however we also note in the letter that we are still able to provide you with the paperwork and the transfer can be made before 1st january 2021 we will forward the paperwork to you soon however if you have any questions please contact us thank you kind regards charlene from : abc xyz &lt;abc xyz testmail com sent : monday 23 november 2020 1 : 09 pm to : abc xyz &lt;abc xyz testmail com subject : fw : internet fax job hi i received this letter today from fin corp ltd can you please advise next step thanks abc xyz</t>
-  </si>
-  <si>
-    <t>funeral receipt for abc xyz to whom it may concern please find attached the funeral receipt of my father mr abc xyz ref : tst12345678 regards mr abc xyz son sent from my galaxy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">re : test pensions plan - : mr abc xyz external thank you for coming back to us i can confirm what we have received the details required and the payment has been applied appropriately kind regards abc xyz 10 test road test street aa12 123 + 91 012345678 from : test pensions pensions com sent : 18 november 2020 05 : 40 to : test pensions subject : test pensions plan - : mr abc xyz external dear abc xyz test pension fund thank you for your email regarding the test pension fund to enable us to answer your enquiry please could you provide member s full address date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com yours sincerely abc xyz administrator customer support centre 10 test road test street aa12 123 direct dial : + 91 012345678 test pensions pensions com from : abc xyz abc xyz testmail com sent : 13 november 2020 15 : 52 to : test pensions subject : mr abc xyz - transfer out tst12345678 good afternoon we have received the transfer payment of 100 for our above mutual client however we require further information to be able to process this please confirm the following is this payment crystallised or uncrystallized is this payment from a personal or occupational pension scheme if occupational is it defined contribution or defined benefit kind regards abc xyz platform administrator new money fin corp ltd </t>
-  </si>
-  <si>
-    <t>re : test pension plan - mr abc good afternoon re : test pension plan - mr abc please could you confirm if there is any update to our query of 02 11 2020 if you have any queries please do not hesitate to contact us kind regards test pensions on 03 11 2020 3 : 22 pm test scheme pensions com wrote : fyi - - - - - - - - forwarded message - - - - - - - - subject : test pension plan - mr abc date : tue 3 nov 2020 14 : 26 : 51 + 0000 from : test pensions pensions com to : testfund fincorp com dear test fund test pension plan thank you for your email regarding the test pension plan i can confirm i have forwarded your email to our administration department to process as requested and they will be in contact shortly if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : testfund fincorp com sent : 02 november 2020 18 : 09 to : test pensions pensions com subject : test pension plan - mr abc good morning re : test pension plan - mr abc please could you let us know if there is any update on the below if you have any queries please do not hesitate to contact us kind regards test pensions - - - - - - - - forwarded message - - - - - - - - subject : test pension plan - mr abc date : wed 14 oct 2020 11 : 31 : 03 + 0100 from : testfund fincorp com to : test pensions pensions com good morning re : test pension plan - mr abc please find copies of documents previously sent to you that show the clients date of birth national insurance number and address the documents are password protected in our normal way - if you need to check this please call us on + 91 012345678 if you have any queries please do not hesitate to contact us kind regards test pensions on 13 10 2020 5 : 08 pm test pensions pensions com wrote : dear test pensions test pension plan thank you for your email regarding the test pension plan to enable us to answer your enquiry please could you provide the member full address date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : testfund fincorp com sent : 12 october 2020 12 : 08 to : test pensions pensions com subject : test pension plan - mr abc good morning re : test pension plan - mr abc is there any update on the below thanks test pensions - - - - - - - - forwarded message - - - - - - subject : test pension plan - mr abc date : fri 9 oct 2020 09 : 40 : 49 + 0100 from : testfund fincorp com to : test pensions pensions com good morning re : test pension plan - mr abc test reference : tst12345678 following on from our below emails please kindly confirm receipt of the transfer documents and please confirm if the transfer value has been upheld or not if you have any queries please do not hesitate to contact us kind regards test pensions - - - - - - - - forwarded message - - - - - - - - subject : test pension plan - mr abc date : thu 17 sep 2020 10 : 32 : 27 + 0100 from : test ifa fincorp com&lt;mailto : test ifa fincorp com reply - to : test pensions pensions com good afternoon following on from my below email please kindly confirm receipt of the transfer documents kind regards test ifa on 14 09 2020 3 : 46 pm test ifa fincorp com&lt;mailto : test ifa fincorp com wrote : good afternoon i am writing to submit the attached transfer request for the above client policy from test to test the client policy number is tst12345678 and the guarantee date for the transfer is 01 01 1400 the documents have also been sent via post on the 11th of september please kindly confirm receipt of these documents and request the password for the document on + 91 012345678 kind regards test ifa</t>
-  </si>
-  <si>
-    <t>change of adress pension reference 1000000 my new address is 00 witchwood lane kawali sunset rr00rr kind regards red fort</t>
-  </si>
-  <si>
-    <t>pension hello my name is abc xyz i am 56 years old and would like to take a portion of my gkn pension but not sure how to go about it would be thankful if someone could contact me on 123456789 many thanks sent from my huawei phone</t>
-  </si>
-  <si>
-    <t>death of a pensioner lmn nino - zz123123z dob - 01 01 1400 date of death - 01 january 1400 reference - tst12345678 spouse or partner - no informant - daughter mrs def 10 test road test street aa12 123 tel + 91 012345678 i have been informed of the above members death could you please cease payment and contact the informant for the death certificate kind regards abc</t>
-  </si>
-  <si>
-    <t>test pensions plan reference number : tst12345678 test pensions can i have an update on my enquiry please i last emailed you on 4 11 20 i have confirmed that test payroll have forwarded my opt out confirmation again 4 11 20 by email i keep getting the standard reply that my enquiry has been forwarded to customer services and then i don t hear anything this has been an ongoing request that seems to be taking a great deal of time even with the effects of covid test payroll sent my pension opt out confirmation to test test pensions on november 4th 2020 test have completed and submitted all the required forms as required by the test approved and signed by myself i am waiting for test to forward my guaranteed cetv to test can i ask that my request to release the guaranteed cetv is reviewed and expedite the release with some urgency can you give me a notion of the time frame that is required to get the cetv released to test as i have requested regards abc from : test pensions pensions com sent : 06 november 2020 11 : 33 to : abc xyz testmail com subject : test pensions plan dear abc test pension plan thank you for your email regarding the test pension plan i can confirm i have forwarded your email to our administration department and they will be in contact shortly if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 04 november 2020 10 : 59 to : test pensions pensions com subject : test pensions plan test pensions thanks for your help previously relating to my pension choices i am hoping you may be able to help me with a query which is proving frustrating : i elected to opt out of the test defined benefit pension scheme which was actioned in september payroll email chain below i am currently trying to transfer my pension pot test defined benefit pension scheme and as part of this thee company i have chosen to move the pot need the guaranteed cetv i have been irregular contact emails with test test pension company to issue the cetv so i can move my pension pot i m being informed that test are still waiting for my opt out details before they will make me a deferred member do you know who is responsible for sending my opt out details to test and the pension trustees and what i need to do to get the opt out details issued if you could point me in the right direction if this isn t anything you deal with i will be very grateful regards abc from : test pensions pensions com sent : 27 august 2020 10 : 52 to : abc xyz testmail com subject : re : test pensions plan morning your forms and request will be processed for september payroll kind regards test pensions from : abc xyz testmail com sent : 27 august 2020 10 : 49 to : test pensions pensions com subject : test pensions plan please find attached : 1 completed test defined benefit pension scheme request 2 completed test defined contribution pension def enrolment form could you expedite the requests as per the forms attached regards abc</t>
-  </si>
-  <si>
-    <t>final transfer value good morning can i please ask for a final guaranteed pension transfer value kind regards 10 test road test street aa12 123 payroll number 123456 n i number zz123123z</t>
-  </si>
-  <si>
-    <t>fw : letter of authority - abc good morning as this member has now opted out we would like to request a transfer pack asap please do let me know if there are issues asap regards test pensions from : test ifa fincorp com date : wednesday 15 april 2020 at 09 : 52 to : test pensions pensions com subject : letter of authority - abc dear sir or madam can you please provide me with the following information about the above policy please find attached a letter of authority from the client to enable you to release this information this can be emailed to test ifa fincorp com therefore please kindly provide me with the following information in writing; dates salary general information date of joining and leaving the scheme member s final pensionable salary is there a pension sharing order or pension earmarking order connected to this plan please provide the details of any cap which may apply for high earners marital status of this member the commutation factor used for an lta tax charge scheme accrual rate pension benefits at date of leaving scheme gmp benefits; showing any pre post 88 splits the rates of revaluation in deferment and escalation in payment excess benefits; showing any pre post 85 or 97 splits the rates of revaluation in deferment and escalation in payment list of any discretionary increases applied to pension either in deferment payment during last 5yrs breakdown of any transferred - in benefits; are the benefits treated the same as the main scheme benefits if not please highlight any differences is there a fixed pension at nra of service credit if no gmp contained does the member have any avcs if so how what is the current value do they have to be transferred with the main scheme benefits what funds are they invested in can the member switch into different funds where a scheme is still active is there an avc scheme available if so please provide details of the provider fund choices and charges current value of any avc the member holds can the member purchase added years can the member transfer in from external pensions can the avc scheme be used to fund tfc at retirement accrual rate commutation factor for tfc scheme retirement age early retirement is early retirement allowed if so from which age what actuarial reduction factors are currently applied to members pensions in the event of early retirement if a table of factors is not available please provide the percentage reduction applicable for each year early and whether this is compound or simple reduction would the member benefits be revalued to the date of actual or normal retirement upon early retirement if revalued to normal retirement at what assumed rate are benefits projected to normal retirement benefit payable now on a full pension basis and maximum pension commencement lump sum with reduced pension basis tax free cash member tfc at date of leaving would this amount revalue if so at what rate does the scheme pay hmrc post a - day maximum cash amount of pre a - day ir maximum cash at 5 4 2006 if protected what are the scheme current tfc commutation factors from nra to age 55 can the tfc be paid from any attached avc death benefits does the scheme pay a death before retirement lump sum if so what and how much what pension would the member spouse receive upon death before and after retirement what death after retirement guarantee does the scheme apply definition of pension payable on death spouse or dependent late retirement please provide late retirement factors which are applicable if the member should choose to retire beyond the scheme nra contracting out was the scheme contracted out pre post 06 04 1997 if yes for post 97 on what basis; reference scheme protected rights underpin mixed benefit transfer value total transfer value cetv ; showing any splits of gmp protected rights pre post 06 04 1997 calculation and guarantee dates also amount of member contributions included in the tv scheme information scheme s normal retirement age is the scheme open to all employees or are there restrictions if so what are they what is the scheme s current funding position would deferred members benefits be affected in any way if so how is the scheme a member of the transfer club will the scheme allow a partial transfer of benefits if yes please outline any restrictions that would be applied and or provide details of the basis on which a partial transfer would be allowed if no please confirm if there is more than one type section version of scheme membership which one applies to the member what date was the scheme equalised and the earliest age benefits can be taken unreduced if the transfer were to proceed would the scheme be insistent that all forms must be returned within the guarantee period or could some discretion be used at that time please forward copies of any warranty discharge forms that would need to be completed if the client decided to transfer their benefits thank you for your assistance in this matter yours faithfully def</t>
-  </si>
-  <si>
-    <t>fw : abcd query hello team please see below query and reply accordingly to the member ifa many thanks test pensions from : test ifa fincorp com sent : 30 november 2020 17 : 33 to : test pensions pensions com subject : abcd query hi please find attached a letter of authority and scheme information request letter that was previously sent to xyz in september 2020 can you please confirm receipt and arrange for this information to be provided to me as a matter of urgency we have received other cetv s for this client which are administered by yourselves which are due to expire at end of december 2020 therefore we would appreciate your assistance to expedite this request we have unfortunately spent some time trying to trace the administrators of this scheme and i understand the benefits were invested through xyz your assistance in this matter would be gratefully appreciated password to follow kind regards test ifa</t>
-  </si>
-  <si>
-    <t>cob request third request with additional information included dear sirs test pension scheme reference tst12345678 you are currently paying my pension into my account no 123123 with nationwide i intend to close this account so wish you to make future payments into my account with the xx my account details with them are : name abc sort code 00 - 00 - 00 account no 1231234 my address is 10 test road test street aa12 123 national insurance no zz123123z date of birth 01 01 1400 please confirm you are actioning this request thank you abc xyz</t>
-  </si>
-  <si>
-    <t>pension ref tst12345678 good morning could you please advise me if there is a lump sum payment payable on this pension my date of birth is 01 01 1400 and ni number is zz123123z kind regards abc xyz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">re : test pension fund - abc xyz respected abc xyz administrator customer support centre thank you for your response regrading fpf and condolences for our loss the requisite detail is as under : - abc xyz nephew 01 01 1400 1st january 1400 01 01 1400 1st january 1400 1st january 1400 yes death was registered and death certificate got yes the widow in old age 1st january 1400 the contact number of widow is + + 91 012345678 but due to old age she is unable to talk you may contact me over my cell no + + 91 012345678 looking forward your kind response yours truly abc cell no + 91 012345678 official email : abc xyz testmail com &lt;mailto : atiq rehman nbp com pk from : test pensions &lt;test pensions pensions com sent : friday november 20 2020 3 : 32 am to : abc xyz subject : test pension fund - abc xyz dear abc xyz test pension fund thank you for your email regarding the ford pension fund please accept our apologies for the delay in responding to you please accept my sincerest condolences for your loss in order to assist us could you please provide us with the following details : members name : emailer s relation to member : date of birth : date of death : member s address at date of death : has the death been registered and death certificate issued : did the member have any financial dependents address for condolence : contact number : if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely abc xyz administrator customer support centre test pensions 10 test road test street aa12 123 direct dial : + 91 012345678 test pensions pensions com &lt;mailto : test pensions pensions com from : abc xyz&lt;abc xyz testmail com sent : 11 november 2020 06 : 38 to : test pensions subject : fw : intimation of death and request for procedure to get payment of funds to widow mrs abc xyz the correct official email is abc xyz testmail com &lt;mailto : atiq rehman nbp com pk thanks - - - - - forwarded message - - - - - from : abc xyz to : abc xyz testmail com sent : tuesday 10 november 2020 10 : 32 : 27 pm gmt - 8 subject : intimation of death and request for procedure to get payment of funds to widow mrs abc xyz dear team first i introduce my self my name is abc xyz and working in the fin corp as assistant vice president i am engaged in delivering training to our human capital my uncle mr abc xyz died on jan 1 2020 at home and buried in rawalpindi his particulars are as under : - 1 test pensions fund reference : tst12345678 the captioned provided information has been obtained from a letter dated 7th february 2020 duly signed by mr abc xyz senior manager - payroll my uncle was also getting a uk state pension outside the uk under reference no kindly requested to guide us to proceed further in the matter for smooth payment to widow from all related institutions including fin corp aa12 123 the particulars of the widow who is also still getting her own uk state pension outside the uk under reference no the widow in old age and she is residing with her daughter at the following new change mailing address; - 10 test road test street aa12 123 you are kindly requested to please guide us on the matter for the fixation of pension and end service benefits thanks regards yours truly abc xyz cell no + 91 012345678 official email : abc xyz testmail com &lt;mailto : abc xyz testmail com </t>
-  </si>
-  <si>
-    <t>fw : ref : - tst12345678 full name - mrs abc xyz d o b 01 01 1400 n i number : - zz123123z please see my email below sent from my iphone begin forwarded message : from : abc xyz date : 21 november 2020 at 11 : 01 : 43 gmt to : test pensions pensions com subject : ref : - tst12345678 hello i would just like to make an enquiry request about my pension please as the pension is quite minimal would it be possible to simply withdraw all the funds and close it down please advise me accordingly regards mrs abc xyz sent from my iphone</t>
-  </si>
-  <si>
-    <t>test pensions jlt00000000 - 01 01 1800 xx1 1xx good morning with regards to the above member of the test pensions scheme and the information you kindly provided i would be grateful if you could please confirm that the normal retirement date is age 65 when the client originally joined the scheme believed the retirement age was 60 and therefore if it is now 65 i would be grateful if you could please confirm when it changed to age 65 and whether or not benefits can still be taken unreduced at age 60 i look forward to hearing from you however should you have any questions or queries in the meantime please do not hesitate to contact me kind regards abc xyz senior paraplanner chartered financial planner 10 test road test street aa12 123 tel : 0111 11 11 11 fax : 01111 11 11 11 web : www fincorp com email : fin corp testmail com</t>
-  </si>
-  <si>
-    <t>test pensions member homie dear mr ip we write with regards to your telephone request relating to the above named post 97 non lpi element increases in payment at the higher of lpi maximum 5 and statutory increase and in deferment in line with statutory increases up to a maximum of 5 the estimated accrued pension at the 05 04 2016 amounted to 30 209 31 regards eletricity senior pensions administrator leatherhead office postal address : post handling centre u st tower 7 chennai road m00 0aa member line : + 44 0 1000 100000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">re : test retirement and death benefits plan - def section been over a month are you going to send me the information i requested on 12 oct 2020 at 11 : 36 test pensions pensions com wrote : dear mr abc test retirement and death benefits plan - def section thank you for your email regarding the test retirement and death benefits plan i can confirm that i have logged your request to our administration team to update your address a written response will be issued to your home address within 10 - 15 working days once your address details are updated we will proceed with your pension query if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 08 october 2020 13 : 53 to : test pensions pensions com subject : re : test retirement and death benefits plan - def section it s 1400 since i left the scheme not sure which address to give you on 8 oct 2020 at 07 : 13 test pensions pensions com&lt;mailto : test pensions pensions com wrote : dear abc test retirement and death benefits plan - def section thank you for your email regarding the test retirement and death benefits plan to enable us to answer your enquiry please could you provide your previous address for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions - - - - - original message - - - - - from : abc xyz testmail com sent : 06 october 2020 09 : 23 to : test pensions pensions com subject : test pension dear sir madam i m trying to track down a test pension from when i worked at def formerly xyz hope you can help me it ran from 1400 to 1400 my name is abc dob ni number if you find any details can you let me know the value and options for taking it at 55 thank you mr </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pre - identified user support request reply email address : abc xyz testmail com forename : abc surname : xyz ni number : zz123123z dob : 01 jan 1400 home postcode : aa12 123 employer : test pension fund subject : transfer value content : please can you quote me the transfer value of my pension</t>
-  </si>
-  <si>
-    <t>pension fund equiry hello my name is abc xyz i have resent this mail with some more details i have a pension fund with you i worked for test pensions many years ago i m not sure what the policy number is but i can give you a couple of references that may help : my national insurance number is : zz123123z address : abc xyz 10 test road test street aa12 123 date of birth : 1st january 1400 also i found this reference number within correspondence from you not sure if this is my policy number tst12345678 what i would like to do is bring the pension fund into drawdown take some cash out and re - invest the remaining amount can you advice on the next steps do you need to send a info pack to me look forward to hearing from you regards abc xyz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mrs abc xyz tst12345678 as per your letter dated 1st january 1400 please find enclosed scan of letter provided to mrs abc xyz in respect of advice to the transfer of her test pension which includes safeguarded benefits please let me know if you require anything further best regards abc xyz director independent financial adviser pension specialist fin corp limited mobile : + 91 012345678 office : + 91 012345678 email : fin corp testmail com &lt;mailto : fin corp testmail com </t>
-  </si>
-  <si>
-    <t>re : test pension fund hi thanks for the response my details are as follows; address : 10 test road test street aa12 123 dob : 01 01 1400 ni no : zz123123z kind regards abc - - - - - - - - original message - - - - - - - - from : test pensions pensions com date : 16 11 2020 11 : 19 gmt + 00 : 00 to : abc xyz testmail com subject : test pension fund dear abc test pension fund thank you for your email regarding the test pension fund please accept our sincerest apologies for the delay in responding to you to enable us to answer your enquiry please could you provide your full address date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 09 november 2020 17 : 55 to : test pensions pensions com subject : transfer value hi i am trying to obtain the transfer value of my pension and am unable to obtain one online please can you advise as i have recently been made redundant from test motor company and require one to assess my pension options going forward kind regards abc</t>
-  </si>
-  <si>
-    <t>change of address i have changed my address and now living in xxx my new address is : - 10 test road test street aa12 123 best regards abc</t>
-  </si>
-  <si>
-    <t>tst12345678 lv = classification : confidential good afternoon i have provided advice to mr abc xyz as per the above reference mr dowell would like to start his test pension under the early retirement rules can you please provide a quote with the maximum tax free cash with a start date of 01 01 1400 and a quote with a start date of 01 01 1400 can you also include the forms he needs to sign to start the pension can the quotes and forms be sent to mr abc xyz if however it is quicker to send to us please do this and we will forward to mr abc xyz if you have any questions please get back to me on this email address kind regards</t>
-  </si>
-  <si>
-    <t>mr abc ref - tst12345678 dear test pensions i hope this email finds you well further to your email to def at investacc i understand you have requested a copy of our financial advice declaration addressed to the member i can confirm the declaration was sent to mr abc along with our original advice but now attach a copy in a letter format addressed to the member i have copied in mr abc on this email so you can verify this letter has been provided please can you now advise on timescales as to when we can expect the transfer to complete kind regards</t>
-  </si>
-  <si>
-    <t>abc xyz - tst12345678 termination hi abc xyz fin : tst12345678 has signed to leave the business on the 18th december 2020 the documentation was sent two weeks ago he will now be leaving on 4th december due to a change in personal circumstances can you please let me know if there is anything i need to amend kind regards test ifa 10 test road test street aa12 123</t>
-  </si>
-  <si>
-    <t>re : transfer value quote request hi can you advise when you expect to be able to respond to my questions in my email of 14 october thanks for your help regards abc on 23 oct 2020 at 11 : 50 abc xyz testmail com&lt;mailto : abc xyz testmail com wrote : i have today received the transfer quote thank you i have a couple of questions related to the pension : - 1 could you confirm the current amount of the annual deferred pension please and if available the projected amount at nrd 2 can the pension be paid early and if so what would it be worth currently annually 3 if paid early or at nrd would it be possible to fully commute the pension and if so what would the fully commuted value be now at nrd thanks for your help regards abc on 14 oct 2020 at 08 : 27 abc xyz testmail com&lt;mailto : abc xyz testmail com wrote : could you confirm that you received my request below and advise the likely timescale for your response to it please thanks abc on 26 sep 2020 at 09 : 42 abc xyz testmail com&lt;mailto : abc xyz testmail com wrote : i am a former member of the test pension scheme and have a gmp remaining in the scheme could you please advise the current transfer value for this and the current annual value of the gmp and revaluation rate that applies to it as i am considering transferring it to my test to enable you to locate my record my name is abc my ni number is zz123123z my date of birth is 1st january 1400 my home address is 10 test road test street aa12 123 thanks for your help and please let me know if you need any additional information regards abc</t>
-  </si>
-  <si>
-    <t>report of death of a pension recipient hello i need to report the death of my father who was in receipt of pension payments from test can you please let me know what i need to do thank you kind regards abc</t>
-  </si>
-  <si>
-    <t>re : test pension scheme abc xyz tst12345678 hello i have checked with mr abc who confirmed that he had sent documents when they were requested he will download and complete again regards test fund on 18 nov 2020 at 12 : 06 test pensions pensions com wrote : dear test fund it is about the statement and forms that we sent to you following the death of mrs abc we do not think that you have returned the documents requested what do i need to do please refer to the statement that we sent to you and send us the information requested completed beneficiary form completed bank mandate form please include your address and national insurance number where can i get more information or ask questions please call + 91 012345678 to speak to our team lines are open between 9 00am and 5 00pm monday to friday please have the member s national insurance number ready so that we can deal with your enquiry quickly if you write to us please provide the member s full name and national insurance number the scheme name and the reference tst12345678 regards test pensions</t>
-  </si>
-  <si>
-    <t>test pension scheme reference : tst12345678 dear test pensions i am enclosing the information you asked for in your recent letter dated 23 october 2020 the beneficiaries addresses you asked for are mrs def 10 test road test street aa12 123 mr jkl 110 test road test street ee12 123 the solicitor dealing with the estate of lmno is stu her email is stu testmail com&lt;mailto : stu testmail com yours sincerely abc</t>
-  </si>
-  <si>
-    <t>change of address good morning i have a pension with you and wish to notify you of my new address abc xyz date of birth 01 01 1400 national insurance number zz123123z old employee number tst12345678 old address 10 test road test street aa12 123 new address 102 test road test street ee12 123 please can you let me know that you have changed my address thank you abc</t>
-  </si>
-  <si>
-    <t>change of address i am trying to change the address details for my def pension plan to 10 test road test street aa12 123 name : mr abc xyz : paye reference : tst12345678; national insurance number zz123123z : pension payroll number tst12345678 please change as above or advise me how it can be done because i cannot find a way to do it on line i look forward to your helpful reply kind regards abc xyz</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pre - identified user support request lmno reply email address : abc xyz testmail com forename : abc surname : xyz ni number : zz123123z dob : 01 january 1400 home postcode : employer : test subject : spouses pension benefits content : i understand that a spouses pension is 50 of the members pension upon the death of the member is this 50 guaranteed or subject to agreement from the pension trustees is this 50 applicable regardless of the age of the spouse and or the difference in ages between the member and the spouse i have heard that the 50 does not necessarily apply if the spouse if more than 10 years younger than the member this would be applicable to me hence the question </t>
-  </si>
-  <si>
-    <t>mrs def ref tst12345678 further to my telephone call to your customer services this morning please find letter from mrs def confirming that she has received suitable advice from myself also her authority for me to have access to her pension with you our section 48 certificate we will appreciate a response confirming the date you will process this transfer regards test ifa independent financial adviser 10 test road test street aa12 123 ddi : + 91 012345678</t>
-  </si>
-  <si>
-    <t>change of address hi team i refer to the below email we have tried to contact member on the below mentioned address however no reply received hence could you please forward this attached verification form over email and ask member daughter to get it signed by member test pensions from : test pensions pensions com sent : 05 october 2020 17 : 47 to : post handling pensions com&lt;mailto : post handling pensions com subject : fw : change of address hi member name : xyz scheme name : test scheme nino : zz123123z could you please create admin bizflow job for the below request we have received change of address from the member s daughter please verify the same and get back to us test pensions from : abc xyz testmail com sent : 21 september 2020 08 : 33 to : test pensions pensions com&lt;mailto : test pensions pensions com subject : change of address good morning i am emailing on behalf of my mother xyz dob 01 01 1400 ref num tst12345678 mum has changed her address as she has gone into sheltered accommodation her new address is : 10 test road test street aa12 123 if you need any further information please do not hesitate to contact me abc</t>
-  </si>
-  <si>
-    <t>xyz - tst12345678 - cetv forms urgent good afternoon sir or madam abc xyz tst12345678 01 01 1400 zz123123z please find attached a copy of the forms which were sent 1st class rm signed for today to your def address the receiving scheme warrantee form has been relayed to uvw who will in turn send it on to yourselves please can you confirm as soon as possible that you have what you need in order to secure the transfer value this is an urgent request owing to the expiry date of the cetv being 30th november confirmation can be sent to my email or via the communication methods listed below if you have any questions or queries please can you contact me kind regards test ifa</t>
-  </si>
-  <si>
-    <t>re : test pension plan - abcd : tst12345678 hi request you to please confirm when the amount was expected to receive and in which bank account number transfer has been made regards test fund from : test pensions pensions com sent : monday november 9 2020 3 : 35 pm to : testfund fincorp com subject : test pension plan - abcd : tst12345678 importance : high hi can you please check and advise if a payment of 915 00 has been received from the above member kind regards test pensions</t>
-  </si>
-  <si>
-    <t>fw : request for pension details - abc xyz - ref : tst12345678 hello team please see below query and reply accordingly to the member ifa many thanks abc xyz - agent - customer support centre 10 test road test street aa12 123 abc xyz testmail com from : abc xyz - pension tracing service abc xyz testmail com sent : 20 november 2020 12 : 04 to : test pensions subject : request for pension details - abc xyz - ref : tst12345678 to whom this may concern please find attached a letter of authority for client abc xyz in relation to their policies plans held with you i have attached a standard schedule setting out the information we require in connection with any policies held by the client with yourselves along with a full information questionnaire if you so wish to use if you could please fully answer all questions and return the schedule by email or post as soon as possible it would be very much appreciated if there are any additional features of the scheme that are relevant to any decision that might be made by our client to exercise any options under the scheme which are not covered in this schedule please ensure that the relevant information is provided we would like to draw your attention to the fact that where the member is entitled to draw immediate retirement benefits we have asked you to provide a quotation for this in addition to the transfer data please also provide all relevant discharge transfer and open market option documents for any options involving immediate retirement or transfer if you anticipate that there will be a significant delay in providing all or any of the information requested please contact us immediately to indicate when the details will be supplied kind regards abc xyz</t>
-  </si>
-  <si>
-    <t>test penison scheme member ref : tst12345678 many thanks for your letter of 1st january 1400 regarding the options for taking my pension benefits having taken advice on this matter and considering my current personal situation i would like to know if it would be possible to defer taking my pension benefits for potentially a further three years according to your guide notes this may be possible but is dependant on scheme rules at the time of enrolment into the scheme the normal retirement date was upon reaching the age of 60 as you are aware subsequent changes have resulted in my state pension retirement age now increasing to 66 years and 8 months which is not until 2030 i plan to formally retire with my husband when he reaches the age of 65 which will be in 2025 i would therefore like to delay taking my pension benefits for 2 years if this is possible please advise best regards mrs abc xyz email abc xyz testmail com</t>
-  </si>
-  <si>
-    <t>tst12345678 hi team please see below query and reply accordingly many thanks test pensions - - - - - original message - - - - - from : abc xyz testmail com sent : 17 november 2020 14 : 36 to : test pensions pensions com subject : tst12345678 could you please update your records for recent change of address from 2 test road test street ee12 123 to 10 test road test street aa12 123 thank you abc</t>
-  </si>
-  <si>
-    <t>fwd : test pension scheme thank you for your reply but this does not answer my query i already have an activation letter and code but for some reason your system will not recogise my email address when i try to add this in as part of the set up process please can you investigate as a matter of urgency i do not believe that sending a further activation letter wo not fix the problem thank you ian mills from : test pensions date : monday 23 november 2020 subject : test pensions scheme to : jmills255 dear mr abc xyz test pension fund thank you for your email regarding the test pension fund i have requested an activation letter to be issued to you via post this will be issued within 5 working days this will be active for 28 days if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at fin corp testmail com &lt;mailto : fin corp testmail com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 from : abc xyz &lt;abc xyz testmail com sent : 19 november 2020 09 : 37 to : fin corp support subject : fwd : logging issues re email address as requested for security here are further details nat ins no zz123123z date of birth 01 01 1400 address is as in email below thanks abc xyz from : abc xyz date : wednesday 18 november 2020 subject : logging issues re email address to : test pensions i have received my activation code today and tried to log into my fin corp account i entered the code set a user name and password but the system wo not accept my email address it says it not recognised but i have entered my correct email address which is abc xyz testmail com p ease can you advise as soon as possible many thanks abc xyz</t>
-  </si>
-  <si>
-    <t>beneficiaries data form name : lmno ni number : zz123123z reference : tst12345678 hello please find attached the beneficiaries application if you have any questions and you can best to email to me at this email address otherwise contact my mother at the address on the application thank you abc xyz</t>
-  </si>
-  <si>
-    <t>fw : change of address sent from mail&lt;https : go microsoft com fwlink linkid = 550986 for windows 10 from : alexa siri &lt;mailto : yoshimura1400 hotmail com sent : 28 november 2020 15 : 23 to : keldapensions mercer com&lt;mailto : keldapensions mercer com subject : change of address good afternoon please could i request that my address is amended to the following : 11 highway to hell chalis chaurasia la hila st martial art bhun france 20000 i am unable to amend the details on the benpal website your help in this matter is most appreciated warmest regards alexa siri 00011589 former employee of yorkshire water 17 06 1965 nh124130a sent from mail&lt;https : go microsoft com fwlink linkid = 550986 for windows 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">re : test salaried contributory pension fund - xyz good afternoon can you please confirm the case is now in the implementation period and advise when this is due to complete thank you test ifa from : test pensions pensions com sent : 30 october 2020 14 : 46 to : test ifa fincorp com subject : test salaried contributory pension fund - xyz dear team test salaried contributory pension fund thank you for your email regarding the test salaried contributory pension fund please accept our apologies for the delay in responding to you please note i have checked our records and i can confirm that your request is with our administration team and is being processed you will hear from us shortly if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : test ifa fincorp com sent : 21 october 2020 17 : 40 to : test pensions pensions com subject : re : test salaried contributory pension fund - xyz importance : high good afternoon can you please provide an urgent update on the pension sharing order transfer we have tried to call but you are currently not taking phone calls and we are yet to receive a response to our emails please advise if you have any queries thank you test ifa from : test ifa fincorp com sent : 14 october 2020 16 : 20 to : test pensions pensions com subject : re : test salaried contributory pension fund - xyz good afternoon please could you advise that you have now received everything you require to proceed and process the transfer kind regards test pensions from : test ifa fincorp com sent : 07 october 2020 15 : 39 to : test pensions pensions com subject : re : test salaried contributory pension fund - xyz good afternoon following your letter please see attached receiving scheme agreement please advise if you require any further information to be able to process the transfer thank you test ifa from : test pensions pensions com sent : 24 september 2020 12 : 41 to : test ifa fincorp com subject : test salaried contributory pension fund - xyz dear test ifa test salaried contributory pension fund thank you for your email regarding the test salaried contributory pension fund i can confirm that i have forwarded your query to the administration team; once a response has been received we will be in touch accordingly if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : test ifa fincorp com sent : 23 september 2020 14 : 49 to : test pensions pensions com subject : re : test salaried contributory pension fund - xyz good afternoon can you please provide an update on the clients transfer we are yet to receive a response via email and you are not currently taking phone calls please advise if you have any queries thank you test ifa from : test pensions pensions com sent : 10 september 2020 16 : 15 to : test ifa fincorp com subject : test salaried contributory pension fund - xyz dear test ifa test salaried contributory pension fund thank you for your email regarding the test salaried contributory pension fund i can confirm i have forwarded your email to our administration department and they will be in contact shortly if any further information is required if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : test ifa fincorp com sent : 09 september 2020 11 : 55 to : test pensions pensions com subject : re : test salaried contributory pension fund - xyz good afternoon can you please provide an update on the clients transfer and advise if you now have everything to proceed thank you test ifa from : test pensions pensions com sent : 14 august 2020 17 : 30 to : test ifa fincorp com subject : test salaried contributory pension fund - xyz dear test ifa test salaried contributory pension fund thank you for your email regarding the test salaried contributory pension fund i have checked our records and can confirm that the correspondence was issued to member on 13th august 2020 please note that member will receive it shortly if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : test ifa fincorp com sent : 12 august 2020 11 : 40 to : test pensions pensions com subject : re : test salaried contributory pension fund - xyz good morning please could you provide a rough timescale we can expect to hear from you with an update on this one kind regards test ifa from : test pensions pensions com sent : 05 august 2020 11 : 05 to : test ifa fincorp com subject : test salaried contributory pension fund - xyz dear test ifa test salaried contributory pension fund thank you for your email regarding the test salaried contributory pension fund please accept our apologies for the delay in responding to you i can confirm i have forwarded your email to our administration department and they will be in contact shortly if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com did you know that member s can access and manage their pension online by logging into their test account yours sincerely test pensions from : test ifa fincorp com sent : 30 july 2020 12 : 40 to : test pensions pensions com subject : re : test salaried contributory pension fund - xyz good afternoon the transfer is in relation to a pension sharing order can you please advise when we can expect to receive the funds your clients details are : xyz thank you test ifa from : test pensions pensions com sent : 22 july 2020 13 : 28 to : test ifa fincorp com subject : test salaried contributory pension fund - xyz dear test ifa test pension fund thank you for your email regarding the test pension fund please accept our apologies for the delay in responding to you to enable us to answer your enquiry please could you provide the member full address date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : test ifa fincorp com sent : 14 july 2020 08 : 57 to : test pensions pensions com subject : abcd - xyz - tst12345678 good afternoon we are processing a transfer for the above client as part of a pension sharing order can you please confirm you have received the transfer documents and advise if the case is now being processed thank you test ifa </t>
-  </si>
-  <si>
-    <t>re : test pension fund abc thank you for your response i have received the letter acknowledging my complaint and confirming you will investigate however please prioritise sending the transfer information requested by my ifa please confirm by return email when you will be providing the transfer information requested by my ifa including the statutory transfer value my ifa informs me that they have already been provided one promise date for the information by an individual in your team which has been missed regards abc xyz sent from my iphone on 22 nov 2020 at 11 : 03 test pensions pensions com &lt;mailto : test pensions pensions com wrote : dear mr abc test pension fund thank you for your email regarding the test pension fund please accept our apologies for the delay in responding to you i have checked the records and i can confirm that we have issued a complaint acknowledgement to you and your ifa on 1st january 1400 please note our administration will get back to you with the findings as soon as possible if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 from : abc xyz &lt;abc xyz testmail com sent : 16 november 2020 16 : 04 to : test pensions subject : re : test pension fund re : my plan 123456 having not received any further response to my complaint in the emails below i have now made a formal complaint to the pensions ombudsman and requested their assistance my complaint is that test pension fund has been obstructively slow in responding to my requests for information necessary for me to investigate transferring my pension regards abc xyz sent from my iphone on 10 nov 2020 at 17 : 42 test pensions pensions com wrote : dear mr abc test pension fund thank you for your email and i very much regret that it has been necessary for you to write to us with your concerns we do pride ourselves on the quality of service that we deliver to our corporate clients trustees and most importantly individual members we receive relatively few complaints and do take any very seriously the issues you have raised will be investigated and we will endeavour to respond to you within the course of the next five days if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at fin corp testmail com &lt;mailto : fin corp testmail com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 from : abc xyz &lt;abc xyz testmail com sent : 05 november 2020 11 : 42 to : test pensions subject : plan complaint to ombudsman i still have not had a response to my email below dated 22 july ! in addition i have now instructed a financial adviser test ifa regarding moving my pension and despite requesting a transfer pack on 16 sept they have still received nothing from you it appears as if you are obstructing my wish to pursue a pension transfer and so if my financial adviser has not received a transfer pack from you within 5 working days of this email i will be referring my complaint to the pension ombudsman regards abc xyz sent from my iphone begin forwarded message : from : abc xyz date : 22 july 2020 at 17 : 53 : 48 bst to : test pensions pensions com &lt;mailto : test pensions pensions com subject : re : test pension fund hi my address is : 10 test road test street aa12 123 regards abc xyz sent from my iphone on 22 jul 2020 at 15 : 54 &lt; test pensions pensions com &lt;mailto : test pensions pensions com &lt; test pensions pensions com &lt;mailto : test pensions pensions com wrote : dear abc xyz test pension fund thank you for your email regarding the test pension fund please accept our apologies for the delay in responding to you to enable us to answer your enquiry please could you provide your full address for data verification purposes please let me know if i can be of further assistance if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com &lt;mailto : test pensions pensions com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 from : abc xyz &lt;abc xyz testmail com sent : 14 july 2020 19 : 37 to : test pensions subject : pension transfer hi i am considering transferring my pension to a sipp and i would like to understand the process for doing this any charges that will apply and how long the process is likely to take i understand that : - i need to get financial advice from a registered adviser and i need to prove that i have done so - i need to request a statutory transfer value valid for 3 months i would like to understand what happens next plus as i said above timescale and costs my details are : pension scheme : test pension fund name : abc xyz thanks regards abc xyz</t>
-  </si>
-  <si>
-    <t>urgent : cetv value request - mr abc xyz fin 123456 to : pensions team are you able to provide an update on this request from mr abc kind regards test pensions 10 test road test street aa12 123 tel : + 91 012345678 from : abc xyz testmail com sent : 28 october 2020 17 : 52 to : test pensions pensions com subject : re : urgent : cetv value request - mr abc xyz fin 123456 hello i wonder if you could help i have still not received any information regarding my pension transfer value please would you be able to assist me regarding the process of this it is over 3 months and i was of the understanding it would be completed in 3 months thanks for you help with this matter abc on thu 16 jul 2020 at 07 : 53 test pensions pensions com wrote : to : test pensions pensions com please can you urgently provide the cetv value for mr abc xyz fin 123456 kind regards test pesnions supervisor - hr welfare team 10 test road test street aa12 123 tel : + 91 012345678</t>
-  </si>
-  <si>
-    <t>pension abc xyz 01 01 1400 zz123123z hi i got a quote this morning to take my pension and want to know was my care allowance included in the quote and also i would like a quote to take my whole pension as one lump sum please can you provide this for me as i can t do this on line thanks in advance abc xyz</t>
-  </si>
-  <si>
-    <t>re : abc xyz hello abc xyz we are sad to hear about abc xyz s passing for us to assist you further would you be able to confirm abc xyz s and your cgi staff number we don t seem to find your records in our system please be advised that we will progress by closing the case shall we not received a response from your end within 7 business working days thank you kind regards abc xyz fin corp united kingdom from : abc xyz sent : friday november 13 2020 3 : 10 pm to : test pensions pensions com subject : re : abc xyz hi i have not yet received the documents you require me to fill in to process my request however i have found in abc xyz legal papers the expression of wish form that was drafted in 2012 please let me know the documents you need me to provide best regards abc xyz le mar 10 nov 2020 09 : 18 abc xyz&lt;abc xyz testmail com a crit : hi i am writing to you today to inform you of abc xyz born 01 jan 1400 death on june 1 im manilla philippines i am his ex - wife sandrine bessiere - smith i worked for fin corp uk empl 1235 and fin corp sweden then fin corp 2 uk empl 123 from 1994 to 2001 michael was employed by fin corp in sweden and the uk as well prior to the cgi acquisition i recently received his personal papers and i have gone through his uk pension papers and while i know he did not request his pension paid when he left to the philippines since he was still working when he passed i wonder if there would be any money owed to his son next of kin i do not have the details of any policy with fin corp michael nin was zz123123z would you be able to help me with this i have a lot of documentation to provide such as death and medical certificate passport copy birth certificate proof of next of kin marriage and divorce certificate last known address etc many thanks abc xyz - - - - - - - - - - forwarded message - - - - - - - - - de : abc xyz&lt;abc xyz testmail com date : mar 10 nov 2020 08 : 47 subject : re : abc xyz to : abc xyz&lt;abc xyz testmail com dear abc we are sad to hear about abc s passing please feel free to directly get in touch with this company who handles pensions fin corp ltd 10 test road test street aa12 123 helpline : + 91 012345678 fin corp testmail com &lt;mailto : fin corp testmail com query team uk from : abc xyz&lt;abc xyz testmail com sent : monday november 9 2020 4 : 29 pm to : test pension fund &lt;testfund fincorp com subject : abc xyz hi i am writing to you today to inform you of abc xyz born 01 jan 1400 death on jan 1st i am his ex - wife abc xyz i worked for fin corp uk empl 12345 and fin corp sweden then fin corp uk empl 123 from 1994 to 2001 abc was employed in sweden and the uk as well prior to the fin corp acquisition he died in the philippines and i just received all his documents sent to me in france i have gone through his uk pension papers and while i know he did not request his pension paid when he left to the philippines i wonder if there would be any money owner to his son next of kin i do not have the details of any policy with fin corp would you be able to help me with this many thanks abc xyz</t>
-  </si>
-  <si>
-    <t>re : test pension plan - abc hi - we have the attached info - this is the last statement he has received - he has moved house a few times ! hope this helps ! abc from : test pensions pensions com sent : 09 november 2020 14 : 01 to : abc xyz testmail com subject : test pension plan - abc dear abc test pension plan thank you for your email regarding the test pension plan unfortunately i can confirm we are unable to locate a record of benefits using the details you have provided could you please confirm the name of the scheme the member is part of in addition could you please supply any additional reference numbers or the name of anyone you have received correspondence from within test in the past if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test from : test ifa fincorp com&lt;mailto : test ifa fincorp com sent : 05 november 2020 19 : 28 to : test pensions pensions com subject : test pension plan - abc hi - please find attached a signed letter of authority from our mutual client we would appreciate it if you could please provide us with the following information please let us know of you need the original authority sent in the post : his previous address was when providing the cash equivalent transfer value and details of the deferred pension entitlement in respect of the scheme we would be grateful if you could ensure that the following information in respect of the entitlement is included in your response : general 1 a copy of the scheme booklet in relation to their membership of the scheme 2 a copy of the latest summary funding statement in respect of the scheme 3 confirmation as to whether the cetv provided reflects any underfunded position that the scheme has at present 4 confirmation as to whether a partial transfer option is available to the member and if so details of how that option can be applied specific 1 the scheme normal retirement age 2 the earliest age at which the member can become entitled to unreduced benefits 3 the earliest age at which benefits can be taken and any accrual reduction to the benefits that will be applied in such circumstances 4 the breakdown of the deferred pension entitlement at the date of leaving service between any gmp entitlement pre - and post - 1988 pre 06 04 1997 excess and post 05 04 1997 entitlement 5 the rates of revaluation of the pension in deferment including for any gmp entitlement where revaluation is on a limited revaluation basis the amount of the lrp and whether that is included in or is additional to the cetv you provide 6 the rates of escalation of the pension in payment and the measure of inflation rpi or cpi that is used within any increase measure 7 confirmation as to whether the member has any pre - a day protected tax - free cash entitlement within the deferred pension entitlement 8 confirmation of whether any tax - free cash entitlement is by commutation and is provided under post - a day maximum rules if not please specify the amount formula used in calculating the maximum tax - free cash available to the member 9 details of the cash commutation factors applicable at the scheme normal retirement age 10 details of any spouse civil partner death pre - retirement and post - retirement pensions that may be payable 11 details of any guaranteed period of payment for the members pension if death occurs in the guaranteed period is any lump sum payable 12 details of any lump sum payable in the event of the members death pre - retirement including details of any member contributions that may be included in such a payment and the current rate of interest if any that would be added to those contributions 13 for post 05 04 1997 benefits confirmation that the scheme is contracted out on a reference scheme basis or if not the split of the post 05 04 1997 transfer value between protected and non - protected rights 14 details of any option available to the member to defer taking benefits beyond the scheme normal retirement age and any revaluation factors that will apply to the pension entitlement post the scheme normal retirement age many thanks test ifa</t>
-  </si>
-  <si>
-    <t>change of name dear sir abc pension reference tst12345678 zz123123z i refer to a mail forwarded to your payroll department on 13th october on reflection i think this should have been sent to you i would like to confirm my change of name i married on 4th august 2020 and my new surname is abc i have advised hmrc and my details have been updated with them similarly my bank have been informed and my accounts have been amended from def to abc but the account number and sort code remain the same i attach a photocopy of my marriage certificate for your records should you require any further information please do not hesitate to contact me my phone numbers and email address remain the same yours faithfully mrs abc</t>
-  </si>
-  <si>
-    <t>loa - transfer value request importance : high dear test pensions please see attached letter of authority please can you provide the requested information including a transfer value and a transfer pack for a sipp please advise timescale for receiving this information many thanks and please let us know if you need anything further kind regards test ifa 10 test road test street aa12 123 email : test ifa fincorp com&lt;mailto : test ifa fincorp com phone mobile : + 91 012345678</t>
-  </si>
-  <si>
-    <t>pension summary hi i m in the test pensions scheme i ve logged into fin corp to have a look at my pension summary and it s only showing me my pension summary as at 01 jan 1400 is there a reason for this also i have tried to get an early retirement quote calculation but it has been unable to calculate my quote can you help national insurance number zz123123z regards abc xyz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fw : abc xyz secure internet mail importance : high advance portfolio : zz123123z your reference : tst12345678 our reference : zz123123z dear sir madam we have received your correspondence dated 11 11 20 i can confirm we are still outstanding the fin corp portal print mentioned below further to our request for an fin corp portal print for the above customer pension transfer i can confirm how you can obtain this please go to the website : www fincorp com within this you can navigate to get the pstr for the scheme that you are the administrator for when in the fin corp portal and on the screen which displays the pstr number but not the date - rather than click the green print text on the screen - click file and print and convert to adobe pdf this will produce a two page document with both the date and pstr number that satisfies the requirements kind regards abc xyz - - - - - original message - - - - - from : fin corp sent : 16 november 2020 12 : 59 to : test pensions pensions com subject : abc xyz secure internet mail advance portfolio : zz123123z your reference : tst12345678 good afternoon we have now received the money for the above clients pension transfer but have not yet received the payment confirmation letter we also require : - scheme name - scheme type if defined benefit please also confirm if there is gmp and we may also require confirmation that the transfer value for any post 1st january 1400 service has been calculated on an equalised basis - pstr number - fin corp print showing scheme name and pstr dated within the last 3 months if you have any questions please call us on + 91 012345678 we will be happy to help kind regards abc xyz fin corp 10 test road test street aa12 123 telephone + 91 012345678 we may record or monitor calls to improve our service </t>
-  </si>
-  <si>
-    <t>change of address abc - xyz trying to contact you regarding change of address and finding out the value of my pension my name is abc - xyz you will have me down at my previous address down as 20 test road test street ae12 123 my new address is 10 test road test street aa12 123 my date of birth is 01 01 1400 and my number is + 91 012345678 many thanks and hope to hear from you soon abc xyz</t>
-  </si>
-  <si>
-    <t>change of address good evening is it possible to change my contact address via email kind regards chacha salsa sent from my iphone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">outstanding money hello i have a letter dated months ago stating that the outstanding cash sum would be paid shortly but have had no reply to several emails please deal with it now </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> warning : message encrypted retirement options form - test pension scheme - tst12345678 message encrypted importance : high good evening please find attached a completed retirement options form for our mutual client to start his pension payments plus lump sum the password is his abc123 which i m hoping you can find out from the reference number quoted please let me know that you can access this form and whether you can accept it in the format or whether you need the original form posted to you many thanks kind regards abc xyz</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> warning : message encrypted abc xyz loa message encrypted hi team please see below query and reply accordingly thank you def - agent - customer support centre 10 test road test street aa12 123 + 91 012345678 from : test ifa fincorp com sent : 09 november 2020 10 : 29 to : test pensions pensions com subject : warning : message encrypted abc xyz loa message encrypted dear test pensions please find enclosed a letter of authority from the above client appointing def management ltd to receive policy information the password will follow under separate cover please provide your standard transfer out pack including cash equivalent transfer value and full scheme information please ensure this includes all the information we will require to understand and project the member s benefits and advise the member on all the options available as a guide the information you provide should cover all the items identified as required by the pensions administration standards association in their agreed pasa templates below : scheme information template&lt;https : www pasa - uk com wp - content uploads 2019 10 scheme - template - final pdf member information template&lt;https : www pasa - uk com wp - content uploads 2019 10 transfer - template - member - info - final pdf where the member is eligible to take benefits please provide an immediate retirement quote very important information required : - please confirm the accrual tranches within the pension and their subsequent revaluation and escalation rates what are the clients options with respect to late retirement what are the commutation factors from normal retirement age onwards what are the late retirement factors from nra onwards does the client have any gmp in addition please provide me with the following information relating to policies at your earliest convenience : 1 policy type 2 commencement date 3 contribution history since inception 4 inclusion of waiver of premium 5 plan status 6 current value and breakdown of value between funds 7 current fund s choice please quote mex sedol isin number for each fund attaching to the plan 8 if the policy can offer adviser charging 9 if the policy can offer ufpls 10 if the policy can offer flexible access drawdown 11 pension input periods on the policy 12 if with profits funds please enclose full details including the current asset allocation of the fund and the last 5 years bonus declaration history 13 details of other funds available to invest in and relevant codes 14 transfer value please advise any transfer penalties applicable and reason for any penalty 15 any former protected rights funds 16 pension commencement lump sum amount 17 any guarantees associated to the plan eg guaranteed annuity rates bonus rates guaranteed fund at scheme retirement date srd etc 18 if with profits - please confirm if any with profits spot guarantees apply and when 19 scheme retirement date srd of the plan 20 illustration of projected value at srd age xx 21 a paid up illustration at srd age xx if regular premiums are still being paid please supply a quote to srd age xx assuming the premiums continue 22 the death benefits should the member die before srd and any nominated beneficiaries 23 charges allocation rates on the plan 24 any protected tax free cash at a day if yes please send paperwork to quantify this also please confirm fund value at a day and tax free cash at a day 25 premium and sum assured of any associated pension term assurance value as at a - day 26 is there a pension sharing order or attachment to the benefits if plan is a sipp with a capped drawdown arrangement : - 27 maximum income available 28 review date s 29 any remaining pcls entitlement 30 income currently being taken 31 fee schedule relating to sipp if member has taken benefits : - 32 please confirm the value of the crystallised and uncrystallised portions 33 please also confirm the percentage of the lifetime allowance that has been crystallised within this scheme please send any necessary transfer out paper work and id requirements to be completed i look forward to hearing from you however if you have any queries please let me know as soon as possible yours faithfully test ifa</t>
-  </si>
-  <si>
-    <t>def group pension plan hi team please see below query and reply accordingly many thanks test pensions from : abc xyz testmail com sent : 18 november 2020 12 : 59 to : test pensions pensions com subject : fw : def group pension plan hi my full address is 10 test road test street aa12 123 abc xyz + 91 012345678 10 test road test street aa12 123 from : test pensions pensions com sent : 18 november 2020 12 : 54 to : abc xyz testmail com subject : def group pension plan dear mrs abc def group pension plan thank you for your email regarding the def group pension plan to enable us to answer your enquiry please could you provide your full address for data verification purposes should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 16 november 2020 08 : 33 to : test pensions pensions com subject : re : thank you for contacting the def group pension plan morning as indicated by the you email below please see the details requested full name abc xyz date of birth national insurance number i am wanting to know how i can get view me pension statement abc xyz + 91 012345678 10 test road test street aa12 123 from : test pensions pensions com sent : 16 november 2020 08 : 25 to : abc xyz testmail com subject : thank you for contacting the def group pension plan thank you for contacting the def group pension plan we confirm receipt of your enquiry and will aim to respond within 2 working days we are unable to deal with your request if you have not provided your full name date of birth and national insurance number if this is the case please re - send your original email including this information please note that if you have flagged your email as personal private or confidential it will be hidden from our view so please resend the message to us removing the flag before you send it why do we request this information so that we can ensure that we identify and respond to the correct person in accordance with data protection act regulations you may not wish to provide this information via e mail in which case we can deal with your enquiry via telephone or in writing please use either of these methods to contact us if this is the case we are unable to proceed with your enquiry via e mail without the information requested if you wish to change your address or bank account information def only accept signed written requests sent to our office regards test pensions</t>
-  </si>
-  <si>
-    <t>test pension fund def zz123123z hi team member name : def nino : zz123123z scheme name : test pension fund please create an admin bizflow job for the attached request from member s nok informing member death please verify the date of death and get back to us we have suspended members record regards test fund</t>
-  </si>
-  <si>
-    <t xml:space="preserve">re : fw : test pensions scheme hi you said someone would be intouch with me but no one has i have gave all information needed to get my pension paid out in full and yet nothing get someone to deal with this asap thanks abc from : test pensions pensions com sent : wednesday november 11 2020 3 : 05 : 16 am to : abc xyz testmail com subject : test pensions scheme dear mrs abc xyz test pensions formerly test pension fund thank you for your email regarding the test pensions i have checked our records and can confirm that the correspondence was issued to you on 1st january 1400 in relation to your query please note that you will receive it shortly should you have any further queries please do not hesitate to contact the customer support centre between 9 00am and 5 00pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 from : abc xyz abc xyz testmail com sent : 06 november 2020 23 : 16 to : test pensions subject : re : test pensions scheme i am just letting you know that now one has contacted me yet thanks abc xyz on 13 oct 2020 16 : 19 test pensions pensions com wrote : dear mrs abc xyz test pensions formerly test pension fund thank you for your email regarding the test pensions scheme i can confirm i have forwarded your email to our administration department and they will be in contact shortly should you have any further queries please do not hesitate to contact the customer support centre between 9 00am and 5 00pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely abc xyz administrator customer support centre test pensions 10 test road test street aa12 123 direct dial : + 91 012345678 from : abc xyz abc xyz testmail com sent : 09 october 2020 09 : 30 to : test pensions subject : my pension hi iam writing about my pension tst12345678 i wish to take my full pension out i need it to buy my house i have taken legal advice and i can do this i have spoken to a few other people too i need this as soon as possible i have tried contacting you by phone and apparently my call is not important but it is to me i do not want to lose the house i want abc xyz national insurance number zz123123z thank you abc xyz </t>
-  </si>
-  <si>
-    <t>mrs abc xyz tst12345678 zz123123z - query dear sirs re : mrs abc xyz tst12345678 zz123123z i write to you in reference to my benefits under the above scheme fin corp previously administered the plan and they mentioned in 2016 that i had protected tax - free cash of 1000 at a - day 6th april 2006 when the value was 100 90 now that you are the administrators please can you confirm if this is accurate and that on retirement i will receive the benefit of this assuming the calculation at that point results in an enhanced entitlement to tax free cash many thanks in advance abc xyz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">password reset hi team please assist with the following kind regards abc xyz administrator benpal helpdesk customer support centre fin corp ltd 10 test road test street aa12 123 t + 91 012345678 from : abc xyz &lt;abc xyz testmail com sent : 20 november 2020 18 : 42 to : fin corp support subject : password reset hi i tried a password reset earlier this evening i messed it up and tried again i guess i have upset the system as i m not receiving reset details now can you help regards abc xyz fin corp ltd </t>
-  </si>
-  <si>
-    <t>fw : address change - former employee def hi team please see below query and reply accordingly thank you test pensions from : testfund fincorp com sent : 16 november 2020 09 : 00 to : test pensions pensions com subject : address change - former employee def hi please note address change for abc below ni number zz123123z thank you kind regards test fund from : abc xyz testmail com sent : 13 november 2020 12 : 59 to : testfund fincorp com subject : address change - former employee def hi i used to work for def and left in 2007 i am m now coming up to retirement age and trying to sort out my pensions can i update my current address with yourselves i now live at : 10 test road test street aa12 123 thanks for your attention kind regards abc</t>
-  </si>
-  <si>
-    <t>re : test pension scheme address 10 test road test street aa12 123 on mon 23 nov 2020 05 : 07 &lt;test pensions pensions com wrote : dear abc xyz test pension scheme thank you for your email regarding the test pension scheme i can confirm that you are able to transfer either your defined benefits or defined contribution benefits subject to trustees consent in order to assist you further please could you provide your full address for data verification purposes should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at testscheme fincorp com &lt;mailto : testscheme fincorp com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 1237 direct dial : + 91 012345678 test pensions pensions com &lt;mailto : test pensions pensions com from : abc xyz mailto : abc xyz testmail com &lt;mailto : abc xyz testmail com sent : 19 november 2020 20 : 13 to : test pensions subject : ref tst12345678 hi i am writing to enquire whether there is an option to transfer my defined contribution and or my defined benefit rnib pension fund to a test pension scheme fund ie if i wanted to would i be allowed under this scheme abc xyz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xyz tst12345678 good afternoon thank you for your letter dated 29th october 2020 please find attached a revised letter of authority and request for information for your attention i look forward to hearing from you in due course yours sincerely test ifa 10 test road test street aa12 123 tel : + 91 012345678 </t>
-  </si>
-  <si>
-    <t>test pensions - abc xyz - 123456 caution : this email originates from a non - jaguarlandrover source do not click links or open attachments unless you recognise the sender and know the content is safe hi we have been advised by the above member that they have moved from 10 test road test street aa12 123 please could you confirm the new address from your records thanks jaguar pension plan</t>
-  </si>
-  <si>
-    <t>fw : tst12345678 thanks test pensions i have copied all the admin details on our data so someone from the team can look into this though looking at the file there does seem to be a few emails on the file to ifa so may just be a lack of clarity on what the hold up for mr abc is please can someone contact the client asap to nip this complaint in the bud thanks test fund - - - - - original message - - - - - from : test pensions pensions com sent : 01 december 2020 10 : 11 to : testfund pensions com subject : fw : tst12345678 hi test fund i am not sure if stu is around but please can you pass this on to the manager of mr abc scheme please i have issued an initial holding response as per the attached but this will need to be escalated accordingly thanks test pensions - - - - - original message - - - - - from : test pensions pensions com sent : 01 december 2020 10 : 04 to : abc xyz testmail com subject : re : tst12345678 good morning mr abc firstly please accept my apologies on behalf of xyz for the problems that you have been experiencing we take matters like this very seriously and i will do everything i can to assist you your email has come through to our specialist sipp and ssas team mailbox and we are unfortunately not the area that look after your pension scheme we also do not have access to the main pensions administration area records to enable me to search for your scheme and trace your policy however i have referred your email across to our complaints team and also to a senior manager in our main pensions administration area to enable them to trace your scheme and make contact with you regarding this they should be in touch with you shortly in the meantime i can also confirm that there is a customer service centre for our main pensions administration area which you can contact if you need to in the future by telephone on + 91 012345678 or by email to test pensions pensions com to help them to trace your scheme in the future you may need to quote the name of the scheme your policy reference number and your name and national insurance number i hope this is of assistance to you for the future and please rest assured that someone will be in touch with you shortly regarding your scheme kind regards test pensions - - - - - original message - - - - - from : abc xyz testmail com sent : 30 november 2020 14 : 30 to : test pensions pensions com subject : tst12345678 hi i ve sent the below message to the contact us page on your website someone needs to contact me or reply to test ifa with regards to transferring this pension to them you do not respond to me you do not respond to them nobody answers your phone this request was first made in september and will be sent to the ombudsman this week unless you actually reply to someone i will try here as well can someone respond to this before i m left no option but to go to the ombudsman from my point of view you have 20000 of my money you refuse to handover i consider that a form of theft i know someone looks at this as i ve been sent three useless letters in the post that achieve nothing you need to reply to test ifa when they contact you i thought def had the worst customer service ever but at least they eventually respond this is just corporate stonewalling have you tried using your service it s pathetic thanks abc</t>
-  </si>
-  <si>
-    <t>abc xyzz importance : high hi are partial transfers allowed on the attached policy many thanks test ifa research analyst 10 test road test street aa12 123 tel : + 91 012345678</t>
-  </si>
-  <si>
-    <t>abc xyz - tst12345678 good afternoon thank you for the recent information regarding mr abc s scheme you have provided additional early retirement factors letter dated 4 november however these factors are different from the factors you provided in your letter dated 12 october can you please clarify that the erf if mr abc retired at age 60 would be 0 68 i also previously asked if pre 97 excess transfer in 1000 can you please confirm if this increases in deferment and in payment i look forward to hearing from you thanks abc kind regards abc xyz paraplanner fin corp ltd</t>
-  </si>
-  <si>
-    <t>abc - zz123123z hello further to my previous email please now find attached correspondence from the receiving scheme test pensions i trust this is satisfactory and meets your requirements to proceed with the transfer it would be most appreciated if you could give me an indication of when we can expect the transfer to be paid to def i look forward to hearing from you kind regards test ifa from : test ifa fincorp com sent : 11 november 2020 16 : 36 to : testfund fincorp com cc : test pensions pensions com subject : abc - zz123123z hello please find attached a duly completed transfer discharge form and a letter confirming that the above member has received financial advice in relation to transferring his benefits away from the test pension scheme the receiving scheme warranty form and any other required documents will follow shortly i trust this is satisfactory and look forward to receiving confirmation that the guaranteed cetv which expires on 31 12 2020 is now secured kind regards test ifa</t>
-  </si>
-  <si>
-    <t>pension details hi team please assist with the following kind regards abc xyz administrator benpal helpdesk customer support centre fin corp ltd 10 test road test street aa12 123 t + 91 012345678 from : abc xyz &lt;abc xyz testmail com sent : 20 november 2020 14 : 15 to : fin corp support &lt;fin corp testmail com subject : fw : pension details from : abc xyz sent : friday november 20 2020 2 : 15 pm to : fin corp testmail com &lt;mailto : fin corp testmail com subject : pension details hi i have never been provided a log in or password for my pension scheme can this be sent over asap please abc xyz 10 test road test street aa12 123 regards</t>
-  </si>
-  <si>
-    <t>request for pension details abc - ref : tst12345678 hi team please see below query and reply accordingly thank you test pensions from : test ifa fincorp com sent : 06 november 2020 16 : 15 to : test pensions pensions com subject : request for pension details abc - ref : tst12345678 to whom this may concern please find attached a letter of authority for client abc in relation to their policies plans held with you i have attached a standard schedule setting out the information we require in connection with any policies held by the client with yourselves along with a full information questionnaire if you so wish to use if you could please fully answer all questions and return the schedule by email or post as soon as possible it would be very much appreciated if there are any additional features of the scheme that are relevant to any decision that might be made by our client to exercise any options under the scheme which are not covered in this schedule please ensure that the relevant information is provided we would like to draw your attention to the fact that where the member is entitled to draw immediate retirement benefits we have asked you to provide a quotation for this in addition to the transfer data please also provide all relevant discharge transfer and open market option documents for any options involving immediate retirement or transfer if you anticipate that there will be a significant delay in providing all or any of the information requested please contact us immediately to indicate when the details will be supplied kind regards def</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pre - identified user support request reply email address : testfund fincorp com forename : abc surname : xyz ni number : zz123123z dob : 01 january 1400 home postcode : aa12 123 employer : test pensions subject : pension transfer content : if i wanted a guaranteed transfer value how long would it take how long would it be valid for and what is the cost after the initial free quote thanks test pensions</t>
-  </si>
-  <si>
-    <t>def pension d o b 01 01 1400 national insurance number zz123123z hi team please see below query and reply accordingly thank you test pensions from : abc xyz testmail com sent : 08 november 2020 19 : 05 to : test pensions pensions com subject : def pension d o b 01 01 1400 national insurance number zz123123z please find attached confirmation of change of bank details as requested regards abc on wed 28 oct 2020 19 : 42 &lt;test pensions pensions com wrote : dear abc def group pension plan thank you for your email regarding the def group pension plan your request has been logged for change of address and you will receive a written response from our administration department within 10 - 15 working days also i can confirm that due to data protection requirements we cannot update our records without a signed letter on file i have attached a change of bank details form for you to fill and scan back to us in order to update our records should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 26 october 2020 14 : 31 to : test pensions pensions com subject : def pension - dob - national insurance number to whom it may concern i am writing to inform you that i am now on a full time course at university course details attached and i am currently living in xyz proof of booked accommodation attached the address is : - i have also attached a copy of my student id which tells you the length of my course my bank details for payment are : - barclays bank payments were previously sent to my mum bank account but no payment has been received since august my mum address my previous address is : - i would appreciate it if you could please email confirmation that my payments will re - commence regards abc</t>
-  </si>
-  <si>
-    <t>re : test pension fund thanks for getting back to me my address is 10 test road test street aa12 123 date of birth is 1st january 1400 and national insurance number is zz123123z regards abc xyz on 21 nov 2020 03 : 29 test pensions pensions com &lt;mailto : test pensions pensions com wrote : dear abc xyz test pension fund thank you for your email regarding the test pension fund please accept our apologies for the delay in responding to you to enable us to answer your enquiry please could you provide your full address date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com &lt;mailto : test pensions pensions com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 from : abc xyz &lt;abc xyz testmail com sent : 14 november 2020 22 : 28 to : test pensions subject : logging in to manage my benefits my name is abc xyz based in test locatyion my fin is 123456 and am a driver specialist in fin corp ltd i would to be able to access and manage my pension benefits online i know i received a letter way back in 1400 to activate my account i cant remember if i did if i did i have completely forgotten my log in details please could you assist thank you regards abc xyz 12345678</t>
-  </si>
-  <si>
-    <t>re : pension transfer out good afternoon abc xyz 10 test road test street aa12 123 dob 01 01 1400 zz123123z tst12345678 i am planning to transfer my pension out of the scheme i have been informed that i need to inform you how do i do this abc from : abc xyz testmail com&lt;mailto : abc xyz testmail com sent : 12 november 2020 14 : 05 to : test pensions pensions com subject : pension good afternoon i am planning to transfer my pension out of the scheme i have been informed that i need to inform you how do i do this abc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">password dear sir madam i am looking to access my ford pension benefits as i am looking to retire in 2021 would it be possible for you to send me a new activation code as the last one has expired incidentally i could not access my account orignially as the activation code would not be recognised kind regards mr abc xyz </t>
-  </si>
-  <si>
-    <t>test pension scheme message encrypted message encrypted hi team please see below query and reply accordingly many thanks def 10 test road test street aa12 123 direct dial : + 91 012345678 test pensions pensions com&lt;mailto : test pensions pensions com from : abc xyz testmail com sent : 09 november 2020 08 : 46 to : test pensions pensions com&lt;mailto : test pensions pensions com cc : xyz abc testmail com subject : warning : message encrypted fw : test pension scheme message encrypted message encrypted many thanks def from : test pensions pensions com&lt;mailto : test pensions pensions com sent : 05 november 2020 15 : 59 to : abc xyz testmail com cc : xyz abc testmail com subject : re : test pension scheme message encrypted good afternoon abc sorry for the delay in providing this we have obtained the current avc value from standard life and updated your pack for the revised guarantee date please find this attached protected with your national insurance number if you require anything else please let me know kind regards def def 10 test road test street aa12 123 p : + 91 012345678 test pensions pensions com&lt;mailto : test pensions pensions com from : abc xyz testmail com sent : 05 november 2020 11 : 23 to : test pensions pensions com&lt;mailto : test pensions pensions com cc : def subject : re : test pension scheme good morning def i still haven t received any updated documentation on the valuation to include avc s and the amended guaranteed date please can you advise if there s an eta on when i can expect this many thanks abc from : test pensions pensions com&lt;mailto : test pensions pensions com sent : 27 october 2020 10 : 07 to : abc xyz testmail com subject : test pension scheme dear abc thank you for your email i can confirm i have forwarded your email to our administration department and they will be in contact shortly should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com&lt;mailto : test pensions pensions com yours sincerely def 10 test road test street aa12 123direct dial : + 91 012345678 test pensions pensions com&lt;mailto : test pensions pensions com from : abc xyz testmail com sent : 23 october 2020 10 : 01 to : test pensions pensions com&lt;mailto : test pensions pensions com cc : mno uvw testmail com subject : re : test pension scheme good morning def many thanks for the update the actual letter that i received didn t mention that though i look forward to seeing the updated version soon many thanks abc from : test pensions pensions com&lt;mailto : test pensions pensions com sent : 22 october 2020 21 : 03 to : abc xyz testmail com cc : mno uvw testmail com subject : re : test pension scheme hi abc apologies i think this will be the hard copy letter of the quotation i issued via email on friday last week i have asked the team to update the pack with the updated guarantee date and avc value when they receive this i ve also asked for a copy so i can send on via email kind regards def 10 test road test street aa12 123 from : abc xyz testmail com sent : 22 october 2020 09 : 55 to : test pensions pensions com&lt;mailto : test pensions pensions com cc : abc mno testmail com subject : re : test pension scheme good morning def i have received the correspondence but there are 2 things that don t seem quite right with it : - 1 the valuation hasn t had any additional avc s added to it please see the attached email from def 2 the expiry date of the valuation hasn t been extended again please see the attached email from def please can you clarify many thanks abc from : test pensions pensions com&lt;mailto : test pensions pensions com sent : 21 october 2020 18 : 16 to : abc xyz testmail com subject : test pension scheme dear abc thank you for your email i have checked our records and can confirm that the correspondence was issued to you on 16th october 2020 in relation to your query please note that you will receive it shortly should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com&lt;mailto : test pensions pensions com yours sincerely def 10 test road test street aa12 123 direct dial : + 91 012345678 test pensions pensions com&lt;mailto : test pensions pensions com from : abc xyz testmail com sent : 15 october 2020 12 : 09 to : test pensions pensions com&lt;mailto : test pensions pensions com subject : re : test pension scheme good afternoon def is there an eta as to when i can expect this transfer value quotation please many thanks abc from : test pensions pensions com&lt;mailto : test pensions pensions com sent : 01 october 2020 12 : 33 to : abc xyz testmail com subject : test pension scheme dear abc thank you for your email i have checked our records and confirm that the transfer value has been referred to the scheme actuary for review as a result we are unable to provide a transfer value quotation until we have received confirmation to issue as soon as we have had this confirmation the transfer value quotation will be sent to you should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com&lt;mailto : test pensions pensions com yours sincerely def admin csc 10 test road test street aa12 123 direct dial : + 91 012345678 test pensions pensions com&lt;mailto : test pensions pensions com from : abc xyz testmail com sent : 30 september 2020 12 : 05 to : pensions subject : re : pension query good afternoon def i just wanted to check in to ensure that the money transfer was received and that the transfer value quotation is in process kindly advise many thanks abc from : test pensions pensions com&lt;mailto : test pensions pensions com sent : 24 september 2020 05 : 05 to : abc xyz testmail com subject : pension query dear abc thank you for your email i can confirm i have forwarded your email to our administration department to process as requested and they will be in contact shortly should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com&lt;mailto : test pensions pensions com yours sincerely abc admin csc 10 test road test street aa12 123 direct dial : + 91 012345678 test pensions pensions com&lt;mailto : test pensions pensions com from : abc xyz mailto : abc xyz testmail com&lt;mailto : frank l graham bacb co uk sent : 22 september 2020 20 : 19 to : test bank ltd cc : xyz abc testmail com subject : tst12345678 good afternoon i refer to your letter dated 16th september please be advised that i have just paid the 432 00 in regard of requesting another transfer value quotation receipt below : - as requested i m providing my full name national insurance number the scheme name and reference number in this email below : - abc xyz national insurance nbr : scheme name : test pension scheme scheme reference number : tst12345678 please can you confirm receipt of funds and this email many thanks best regards abc</t>
-  </si>
-  <si>
-    <t>re : test pension scheme - late mrs abc xyz sorry forgot to add into my last email yes the death has been registered on 1 january i am still waiting for certificate to arrive in post could not collect because of covid thanks abc xyz sent from my iphone on 23 nov 2020 at 03 : 36 &lt;test pensions pensions com &lt;test pensions pensions com wrote : dear abc xyz test pension scheme thank you for your email regarding the test pension scheme please accept my sincerest condolences for your loss in order to assist us could you please provide us with the following details : date of death : member s address at date of death : has the death been registered and death certificate issued : did the member have any financial dependents address for condolence : also please reconfirm member s national insurance number contact number should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely abc xyz administrator customer support centre test pensions 10 test road test street aa12 123 direct dial : + 91 012345678 fin corp testmail com &lt;mailto : fin corp testmail com - - - - - original message - - - - - from : abc xyz&lt;abc xyz testmail com sent : 22 november 2020 17 : 13 to : test pension scheme subject : re : tst12345678 hello re the below email sent on behalf of my mother abc xyz deceased information needed national insurance number date of birth many thanks abc xyz daughter sent from my iphone on 19 nov 2020 at 10 : 56 susan evans &lt; abc xyz testmail com wrote : hello re the above pension plan for mrs abc xyz i would just like to inform you that my mother passed away on 1st january 2020 could you please cancel any further payments made that my mother won t be entitled to any problems please advise and i ll try my best to assist you kind regards abc xyz deceased s daughter sent from my iphone</t>
-  </si>
-  <si>
-    <t>moving my pension pot from test and leaving final salary scheme good morning i am looking to retire shortly and i want to cancel my membership from the test final salary scheme and move my pension pot to a private scheme where i can draw down from it i would be happy to take advice from yourselves as potential future managers of the pot my payroll number is tst12345678 name abc xyz 10 test road test street aa12 123 regards abc</t>
-  </si>
-  <si>
-    <t>re : test trust pension plan hi it is now 15 working days since you sent this email so this is a polite chasing email when can i expect a response regards abc on tue 27 oct 2020 at 12 : 25 &lt;test pensions pensions com wrote : dear abc test trust pension plan thank you for your email regarding the test pension plan your request has been logged and you will receive a written response from our administration department within 10 - 15 working days if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 23 october 2020 17 : 01 to : test pensions pensions com subject : pension forecast dear sir madam ref tst12345678 you were kind enough to send me a forecast on the 01 01 1400 of my pension at the normal retirement date - 01 01 1400 i was wondering whether you could also send me indicative forecasts for different dates of retirement namely : - age 58 - 01 01 1400 age 59 - 01 01 1400 age 61 - 01 01 1400 so that i can examine the costs of taking it early and the potential benefit for delaying it by 1 year also if you felt that the figure indicated in the may letter had changed for the projection for my normal retirement date of 01 01 1400 had altered please update it kind regards abc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">addtional information i just send an email however it appears you need additional information my date of birth is 1st jan 1400 and my ni is zz123123z full name is abc xyz your ref tst12345678 xyz s dear sir madam i received a letter from your good selves stating that if i need another transfer value then i would need to pay an additional 250 pounds + vat the first transfer request was to a company based in dubai who are shady i done my due diligence and checked them out after the transfer request was made i realize you are a business and need to make money however would you consider reducing the fee amount for an additional transfer request i have found a legitimate uk based company who can deal with me could you help me out by reducing the fee to around 200 i am not a wealthy man and i have been affected financially by the pandemic any help would be appreciated regards abc xyz - - </t>
-  </si>
-  <si>
-    <t>change of address - mrs abc i am writing to advise you that i have recently moved house and my new address is : 2 test road test street ee12 123 i am not sure if you have my last address listed as : 10 test road test street aa12 123 if not then i it will be : 2 test road test street ee12 123 should you need any further information then please contact me on + 91 012345678 kind regards abc</t>
-  </si>
-  <si>
-    <t>our reference 123456 good afternoon i write with regards to the transfer of the above members plan to the test ifa before this transfer can take place we require further information regarding the members plan held with yourselves in order to complete our due diligence checks as such i would be grateful if you could confirm the following as appropriate : is the plan a defined contribution money purchase scheme if so is there a link to a defined benefit plan can this fund the main scheme tax free cash is there a defined benefit underpin if so what would be the value does the plan have any potential guarantees i e gmp 92b reference scheme test benefits if so what is the value of these do you require a wet signature on the forms or can you accept copies we would also be grateful if you could confirm to what extent the above answers apply to all members of this scheme who may wish to transfer providing this information will ensure we are able to minimise the contact we generate with you and do not contact you unnecessarily with future queries finally if you could provide the optimal contact details for contact via post email and telephone this will ensure work is not duplicated needlessly as it was not originally provided to the most appropriate place please note for your convenience i have attached a copy of the client s signed authority; the original has been sent to you in the post the password for the attached will follow separately thank you in advance kind regards def def test ifa test pensions pensions com + 91 012345678 10 test road test street aa12 123</t>
-  </si>
-  <si>
-    <t>test salaried contributory pension fund - mr abc xyz good morning do you have an update on the below please kind regards test ifa adviser support test ifa 10 test road test street aa12 123 tel : + 91 012345678 email : test ifa fincorp com dear test ifa test salaried contributory pension fund thank you for your email regarding the test salaried contributory pension fund i can confirm i have forwarded your email to our administration department and they will be in contact shortly if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : test ifa fincorp com sent : 28 october 2020 14 : 15 to : test pensions pensions com subject : re : test salaried contributory pension fund - mr abc xyz good morning thank you for confirming the below do you have any timescale for when the leaver notification will be processed and when we the client can expect to receive the transfer pack kind regards test ifa from : test pensions pensions com sent : 28 october 2020 08 : 37 to : test ifa fincorp com subject : test salaried contributory pension fund - mr abc xyz this message originated outside your organization dear test ifa test salaried contributory pension fund thank you for your email regarding the test salaried contributory pension fund please accept our sincerest apologies for the delay in responding to you please note that we have received member s leaver notification which is under review once this process is complete we will provide you with the requested transfer pack please be advised that as member is an still active employee of the test motor company all requests for retirement figures must be made through your hr representative please contact hr department for further information if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : test ifa fincorp com sent : 21 october 2020 15 : 53 to : test pensions pensions com subject : test salaried contributory pension fund - mr abc xyz dear sir madam re : i attach a signed letter of authority password protected with the member s dob : dd mm yyyy i would ask you to supply a scheme benefit leaver s statement together with confirmation of the following : current transfer value very important immediate retirement quote and quote at normal retirement age very important gmp pre and post 97 benefits - breakdowns and amounts inc s9 2b does gmp franking apply total pension at a day revaluation and escalation rates of the scheme - very important please specify rpi cpi etc plus min and max levels service dates and salary levels at date of leaving confirmation of tax - free cash details of the commutation factor for tax - free cash widows and lump - sum death benefits guarantee period in years whether any in house avc is included and is so whether the easement introduced by a day on 6th april 2006 a higher proportion than 25 of the tfc may be commuted depending on main scheme benefits details of early and late retirement factors age at which member is entitled to an unreduced pension commutation factor applicable for early retirement if pre a day max tfc is there a money purchase underpin is the scheme contracted out scheme funding status overall funding position scheme open or closed if closed please specify date transfer forms if you have any questions concerning the above please do not hesitate to call me on the number at the bottom of this letter sincerely test ifa adviser support test ifa 10 test road test street aa12 123 tel : + 91 012345678 email : test ifa fincorp com</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pre - identified user support request reply email address : abc xyz testmail com forename : abc surname : xyz ni number : zz123123z dob : 01 jan 1400 home postcode : aa12 123 employer : test pensions subject : change to contributions content : hello i was wondering how i go about making a change to my plan for example upping my monthly contribution or changing to a plan that allows for a lump sum etc can i do this with you or do i need to go through my own payroll kind regards abc xyz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">transfer request abc xyz our ref 0124 - your ref tst12345678 good afternoon the attached transfer request was sent to you on 27 10 could you please acknowledge receipt and advise of a timescale to process our request many thanks </t>
-  </si>
-  <si>
-    <t>letter of authority - client abcd good afternoon please find attached a letter of authority and information request for our client abcd please send all correspondence to this email where possible kind regards test ifa</t>
-  </si>
-  <si>
-    <t>urgent confirmation required - payment received 20 november 2020 test pensions pensions com &lt;mailto : test pensions pensions com dear sirs re : pension information request transfer value confirmation client name : abc xyz your reference : zz123123z our reference : aa11 - aa11 - aa11 - aa11 following request for pension transfer on behalf of the above - named client we can now confirm receipt of the transfer value of 1000 on the 17th november 2020 our records show we are still not in receipt of the final transfer confirmation schedule from your scheme as mentioned in our previous correspondence to you we are unable to accept and correctly apply funds transferred without relevant pension information from your scheme kindly provide the following information as a matter of urgency : 1 confirmation of the total transfer value including a split between uncrystallised and crystallised funds 2 where funds are crystallised details of the following items for each crystallised pot where applicable 2 1 fund value 2 2 capped or flexible drawdown status 2 3 date of bces including amount of pcls paid amount crystallised and percentage lta used at each bce 2 4 maximum income entitlement and whether this amount is calculated on 100 ; 120 or 150 of the basis amount 2 5 date of last formal review and date of next formal review 2 6 amount of income taken in current pension year 3 details of any of the following items 3 1 any form of lta or lump sum protection 3 2 pension credit rights 3 3 death benefit entitlement 3 4 pension sharing ear marking other court orders 4 where applicable whether the scheme contains avcs fsavcs scheme commutation factor and gmp equalisation information 5 any additional information that would assist us apply funds correctly under our scheme please note that we are only able to hold on to the transfer value received for awhile and would process return of funds to your scheme if we are not in receipt of the above information in a few weeks we can accept the information via email in the first instance and the original copy by post : we look forward to receiving the information requested as soon as possible if there are any points of clarification you require in respect of the request please do not hesitate to contact us yours faithfully test pension confirmations team tel : + 91 012345678</t>
-  </si>
-  <si>
-    <t>re : test salaried contributory pension fund address on file : 10 test road test street aa12 123 new address 102 test road test street ea12 123 thanks and regards abc - - - - - - - - original message - - - - - - - - from : test pensions pensions com date : 17 11 20 4 : 37 pm gmt + 10 : 00 to : abc xyz testmail com subject : test salaried contributory pension fund dear test pensions test salaried contributory pension fund thank you for your email regarding the test salaried contributory pension fund please accept our sincerest apologies for the delay in responding to you to enable us to answer your enquiry please could you provide your full address for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 10 november 2020 13 : 24 to : test pensions pensions com subject : current proof of pension importance : high test scheme number dear sir or madam i have been asked for proof of my current test pension payments the financial institution i am dealing with will not accept documents older than two months and the most recent i have are from january 2018 they will accept proof in the form of an email attachment hopefully this is something you can respond to quickly further to this i am still waiting for a reply to my email of 6th november where i asked for clarification on an overpayment into my account best regards abc</t>
-  </si>
-  <si>
-    <t>re : ghij paid pension fund good afternoon the below was acknowledged with thanks on thu nov 19 2020 6 : 13 am test pensions pensions com wrote : dear mrs abc ghij paid pension fund thank you for your email regarding the ghij paid pension fund please accept our apologies for the delay in responding to you i have checked the record and i can confirm that we have updated your address and a correspondence was also issued to you on 17th november 2020 stating the same we have informed payroll team to reinstate your pension payment if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 11 november 2020 13 : 57 to : test pensions pensions com subject : re : ghij paid pension fund good afternoon i have been trying to contact your offices by phone but whenever i did today the phone call was disconnected the rep i spoke seemed to have sighed then disconnected the interaction i have been trying to resolve this matter for two months now i have signed your form and returned same to you via express mail i have tried calling to update my address and i have verified myself a 1000 times over in light of the pandemic i rely heavily on my pension and it was unfortunate that same was discontinued without proper notice your agents appear to be very rude to me whenever i call and when the call is dropped no one calls me back i had moved from my previous location and called earlier on to advise you of same i was assured my address was updated kindly provide an update on the receipt of the verification form and more importantly advise me on when payments can continue my nino is dob my address is my contact is + 91 012345678 warm regards abc xyz on fri oct 16 2020 at 4 : 46 am test pensions pensions com&lt;mailto : test pensions pensions com wrote : dear abc ghij paid pension fund thank you for your email regarding the ghij paid pension fund i can confirm that your current address is not updated in our records in order to update your address please arrange for the attached verification form to be completed and returned via post to the address detailed below test post handling centre 10 test road test street aa12 123 once your address is updated we will proceed with your request also please could you provide your date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 14 october 2020 16 : 47 to : test pensions pensions com subject : re : ghij paid pension fund : member number good morning my national insurance number is normally by this time i would received 45 pounds paid out by the 6th of the month and received by the 12th however my local bank has not yet received same kindly confirm if it was sent warmest regards abc xyz</t>
-  </si>
-  <si>
-    <t>re : pension triggered but no payment on wed 2 dec 2020 at 09 : 55 abc xyz&lt;abc xyz testmail com wrote : dear sir madam i duly completed the required pension application form and submitted it within the specified time frame earlier this year i know that it was received as i made a later enquiry regarding lifetime allowance prior to the switch from fin corp ltd to test pensions unfortunately i have not received any pension payments nor the lump sum or any feedback i recently reached my sixtieth year the trigger point i opted for please would you investigate as to what went wrong yours faithfully abc xyz dob : 01 01 1400 ni : zz123123z 10 test road test street aa12 123</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pre - identified user support request reply email address : test pensions pensions com forename : abc xyz surname : def ni number : zz123123z dob : 01 jan 1400 home postcode : aa12 123 employer : fin corp ltd subject : question re my test pension and the lifetimes allowance content : i am 55 in 1400 and i am now looking to start considering my pension retirement options i have a sipp with over 100 000 in it so looking ahead i am conscious that over the next few years i may come close to the lifetime allowance when i also consider the value of my test pension my understanding is that to work out the amount of my test pension within the lifetime allowance i multiply the annual pension payment by 20 is it possible to tell me what my pension is for lifetimes allowance calculation at 55 amd 60 much appreciated</t>
-  </si>
-  <si>
-    <t>re : def pension fund i still haven t received the reset password email from : test pensions pensions com sent : 19 november 2020 07 : 27 to : abc xyz testmail com subject : def pension fund dear mr abc def pension fund thank you for your email regarding the def pension fund please accept our apologies for the delay in responding to you i can confirm your username for test is : xxx an email containing a password reset link has been sent to your abc xyz testmail com&lt;mailto : abc xyz testmail com email address and you will receive this within the next 30 minutes this will only be active for 24 hours if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com did you know that member s can access and manage their pension online by logging into their test account yours sincerely test pensions from : abc xyz testmail com sent : 11 november 2020 06 : 20 to : test pensions pensions com subject : re : def pension fund hi i didn t receive any reset email from : test pensions pensions com sent : 10 november 2020 14 : 57 to : abc xyz testmail com subject : def pension fund dear mr goth def pension fund thank you for your email regarding the def pension fund i can confirm your username for test is : xxx an email containing a password reset link has been sent to your abc xyz testmail com&lt;mailto : abc xyz testmail com email address and you will receive this within the next 30 minutes this will only be active for 24 hours also your address is updated in our records if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com did you know that member s can access and manage their pension online by logging into their test account yours sincerely test pensions from : abc xyz testmail com sent : 06 november 2020 12 : 59 to : test pensions pensions com subject : change of address and access to account dear sirs i have changed address and cannot get into my account have tried several times please can someone help and advise my national insurance number is my date of birth is regards abc</t>
-  </si>
-  <si>
-    <t>abc ref tst12345678 for the attention of test pensions dear test pensions i refer to your letter of 16th october to my client abc in relation to his deferred pension benefits in the test pension scheme abc had requested a cetv back in august but did not received anything until late october after he had chased up several times the cetv was resent with your letter but still retained the original guarantee date of 21st november ; abc called to query this and was advised that he could have a 10 day extension ie 1st december abc wishes to proceed with the transfer and i now attach the signed discharge form which will hopefully secure the transfer value - we will forward all the supporting documentation as soon as possible i would mention that unfortunately abc suffered a heart attack in april and is back in hospital today for another angiogram so we hope that there are no issues which will cause any unnecessary stress i appreciate your assistance regards test ifa</t>
-  </si>
-  <si>
-    <t>mr abc xyz test zz123123z importance : high dear sirs thank you for your letter dated 3 11 2020 can you please provide us with an immediate retirement pack assuming client retires now please email it to us asap as the deadline of 30 11 is fast approaching and need to conclude the advice within a 3 week period thanks with warm regards test ifa</t>
-  </si>
-  <si>
-    <t>change of address - abc dear sir madam please be advised that on 3rd december 2020 i will be moving from 2 test road test street aa20 123 to 10 test road test street aa12 123 regards abc date of birth - 01 january 1400 national insurance no zz123123z references taken from letter about 2020 increase - your ref : tst12345678 my ref : 000000000000000000 my contact tel : + 91 012345678</t>
-  </si>
-  <si>
-    <t>abcd zz123123z importance : high good morning we have recently received a new cetv pack however we need the following confirmed due to conflicting information we have two different commutation factors for age 65 please could you confirm what is the correct factor to use please could this be looked into urgently thank you abcd</t>
-  </si>
-  <si>
-    <t>test pension scheme - mrs abc importance : high hi team please see below query and reply accordingly thank you test pensions from : test ifa fincorp com sent : 06 november 2020 17 : 58 to : test pensions pensions com subject : test pension scheme - mrs abc importance : high dear test pensions i confirm receipt of your letter dated 22 october 2020 providing us with a cetv this information did not contain a basis pension information including : date of joining scheme date of leaving scheme breakdown of the pension payable as revalued to now revaluation increases pre and post retirement please could you also confirm whether you accept pension credit to be received from mrs hall s spouse by way of a pension sharing order given that the above information is generally provided in a basis cetv report and that my request for a cetv was registered on 24 july 2020 i should be most grateful if you could provide me with a response at your earliest convenience kind regards def from : test pensions pensions com sent : 25 september 2020 13 : 11 to : test ifa fincorp com subject : test pension scheme - mrs abc dear def thank you for your email i have checked the records and can confirm that our administration department are working on your requests and they will issue the correspondence to you as soon as possible should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely test pensions from : test ifa fincorp com sent : 23 september 2020 10 : 35 to : test pensions pensions com subject : test pension scheme - mrs abc dear sir madam on the 1st september 2020 i called and spoke to one of your representatives called david who advised that we should receive the cetv for divorce purpose in 10 - 15 working days this time period has now elapsed and we have not received anything i should be grateful if you could provide me with an update as to when i am likely to receive this information i would apricate if someone could respond to be as soon as possible given that callers are unable to get an update over the phone kind regards def from : test pensions pensions com sent : 31 july 2020 12 : 38 to : test ifa fincorp com&lt;mailto : test ifa fincorp com subject : test pension scheme - mrs abc dear def thank you for your email your request has been logged and you will receive a written response from our administration department within 10 - 15 working days should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely test pensions from : test ifa fincorp com sent : 24 july 2020 17 : 19 to : test pensions pensions com subject : test pension scheme - mrs abc dear test pensions yes please log a job now for the calculation of a cetv for divorce purposes and let me know the current turn - around time i am likely to receive this i understand this will be free however please let me know if this is not the case kind regards def from : test pensions pensions com sent : 24 july 2020 14 : 52 to : test ifa fincorp com subject : test pension scheme - mrs abc dear def thank you for your email please accept our apologies for the delay in responding to you as the initial email states that you do not require transfer value hence the request is not booked however please confirm is the cetv required for transfer or divorce purpose should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com&lt;mailto : test pensions pensions com yours sincerely test pensions from : test ifa fincorp com sent : 15 july 2020 17 : 30 to : test pensions pensions com subject : re : test pension scheme - mrs abc dear test pensions further to your email below i should be grateful if you could provide us with an updated cetv of mrs abc s benefits held in the test pension scheme we note that the previous calculation was produced on 10 july 2019 and therefore i understand that this cetv should be free of charge please advise if this is not the case we would be grateful if you could also advise the current turn - around time for producing a cetv should you have any queries in the meantime please do not hesitate to contact us kind regards def from : test pensions pensions com sent : 09 july 2020 05 : 07 to : test ifa fincorp com subject : test pension scheme - mrs abc dear test pensions thank you for your email and please accept our sincerest apologies for the delay in responding to you your request has been logged and you will receive a written response from our administration department within 10 - 15 working days should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com&lt;mailto : test pensions pensions com yours sincerely test pensions from : test ifa fincorp com sent : 24 june 2020 16 : 23 to : test pensions pensions com subject : warning : message encrypted tst12345678 - letter of authority queries wxyz00 message encrypted dear sir madam policyholder : mrs abc policy number : tst12345678 please find attached a letter of authority in respect of the above policy the attachment has been password protected using the policyholder s date of birth in the format ddmmyyyy please confirm that our authority has been recorded to this policy we would be grateful if you could provide the following information : - 1 full details of benefits payable including copy of most recent annual benefit statement or deferred benefit statement 2 copy of the scheme booklet relevant to the membership category 3 options for pension credit members and schedule of charges for implementing pension sharing orders please note we do not require a current cash equivalent transfer value cetv at this time please send all information by email to def email : test ifa fincorp com&lt;mailto : test ifa fincorp com if information may only be sent by fax or post please mark this for the attention def we look forward to hearing from you kind regards def</t>
-  </si>
-  <si>
-    <t>re : change of bank for pension payment completed form attached as requested will you please confirm when actioned many thanks on tue 17 nov 2020 at 10 : 30 test pensions pensions com wrote : dear abc def retirement and employee scheme thank you for your email regarding the def retirement and employee scheme i have attached a change of bank details form for you to print and complete as appropriate you should return the form either via a scanned attachment in your email alternatively you can return the form to our postal address : test scheme post handling centre 10 test road test street aa12 123 please do not close your old bank account until you have received the first payment in your new account should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 13 november 2020 16 : 23 to : test pensions pensions com subject : fwd : change of bank for pension payment having now read your auto response to my email this is the extra information you require many thanks abc - - - - - - - - - - forwarded message - - - - - - - - - from : abc xyz testmail com date : fri 13 nov 2020 at 10 : 32 subject : change of bank for pension payment to : test pensions pensions com i wish to change the bank into which my dress pension is paid currently it is xx and from the november payment would you please pay it into the following please contact me by this email or by phone + 91 012345678 if you wish to ask any security questions also importantly please advise me if this switch will not be completed prior to the november payment which is due on november 26th as i have internal transfers to do once it is completed many thanks abc</t>
-  </si>
-  <si>
-    <t>question about my pension after death good morning i have a question regarding my pension after my death i understand my wife who is a beneficiary will get a lump sum but what about the pension it self would my wife get a weekly monthly percentage of my pension or just receive the lump sum many thanks abc xyz</t>
-  </si>
-  <si>
-    <t>death in retirement hi can you help my father abc xyz is a retired employee of fin corp he retired approximately 30 years ago and is a member of the test pension plan dob 01 01 1400 ni no zz123123z paye ref tst12345678 pension payroll no tst12345678 address : 10 test road test street aa12 123 he is now 89 years of age and sadly in hospital receiving palliative care and is not expected to survive more than a few days who do i need to inform after he dies and as he will be survived by his wife will she be eligible for any benefit after his death importantly we are trying to put a care package in place for my mum as she herself has healthcare needs thank you for your help abc xyz</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pre - identified user support request reply email address : abc xyz testmail com forename : abc surname : xyz ni number : zz123123z dob : 01 january 1400 home postcode : aa12 123 employer : test pension scheme subject : spouses pension content : although widowed i have been living with a partner for some years could you please advise me of any conditions i should be aware of relating to a spouses benefits should my death precede hers regards jkl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fw : mr abc xyz - early retirement quote - request good morning please can i request an immediate early retirement quote for the above mutual client zz123123z please can you send this back to the below email address test pensions pensions com &lt;mailto : test pensions pensions com </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pre - identified user support request reply email address : abc xyz testmail com forename : abc surname : xyz ni number : zz123123z dob : 01 jan 1400 home postcode : aa12 123 employer : fin corp subject : beneficiaries content : i would be grateful if you could let me know the details of how much my wife would receive as a pension in the event of my death i am not planning on doing this anytime soon but it we need this information for future planning mant thanks abc xyz</t>
-  </si>
-  <si>
-    <t>re : test pension plan - mr abc hi test pensions my request was sent a week ago can you give me a progress update thanks test ifa from : test pensions pensions com sent : 06 november 2020 09 : 57 to : test ifa fincorp com subject : test pension plan - mr abc dear test pension test pension plan thank you for your email regarding the test pension plan your request for transfer out has been logged and you will receive a written response from our administration department within 5 - 10 working days if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com &lt;mailto : 20test pensions pensions com 20 yours sincerely test pensions from : test ifa fincorp com sent : 03 november 2020 21 : 22 to : test pensions pensions com subject : test pension plan - mr abc hi member s full name : abc member s ni number : scheme name : test pension scheme scheme reference : please find attached the following documents in respect of the above member : your transfer request and discharge form signed by mr abc our advice confirmation letter sent to mr abc i have sent the receiving scheme warranty form to def and have asked them to send the completed form directly to you if there are any further documents you require to complete the transfer please let me know best regards test ifa</t>
-  </si>
-  <si>
-    <t>re : your transfer value request hi there i tried on the website to the get cash equivalent value of my pension for a pre - nup i m doing but as you see below it won t work can you provide this abc 012345 from : test pensions pensions com sent : 18 november 2020 21 : 57 to : abc xyz testmail com subject : your transfer value request unfortunately test account was not able to retrieve a transfer value for your defg pension fund defined benefit pension scheme at this time there are a number of reasons why the calculation you have requested could not be retrieved automatically for example : you are a member of the lmn scheme you have a transfer in you have had a pension sharing or earmarking order you are within one year of retirement if you have any questions please call the test pensions team on + 91 012345678 or email us at test pensions pensions com about the links in this email - in order to protect you from potential security threats test account sends links in emails as plain text your email client may turn this into a hyperlink for you however if you are unsure simply copy and paste it into your browser regards test pensions + 91 012345678</t>
-  </si>
-  <si>
-    <t>re : test pension scheme - test section thank you for responding my details are as follows mrs abc 10 test road test street aa12 123 dob : 01 01 1400 ni number : zz123123z mrs abc data manager deputy dpo + 91 012345678 from : test pensions pensions com sent : 09 november 2020 12 : 45 to : abc xyz testmail com subject : test pension scheme - test section dear mrs abc test pension scheme - test section formerly test group thank you for your email regarding the test pension scheme - test section to enable us to answer your enquiry please could you provide your full address date of birth and national insurance number for data verification purposes should you have any further queries please do not hesitate to contact the customer support centre between 9 00am and 5 00pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 05 november 2020 18 : 46 to : test pensions pensions com subject : test pension scheme - test section good afternoon ref : tst12345678 now that my account has been updated and confirmed that i do have a pension with yourself can you please tell me my options can i withdraw from this pension does this affect my current state pension if i do withdraw could you please send me some literature on what my options would be thank you for your assistance in advance kind regards mrs abc data manager deputy dpo + 91 012345678 from : spsargos mercer com sent : 02 a test pensions pensions comugust 2020 19 : 55 to : abc xyz testmail coml goff subject : test pension scheme - test section dear mrs abc test pension scheme - test section formerly test group thank you for your email regarding the test pension scheme - test section i can confirm that we hold your record of pension with us in order for our records to be updated with your correct surname please provide original documentary evidence eg marriage certificate deed poll or decree absolute confirming your change in details original documents will be returned to you by recorded delivery should you have any further queries please do not hesitate to contact the customer support centre between 9 00am and 5 00pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely abc from : abc xyz testmail com sent : 27 july 2020 16 : 35 to : test pensions pensions com subject : test pension scheme - test section good afternoon you have not actually answered my original question i want to know if i do hold a pension with your company if you can confirm that then i will of course update you with the required documents kind regards mrs abc data manager deputy dpo + 91 012345678 from : test pensions pensions com sent : 27 abc pension scheme - test section dear mrs goff test pension scheme - test section formerly test group thank you for your email regarding the test pension scheme - test section and please accept our sincerest apologies for the delay in responding to you in order for our records to be updated with your correct surname please provide original documentary evidence eg marriage certificate deed poll or decree absolute confirming your change in details original documents will be returned to you by recorded delivery should you have any further queries please do not hesitate to contact the customer support centre between 9 00am and 5 00pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 21 july 2020 19 : 20 to : test pensions pensions com subject : test pension scheme - test section thank you for getting back to me my details are; mrs abc data manager deputy dpo + 91 012345678 from : test pensions pensions com sent : 21 july 2020 14 : 38 to : abc xyz testmail com subject : test pension scheme - test section dear mrs abc test pension scheme - test section formerly test group thank you for your email regarding the test pension scheme - test section to enable us to answer your enquiry please could you provide your full address date of birth and national insurance number for data verification purposes should you have any further queries please do not hesitate to contact the customer support centre between 9 00am and 5 00pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 15 july 2020 17 : 59 to : test pensions pensions com subject : pension enquiry good evening my maiden name is def date of birth i am enquiring as to whether i have a pension or frozen pension with your company i am on your mailing list so was wondering thank you for your assistance kind regards abc</t>
-  </si>
-  <si>
-    <t>abc - guaranteed transfer value - zz123123z good morning i would be grateful if you would confirm the above member has now left the scheme and when we can expect to received the guaranteed transfer value requested kind regards test ifa from : test ifa fincorp com sent : 16 september 2020 17 : 16 to : test pensions pensions com cc : testfund fincorp com subject : abc - guaranteed transfer value - zz123123z good afternoon further to my email below i would request a guaranteed cetv be produced and sent to us as soon as possible kind regards test ifa from : test ifa fincorp com sent : 02 september 2020 10 : 06 to : test pensions pensions com cc : testfund fincorp com subject : abc - guaranteed transfer value - zz123123z good morning i would be grateful if you could confirm you have received notification the above client has left the scheme and subsequently provide a guaranteed transfer value kind regards test ifa</t>
-  </si>
-  <si>
-    <t>1023456789 mr xyz confidential ref : 1023456789 mr xyz test pensions dear sir madam we ve received a transfer out request for the above member i ve attached a trustee declaration and a copy of the transfer request if you are happy for us to process this case please can you complete the form and return it to us if you need anything further please do not hesitate to contact us kind regards abc xyz test pension cid : image001 png 01d445ce e116bbd0 10 test road test street aa12 123 abcd com</t>
-  </si>
-  <si>
-    <t>change of address dear test pension please note that i have moved from : 107 test road test street wa12 123 to : 10 test road test street aa12 123 regards abc + 91 012345678</t>
-  </si>
-  <si>
-    <t>test pension scheme hi team please see below query and reply accordingly many thanks test pensions from : abc xyz testmail com sent : 07 november 2020 12 : 48 to : test pensions pensions com subject : re : test pension scheme</t>
-  </si>
-  <si>
-    <t>test pension scheme - ref zz123123z tst12345678 good morning i have been advised that this is the new email address i need to send my request to look forward to your reply abc xyz from : abc xyz testmail com&lt;mailto : abc xyz testmail com sent : 06 november 2020 10 : 02 to : testfund fincorp com&lt;mailto : testfund fincorp com subject : test pension scheme - ref zz123123z tst12345678 good morning i am writing in relation to my test pension and my details are as follows : - mrs abc xyz 10 test road test street aa12 123 date of birth 01 01 1400 phone number + 91 012345678 as i am approaching my 60th birthday i am considering taking this pension and would be interested in receiving an up to date statement from you including transfer value and an estimate of what i could expect to receive if i took a 25 lump sum payment tax free and the rest as an annuity the last statement i received from you was in march 2016 i look forward to your response thanking you kind regards abc xyz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test pensions pension scheme : ref tst12345678 hi team please find enclosed the requested retirement pack as at normal retirement as per the policy rules lr cannot be provided hence provided with a normal retirement pack of 01 01 1400 regards </t>
-  </si>
-  <si>
-    <t>efg uvw - zz123123z hello please find attached a duly completed transfer discharge form and a letter confirming that the above member has received financial advice in relation to transferring his benefits away from the test pension scheme the receiving scheme warranty form and any other required documents will follow shortly i trust this is satisfactory and look forward to receiving confirmation that the guaranteed cetv which expires on 01 01 1400 is now secured kind regards abc xyz test admin 10 test road test street aa12 123</t>
-  </si>
-  <si>
-    <t>fw : information request - letter of authority attached ref : tst12345678 hello team please see below query and reply accordingly to the member ifa many thanks test pensions from : test ifa fincorp com sent : 01 december 2020 08 : 35 to : test pensions pensions com subject : information request - letter of authority attached ref : tst12345678 dear representative of xx please see attached herewith an authorisation letter from with the following personal information : customer personal information : name : abc current address : 10 test road test street aa12 123 date of birth : 01 01 1400 gender : male national insurance number : zz123123z pension type : workplace workplace pension information : employer name : test employer pension provider : xx pension reference number : not known estimated valuation : not known additional information provided : please see information request attachment please note any reference number s or scheme name s listed above are those known to the customer there may however be additional pensions belonging to the customer therefore please ensure you provide information on all of test pensions with xx not just those referenced above with respect to the customer above please provide information on the following : latest transfer valuation current status of the plan : in force paid up or in payment are there any exit charges associated with the specific funds or with the plan overall any guaranteed or non - standard benefits including guaranteed salaries guaranteed annuity rates guaranteed maturity amount guaranteed minimum pension and any other benefits and the conditions attached to them please confirm whether partial transfers are possible from this plan if transfer forms are required to action a transfer out of the scheme please include these in your response test ifa is a company with the following details : company name : test ifa email : test ifa fincorp com address : 10 test road test street aa12 123 telephone : + 91 012345678 please contact test ifa if you require further information sincerely test ifa</t>
-  </si>
-  <si>
-    <t>test pension plan dear test pensions thank you for your response the email i received asked me to await a hard copy version of this information before proceeding any further i know 2 copies have been sent but the def train system is not running at the present time so no postal deliveries have been made not to worry i would like to expedite my pension plan immediately and i am choosing option 1 = the largest lump sum possible gbp58000 + and the relevant monthly income thereafter as my wife and i live in lmn we would like all the funds deposited into her bank account - the account number will be supplied if this is possible we can also provide proof of identity current passports + adhaar national id card + my xx card and government certified marriage certificate which will endorse our relationship please advise kind regards abc test employee no 000000 ni number : zz123123z on wed 11 nov 2020 at 10 : 51 test pensions pensions com&lt;mailto : test pensions pensions com wrote : dear abc test pension plan thank you for your email regarding the test pension plan please accept our apologies for the delay in responding to you i have checked the record and i can confirm that we did sent you a copy of retirement quote via email on 22nd september 2020 however i have attached the copy of correspondence once again for your convenience please note we have encrypted the document with a password which is your national insurance number all in uppercase for ex ab123456c if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com did you know that member s can access and manage their pension online by logging into their test account if you are a scheme of this member you can access your account if you have forgotten your username and or password there is a link on this page to reset it if you have not previously activated your account email us so we can provide you with the activation link yours sincerely test pensions from : abc xyz testmail com sent : 06 november 2020 07 : 40 to : test pensions pensions com subject : re : test pension plan dear test pensions it would appear that def state is currently experiencing a train strike this means that mail is not being delivered would it be possible to send my test pension pack via email to this address please advise kind regards abc on sat 10 oct 2020 9 : 06 am abc xyz testmail com&lt;mailto : abc xyz testmail com wrote : dear test pensions that is good news thank you i suspect the delay is just the sheer distance combined with the logistical challenges caused by the virus my contact details are + 91 012345678 please note that i teach for 5 5 hours per day 11 00 am to 4 30 pm monday to friday and my phone is usually on silent therefore it would be advisable to reach me in the afternoon after 1 00 pm regards abc on thu 8 oct 2020 at 21 : 31 test pensions pensions com&lt;mailto : test pensions pensions com wrote : dear mr abc test pension plan thank you for your email regarding the test pension plan please accept my sincerest apologies for any inconvenience this may cause you i have checked our records and can confirm that the correspondence was issued to you on 29th september 2020 however i have arranged for the information to be re - issued to you as you have not received it please note that you will receive it shortly also could you please provide your contact details to call you if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 06 october 2020 12 : 13 to : test pensions pensions com subject : re : test pension plan reference : tst12345678 dear test pensions unfortunately i have yet to hear back from the administration department as of today tuesday 6 10 2020 would it be possible for them to make contact within the next 48 to 72 hours please regards abc test employee no ni number on thu 24 sep 2020 at 18 : 43 abc xyz testmail com&lt;mailto : abc xyz testmail com wrote : reference : tst12345678 dear test pensions firstly please note that my home address has changed it is now : it is exactly the same building but the local government has changed the way they officially designate them please amend your records to reflect this secondly as i am in india do i still need to call the 0000 number to request the necessary forms or is there an alternative method please advise kind regards abc test employee no ni number : on tue 22 sep 2020 at 21 : 56 test pensions pensions com&lt;mailto : test pensions pensions com wrote : dear mr abc further to your email please see the attached response the document has been encrypted with your national insurance number letters in upper case kind regards test pension scheme administration team from : abc xyz testmail com sent : 15 september 2020 17 : 41 to : test pensions pensions com subject : re : test pension plan dear test pensions ref : 00000 please find attached the original document containing the original address i have also attached the response letter i received from test pensions just to clarify the building is the same one; the local government has altered their method of identifying them hence the change of address regards abc on fri 11 sep 2020 at 10 : 11 test pensions pensions com&lt;mailto : test pensions pensions com wrote : dear mr abc test pension plan thank you for your email regarding the test pension plan please accept my sincerest apologies for any inconvenience this may cause you to enable us to answer your enquiry please could you provide your previous address for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com to : test pensions pensions com subject : re : test pension plan dear test pensions ref no here are the details that you requested address : date of birth : ni number : test employee payroll number : regards abc on wed 2 sep 2020 at 16 : 55 test pensions pensions com&lt;mailto : test pensions pensions com wrote : dear abc test pension plan thank you for your email regarding the test pension plan to enable us to answer your enquiry please could you provide your full address date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 01 september 2020 17 : 16 to : test pensions pensions com subject : re : fw : verification form ref no 00000 dear test pensions i would like to begin the process of activating my test pension we have corresponded several times and the process seems fairly simple as previously stated i would like to take the maximum lump sum available plus the relevant monthly payments there are 2 issues that will need resolving : 1 i am based in the def northern india and the local government have recently altered their house identification system therefore i would need to update my address 2 question : can i have the monthly payments transferred to my wife bank account if we supply the necessary documents proving that she is in fact my wife could you also include all the relevant information regarding what my wife is entitled to in the event of my death regards abc on mon 1 oct 2018 at 09 : 42 abc xyz testmail com&lt;mailto : abc xyz testmail com wrote : dear test pensions would it be possible to send me the following information please 1 my monthly pension amount if i commence payments in may 2020 2 the maximum amount i can take in a lump sum in may 2020 and the relevant subsequent monthly payment please send this information to this email address kind regards abc on wed 26 sep 2018 at 10 : 34 abc xyz testmail com&lt;mailto : abc xyz testmail com wrote : dear test pensions would it be possible to send me the following information please 1 my monthly pension amount if i commence payments in may 2020 2 the maximum amount i can take in a lump sum in may 2020 and the relevant subsequent monthly payment please send this information to this email address kind regards abc former test employee payroll no 00000 on fri 6 apr 2018 at 12 : 07 test pensions pensions com&lt;mailto : test pensions pensions com wrote : dear mr abc thank you for your email your address has been updated and a retirement quote was issued to your new address in the middle of march 2018 regards test pensions test pension administration team from : test pensions pensions com sent : 05 april 2018 15 : 35 to : test pensions pensions com subject : fw : verification form from : abc xyz testmail com sent : 05 april 2018 05 : 43 to : test pensions pensions com subject : re : verification form dear test pensions do you have any information regarding my pension request it has been several weeks since the completed form was sent and there has been no reply kind regards abc ref : 00000 on 24 november 2017 at 22 : 44 test pensions pensions com&lt;mailto : test pensions pensions com wrote : dear abc please find attached verification letter that was originally issued to def without the filled verification form we won t be able to proceed with your request in the mean time if you require any further information please do not hesitate to contact us regards test pensions test pension scheme administration team</t>
-  </si>
-  <si>
-    <t>surname error member ref dep seq no surname inits nino s000000 0 o apos; yeda aaa aa000000a i think the surname on the above name has been accidentally changed to something incorrect surname on valuation data ran in april is yeda and this matches sharepoint please can someone look into and correct thanks rgb</t>
-  </si>
-  <si>
-    <t>re : test pension scheme test pension scheme ref : tst12345678 abc xyz zz123123z with reference to my email or 21st october requesting to know the figure a lump sum would be unfortunately i did not receive this information i received paperwork i have previously received before i make a decision on whether to to opt for a lump sum i obviously need to know what this would be i would be grateful if you could let me know this abc xyz on friday 30 october 2020 11 : 26 : 25 gmt wrote : dear mrs abc xyz test pension scheme thank you for your email regarding test pension scheme your request has been logged and you will receive a written response from our administration department within 5 - 10 working days should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at testscheme fincorp com &lt;mailto : testscheme fincorp com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 www fincorp com from : abc xyz &lt;abc xyz testmail com sent : 28 october 2020 03 : 45 to : test pension scheme subject : re : test pension scheme my address is 10 test road test street aa12 123 on saturday 24 october 2020 19 : 25 : 53 bst wrote : dear abc xyz test pension scheme thank you for your email regarding the test pension scheme to enable us to answer your enquiry please could you provide your full address for data verification purposes should you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at testscheme fincorp com &lt;mailto : testscheme fincorp com yours sincerely abc xyz administrator customer support centre fin corp ltd 10 test road test street aa12 123 direct dial : + 91 012345678 www fincorp com &lt;http : www fincorp com from : abc xyz &lt;abc xyz testmail com sent : 22 october 2020 00 : 42 to : test pension scheme subject : fw : test pension scheme ref tst12345678 - - - - - forwarded message - - - - - from : abc xyz testmail com to : testscheme fincorp com sent : wednesday 21 october 2020 16 : 08 : 58 bst subject : test pension scheme ref tst12345678 i have received retirement quotations as requested they state that i may be able to have a one - off lump sum i would like to know how much this would be before making a decision and completing the paperwork abc xyz ni no zz123123z</t>
-  </si>
-  <si>
-    <t>abc hello dob : 01 01 1400 ni : zz123123z please find attached an loa for your records we are reviewing a case for the above named client and would appreciate if you could answer a few points please confirm the transfer value of 192 265 50 takes into account the members pension sharing order please provide the last 5 years of discretionary increases in payment please confirm if the fixed addition tranche revalues in deferment or increases in payment if so is this by rpi or cpi any max 5 or 2 5 please provide a full table of commutation factors specifically for age 65 and 60 please provide an early retirement factor for age 60 please confirm in the event of early retirement if the pension revalues to nrd or actual retirement date please provide the value of the members contributions at date of leaving kind regards test ifa t : + 91 012345678 e : test ifa fincorp com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fw : mr abc xyz - tst12345678 - test pension fund importance : high good afternoon with regard to the above client please can you advise whether the client has protected tax free cash within the plan kind regards abc xyz - - - - - - - - - - - - - - - - - - - - - - - - - - - - abc xyz covid - 19 please note we are unable to accept visitors at the office without prior appointment please do not attend our office if you have a persistent cough a high temperature or have lost your sense of taste or smell upon entering the office all visitors must sanitise at the unit provided and adhere to social distancing guidelines hoping you and your families stay safe and well </t>
-  </si>
-  <si>
-    <t>fin corp anomaly - early retirement figures address : 10 test road test street aa12 123 date of birth : 18 01 1800 national insurance number : aa000000a payroll reference number : 000000 i have today generated early retirement quotes from benpal that i would like to have explained please as there appears to be an anomaly that i do not understand a quote for early retirement date of 02 04 18 showed : max pension zero lump sum : 27 343 min pension max lump sum : 19 367 129 115 whereas a quote for early retirement date of 06 04 19 showed : max pension zero lump sum : 27 217 min pension max lump sum : 19 277 128 519 clearly i find a slightly later retirement date returning lower figures to be anomalous and requiring explanation this is particularly important to me at this time as i anticipate retiring and taking my pension around these dates and am trying to determine what will be optimal for me regards abc xyz event manager fin corp 10 test road test street aa12 123 mobile : + 91 012345678</t>
-  </si>
-  <si>
-    <t>re : def pension plan my previous address to my current one was 10 test road test street aa12 123 before that 02 test road test street wa23 123 before that 11 test road test street ua45 123 let me know if you need any more information regards abc tel : + 91 012345678 e : test pensions pensions com from : test pensions pensions com sent : 12 november 2020 10 : 55 to : abc xyz testmail com subject : def pension plan dear mr logan def pension plan thank you for your email regarding the def pension plan to enable us to answer your enquiry please could you provide your previous full address for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 11 november 2020 17 : 05 to : test pensions pensions com subject : pension details hi i wonder if you can help me please i have worked for def for 30 years left the business in 2010 and then joined def in 2016 i would like to gain access to view my initial pension details from my first stint at def but i m not sure how to do this my check number used to be 00 1980 - 2010 my current number is 11 2016 current my ni number is my home address is d o b any help you can give me with this would be much appreciated regards abc tel : + 91 012345678 e : abc xyz testmail com</t>
-  </si>
-  <si>
-    <t>lmno request for a guaranteed cetv pack to test pensions regarding your existing client lmno please find attached the new letter of request for a guaranteed cetv pack for lmno our letter of authority is already on your files and the client has now opted out of the pension scheme please send all the relevant information by post and send a copy by return email please contact me if you need any further information to be able to send the guaranteed cetv pack to us for lmno kind regards test ifa 10 test road test street aa12 123 + 91 012345678</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pre - identified user support request reply email address : abc xyz testmail com forename : abc xyz surname : def ni number : zz123123z dob : 01 jan 1400 home postcode : aa12 123 employer : fin corp ltd subject : leaving fin corp ltd content : hi i will be leaving fin corp ltd in february 1400 but not taking any pension at that time my nrd is not until 1500 am i ok to simply leave the arrangements as they stand at the point when i leave or do i need to make any addtional arrangements thanks abc</t>
-  </si>
-  <si>
-    <t>your reference : tst12345678 our reference : zz123123z good morning we have received your letter of 18 september 2020 regarding the passing of mr lmno we have searched our records and cannot find a policy for mr lmno on the money purchase department we are unable to forward your letter to the correct department as we are unsure of the department please could you confirm who your usual contact is for the test retirement death benefits plan xxxx section if we do not hear from you within the next 20 days we will close the request kind regards test fund</t>
-  </si>
-  <si>
-    <t>abc xyz deceased dear sirs we refer to the above and attach a letter and grant of probate for abc xyz the originals of the attached will be sent out in the post this evening we look forward to hearing from you yours faithfully abc xyz fin corp ltd t : + 91 012345678 e : test pensions pensions com 10 test road test street aa12 123</t>
-  </si>
-  <si>
-    <t>urgent : lmn - test avc abcd our ref : tst12345678 urgent urgent urgent please can someone give us an urgent update on the attached loa and information request the client is looking for an update so would appreciate a current timescale just so as we can manage the client expectations many thanks please quote our client case number on all your replies tst12345678 test admin from : test admin pensions com sent : 06 november 2020 18 : 02 to : test pensions pensions com&lt;mailto : test pensions pensions com subject : urgent : lmn - test avc abcd our ref : tst12345678 please quote our client case number tst12345678on all your replies hi please find attached pension information projections letter together with our client s signed letter of authority loa please provide us with the requested information as soon as possible by secure email if possible transfer discharge requirements : please enclose your discharge transfer encashment form please confirm what form of id is required from our mutual client please confirm if your funds can be paid directly to xyz management for the client s benefit please confirm if the discharge encashment transfer of this plan is supported under the test options pension transfer service please email : test admin pensions com tel : + 91 012345678 regards test admin</t>
-  </si>
-  <si>
-    <t>change of address from 2 test road please note that as from 27th november my address will be as follows : 10 test road test street aa12 123 payroll reference : tst12345678 dob : 01 january 1400 should you require any further information please do not hesitate to contact me regards abc</t>
-  </si>
-  <si>
-    <t>reference tst12345678 dear test pension further to your later dated 1 november 2020 requesting a copy of the funeral expenses paid in full i have attached a copy please could confirm receipt kind regards abc xyz</t>
-  </si>
-  <si>
-    <t>re : change of address for abc xyz tst12345678 additional info required dob 01 january 1400 ni zz123123z from : abc xyz testmail com sent : 16 november 2020 15 : 59 to : test pensions pensions com subject : change of address for abc xyz tst12345678 please update you records asap to reflect my new email address abc xyz testmail com and a change of home address from 101 test road test street ea34 123 to below regards abc xyz 10 test road test street aa12 123</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pre - identified user support request reply email address : abc xyz testmail com forename : abc surname : xyz ni number : zz123123z dob : 01 jan 1400 home postcode : aa12 123 employer : test pensions subject : pension uptake at 60 content : hello i am planning to take my pension at 60 on my birth date could you please give me projected figures for 1 a full pension 2 a pension with the full tax free allowance thank you abc</t>
-  </si>
-  <si>
-    <t>change of address i am trying to change the address details for my test pension to 3 def 10 test road test street aa12 123 name : mr abc : paye reference : 1234; national insurance number zz123123z : pension payroll number tst12345678 please change as above or advise me how it can be done because i cannot find a way to do it on line i look forward to your helpful reply kind regards abc</t>
-  </si>
-  <si>
-    <t>change of address - abcd nino - zz123123z dob - 01 01 1400 reference - tst12345678 new address : 10 test road test street aa12 123 tel : + 91 012345678 email : abc xyz testmail com could you please update the administration and payroll records with mr abcd new address abcd is the former chairman of xx and former chairman of def ltd kind regards test pension fund</t>
-  </si>
-  <si>
-    <t>fwd : early quotation get outlook for android from : abc xyz sent : tuesday august 27 2019 10 : 55 : 53 am to : test ifa fincorp com subject : early quotation please can you send me some early retirement quotation forms ref tst12345678 national insurance number zz123123z get outlook for android</t>
-  </si>
-  <si>
-    <t>test group pension scheme address : - 10 test road test street aa12 123 dob 01 01 1400 national insurance no zz123123z regards abc from : test pensions pensions com sent : 09 november 2020 11 : 29 to : abc xyz testmail com subject : test group pension scheme dear abc test group pension scheme thank you for your email regarding the test group pension scheme to enable us to answer your enquiry please could you provide your full address date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely test pensions from : abc xyz testmail com sent : 05 november 2020 19 : 27 to : test pensions pensions com subject : test group pension scheme reference tst12345678 i am mailing you regarding my test group defined contribution plan reference tst12345678 i have now received two letters from you regarding a number of phone calls i have made and to be honest neither is of any use to me i have spoken to def on 26th october and xyz on 27th october 2020 both conversations after your latest letter dated 23rd october 2020 in a nutshell i want my investment of 111 paying to me in full under the small pots rule i can t understand why someone who can agree this cannot speak to me on the phone and i have also stated i would like to know what is happening by email rather than the ludicrous situation i have had so far where i ring your number holding on for 45 minutes on the last occasion for someone to answer where i tell them what i want and they pass it on to someone else and i receive a letter several days later with both letters being of no use whatsoever abc my contact number is + 91 012345678</t>
-  </si>
-  <si>
-    <t>re : test pension fund - our ref : tst12345678 good morning thank you for your email please find attached the client s letter of authority with the requested information the document is password protected password to follow in separate email if you have any queries please don t hesitate to contact us many thanks test ifa from : test pensions pensions com sent : 02 november 2020 10 : 03 to : test ifa fincorp com subject : ford pension fund dear test ifa test pension fund thank you for your email regarding the test pension fund to enable us to answer your enquiry please could you provide the member full address date of birth and national insurance number for data verification purposes if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 8 30am and 5 30pm monday to friday or alternatively email us at test pensions pensions com yours sincerely tets pensions from : test ifa fincorp com sent : 23 october 2020 16 : 11 to : test pensions pensions com subject : tst12345678 0123456789 good afternoon please can you provide an update on our mutual clients pension transfer many thanks test ifa</t>
-  </si>
-  <si>
-    <t>re : test pension scheme hi team with reference to below email member has given her new address and son s address as well and also we are unable to accept change of address request from son s email id could you please write back to member to confirm correspondent address and due to data protection purpose we are not able to accept the below request through email please provide us with the letter of authority which must be signed and dated by you within the last 12 months via post and also it should include your full name date of birth national insurance number and full address regards test pensions from : test pensions pensions com sent : 02 november 2020 21 : 08 to : abc xyz testmail com subject : test pension scheme dear abc test pension scheme thank you for your email regarding the test pension scheme your request for change of address has been logged and you will receive a written response from our administration department within 10 - 15 working days due to data protection purpose we are not able to accept the below request through email please provide us with the letter of authority which must be signed by you within the last 12 months and also it should include your full name date of birth national insurance number and full address if you have any further queries please do not hesitate to contact the customer support centre between 8 30am and 5 30pm monday to friday on our helpline + 91 012345678 alternatively please email us at test pensions pensions com yours sincerely test pensions - - - - - original message - - - - - from : abc xyz testmail com sent : 29 october 2020 17 : 40 to : test pensions pensions com subject : change of address and appointee abc national insurance number : date of birth address : i have two requests 1 i would like my son to be given full authority appointee to deal with all corespondent on my behalf from now on his details are as follows : name : date of birth : address : telephone : + 91 012345678 2 i have moved address on 23rd october 2020 my new address to send correspondence to is as follows : please can you update your records regards abc</t>
-  </si>
-  <si>
-    <t>request for information - abc xyz dear sir madam we are acting on behalf of the above client who is considering transferring their benefits from the test pension fund please find attached a letter of authority to allow you to release information to us on the benefits that our client holds in the scheme please can you provide the following information at your earliest convenience : basic details date of joining scheme date of leaving scheme please provide a copy of the cash equivalent transfer value cetv issued on 01 jan 1400 cetv expiry date has the cetv been reduced or enhanced normal retirement date nrd of the scheme does the scheme permit partial transfers please provide a copy of the latest scheme booklet breakdown of benefits benefits at date of leaving including a breakdown between pre - 88 gmp post - 88 gmp pre - 97 excess post - 97 excess post - 05 excess and post - 09 excess does gmp franking apply if so on what basis revaluation rate of each of the above tranches in deferment escalation rate of each of the above tranches in payment is a lump sum payable in addition to the scheme pension does the scheme provide a bridging pension or state pension deduction if so provide details death benefits lump sum death benefits in deferment lump sum death benefits in payment guarantee period spouse s pension death in deferment spouse s pension death in retirement is the spouse s pension reduced where there is an age difference if so provide details if there is no legal spouse will the scheme pay the spouse s pension to a partner or dependent is there a children s pension if so provide details pension commencement lump sum does the scheme provide a pension commencement lump sum pcls if pcls is an option what are the commutation factors between age 55 and age 75 scheme funding what is the most recent scheme funding level please provide the latest scheme funding summary early and late retirement what is the earliest age the member can retire what is the earliest age the member can retire with unreduced benefits what are the early retirement factors between age 55 and nrd can the member take late retirement what are the late retirement factors between nrd and 75 where early or late retirement is taken are the benefits revalued to the normal retirement date or the early late retirement date before the factor is applied if the client is over the age of 55 please also provide the following : immediate retirement quote given the time sensitive nature of the request we would greatly appreciate all requested information be sent via email to abc xyz testmail com &lt;mailto : abc xyz testmail com we thank you for your assistance with this matter kind regards abc xyz administration office address 10 test road test street aa12 123 tel + 91 012345678</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> warning : message encrypted our reference 12346 message encrypted good afternoon i am writing today with regard to the transfer of the above policy to the test sipp i would be grateful if you could provide us with an update on this transfer; for your convenience i attach a copy of the letter of authority the password will follow separately kind regards abc</t>
-  </si>
-  <si>
-    <t>test pension plan - abc importance : high hi please see attached a revised letter of authority confirming the scheme name the password is the members date of birth in the format ddmmyyyy i would be grateful if you could now expedite our request below kind regards test ifa from : test pensions pensions com sent : 12 november 2020 13 : 30 to : test ifa fincorp com subject : test pension plan - abc dear mr test ifa test pension plan thank you for your email regarding the test pension plan unfortunately we are unable to accept the letter of authority provided by you as it does not include scheme name could you please provide us with revised letter of authority if you require any further information or have any questions please contact the customer support centre on + 91 012345678 between 9 00 am and 5 00 pm monday to friday or alternatively email us at test pensions pensions com&lt;mailto : test pensions pensions com yours sincerely test pensions from : test ifa fincorp com sent : 10 november 2020 15 : 15 to : test pensions subject : warning : message encrypted urgent action required - - letter of authority - information only message encrypted importance : high to whom it may concern please see attached the signed letter of authority for mr abc s scheme ref : tst12345678 the document has been password protected with mr abc s date of birth in the format ddmmyyyy we should be grateful if you could provide the following information : date joined service normal retirement age benefits accrued to date where applicable please provide the breakdown between all relevant tranches i e pre and post 88 gmp and pre and post 97 excess confirmation of the escalation basis of the pension in payment scheme late retirement factors from nra to age 75 is there an automatic tax - free lump sum payable on vesting ill health early retirement benefit options available to mr tooray under the grounds of serious ill health death benefits provided by the scheme please confirm the types of dependent s benefits offered by the scheme and the qualifying criteria details of any avc benefits linked to this pension spouse s pension details including : if death occurs before retirement is the spouse s pension based upon the full pension to nrd or revalued pension to date of death if death occurs after retirement is the spouse s pension calculated on the full pension before commutation lump sum death benefits pre and post retirement please provide a copy of the scheme booklet please note this is not a request for a cash equivalent transfer value should you require any further information to process this request please do let me know kind regards test ifa</t>
-  </si>
-  <si>
-    <t>loa request qrst tst12345678 dear sir madam member name qrst member reference tst12345678 scheme name test pension scheme the above named has advised us that they wish to consider the possibility of a pension transfer please therefore find an electronic copy of the member s letter of authority attached which has been password protected using the member s national insurance number in the following format : 0000000000 we are in receipt of the cetv statement dated 26 10 2020 following the issue of the defined benefit transfers : abc on 8th july 2019 by the test has the scheme adopted the test member quote and scheme templates if so and the member s enquiry can be processed as a test standard case we are able to receive information in this format please provide the appropriate link for the test scheme template for this member if not in order to advise the member we would be grateful if you could provide the following documents : a retirement quote for aged 55 the member booklet applicable for their period of membership the latest report and accounts for the scheme showing the most recent funding position along with details of any recovery plan should the scheme be underfunded on an ongoing basis we also require the following information if it is not obtainable from the benefit illustrations scheme literature or member guides that you may be providing : transfer value 1 in response to the covid - 19 pandemic the pensions regulator are permitting schemes to apply a 3 month freeze on transfer activity have the scheme trustees already suspended or are they planning to suspend cetv quotations and or cetv payments 2 we note that the cetv is guaranteed until 26 01 2020 but are aware that transfer values are variable to reflect fixed interest yields and actuarial assumptions please advise whether any changes have been made to the cetv calculation or if any are due to be implemented that may be more favourable to the member since the original cetv was issued 3 has the transfer value been reduced to reflect any funding issues alternatively has the transfer value been enhanced 4 is it possible to take a partial transfer of db pension benefits and if so in what circumstances early retirement 5 is early retirement allowed if so from what age 6 what actuarial reduction factors would be applied to the member s pension in the event of early retirement at age 55 7 upon early retirement would the member s benefits be revalued to the date of actual retirement or normal retirement age if benefits are revalued to nra what assumption is made regarding future increases 8 in the event of the member having to retire early due to ill health are the benefits enhanced eg paid without the application of an early retirement factor please confirm the trustee s definition of ill health in this regard 9 please confirm the trustee s approach to serious ill health commutation lump sums sihc including how the sum would be calculated and on what grounds it would be paid would taking a sihc sum also extinguish the spouse s benefits within the scheme early retirement quotation request 10 as the member has expressed an interest in taking benefits at 55 please provide a retirement illustration showing both the full pension available along with any tax free cash and residual pension options offered 11 does the scheme offer pie pension increase exchange or any other options to change the amount of initial pension and or dependant s pension 12 please advise if there is a temporary pension included within the pension and if so how much this is and when it will fall away i e the member s actual state pension age of 67 or at original spa of age 13 please advise if there is a state pension deduction included within the pension and if so; a the value of the state pension deduction spd at date of leaving b at what age the spd applies c the rate of revaluation that applies to the spd between date of leaving and date of application if applicable d whether escalation on the pension in payment following the application of the spd is based upon the pension before or after the spd is applied client specific please confirm the following : 14 the member s final pensionable pay scheme information 15 does any part of this member s pension service have a different normal retirement age a if so please confirm the affected period of service and why a different nra applies eg as a result of equalisation transfer b the effect this has on the total benefits payable eg early or late retirement factors would apply if the pension is taken at outside of those ages 16 is the scheme open to all employees or are there restrictions if so what are they 17 what was the member s accrual rate 18 the excess pension revaluation basis; eg years and months rounded down 19 pensionable service basis; eg whole years whole years and months 20 rpi index month 21 does the scheme operate a money purchase underpin for this member if so please confirm the most recent value pension benefits at the date of leaving the scheme 22 excess benefits; showing any relevant splits such as post 97 09 care please confirm the rates of revaluation in deferment and escalation in payment for each section of benefits 23 please confirm the date the excess pension is revalued in deferment eg anniversary of date of leaving or a specific date in the year 24 statutory increases to occupational pensions are now in line with cpi instead of rpi please confirm whether the scheme intends to change to cpi in the future for revaluation in deferment and or escalation in payment 25 please list any discretionary increase applied to the pension either in deferment payment during the last 5 years and has potential future discretionary increases been taken into consideration in the calculation of the cetv 26 please provide a breakdown of any transferred - in benefits a if present are these benefits treated the same as the main benefits if not please highlight any differences b is there a fixed pension payable at nra as a result of the transferred in benefit c please provide details of any transferred - in gmp tax free cash tfc 27 does the scheme pay hmrc post a day maximum cash 28 if the hmrc maximum formula is not used how is the member s tfc calculated 29 what is the scheme s current tfc commutation factors 30 is the tfc taken on a pro rata basis across all elements of pension or from specific slices of pensionable service 31 if the member takes tax free cash is the pension increase in payment per annum applied based on pre or post commutation pension 32 does the member have protected scheme specific tax free cash that would be lost on individual transfer if so please advise amount at 5 4 2006 or if this client has bulk transfer protection for tax free cash death benefits 33 does the scheme pay a lump sum on death benefit before retirement if so what and how much if a return of member contributions sum is paid what is the interest applied to the figure 34 what pension would the member s spouse and or dependants receive upon death before and after retirement pension flexibilities 35 please advise if any changes to the scheme are being considered which could impact on the member for example following the introduction of pension freedoms in 2015 will the scheme be offering : flexi - access drawdown for the member on retirement or beneficiaries on the member s death uncrystallised fund pension lump sum either on a full withdrawal or partial withdrawal basis or partial crystallisations if so please provide details additional voluntary contributions avcs associated defined contribution dc schemes 36 please provide details and options of any other associated scheme benefits the member may have and a valuation of these we would be grateful if this information could be emailed to us at test ifa fincorp com or alternatively sent to the postal address above clearly marked for the attention of test ifa 10 test road test street aa12 123 we look forward to hearing from you but should you have any queries in the meantime please do not hesitate to contact us on the details above yours faithfully test ifa</t>
-  </si>
-  <si>
-    <t>fw : change of address for test pension - - - - - original message - - - - - from : abc xyz testmail com sent : 16 october 2020 12 : 59 to : test pensions pensions com subject : change of address for test pension dear sir ma am please note a change of address for a recipient of a test pension pension ref tst12345678 mrs abc of 10 test road test street aa12 123 has now moved to 10 test road test street aa12 123 banking details remain the same please update your records accordingly many thanks abc + 91 012345678</t>
-  </si>
-  <si>
     <t>MDU</t>
   </si>
   <si>
+    <t>Retirement</t>
+  </si>
+  <si>
     <t>Transfer</t>
   </si>
   <si>
-    <t>Retirement</t>
-  </si>
-  <si>
     <t>Death</t>
   </si>
   <si>
+    <t>Test Pension Scheme .msg</t>
+  </si>
+  <si>
+    <t>Address change - former employee DEF.msg</t>
+  </si>
+  <si>
+    <t>PRE-IDENTIFIED USER SUPPORT REQUEST - Request for Personal Statement.msg</t>
+  </si>
+  <si>
+    <t>Request for Pension Details  ABC  - Ref TST12345678.msg</t>
+  </si>
+  <si>
+    <t>Test pension transfer.msg</t>
+  </si>
+  <si>
+    <t>FW Not Virus Scanned - Password ProtectedWARNING MESSAGE ENCRYPTEDTest Pension Fund_Early Retirement Calculation_TST12345678 MESSAGE ENCRYPTED.msg</t>
+  </si>
+  <si>
+    <t>TEST Pensions Plan - Mr ABC.msg</t>
+  </si>
+  <si>
+    <t>LOA Request QRST TST12345678 .msg</t>
+  </si>
+  <si>
+    <t>XYZ LOA.msg</t>
+  </si>
+  <si>
+    <t>LMNO request for a guaranteed CETV pack.msg</t>
+  </si>
+  <si>
+    <t>Test Application for Ill health benefits - ABC (TST12345678).msg</t>
+  </si>
+  <si>
+    <t>Test Pensions letter of authority - ABC.msg</t>
+  </si>
+  <si>
+    <t>FW Test Pension Scheme -Late Mrs ABC XYZ.msg</t>
+  </si>
+  <si>
+    <t>ABC - CETV Request.msg</t>
+  </si>
+  <si>
+    <t>FW  Test Pension Fund - ABC XYZ.msg</t>
+  </si>
+  <si>
+    <t>Questions to Test - re-send.msg</t>
+  </si>
+  <si>
+    <t>FW Test Pension SchemeMESSAGE ENCRYPTEDMESSAGE ENCRYPTED.msg</t>
+  </si>
+  <si>
+    <t>WARNING MESSAGE ENCRYPTEDRef TST12345678 MESSAGE ENCRYPTED.msg</t>
+  </si>
+  <si>
+    <t>Change of address --- TST12345678.msg</t>
+  </si>
+  <si>
+    <t>FW Test Pension Scheme; Scheme Member; Change of Address.msg</t>
+  </si>
+  <si>
+    <t>RE Ford Salaried Contributory Pension Fund - Bheem_BMESSAGE ENCRYPTED.msg</t>
+  </si>
+  <si>
+    <t>RE surname error.msg</t>
+  </si>
+  <si>
+    <t>Change of Address - ABCD.msg</t>
+  </si>
+  <si>
+    <t>Change of personal details.msg</t>
+  </si>
+  <si>
+    <t>FW URGENT TST12345678 DEFG.msg</t>
+  </si>
+  <si>
+    <t>FW Password.msg</t>
+  </si>
+  <si>
+    <t>TEST Pension Plan - ABCD  TST12345678.msg</t>
+  </si>
+  <si>
+    <t>ABC XYZ TST12345678 Pension Quote.msg</t>
+  </si>
+  <si>
+    <t>FW Test Pension Fund - Member Reference ZZ123123Z.msg</t>
+  </si>
+  <si>
+    <t>Documents relating to your claim .msg</t>
+  </si>
+  <si>
+    <t>FW Pension summary.msg</t>
+  </si>
+  <si>
+    <t>FW Outstanding money.msg</t>
+  </si>
+  <si>
+    <t>TST12345678 regarding my late father Mr LMNO.msg</t>
+  </si>
+  <si>
+    <t>FW URGENT RE DEFG - ZZ123123Z - 01011400.msg</t>
+  </si>
+  <si>
+    <t>ZZ123123Z.msg</t>
+  </si>
+  <si>
+    <t>Test Retirement and Employee Security Scheme  Mr Mr ABC XYZ .msg</t>
+  </si>
+  <si>
+    <t>Test Pension Fund_DEF_ZZ123123Z.msg</t>
+  </si>
+  <si>
+    <t>Test Retirement and Death Benefits Plan - Test Section - LMNO.msg</t>
+  </si>
+  <si>
+    <t>FW Policy Ref 132456.msg</t>
+  </si>
+  <si>
+    <t>Test Pension Fund - our ref TST12345678.msg</t>
+  </si>
+  <si>
+    <t>TEST Pension Fund  DEF.msg</t>
+  </si>
+  <si>
+    <t>Your retirement quotation request.msg</t>
+  </si>
+  <si>
+    <t>ABC XYZ - Test Pensions for Senior Staff - Case RefTST12345678.msg</t>
+  </si>
+  <si>
+    <t>FW Fin Corp Registration.msg</t>
+  </si>
+  <si>
+    <t>FW Test Pension Fund.msg</t>
+  </si>
+  <si>
+    <t>FW PRE-IDENTIFIED USER SUPPORT REQUEST.msg</t>
+  </si>
+  <si>
+    <t>ABC XYZZ.msg</t>
+  </si>
+  <si>
+    <t>FW Test Pensions Death Approval - Mr ABC XYZ -  TST12345678 (17).msg</t>
+  </si>
+  <si>
+    <t>FW Your transfer value request - DEFG Pension Fund .msg</t>
+  </si>
+  <si>
+    <t>FW ABCD ZZ123123Z.msg</t>
+  </si>
+  <si>
+    <t>Retirement Quotation - ABC.msg</t>
+  </si>
+  <si>
+    <t>FW Pension fund equiry.msg</t>
+  </si>
+  <si>
+    <t>FW Test Pensions Pension Scheme ref TST12345678.msg</t>
+  </si>
+  <si>
+    <t>FW EFG UVW - ZZ123123Z.msg</t>
+  </si>
+  <si>
+    <t>Mr ABCD - TEST Pension Scheme for Senior Staff - Case RefTST12345678.msg</t>
+  </si>
+  <si>
+    <t>Test Pension Plan - ZZ123123Z.msg</t>
+  </si>
+  <si>
+    <t>TEST Pension Plan - N.I. ZZ123123Z. 01011400.msg</t>
+  </si>
+  <si>
+    <t>FW ABC XYZ - TST12345678.msg</t>
+  </si>
+  <si>
+    <t>FW Mrs DEF _ REF  TST12345678.msg</t>
+  </si>
+  <si>
+    <t>FW Password reset.msg</t>
+  </si>
+  <si>
+    <t>FW ABC XYZ pension.msg</t>
+  </si>
+  <si>
+    <t>FW Test Pension Fund Scheme.msg</t>
+  </si>
+  <si>
+    <t>FW ABC XYZ FIN TST12345678 retirement quote.msg</t>
+  </si>
+  <si>
+    <t>RE home address update.msg</t>
+  </si>
+  <si>
+    <t>Mr LMNO TEST Group Pension Scheme Ref TST12345678 (2).msg</t>
+  </si>
+  <si>
+    <t>FW Transfer Out - ABC.msg</t>
+  </si>
+  <si>
+    <t>FW PRE-IDENTIFIED USER SUPPORT REQUEST 1.msg</t>
+  </si>
+  <si>
+    <t>TEST Death Approval --- LMNO (TST12345678).msg</t>
+  </si>
+  <si>
+    <t>- TST12345678.msg</t>
+  </si>
+  <si>
+    <t>Transfer Request  ABC XYZ our ref 0124 - your ref TST12345678.msg</t>
+  </si>
+  <si>
+    <t>FW Test Pension Scheme - ZZ123123Z.msg</t>
+  </si>
+  <si>
+    <t>FW Test Pensions Death Approval - Mr ABC XYZ -  TST12345678 (25).msg</t>
+  </si>
+  <si>
+    <t>FW PRE-IDENTIFIED USER SUPPORT REQUEST - ABC.msg</t>
+  </si>
+  <si>
+    <t>RE Change of address 4.msg</t>
+  </si>
+  <si>
+    <t>PRE-IDENTIFIED USER SUPPORT REQUEST G.msg</t>
+  </si>
+  <si>
+    <t>Test Pension Plan.msg</t>
+  </si>
+  <si>
+    <t>TEST Death Approval  ABC XYZ - TST12345678.msg</t>
+  </si>
+  <si>
+    <t>Change of address Mr ABC XYZ.msg</t>
+  </si>
+  <si>
+    <t>FW EMPLOYEE NO 123456.msg</t>
+  </si>
+  <si>
+    <t>ABC - TEST Industries Pension Scheme - Death Notification .msg</t>
+  </si>
+  <si>
+    <t>FW Test Pension Scheme - Member Reference ZZ123123Z.msg</t>
+  </si>
+  <si>
+    <t>PRE-IDENTIFIED USER SUPPORT REQUEST.msg</t>
+  </si>
+  <si>
+    <t>FW ZZ123123Z.msg</t>
+  </si>
+  <si>
+    <t>ABC - Guaranteed Transfer Value - ZZ123123Z.msg</t>
+  </si>
+  <si>
+    <t>FW Registering via Fin Corp.msg</t>
+  </si>
+  <si>
+    <t>Test Pension Plan - TST12345678 ABC.msg</t>
+  </si>
+  <si>
+    <t>Our Reference 123456.msg</t>
+  </si>
+  <si>
+    <t>COB REQUEST.msg</t>
+  </si>
+  <si>
+    <t>TEST Pension Scheme  - Mr ABC XYZ.msg</t>
+  </si>
+  <si>
+    <t>RE Change of address.msg</t>
+  </si>
+  <si>
+    <t>TST12345678_ABC.msg</t>
+  </si>
+  <si>
+    <t>FW Test Pension Fund - Late Mr ABC XYZ.msg</t>
+  </si>
+  <si>
+    <t>DEF Pension Plan .msg</t>
+  </si>
+  <si>
+    <t>FW Fin Corp Error Report.msg</t>
+  </si>
+  <si>
+    <t>Change of Address  ABC.msg</t>
+  </si>
+  <si>
+    <t>RE Test Pension Scheme.msg</t>
+  </si>
+  <si>
+    <t>FW Test Pension Scheme - TST12345678 - ABC XYZ.msg</t>
+  </si>
+  <si>
+    <t>ABC XYZ - TST12345678 - ZZ123123Z.msg</t>
+  </si>
+  <si>
+    <t>DEF Pension Fund.msg</t>
+  </si>
+  <si>
+    <t>ABC XYZ deceased.msg</t>
+  </si>
+  <si>
+    <t>FW ABC ref. TST12345678 For the attention of Test Pensions.msg</t>
+  </si>
+  <si>
+    <t>FW Transfer Request Mr XYZZ 100 Your Ref TST12345678.msg</t>
+  </si>
+  <si>
+    <t>FW Test Pension Fund - ABC.msg</t>
+  </si>
+  <si>
+    <t>FW Test Pension Scheme - Mrs ABC.msg</t>
+  </si>
+  <si>
+    <t>TEST Pension Plan - Update address.msg</t>
+  </si>
+  <si>
+    <t>FW Test Pension Fund - Mr ABC XYZ.msg</t>
+  </si>
+  <si>
+    <t>FW Final Transfer Value.msg</t>
+  </si>
+  <si>
+    <t>ABC XYZ - ZZ123123Z.msg</t>
+  </si>
+  <si>
+    <t>XYZ - TST12345678 - CETV Forms URGENT.msg</t>
+  </si>
+  <si>
+    <t>RE Change of details.msg</t>
+  </si>
+  <si>
+    <t>FW Bonjour!.msg</t>
+  </si>
+  <si>
+    <t>PRE-IDENTIFIED USER SUPPORT REQUEST Pension uptake at 60.msg</t>
+  </si>
+  <si>
+    <t>FW ABC XYZ.msg</t>
+  </si>
+  <si>
+    <t>Test Salaried Contributory Pension Fund - Mr ABC XYZ.msg</t>
+  </si>
+  <si>
+    <t>ABC TST12345678 - ZZ123123Z- 01011400.msg</t>
+  </si>
+  <si>
+    <t>FW Test pension.TST12345678.msg</t>
+  </si>
+  <si>
+    <t>TEST Retirement and Death Benefits Plan -Mr ABCD.msg</t>
+  </si>
+  <si>
+    <t>Test Pension Plan - Mr ABC.msg</t>
+  </si>
+  <si>
+    <t>FW Mrs ABC XYZ  TST12345678  ZZ123123Z - QUERY.msg</t>
+  </si>
+  <si>
+    <t>FW Mr ABC XYZ - Early Retirement Quote - Request .msg</t>
+  </si>
+  <si>
+    <t>FW Test Pension Scheme - ABC XYZ.msg</t>
+  </si>
+  <si>
+    <t>FW Change of Address - ABC.msg</t>
+  </si>
+  <si>
+    <t>Urgent pension transfer request.msg</t>
+  </si>
+  <si>
+    <t>FW Extending decision time  .msg</t>
+  </si>
+  <si>
+    <t>Change of address_ABC.msg</t>
+  </si>
+  <si>
+    <t>URGENT ABC TST12345678.msg</t>
+  </si>
+  <si>
+    <t>Change of address - abc.xyz.msg</t>
+  </si>
+  <si>
+    <t>FW ABC XYZ  Secure Internet Mail.msg</t>
+  </si>
+  <si>
+    <t>Test Pension Scheme Reference TST12345678.msg</t>
+  </si>
+  <si>
+    <t>FW Pension Retirement Pack ABC XYZ.msg</t>
+  </si>
+  <si>
+    <t>FW Test Pensions Plan - Mr ABC XYZ EXTERNAL.msg</t>
+  </si>
+  <si>
+    <t>FW Test Pension Scheme.msg</t>
+  </si>
+  <si>
+    <t>Change of address for TEST pension.msg</t>
+  </si>
+  <si>
+    <t>FW WARNING MESSAGE ENCRYPTEDRetirement Options form - Test Pension Scheme - TST12345678MESSAGE ENCRYPTED.msg</t>
+  </si>
+  <si>
+    <t>Test Pension Plan - ABC .msg</t>
+  </si>
+  <si>
+    <t>FW Test Pensions Query.msg</t>
+  </si>
+  <si>
+    <t>LOA - Transfer Value Request.msg</t>
+  </si>
+  <si>
+    <t>FW Mr ABC XYZ - TST12345678 - Test Pension Fund 2.msg</t>
+  </si>
+  <si>
+    <t>Test Pension Scheme - Test Section.msg</t>
+  </si>
+  <si>
+    <t>TEST Pension Plan - ABC.msg</t>
+  </si>
+  <si>
+    <t>RE Burger Fries FIN 100000 retirement quote.msg</t>
+  </si>
+  <si>
+    <t>TST12345678 Mr ABC XYZ.msg</t>
+  </si>
+  <si>
+    <t>DEF Retirement and Employee Scheme.msg</t>
+  </si>
+  <si>
+    <t>ABC - ZZ123123Z.msg</t>
+  </si>
+  <si>
+    <t>FW Test pensions Death Approval - Mr ABC XYZ - TST12345678.msg</t>
+  </si>
+  <si>
+    <t>Change of Address - Mrs ABC.msg</t>
+  </si>
+  <si>
+    <t>TEST scheme - Ref TST12345678.msg</t>
+  </si>
+  <si>
+    <t>ABC.msg</t>
+  </si>
+  <si>
+    <t>FW Pension.msg</t>
+  </si>
+  <si>
+    <t>LMN Pension Fund  - DEF.msg</t>
+  </si>
+  <si>
+    <t>FW Test Pension Scheme - Test.msg</t>
+  </si>
+  <si>
+    <t>FW Test Pension Plan .msg</t>
+  </si>
+  <si>
+    <t>TEST PENSIONS PLAN.msg</t>
+  </si>
+  <si>
+    <t>FW Test pension questions - Resent .msg</t>
+  </si>
+  <si>
+    <t>Information Request - Letter of Authority attached (Ref TST12345678).msg</t>
+  </si>
+  <si>
+    <t>Test Group Pension Scheme .msg</t>
+  </si>
+  <si>
+    <t>Thank you for your e-mail to test.pensions@pensions.com.msg</t>
+  </si>
+  <si>
+    <t>Test Death Approval - LMNO (TST12345678).msg</t>
+  </si>
+  <si>
+    <t>CETV Request_Mr XYZ .msg</t>
+  </si>
+  <si>
+    <t>FW Test Pensions Fund - ABC XYZ - ZZ123123Z (Your Ref  TST12345678).msg</t>
+  </si>
+  <si>
+    <t>FW Test Pension Plan.msg</t>
+  </si>
+  <si>
+    <t>TST12345678.msg</t>
+  </si>
+  <si>
+    <t>FW Compensation.msg</t>
+  </si>
+  <si>
+    <t>FW Test Pension Fund 1.msg</t>
+  </si>
+  <si>
     <t>FW ABC XYZ Your Ref TST12345678 Our Ref 12345678.msg</t>
   </si>
   <si>
+    <t>Surname error.msg</t>
+  </si>
+  <si>
+    <t>FW Transfer Value - TEST Motor Company .msg</t>
+  </si>
+  <si>
+    <t>FW Request for Information - ABC XYZ.msg</t>
+  </si>
+  <si>
+    <t>ABC_Change of address.msg</t>
+  </si>
+  <si>
+    <t>FW Funeral Receipt for ABC XYZ.msg</t>
+  </si>
+  <si>
+    <t>RE CMG Payor Pension Scheme.msg</t>
+  </si>
+  <si>
+    <t>FW WARNING MESSAGE ENCRYPTEDOur Reference 12346MESSAGE ENCRYPTED.msg</t>
+  </si>
+  <si>
+    <t>FW Test Pension Scheme - ABC.msg</t>
+  </si>
+  <si>
+    <t>FW Pension .msg</t>
+  </si>
+  <si>
+    <t>FW Test Pensions Scheme - ABC XYZ.msg</t>
+  </si>
+  <si>
+    <t>RE Changing my home address.msg</t>
+  </si>
+  <si>
+    <t>FW Test Pension Scheme 1.msg</t>
+  </si>
+  <si>
+    <t>FW Your transfer value request - TEST Pension Scheme .msg</t>
+  </si>
+  <si>
+    <t>Member Address Change ZZ123123Z.msg</t>
+  </si>
+  <si>
+    <t>TEST Pension Plan - test.pensions.msg</t>
+  </si>
+  <si>
+    <t>Change of address (TST12345678).msg</t>
+  </si>
+  <si>
+    <t>FW Pension Information.msg</t>
+  </si>
+  <si>
+    <t>Test Pension Scheme - Test Section - TST12345678.msg</t>
+  </si>
+  <si>
+    <t>FW Test pension.msg</t>
+  </si>
+  <si>
+    <t>FW Mrs ABC XYZ TST12345678.msg</t>
+  </si>
+  <si>
+    <t>FW Change of address.msg</t>
+  </si>
+  <si>
+    <t>FW Test Pensions Death Approval - Mr ABC XYZ -  TST12345678 (11).msg</t>
+  </si>
+  <si>
+    <t>Change of address TEST.msg</t>
+  </si>
+  <si>
+    <t>ABC XYZ.msg</t>
+  </si>
+  <si>
+    <t>GHIJ Paid Pension Fund.msg</t>
+  </si>
+  <si>
+    <t>RE Change of address 2.msg</t>
+  </si>
+  <si>
+    <t>FW Ref TST12345678 Mr ABC XYZ Deceased.msg</t>
+  </si>
+  <si>
+    <t>FW TST12345678.msg</t>
+  </si>
+  <si>
+    <t>Test Trust Pension Plan.msg</t>
+  </si>
+  <si>
+    <t>ABC XYZ  CHANGE OF ADDRESS.msg</t>
+  </si>
+  <si>
+    <t>RE Ford Salaried member Homie.msg</t>
+  </si>
+  <si>
+    <t>Thank you for your email to test.pensions@pensions.com.msg</t>
+  </si>
+  <si>
+    <t>FW URGENT LMN - TEST AVC ABCD   (Our ref TST12345678) .msg</t>
+  </si>
+  <si>
+    <t>URGENT CETV GUARANTEE DATE ENDING - DEF.msg</t>
+  </si>
+  <si>
+    <t>Mr STU VWX.msg</t>
+  </si>
+  <si>
+    <t>Change of address ABC-XYZ.msg</t>
+  </si>
+  <si>
+    <t>WARNING MESSAGE ENCRYPTEDABC XYZ LOAMESSAGE ENCRYPTED.msg</t>
+  </si>
+  <si>
+    <t>TST12345678 ABC XYZ.msg</t>
+  </si>
+  <si>
+    <t>RE BenPal anomaly - early retirement figures.msg</t>
+  </si>
+  <si>
+    <t>ABC - TST12345678 Termination  PLEASE IGNORE PREVIOUS E-MAIL.msg</t>
+  </si>
+  <si>
+    <t>FW Test Pension Fund- ABC XYZ.msg</t>
+  </si>
+  <si>
+    <t>TEST Death Approval - ABCD (TST12345678).msg</t>
+  </si>
+  <si>
+    <t>Test Pension Fund.msg</t>
+  </si>
+  <si>
+    <t>FW WARNING MESSAGE ENCRYPTEDTest Pension Scheme MESSAGE ENCRYPTED (2).msg</t>
+  </si>
+  <si>
+    <t>ABC  Test Pensions (TST12345678) URGENT .msg</t>
+  </si>
+  <si>
+    <t>FW Change of details.msg</t>
+  </si>
+  <si>
+    <t>FW Pension triggered but no payment..msg</t>
+  </si>
+  <si>
+    <t>URGENT CETV GUARANTEE DATE ENDING - ABCD.msg</t>
+  </si>
+  <si>
+    <t>Test transfer - ABC.msg</t>
+  </si>
+  <si>
+    <t>RE TEST Pension Fund - our ref TST12345678 .msg</t>
+  </si>
+  <si>
+    <t>Change of addresss.msg</t>
+  </si>
+  <si>
+    <t>Change of Address-ABCD.msg</t>
+  </si>
+  <si>
+    <t>change of bank account.msg</t>
+  </si>
+  <si>
+    <t>Estate of  - TEST Pension Ref TST12345678 Tees00123456789000.msg</t>
+  </si>
+  <si>
+    <t>RE Change of Bank.msg</t>
+  </si>
+  <si>
+    <t>FW Test Pensions Scheme - ABC.msg</t>
+  </si>
+  <si>
+    <t>FW RBC Retirement Option Form.msg</t>
+  </si>
+  <si>
+    <t>Letter of Authority - ABC.msg</t>
+  </si>
+  <si>
+    <t>TEST Death Approval  ABC XYZ - TST12345678 (2).msg</t>
+  </si>
+  <si>
+    <t>FW WARNING MESSAGE ENCRYPTEDTest Pension Scheme MESSAGE ENCRYPTED.msg</t>
+  </si>
+  <si>
+    <t>FW telephone conversation.msg</t>
+  </si>
+  <si>
+    <t>FW Ref-  TST12345678.msg</t>
+  </si>
+  <si>
+    <t>TEST Pension Fund - Late Mr DEF.msg</t>
+  </si>
+  <si>
+    <t>Mr LMNO TEST Group Pension Scheme Ref TST12345678.msg</t>
+  </si>
+  <si>
+    <t>FW Early quotation.msg</t>
+  </si>
+  <si>
+    <t>FW 1023456789 Mr XYZ.msg</t>
+  </si>
+  <si>
+    <t>ABCD XX TST12345678.msg</t>
+  </si>
+  <si>
+    <t>FW Test Pension Scheme- Trivial Commutation Factors.msg</t>
+  </si>
+  <si>
+    <t>TEST Pension Plan - Mr ABCD.msg</t>
+  </si>
+  <si>
+    <t>Change of address - ABC XYZ.msg</t>
+  </si>
+  <si>
+    <t>PRE-IDENTIFIED USER SUPPORT REQUEST (2).msg</t>
+  </si>
+  <si>
+    <t>Moving my pension pot.msg</t>
+  </si>
+  <si>
+    <t>URGENT  CETV Value Request - Mr ABC XYZ Fin 123456.msg</t>
+  </si>
+  <si>
+    <t>FW FAO ABC XYZ ...Re Test Pension Fund.msg</t>
+  </si>
+  <si>
+    <t>Report of Death of a Pension Recipient.msg</t>
+  </si>
+  <si>
+    <t>FW Test Pensions - ABC XYZ - 123456.msg</t>
+  </si>
+  <si>
+    <t>Beneficiaries Data Form.msg</t>
+  </si>
+  <si>
+    <t>FW Pension Details .msg</t>
+  </si>
+  <si>
+    <t>DEF Trust Pension Plan .msg</t>
+  </si>
+  <si>
+    <t>ABCD QUERY.msg</t>
+  </si>
+  <si>
+    <t>TEST Pension Scheme - ref. ZZ123123ZTST12345678.msg</t>
+  </si>
+  <si>
+    <t>ABCChange of address.msg</t>
+  </si>
+  <si>
+    <t>Change of address - Ref TST12345678.msg</t>
+  </si>
+  <si>
+    <t>FW Pension transfer.msg</t>
+  </si>
+  <si>
+    <t>FW Addtional Information.msg</t>
+  </si>
+  <si>
+    <t>FW ZZ123123Z - ABC.msg</t>
+  </si>
+  <si>
+    <t>Mr ABC XYZTestZZ123123Z.msg</t>
+  </si>
+  <si>
+    <t>TEST Death Approval --- LMNO (TST12345678) (2).msg</t>
+  </si>
+  <si>
+    <t>FW Urgent Confirmation Required - Payment Received.msg</t>
+  </si>
+  <si>
+    <t>FW Pension value reads as nil.msg</t>
+  </si>
+  <si>
+    <t>FW Retirement Quotian.msg</t>
+  </si>
+  <si>
+    <t>FW Pension Ref-TST12345678.msg</t>
+  </si>
+  <si>
+    <t>Pension forecast - ABC XYZ.msg</t>
+  </si>
+  <si>
+    <t>ABC XYZ - TST12345678 Termination  .msg</t>
+  </si>
+  <si>
+    <t>Test Pension Scheme.msg</t>
+  </si>
+  <si>
+    <t>FW Test Pensions Scheme.msg</t>
+  </si>
+  <si>
+    <t>FW Updated Address and contact details.msg</t>
+  </si>
+  <si>
+    <t>Test Salaried Contributory Pension Fund - XYZ.msg</t>
+  </si>
+  <si>
+    <t>change of address - ABC.msg</t>
+  </si>
+  <si>
+    <t>FW Pension ref. TST12345678.msg</t>
+  </si>
+  <si>
+    <t>FW PRE-IDENTIFIED USER SUPPORT REQUEST - Pension Quote.msg</t>
+  </si>
+  <si>
+    <t>FW Test Pension Scheme- ABC XYZ.msg<